--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBAC6EF-2ED5-4889-BD73-BCE9A2FBF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F924C8F-1FE0-489D-B436-CA9E42226A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="557">
   <si>
     <t>ID</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Ackerschta</t>
   </si>
   <si>
-    <t>Dr Ratsch</t>
-  </si>
-  <si>
     <t>Fladdermüs</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
   </si>
   <si>
     <t>Holdera</t>
-  </si>
-  <si>
-    <t>a̠=ganz offenes a, a=geschlossenes a</t>
   </si>
   <si>
     <t>III_17_0009</t>
@@ -1034,9 +1028,6 @@
     </r>
   </si>
   <si>
-    <t>Merke: Der unterstrichene Vokal steht in der betonten Silbe. ä̀ ist ei Laut zwischen a und ä. ǜ ist ein Laut zwischen u und ü. [???]</t>
-  </si>
-  <si>
     <t>III_17_0037</t>
   </si>
   <si>
@@ -1184,9 +1175,6 @@
     <t>der VIII.Kl.</t>
   </si>
   <si>
-    <t>Anmerkung: Alle Endungen "e" sind beim Sprechen nach "ä" hin abgetönt, alle st=scht oder schd - die meisten "t" nach "d" - "k" nach "ch" oder "g"</t>
-  </si>
-  <si>
     <t>Ameise, Omeise</t>
   </si>
   <si>
@@ -1238,12 +1226,6 @@
     <t>Stricknoodle</t>
   </si>
   <si>
-    <t>Schüsseli, Plättli (unten)</t>
-  </si>
-  <si>
-    <t>zweie. zwiige</t>
-  </si>
-  <si>
     <t>Schwiegerdochder</t>
   </si>
   <si>
@@ -1625,9 +1607,6 @@
     <t>Strecknodla</t>
   </si>
   <si>
-    <t>Tassa[,] Taler</t>
-  </si>
-  <si>
     <t>verarda</t>
   </si>
   <si>
@@ -1724,9 +1703,6 @@
     <t>Streggnudle (w)</t>
   </si>
   <si>
-    <t>Schessele [d]ollerle</t>
-  </si>
-  <si>
     <t>Hafe (m)</t>
   </si>
   <si>
@@ -1787,9 +1763,6 @@
     <t>Hardepfel</t>
   </si>
   <si>
-    <t>Koleraba[,] galariaba</t>
-  </si>
-  <si>
     <t>M[o]r</t>
   </si>
   <si>
@@ -1940,18 +1913,12 @@
     <t>Ähmt (s)</t>
   </si>
   <si>
-    <t>Gagumra (w) {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>Budda (w)</t>
   </si>
   <si>
     <t>Guckel (m), Gluckeri (w)</t>
   </si>
   <si>
-    <t>Hebamm (w) {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>Hardäpfel (m)</t>
   </si>
   <si>
@@ -1970,12 +1937,6 @@
     <t>schempfa</t>
   </si>
   <si>
-    <t>Spatz (m) {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
-    <t>Schtachelbäri (w) {1. a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>Guufa (w)</t>
   </si>
   <si>
@@ -1985,9 +1946,6 @@
     <t>schessale (s), Dallerle (s)</t>
   </si>
   <si>
-    <t>Hafa (m) {1. a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>Gaiss (w)</t>
   </si>
   <si>
@@ -2039,15 +1997,6 @@
     <t>Ähmd (s)</t>
   </si>
   <si>
-    <t>Gagummere {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
-    <t>Budda (w) {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
-    <t>Huggl, Huan {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>Hebamm (s)</t>
   </si>
   <si>
@@ -2057,22 +2006,10 @@
     <t>Schär (m)</t>
   </si>
   <si>
-    <t>Gallrabe (w) {a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>Gedda (m)</t>
   </si>
   <si>
-    <t>Riême (m)</t>
-  </si>
-  <si>
-    <t>Pflûme</t>
-  </si>
-  <si>
     <t>a'briäle</t>
-  </si>
-  <si>
-    <t>Schbatz (m) {a=ḁ aber mit ° über dem a nicht drunter}</t>
   </si>
   <si>
     <r>
@@ -2111,15 +2048,9 @@
     <t>Tässele</t>
   </si>
   <si>
-    <t>Hafa (m) {1.a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>zwiega</t>
   </si>
   <si>
-    <t>Hallara (w) {2. a=ḁ aber mit ° über dem a nicht drunter}</t>
-  </si>
-  <si>
     <t>III_17_0077</t>
   </si>
   <si>
@@ -2177,9 +2108,6 @@
     <t>Galariaba</t>
   </si>
   <si>
-    <t>So[i] {i mit umlaut?}</t>
-  </si>
-  <si>
     <t>Gädi</t>
   </si>
   <si>
@@ -2193,6 +2121,75 @@
   </si>
   <si>
     <t>[z]wiga</t>
+  </si>
+  <si>
+    <t>Hebåmm (w)</t>
+  </si>
+  <si>
+    <t>Gågumra (w)</t>
+  </si>
+  <si>
+    <t>Spåtz (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schtåchelbäri (w) </t>
+  </si>
+  <si>
+    <t>Håfa (m)</t>
+  </si>
+  <si>
+    <t>&lt;a̠=ganz offenes a, a=geschlossenes a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Merke: Der unterstrichene Vokal steht in der betonten Silbe. ä̀ ist ei Laut zwischen a und ä. ǜ ist ein Laut zwischen u und ü. [???]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anmerkung: Alle Endungen "e" sind beim Sprechen nach "ä" hin abgetönt, alle st=scht oder schd - die meisten "t" nach "d" - "k" nach "ch" oder "g"&gt;</t>
+  </si>
+  <si>
+    <t>Hallarå (w)</t>
+  </si>
+  <si>
+    <t>Schbåtz (m)</t>
+  </si>
+  <si>
+    <t>Gållråbe (w)</t>
+  </si>
+  <si>
+    <t>Huggl, Huån</t>
+  </si>
+  <si>
+    <t>Buddå (w)</t>
+  </si>
+  <si>
+    <t>Gågummere</t>
+  </si>
+  <si>
+    <t>Pflûme</t>
+  </si>
+  <si>
+    <t>Riême (m)</t>
+  </si>
+  <si>
+    <t>Soï</t>
+  </si>
+  <si>
+    <t>zweie, zwiige</t>
+  </si>
+  <si>
+    <t>Schessele, [d]ollerle</t>
+  </si>
+  <si>
+    <t>Schüsseli, Plättli &lt;unten&gt;</t>
+  </si>
+  <si>
+    <t>Tassa, Taler</t>
+  </si>
+  <si>
+    <t>Ratsch (dr)</t>
+  </si>
+  <si>
+    <t>Koleraba, galariaba</t>
   </si>
 </sst>
 </file>
@@ -2637,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB34"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AZ17" sqref="AZ17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2661,11 +2658,15 @@
     <col min="22" max="22" width="15.5" customWidth="1"/>
     <col min="23" max="23" width="10.69921875" customWidth="1"/>
     <col min="24" max="24" width="17.09765625" customWidth="1"/>
-    <col min="25" max="31" width="10.69921875" customWidth="1"/>
+    <col min="25" max="30" width="10.69921875" customWidth="1"/>
+    <col min="31" max="31" width="14.296875" customWidth="1"/>
     <col min="32" max="32" width="16.59765625" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
     <col min="34" max="34" width="21.19921875" customWidth="1"/>
-    <col min="35" max="50" width="10.69921875" customWidth="1"/>
+    <col min="35" max="45" width="10.69921875" customWidth="1"/>
+    <col min="46" max="46" width="16.09765625" customWidth="1"/>
+    <col min="47" max="47" width="21.19921875" customWidth="1"/>
+    <col min="48" max="50" width="10.69921875" customWidth="1"/>
     <col min="51" max="51" width="10.69921875" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.69921875" customWidth="1"/>
     <col min="53" max="53" width="19" style="1" customWidth="1"/>
@@ -2859,7 +2860,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>57</v>
@@ -2894,7 +2895,9 @@
       <c r="T2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="5"/>
+      <c r="U2" s="5">
+        <v>999</v>
+      </c>
       <c r="V2" s="2" t="s">
         <v>66</v>
       </c>
@@ -2911,85 +2914,85 @@
         <v>70</v>
       </c>
       <c r="AA2" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AZ2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -3012,13 +3015,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>58</v>
@@ -3027,7 +3030,7 @@
         <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
@@ -3036,121 +3039,121 @@
         <v>62</v>
       </c>
       <c r="P3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>103</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>104</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>105</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>67</v>
       </c>
       <c r="X3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="AI3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AM3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AR3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AS3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AU3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AV3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AY3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AZ3" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="BB3" t="s">
-        <v>138</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3173,143 +3176,145 @@
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>58</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="R4" s="11">
         <v>999</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="13">
+        <v>999</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14" t="s">
+      <c r="X4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AD4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AF4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AL4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AK4" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AN4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AM4" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AP4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AR4" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AS4" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AT4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AU4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AS4" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="AT4" s="11" t="s">
+      <c r="AV4" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AW4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AX4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AW4" s="11" t="s">
+      <c r="AY4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="AX4" s="11" t="s">
+      <c r="AZ4" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="BA4" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="AZ4" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA4" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="BB4" s="11" t="s">
-        <v>178</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -3332,145 +3337,145 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J5" t="s">
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R5">
         <v>999</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AK5" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AL5" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AM5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN5" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AO5" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AP5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AM5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AR5" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AP5" s="10" t="s">
+      <c r="AS5" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AT5" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="AU5" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AV5" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AX5" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AY5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AZ5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AX5" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>216</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="BB5" s="10" t="s">
-        <v>228</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -3484,7 +3489,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -3493,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I6">
         <v>520</v>
@@ -3505,28 +3510,28 @@
         <v>730</v>
       </c>
       <c r="K6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" t="s">
+        <v>219</v>
+      </c>
+      <c r="N6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" t="s">
         <v>220</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>221</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>222</v>
       </c>
-      <c r="N6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>223</v>
-      </c>
-      <c r="P6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>225</v>
-      </c>
-      <c r="R6" t="s">
-        <v>226</v>
       </c>
       <c r="S6">
         <v>999</v>
@@ -3535,103 +3540,103 @@
         <v>65</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="X6" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA6" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="AB6" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="AC6" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="AD6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE6" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AF6" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AG6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AH6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AD6" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AK6" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AL6" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AM6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO6" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="AH6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AP6" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AQ6" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AR6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU6" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="AM6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO6" s="10" t="s">
+      <c r="AV6" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA6" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="AP6" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ6" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR6" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS6" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT6" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AU6" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV6" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="AW6" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX6" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ6" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -3654,34 +3659,34 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
         <v>104</v>
       </c>
-      <c r="O7" t="s">
-        <v>105</v>
-      </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R7">
         <v>999</v>
@@ -3690,103 +3695,106 @@
         <v>999</v>
       </c>
       <c r="T7" t="s">
+        <v>249</v>
+      </c>
+      <c r="U7" s="1">
+        <v>999</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB7" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="AC7" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="AD7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG7" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="X7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="AH7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="AJ7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK7" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AL7" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AM7" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AN7" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO7" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="AD7" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AP7" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AH7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AQ7" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AJ7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK7" s="10" t="s">
+      <c r="AR7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS7" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AL7" s="10" t="s">
+      <c r="AT7" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AU7" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AN7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO7" s="10" t="s">
+      <c r="AV7" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AP7" s="10" t="s">
+      <c r="AW7" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AQ7" s="10" t="s">
+      <c r="AX7" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA7" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
@@ -3809,34 +3817,34 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
-        <v>105</v>
-      </c>
       <c r="P8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="R8">
         <v>999</v>
@@ -3847,101 +3855,104 @@
       <c r="T8" t="s">
         <v>65</v>
       </c>
+      <c r="U8" s="1">
+        <v>999</v>
+      </c>
       <c r="V8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB8" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="AC8" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="AD8" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="AE8" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AF8" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AG8" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AH8" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AI8" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AJ8" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AK8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="AF8" s="10" t="s">
+      <c r="AL8" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AM8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="AH8" s="10" t="s">
+      <c r="AN8" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AO8" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="AJ8" s="10" t="s">
+      <c r="AP8" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="AK8" s="10" t="s">
+      <c r="AQ8" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="AR8" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="AS8" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="AN8" s="10" t="s">
+      <c r="AT8" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="AO8" s="10" t="s">
+      <c r="AU8" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="AP8" s="10" t="s">
+      <c r="AV8" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="AQ8" s="10" t="s">
+      <c r="AW8" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="AR8" s="10" t="s">
+      <c r="AX8" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="AZ8" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="BA8" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="AT8" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
@@ -3964,34 +3975,34 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="O9" t="s">
-        <v>105</v>
-      </c>
       <c r="P9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="R9">
         <v>999</v>
@@ -4002,101 +4013,104 @@
       <c r="T9" t="s">
         <v>65</v>
       </c>
+      <c r="U9" s="1">
+        <v>999</v>
+      </c>
       <c r="V9" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB9" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="AC9" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="AD9" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="AE9" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="AF9" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AG9" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AH9" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AJ9" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AK9" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="AF9" s="10" t="s">
+      <c r="AL9" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="AG9" s="10" t="s">
+      <c r="AM9" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="AH9" s="10" t="s">
+      <c r="AN9" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="AI9" s="10" t="s">
+      <c r="AO9" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AP9" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="AK9" s="10" t="s">
+      <c r="AQ9" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="AL9" s="10" t="s">
+      <c r="AR9" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="AM9" s="10" t="s">
+      <c r="AS9" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="AN9" s="10" t="s">
+      <c r="AT9" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="AO9" s="10" t="s">
+      <c r="AU9" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="AP9" s="10" t="s">
+      <c r="AV9" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="AQ9" s="10" t="s">
+      <c r="AW9" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="AR9" s="10" t="s">
+      <c r="AX9" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AS9" s="10" t="s">
+      <c r="AZ9" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="BA9" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="AT9" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU9" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV9" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AW9" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
@@ -4119,139 +4133,142 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" t="s">
+        <v>315</v>
+      </c>
+      <c r="L10" t="s">
+        <v>316</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>321</v>
+      </c>
+      <c r="R10" t="s">
         <v>320</v>
-      </c>
-      <c r="J10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K10" t="s">
-        <v>321</v>
-      </c>
-      <c r="L10" t="s">
-        <v>322</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>327</v>
-      </c>
-      <c r="R10" t="s">
-        <v>326</v>
       </c>
       <c r="S10">
         <v>999</v>
       </c>
       <c r="T10" t="s">
-        <v>255</v>
+        <v>249</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
       </c>
       <c r="V10" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA10" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="AB10" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="X10" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y10" s="10" t="s">
+      <c r="AC10" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE10" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="AF10" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG10" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AH10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AI10" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AC10" s="10" t="s">
+      <c r="AJ10" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AK10" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AL10" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="AF10" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG10" s="10" t="s">
+      <c r="AM10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN10" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="AH10" s="10" t="s">
+      <c r="AO10" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="AI10" s="10" t="s">
+      <c r="AP10" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="AJ10" s="10" t="s">
+      <c r="AQ10" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS10" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="AK10" s="10" t="s">
+      <c r="AT10" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="AL10" s="10" t="s">
+      <c r="AU10" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="AM10" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN10" s="10" t="s">
+      <c r="AV10" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AO10" s="10" t="s">
+      <c r="AW10" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="AP10" s="10" t="s">
+      <c r="AX10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="AQ10" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS10" s="10" t="s">
+      <c r="AY10" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AT10" s="10" t="s">
+      <c r="AZ10" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="BA10" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="AU10" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV10" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="AW10" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="AX10" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AZ10" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -4274,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
@@ -4289,7 +4306,7 @@
         <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="N11" t="s">
         <v>61</v>
@@ -4312,101 +4329,104 @@
       <c r="T11">
         <v>999</v>
       </c>
+      <c r="U11" s="1">
+        <v>999</v>
+      </c>
       <c r="V11" s="10" t="s">
         <v>66</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AA11">
         <v>999</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AF11">
         <v>999</v>
       </c>
       <c r="AG11" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO11" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="AH11" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AI11" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AP11" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="AK11" s="10" t="s">
+      <c r="AQ11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS11" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AL11" s="10" t="s">
+      <c r="AT11" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU11" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="AW11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX11" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY11" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AM11" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP11" s="10" t="s">
+      <c r="AZ11" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA11" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="AQ11" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR11" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS11" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT11" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU11" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="AW11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX11" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -4429,34 +4449,34 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N12" t="s">
         <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Q12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="R12">
         <v>999</v>
@@ -4465,106 +4485,106 @@
         <v>999</v>
       </c>
       <c r="T12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB12" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="AC12" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD12" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="AE12" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="X12" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y12" s="10" t="s">
+      <c r="AF12" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="AG12" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AH12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI12" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AJ12" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AK12" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AL12" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="AE12" s="10" t="s">
+      <c r="AM12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN12" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="AF12" s="10" t="s">
+      <c r="AO12" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="AG12" s="10" t="s">
+      <c r="AP12" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="AH12" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI12" s="10" t="s">
+      <c r="AQ12" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="AJ12" s="10" t="s">
+      <c r="AR12" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS12" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="AK12" s="10" t="s">
+      <c r="AT12" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU12" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="AL12" s="10" t="s">
+      <c r="AV12" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="AW12" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="AM12" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN12" s="10" t="s">
+      <c r="AX12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ12" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="BA12" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="AO12" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="AP12" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="AQ12" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="AR12" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS12" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="AT12" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU12" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="AV12" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="AW12" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ12" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -4587,22 +4607,22 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
         <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>100</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L13" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="N13" t="s">
         <v>61</v>
@@ -4614,10 +4634,10 @@
         <v>888</v>
       </c>
       <c r="Q13" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="R13" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="S13">
         <v>999</v>
@@ -4625,101 +4645,104 @@
       <c r="T13" t="s">
         <v>65</v>
       </c>
+      <c r="U13" s="1">
+        <v>999</v>
+      </c>
       <c r="V13" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB13" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="AC13" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF13" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="X13" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z13" s="10" t="s">
+      <c r="AG13" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AJ13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="AM13" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AN13" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT13" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="AC13" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD13" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE13" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AU13" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AV13" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="AH13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI13" s="10" t="s">
+      <c r="AW13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX13" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="AJ13" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL13" s="10" t="s">
+      <c r="AY13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="BA13" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="AM13" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN13" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="AO13" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP13" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="AQ13" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="AR13" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS13" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="AT13" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="AU13" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="AV13" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AW13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -4742,34 +4765,34 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L14" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N14" t="s">
         <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q14" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="R14">
         <v>999</v>
@@ -4780,101 +4803,104 @@
       <c r="T14">
         <v>999</v>
       </c>
+      <c r="U14" s="1">
+        <v>999</v>
+      </c>
       <c r="V14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF14" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="AG14" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH14" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="AI14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK14" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="Y14" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z14" s="10" t="s">
+      <c r="AL14" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AM14" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AN14" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AO14" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="AD14" s="10" t="s">
+      <c r="AP14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="AE14" s="10" t="s">
+      <c r="AR14" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS14" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="AF14" s="10" t="s">
+      <c r="AT14" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="AG14" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="AH14" s="10" t="s">
+      <c r="AU14" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV14" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="AI14" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AJ14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK14" s="10" t="s">
+      <c r="AW14" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX14" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="AL14" s="10" t="s">
+      <c r="AY14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ14" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="AM14" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="AN14" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="AO14" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="AP14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ14" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="AR14" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS14" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="AT14" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="AU14" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV14" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="AW14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ14" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="BA14" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -4897,34 +4923,34 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
         <v>99</v>
-      </c>
-      <c r="I15" t="s">
-        <v>100</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L15" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="N15" t="s">
         <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P15" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="Q15" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="R15">
         <v>999</v>
@@ -4933,106 +4959,106 @@
         <v>999</v>
       </c>
       <c r="T15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF15" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG15" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AH15" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="AI15" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AJ15" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK15" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AL15" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AM15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN15" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AO15" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP15" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB15" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AQ15" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AR15" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS15" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT15" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="AE15" s="10" t="s">
+      <c r="AU15" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="AF15" s="10" t="s">
+      <c r="AV15" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="AG15" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="AM15" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN15" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP15" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AQ15" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="AR15" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="AS15" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="AT15" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="AU15" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="AV15" s="10" t="s">
-        <v>494</v>
-      </c>
       <c r="AW15" s="10" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="AX15">
         <v>999</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AZ15" s="10" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -5055,34 +5081,34 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="H16" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="L16" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="N16" t="s">
         <v>61</v>
       </c>
       <c r="O16" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="P16" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="Q16" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="R16">
         <v>999</v>
@@ -5091,106 +5117,106 @@
         <v>999</v>
       </c>
       <c r="T16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AH16" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ16" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK16" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL16" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN16" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="AO16" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="AP16" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ16" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR16" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="AS16" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="W16" s="10" t="s">
+      <c r="AT16" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AU16" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="AV16" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="Y16" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z16" s="10" t="s">
+      <c r="AW16" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="AX16" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="AA16" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB16" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="AE16" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="AF16" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="AG16" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="AI16" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="AJ16" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="AK16" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="AL16" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="AM16" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN16" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="AO16" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="AP16" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ16" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="AR16" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS16" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="AT16" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU16" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AV16" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AW16" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="AY16" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AZ16" s="10" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
@@ -5213,34 +5239,34 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I17" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="J17" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="K17" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="L17" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="N17" t="s">
         <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="P17" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="Q17" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="R17">
         <v>999</v>
@@ -5251,101 +5277,104 @@
       <c r="T17">
         <v>999</v>
       </c>
+      <c r="U17" s="1">
+        <v>999</v>
+      </c>
       <c r="V17" s="10" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="AI17" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL17" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM17" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="AJ17" s="10" t="s">
+      <c r="AN17" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO17" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP17" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="AK17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL17" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="AM17" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="AN17" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="AO17" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP17" s="10" t="s">
-        <v>371</v>
-      </c>
       <c r="AQ17" s="10" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AS17" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT17" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="AV17" s="10" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="AW17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AZ17" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
@@ -5390,12 +5419,6 @@
       </c>
       <c r="D21" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="e">
-        <f>+G37F34F34:F43</f>
-        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F924C8F-1FE0-489D-B436-CA9E42226A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58240A0F-0732-4DAF-9AF9-1D435336CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="1344" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="701">
   <si>
     <t>ID</t>
   </si>
@@ -2190,6 +2190,542 @@
   </si>
   <si>
     <t>Koleraba, galariaba</t>
+  </si>
+  <si>
+    <t>III_17_0074</t>
+  </si>
+  <si>
+    <t>y-D</t>
+  </si>
+  <si>
+    <t>Lutter</t>
+  </si>
+  <si>
+    <t>Ober-Elsaß</t>
+  </si>
+  <si>
+    <t>Alfons Schoffit</t>
+  </si>
+  <si>
+    <t>Kolmar</t>
+  </si>
+  <si>
+    <t>Omeisala (w, a)</t>
+  </si>
+  <si>
+    <t>Licht (w, d')</t>
+  </si>
+  <si>
+    <t>Brombära (m, a)</t>
+  </si>
+  <si>
+    <t>Dissel (m, d'r)</t>
+  </si>
+  <si>
+    <t>Agerschta (w, a)</t>
+  </si>
+  <si>
+    <t>ganker &lt;Ratscher&gt;</t>
+  </si>
+  <si>
+    <t>Fladermüs (w, a)</t>
+  </si>
+  <si>
+    <t>Mocka (w, d')</t>
+  </si>
+  <si>
+    <t>Ähmt (s, s')</t>
+  </si>
+  <si>
+    <t>Gak[um]mera (m)</t>
+  </si>
+  <si>
+    <t>Butta (w, d')</t>
+  </si>
+  <si>
+    <t>Gockel (d'r), Glockeri (die)</t>
+  </si>
+  <si>
+    <t>Hebamm (w, d')</t>
+  </si>
+  <si>
+    <t>Hardäpfel (m, a)</t>
+  </si>
+  <si>
+    <t>Chatz (m, d')</t>
+  </si>
+  <si>
+    <t>Schar (m, d'r)</t>
+  </si>
+  <si>
+    <t>Rüaba (m, d'r)</t>
+  </si>
+  <si>
+    <t>Moor (w, a)</t>
+  </si>
+  <si>
+    <t>Getti (m)</t>
+  </si>
+  <si>
+    <t>Riama (d'r)</t>
+  </si>
+  <si>
+    <t>Pflüma (w, d')</t>
+  </si>
+  <si>
+    <t>abriala</t>
+  </si>
+  <si>
+    <t>Spatz (m, a)</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (w, d')</t>
+  </si>
+  <si>
+    <t>Stecknodl[a] (w, a)</t>
+  </si>
+  <si>
+    <t>Strecknodla (w, a)</t>
+  </si>
+  <si>
+    <t>Schessale (s, a)</t>
+  </si>
+  <si>
+    <t>Hafa (m, d'r)</t>
+  </si>
+  <si>
+    <t>Geiß (d')</t>
+  </si>
+  <si>
+    <t>Schwegertochter (w, d')</t>
+  </si>
+  <si>
+    <t>Hollera (m, d'r)</t>
+  </si>
+  <si>
+    <t>Leimen</t>
+  </si>
+  <si>
+    <t>Mülhausen</t>
+  </si>
+  <si>
+    <t>Ober-Elsass</t>
+  </si>
+  <si>
+    <t>Ueberschlag Julius</t>
+  </si>
+  <si>
+    <t>Neuweiler</t>
+  </si>
+  <si>
+    <t>Müllhausen</t>
+  </si>
+  <si>
+    <t>III_17_0073</t>
+  </si>
+  <si>
+    <t>b"</t>
+  </si>
+  <si>
+    <t>Y[1]</t>
+  </si>
+  <si>
+    <t>25,00</t>
+  </si>
+  <si>
+    <t>Liecht (a)</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>Geckel, Huhn</t>
+  </si>
+  <si>
+    <t>Herdäpfel</t>
+  </si>
+  <si>
+    <t>Schermaus</t>
+  </si>
+  <si>
+    <t>Mohrrübe</t>
+  </si>
+  <si>
+    <t>Getti</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>schette[r]</t>
+  </si>
+  <si>
+    <t>zweigen</t>
+  </si>
+  <si>
+    <t>Sohnsfrau</t>
+  </si>
+  <si>
+    <t>Hollera</t>
+  </si>
+  <si>
+    <t>Oltingen</t>
+  </si>
+  <si>
+    <t>Ob. Elsass</t>
+  </si>
+  <si>
+    <t>Josef Haab</t>
+  </si>
+  <si>
+    <t>O. Elsass</t>
+  </si>
+  <si>
+    <t>III_17_0072</t>
+  </si>
+  <si>
+    <t>y-g</t>
+  </si>
+  <si>
+    <t>y-[J] {oder G}</t>
+  </si>
+  <si>
+    <t>Omeisala (w)</t>
+  </si>
+  <si>
+    <t>Licht (s) &lt;Liecht&gt;</t>
+  </si>
+  <si>
+    <t>Agarschta (w)</t>
+  </si>
+  <si>
+    <t>Fladermus (w)</t>
+  </si>
+  <si>
+    <t>Mucha' (w)</t>
+  </si>
+  <si>
+    <t>Ga'gummere (w)</t>
+  </si>
+  <si>
+    <t>Gickel, Huehn</t>
+  </si>
+  <si>
+    <t>Hebamm[e]</t>
+  </si>
+  <si>
+    <t>Brumbeer[e'] (w)</t>
+  </si>
+  <si>
+    <t>Rolle' (m)</t>
+  </si>
+  <si>
+    <t>Schaar (m)</t>
+  </si>
+  <si>
+    <t>Ga[l]riabe (w)</t>
+  </si>
+  <si>
+    <t>Gette (m)</t>
+  </si>
+  <si>
+    <t>Riama' (s)</t>
+  </si>
+  <si>
+    <t>Pflüma (w)</t>
+  </si>
+  <si>
+    <t>abrialla</t>
+  </si>
+  <si>
+    <t>Schpatz (m)</t>
+  </si>
+  <si>
+    <t>Chrüselbeere (w)</t>
+  </si>
+  <si>
+    <t>Stricknodla (w)</t>
+  </si>
+  <si>
+    <t>Schissele' (s)</t>
+  </si>
+  <si>
+    <t>Hollara (s)</t>
+  </si>
+  <si>
+    <t>Hafe, [K]herle' (s)</t>
+  </si>
+  <si>
+    <r>
+      <t>[k]h und ch überall auszusürechen wie ch in na</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lo</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ch</t>
+    </r>
+  </si>
+  <si>
+    <t>III_17_0071</t>
+  </si>
+  <si>
+    <t>y-F</t>
+  </si>
+  <si>
+    <t>Bidertal</t>
+  </si>
+  <si>
+    <t>Wilh. Wechlin</t>
+  </si>
+  <si>
+    <t>Freiburg [i Br]</t>
+  </si>
+  <si>
+    <t>Lehrer ist über 14 Jahre in bad. Mu[????]äslerland, kennt Mundart. Ist ahnlich wie im bad. Oberland</t>
+  </si>
+  <si>
+    <t>Hollärä</t>
+  </si>
+  <si>
+    <t>Hätzlä</t>
+  </si>
+  <si>
+    <t>Rätsch (e)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fläderm</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Mouggä</t>
+  </si>
+  <si>
+    <t>Ähmd</t>
+  </si>
+  <si>
+    <t>Gagummerä</t>
+  </si>
+  <si>
+    <t>Buddä &lt;ä ganz kurz&gt;</t>
+  </si>
+  <si>
+    <t>Giggel, Hüen</t>
+  </si>
+  <si>
+    <t>Härdepfel</t>
+  </si>
+  <si>
+    <r>
+      <t>Chatz</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolli</t>
+    </r>
+  </si>
+  <si>
+    <t>Schärmüüs</t>
+  </si>
+  <si>
+    <t>Galrüebli</t>
+  </si>
+  <si>
+    <r>
+      <t>Ri</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>händle</t>
+  </si>
+  <si>
+    <t>Stecknodle</t>
+  </si>
+  <si>
+    <t>Schricknodle</t>
+  </si>
+  <si>
+    <t>erdige[,] Hafe (e)</t>
+  </si>
+  <si>
+    <t>III_17_0070</t>
+  </si>
+  <si>
+    <t>y-X</t>
+  </si>
+  <si>
+    <t>Winkel  &lt;=Lützel&gt;</t>
+  </si>
+  <si>
+    <t>Felder</t>
+  </si>
+  <si>
+    <t>Natsweiler</t>
+  </si>
+  <si>
+    <t>Vergräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brummbäre (w)</t>
+  </si>
+  <si>
+    <t>Alster (m)</t>
+  </si>
+  <si>
+    <t>Ande (w)</t>
+  </si>
+  <si>
+    <t>Flattermüs (w)</t>
+  </si>
+  <si>
+    <t>Mucke (w)</t>
+  </si>
+  <si>
+    <t>Ämt (s)</t>
+  </si>
+  <si>
+    <t>Butte (w)</t>
+  </si>
+  <si>
+    <t>Gockel (m), Huen (s)</t>
+  </si>
+  <si>
+    <t>Häbamme (w)</t>
+  </si>
+  <si>
+    <t>Ardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Katz (w), Rolli (m)</t>
+  </si>
+  <si>
+    <t>Scharmüs (w)</t>
+  </si>
+  <si>
+    <t>Galerueb (w)</t>
+  </si>
+  <si>
+    <t>Mohre (w)</t>
+  </si>
+  <si>
+    <t>Gode (m)</t>
+  </si>
+  <si>
+    <t>Rieme (m)</t>
+  </si>
+  <si>
+    <t>Pflüme (w)</t>
+  </si>
+  <si>
+    <t>schalte</t>
+  </si>
+  <si>
+    <t>Stachelbäre (w)</t>
+  </si>
+  <si>
+    <t>Gefele (s)</t>
+  </si>
+  <si>
+    <t>Strichnodel (w)</t>
+  </si>
+  <si>
+    <t>Dassele (s)</t>
+  </si>
+  <si>
+    <t>Geiß (w)</t>
+  </si>
+  <si>
+    <t>Schwegertochter (w)</t>
+  </si>
+  <si>
+    <t>Hollere (w)</t>
   </si>
 </sst>
 </file>
@@ -2634,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB21"/>
+  <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BB16" sqref="BB16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5219,7 +5755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5230,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>601</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -5377,49 +5913,804 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" s="9">
+        <v>44747</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>601</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>557</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>511</v>
+      </c>
+      <c r="J18" t="s">
+        <v>512</v>
+      </c>
+      <c r="K18" t="s">
+        <v>558</v>
+      </c>
+      <c r="L18" t="s">
+        <v>559</v>
+      </c>
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" t="s">
+        <v>560</v>
+      </c>
+      <c r="P18" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>562</v>
+      </c>
+      <c r="R18">
+        <v>999</v>
+      </c>
+      <c r="S18">
+        <v>999</v>
+      </c>
+      <c r="T18" t="s">
+        <v>65</v>
+      </c>
+      <c r="U18" s="1">
+        <v>999</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS18" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="AT18" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="AU18" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="AV18" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="AW18" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX18" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AZ18" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" s="9">
+        <v>44747</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>601</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>600</v>
+      </c>
+      <c r="H19" t="s">
+        <v>602</v>
+      </c>
+      <c r="I19" t="s">
+        <v>603</v>
+      </c>
+      <c r="J19" t="s">
+        <v>512</v>
+      </c>
+      <c r="K19" t="s">
+        <v>622</v>
+      </c>
+      <c r="L19" t="s">
+        <v>594</v>
+      </c>
+      <c r="N19" t="s">
+        <v>595</v>
+      </c>
+      <c r="O19" t="s">
+        <v>596</v>
+      </c>
+      <c r="P19" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>598</v>
+      </c>
+      <c r="R19" t="s">
+        <v>599</v>
+      </c>
+      <c r="S19">
+        <v>999</v>
+      </c>
+      <c r="T19" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" s="1">
+        <v>999</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG19" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI19" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN19" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="AR19" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS19" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT19" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU19" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV19" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="AW19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX19" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ19" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" s="9">
+        <v>44747</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>601</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>620</v>
+      </c>
+      <c r="H20" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" t="s">
+        <v>603</v>
+      </c>
+      <c r="J20" t="s">
+        <v>512</v>
+      </c>
+      <c r="K20" t="s">
+        <v>621</v>
+      </c>
+      <c r="L20" t="s">
+        <v>616</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
+        <v>617</v>
+      </c>
+      <c r="P20" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>594</v>
+      </c>
+      <c r="R20">
+        <v>999</v>
+      </c>
+      <c r="S20" t="s">
+        <v>619</v>
+      </c>
+      <c r="T20" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" s="1">
+        <v>999</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="AR20" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="AS20" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT20" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AU20" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="AV20" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="AW20" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="AX20" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AZ20" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB20" s="10" t="s">
+        <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" s="9">
+        <v>44747</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>646</v>
+      </c>
+      <c r="H21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" t="s">
+        <v>511</v>
+      </c>
+      <c r="J21" t="s">
+        <v>512</v>
+      </c>
+      <c r="K21" t="s">
+        <v>647</v>
+      </c>
+      <c r="L21" t="s">
+        <v>648</v>
+      </c>
+      <c r="N21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" t="s">
+        <v>617</v>
+      </c>
+      <c r="P21" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>650</v>
+      </c>
+      <c r="R21">
+        <v>999</v>
+      </c>
+      <c r="S21">
+        <v>999</v>
+      </c>
+      <c r="T21" t="s">
+        <v>249</v>
+      </c>
+      <c r="U21" s="1">
+        <v>999</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="AG21" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="AH21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI21" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="AJ21" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="AM21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN21" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="AO21" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="AP21" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ21" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="AR21" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS21" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT21" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU21" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="AV21" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="AW21" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="AX21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ21" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44747</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>670</v>
+      </c>
+      <c r="H22" t="s">
+        <v>602</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" t="s">
+        <v>512</v>
+      </c>
+      <c r="K22" t="s">
+        <v>671</v>
+      </c>
+      <c r="L22" t="s">
+        <v>672</v>
+      </c>
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22">
+        <v>999</v>
+      </c>
+      <c r="P22" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>674</v>
+      </c>
+      <c r="R22">
+        <v>999</v>
+      </c>
+      <c r="S22">
+        <v>999</v>
+      </c>
+      <c r="T22">
+        <v>999</v>
+      </c>
+      <c r="U22" s="1">
+        <v>999</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="AG22" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="AH22" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="AK22" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="AL22" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="AM22" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN22" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="AP22" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="AQ22" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="AR22" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS22" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="AT22" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU22" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="AV22" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="AW22" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX22" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AZ22" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58240A0F-0732-4DAF-9AF9-1D435336CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8F77B-6DC2-4DE5-B1E8-DE452ACC5918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1344" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="0" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2835,7 +2835,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2847,11 +2847,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3173,7 +3174,7 @@
   <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3692,164 +3693,164 @@
         <v>539</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>44738</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>10</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>8</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="12">
         <v>999</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="15">
         <v>999</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AM4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AN4" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AO4" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AP4" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AQ4" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AR4" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AS4" s="11" t="s">
+      <c r="AS4" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="AT4" s="11" t="s">
+      <c r="AT4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AU4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AV4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AW4" s="11" t="s">
+      <c r="AW4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="AX4" s="11" t="s">
+      <c r="AX4" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="AY4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="AZ4" s="11" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="BA4" s="13" t="s">
+      <c r="BA4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="BB4" s="11" t="s">
+      <c r="BB4" s="12" t="s">
         <v>540</v>
       </c>
     </row>
@@ -4649,65 +4650,65 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>44738</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="12">
         <v>999</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="15">
         <v>999</v>
       </c>
       <c r="V10" s="10" t="s">
@@ -4797,13 +4798,13 @@
       <c r="AX10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AY10" s="15" t="s">
         <v>344</v>
       </c>
       <c r="AZ10" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BA10" s="15" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5123,65 +5124,65 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>44739</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="12">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="12">
         <v>888</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="12">
         <v>999</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="15">
         <v>999</v>
       </c>
       <c r="V13" s="10" t="s">
@@ -5271,13 +5272,13 @@
       <c r="AX13" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="AY13" s="1" t="s">
+      <c r="AY13" s="15" t="s">
         <v>370</v>
       </c>
       <c r="AZ13" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BA13" s="15" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5715,10 +5716,10 @@
       <c r="AN16" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="AO16" s="14" t="s">
+      <c r="AO16" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="AP16" s="14" t="s">
+      <c r="AP16" s="11" t="s">
         <v>548</v>
       </c>
       <c r="AQ16" s="10" t="s">
@@ -6710,6 +6711,9 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>999</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B8F77B-6DC2-4DE5-B1E8-DE452ACC5918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140BA84-BFEE-4E51-B8E3-92025E7CC34D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7560" yWindow="0" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6711,9 +6711,6 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>999</v>
-      </c>
       <c r="C23" s="2"/>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140BA84-BFEE-4E51-B8E3-92025E7CC34D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E940E1-3D86-4E65-B1E4-7A4C991C5F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="0" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="702">
   <si>
     <t>ID</t>
   </si>
@@ -2726,6 +2726,9 @@
   </si>
   <si>
     <t>Hollere (w)</t>
+  </si>
+  <si>
+    <t>test test test</t>
   </si>
 </sst>
 </file>
@@ -6711,6 +6714,9 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>701</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E940E1-3D86-4E65-B1E4-7A4C991C5F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08330F5F-798B-4FCF-9A5D-45EE0BEB53A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="701">
   <si>
     <t>ID</t>
   </si>
@@ -2726,9 +2726,6 @@
   </si>
   <si>
     <t>Hollere (w)</t>
-  </si>
-  <si>
-    <t>test test test</t>
   </si>
 </sst>
 </file>
@@ -6714,9 +6711,6 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>701</v>
-      </c>
       <c r="C23" s="2"/>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E940E1-3D86-4E65-B1E4-7A4C991C5F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499D084-1B1B-47FD-A415-FC66C24E807A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,11 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="701">
   <si>
     <t>ID</t>
   </si>
@@ -2726,9 +2716,6 @@
   </si>
   <si>
     <t>Hollere (w)</t>
-  </si>
-  <si>
-    <t>test test test</t>
   </si>
 </sst>
 </file>
@@ -6714,8 +6701,8 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>701</v>
+      <c r="A23">
+        <v>999</v>
       </c>
       <c r="C23" s="2"/>
     </row>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499D084-1B1B-47FD-A415-FC66C24E807A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1308D-36A7-425E-9FF0-D34FE9E2F635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6701,9 +6701,6 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>999</v>
-      </c>
       <c r="C23" s="2"/>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F1308D-36A7-425E-9FF0-D34FE9E2F635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4798927-A020-4AB0-AB33-AD7468E25E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,21 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="702">
   <si>
     <t>ID</t>
   </si>
@@ -1561,9 +1571,6 @@
     <t>Hebamma</t>
   </si>
   <si>
-    <t>Gugel[,] huan</t>
-  </si>
-  <si>
     <t>Hartepfel</t>
   </si>
   <si>
@@ -1615,12 +1622,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>x-[v]</t>
-  </si>
-  <si>
-    <t>Riespach</t>
-  </si>
-  <si>
     <t>[??] Philipps</t>
   </si>
   <si>
@@ -1711,12 +1712,6 @@
     <t>Rüderbach</t>
   </si>
   <si>
-    <t>[Me]u[g]schw[ud]</t>
-  </si>
-  <si>
-    <t>Neu[m]ad[l] i Al[u]a[rz]er</t>
-  </si>
-  <si>
     <t>Omeisala</t>
   </si>
   <si>
@@ -1876,9 +1871,6 @@
     <t>Fritig [J]ola</t>
   </si>
   <si>
-    <t>Kolmar &lt;i.E.&gt;</t>
-  </si>
-  <si>
     <t>von Rappenzweiler</t>
   </si>
   <si>
@@ -1958,9 +1950,6 @@
   </si>
   <si>
     <t>Oberelsaß</t>
-  </si>
-  <si>
-    <t>A. [G]eiler</t>
   </si>
   <si>
     <t>Kehl</t>
@@ -2200,99 +2189,27 @@
     <t>Kolmar</t>
   </si>
   <si>
-    <t>Omeisala (w, a)</t>
-  </si>
-  <si>
-    <t>Licht (w, d')</t>
-  </si>
-  <si>
-    <t>Brombära (m, a)</t>
-  </si>
-  <si>
-    <t>Dissel (m, d'r)</t>
-  </si>
-  <si>
-    <t>Agerschta (w, a)</t>
-  </si>
-  <si>
     <t>ganker &lt;Ratscher&gt;</t>
   </si>
   <si>
-    <t>Fladermüs (w, a)</t>
-  </si>
-  <si>
-    <t>Mocka (w, d')</t>
-  </si>
-  <si>
-    <t>Ähmt (s, s')</t>
-  </si>
-  <si>
     <t>Gak[um]mera (m)</t>
   </si>
   <si>
-    <t>Butta (w, d')</t>
-  </si>
-  <si>
     <t>Gockel (d'r), Glockeri (die)</t>
   </si>
   <si>
-    <t>Hebamm (w, d')</t>
-  </si>
-  <si>
-    <t>Hardäpfel (m, a)</t>
-  </si>
-  <si>
-    <t>Chatz (m, d')</t>
-  </si>
-  <si>
-    <t>Schar (m, d'r)</t>
-  </si>
-  <si>
-    <t>Rüaba (m, d'r)</t>
-  </si>
-  <si>
-    <t>Moor (w, a)</t>
-  </si>
-  <si>
     <t>Getti (m)</t>
   </si>
   <si>
     <t>Riama (d'r)</t>
   </si>
   <si>
-    <t>Pflüma (w, d')</t>
-  </si>
-  <si>
     <t>abriala</t>
   </si>
   <si>
-    <t>Spatz (m, a)</t>
-  </si>
-  <si>
-    <t>Stachelbeeri (w, d')</t>
-  </si>
-  <si>
-    <t>Stecknodl[a] (w, a)</t>
-  </si>
-  <si>
-    <t>Strecknodla (w, a)</t>
-  </si>
-  <si>
-    <t>Schessale (s, a)</t>
-  </si>
-  <si>
-    <t>Hafa (m, d'r)</t>
-  </si>
-  <si>
     <t>Geiß (d')</t>
   </si>
   <si>
-    <t>Schwegertochter (w, d')</t>
-  </si>
-  <si>
-    <t>Hollera (m, d'r)</t>
-  </si>
-  <si>
     <t>Leimen</t>
   </si>
   <si>
@@ -2446,8 +2363,339 @@
     <t>Hafe, [K]herle' (s)</t>
   </si>
   <si>
-    <r>
-      <t>[k]h und ch überall auszusürechen wie ch in na</t>
+    <t>III_17_0071</t>
+  </si>
+  <si>
+    <t>y-F</t>
+  </si>
+  <si>
+    <t>Bidertal</t>
+  </si>
+  <si>
+    <t>Wilh. Wechlin</t>
+  </si>
+  <si>
+    <t>Freiburg [i Br]</t>
+  </si>
+  <si>
+    <t>Lehrer ist über 14 Jahre in bad. Mu[????]äslerland, kennt Mundart. Ist ahnlich wie im bad. Oberland</t>
+  </si>
+  <si>
+    <t>Hollärä</t>
+  </si>
+  <si>
+    <t>Hätzlä</t>
+  </si>
+  <si>
+    <t>Rätsch (e)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fläderm</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Mouggä</t>
+  </si>
+  <si>
+    <t>Ähmd</t>
+  </si>
+  <si>
+    <t>Gagummerä</t>
+  </si>
+  <si>
+    <t>Buddä &lt;ä ganz kurz&gt;</t>
+  </si>
+  <si>
+    <t>Giggel, Hüen</t>
+  </si>
+  <si>
+    <t>Härdepfel</t>
+  </si>
+  <si>
+    <r>
+      <t>Chatz</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolli</t>
+    </r>
+  </si>
+  <si>
+    <t>Schärmüüs</t>
+  </si>
+  <si>
+    <t>Galrüebli</t>
+  </si>
+  <si>
+    <r>
+      <t>Ri</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>händle</t>
+  </si>
+  <si>
+    <t>Stecknodle</t>
+  </si>
+  <si>
+    <t>Schricknodle</t>
+  </si>
+  <si>
+    <t>III_17_0070</t>
+  </si>
+  <si>
+    <t>y-X</t>
+  </si>
+  <si>
+    <t>Winkel  &lt;=Lützel&gt;</t>
+  </si>
+  <si>
+    <t>Felder</t>
+  </si>
+  <si>
+    <t>Natsweiler</t>
+  </si>
+  <si>
+    <t>Vergräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brummbäre (w)</t>
+  </si>
+  <si>
+    <t>Alster (m)</t>
+  </si>
+  <si>
+    <t>Ande (w)</t>
+  </si>
+  <si>
+    <t>Flattermüs (w)</t>
+  </si>
+  <si>
+    <t>Mucke (w)</t>
+  </si>
+  <si>
+    <t>Ämt (s)</t>
+  </si>
+  <si>
+    <t>Butte (w)</t>
+  </si>
+  <si>
+    <t>Gockel (m), Huen (s)</t>
+  </si>
+  <si>
+    <t>Häbamme (w)</t>
+  </si>
+  <si>
+    <t>Ardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Katz (w), Rolli (m)</t>
+  </si>
+  <si>
+    <t>Scharmüs (w)</t>
+  </si>
+  <si>
+    <t>Galerueb (w)</t>
+  </si>
+  <si>
+    <t>Mohre (w)</t>
+  </si>
+  <si>
+    <t>Gode (m)</t>
+  </si>
+  <si>
+    <t>Rieme (m)</t>
+  </si>
+  <si>
+    <t>Pflüme (w)</t>
+  </si>
+  <si>
+    <t>schalte</t>
+  </si>
+  <si>
+    <t>Stachelbäre (w)</t>
+  </si>
+  <si>
+    <t>Gefele (s)</t>
+  </si>
+  <si>
+    <t>Strichnodel (w)</t>
+  </si>
+  <si>
+    <t>Dassele (s)</t>
+  </si>
+  <si>
+    <t>Geiß (w)</t>
+  </si>
+  <si>
+    <t>Schwegertochter (w)</t>
+  </si>
+  <si>
+    <t>Hollere (w)</t>
+  </si>
+  <si>
+    <t>x-v &lt;ü+&gt;</t>
+  </si>
+  <si>
+    <t>Menzenschwand</t>
+  </si>
+  <si>
+    <t>Al[u]a[rz]er</t>
+  </si>
+  <si>
+    <t>Neustadt</t>
+  </si>
+  <si>
+    <t>[Riespach, Feldbach]</t>
+  </si>
+  <si>
+    <t>Omeisala (a, w)</t>
+  </si>
+  <si>
+    <t>Licht (d', w)</t>
+  </si>
+  <si>
+    <t>Brombära (a, m)</t>
+  </si>
+  <si>
+    <t>Dissel (d'r, m)</t>
+  </si>
+  <si>
+    <t>Agerschta (a, w)</t>
+  </si>
+  <si>
+    <t>Fladermüs (a, w)</t>
+  </si>
+  <si>
+    <t>Mocka (d', w)</t>
+  </si>
+  <si>
+    <t>Ähmt (s', s)</t>
+  </si>
+  <si>
+    <t>Butta (d', w)</t>
+  </si>
+  <si>
+    <t>Hebamm (d', w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (a, m)</t>
+  </si>
+  <si>
+    <t>Chatz (d', m)</t>
+  </si>
+  <si>
+    <t>Schar (d'r, m)</t>
+  </si>
+  <si>
+    <t>Rüaba (d'r, m)</t>
+  </si>
+  <si>
+    <t>Moor (a, w)</t>
+  </si>
+  <si>
+    <t>Pflüma (d', w)</t>
+  </si>
+  <si>
+    <t>Spatz (a, m)</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (d', w)</t>
+  </si>
+  <si>
+    <t>Stecknodl[a] (a, w)</t>
+  </si>
+  <si>
+    <t>Strecknodla (a, w)</t>
+  </si>
+  <si>
+    <t>Schessale (a, s)</t>
+  </si>
+  <si>
+    <t>Hafa (d'r, m)</t>
+  </si>
+  <si>
+    <t>Hollera (d'r, m)</t>
+  </si>
+  <si>
+    <t>Schwegertochter (d', w)</t>
+  </si>
+  <si>
+    <t>A. Geiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i.E.</t>
+  </si>
+  <si>
+    <t>Gugel, huan</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;kh und ch überall auszusürechen wie ch in na</t>
     </r>
     <r>
       <rPr>
@@ -2476,246 +2724,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ch</t>
-    </r>
-  </si>
-  <si>
-    <t>III_17_0071</t>
-  </si>
-  <si>
-    <t>y-F</t>
-  </si>
-  <si>
-    <t>Bidertal</t>
-  </si>
-  <si>
-    <t>Wilh. Wechlin</t>
-  </si>
-  <si>
-    <t>Freiburg [i Br]</t>
-  </si>
-  <si>
-    <t>Lehrer ist über 14 Jahre in bad. Mu[????]äslerland, kennt Mundart. Ist ahnlich wie im bad. Oberland</t>
-  </si>
-  <si>
-    <t>Hollärä</t>
-  </si>
-  <si>
-    <t>Hätzlä</t>
-  </si>
-  <si>
-    <t>Rätsch (e)</t>
-  </si>
-  <si>
-    <r>
-      <t>Fläderm</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-  </si>
-  <si>
-    <t>Mouggä</t>
-  </si>
-  <si>
-    <t>Ähmd</t>
-  </si>
-  <si>
-    <t>Gagummerä</t>
-  </si>
-  <si>
-    <t>Buddä &lt;ä ganz kurz&gt;</t>
-  </si>
-  <si>
-    <t>Giggel, Hüen</t>
-  </si>
-  <si>
-    <t>Härdepfel</t>
-  </si>
-  <si>
-    <r>
-      <t>Chatz</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rolli</t>
-    </r>
-  </si>
-  <si>
-    <t>Schärmüüs</t>
-  </si>
-  <si>
-    <t>Galrüebli</t>
-  </si>
-  <si>
-    <r>
-      <t>Ri</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
-    <t>händle</t>
-  </si>
-  <si>
-    <t>Stecknodle</t>
-  </si>
-  <si>
-    <t>Schricknodle</t>
-  </si>
-  <si>
-    <t>erdige[,] Hafe (e)</t>
-  </si>
-  <si>
-    <t>III_17_0070</t>
-  </si>
-  <si>
-    <t>y-X</t>
-  </si>
-  <si>
-    <t>Winkel  &lt;=Lützel&gt;</t>
-  </si>
-  <si>
-    <t>Felder</t>
-  </si>
-  <si>
-    <t>Natsweiler</t>
-  </si>
-  <si>
-    <t>Vergräbnis (s)</t>
-  </si>
-  <si>
-    <t>Brummbäre (w)</t>
-  </si>
-  <si>
-    <t>Alster (m)</t>
-  </si>
-  <si>
-    <t>Ande (w)</t>
-  </si>
-  <si>
-    <t>Flattermüs (w)</t>
-  </si>
-  <si>
-    <t>Mucke (w)</t>
-  </si>
-  <si>
-    <t>Ämt (s)</t>
-  </si>
-  <si>
-    <t>Butte (w)</t>
-  </si>
-  <si>
-    <t>Gockel (m), Huen (s)</t>
-  </si>
-  <si>
-    <t>Häbamme (w)</t>
-  </si>
-  <si>
-    <t>Ardäpfel (m)</t>
-  </si>
-  <si>
-    <t>Katz (w), Rolli (m)</t>
-  </si>
-  <si>
-    <t>Scharmüs (w)</t>
-  </si>
-  <si>
-    <t>Galerueb (w)</t>
-  </si>
-  <si>
-    <t>Mohre (w)</t>
-  </si>
-  <si>
-    <t>Gode (m)</t>
-  </si>
-  <si>
-    <t>Rieme (m)</t>
-  </si>
-  <si>
-    <t>Pflüme (w)</t>
-  </si>
-  <si>
-    <t>schalte</t>
-  </si>
-  <si>
-    <t>Stachelbäre (w)</t>
-  </si>
-  <si>
-    <t>Gefele (s)</t>
-  </si>
-  <si>
-    <t>Strichnodel (w)</t>
-  </si>
-  <si>
-    <t>Dassele (s)</t>
-  </si>
-  <si>
-    <t>Geiß (w)</t>
-  </si>
-  <si>
-    <t>Schwegertochter (w)</t>
-  </si>
-  <si>
-    <t>Hollere (w)</t>
+      <t>ch&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>erdige Hafe (e)</t>
   </si>
 </sst>
 </file>
@@ -2762,18 +2775,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -2825,7 +2832,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2837,7 +2844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3163,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3441,7 +3447,7 @@
         <v>70</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>71</v>
@@ -3680,168 +3686,168 @@
         <v>135</v>
       </c>
       <c r="BB3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>44738</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>10</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>999</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="14">
         <v>999</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AD4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AH4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AI4" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AK4" s="12" t="s">
+      <c r="AK4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AM4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AR4" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AS4" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AS4" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AT4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AU4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AV4" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AW4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AX4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="AZ4" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="BA4" s="15" t="s">
+      <c r="BA4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="BB4" s="12" t="s">
-        <v>540</v>
+      <c r="BB4" s="11" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -4002,7 +4008,7 @@
         <v>212</v>
       </c>
       <c r="BB5" s="10" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -4148,13 +4154,13 @@
         <v>241</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AW6" s="10" t="s">
         <v>209</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>211</v>
@@ -4640,65 +4646,65 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>44738</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>15</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>3</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <v>999</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="14">
         <v>999</v>
       </c>
       <c r="V10" s="10" t="s">
@@ -4788,13 +4794,13 @@
       <c r="AX10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="AY10" s="15" t="s">
+      <c r="AY10" s="14" t="s">
         <v>344</v>
       </c>
       <c r="AZ10" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="BA10" s="15" t="s">
+      <c r="BA10" s="14" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4893,34 +4899,34 @@
         <v>999</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>357</v>
+        <v>699</v>
       </c>
       <c r="AH11" s="10" t="s">
         <v>356</v>
       </c>
       <c r="AI11" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AK11" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="AK11" s="10" t="s">
+      <c r="AL11" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM11" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="AL11" s="10" t="s">
+      <c r="AN11" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="AP11" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="AM11" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP11" s="10" t="s">
-        <v>365</v>
       </c>
       <c r="AQ11" s="10" t="s">
         <v>86</v>
@@ -4929,31 +4935,31 @@
         <v>204</v>
       </c>
       <c r="AS11" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT11" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AT11" s="10" t="s">
+      <c r="AU11" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="AU11" s="10" t="s">
-        <v>368</v>
-      </c>
       <c r="AV11" s="10" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW11" s="10" t="s">
         <v>92</v>
       </c>
       <c r="AX11" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA11" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -4976,10 +4982,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H12" t="s">
         <v>373</v>
-      </c>
-      <c r="H12" t="s">
-        <v>374</v>
       </c>
       <c r="I12" t="s">
         <v>99</v>
@@ -4988,10 +4994,10 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>375</v>
+        <v>668</v>
       </c>
       <c r="L12" t="s">
-        <v>376</v>
+        <v>672</v>
       </c>
       <c r="N12" t="s">
         <v>61</v>
@@ -5000,10 +5006,10 @@
         <v>141</v>
       </c>
       <c r="P12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="R12">
         <v>999</v>
@@ -5015,91 +5021,91 @@
         <v>249</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="X12" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z12" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="AA12" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="X12" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y12" s="10" t="s">
+      <c r="AB12" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="AC12" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AD12" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AE12" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AF12" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AG12" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="AE12" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG12" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="AH12" s="10" t="s">
         <v>195</v>
       </c>
       <c r="AI12" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL12" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="AJ12" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK12" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL12" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="AM12" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AN12" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="AO12" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP12" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ12" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="AO12" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="AP12" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="AQ12" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="AR12" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AS12" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AT12" s="10" t="s">
         <v>301</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AV12" s="10" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AW12" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AX12" s="10" t="s">
         <v>133</v>
@@ -5108,168 +5114,168 @@
         <v>211</v>
       </c>
       <c r="AZ12" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44739</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="11">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="BA12" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13">
-        <v>44739</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="12">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="N13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="11">
+        <v>888</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="14">
+        <v>999</v>
+      </c>
+      <c r="V13" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="W13" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="12">
-        <v>888</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="S13" s="12">
-        <v>999</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" s="15">
-        <v>999</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="X13" s="10" t="s">
         <v>349</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Z13" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB13" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AC13" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF13" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="AB13" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AG13" s="10" t="s">
         <v>414</v>
-      </c>
-      <c r="AD13" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE13" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF13" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG13" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="AH13" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AJ13" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AR13" s="10" t="s">
         <v>204</v>
       </c>
       <c r="AS13" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AV13" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AW13" s="10" t="s">
         <v>92</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AY13" s="15" t="s">
-        <v>370</v>
+        <v>423</v>
+      </c>
+      <c r="AY13" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="AZ13" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="BA13" s="15" t="s">
-        <v>429</v>
+        <v>452</v>
+      </c>
+      <c r="BA13" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -5292,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H14" t="s">
         <v>216</v>
@@ -5304,10 +5310,10 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="N14" t="s">
         <v>61</v>
@@ -5316,10 +5322,10 @@
         <v>141</v>
       </c>
       <c r="P14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="R14">
         <v>999</v>
@@ -5334,97 +5340,97 @@
         <v>999</v>
       </c>
       <c r="V14" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB14" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="AC14" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="AD14" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="Y14" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z14" s="10" t="s">
+      <c r="AE14" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AF14" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AG14" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH14" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="AC14" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD14" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE14" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF14" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="AG14" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>445</v>
-      </c>
       <c r="AI14" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AJ14" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AP14" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AR14" s="10" t="s">
         <v>204</v>
       </c>
       <c r="AS14" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AT14" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>267</v>
       </c>
       <c r="AV14" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AW14" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AX14" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AZ14" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="BA14" s="1" t="s">
         <v>270</v>
@@ -5450,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H15" t="s">
         <v>98</v>
@@ -5462,130 +5468,130 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L15" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N15" t="s">
         <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q15" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="R15">
         <v>999</v>
       </c>
-      <c r="S15">
-        <v>999</v>
+      <c r="S15" t="s">
+        <v>698</v>
       </c>
       <c r="T15" t="s">
         <v>249</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC15" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AD15" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AE15" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF15" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AG15" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AH15" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI15" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AJ15" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK15" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB15" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AL15" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>475</v>
       </c>
       <c r="AM15" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AQ15" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AS15" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AT15" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AV15" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AW15" s="10" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AX15">
         <v>999</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AZ15" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -5608,10 +5614,10 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I16" t="s">
         <v>99</v>
@@ -5620,22 +5626,22 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L16" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>61</v>
       </c>
       <c r="O16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P16" t="s">
-        <v>490</v>
+        <v>697</v>
       </c>
       <c r="Q16" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="R16">
         <v>999</v>
@@ -5647,100 +5653,100 @@
         <v>249</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH16" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="W16" s="10" t="s">
+      <c r="AI16" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="AJ16" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK16" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="Y16" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA16" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB16" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE16" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="AF16" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AG16" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI16" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AJ16" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK16" s="10" t="s">
-        <v>501</v>
-      </c>
       <c r="AL16" s="10" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AM16" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AN16" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO16" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="AP16" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ16" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="AR16" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS16" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="AT16" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU16" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="AV16" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="AW16" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AX16" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="AP16" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="AQ16" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="AR16" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="AS16" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="AT16" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="AU16" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AV16" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="AW16" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>509</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>344</v>
       </c>
       <c r="AZ16" s="10" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="BA16" s="1" t="s">
         <v>242</v>
@@ -5757,7 +5763,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -5766,34 +5772,34 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H17" t="s">
         <v>216</v>
       </c>
       <c r="I17" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J17" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K17" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L17" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N17" t="s">
         <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P17" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q17" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="R17">
         <v>999</v>
@@ -5808,70 +5814,70 @@
         <v>999</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="X17" s="10" t="s">
         <v>349</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>351</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AB17" s="10" t="s">
         <v>352</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AK17" s="10" t="s">
         <v>120</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AP17" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AQ17" s="10" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AR17" s="10" t="s">
         <v>204</v>
@@ -5880,28 +5886,28 @@
         <v>128</v>
       </c>
       <c r="AT17" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AV17" s="10" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AW17" s="10" t="s">
         <v>92</v>
       </c>
       <c r="AX17" s="10" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AZ17" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -5915,7 +5921,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -5924,34 +5930,34 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H18" t="s">
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J18" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K18" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L18" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="N18" t="s">
         <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="P18" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q18" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="R18">
         <v>999</v>
@@ -5966,100 +5972,100 @@
         <v>999</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>563</v>
+        <v>673</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>564</v>
+        <v>674</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>565</v>
+        <v>675</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>566</v>
+        <v>676</v>
       </c>
       <c r="Z18" t="s">
-        <v>567</v>
+        <v>677</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>569</v>
+        <v>678</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>570</v>
+        <v>679</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>571</v>
+        <v>680</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>573</v>
+        <v>681</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>575</v>
+        <v>682</v>
       </c>
       <c r="AI18" s="10" t="s">
-        <v>576</v>
+        <v>683</v>
       </c>
       <c r="AJ18" s="10" t="s">
-        <v>577</v>
+        <v>684</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>578</v>
+        <v>685</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>579</v>
+        <v>686</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>580</v>
+        <v>687</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>583</v>
+        <v>688</v>
       </c>
       <c r="AQ18" s="10" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>585</v>
+        <v>689</v>
       </c>
       <c r="AS18" s="10" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="AT18" s="10" t="s">
-        <v>587</v>
+        <v>691</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>588</v>
+        <v>692</v>
       </c>
       <c r="AV18" s="10" t="s">
-        <v>589</v>
+        <v>693</v>
       </c>
       <c r="AW18" s="10" t="s">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="AX18" s="10" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="AZ18" s="10" t="s">
-        <v>593</v>
+        <v>695</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>592</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
@@ -6073,7 +6079,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -6082,37 +6088,37 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="H19" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="I19" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="J19" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K19" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="L19" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="N19" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="O19" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="P19" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="Q19" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="R19" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="S19">
         <v>999</v>
@@ -6127,19 +6133,19 @@
         <v>66</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="X19" s="10" t="s">
         <v>227</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Z19" s="10" t="s">
         <v>351</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB19" s="10" t="s">
         <v>352</v>
@@ -6148,46 +6154,46 @@
         <v>256</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="AH19" s="10" t="s">
         <v>195</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="AJ19" s="10" t="s">
         <v>119</v>
       </c>
       <c r="AK19" s="10" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>122</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AP19" s="10" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="AQ19" s="10" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="AR19" s="10" t="s">
         <v>204</v>
@@ -6196,28 +6202,28 @@
         <v>265</v>
       </c>
       <c r="AT19" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AU19" s="10" t="s">
         <v>267</v>
       </c>
       <c r="AV19" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AW19" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AX19" s="10" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ19" s="10" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
@@ -6231,7 +6237,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -6240,40 +6246,40 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="H20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I20" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="J20" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K20" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="L20" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="N20" t="s">
         <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="P20" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="Q20" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="R20">
         <v>999</v>
       </c>
       <c r="S20" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="T20" t="s">
         <v>144</v>
@@ -6282,103 +6288,103 @@
         <v>999</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="Y20" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="AI20" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="Z20" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="AC20" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE20" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="AG20" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="AH20" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="AI20" s="10" t="s">
-        <v>473</v>
-      </c>
       <c r="AJ20" s="10" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="AK20" s="10" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
       <c r="AM20" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="AQ20" s="10" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="AS20" s="10" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="AT20" s="10" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="AV20" s="10" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="AW20" s="10" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="AX20" s="10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AZ20" s="10" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="BA20" s="1">
         <v>999</v>
       </c>
       <c r="BB20" s="10" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
@@ -6392,7 +6398,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -6401,34 +6407,34 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="H21" t="s">
         <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J21" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K21" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="L21" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="N21" t="s">
         <v>61</v>
       </c>
       <c r="O21" t="s">
+        <v>586</v>
+      </c>
+      <c r="P21" t="s">
         <v>617</v>
       </c>
-      <c r="P21" t="s">
-        <v>649</v>
-      </c>
       <c r="Q21" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="R21">
         <v>999</v>
@@ -6443,7 +6449,7 @@
         <v>999</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="W21" s="10" t="s">
         <v>184</v>
@@ -6452,61 +6458,61 @@
         <v>185</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="AH21" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="AK21" s="10" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="AM21" s="10" t="s">
         <v>122</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="AP21" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AQ21" s="10" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="AR21" s="10" t="s">
         <v>204</v>
@@ -6515,16 +6521,16 @@
         <v>205</v>
       </c>
       <c r="AT21" s="10" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="AV21" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AW21" s="10" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="AX21" s="10" t="s">
         <v>133</v>
@@ -6533,13 +6539,13 @@
         <v>94</v>
       </c>
       <c r="AZ21" s="10" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="BB21" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
@@ -6553,7 +6559,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -6562,22 +6568,22 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="H22" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="I22" t="s">
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K22" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="L22" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="N22" t="s">
         <v>61</v>
@@ -6586,10 +6592,10 @@
         <v>999</v>
       </c>
       <c r="P22" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="Q22" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="R22">
         <v>999</v>
@@ -6604,100 +6610,100 @@
         <v>999</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="AK22" s="10" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="AL22" s="10" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="AQ22" s="10" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="AR22" s="10" t="s">
         <v>299</v>
       </c>
       <c r="AS22" s="10" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="AT22" s="10" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="AV22" s="10" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="AW22" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AX22" s="10" t="s">
         <v>133</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="AZ22" s="10" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4798927-A020-4AB0-AB33-AD7468E25E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F766E5-A6C3-4AE8-9134-0A9AEF79DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="843">
   <si>
     <t>ID</t>
   </si>
@@ -199,9 +199,6 @@
     <t>AL</t>
   </si>
   <si>
-    <t>a"</t>
-  </si>
-  <si>
     <t>III_17_0002</t>
   </si>
   <si>
@@ -425,9 +422,6 @@
   </si>
   <si>
     <t>Schdriggnodla</t>
-  </si>
-  <si>
-    <t>Da̠sala, Dallerla</t>
   </si>
   <si>
     <t>Hāfa</t>
@@ -1142,9 +1136,6 @@
     <t>Holder</t>
   </si>
   <si>
-    <t>a'</t>
-  </si>
-  <si>
     <t>III_17_0040</t>
   </si>
   <si>
@@ -2231,9 +2222,6 @@
     <t>III_17_0073</t>
   </si>
   <si>
-    <t>b"</t>
-  </si>
-  <si>
     <t>Y[1]</t>
   </si>
   <si>
@@ -2373,12 +2361,6 @@
   </si>
   <si>
     <t>Wilh. Wechlin</t>
-  </si>
-  <si>
-    <t>Freiburg [i Br]</t>
-  </si>
-  <si>
-    <t>Lehrer ist über 14 Jahre in bad. Mu[????]äslerland, kennt Mundart. Ist ahnlich wie im bad. Oberland</t>
   </si>
   <si>
     <t>Hollärä</t>
@@ -2729,6 +2711,489 @@
   </si>
   <si>
     <t>erdige Hafe (e)</t>
+  </si>
+  <si>
+    <t>Oberlarg</t>
+  </si>
+  <si>
+    <t>Angela Wohlfromm</t>
+  </si>
+  <si>
+    <t>Dahlenheim</t>
+  </si>
+  <si>
+    <t>y-[v]</t>
+  </si>
+  <si>
+    <t>Omaisela (w)</t>
+  </si>
+  <si>
+    <t>Brumbeera (w)</t>
+  </si>
+  <si>
+    <t>Agersta (w)</t>
+  </si>
+  <si>
+    <t>Fladermüß (w)</t>
+  </si>
+  <si>
+    <t>Mucka (w)</t>
+  </si>
+  <si>
+    <t>Gågumara (w)</t>
+  </si>
+  <si>
+    <t>Butta (w)</t>
+  </si>
+  <si>
+    <t>Gugel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hebåm (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (w)</t>
+  </si>
+  <si>
+    <t>Stoßmüs (w)</t>
+  </si>
+  <si>
+    <t>Gal[e]riaba (w)</t>
+  </si>
+  <si>
+    <t>Gädi (m)</t>
+  </si>
+  <si>
+    <t>Riama (m)</t>
+  </si>
+  <si>
+    <t>schulda</t>
+  </si>
+  <si>
+    <t>Stachelbeera (w)</t>
+  </si>
+  <si>
+    <t>Tåssa</t>
+  </si>
+  <si>
+    <t>Håfa</t>
+  </si>
+  <si>
+    <t>Holara (w)</t>
+  </si>
+  <si>
+    <t>III_17_0069</t>
+  </si>
+  <si>
+    <t>y-y</t>
+  </si>
+  <si>
+    <t>Winkel</t>
+  </si>
+  <si>
+    <t>Johann Fi[s]cher</t>
+  </si>
+  <si>
+    <t>Furtwangen ber. Anstellungsort: W[??]den, [???]r L[u]rr[e]y</t>
+  </si>
+  <si>
+    <t>Omeise</t>
+  </si>
+  <si>
+    <t>Licht {oder Liln - informant hat es wohl am falschen Ort hingeschrieben}</t>
+  </si>
+  <si>
+    <t>Brumbääre {wieder am falschen Ort - 15}</t>
+  </si>
+  <si>
+    <t>Älschter</t>
+  </si>
+  <si>
+    <t>Fladermüs {umlaut nicht sicher}</t>
+  </si>
+  <si>
+    <t>Budda</t>
+  </si>
+  <si>
+    <t>Gugel, Hün</t>
+  </si>
+  <si>
+    <t>Goagummere</t>
+  </si>
+  <si>
+    <t>Katzala</t>
+  </si>
+  <si>
+    <t>Galrüebe</t>
+  </si>
+  <si>
+    <t>Getta</t>
+  </si>
+  <si>
+    <t>Pflüama</t>
+  </si>
+  <si>
+    <t>schempfa, handla</t>
+  </si>
+  <si>
+    <t>Sp[a]atz</t>
+  </si>
+  <si>
+    <t>Stoachelbä[??]er</t>
+  </si>
+  <si>
+    <t>Schlingufe</t>
+  </si>
+  <si>
+    <t>Scht[r]ecknoada</t>
+  </si>
+  <si>
+    <t>Koaffeetassaler, [D]allarla</t>
+  </si>
+  <si>
+    <t>Hoafa</t>
+  </si>
+  <si>
+    <t>zwiiga</t>
+  </si>
+  <si>
+    <t>Hollara</t>
+  </si>
+  <si>
+    <t>III_17_0068</t>
+  </si>
+  <si>
+    <t>III_17_0066</t>
+  </si>
+  <si>
+    <t>y-z</t>
+  </si>
+  <si>
+    <t>Lüxdorf</t>
+  </si>
+  <si>
+    <t>Frau Susanne Herr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riedisheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i.E. </t>
+  </si>
+  <si>
+    <t>mündlich</t>
+  </si>
+  <si>
+    <t>Ameisele</t>
+  </si>
+  <si>
+    <t>Vergräbnis, s' Liecht geh</t>
+  </si>
+  <si>
+    <t>Bromberri</t>
+  </si>
+  <si>
+    <t>Agerschta</t>
+  </si>
+  <si>
+    <t>Anda</t>
+  </si>
+  <si>
+    <t>Mucka</t>
+  </si>
+  <si>
+    <t>Gugumra</t>
+  </si>
+  <si>
+    <t>Guckel. Hüahn</t>
+  </si>
+  <si>
+    <t>Hebåam</t>
+  </si>
+  <si>
+    <t>Düeli['p]s</t>
+  </si>
+  <si>
+    <t>Gelti</t>
+  </si>
+  <si>
+    <t>schtrecknodel</t>
+  </si>
+  <si>
+    <t>Dåassa, Dalerle</t>
+  </si>
+  <si>
+    <t>Hardiger Håfa</t>
+  </si>
+  <si>
+    <t>Sunsfroi</t>
+  </si>
+  <si>
+    <t>Holra</t>
+  </si>
+  <si>
+    <t>&lt;Für Liebsdorf gilt die gleiche Ausprache wie für Dürlinsdorf, ist nur 800m auseinander&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Lehrer ist über 14 Jahre in bad. Mu[????]äslerland, kennt Mundart. Ist ahnlich wie im bad. Oberland&gt;</t>
+  </si>
+  <si>
+    <t>III_17_0065</t>
+  </si>
+  <si>
+    <t>Dürlinsdorf, Liebsdorf</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>i. Brg</t>
+  </si>
+  <si>
+    <t>i. Br</t>
+  </si>
+  <si>
+    <t>y-s</t>
+  </si>
+  <si>
+    <t>Brumbäre</t>
+  </si>
+  <si>
+    <t>Ägerste (w)</t>
+  </si>
+  <si>
+    <t>Rätsch (de)</t>
+  </si>
+  <si>
+    <t>Ämd</t>
+  </si>
+  <si>
+    <t>Gug[u]mere</t>
+  </si>
+  <si>
+    <t>Gugel, Huen</t>
+  </si>
+  <si>
+    <t>Rolli (e)</t>
+  </si>
+  <si>
+    <t>Schär (e)</t>
+  </si>
+  <si>
+    <t>Galriebe</t>
+  </si>
+  <si>
+    <t>Gotte, Godde</t>
+  </si>
+  <si>
+    <r>
+      <t>Ri</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>me</t>
+    </r>
+  </si>
+  <si>
+    <t>briele</t>
+  </si>
+  <si>
+    <t>Schdachelbeere</t>
+  </si>
+  <si>
+    <t>Schtecknodle</t>
+  </si>
+  <si>
+    <t>Schtricknodle</t>
+  </si>
+  <si>
+    <t>Chaffischissele</t>
+  </si>
+  <si>
+    <t>Hafe</t>
+  </si>
+  <si>
+    <t>zwige</t>
+  </si>
+  <si>
+    <t>Holere</t>
+  </si>
+  <si>
+    <t>III_17_0063</t>
+  </si>
+  <si>
+    <t>y-[A]</t>
+  </si>
+  <si>
+    <t>Dürlinsdorf</t>
+  </si>
+  <si>
+    <t>W. Wechlin</t>
+  </si>
+  <si>
+    <t>Liicht (e)</t>
+  </si>
+  <si>
+    <t>Dissel (e)</t>
+  </si>
+  <si>
+    <t>Ägerschde</t>
+  </si>
+  <si>
+    <t>Mugge (e)</t>
+  </si>
+  <si>
+    <t>Gagumere</t>
+  </si>
+  <si>
+    <t>Hagebudde</t>
+  </si>
+  <si>
+    <t>Guggel, Huehn</t>
+  </si>
+  <si>
+    <t>Schär ([l])</t>
+  </si>
+  <si>
+    <t>Gälrüeble</t>
+  </si>
+  <si>
+    <t>Mohr (e)</t>
+  </si>
+  <si>
+    <t>Gette</t>
+  </si>
+  <si>
+    <t>Geisle (e)</t>
+  </si>
+  <si>
+    <t>brüele</t>
+  </si>
+  <si>
+    <t>Stachelbäre</t>
+  </si>
+  <si>
+    <t>Tasse {halb durchgestrichen}, Schissele</t>
+  </si>
+  <si>
+    <t>Hollere</t>
+  </si>
+  <si>
+    <t>III_17_0062</t>
+  </si>
+  <si>
+    <t>25,4</t>
+  </si>
+  <si>
+    <t>y-p</t>
+  </si>
+  <si>
+    <t>Binzgen</t>
+  </si>
+  <si>
+    <t>Waldshut {vorne. Hinten kaum lesbar}</t>
+  </si>
+  <si>
+    <t>Martin, Otto</t>
+  </si>
+  <si>
+    <t>Herdwangen</t>
+  </si>
+  <si>
+    <t>Brumbeeri (w)</t>
+  </si>
+  <si>
+    <t>Diechsle (w)</t>
+  </si>
+  <si>
+    <t>Enterich (m)</t>
+  </si>
+  <si>
+    <t>Gu[c]kummere (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hun (s)</t>
+  </si>
+  <si>
+    <t>H[e]bant (w)</t>
+  </si>
+  <si>
+    <t>Häerdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Scha[a]rmus (m)</t>
+  </si>
+  <si>
+    <t>Gällrüeba [w] {umlaut bei u unklar}</t>
+  </si>
+  <si>
+    <t>Moor (w)</t>
+  </si>
+  <si>
+    <t>Götti (m)</t>
+  </si>
+  <si>
+    <t>Gaisel (w)</t>
+  </si>
+  <si>
+    <t>schimpfen</t>
+  </si>
+  <si>
+    <t>[C]hruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>[L]iesmenodel (w)</t>
+  </si>
+  <si>
+    <t>zweien</t>
+  </si>
+  <si>
+    <t>Schwägertochter {könnte auch Schwägerdochter sein - d über das Wort}</t>
+  </si>
+  <si>
+    <t>a''</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sala, Dallerla</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2832,23 +3297,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3167,10 +3622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3206,340 +3661,340 @@
     <col min="54" max="1023" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:54" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44738</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2">
+        <v>999</v>
+      </c>
+      <c r="S2">
+        <v>999</v>
+      </c>
+      <c r="T2" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="2">
+      <c r="U2" s="1">
         <v>999</v>
       </c>
-      <c r="S2" s="2">
-        <v>999</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="5">
-        <v>999</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB2" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" t="s">
         <v>87</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" t="s">
         <v>89</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" t="s">
         <v>90</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" t="s">
         <v>91</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" t="s">
         <v>92</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AZ2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>44738</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3548,320 +4003,320 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>99</v>
       </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
         <v>100</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>102</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>103</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>104</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" t="s">
         <v>106</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" t="s">
         <v>107</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" t="s">
         <v>113</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" t="s">
         <v>115</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AG3" t="s">
         <v>116</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>118</v>
       </c>
-      <c r="AI3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" t="s">
         <v>119</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AL3" t="s">
         <v>120</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AM3" t="s">
         <v>121</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AN3" t="s">
         <v>122</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" t="s">
         <v>123</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AP3" t="s">
         <v>124</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AQ3" t="s">
         <v>125</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AR3" t="s">
         <v>126</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AS3" t="s">
         <v>127</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AT3" t="s">
         <v>128</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AU3" t="s">
         <v>129</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AV3" t="s">
+        <v>842</v>
+      </c>
+      <c r="AW3" t="s">
         <v>130</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AX3" t="s">
         <v>131</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AY3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AZ3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="BB3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44738</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" t="s">
         <v>136</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>44738</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="11">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11">
-        <v>8</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="L4" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="P4" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4">
+        <v>999</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="U4" s="1">
+        <v>999</v>
+      </c>
+      <c r="V4" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="11">
-        <v>999</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="W4" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="14">
-        <v>999</v>
-      </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" t="s">
         <v>145</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="Y4" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Z4" t="s">
         <v>147</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="AA4" t="s">
         <v>148</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AB4" t="s">
         <v>149</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AC4" t="s">
         <v>150</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AD4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AE4" t="s">
         <v>152</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AF4" t="s">
         <v>153</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AG4" t="s">
         <v>154</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AH4" t="s">
         <v>155</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AI4" t="s">
         <v>156</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AJ4" t="s">
         <v>157</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AK4" t="s">
         <v>158</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AL4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM4" t="s">
         <v>159</v>
       </c>
-      <c r="AK4" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AN4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO4" t="s">
         <v>162</v>
       </c>
-      <c r="AM4" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AP4" t="s">
         <v>163</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AQ4" t="s">
         <v>164</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AR4" t="s">
         <v>165</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AS4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AT4" t="s">
         <v>166</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AU4" t="s">
         <v>167</v>
       </c>
-      <c r="AS4" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="AT4" s="11" t="s">
+      <c r="AV4" t="s">
         <v>168</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AW4" t="s">
         <v>169</v>
       </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AX4" t="s">
         <v>170</v>
       </c>
-      <c r="AW4" s="11" t="s">
+      <c r="AY4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AX4" s="11" t="s">
+      <c r="AZ4" t="s">
         <v>172</v>
       </c>
-      <c r="AY4" s="14" t="s">
+      <c r="BA4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AZ4" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB4" s="11" t="s">
-        <v>533</v>
+      <c r="BB4" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>44738</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -3870,159 +4325,159 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" t="s">
         <v>176</v>
       </c>
-      <c r="H5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N5" t="s">
         <v>177</v>
       </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" t="s">
         <v>178</v>
       </c>
-      <c r="N5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" t="s">
-        <v>180</v>
-      </c>
       <c r="Q5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R5">
         <v>999</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T5" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="V5" t="s">
         <v>181</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="X5" t="s">
         <v>183</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="Y5" t="s">
         <v>184</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="Z5" t="s">
         <v>185</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AB5" t="s">
         <v>187</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AC5" t="s">
         <v>188</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AD5" t="s">
         <v>189</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AE5" t="s">
         <v>190</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AF5" t="s">
         <v>191</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AG5" t="s">
         <v>192</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AH5" t="s">
         <v>193</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AI5" t="s">
         <v>194</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AJ5" t="s">
         <v>195</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AK5" t="s">
         <v>196</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AL5" t="s">
         <v>197</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AM5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN5" t="s">
         <v>198</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AO5" t="s">
         <v>199</v>
       </c>
-      <c r="AM5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AP5" t="s">
         <v>200</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AQ5" t="s">
         <v>201</v>
       </c>
-      <c r="AP5" s="10" t="s">
+      <c r="AR5" t="s">
         <v>202</v>
       </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AS5" t="s">
         <v>203</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="AT5" t="s">
         <v>204</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AU5" t="s">
         <v>205</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AV5" t="s">
         <v>206</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AW5" t="s">
         <v>207</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AX5" t="s">
         <v>208</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AY5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AZ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AY5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BB5" s="10" t="s">
-        <v>534</v>
+      <c r="BB5" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>44738</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>840</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -4031,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I6">
         <v>520</v>
@@ -4043,147 +4498,147 @@
         <v>730</v>
       </c>
       <c r="K6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" t="s">
         <v>217</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>218</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>219</v>
       </c>
-      <c r="N6" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>220</v>
-      </c>
-      <c r="P6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>222</v>
-      </c>
-      <c r="R6" t="s">
-        <v>223</v>
       </c>
       <c r="S6">
         <v>999</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V6" t="s">
+        <v>222</v>
+      </c>
+      <c r="W6" t="s">
+        <v>223</v>
+      </c>
+      <c r="X6" t="s">
         <v>224</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="Y6" t="s">
         <v>225</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="Z6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" t="s">
         <v>226</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="AB6" t="s">
         <v>227</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="AC6" t="s">
         <v>228</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AD6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AF6" t="s">
         <v>230</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AG6" t="s">
         <v>231</v>
       </c>
-      <c r="AD6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AH6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>232</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AK6" t="s">
         <v>233</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AL6" t="s">
         <v>234</v>
       </c>
-      <c r="AH6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AM6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO6" t="s">
         <v>235</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AP6" t="s">
         <v>236</v>
       </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AQ6" t="s">
         <v>237</v>
       </c>
-      <c r="AM6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO6" s="10" t="s">
+      <c r="AR6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU6" t="s">
         <v>238</v>
       </c>
-      <c r="AP6" s="10" t="s">
+      <c r="AV6" t="s">
+        <v>543</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>541</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA6" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="AQ6" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR6" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS6" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT6" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU6" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV6" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AW6" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX6" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ6" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>44738</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -4192,34 +4647,34 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" t="s">
         <v>243</v>
       </c>
-      <c r="H7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" t="s">
         <v>244</v>
       </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
-      </c>
-      <c r="L7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N7" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>248</v>
       </c>
       <c r="R7">
         <v>999</v>
@@ -4228,120 +4683,120 @@
         <v>999</v>
       </c>
       <c r="T7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U7" s="1">
         <v>999</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" t="s">
+        <v>248</v>
+      </c>
+      <c r="X7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z7" t="s">
         <v>250</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="AA7" t="s">
         <v>251</v>
       </c>
-      <c r="X7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="AB7" t="s">
         <v>252</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="AC7" t="s">
         <v>253</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AD7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG7" t="s">
         <v>254</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AH7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" t="s">
         <v>255</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AJ7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK7" t="s">
         <v>256</v>
       </c>
-      <c r="AD7" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AL7" t="s">
         <v>257</v>
       </c>
-      <c r="AH7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AM7" t="s">
         <v>258</v>
       </c>
-      <c r="AJ7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK7" s="10" t="s">
+      <c r="AN7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO7" t="s">
         <v>259</v>
       </c>
-      <c r="AL7" s="10" t="s">
+      <c r="AP7" t="s">
         <v>260</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AQ7" t="s">
         <v>261</v>
       </c>
-      <c r="AN7" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO7" s="10" t="s">
+      <c r="AR7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS7" t="s">
         <v>262</v>
       </c>
-      <c r="AP7" s="10" t="s">
+      <c r="AT7" t="s">
         <v>263</v>
       </c>
-      <c r="AQ7" s="10" t="s">
+      <c r="AU7" t="s">
         <v>264</v>
       </c>
-      <c r="AR7" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS7" s="10" t="s">
+      <c r="AV7" t="s">
         <v>265</v>
       </c>
-      <c r="AT7" s="10" t="s">
+      <c r="AW7" t="s">
         <v>266</v>
       </c>
-      <c r="AU7" s="10" t="s">
+      <c r="AX7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA7" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44738</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -4350,34 +4805,34 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" t="s">
         <v>271</v>
       </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s">
         <v>272</v>
       </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>273</v>
-      </c>
-      <c r="L8" t="s">
-        <v>274</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>276</v>
       </c>
       <c r="R8">
         <v>999</v>
@@ -4386,120 +4841,120 @@
         <v>999</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U8" s="1">
         <v>999</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" t="s">
+        <v>274</v>
+      </c>
+      <c r="W8" t="s">
+        <v>275</v>
+      </c>
+      <c r="X8" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y8" t="s">
         <v>277</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="Z8" t="s">
         <v>278</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="AA8" t="s">
         <v>279</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="AB8" t="s">
         <v>280</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AC8" t="s">
         <v>281</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AD8" t="s">
         <v>282</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AE8" t="s">
         <v>283</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AF8" t="s">
         <v>284</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AG8" t="s">
         <v>285</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AH8" t="s">
         <v>286</v>
       </c>
-      <c r="AF8" s="10" t="s">
+      <c r="AI8" t="s">
         <v>287</v>
       </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AJ8" t="s">
         <v>288</v>
       </c>
-      <c r="AH8" s="10" t="s">
+      <c r="AK8" t="s">
         <v>289</v>
       </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AL8" t="s">
         <v>290</v>
       </c>
-      <c r="AJ8" s="10" t="s">
+      <c r="AM8" t="s">
         <v>291</v>
       </c>
-      <c r="AK8" s="10" t="s">
+      <c r="AN8" t="s">
         <v>292</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="AO8" t="s">
         <v>293</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="AP8" t="s">
         <v>294</v>
       </c>
-      <c r="AN8" s="10" t="s">
+      <c r="AQ8" t="s">
         <v>295</v>
       </c>
-      <c r="AO8" s="10" t="s">
+      <c r="AR8" t="s">
         <v>296</v>
       </c>
-      <c r="AP8" s="10" t="s">
+      <c r="AS8" t="s">
         <v>297</v>
       </c>
-      <c r="AQ8" s="10" t="s">
+      <c r="AT8" t="s">
         <v>298</v>
       </c>
-      <c r="AR8" s="10" t="s">
+      <c r="AU8" t="s">
         <v>299</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="AV8" t="s">
         <v>300</v>
       </c>
-      <c r="AT8" s="10" t="s">
+      <c r="AW8" t="s">
         <v>301</v>
       </c>
-      <c r="AU8" s="10" t="s">
+      <c r="AX8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AV8" s="10" t="s">
+      <c r="AZ8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA8" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>44738</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -4508,34 +4963,34 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" t="s">
         <v>308</v>
       </c>
-      <c r="H9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>309</v>
       </c>
-      <c r="J9" t="s">
-        <v>310</v>
-      </c>
-      <c r="K9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9" t="s">
-        <v>312</v>
-      </c>
       <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
         <v>103</v>
       </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
       <c r="P9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R9">
         <v>999</v>
@@ -4544,278 +4999,278 @@
         <v>999</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U9" s="1">
         <v>999</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" t="s">
+        <v>274</v>
+      </c>
+      <c r="W9" t="s">
+        <v>275</v>
+      </c>
+      <c r="X9" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y9" t="s">
         <v>277</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="Z9" t="s">
         <v>278</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="AA9" t="s">
         <v>279</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="AB9" t="s">
         <v>280</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="AC9" t="s">
         <v>281</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AD9" t="s">
         <v>282</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AE9" t="s">
         <v>283</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AF9" t="s">
         <v>284</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AG9" t="s">
         <v>285</v>
       </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AH9" t="s">
         <v>286</v>
       </c>
-      <c r="AF9" s="10" t="s">
+      <c r="AI9" t="s">
         <v>287</v>
       </c>
-      <c r="AG9" s="10" t="s">
+      <c r="AJ9" t="s">
         <v>288</v>
       </c>
-      <c r="AH9" s="10" t="s">
+      <c r="AK9" t="s">
         <v>289</v>
       </c>
-      <c r="AI9" s="10" t="s">
+      <c r="AL9" t="s">
         <v>290</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AM9" t="s">
         <v>291</v>
       </c>
-      <c r="AK9" s="10" t="s">
+      <c r="AN9" t="s">
         <v>292</v>
       </c>
-      <c r="AL9" s="10" t="s">
+      <c r="AO9" t="s">
         <v>293</v>
       </c>
-      <c r="AM9" s="10" t="s">
+      <c r="AP9" t="s">
         <v>294</v>
       </c>
-      <c r="AN9" s="10" t="s">
+      <c r="AQ9" t="s">
         <v>295</v>
       </c>
-      <c r="AO9" s="10" t="s">
+      <c r="AR9" t="s">
         <v>296</v>
       </c>
-      <c r="AP9" s="10" t="s">
+      <c r="AS9" t="s">
         <v>297</v>
       </c>
-      <c r="AQ9" s="10" t="s">
+      <c r="AT9" t="s">
         <v>298</v>
       </c>
-      <c r="AR9" s="10" t="s">
+      <c r="AU9" t="s">
         <v>299</v>
       </c>
-      <c r="AS9" s="10" t="s">
+      <c r="AV9" t="s">
         <v>300</v>
       </c>
-      <c r="AT9" s="10" t="s">
+      <c r="AW9" t="s">
         <v>301</v>
       </c>
-      <c r="AU9" s="10" t="s">
+      <c r="AX9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AV9" s="10" t="s">
+      <c r="AZ9" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA9" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AW9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44738</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>311</v>
+      </c>
+      <c r="J10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>318</v>
+      </c>
+      <c r="R10" t="s">
+        <v>317</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>246</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
+      </c>
+      <c r="V10" t="s">
+        <v>315</v>
+      </c>
+      <c r="W10" t="s">
+        <v>316</v>
+      </c>
+      <c r="X10" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>304</v>
       </c>
-      <c r="AX9" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12">
-        <v>44738</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="11">
-        <v>15</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="S10" s="11">
-        <v>999</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="U10" s="14">
-        <v>999</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC10" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE10" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG10" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK10" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AL10" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN10" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP10" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="AQ10" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AR10" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS10" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="AT10" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="AU10" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="AV10" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW10" s="10" t="s">
+      <c r="BA10" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="AX10" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AY10" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="AZ10" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="BA10" s="14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>44738</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -4824,25 +5279,25 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
       <c r="L11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O11">
         <v>999</v>
@@ -4865,115 +5320,115 @@
       <c r="U11" s="1">
         <v>999</v>
       </c>
-      <c r="V11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="10" t="s">
+      <c r="V11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" t="s">
+        <v>345</v>
+      </c>
+      <c r="X11" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z11" t="s">
         <v>348</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>351</v>
       </c>
       <c r="AA11">
         <v>999</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE11" t="s">
         <v>352</v>
-      </c>
-      <c r="AC11" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE11" s="10" t="s">
-        <v>355</v>
       </c>
       <c r="AF11">
         <v>999</v>
       </c>
-      <c r="AG11" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="AH11" s="10" t="s">
+      <c r="AG11" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK11" t="s">
         <v>356</v>
       </c>
-      <c r="AI11" s="10" t="s">
+      <c r="AL11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM11" t="s">
         <v>357</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AN11" t="s">
         <v>358</v>
       </c>
-      <c r="AK11" s="10" t="s">
+      <c r="AO11" t="s">
         <v>359</v>
       </c>
-      <c r="AL11" s="10" t="s">
+      <c r="AP11" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AT11" t="s">
         <v>363</v>
       </c>
-      <c r="AM11" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP11" s="10" t="s">
+      <c r="AU11" t="s">
         <v>364</v>
       </c>
-      <c r="AQ11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR11" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS11" s="10" t="s">
+      <c r="AV11" t="s">
+        <v>544</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX11" t="s">
         <v>365</v>
       </c>
-      <c r="AT11" s="10" t="s">
+      <c r="AY11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AU11" s="10" t="s">
+      <c r="AZ11" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA11" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="AW11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX11" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="2">
         <v>44738</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4982,34 +5437,34 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>662</v>
+      </c>
+      <c r="L12" t="s">
+        <v>666</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q12" t="s">
         <v>373</v>
-      </c>
-      <c r="I12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
-        <v>668</v>
-      </c>
-      <c r="L12" t="s">
-        <v>672</v>
-      </c>
-      <c r="N12" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" t="s">
-        <v>141</v>
-      </c>
-      <c r="P12" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>376</v>
       </c>
       <c r="R12">
         <v>999</v>
@@ -5018,278 +5473,278 @@
         <v>999</v>
       </c>
       <c r="T12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="V12" t="s">
+        <v>374</v>
+      </c>
+      <c r="W12" t="s">
         <v>375</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="X12" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z12" t="s">
         <v>377</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="AA12" t="s">
         <v>378</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="AB12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>542</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>397</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44739</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>840</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>398</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
+        <v>399</v>
+      </c>
+      <c r="L13" t="s">
+        <v>400</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13">
+        <v>888</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>663</v>
+      </c>
+      <c r="R13" t="s">
+        <v>665</v>
+      </c>
+      <c r="S13" t="s">
+        <v>664</v>
+      </c>
+      <c r="T13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="1">
+        <v>999</v>
+      </c>
+      <c r="V13" t="s">
+        <v>401</v>
+      </c>
+      <c r="W13" t="s">
+        <v>402</v>
+      </c>
+      <c r="X13" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC13" t="s">
         <v>406</v>
       </c>
-      <c r="Y12" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB12" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC12" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE12" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG12" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI12" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="AJ12" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK12" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL12" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM12" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN12" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AO12" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="AP12" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ12" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="AR12" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AS12" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="AT12" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="AU12" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV12" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AW12" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ12" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <v>44739</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="11">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="11">
-        <v>888</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" s="14">
-        <v>999</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z13" s="10" t="s">
+      <c r="AD13" t="s">
         <v>407</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AE13" t="s">
         <v>408</v>
       </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AF13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI13" t="s">
         <v>412</v>
       </c>
-      <c r="AC13" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD13" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE13" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AJ13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM13" t="s">
         <v>413</v>
       </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AN13" t="s">
         <v>414</v>
       </c>
-      <c r="AH13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI13" s="10" t="s">
+      <c r="AO13" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>415</v>
       </c>
-      <c r="AJ13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="AL13" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="AM13" s="10" t="s">
+      <c r="AR13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS13" t="s">
         <v>416</v>
       </c>
-      <c r="AN13" s="10" t="s">
+      <c r="AT13" t="s">
         <v>417</v>
       </c>
-      <c r="AO13" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP13" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AQ13" s="10" t="s">
+      <c r="AU13" t="s">
         <v>418</v>
       </c>
-      <c r="AR13" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AV13" t="s">
         <v>419</v>
       </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AW13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX13" t="s">
         <v>420</v>
       </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AY13" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>449</v>
+      </c>
+      <c r="BA13" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="AV13" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="AW13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="AY13" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="BA13" s="14" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="2">
         <v>44739</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -5298,34 +5753,34 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R14">
         <v>999</v>
@@ -5339,115 +5794,115 @@
       <c r="U14" s="1">
         <v>999</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" t="s">
+        <v>427</v>
+      </c>
+      <c r="W14" t="s">
+        <v>428</v>
+      </c>
+      <c r="X14" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z14" t="s">
         <v>430</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="AA14" t="s">
         <v>431</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="AB14" t="s">
         <v>432</v>
       </c>
-      <c r="Y14" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z14" s="10" t="s">
+      <c r="AC14" t="s">
         <v>433</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AD14" t="s">
         <v>434</v>
       </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AE14" t="s">
         <v>435</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AF14" t="s">
         <v>436</v>
       </c>
-      <c r="AD14" s="10" t="s">
+      <c r="AG14" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH14" t="s">
         <v>437</v>
       </c>
-      <c r="AE14" s="10" t="s">
+      <c r="AI14" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK14" t="s">
         <v>438</v>
       </c>
-      <c r="AF14" s="10" t="s">
+      <c r="AL14" t="s">
         <v>439</v>
       </c>
-      <c r="AG14" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH14" s="10" t="s">
+      <c r="AM14" t="s">
         <v>440</v>
       </c>
-      <c r="AI14" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="AJ14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK14" s="10" t="s">
+      <c r="AN14" t="s">
         <v>441</v>
       </c>
-      <c r="AL14" s="10" t="s">
+      <c r="AO14" t="s">
         <v>442</v>
       </c>
-      <c r="AM14" s="10" t="s">
+      <c r="AP14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>443</v>
       </c>
-      <c r="AN14" s="10" t="s">
+      <c r="AR14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS14" t="s">
         <v>444</v>
       </c>
-      <c r="AO14" s="10" t="s">
+      <c r="AT14" t="s">
         <v>445</v>
       </c>
-      <c r="AP14" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ14" s="10" t="s">
+      <c r="AU14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV14" t="s">
         <v>446</v>
       </c>
-      <c r="AR14" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS14" s="10" t="s">
+      <c r="AW14" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX14" t="s">
         <v>447</v>
       </c>
-      <c r="AT14" s="10" t="s">
+      <c r="AY14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>448</v>
       </c>
-      <c r="AU14" s="10" t="s">
+      <c r="BA14" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="AV14" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="AW14" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX14" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ14" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>44739</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -5456,156 +5911,156 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
-        <v>99</v>
-      </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
+        <v>450</v>
+      </c>
+      <c r="L15" t="s">
+        <v>451</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>452</v>
+      </c>
+      <c r="P15" t="s">
         <v>453</v>
       </c>
-      <c r="L15" t="s">
-        <v>454</v>
-      </c>
-      <c r="N15" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" t="s">
-        <v>455</v>
-      </c>
-      <c r="P15" t="s">
-        <v>456</v>
-      </c>
       <c r="Q15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="R15">
         <v>999</v>
       </c>
       <c r="S15" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="T15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="V15" t="s">
+        <v>455</v>
+      </c>
+      <c r="W15" t="s">
+        <v>456</v>
+      </c>
+      <c r="X15" t="s">
         <v>457</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="Y15" t="s">
         <v>458</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="Z15" t="s">
         <v>459</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AA15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC15" t="s">
         <v>460</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AD15" t="s">
         <v>461</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AE15" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF15" t="s">
         <v>462</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB15" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AG15" t="s">
         <v>463</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AH15" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI15" t="s">
         <v>464</v>
       </c>
-      <c r="AE15" s="10" t="s">
+      <c r="AJ15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>467</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>469</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>527</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>471</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>472</v>
+      </c>
+      <c r="AW15" t="s">
         <v>528</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="AM15" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN15" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP15" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="AQ15" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AR15" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AS15" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT15" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="AU15" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="AV15" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="AW15" s="10" t="s">
-        <v>531</v>
       </c>
       <c r="AX15">
         <v>999</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AZ15" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>475</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="2">
         <v>44739</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>840</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -5614,34 +6069,34 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
+        <v>477</v>
+      </c>
+      <c r="H16" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>478</v>
+      </c>
+      <c r="L16" t="s">
+        <v>479</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
         <v>480</v>
       </c>
-      <c r="H16" t="s">
-        <v>373</v>
-      </c>
-      <c r="I16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="P16" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q16" t="s">
         <v>481</v>
-      </c>
-      <c r="L16" t="s">
-        <v>482</v>
-      </c>
-      <c r="N16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" t="s">
-        <v>483</v>
-      </c>
-      <c r="P16" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>484</v>
       </c>
       <c r="R16">
         <v>999</v>
@@ -5650,120 +6105,120 @@
         <v>999</v>
       </c>
       <c r="T16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="V16" t="s">
+        <v>374</v>
+      </c>
+      <c r="W16" t="s">
+        <v>483</v>
+      </c>
+      <c r="X16" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z16" t="s">
         <v>485</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="W16" s="10" t="s">
+      <c r="AA16" t="s">
         <v>486</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="AB16" t="s">
         <v>487</v>
       </c>
-      <c r="Y16" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z16" s="10" t="s">
+      <c r="AC16" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD16" t="s">
         <v>488</v>
       </c>
-      <c r="AA16" s="10" t="s">
+      <c r="AE16" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>535</v>
+      </c>
+      <c r="AH16" t="s">
         <v>489</v>
       </c>
-      <c r="AB16" s="10" t="s">
+      <c r="AI16" t="s">
         <v>490</v>
       </c>
-      <c r="AC16" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD16" s="10" t="s">
+      <c r="AJ16" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK16" t="s">
         <v>491</v>
       </c>
-      <c r="AE16" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF16" s="10" t="s">
+      <c r="AL16" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>492</v>
+      </c>
+      <c r="AO16" t="s">
         <v>539</v>
       </c>
-      <c r="AG16" s="10" t="s">
+      <c r="AP16" t="s">
         <v>538</v>
       </c>
-      <c r="AH16" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="AI16" s="10" t="s">
+      <c r="AQ16" t="s">
         <v>493</v>
       </c>
-      <c r="AJ16" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK16" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="AL16" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="AM16" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN16" s="10" t="s">
+      <c r="AR16" t="s">
+        <v>533</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>496</v>
+      </c>
+      <c r="AT16" t="s">
         <v>495</v>
       </c>
-      <c r="AO16" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="AP16" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="AQ16" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="AR16" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="AS16" s="10" t="s">
+      <c r="AU16" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>498</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>528</v>
+      </c>
+      <c r="AX16" t="s">
         <v>499</v>
       </c>
-      <c r="AT16" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="AU16" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV16" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="AW16" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>502</v>
-      </c>
       <c r="AY16" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AZ16" s="10" t="s">
-        <v>535</v>
+        <v>341</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>532</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>44739</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -5772,34 +6227,34 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" t="s">
+        <v>501</v>
+      </c>
+      <c r="J17" t="s">
+        <v>502</v>
+      </c>
+      <c r="K17" t="s">
         <v>503</v>
       </c>
-      <c r="H17" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>504</v>
       </c>
-      <c r="J17" t="s">
+      <c r="N17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" t="s">
         <v>505</v>
       </c>
-      <c r="K17" t="s">
+      <c r="P17" t="s">
         <v>506</v>
       </c>
-      <c r="L17" t="s">
+      <c r="Q17" t="s">
         <v>507</v>
-      </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>508</v>
-      </c>
-      <c r="P17" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>510</v>
       </c>
       <c r="R17">
         <v>999</v>
@@ -5813,115 +6268,115 @@
       <c r="U17" s="1">
         <v>999</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="V17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W17" t="s">
+        <v>509</v>
+      </c>
+      <c r="X17" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC17" t="s">
         <v>511</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="AD17" t="s">
         <v>512</v>
       </c>
-      <c r="X17" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AE17" t="s">
         <v>513</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="AC17" s="10" t="s">
+      <c r="AF17" t="s">
         <v>514</v>
       </c>
-      <c r="AD17" s="10" t="s">
+      <c r="AG17" t="s">
         <v>515</v>
       </c>
-      <c r="AE17" s="10" t="s">
+      <c r="AH17" t="s">
         <v>516</v>
       </c>
-      <c r="AF17" s="10" t="s">
+      <c r="AI17" t="s">
         <v>517</v>
       </c>
-      <c r="AG17" s="10" t="s">
+      <c r="AJ17" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL17" t="s">
         <v>518</v>
       </c>
-      <c r="AH17" s="10" t="s">
+      <c r="AM17" t="s">
+        <v>540</v>
+      </c>
+      <c r="AN17" t="s">
         <v>519</v>
       </c>
-      <c r="AI17" s="10" t="s">
+      <c r="AO17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>520</v>
       </c>
-      <c r="AJ17" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL17" s="10" t="s">
+      <c r="AR17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>363</v>
+      </c>
+      <c r="AU17" t="s">
         <v>521</v>
       </c>
-      <c r="AM17" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="AN17" s="10" t="s">
+      <c r="AV17" t="s">
         <v>522</v>
       </c>
-      <c r="AO17" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="AP17" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AQ17" s="10" t="s">
+      <c r="AW17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX17" t="s">
         <v>523</v>
       </c>
-      <c r="AR17" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS17" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT17" s="10" t="s">
+      <c r="AY17" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AU17" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV17" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="AW17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX17" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ17" s="10" t="s">
-        <v>451</v>
+      <c r="AZ17" t="s">
+        <v>448</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <v>44747</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -5930,34 +6385,34 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
+        <v>547</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>501</v>
+      </c>
+      <c r="J18" t="s">
+        <v>502</v>
+      </c>
+      <c r="K18" t="s">
+        <v>548</v>
+      </c>
+      <c r="L18" t="s">
+        <v>549</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
         <v>550</v>
       </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" t="s">
-        <v>504</v>
-      </c>
-      <c r="J18" t="s">
-        <v>505</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="P18" t="s">
         <v>551</v>
       </c>
-      <c r="L18" t="s">
+      <c r="Q18" t="s">
         <v>552</v>
-      </c>
-      <c r="N18" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" t="s">
-        <v>553</v>
-      </c>
-      <c r="P18" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>555</v>
       </c>
       <c r="R18">
         <v>999</v>
@@ -5966,120 +6421,120 @@
         <v>999</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U18" s="1">
         <v>999</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="V18" t="s">
+        <v>667</v>
+      </c>
+      <c r="W18" t="s">
+        <v>668</v>
+      </c>
+      <c r="X18" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC18" t="s">
         <v>673</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="AD18" t="s">
         <v>674</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="AE18" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF18" t="s">
         <v>675</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="AG18" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH18" t="s">
         <v>676</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AI18" t="s">
         <v>677</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AJ18" t="s">
+        <v>678</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>679</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>680</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>681</v>
+      </c>
+      <c r="AN18" t="s">
         <v>556</v>
       </c>
-      <c r="AB18" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="AC18" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="AD18" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="AE18" s="10" t="s">
+      <c r="AO18" t="s">
         <v>557</v>
       </c>
-      <c r="AF18" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AP18" t="s">
+        <v>682</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>558</v>
       </c>
-      <c r="AH18" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AR18" t="s">
         <v>683</v>
       </c>
-      <c r="AJ18" s="10" t="s">
+      <c r="AS18" t="s">
         <v>684</v>
       </c>
-      <c r="AK18" s="10" t="s">
+      <c r="AT18" t="s">
         <v>685</v>
       </c>
-      <c r="AL18" s="10" t="s">
+      <c r="AU18" t="s">
         <v>686</v>
       </c>
-      <c r="AM18" s="10" t="s">
+      <c r="AV18" t="s">
         <v>687</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AW18" t="s">
+        <v>688</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>499</v>
+      </c>
+      <c r="AY18" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="AQ18" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="AR18" s="10" t="s">
+      <c r="AZ18" t="s">
         <v>689</v>
       </c>
-      <c r="AS18" s="10" t="s">
+      <c r="BA18" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="AT18" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="AU18" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="AV18" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="AW18" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="AX18" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="AZ18" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="2">
         <v>44747</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -6088,156 +6543,156 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I19" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L19" t="s">
+        <v>560</v>
+      </c>
+      <c r="N19" t="s">
+        <v>561</v>
+      </c>
+      <c r="O19" t="s">
+        <v>562</v>
+      </c>
+      <c r="P19" t="s">
         <v>563</v>
       </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
         <v>564</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>565</v>
-      </c>
-      <c r="P19" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>567</v>
-      </c>
-      <c r="R19" t="s">
-        <v>568</v>
       </c>
       <c r="S19">
         <v>999</v>
       </c>
       <c r="T19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U19" s="1">
         <v>999</v>
       </c>
-      <c r="V19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W19" s="10" t="s">
+      <c r="V19" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" t="s">
+        <v>569</v>
+      </c>
+      <c r="X19" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>408</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>572</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK19" t="s">
         <v>573</v>
       </c>
-      <c r="X19" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA19" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB19" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="AC19" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD19" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE19" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF19" s="10" t="s">
+      <c r="AL19" t="s">
         <v>574</v>
       </c>
-      <c r="AG19" s="10" t="s">
+      <c r="AM19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN19" t="s">
         <v>575</v>
       </c>
-      <c r="AH19" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI19" s="10" t="s">
+      <c r="AO19" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP19" t="s">
         <v>576</v>
       </c>
-      <c r="AJ19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK19" s="10" t="s">
+      <c r="AQ19" t="s">
         <v>577</v>
       </c>
-      <c r="AL19" s="10" t="s">
+      <c r="AR19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>363</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>446</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX19" t="s">
         <v>578</v>
       </c>
-      <c r="AM19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN19" s="10" t="s">
+      <c r="AY19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>580</v>
+      </c>
+      <c r="BA19" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="AO19" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="AP19" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="AQ19" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="AR19" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS19" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AT19" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="AU19" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AV19" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="AW19" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX19" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ19" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="BA19" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="2">
         <v>44747</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -6246,159 +6701,159 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I20" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K20" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P20" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Q20" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="R20">
         <v>999</v>
       </c>
       <c r="S20" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="T20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U20" s="1">
         <v>999</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="V20" t="s">
+        <v>588</v>
+      </c>
+      <c r="W20" t="s">
+        <v>589</v>
+      </c>
+      <c r="X20" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC20" t="s">
         <v>592</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="AD20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE20" t="s">
         <v>593</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="AF20" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>594</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>595</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>597</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>598</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>599</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN20" t="s">
         <v>600</v>
       </c>
-      <c r="Y20" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="AC20" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="AE20" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="AG20" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH20" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="AI20" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="AJ20" s="10" t="s">
+      <c r="AO20" t="s">
         <v>601</v>
       </c>
-      <c r="AK20" s="10" t="s">
+      <c r="AP20" t="s">
         <v>602</v>
       </c>
-      <c r="AL20" s="10" t="s">
+      <c r="AQ20" t="s">
         <v>603</v>
       </c>
-      <c r="AM20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN20" s="10" t="s">
+      <c r="AR20" t="s">
         <v>604</v>
       </c>
-      <c r="AO20" s="10" t="s">
+      <c r="AS20" t="s">
         <v>605</v>
       </c>
-      <c r="AP20" s="10" t="s">
+      <c r="AT20" t="s">
+        <v>495</v>
+      </c>
+      <c r="AU20" t="s">
         <v>606</v>
       </c>
-      <c r="AQ20" s="10" t="s">
+      <c r="AV20" t="s">
         <v>607</v>
       </c>
-      <c r="AR20" s="10" t="s">
+      <c r="AW20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>608</v>
-      </c>
-      <c r="AS20" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="AT20" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="AU20" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="AV20" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="AW20" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="AX20" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AZ20" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="BA20" s="1">
         <v>999</v>
       </c>
-      <c r="BB20" s="10" t="s">
-        <v>700</v>
+      <c r="BB20" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="2">
         <v>44747</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -6407,159 +6862,159 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K21" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Q21" t="s">
-        <v>618</v>
+        <v>773</v>
       </c>
       <c r="R21">
         <v>999</v>
       </c>
-      <c r="S21">
-        <v>999</v>
+      <c r="S21" t="s">
+        <v>775</v>
       </c>
       <c r="T21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U21" s="1">
         <v>999</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z21" s="10" t="s">
+      <c r="V21" t="s">
+        <v>427</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF21" t="s">
         <v>621</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AG21" t="s">
         <v>622</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AH21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI21" t="s">
         <v>623</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AJ21" t="s">
         <v>624</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AK21" t="s">
         <v>625</v>
       </c>
-      <c r="AE21" s="10" t="s">
+      <c r="AL21" t="s">
         <v>626</v>
       </c>
-      <c r="AF21" s="10" t="s">
+      <c r="AM21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO21" t="s">
         <v>627</v>
       </c>
-      <c r="AG21" s="10" t="s">
+      <c r="AP21" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>628</v>
       </c>
-      <c r="AH21" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI21" s="10" t="s">
+      <c r="AR21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT21" t="s">
         <v>629</v>
       </c>
-      <c r="AJ21" s="10" t="s">
+      <c r="AU21" t="s">
         <v>630</v>
       </c>
-      <c r="AK21" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="AM21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN21" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="AO21" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="AP21" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ21" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="AR21" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS21" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT21" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="AU21" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="AV21" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="AW21" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="AX21" s="10" t="s">
-        <v>133</v>
+      <c r="AV21" t="s">
+        <v>446</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>695</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>131</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ21" s="10" t="s">
-        <v>620</v>
+        <v>93</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>614</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BB21" t="s">
-        <v>619</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="2">
         <v>44747</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>570</v>
+        <v>841</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -6568,34 +7023,34 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K22" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L22" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="N22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O22">
         <v>999</v>
       </c>
       <c r="P22" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="Q22" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="R22">
         <v>999</v>
@@ -6609,105 +7064,1071 @@
       <c r="U22" s="1">
         <v>999</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="W22" s="10" t="s">
+      <c r="V22" t="s">
+        <v>374</v>
+      </c>
+      <c r="W22" t="s">
+        <v>636</v>
+      </c>
+      <c r="X22" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>641</v>
+      </c>
+      <c r="AD22" t="s">
         <v>642</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="AE22" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF22" t="s">
         <v>643</v>
       </c>
-      <c r="Y22" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z22" s="10" t="s">
+      <c r="AG22" t="s">
         <v>644</v>
       </c>
-      <c r="AA22" s="10" t="s">
+      <c r="AH22" t="s">
         <v>645</v>
       </c>
-      <c r="AB22" s="10" t="s">
+      <c r="AI22" t="s">
         <v>646</v>
       </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AJ22" t="s">
         <v>647</v>
       </c>
-      <c r="AD22" s="10" t="s">
+      <c r="AK22" t="s">
         <v>648</v>
       </c>
-      <c r="AE22" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF22" s="10" t="s">
+      <c r="AL22" t="s">
         <v>649</v>
       </c>
-      <c r="AG22" s="10" t="s">
+      <c r="AM22" t="s">
         <v>650</v>
       </c>
-      <c r="AH22" s="10" t="s">
+      <c r="AN22" t="s">
         <v>651</v>
       </c>
-      <c r="AI22" s="10" t="s">
+      <c r="AO22" t="s">
         <v>652</v>
       </c>
-      <c r="AJ22" s="10" t="s">
+      <c r="AP22" t="s">
         <v>653</v>
       </c>
-      <c r="AK22" s="10" t="s">
+      <c r="AQ22" t="s">
         <v>654</v>
       </c>
-      <c r="AL22" s="10" t="s">
+      <c r="AR22" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS22" t="s">
         <v>655</v>
       </c>
-      <c r="AM22" s="10" t="s">
+      <c r="AT22" t="s">
         <v>656</v>
       </c>
-      <c r="AN22" s="10" t="s">
+      <c r="AU22" t="s">
         <v>657</v>
       </c>
-      <c r="AO22" s="10" t="s">
+      <c r="AV22" t="s">
         <v>658</v>
       </c>
-      <c r="AP22" s="10" t="s">
+      <c r="AW22" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY22" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AQ22" s="10" t="s">
+      <c r="AZ22" t="s">
+        <v>661</v>
+      </c>
+      <c r="BA22" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="AR22" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AS22" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="AT22" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="AU22" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="AV22" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="AW22" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="AX22" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY22" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="AZ22" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="BA22" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44757</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>719</v>
+      </c>
+      <c r="H23" t="s">
+        <v>567</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>502</v>
+      </c>
+      <c r="K23" t="s">
+        <v>699</v>
+      </c>
+      <c r="L23" t="s">
+        <v>696</v>
+      </c>
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" t="s">
+        <v>480</v>
+      </c>
+      <c r="P23" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>698</v>
+      </c>
+      <c r="R23">
+        <v>999</v>
+      </c>
+      <c r="S23">
+        <v>999</v>
+      </c>
+      <c r="T23" t="s">
+        <v>246</v>
+      </c>
+      <c r="U23" s="1">
+        <v>999</v>
+      </c>
+      <c r="V23" t="s">
+        <v>700</v>
+      </c>
+      <c r="W23" t="s">
+        <v>636</v>
+      </c>
+      <c r="X23" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>708</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>710</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>712</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>713</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>602</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>714</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>715</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>716</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>717</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>718</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44757</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>841</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>745</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>502</v>
+      </c>
+      <c r="K24" t="s">
+        <v>720</v>
+      </c>
+      <c r="L24" t="s">
+        <v>721</v>
+      </c>
+      <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>480</v>
+      </c>
+      <c r="P24" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>723</v>
+      </c>
+      <c r="R24">
+        <v>999</v>
+      </c>
+      <c r="S24">
+        <v>999</v>
+      </c>
+      <c r="T24" t="s">
+        <v>64</v>
+      </c>
+      <c r="U24" s="1">
+        <v>999</v>
+      </c>
+      <c r="V24" t="s">
+        <v>724</v>
+      </c>
+      <c r="W24" t="s">
+        <v>725</v>
+      </c>
+      <c r="X24" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y24">
+        <v>999</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA24">
+        <v>999</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>731</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>729</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>730</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>732</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>733</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>734</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>735</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>736</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>737</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>738</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>739</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>740</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>741</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>743</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>744</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44757</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>841</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>746</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>502</v>
+      </c>
+      <c r="K25" t="s">
+        <v>747</v>
+      </c>
+      <c r="L25" t="s">
+        <v>748</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>750</v>
+      </c>
+      <c r="R25" t="s">
+        <v>565</v>
+      </c>
+      <c r="S25" t="s">
+        <v>751</v>
+      </c>
+      <c r="T25" t="s">
+        <v>246</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="V25" t="s">
+        <v>753</v>
+      </c>
+      <c r="W25" t="s">
+        <v>754</v>
+      </c>
+      <c r="X25" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>759</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>760</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>761</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>762</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>763</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>363</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>764</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>765</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>766</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>768</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44757</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>841</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>771</v>
+      </c>
+      <c r="H26" t="s">
+        <v>370</v>
+      </c>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>502</v>
+      </c>
+      <c r="K26" t="s">
+        <v>776</v>
+      </c>
+      <c r="L26" t="s">
+        <v>772</v>
+      </c>
+      <c r="N26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" t="s">
+        <v>582</v>
+      </c>
+      <c r="P26" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>773</v>
+      </c>
+      <c r="R26">
+        <v>999</v>
+      </c>
+      <c r="S26" t="s">
+        <v>774</v>
+      </c>
+      <c r="T26" t="s">
+        <v>246</v>
+      </c>
+      <c r="U26" s="1">
+        <v>999</v>
+      </c>
+      <c r="V26" t="s">
+        <v>724</v>
+      </c>
+      <c r="W26" t="s">
+        <v>66</v>
+      </c>
+      <c r="X26" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>782</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>783</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>784</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>786</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>787</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>788</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>789</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>790</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>791</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>792</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>793</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>794</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>999</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>795</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44757</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>841</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>796</v>
+      </c>
+      <c r="H27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
+        <v>502</v>
+      </c>
+      <c r="K27" t="s">
+        <v>797</v>
+      </c>
+      <c r="L27" t="s">
+        <v>798</v>
+      </c>
+      <c r="N27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>773</v>
+      </c>
+      <c r="R27">
+        <v>999</v>
+      </c>
+      <c r="S27">
+        <v>999</v>
+      </c>
+      <c r="T27" t="s">
+        <v>64</v>
+      </c>
+      <c r="U27" s="1">
+        <v>999</v>
+      </c>
+      <c r="V27" t="s">
+        <v>427</v>
+      </c>
+      <c r="W27" t="s">
+        <v>800</v>
+      </c>
+      <c r="X27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>802</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>805</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>806</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>783</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>807</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>808</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>809</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>810</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>811</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>812</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>813</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>814</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>793</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>794</v>
+      </c>
+      <c r="AY27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>815</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44757</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>840</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>816</v>
+      </c>
+      <c r="H28" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" t="s">
+        <v>817</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" t="s">
+        <v>818</v>
+      </c>
+      <c r="L28" t="s">
+        <v>819</v>
+      </c>
+      <c r="N28" t="s">
+        <v>820</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>822</v>
+      </c>
+      <c r="R28">
+        <v>999</v>
+      </c>
+      <c r="S28">
+        <v>999</v>
+      </c>
+      <c r="T28" t="s">
+        <v>246</v>
+      </c>
+      <c r="U28" s="1">
+        <v>999</v>
+      </c>
+      <c r="V28" t="s">
+        <v>274</v>
+      </c>
+      <c r="W28" t="s">
+        <v>316</v>
+      </c>
+      <c r="X28" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>827</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>829</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>830</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>831</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>832</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>833</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>834</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>835</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>836</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>837</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>838</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>304</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F766E5-A6C3-4AE8-9134-0A9AEF79DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA10342-C1F9-4781-9474-F8C39AF89FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="0" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="937">
   <si>
     <t>ID</t>
   </si>
@@ -1154,9 +1154,6 @@
     <t>Gau Baden &lt;Allemanisches Gebiet&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Wilhelm Oettlin - </t>
-  </si>
-  <si>
     <t>Haltlingen</t>
   </si>
   <si>
@@ -3194,6 +3191,291 @@
       </rPr>
       <t>sala, Dallerla</t>
     </r>
+  </si>
+  <si>
+    <t>III_17_0003</t>
+  </si>
+  <si>
+    <t>x-l</t>
+  </si>
+  <si>
+    <t>Überstraß</t>
+  </si>
+  <si>
+    <t>Adolf Stahlberger</t>
+  </si>
+  <si>
+    <t>Strassburg</t>
+  </si>
+  <si>
+    <t>i. Els.</t>
+  </si>
+  <si>
+    <t>Marie Johanna Herzog</t>
+  </si>
+  <si>
+    <t>Omeisala (s', s)</t>
+  </si>
+  <si>
+    <t>Licht (d', w) &lt;Vergräbnis&gt;</t>
+  </si>
+  <si>
+    <t>Brumbäre (d', w)</t>
+  </si>
+  <si>
+    <t>Disel (der, m)</t>
+  </si>
+  <si>
+    <t>Agerschta (d', w)</t>
+  </si>
+  <si>
+    <t>Gaeger (d', w)</t>
+  </si>
+  <si>
+    <t>Fladermüs (d', w)</t>
+  </si>
+  <si>
+    <t>Mucka (d', w)</t>
+  </si>
+  <si>
+    <t>Amd (s', s)</t>
+  </si>
+  <si>
+    <t>Gagumera (d', w)</t>
+  </si>
+  <si>
+    <t>Buttla (d', w)</t>
+  </si>
+  <si>
+    <t>Guckel (der, m), Huehn (d', w)</t>
+  </si>
+  <si>
+    <t>Hebamma (d', w)</t>
+  </si>
+  <si>
+    <t>Hartäpfel (d', w)</t>
+  </si>
+  <si>
+    <t>Rolli (der, m)</t>
+  </si>
+  <si>
+    <t>Schormüs (d', w)</t>
+  </si>
+  <si>
+    <t>Kalriewa (d', w)</t>
+  </si>
+  <si>
+    <t>Mora (d', w)</t>
+  </si>
+  <si>
+    <t>Geta (der, m)</t>
+  </si>
+  <si>
+    <t>Rieme (der, m)</t>
+  </si>
+  <si>
+    <t>Spatz (der, m)</t>
+  </si>
+  <si>
+    <t>Stachelbära (d', w)</t>
+  </si>
+  <si>
+    <t>Gufa (d', w)</t>
+  </si>
+  <si>
+    <t>Stricknodla (d', w)</t>
+  </si>
+  <si>
+    <t>Tassala (s', s)</t>
+  </si>
+  <si>
+    <t>artiger Hafa (m)</t>
+  </si>
+  <si>
+    <t>Geiß (d', w)</t>
+  </si>
+  <si>
+    <t>Holundara (d', w)</t>
+  </si>
+  <si>
+    <t>III_17_0011</t>
+  </si>
+  <si>
+    <t>x-B</t>
+  </si>
+  <si>
+    <t>Mornach {auch Mörnach}</t>
+  </si>
+  <si>
+    <t>Ober[??]eui</t>
+  </si>
+  <si>
+    <t>Josef Geiss</t>
+  </si>
+  <si>
+    <t>Fislis</t>
+  </si>
+  <si>
+    <t>Beer[d]igung</t>
+  </si>
+  <si>
+    <t>Egerste</t>
+  </si>
+  <si>
+    <t>Mucke</t>
+  </si>
+  <si>
+    <t>Öhmt</t>
+  </si>
+  <si>
+    <t>Guckel, Huhn</t>
+  </si>
+  <si>
+    <t>schelten, schimpfen</t>
+  </si>
+  <si>
+    <t>Stachelbeere</t>
+  </si>
+  <si>
+    <t>Gufe</t>
+  </si>
+  <si>
+    <t>Unterteller</t>
+  </si>
+  <si>
+    <t>III_17_0012</t>
+  </si>
+  <si>
+    <t>x-A</t>
+  </si>
+  <si>
+    <t>Moos</t>
+  </si>
+  <si>
+    <t>Scherrer</t>
+  </si>
+  <si>
+    <t>Omeisala (s)</t>
+  </si>
+  <si>
+    <t>Licht (w)</t>
+  </si>
+  <si>
+    <t>Agrsta ([f],w)</t>
+  </si>
+  <si>
+    <t>Fladrmüs (w)</t>
+  </si>
+  <si>
+    <t>Gugummre (w)</t>
+  </si>
+  <si>
+    <t>Budda (m)</t>
+  </si>
+  <si>
+    <t>Guggl (m), Hüehn (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfl (m)</t>
+  </si>
+  <si>
+    <t>Schar (m)</t>
+  </si>
+  <si>
+    <t>Galriāba (m)</t>
+  </si>
+  <si>
+    <t>Gädda (m)</t>
+  </si>
+  <si>
+    <t>schlarma</t>
+  </si>
+  <si>
+    <t>Spātz (m)</t>
+  </si>
+  <si>
+    <t>Chroschbalu (w)</t>
+  </si>
+  <si>
+    <t>S[t]ri[g]gnodla (w)</t>
+  </si>
+  <si>
+    <t>Schissala (s)</t>
+  </si>
+  <si>
+    <t>hardigr H[ā]fa (m)</t>
+  </si>
+  <si>
+    <t>Suhnsfraui (w)</t>
+  </si>
+  <si>
+    <t>Hollra (w)</t>
+  </si>
+  <si>
+    <t>III_17_0013</t>
+  </si>
+  <si>
+    <t>x-[t]</t>
+  </si>
+  <si>
+    <t>Bisel</t>
+  </si>
+  <si>
+    <t>Wilhelm Oettlin</t>
+  </si>
+  <si>
+    <t>Offenburg</t>
+  </si>
+  <si>
+    <t>Wilhelm [I]schan</t>
+  </si>
+  <si>
+    <t>A {es werden nur Namen genannt}</t>
+  </si>
+  <si>
+    <t>Vath Rocklin Oser Irma Mattler</t>
+  </si>
+  <si>
+    <t>Omerisala</t>
+  </si>
+  <si>
+    <t>Brumbära</t>
+  </si>
+  <si>
+    <t>Anta</t>
+  </si>
+  <si>
+    <t>Ahmt</t>
+  </si>
+  <si>
+    <t>Gakummera</t>
+  </si>
+  <si>
+    <t>Butta</t>
+  </si>
+  <si>
+    <t>Guckel, Hüahn</t>
+  </si>
+  <si>
+    <t>Hebam (d')</t>
+  </si>
+  <si>
+    <t>Gelerübe</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Gätte</t>
+  </si>
+  <si>
+    <t>Groschbala</t>
+  </si>
+  <si>
+    <t>Streknotla</t>
+  </si>
+  <si>
+    <t>Dasala</t>
   </si>
 </sst>
 </file>
@@ -3297,13 +3579,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3622,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BC3" sqref="BC3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BB32" sqref="BB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3836,7 +4119,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -3902,7 +4185,7 @@
         <v>69</v>
       </c>
       <c r="AA2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AB2" t="s">
         <v>70</v>
@@ -3994,7 +4277,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -4123,7 +4406,7 @@
         <v>129</v>
       </c>
       <c r="AV3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AW3" t="s">
         <v>130</v>
@@ -4141,7 +4424,7 @@
         <v>133</v>
       </c>
       <c r="BB3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
@@ -4155,7 +4438,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -4275,7 +4558,7 @@
         <v>165</v>
       </c>
       <c r="AS4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AT4" t="s">
         <v>166</v>
@@ -4302,7 +4585,7 @@
         <v>173</v>
       </c>
       <c r="BB4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -4316,7 +4599,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -4463,7 +4746,7 @@
         <v>210</v>
       </c>
       <c r="BB5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -4477,7 +4760,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -4513,13 +4796,13 @@
         <v>217</v>
       </c>
       <c r="P6" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q6" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>219</v>
-      </c>
-      <c r="R6" t="s">
-        <v>220</v>
       </c>
       <c r="S6">
         <v>999</v>
@@ -4528,43 +4811,43 @@
         <v>64</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V6" t="s">
         <v>221</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>222</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>223</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>224</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>225</v>
       </c>
       <c r="Z6" t="s">
         <v>185</v>
       </c>
       <c r="AA6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB6" t="s">
         <v>226</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>227</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>228</v>
       </c>
       <c r="AD6" t="s">
         <v>189</v>
       </c>
       <c r="AE6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>230</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>231</v>
       </c>
       <c r="AH6" t="s">
         <v>117</v>
@@ -4573,13 +4856,13 @@
         <v>194</v>
       </c>
       <c r="AJ6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK6" t="s">
         <v>232</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>233</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>234</v>
       </c>
       <c r="AM6" t="s">
         <v>121</v>
@@ -4588,13 +4871,13 @@
         <v>198</v>
       </c>
       <c r="AO6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP6" t="s">
         <v>235</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>236</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>237</v>
       </c>
       <c r="AR6" t="s">
         <v>202</v>
@@ -4606,16 +4889,16 @@
         <v>204</v>
       </c>
       <c r="AU6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AV6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AW6" t="s">
         <v>207</v>
       </c>
       <c r="AX6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>209</v>
@@ -4624,7 +4907,7 @@
         <v>211</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -4638,7 +4921,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -4647,22 +4930,22 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" t="s">
         <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
       </c>
       <c r="K7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" t="s">
         <v>242</v>
-      </c>
-      <c r="L7" t="s">
-        <v>243</v>
       </c>
       <c r="N7" t="s">
         <v>102</v>
@@ -4671,10 +4954,10 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>245</v>
       </c>
       <c r="R7">
         <v>999</v>
@@ -4683,94 +4966,94 @@
         <v>999</v>
       </c>
       <c r="T7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U7" s="1">
         <v>999</v>
       </c>
       <c r="V7" t="s">
+        <v>246</v>
+      </c>
+      <c r="W7" t="s">
         <v>247</v>
-      </c>
-      <c r="W7" t="s">
-        <v>248</v>
       </c>
       <c r="X7" t="s">
         <v>107</v>
       </c>
       <c r="Y7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z7" t="s">
         <v>249</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>250</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>251</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>252</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>253</v>
       </c>
       <c r="AD7" t="s">
         <v>189</v>
       </c>
       <c r="AE7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF7" t="s">
         <v>229</v>
       </c>
-      <c r="AF7" t="s">
-        <v>230</v>
-      </c>
       <c r="AG7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH7" t="s">
         <v>117</v>
       </c>
       <c r="AI7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ7" t="s">
         <v>118</v>
       </c>
       <c r="AK7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL7" t="s">
         <v>256</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>257</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>258</v>
       </c>
       <c r="AN7" t="s">
         <v>198</v>
       </c>
       <c r="AO7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP7" t="s">
         <v>259</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>260</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>261</v>
       </c>
       <c r="AR7" t="s">
         <v>202</v>
       </c>
       <c r="AS7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT7" t="s">
         <v>262</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>263</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>264</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>265</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>266</v>
       </c>
       <c r="AX7" t="s">
         <v>208</v>
@@ -4782,7 +5065,7 @@
         <v>211</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
@@ -4796,7 +5079,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -4805,22 +5088,22 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H8" t="s">
         <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
       </c>
       <c r="K8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" t="s">
         <v>270</v>
-      </c>
-      <c r="L8" t="s">
-        <v>271</v>
       </c>
       <c r="N8" t="s">
         <v>102</v>
@@ -4829,10 +5112,10 @@
         <v>103</v>
       </c>
       <c r="P8" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" t="s">
         <v>272</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>273</v>
       </c>
       <c r="R8">
         <v>999</v>
@@ -4847,100 +5130,100 @@
         <v>999</v>
       </c>
       <c r="V8" t="s">
+        <v>273</v>
+      </c>
+      <c r="W8" t="s">
         <v>274</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>275</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>276</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>277</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>278</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>279</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>280</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>281</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>282</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>283</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>284</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>285</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>286</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>287</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>288</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>289</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>290</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>291</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>292</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>293</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>294</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>295</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>296</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>297</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>298</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>299</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>300</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>301</v>
       </c>
       <c r="AX8" t="s">
         <v>208</v>
       </c>
       <c r="AY8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA8" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
@@ -4954,7 +5237,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -4963,22 +5246,22 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
         <v>97</v>
       </c>
       <c r="I9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" t="s">
         <v>306</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>307</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>308</v>
-      </c>
-      <c r="L9" t="s">
-        <v>309</v>
       </c>
       <c r="N9" t="s">
         <v>102</v>
@@ -4987,10 +5270,10 @@
         <v>103</v>
       </c>
       <c r="P9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" t="s">
         <v>272</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>273</v>
       </c>
       <c r="R9">
         <v>999</v>
@@ -5005,100 +5288,100 @@
         <v>999</v>
       </c>
       <c r="V9" t="s">
+        <v>273</v>
+      </c>
+      <c r="W9" t="s">
         <v>274</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>275</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>276</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>277</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>278</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>279</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>280</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>281</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>282</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>283</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>284</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>285</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>286</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>287</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>288</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>289</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>290</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>291</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>292</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>293</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>294</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>295</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>296</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>297</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>298</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>299</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>300</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>301</v>
       </c>
       <c r="AX9" t="s">
         <v>208</v>
       </c>
       <c r="AY9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA9" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
@@ -5112,7 +5395,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -5121,22 +5404,22 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
       </c>
       <c r="I10" t="s">
+        <v>310</v>
+      </c>
+      <c r="J10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" t="s">
         <v>311</v>
       </c>
-      <c r="J10" t="s">
-        <v>307</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>312</v>
-      </c>
-      <c r="L10" t="s">
-        <v>313</v>
       </c>
       <c r="N10" t="s">
         <v>102</v>
@@ -5145,118 +5428,118 @@
         <v>103</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S10">
         <v>999</v>
       </c>
       <c r="T10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U10" s="1">
         <v>999</v>
       </c>
       <c r="V10" t="s">
+        <v>314</v>
+      </c>
+      <c r="W10" t="s">
         <v>315</v>
       </c>
-      <c r="W10" t="s">
-        <v>316</v>
-      </c>
       <c r="X10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y10" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z10" t="s">
         <v>319</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>320</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>321</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>322</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>323</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>324</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG10" t="s">
         <v>325</v>
       </c>
-      <c r="AF10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>326</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>327</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>328</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>329</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>330</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>331</v>
       </c>
       <c r="AM10" t="s">
         <v>159</v>
       </c>
       <c r="AN10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO10" t="s">
         <v>332</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>333</v>
       </c>
-      <c r="AP10" t="s">
-        <v>334</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR10" t="s">
         <v>165</v>
       </c>
       <c r="AS10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT10" t="s">
         <v>335</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>336</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>337</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>338</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>339</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AZ10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA10" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>304</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -5270,7 +5553,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -5279,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H11" t="s">
         <v>213</v>
@@ -5294,7 +5577,7 @@
         <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N11" t="s">
         <v>60</v>
@@ -5324,64 +5607,64 @@
         <v>65</v>
       </c>
       <c r="W11" t="s">
+        <v>344</v>
+      </c>
+      <c r="X11" t="s">
         <v>345</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>346</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>347</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>348</v>
       </c>
       <c r="AA11">
         <v>999</v>
       </c>
       <c r="AB11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC11" t="s">
         <v>349</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>350</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>351</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>352</v>
       </c>
       <c r="AF11">
         <v>999</v>
       </c>
       <c r="AG11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AH11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI11" t="s">
         <v>353</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>354</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>355</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM11" t="s">
         <v>356</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AN11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP11" t="s">
         <v>360</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>357</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>361</v>
       </c>
       <c r="AQ11" t="s">
         <v>85</v>
@@ -5390,31 +5673,31 @@
         <v>202</v>
       </c>
       <c r="AS11" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT11" t="s">
         <v>362</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>363</v>
       </c>
-      <c r="AU11" t="s">
-        <v>364</v>
-      </c>
       <c r="AV11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AW11" t="s">
         <v>91</v>
       </c>
       <c r="AX11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AY11" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA11" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>368</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -5428,7 +5711,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -5437,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" t="s">
         <v>369</v>
-      </c>
-      <c r="H12" t="s">
-        <v>370</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
@@ -5449,10 +5732,10 @@
         <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N12" t="s">
         <v>60</v>
@@ -5461,10 +5744,10 @@
         <v>139</v>
       </c>
       <c r="P12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R12">
         <v>999</v>
@@ -5473,94 +5756,94 @@
         <v>999</v>
       </c>
       <c r="T12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V12" t="s">
+        <v>373</v>
+      </c>
+      <c r="W12" t="s">
         <v>374</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y12" t="s">
         <v>375</v>
       </c>
-      <c r="X12" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>376</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>377</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>378</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>379</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>380</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>381</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>382</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>383</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>384</v>
       </c>
       <c r="AH12" t="s">
         <v>193</v>
       </c>
       <c r="AI12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>385</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>386</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>387</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>388</v>
       </c>
       <c r="AM12" t="s">
         <v>159</v>
       </c>
       <c r="AN12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO12" t="s">
         <v>389</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>390</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>391</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS12" t="s">
         <v>392</v>
       </c>
-      <c r="AR12" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU12" t="s">
         <v>393</v>
       </c>
-      <c r="AT12" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW12" t="s">
         <v>394</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>542</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>395</v>
       </c>
       <c r="AX12" t="s">
         <v>131</v>
@@ -5569,10 +5852,10 @@
         <v>209</v>
       </c>
       <c r="AZ12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -5586,7 +5869,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -5595,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H13" t="s">
         <v>97</v>
@@ -5607,10 +5890,10 @@
         <v>57</v>
       </c>
       <c r="K13" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" t="s">
         <v>399</v>
-      </c>
-      <c r="L13" t="s">
-        <v>400</v>
       </c>
       <c r="N13" t="s">
         <v>60</v>
@@ -5622,13 +5905,13 @@
         <v>888</v>
       </c>
       <c r="Q13" t="s">
+        <v>662</v>
+      </c>
+      <c r="R13" t="s">
+        <v>664</v>
+      </c>
+      <c r="S13" t="s">
         <v>663</v>
-      </c>
-      <c r="R13" t="s">
-        <v>665</v>
-      </c>
-      <c r="S13" t="s">
-        <v>664</v>
       </c>
       <c r="T13" t="s">
         <v>64</v>
@@ -5637,100 +5920,100 @@
         <v>999</v>
       </c>
       <c r="V13" t="s">
+        <v>400</v>
+      </c>
+      <c r="W13" t="s">
         <v>401</v>
       </c>
-      <c r="W13" t="s">
-        <v>402</v>
-      </c>
       <c r="X13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Y13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z13" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA13" t="s">
         <v>404</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC13" t="s">
         <v>405</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF13" t="s">
         <v>409</v>
       </c>
-      <c r="AC13" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>408</v>
-      </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>410</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>411</v>
       </c>
       <c r="AH13" t="s">
         <v>117</v>
       </c>
       <c r="AI13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ13" t="s">
         <v>118</v>
       </c>
       <c r="AK13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN13" t="s">
         <v>413</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>414</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>415</v>
       </c>
       <c r="AR13" t="s">
         <v>202</v>
       </c>
       <c r="AS13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT13" t="s">
         <v>416</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>417</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>418</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>419</v>
       </c>
       <c r="AW13" t="s">
         <v>91</v>
       </c>
       <c r="AX13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>448</v>
+      </c>
+      <c r="BA13" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>449</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -5744,7 +6027,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -5753,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H14" t="s">
         <v>213</v>
@@ -5765,10 +6048,10 @@
         <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N14" t="s">
         <v>60</v>
@@ -5777,10 +6060,10 @@
         <v>139</v>
       </c>
       <c r="P14" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q14" t="s">
         <v>423</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>424</v>
       </c>
       <c r="R14">
         <v>999</v>
@@ -5795,100 +6078,100 @@
         <v>999</v>
       </c>
       <c r="V14" t="s">
+        <v>426</v>
+      </c>
+      <c r="W14" t="s">
         <v>427</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>428</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z14" t="s">
         <v>429</v>
       </c>
-      <c r="Y14" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>430</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>431</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>432</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>433</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>434</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>435</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH14" t="s">
         <v>436</v>
       </c>
-      <c r="AG14" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>437</v>
-      </c>
       <c r="AI14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ14" t="s">
         <v>118</v>
       </c>
       <c r="AK14" t="s">
+        <v>437</v>
+      </c>
+      <c r="AL14" t="s">
         <v>438</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>439</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>440</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>441</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>442</v>
       </c>
       <c r="AP14" t="s">
         <v>124</v>
       </c>
       <c r="AQ14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AR14" t="s">
         <v>202</v>
       </c>
       <c r="AS14" t="s">
+        <v>443</v>
+      </c>
+      <c r="AT14" t="s">
         <v>444</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV14" t="s">
         <v>445</v>
       </c>
-      <c r="AU14" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX14" t="s">
         <v>446</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>447</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>209</v>
       </c>
       <c r="AZ14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -5902,7 +6185,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -5911,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -5923,130 +6206,130 @@
         <v>57</v>
       </c>
       <c r="K15" t="s">
+        <v>449</v>
+      </c>
+      <c r="L15" t="s">
         <v>450</v>
-      </c>
-      <c r="L15" t="s">
-        <v>451</v>
       </c>
       <c r="N15" t="s">
         <v>60</v>
       </c>
       <c r="O15" t="s">
+        <v>451</v>
+      </c>
+      <c r="P15" t="s">
         <v>452</v>
       </c>
-      <c r="P15" t="s">
-        <v>453</v>
-      </c>
       <c r="Q15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R15">
         <v>999</v>
       </c>
       <c r="S15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="V15" t="s">
         <v>454</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>455</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>456</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>457</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>458</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC15" t="s">
         <v>459</v>
       </c>
-      <c r="AA15" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>460</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF15" t="s">
         <v>461</v>
       </c>
-      <c r="AE15" t="s">
-        <v>525</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>462</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI15" t="s">
         <v>463</v>
       </c>
-      <c r="AH15" t="s">
-        <v>524</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK15" t="s">
         <v>464</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>465</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>466</v>
       </c>
       <c r="AM15" t="s">
         <v>159</v>
       </c>
       <c r="AN15" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP15" t="s">
         <v>467</v>
       </c>
-      <c r="AO15" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>468</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT15" t="s">
         <v>469</v>
       </c>
-      <c r="AR15" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AU15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>471</v>
+      </c>
+      <c r="AW15" t="s">
         <v>527</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>470</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>471</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>472</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>528</v>
       </c>
       <c r="AX15">
         <v>999</v>
       </c>
       <c r="AY15" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>474</v>
+      </c>
+      <c r="BA15" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>475</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -6060,7 +6343,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -6069,10 +6352,10 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I16" t="s">
         <v>98</v>
@@ -6081,22 +6364,22 @@
         <v>57</v>
       </c>
       <c r="K16" t="s">
+        <v>477</v>
+      </c>
+      <c r="L16" t="s">
         <v>478</v>
-      </c>
-      <c r="L16" t="s">
-        <v>479</v>
       </c>
       <c r="N16" t="s">
         <v>60</v>
       </c>
       <c r="O16" t="s">
+        <v>479</v>
+      </c>
+      <c r="P16" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q16" t="s">
         <v>480</v>
-      </c>
-      <c r="P16" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>481</v>
       </c>
       <c r="R16">
         <v>999</v>
@@ -6105,106 +6388,106 @@
         <v>999</v>
       </c>
       <c r="T16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="V16" t="s">
+        <v>373</v>
+      </c>
+      <c r="W16" t="s">
         <v>482</v>
       </c>
-      <c r="V16" t="s">
-        <v>374</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>483</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z16" t="s">
         <v>484</v>
       </c>
-      <c r="Y16" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>485</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>486</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD16" t="s">
         <v>487</v>
       </c>
-      <c r="AC16" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>534</v>
+      </c>
+      <c r="AH16" t="s">
         <v>488</v>
       </c>
-      <c r="AE16" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>536</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>535</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>489</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK16" t="s">
         <v>490</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>491</v>
-      </c>
       <c r="AL16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM16" t="s">
         <v>159</v>
       </c>
       <c r="AN16" t="s">
+        <v>491</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>537</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>492</v>
       </c>
-      <c r="AO16" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>538</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>493</v>
-      </c>
       <c r="AR16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AS16" t="s">
+        <v>495</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU16" t="s">
         <v>496</v>
       </c>
-      <c r="AT16" t="s">
-        <v>495</v>
-      </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>497</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
+        <v>527</v>
+      </c>
+      <c r="AX16" t="s">
         <v>498</v>
       </c>
-      <c r="AW16" t="s">
-        <v>528</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>499</v>
-      </c>
       <c r="AY16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AZ16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
@@ -6218,7 +6501,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -6227,34 +6510,34 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H17" t="s">
         <v>213</v>
       </c>
       <c r="I17" t="s">
+        <v>500</v>
+      </c>
+      <c r="J17" t="s">
         <v>501</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>502</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>503</v>
-      </c>
-      <c r="L17" t="s">
-        <v>504</v>
       </c>
       <c r="N17" t="s">
         <v>60</v>
       </c>
       <c r="O17" t="s">
+        <v>504</v>
+      </c>
+      <c r="P17" t="s">
         <v>505</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>506</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>507</v>
       </c>
       <c r="R17">
         <v>999</v>
@@ -6269,70 +6552,70 @@
         <v>999</v>
       </c>
       <c r="V17" t="s">
+        <v>507</v>
+      </c>
+      <c r="W17" t="s">
         <v>508</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA17" t="s">
         <v>509</v>
       </c>
-      <c r="X17" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
         <v>348</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>510</v>
       </c>
-      <c r="AB17" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>511</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>512</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>513</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>514</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>515</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>516</v>
       </c>
-      <c r="AI17" t="s">
-        <v>517</v>
-      </c>
       <c r="AJ17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AK17" t="s">
         <v>119</v>
       </c>
       <c r="AL17" t="s">
+        <v>517</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN17" t="s">
         <v>518</v>
       </c>
-      <c r="AM17" t="s">
-        <v>540</v>
-      </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>519</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>520</v>
       </c>
       <c r="AR17" t="s">
         <v>202</v>
@@ -6341,28 +6624,28 @@
         <v>127</v>
       </c>
       <c r="AT17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU17" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV17" t="s">
         <v>521</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>522</v>
       </c>
       <c r="AW17" t="s">
         <v>91</v>
       </c>
       <c r="AX17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AZ17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -6376,7 +6659,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -6385,34 +6668,34 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H18" t="s">
         <v>97</v>
       </c>
       <c r="I18" t="s">
+        <v>500</v>
+      </c>
+      <c r="J18" t="s">
         <v>501</v>
       </c>
-      <c r="J18" t="s">
-        <v>502</v>
-      </c>
       <c r="K18" t="s">
+        <v>547</v>
+      </c>
+      <c r="L18" t="s">
         <v>548</v>
-      </c>
-      <c r="L18" t="s">
-        <v>549</v>
       </c>
       <c r="N18" t="s">
         <v>60</v>
       </c>
       <c r="O18" t="s">
+        <v>549</v>
+      </c>
+      <c r="P18" t="s">
         <v>550</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>551</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>552</v>
       </c>
       <c r="R18">
         <v>999</v>
@@ -6427,100 +6710,100 @@
         <v>999</v>
       </c>
       <c r="V18" t="s">
+        <v>666</v>
+      </c>
+      <c r="W18" t="s">
         <v>667</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>668</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>669</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>670</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB18" t="s">
         <v>671</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE18" t="s">
         <v>553</v>
       </c>
-      <c r="AB18" t="s">
-        <v>672</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>673</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AF18" t="s">
         <v>674</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AG18" t="s">
         <v>554</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>675</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AI18" t="s">
+        <v>676</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>678</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>679</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>680</v>
+      </c>
+      <c r="AN18" t="s">
         <v>555</v>
       </c>
-      <c r="AH18" t="s">
-        <v>676</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>677</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>678</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>679</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>680</v>
-      </c>
-      <c r="AM18" t="s">
+      <c r="AO18" t="s">
+        <v>556</v>
+      </c>
+      <c r="AP18" t="s">
         <v>681</v>
       </c>
-      <c r="AN18" t="s">
-        <v>556</v>
-      </c>
-      <c r="AO18" t="s">
+      <c r="AQ18" t="s">
         <v>557</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AR18" t="s">
         <v>682</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AS18" t="s">
+        <v>683</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>684</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>685</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>686</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>687</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY18" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="AR18" t="s">
-        <v>683</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>684</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>685</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>686</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>687</v>
-      </c>
-      <c r="AW18" t="s">
+      <c r="AZ18" t="s">
         <v>688</v>
       </c>
-      <c r="AX18" t="s">
-        <v>499</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
@@ -6534,7 +6817,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -6543,37 +6826,37 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
+        <v>565</v>
+      </c>
+      <c r="H19" t="s">
         <v>566</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>567</v>
       </c>
-      <c r="I19" t="s">
-        <v>568</v>
-      </c>
       <c r="J19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L19" t="s">
+        <v>559</v>
+      </c>
+      <c r="N19" t="s">
         <v>560</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>561</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>562</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>563</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>564</v>
-      </c>
-      <c r="R19" t="s">
-        <v>565</v>
       </c>
       <c r="S19">
         <v>999</v>
@@ -6588,97 +6871,97 @@
         <v>65</v>
       </c>
       <c r="W19" t="s">
+        <v>568</v>
+      </c>
+      <c r="X19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF19" t="s">
         <v>569</v>
       </c>
-      <c r="X19" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>408</v>
-      </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>570</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>571</v>
       </c>
       <c r="AH19" t="s">
         <v>193</v>
       </c>
       <c r="AI19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AJ19" t="s">
         <v>118</v>
       </c>
       <c r="AK19" t="s">
+        <v>572</v>
+      </c>
+      <c r="AL19" t="s">
         <v>573</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>574</v>
       </c>
       <c r="AM19" t="s">
         <v>121</v>
       </c>
       <c r="AN19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP19" t="s">
         <v>575</v>
       </c>
-      <c r="AO19" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>576</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>577</v>
       </c>
       <c r="AR19" t="s">
         <v>202</v>
       </c>
       <c r="AS19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AT19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AV19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AW19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AX19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AZ19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
@@ -6692,7 +6975,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -6701,40 +6984,40 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
+        <v>584</v>
+      </c>
+      <c r="H20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" t="s">
+        <v>567</v>
+      </c>
+      <c r="J20" t="s">
+        <v>501</v>
+      </c>
+      <c r="K20" t="s">
         <v>585</v>
       </c>
-      <c r="H20" t="s">
-        <v>370</v>
-      </c>
-      <c r="I20" t="s">
-        <v>568</v>
-      </c>
-      <c r="J20" t="s">
-        <v>502</v>
-      </c>
-      <c r="K20" t="s">
-        <v>586</v>
-      </c>
       <c r="L20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N20" t="s">
         <v>60</v>
       </c>
       <c r="O20" t="s">
+        <v>581</v>
+      </c>
+      <c r="P20" t="s">
         <v>582</v>
       </c>
-      <c r="P20" t="s">
-        <v>583</v>
-      </c>
       <c r="Q20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R20">
         <v>999</v>
       </c>
       <c r="S20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T20" t="s">
         <v>142</v>
@@ -6743,103 +7026,103 @@
         <v>999</v>
       </c>
       <c r="V20" t="s">
+        <v>587</v>
+      </c>
+      <c r="W20" t="s">
         <v>588</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z20" t="s">
         <v>589</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>592</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>593</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>596</v>
       </c>
-      <c r="Y20" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>591</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>592</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>461</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>594</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>595</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>597</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>598</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>599</v>
       </c>
       <c r="AM20" t="s">
         <v>159</v>
       </c>
       <c r="AN20" t="s">
+        <v>599</v>
+      </c>
+      <c r="AO20" t="s">
         <v>600</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>601</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>602</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>603</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>604</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU20" t="s">
         <v>605</v>
       </c>
-      <c r="AT20" t="s">
-        <v>495</v>
-      </c>
-      <c r="AU20" t="s">
+      <c r="AV20" t="s">
         <v>606</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
+        <v>608</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>607</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>609</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>420</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>608</v>
       </c>
       <c r="BA20" s="1">
         <v>999</v>
       </c>
       <c r="BB20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
@@ -6853,7 +7136,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -6862,49 +7145,49 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H21" t="s">
         <v>213</v>
       </c>
       <c r="I21" t="s">
+        <v>500</v>
+      </c>
+      <c r="J21" t="s">
         <v>501</v>
       </c>
-      <c r="J21" t="s">
-        <v>502</v>
-      </c>
       <c r="K21" t="s">
+        <v>610</v>
+      </c>
+      <c r="L21" t="s">
         <v>611</v>
-      </c>
-      <c r="L21" t="s">
-        <v>612</v>
       </c>
       <c r="N21" t="s">
         <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R21">
         <v>999</v>
       </c>
       <c r="S21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U21" s="1">
         <v>999</v>
       </c>
       <c r="V21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W21" t="s">
         <v>182</v>
@@ -6913,61 +7196,61 @@
         <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z21" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA21" t="s">
         <v>615</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>616</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>617</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>618</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>619</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>620</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>621</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>622</v>
       </c>
       <c r="AH21" t="s">
         <v>117</v>
       </c>
       <c r="AI21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>623</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>624</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>625</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>626</v>
       </c>
       <c r="AM21" t="s">
         <v>121</v>
       </c>
       <c r="AN21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO21" t="s">
+        <v>626</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>627</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>628</v>
       </c>
       <c r="AR21" t="s">
         <v>202</v>
@@ -6976,16 +7259,16 @@
         <v>203</v>
       </c>
       <c r="AT21" t="s">
+        <v>628</v>
+      </c>
+      <c r="AU21" t="s">
         <v>629</v>
       </c>
-      <c r="AU21" t="s">
-        <v>630</v>
-      </c>
       <c r="AV21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AW21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AX21" t="s">
         <v>131</v>
@@ -6994,13 +7277,13 @@
         <v>93</v>
       </c>
       <c r="AZ21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BB21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
@@ -7014,7 +7297,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -7023,22 +7306,22 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I22" t="s">
         <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K22" t="s">
+        <v>631</v>
+      </c>
+      <c r="L22" t="s">
         <v>632</v>
-      </c>
-      <c r="L22" t="s">
-        <v>633</v>
       </c>
       <c r="N22" t="s">
         <v>60</v>
@@ -7047,10 +7330,10 @@
         <v>999</v>
       </c>
       <c r="P22" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q22" t="s">
         <v>634</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>635</v>
       </c>
       <c r="R22">
         <v>999</v>
@@ -7065,100 +7348,100 @@
         <v>999</v>
       </c>
       <c r="V22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W22" t="s">
+        <v>635</v>
+      </c>
+      <c r="X22" t="s">
         <v>636</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z22" t="s">
         <v>637</v>
       </c>
-      <c r="Y22" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>638</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>639</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>640</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>641</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF22" t="s">
         <v>642</v>
       </c>
-      <c r="AE22" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>643</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>644</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>645</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>646</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>647</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>648</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>649</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>650</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AO22" t="s">
         <v>651</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>652</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>653</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS22" t="s">
         <v>654</v>
       </c>
-      <c r="AR22" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>655</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>656</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>657</v>
       </c>
-      <c r="AV22" t="s">
-        <v>658</v>
-      </c>
       <c r="AW22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AX22" t="s">
         <v>131</v>
       </c>
       <c r="AY22" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>660</v>
+      </c>
+      <c r="BA22" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>661</v>
-      </c>
-      <c r="BA22" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
@@ -7172,7 +7455,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -7181,34 +7464,34 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I23" t="s">
         <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N23" t="s">
         <v>60</v>
       </c>
       <c r="O23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P23" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q23" t="s">
         <v>697</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>698</v>
       </c>
       <c r="R23">
         <v>999</v>
@@ -7217,106 +7500,106 @@
         <v>999</v>
       </c>
       <c r="T23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U23" s="1">
         <v>999</v>
       </c>
       <c r="V23" t="s">
+        <v>699</v>
+      </c>
+      <c r="W23" t="s">
+        <v>635</v>
+      </c>
+      <c r="X23" t="s">
         <v>700</v>
       </c>
-      <c r="W23" t="s">
-        <v>636</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z23" t="s">
         <v>701</v>
       </c>
-      <c r="Y23" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB23" t="s">
         <v>702</v>
       </c>
-      <c r="AA23" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>703</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE23" t="s">
         <v>704</v>
       </c>
-      <c r="AD23" t="s">
-        <v>642</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>705</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>706</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>707</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>708</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK23" t="s">
         <v>709</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>710</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN23" t="s">
         <v>711</v>
       </c>
-      <c r="AM23" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN23" t="s">
+      <c r="AO23" t="s">
         <v>712</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>713</v>
       </c>
-      <c r="AP23" t="s">
-        <v>602</v>
-      </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS23" t="s">
         <v>714</v>
       </c>
-      <c r="AR23" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV23" t="s">
         <v>715</v>
       </c>
-      <c r="AT23" t="s">
-        <v>470</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>364</v>
-      </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>716</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>717</v>
       </c>
-      <c r="AX23" t="s">
-        <v>420</v>
-      </c>
-      <c r="AY23" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>718</v>
-      </c>
       <c r="BA23" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
@@ -7330,7 +7613,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -7339,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H24" t="s">
         <v>97</v>
@@ -7348,25 +7631,25 @@
         <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K24" t="s">
+        <v>719</v>
+      </c>
+      <c r="L24" t="s">
         <v>720</v>
-      </c>
-      <c r="L24" t="s">
-        <v>721</v>
       </c>
       <c r="N24" t="s">
         <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P24" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q24" t="s">
         <v>722</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>723</v>
       </c>
       <c r="R24">
         <v>999</v>
@@ -7381,40 +7664,40 @@
         <v>999</v>
       </c>
       <c r="V24" t="s">
+        <v>723</v>
+      </c>
+      <c r="W24" t="s">
         <v>724</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>725</v>
-      </c>
-      <c r="X24" t="s">
-        <v>726</v>
       </c>
       <c r="Y24">
         <v>999</v>
       </c>
       <c r="Z24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA24">
         <v>999</v>
       </c>
       <c r="AB24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AC24" t="s">
         <v>71</v>
       </c>
       <c r="AD24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AF24" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG24" t="s">
         <v>729</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>730</v>
       </c>
       <c r="AH24" t="s">
         <v>117</v>
@@ -7423,58 +7706,58 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AK24" t="s">
         <v>119</v>
       </c>
       <c r="AL24" t="s">
+        <v>732</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN24" t="s">
         <v>733</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>734</v>
       </c>
       <c r="AO24" t="s">
         <v>123</v>
       </c>
       <c r="AP24" t="s">
+        <v>734</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>735</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>736</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>737</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>738</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>739</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>740</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>741</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>742</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>743</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AZ24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
@@ -7488,7 +7771,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -7497,7 +7780,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H25" t="s">
         <v>97</v>
@@ -7506,13 +7789,13 @@
         <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K25" t="s">
+        <v>746</v>
+      </c>
+      <c r="L25" t="s">
         <v>747</v>
-      </c>
-      <c r="L25" t="s">
-        <v>748</v>
       </c>
       <c r="N25" t="s">
         <v>60</v>
@@ -7521,61 +7804,61 @@
         <v>61</v>
       </c>
       <c r="P25" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q25" t="s">
         <v>749</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
+        <v>564</v>
+      </c>
+      <c r="S25" t="s">
         <v>750</v>
       </c>
-      <c r="R25" t="s">
-        <v>565</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
+        <v>245</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="T25" t="s">
-        <v>246</v>
-      </c>
-      <c r="U25" s="1" t="s">
+      <c r="V25" t="s">
         <v>752</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>753</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>754</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z25" t="s">
         <v>755</v>
       </c>
-      <c r="Y25" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>756</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC25" t="s">
         <v>757</v>
       </c>
-      <c r="AB25" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE25" t="s">
         <v>758</v>
       </c>
-      <c r="AD25" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG25" t="s">
         <v>759</v>
       </c>
-      <c r="AF25" t="s">
-        <v>514</v>
-      </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>760</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>761</v>
       </c>
       <c r="AI25" t="s">
         <v>77</v>
@@ -7587,22 +7870,22 @@
         <v>119</v>
       </c>
       <c r="AL25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AM25" t="s">
         <v>121</v>
       </c>
       <c r="AN25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AO25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AP25" t="s">
         <v>124</v>
       </c>
       <c r="AQ25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AR25" t="s">
         <v>86</v>
@@ -7611,31 +7894,31 @@
         <v>127</v>
       </c>
       <c r="AT25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU25" t="s">
+        <v>763</v>
+      </c>
+      <c r="AV25" t="s">
         <v>764</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>765</v>
       </c>
-      <c r="AW25" t="s">
-        <v>766</v>
-      </c>
       <c r="AX25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>209</v>
       </c>
       <c r="AZ25" t="s">
+        <v>767</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="BB25" t="s">
         <v>768</v>
-      </c>
-      <c r="BA25" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
@@ -7649,7 +7932,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -7658,142 +7941,142 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I26" t="s">
         <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N26" t="s">
         <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R26">
         <v>999</v>
       </c>
       <c r="S26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U26" s="1">
         <v>999</v>
       </c>
       <c r="V26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W26" t="s">
         <v>66</v>
       </c>
       <c r="X26" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z26" t="s">
         <v>777</v>
       </c>
-      <c r="Y26" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>778</v>
       </c>
-      <c r="AA26" t="s">
-        <v>779</v>
-      </c>
       <c r="AB26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC26" t="s">
         <v>112</v>
       </c>
       <c r="AD26" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE26" t="s">
         <v>780</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>781</v>
       </c>
       <c r="AF26" t="s">
         <v>115</v>
       </c>
       <c r="AG26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AH26" t="s">
         <v>117</v>
       </c>
       <c r="AI26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ26" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK26" t="s">
         <v>783</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>784</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN26" t="s">
         <v>785</v>
       </c>
-      <c r="AM26" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>786</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>787</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>788</v>
       </c>
       <c r="AR26" t="s">
         <v>202</v>
       </c>
       <c r="AS26" t="s">
+        <v>788</v>
+      </c>
+      <c r="AT26" t="s">
         <v>789</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>790</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>791</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>792</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>793</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>794</v>
       </c>
       <c r="AY26" s="1">
         <v>999</v>
       </c>
       <c r="AZ26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
@@ -7807,7 +8090,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -7816,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H27" t="s">
         <v>213</v>
@@ -7825,13 +8108,13 @@
         <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K27" t="s">
+        <v>796</v>
+      </c>
+      <c r="L27" t="s">
         <v>797</v>
-      </c>
-      <c r="L27" t="s">
-        <v>798</v>
       </c>
       <c r="N27" t="s">
         <v>60</v>
@@ -7840,10 +8123,10 @@
         <v>139</v>
       </c>
       <c r="P27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Q27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R27">
         <v>999</v>
@@ -7858,100 +8141,100 @@
         <v>999</v>
       </c>
       <c r="V27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="X27" t="s">
         <v>107</v>
       </c>
       <c r="Y27" t="s">
+        <v>800</v>
+      </c>
+      <c r="Z27" t="s">
         <v>801</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC27" t="s">
         <v>802</v>
       </c>
-      <c r="AA27" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE27" t="s">
         <v>803</v>
       </c>
-      <c r="AD27" t="s">
-        <v>780</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>804</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>805</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>806</v>
       </c>
       <c r="AH27" t="s">
         <v>193</v>
       </c>
       <c r="AI27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AJ27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AK27" t="s">
+        <v>806</v>
+      </c>
+      <c r="AL27" t="s">
         <v>807</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>808</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
         <v>809</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AO27" t="s">
         <v>810</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AP27" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>811</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>812</v>
       </c>
       <c r="AR27" t="s">
         <v>202</v>
       </c>
       <c r="AS27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AT27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AU27" t="s">
         <v>205</v>
       </c>
       <c r="AV27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AW27" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX27" t="s">
         <v>793</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>794</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>209</v>
       </c>
       <c r="AZ27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="BA27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
@@ -7965,7 +8248,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -7974,34 +8257,34 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H28" t="s">
         <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28" t="s">
+        <v>817</v>
+      </c>
+      <c r="L28" t="s">
         <v>818</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>819</v>
-      </c>
-      <c r="N28" t="s">
-        <v>820</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
       </c>
       <c r="P28" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q28" t="s">
         <v>821</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>822</v>
       </c>
       <c r="R28">
         <v>999</v>
@@ -8010,125 +8293,771 @@
         <v>999</v>
       </c>
       <c r="T28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U28" s="1">
         <v>999</v>
       </c>
       <c r="V28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X28" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y28" t="s">
         <v>823</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA28" t="s">
         <v>824</v>
       </c>
-      <c r="Z28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE28" t="s">
         <v>825</v>
       </c>
-      <c r="AB28" t="s">
-        <v>591</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>488</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG28" t="s">
         <v>826</v>
       </c>
-      <c r="AF28" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>827</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>828</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK28" t="s">
         <v>829</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>830</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>831</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
         <v>832</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AO28" t="s">
         <v>833</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AP28" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>834</v>
       </c>
-      <c r="AP28" t="s">
-        <v>294</v>
-      </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS28" t="s">
         <v>835</v>
       </c>
-      <c r="AR28" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU28" t="s">
         <v>836</v>
       </c>
-      <c r="AT28" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU28" t="s">
+      <c r="AV28" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX28" t="s">
         <v>837</v>
       </c>
-      <c r="AV28" t="s">
-        <v>300</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>301</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>838</v>
-      </c>
       <c r="AY28" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AZ28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2">
+        <v>44764</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>839</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>842</v>
+      </c>
+      <c r="H29" t="s">
+        <v>369</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" t="s">
+        <v>843</v>
+      </c>
+      <c r="L29" t="s">
+        <v>844</v>
+      </c>
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>846</v>
+      </c>
+      <c r="R29">
+        <v>999</v>
+      </c>
+      <c r="S29" t="s">
+        <v>847</v>
+      </c>
+      <c r="T29" t="s">
+        <v>245</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="AM29" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="AN29" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="AO29" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="AP29" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="AQ29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR29" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="AS29" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="AT29" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="AU29" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="AV29" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="AW29" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="AX29" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="AZ29" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="BA29" s="1" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>44765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>839</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>877</v>
+      </c>
+      <c r="H30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" t="s">
+        <v>878</v>
+      </c>
+      <c r="L30" t="s">
+        <v>879</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" t="s">
+        <v>880</v>
+      </c>
+      <c r="P30" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>882</v>
+      </c>
+      <c r="R30">
+        <v>999</v>
+      </c>
+      <c r="S30">
+        <v>999</v>
+      </c>
+      <c r="T30" t="s">
+        <v>142</v>
+      </c>
+      <c r="U30" s="1">
+        <v>999</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AL30" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM30" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN30" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP30" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AR30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS30" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV30" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="AW30" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX30" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AY30" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ30" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA30" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>44766</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>839</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>892</v>
+      </c>
+      <c r="H31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" t="s">
+        <v>893</v>
+      </c>
+      <c r="L31" t="s">
+        <v>894</v>
+      </c>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31">
+        <v>999</v>
+      </c>
+      <c r="P31" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>551</v>
+      </c>
+      <c r="R31">
+        <v>999</v>
+      </c>
+      <c r="S31">
+        <v>999</v>
+      </c>
+      <c r="T31" t="s">
+        <v>142</v>
+      </c>
+      <c r="U31" s="1">
+        <v>999</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="AL31" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="AM31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN31" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="AO31" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="AR31" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="AS31" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="AT31" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU31" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="AV31" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="AW31" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="AX31" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ31" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44766</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>839</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>915</v>
+      </c>
+      <c r="H32" t="s">
+        <v>369</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" t="s">
+        <v>916</v>
+      </c>
+      <c r="L32" t="s">
+        <v>917</v>
+      </c>
+      <c r="N32" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>919</v>
+      </c>
+      <c r="R32">
+        <v>999</v>
+      </c>
+      <c r="S32" t="s">
+        <v>103</v>
+      </c>
+      <c r="T32" t="s">
+        <v>921</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="AI32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ32" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL32" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="AM32" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="AN32" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="AO32" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ32" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR32" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS32" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="AT32" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU32" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="AV32" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="AW32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX32" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY32" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ32" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="BA32" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA10342-C1F9-4781-9474-F8C39AF89FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6B394-B691-445D-8E0C-92D2C126CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="13428" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1121">
   <si>
     <t>ID</t>
   </si>
@@ -3476,6 +3476,558 @@
   </si>
   <si>
     <t>Dasala</t>
+  </si>
+  <si>
+    <t>III_17_0014</t>
+  </si>
+  <si>
+    <t>x-z</t>
+  </si>
+  <si>
+    <t>Niederse[k]t</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Ko[?]stlach</t>
+  </si>
+  <si>
+    <t>Agerschte</t>
+  </si>
+  <si>
+    <t>Ante</t>
+  </si>
+  <si>
+    <t>Dittel</t>
+  </si>
+  <si>
+    <t>M[u]cke {eventuell mit umlaut}</t>
+  </si>
+  <si>
+    <t>Gâgūmmere &lt;concombre franz.&gt;</t>
+  </si>
+  <si>
+    <t>Guggel, Gluckere</t>
+  </si>
+  <si>
+    <t>Gaaleriawe</t>
+  </si>
+  <si>
+    <t>Mohre</t>
+  </si>
+  <si>
+    <t>Riame</t>
+  </si>
+  <si>
+    <t>Pfl[ü]me</t>
+  </si>
+  <si>
+    <t>Spâtz</t>
+  </si>
+  <si>
+    <t>Grütelbäre</t>
+  </si>
+  <si>
+    <t>Strîcknodle</t>
+  </si>
+  <si>
+    <t>Tâs[t]e</t>
+  </si>
+  <si>
+    <t>Hâfe</t>
+  </si>
+  <si>
+    <t>Hollere &lt;Holdere&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Be[m]. 1) â nasallaut, dumpfes a; 2) î = zwischen i und e; schluss ? e ist stumm. zwischen [n] und [a]&gt;</t>
+  </si>
+  <si>
+    <t>III_17_0015</t>
+  </si>
+  <si>
+    <t>x-E</t>
+  </si>
+  <si>
+    <t>Werenzhausen</t>
+  </si>
+  <si>
+    <t>Emil Eberlin</t>
+  </si>
+  <si>
+    <t>Orschweier</t>
+  </si>
+  <si>
+    <t>Omaisale</t>
+  </si>
+  <si>
+    <t>Brommera</t>
+  </si>
+  <si>
+    <t>Fladrmüs</t>
+  </si>
+  <si>
+    <t>Guggumera</t>
+  </si>
+  <si>
+    <t>Gogl, Hü[a]hn</t>
+  </si>
+  <si>
+    <t>Hardäpfl</t>
+  </si>
+  <si>
+    <t>Schahr</t>
+  </si>
+  <si>
+    <t>Gallriawa</t>
+  </si>
+  <si>
+    <t>Gätti</t>
+  </si>
+  <si>
+    <t>Grüssela</t>
+  </si>
+  <si>
+    <t>Schtricknodla</t>
+  </si>
+  <si>
+    <t>Tassle</t>
+  </si>
+  <si>
+    <t>Kehrle</t>
+  </si>
+  <si>
+    <t>umzwiega</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Suhnsfraui</t>
+  </si>
+  <si>
+    <t>III_17_0016</t>
+  </si>
+  <si>
+    <t>x-H &lt;G+&gt;</t>
+  </si>
+  <si>
+    <t>Bettlach</t>
+  </si>
+  <si>
+    <t>Niederburnhaupt</t>
+  </si>
+  <si>
+    <t>Bitsch August</t>
+  </si>
+  <si>
+    <t>Kreis Tann</t>
+  </si>
+  <si>
+    <t>V'gräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brumbära (w)</t>
+  </si>
+  <si>
+    <t>Āgerschta (w)</t>
+  </si>
+  <si>
+    <t>Anta (w)</t>
+  </si>
+  <si>
+    <t>Gugumm'ra (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hüān (w)</t>
+  </si>
+  <si>
+    <t>Hebãmm (w)</t>
+  </si>
+  <si>
+    <t>C̃hãtz (w) {tilde über C und h}</t>
+  </si>
+  <si>
+    <t>Schār (m)</t>
+  </si>
+  <si>
+    <t>Galrieble (s)</t>
+  </si>
+  <si>
+    <t>Gätti (m)</t>
+  </si>
+  <si>
+    <t>handla</t>
+  </si>
+  <si>
+    <t>Spãtz (m)</t>
+  </si>
+  <si>
+    <t>C̃hrüselbära (w) {tilde über C und h}</t>
+  </si>
+  <si>
+    <t>Gūfa (w)</t>
+  </si>
+  <si>
+    <t>Stîcknodla (w)</t>
+  </si>
+  <si>
+    <t>Dãssa (w), Dassale (s)</t>
+  </si>
+  <si>
+    <t>hardiga Hãfa (m)</t>
+  </si>
+  <si>
+    <t>zwīga, eigla</t>
+  </si>
+  <si>
+    <t>Suhnsfrãj (w)</t>
+  </si>
+  <si>
+    <t>Holl'ra (w)</t>
+  </si>
+  <si>
+    <t>&lt;Bemerkungen: ã = a im frz. Fra[nc] (nicht nasal) ā = lang ausgesprochen, î = geschlossenes i, ī = lang ausgesprochen, C̃h = gaumen ch&gt; {tilde über c und h}</t>
+  </si>
+  <si>
+    <t>III_17_0017</t>
+  </si>
+  <si>
+    <t>x-K</t>
+  </si>
+  <si>
+    <t>Niederhagental</t>
+  </si>
+  <si>
+    <t>Oskar Hoppe</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>Omeisele (d', w)</t>
+  </si>
+  <si>
+    <t>L[i]cht (w) {oder Līcht}</t>
+  </si>
+  <si>
+    <t>Dīsel (m)</t>
+  </si>
+  <si>
+    <t>Retzägerschter (w)</t>
+  </si>
+  <si>
+    <t>Flēdermūs (w)</t>
+  </si>
+  <si>
+    <t>Guckel, Glucke</t>
+  </si>
+  <si>
+    <t>Herdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Schermūs (w)</t>
+  </si>
+  <si>
+    <t>gelbe Rübe (w)</t>
+  </si>
+  <si>
+    <t>Pflūme (w)</t>
+  </si>
+  <si>
+    <t>Chrüselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Steckgūfe (w)</t>
+  </si>
+  <si>
+    <t>Stricknōdle (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli (w)</t>
+  </si>
+  <si>
+    <t>zwīge</t>
+  </si>
+  <si>
+    <t>Sohnsfrau (w)</t>
+  </si>
+  <si>
+    <t>Holler (m)</t>
+  </si>
+  <si>
+    <t>III_17_0018</t>
+  </si>
+  <si>
+    <t>x-T</t>
+  </si>
+  <si>
+    <t>Mülhausen &lt;oberelsaß&gt;</t>
+  </si>
+  <si>
+    <t>Birg Eugen</t>
+  </si>
+  <si>
+    <t>Neudorf</t>
+  </si>
+  <si>
+    <t>A[u]meisa (w)</t>
+  </si>
+  <si>
+    <t>Līcht</t>
+  </si>
+  <si>
+    <t>Braumala (w)</t>
+  </si>
+  <si>
+    <t>Ag'rschda (w)</t>
+  </si>
+  <si>
+    <t>Fliaga, Muga (w)</t>
+  </si>
+  <si>
+    <t>Ämd (s)</t>
+  </si>
+  <si>
+    <t>Gåg[u]mara</t>
+  </si>
+  <si>
+    <t>B[u]da (w)</t>
+  </si>
+  <si>
+    <t>Häjbåm (w)</t>
+  </si>
+  <si>
+    <t>Roll[e] (m)</t>
+  </si>
+  <si>
+    <t>Riaba (w)</t>
+  </si>
+  <si>
+    <t>Maur (w)</t>
+  </si>
+  <si>
+    <t>Gäde (m)</t>
+  </si>
+  <si>
+    <t>Ståchelbäjri</t>
+  </si>
+  <si>
+    <t>Schdregnaudla (w)</t>
+  </si>
+  <si>
+    <t>Gofa (w)</t>
+  </si>
+  <si>
+    <t>Dassle (s)</t>
+  </si>
+  <si>
+    <t>Sohnsfroj</t>
+  </si>
+  <si>
+    <t>Hollara (m)</t>
+  </si>
+  <si>
+    <t>Attenschweiler</t>
+  </si>
+  <si>
+    <t>III_17_0019</t>
+  </si>
+  <si>
+    <t>x-O</t>
+  </si>
+  <si>
+    <t>ober Elsaß</t>
+  </si>
+  <si>
+    <t>M. Faninger</t>
+  </si>
+  <si>
+    <t>Pfirt</t>
+  </si>
+  <si>
+    <t>L, A</t>
+  </si>
+  <si>
+    <t>Bürgermeisters[?]a[???]</t>
+  </si>
+  <si>
+    <t>Bromele (w)</t>
+  </si>
+  <si>
+    <t>Agerste (w)</t>
+  </si>
+  <si>
+    <t>Fledermaus (w)</t>
+  </si>
+  <si>
+    <t>Müke (w)</t>
+  </si>
+  <si>
+    <t>Gagumere (w)</t>
+  </si>
+  <si>
+    <t>D[??u]sbutten (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhn (s)</t>
+  </si>
+  <si>
+    <t>Hebam̄[e] (w)</t>
+  </si>
+  <si>
+    <t>Scharmaus (w)</t>
+  </si>
+  <si>
+    <t>Gelerübe (w)</t>
+  </si>
+  <si>
+    <t>G[ö]tti (m)</t>
+  </si>
+  <si>
+    <t>Riemen (m)</t>
+  </si>
+  <si>
+    <t>Pflaume (w)</t>
+  </si>
+  <si>
+    <t>S[ur]en (w)</t>
+  </si>
+  <si>
+    <t>Stricknadel (w)</t>
+  </si>
+  <si>
+    <t>Tasse, Unterteller</t>
+  </si>
+  <si>
+    <t>zweige[n]</t>
+  </si>
+  <si>
+    <t>S[u]hnsfrau (w)</t>
+  </si>
+  <si>
+    <t>Holdere (w)</t>
+  </si>
+  <si>
+    <t>Volkensberg</t>
+  </si>
+  <si>
+    <t>III_17_0020</t>
+  </si>
+  <si>
+    <t>x-D</t>
+  </si>
+  <si>
+    <t>Buchsweiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o / Els. </t>
+  </si>
+  <si>
+    <t>Anton Riether</t>
+  </si>
+  <si>
+    <t>Niedermüspach</t>
+  </si>
+  <si>
+    <t>A. Riether {Unterschrieben}</t>
+  </si>
+  <si>
+    <t>Omeisela (w)</t>
+  </si>
+  <si>
+    <t>Li[e]cht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeere (w)</t>
+  </si>
+  <si>
+    <t>Anteratsch (m)</t>
+  </si>
+  <si>
+    <t>Fliaga, Mucka (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhn (w)</t>
+  </si>
+  <si>
+    <t>Sch[a]rmüs (w) &lt;Schar&gt;</t>
+  </si>
+  <si>
+    <t>Gelbrüne (w)</t>
+  </si>
+  <si>
+    <t>Mûr (w)</t>
+  </si>
+  <si>
+    <t>Riama (m) &lt;Riemen&gt;</t>
+  </si>
+  <si>
+    <t>Stricknodel (w)</t>
+  </si>
+  <si>
+    <t>Tassli (s)</t>
+  </si>
+  <si>
+    <t>III_17_0021</t>
+  </si>
+  <si>
+    <t>x-S</t>
+  </si>
+  <si>
+    <t>Obermichelsbach</t>
+  </si>
+  <si>
+    <t>[K]e[u]r</t>
+  </si>
+  <si>
+    <t>Überlingen</t>
+  </si>
+  <si>
+    <t>Bodensee</t>
+  </si>
+  <si>
+    <t>Brombel[a]</t>
+  </si>
+  <si>
+    <t>Dīsel</t>
+  </si>
+  <si>
+    <t>Ārgeste</t>
+  </si>
+  <si>
+    <t>Retsch</t>
+  </si>
+  <si>
+    <t>Fledermüs</t>
+  </si>
+  <si>
+    <t>Fliage</t>
+  </si>
+  <si>
+    <t>Bütte</t>
+  </si>
+  <si>
+    <t>Hohn</t>
+  </si>
+  <si>
+    <t>Schār</t>
+  </si>
+  <si>
+    <t>Gālriawa {um 1 verrutscht - platz 104}</t>
+  </si>
+  <si>
+    <t>Stachnoadal</t>
+  </si>
+  <si>
+    <t>Stricknoadla</t>
+  </si>
+  <si>
+    <t>Tassa</t>
+  </si>
+  <si>
+    <t>abzwiaga</t>
   </si>
 </sst>
 </file>
@@ -3905,10 +4457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB36"/>
+  <dimension ref="A1:BB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BB32" sqref="BB32"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AZ40" sqref="AZ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8456,97 +9008,97 @@
       <c r="U29" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="V29" s="6" t="s">
+      <c r="V29" t="s">
         <v>849</v>
       </c>
-      <c r="W29" s="6" t="s">
+      <c r="W29" t="s">
         <v>850</v>
       </c>
-      <c r="X29" s="6" t="s">
+      <c r="X29" t="s">
         <v>851</v>
       </c>
-      <c r="Y29" s="6" t="s">
+      <c r="Y29" t="s">
         <v>852</v>
       </c>
-      <c r="Z29" s="6" t="s">
+      <c r="Z29" t="s">
         <v>853</v>
       </c>
-      <c r="AA29" s="6" t="s">
+      <c r="AA29" t="s">
         <v>854</v>
       </c>
-      <c r="AB29" s="6" t="s">
+      <c r="AB29" t="s">
         <v>855</v>
       </c>
-      <c r="AC29" s="6" t="s">
+      <c r="AC29" t="s">
         <v>856</v>
       </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AD29" t="s">
         <v>857</v>
       </c>
-      <c r="AE29" s="6" t="s">
+      <c r="AE29" t="s">
         <v>858</v>
       </c>
-      <c r="AF29" s="6" t="s">
+      <c r="AF29" t="s">
         <v>859</v>
       </c>
-      <c r="AG29" s="6" t="s">
+      <c r="AG29" t="s">
         <v>860</v>
       </c>
-      <c r="AH29" s="6" t="s">
+      <c r="AH29" t="s">
         <v>861</v>
       </c>
-      <c r="AI29" s="6" t="s">
+      <c r="AI29" t="s">
         <v>862</v>
       </c>
-      <c r="AJ29" s="6" t="s">
+      <c r="AJ29" t="s">
         <v>863</v>
       </c>
-      <c r="AK29" s="6" t="s">
+      <c r="AK29" t="s">
         <v>864</v>
       </c>
-      <c r="AL29" s="6" t="s">
+      <c r="AL29" t="s">
         <v>865</v>
       </c>
-      <c r="AM29" s="6" t="s">
+      <c r="AM29" t="s">
         <v>866</v>
       </c>
-      <c r="AN29" s="6" t="s">
+      <c r="AN29" t="s">
         <v>867</v>
       </c>
-      <c r="AO29" s="6" t="s">
+      <c r="AO29" t="s">
         <v>868</v>
       </c>
-      <c r="AP29" s="6" t="s">
+      <c r="AP29" t="s">
         <v>681</v>
       </c>
-      <c r="AQ29" s="6" t="s">
+      <c r="AQ29" t="s">
         <v>85</v>
       </c>
-      <c r="AR29" s="6" t="s">
+      <c r="AR29" t="s">
         <v>869</v>
       </c>
-      <c r="AS29" s="6" t="s">
+      <c r="AS29" t="s">
         <v>870</v>
       </c>
-      <c r="AT29" s="6" t="s">
+      <c r="AT29" t="s">
         <v>871</v>
       </c>
-      <c r="AU29" s="6" t="s">
+      <c r="AU29" t="s">
         <v>872</v>
       </c>
-      <c r="AV29" s="6" t="s">
+      <c r="AV29" t="s">
         <v>873</v>
       </c>
-      <c r="AW29" s="6" t="s">
+      <c r="AW29" t="s">
         <v>874</v>
       </c>
-      <c r="AX29" s="6" t="s">
+      <c r="AX29" t="s">
         <v>498</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="AZ29" s="6" t="s">
+      <c r="AZ29" t="s">
         <v>876</v>
       </c>
       <c r="BA29" s="1" t="s">
@@ -8558,7 +9110,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
@@ -8614,97 +9166,97 @@
       <c r="U30" s="1">
         <v>999</v>
       </c>
-      <c r="V30" s="6" t="s">
+      <c r="V30" t="s">
         <v>65</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="W30" t="s">
         <v>883</v>
       </c>
-      <c r="X30" s="6" t="s">
+      <c r="X30" t="s">
         <v>107</v>
       </c>
-      <c r="Y30" s="6" t="s">
+      <c r="Y30" t="s">
         <v>375</v>
       </c>
-      <c r="Z30" s="6" t="s">
+      <c r="Z30" t="s">
         <v>884</v>
       </c>
-      <c r="AA30" s="6" t="s">
+      <c r="AA30" t="s">
         <v>404</v>
       </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AB30" t="s">
         <v>348</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AC30" t="s">
         <v>885</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AD30" t="s">
         <v>886</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AE30" t="s">
         <v>803</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AF30" t="s">
         <v>569</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AG30" t="s">
         <v>887</v>
       </c>
-      <c r="AH30" s="6" t="s">
+      <c r="AH30" t="s">
         <v>193</v>
       </c>
-      <c r="AI30" s="6" t="s">
+      <c r="AI30" t="s">
         <v>571</v>
       </c>
-      <c r="AJ30" s="6" t="s">
+      <c r="AJ30" t="s">
         <v>118</v>
       </c>
-      <c r="AK30" s="6" t="s">
+      <c r="AK30" t="s">
         <v>572</v>
       </c>
-      <c r="AL30" s="6" t="s">
+      <c r="AL30" t="s">
         <v>573</v>
       </c>
-      <c r="AM30" s="6" t="s">
+      <c r="AM30" t="s">
         <v>257</v>
       </c>
-      <c r="AN30" s="6" t="s">
+      <c r="AN30" t="s">
         <v>574</v>
       </c>
-      <c r="AO30" s="6" t="s">
+      <c r="AO30" t="s">
         <v>441</v>
       </c>
-      <c r="AP30" s="6" t="s">
+      <c r="AP30" t="s">
         <v>575</v>
       </c>
-      <c r="AQ30" s="6" t="s">
+      <c r="AQ30" t="s">
         <v>888</v>
       </c>
-      <c r="AR30" s="6" t="s">
+      <c r="AR30" t="s">
         <v>202</v>
       </c>
-      <c r="AS30" s="6" t="s">
+      <c r="AS30" t="s">
         <v>889</v>
       </c>
-      <c r="AT30" s="6" t="s">
+      <c r="AT30" t="s">
         <v>890</v>
       </c>
-      <c r="AU30" s="6" t="s">
+      <c r="AU30" t="s">
         <v>263</v>
       </c>
-      <c r="AV30" s="6" t="s">
+      <c r="AV30" t="s">
         <v>891</v>
       </c>
-      <c r="AW30" s="6" t="s">
+      <c r="AW30" t="s">
         <v>265</v>
       </c>
-      <c r="AX30" s="6" t="s">
+      <c r="AX30" t="s">
         <v>577</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AZ30" s="6" t="s">
+      <c r="AZ30" t="s">
         <v>211</v>
       </c>
       <c r="BA30" s="1" t="s">
@@ -8716,7 +9268,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -8772,97 +9324,97 @@
       <c r="U31" s="1">
         <v>999</v>
       </c>
-      <c r="V31" s="6" t="s">
+      <c r="V31" t="s">
         <v>896</v>
       </c>
-      <c r="W31" s="6" t="s">
+      <c r="W31" t="s">
         <v>897</v>
       </c>
-      <c r="X31" s="6" t="s">
+      <c r="X31" t="s">
         <v>700</v>
       </c>
-      <c r="Y31" s="6" t="s">
+      <c r="Y31" t="s">
         <v>457</v>
       </c>
-      <c r="Z31" s="6" t="s">
+      <c r="Z31" t="s">
         <v>898</v>
       </c>
-      <c r="AA31" s="6" t="s">
+      <c r="AA31" t="s">
         <v>377</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AB31" t="s">
         <v>899</v>
       </c>
-      <c r="AC31" s="6" t="s">
+      <c r="AC31" t="s">
         <v>459</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AD31" t="s">
         <v>641</v>
       </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AE31" t="s">
         <v>900</v>
       </c>
-      <c r="AF31" s="6" t="s">
+      <c r="AF31" t="s">
         <v>901</v>
       </c>
-      <c r="AG31" s="6" t="s">
+      <c r="AG31" t="s">
         <v>902</v>
       </c>
-      <c r="AH31" s="6" t="s">
+      <c r="AH31" t="s">
         <v>155</v>
       </c>
-      <c r="AI31" s="6" t="s">
+      <c r="AI31" t="s">
         <v>903</v>
       </c>
-      <c r="AJ31" s="6" t="s">
+      <c r="AJ31" t="s">
         <v>385</v>
       </c>
-      <c r="AK31" s="6" t="s">
+      <c r="AK31" t="s">
         <v>904</v>
       </c>
-      <c r="AL31" s="6" t="s">
+      <c r="AL31" t="s">
         <v>905</v>
       </c>
-      <c r="AM31" s="6" t="s">
+      <c r="AM31" t="s">
         <v>459</v>
       </c>
-      <c r="AN31" s="6" t="s">
+      <c r="AN31" t="s">
         <v>906</v>
       </c>
-      <c r="AO31" s="6" t="s">
+      <c r="AO31" t="s">
         <v>712</v>
       </c>
-      <c r="AP31" s="6" t="s">
+      <c r="AP31" t="s">
         <v>124</v>
       </c>
-      <c r="AQ31" s="6" t="s">
+      <c r="AQ31" t="s">
         <v>907</v>
       </c>
-      <c r="AR31" s="6" t="s">
+      <c r="AR31" t="s">
         <v>908</v>
       </c>
-      <c r="AS31" s="6" t="s">
+      <c r="AS31" t="s">
         <v>909</v>
       </c>
-      <c r="AT31" s="6" t="s">
+      <c r="AT31" t="s">
         <v>494</v>
       </c>
-      <c r="AU31" s="6" t="s">
+      <c r="AU31" t="s">
         <v>910</v>
       </c>
-      <c r="AV31" s="6" t="s">
+      <c r="AV31" t="s">
         <v>911</v>
       </c>
-      <c r="AW31" s="6" t="s">
+      <c r="AW31" t="s">
         <v>912</v>
       </c>
-      <c r="AX31" s="6" t="s">
+      <c r="AX31" t="s">
         <v>419</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ31" s="6" t="s">
+      <c r="AZ31" t="s">
         <v>914</v>
       </c>
       <c r="BA31" s="1" t="s">
@@ -8871,10 +9423,10 @@
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -8930,132 +9482,1381 @@
       <c r="U32" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="V32" s="6" t="s">
+      <c r="V32" t="s">
         <v>923</v>
       </c>
-      <c r="W32" s="6" t="s">
+      <c r="W32" t="s">
         <v>427</v>
       </c>
-      <c r="X32" s="6" t="s">
+      <c r="X32" t="s">
         <v>924</v>
       </c>
-      <c r="Y32" s="6" t="s">
+      <c r="Y32" t="s">
         <v>375</v>
       </c>
-      <c r="Z32" s="6" t="s">
+      <c r="Z32" t="s">
         <v>347</v>
       </c>
-      <c r="AA32" s="6" t="s">
+      <c r="AA32" t="s">
         <v>925</v>
       </c>
-      <c r="AB32" s="6" t="s">
+      <c r="AB32" t="s">
         <v>348</v>
       </c>
-      <c r="AC32" s="6" t="s">
+      <c r="AC32" t="s">
         <v>757</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AD32" t="s">
         <v>926</v>
       </c>
-      <c r="AE32" s="6" t="s">
+      <c r="AE32" t="s">
         <v>927</v>
       </c>
-      <c r="AF32" s="6" t="s">
+      <c r="AF32" t="s">
         <v>928</v>
       </c>
-      <c r="AG32" s="6" t="s">
+      <c r="AG32" t="s">
         <v>929</v>
       </c>
-      <c r="AH32" s="6" t="s">
+      <c r="AH32" t="s">
         <v>930</v>
       </c>
-      <c r="AI32" s="6" t="s">
+      <c r="AI32" t="s">
         <v>77</v>
       </c>
-      <c r="AJ32" s="6" t="s">
+      <c r="AJ32" t="s">
         <v>354</v>
       </c>
-      <c r="AK32" s="6" t="s">
+      <c r="AK32" t="s">
         <v>119</v>
       </c>
-      <c r="AL32" s="6" t="s">
+      <c r="AL32" t="s">
         <v>931</v>
       </c>
-      <c r="AM32" s="6" t="s">
+      <c r="AM32" t="s">
         <v>932</v>
       </c>
-      <c r="AN32" s="6" t="s">
+      <c r="AN32" t="s">
         <v>933</v>
       </c>
-      <c r="AO32" s="6" t="s">
+      <c r="AO32" t="s">
         <v>358</v>
       </c>
-      <c r="AP32" s="6" t="s">
+      <c r="AP32" t="s">
         <v>124</v>
       </c>
-      <c r="AQ32" s="6" t="s">
+      <c r="AQ32" t="s">
         <v>414</v>
       </c>
-      <c r="AR32" s="6" t="s">
+      <c r="AR32" t="s">
         <v>202</v>
       </c>
-      <c r="AS32" s="6" t="s">
+      <c r="AS32" t="s">
         <v>934</v>
       </c>
-      <c r="AT32" s="6" t="s">
+      <c r="AT32" t="s">
         <v>362</v>
       </c>
-      <c r="AU32" s="6" t="s">
+      <c r="AU32" t="s">
         <v>935</v>
       </c>
-      <c r="AV32" s="6" t="s">
+      <c r="AV32" t="s">
         <v>936</v>
       </c>
-      <c r="AW32" s="6" t="s">
+      <c r="AW32" t="s">
         <v>91</v>
       </c>
-      <c r="AX32" s="6" t="s">
+      <c r="AX32" t="s">
         <v>419</v>
       </c>
       <c r="AY32" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AZ32" s="6" t="s">
+      <c r="AZ32" t="s">
         <v>743</v>
       </c>
       <c r="BA32" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44765</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
       </c>
+      <c r="D33" t="s">
+        <v>839</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>937</v>
+      </c>
+      <c r="H33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" t="s">
+        <v>938</v>
+      </c>
+      <c r="L33" t="s">
+        <v>939</v>
+      </c>
+      <c r="N33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>941</v>
+      </c>
+      <c r="R33">
+        <v>999</v>
+      </c>
+      <c r="S33">
+        <v>999</v>
+      </c>
+      <c r="T33" t="s">
+        <v>64</v>
+      </c>
+      <c r="U33" s="1">
+        <v>999</v>
+      </c>
+      <c r="V33" t="s">
+        <v>426</v>
+      </c>
+      <c r="W33" t="s">
+        <v>401</v>
+      </c>
+      <c r="X33" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>944</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>942</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>943</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>945</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>926</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>946</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>948</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>949</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>809</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>950</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>951</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>952</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>953</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>890</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>954</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>955</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>956</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>793</v>
+      </c>
+      <c r="AY33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ33" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="BA33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB33" s="6" t="s">
+        <v>958</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44765</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
       </c>
+      <c r="D34" t="s">
+        <v>839</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>959</v>
+      </c>
+      <c r="H34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I34" t="s">
+        <v>567</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" t="s">
+        <v>960</v>
+      </c>
+      <c r="L34" t="s">
+        <v>961</v>
+      </c>
+      <c r="N34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" t="s">
+        <v>561</v>
+      </c>
+      <c r="P34" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>963</v>
+      </c>
+      <c r="R34">
+        <v>999</v>
+      </c>
+      <c r="S34" t="s">
+        <v>561</v>
+      </c>
+      <c r="T34" t="s">
+        <v>142</v>
+      </c>
+      <c r="U34" s="1">
+        <v>999</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="AM34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN34" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="AO34" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS34" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="AT34" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU34" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="AV34" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="AW34" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="AX34" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="AY34" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AZ34" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="BA34" s="1" t="s">
+        <v>979</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44765</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
       </c>
+      <c r="D35" t="s">
+        <v>839</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>980</v>
+      </c>
+      <c r="H35" t="s">
+        <v>369</v>
+      </c>
+      <c r="I35" t="s">
+        <v>567</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" t="s">
+        <v>981</v>
+      </c>
+      <c r="L35" t="s">
+        <v>982</v>
+      </c>
+      <c r="N35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>983</v>
+      </c>
+      <c r="R35" t="s">
+        <v>985</v>
+      </c>
+      <c r="S35" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35" s="1">
+        <v>999</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="Y35" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>988</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="AI35" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="AL35" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="AM35" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="AN35" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="AO35" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP35" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ35" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="AR35" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>999</v>
+      </c>
+      <c r="AT35" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AU35" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AV35" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AW35" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AX35" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AY35" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ35" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BA35" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BB35" s="6" t="s">
+        <v>1007</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44765</v>
       </c>
       <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>839</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I36" t="s">
+        <v>567</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N36" t="s">
+        <v>560</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R36">
+        <v>999</v>
+      </c>
+      <c r="S36">
+        <v>999</v>
+      </c>
+      <c r="T36" t="s">
+        <v>245</v>
+      </c>
+      <c r="U36" s="1">
+        <v>999</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="AO36" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP36" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AQ36" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AR36" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS36" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT36" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AU36" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AV36" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AW36" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AY36" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ36" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44765</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>839</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" t="s">
+        <v>500</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R37">
+        <v>999</v>
+      </c>
+      <c r="S37" t="s">
+        <v>479</v>
+      </c>
+      <c r="T37" t="s">
+        <v>245</v>
+      </c>
+      <c r="U37" s="1">
+        <v>999</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH37" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AI37" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ37" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AK37" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="AL37" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AM37" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AN37" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AO37" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP37" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ37" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR37" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS37" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AT37" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AU37" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AV37" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AW37" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="AX37" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY37" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ37" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="BA37" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44765</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>839</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H38" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" t="s">
+        <v>500</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N38" t="s">
+        <v>560</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R38">
+        <v>999</v>
+      </c>
+      <c r="S38" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Y38" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AJ38" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AL38" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AM38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN38" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AO38" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AP38" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AQ38" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR38" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS38" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT38" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AU38" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AV38" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AW38" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX38" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AY38" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ38" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BA38" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44765</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>839</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
+        <v>500</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N39" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39">
+        <v>999</v>
+      </c>
+      <c r="T39" t="s">
+        <v>142</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AN39" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="AO39" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AP39" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AQ39" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR39" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS39" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT39" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU39" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AV39" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AW39" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ39" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="BA39" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44765</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>839</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" t="s">
+        <v>500</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N40" t="s">
+        <v>560</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="S40">
+        <v>999</v>
+      </c>
+      <c r="T40" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="1">
+        <v>999</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AH40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK40" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AL40" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AM40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN40" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="AO40" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR40" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS40">
+        <v>999</v>
+      </c>
+      <c r="AT40" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AU40" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AV40" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AW40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX40" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AY40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ40" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44765</v>
+      </c>
+      <c r="C41" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6B394-B691-445D-8E0C-92D2C126CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B57A9C-40D7-4ED3-98DF-549D53B6C3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="13428" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1442">
   <si>
     <t>ID</t>
   </si>
@@ -3103,9 +3103,6 @@
     <t>Binzgen</t>
   </si>
   <si>
-    <t>Waldshut {vorne. Hinten kaum lesbar}</t>
-  </si>
-  <si>
     <t>Martin, Otto</t>
   </si>
   <si>
@@ -3955,9 +3952,6 @@
     <t>Sch[a]rmüs (w) &lt;Schar&gt;</t>
   </si>
   <si>
-    <t>Gelbrüne (w)</t>
-  </si>
-  <si>
     <t>Mûr (w)</t>
   </si>
   <si>
@@ -4028,6 +4022,1017 @@
   </si>
   <si>
     <t>abzwiaga</t>
+  </si>
+  <si>
+    <t>Z'</t>
+  </si>
+  <si>
+    <t>III_16_0015</t>
+  </si>
+  <si>
+    <t>[Y]</t>
+  </si>
+  <si>
+    <t>47,35</t>
+  </si>
+  <si>
+    <t>u-[Nb] {oder Mb}</t>
+  </si>
+  <si>
+    <t>Münsterol</t>
+  </si>
+  <si>
+    <t>Emil Fischer</t>
+  </si>
+  <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Ameisa (w)</t>
+  </si>
+  <si>
+    <t>Bro͡mmara (w)</t>
+  </si>
+  <si>
+    <t>Agarsta (w)</t>
+  </si>
+  <si>
+    <t>Fladermuss (w)</t>
+  </si>
+  <si>
+    <t>Mo͡ncka (w)</t>
+  </si>
+  <si>
+    <t>Gru͡mmat (s)</t>
+  </si>
+  <si>
+    <t>Ga͡ngummara (w)</t>
+  </si>
+  <si>
+    <t>Bo͡ntta (w)</t>
+  </si>
+  <si>
+    <t>Go͡nngel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hewa͡nma (w)</t>
+  </si>
+  <si>
+    <t>Hartepfel (m)</t>
+  </si>
+  <si>
+    <t>Riawa (w)</t>
+  </si>
+  <si>
+    <t>Mo͡nra (w)</t>
+  </si>
+  <si>
+    <t>Pfätter (m)</t>
+  </si>
+  <si>
+    <t>[P]flüma (w)</t>
+  </si>
+  <si>
+    <t>Spa͡ntz (m)</t>
+  </si>
+  <si>
+    <t>Grüslbeera (w)</t>
+  </si>
+  <si>
+    <t>Go͡nffa (w)</t>
+  </si>
+  <si>
+    <t>Schtreckno͡ndl (w)</t>
+  </si>
+  <si>
+    <t>Tassala (s)</t>
+  </si>
+  <si>
+    <t>Ha͡nfa (m)</t>
+  </si>
+  <si>
+    <t>veredla</t>
+  </si>
+  <si>
+    <t>Geis (w)</t>
+  </si>
+  <si>
+    <t>Holo͡nnder (m)</t>
+  </si>
+  <si>
+    <t>Schwegrtochtr (w)</t>
+  </si>
+  <si>
+    <t>III_16_0046</t>
+  </si>
+  <si>
+    <t>v-y</t>
+  </si>
+  <si>
+    <t>Helfrantskirch</t>
+  </si>
+  <si>
+    <t>Mülhausen i. Elsaß</t>
+  </si>
+  <si>
+    <t>Oberrhein</t>
+  </si>
+  <si>
+    <t>Alois Eckert</t>
+  </si>
+  <si>
+    <t>Mondfeld am Main</t>
+  </si>
+  <si>
+    <t>Einheimische</t>
+  </si>
+  <si>
+    <t>Omeise (w)</t>
+  </si>
+  <si>
+    <t>Lichd (s)</t>
+  </si>
+  <si>
+    <t>Brommbeere (w)</t>
+  </si>
+  <si>
+    <t>Dissel (w)</t>
+  </si>
+  <si>
+    <t>Agester</t>
+  </si>
+  <si>
+    <t>Enteri (m)</t>
+  </si>
+  <si>
+    <t>Fladermus (2)</t>
+  </si>
+  <si>
+    <t>Gogummere (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Henne (w)</t>
+  </si>
+  <si>
+    <t>Roller (m)</t>
+  </si>
+  <si>
+    <t>Gelbriebe (w)</t>
+  </si>
+  <si>
+    <t>schalde</t>
+  </si>
+  <si>
+    <t>Schboddz (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeer (w)</t>
+  </si>
+  <si>
+    <t>Striggnoodle (w)</t>
+  </si>
+  <si>
+    <t>Kaffedasseli (s)</t>
+  </si>
+  <si>
+    <t>Hāfe (m)</t>
+  </si>
+  <si>
+    <t>z wiege {leerzeichen vermutlich ausversehen}</t>
+  </si>
+  <si>
+    <t>Schwiegerdoochder (w)</t>
+  </si>
+  <si>
+    <t>III_16_069</t>
+  </si>
+  <si>
+    <t>[v]-W</t>
+  </si>
+  <si>
+    <t>Kirchen</t>
+  </si>
+  <si>
+    <t>Ldkr. Lörrach</t>
+  </si>
+  <si>
+    <t>Max Gerwig, M. [?]o[nio], [Sy??]</t>
+  </si>
+  <si>
+    <t>Wollbach</t>
+  </si>
+  <si>
+    <t>Omese (w), Bäramsle (w)</t>
+  </si>
+  <si>
+    <t>Flädermuus (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Huehn (s)</t>
+  </si>
+  <si>
+    <t>Grumbiire (w), Härdöpfel (m)</t>
+  </si>
+  <si>
+    <t>Chatzerolli (m)</t>
+  </si>
+  <si>
+    <t>Schärmuus (w)</t>
+  </si>
+  <si>
+    <t>Gälrüebe (w)</t>
+  </si>
+  <si>
+    <t>Geißle (w)</t>
+  </si>
+  <si>
+    <t>Pfluume (w)</t>
+  </si>
+  <si>
+    <t>ufbegähre</t>
+  </si>
+  <si>
+    <t>Chrüüselbeeri (s)</t>
+  </si>
+  <si>
+    <t>Schließguufe (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli (s), Kaffiplättli (s)</t>
+  </si>
+  <si>
+    <t>zwiige</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (w), Schwiegertochter (w)</t>
+  </si>
+  <si>
+    <t>III_16_0087</t>
+  </si>
+  <si>
+    <t>w-[b]</t>
+  </si>
+  <si>
+    <t>Egringen</t>
+  </si>
+  <si>
+    <t>Erb, Oskar Hptl.</t>
+  </si>
+  <si>
+    <t>Gölshausen</t>
+  </si>
+  <si>
+    <t>Landkr. Bretten</t>
+  </si>
+  <si>
+    <t>L,A</t>
+  </si>
+  <si>
+    <t>Frl. Geitlinger Anna</t>
+  </si>
+  <si>
+    <t>Omsle (w)</t>
+  </si>
+  <si>
+    <t>Liichd (e, w)</t>
+  </si>
+  <si>
+    <t>Dichsle (w)</t>
+  </si>
+  <si>
+    <t>Aegerste (w)</t>
+  </si>
+  <si>
+    <t>Raetsch (m)</t>
+  </si>
+  <si>
+    <t>Flaedermus (w)</t>
+  </si>
+  <si>
+    <t>Ehmd (s)</t>
+  </si>
+  <si>
+    <t>Hagebudde (w)</t>
+  </si>
+  <si>
+    <t>Guggl (m), Huehn (w)</t>
+  </si>
+  <si>
+    <t>Grumbiere (w)</t>
+  </si>
+  <si>
+    <t>Schaer (m)</t>
+  </si>
+  <si>
+    <t>Gaellrüebe (w)</t>
+  </si>
+  <si>
+    <t>Geisle (w)</t>
+  </si>
+  <si>
+    <t>ufbigaere</t>
+  </si>
+  <si>
+    <t>Schüsseli (w), Daellerli (s)</t>
+  </si>
+  <si>
+    <t>propfe</t>
+  </si>
+  <si>
+    <t>Schwiegerdochder (w)</t>
+  </si>
+  <si>
+    <t>Kreis Altkirch</t>
+  </si>
+  <si>
+    <t>III_16_0088</t>
+  </si>
+  <si>
+    <t>W-[c] {könnte auch e sein]</t>
+  </si>
+  <si>
+    <t>4[7],35</t>
+  </si>
+  <si>
+    <t>Fischingen</t>
+  </si>
+  <si>
+    <t>Fiege (w) {eventuell l vergessen - schreibfehler}</t>
+  </si>
+  <si>
+    <t>III_16_0094</t>
+  </si>
+  <si>
+    <t>w-n</t>
+  </si>
+  <si>
+    <t>Brombach</t>
+  </si>
+  <si>
+    <t>Lisbeth Reinhardt</t>
+  </si>
+  <si>
+    <t>Oehmd (s)</t>
+  </si>
+  <si>
+    <t>Gugumere (w), Gürkli (s)</t>
+  </si>
+  <si>
+    <t>Grumbiire (w), Herdöpfel (m)</t>
+  </si>
+  <si>
+    <t>Muulwurf (m)</t>
+  </si>
+  <si>
+    <t>Gelrüebe (w)</t>
+  </si>
+  <si>
+    <t>Chrüselbeeri (s)</t>
+  </si>
+  <si>
+    <t>Schtricknodle (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli, Kaffeschüsseli, Kaffetellerli</t>
+  </si>
+  <si>
+    <t>Schwiegerdochter (w)</t>
+  </si>
+  <si>
+    <t>Holunder (m)</t>
+  </si>
+  <si>
+    <t>III_16_0098</t>
+  </si>
+  <si>
+    <t>35,20</t>
+  </si>
+  <si>
+    <t>[47],35</t>
+  </si>
+  <si>
+    <t>w-q</t>
+  </si>
+  <si>
+    <t>Steinen</t>
+  </si>
+  <si>
+    <t>Gau Baden</t>
+  </si>
+  <si>
+    <t>Gustav Haberer</t>
+  </si>
+  <si>
+    <t>B, A</t>
+  </si>
+  <si>
+    <t>Ortseinwohner</t>
+  </si>
+  <si>
+    <t>Ameise</t>
+  </si>
+  <si>
+    <t>Diegsle</t>
+  </si>
+  <si>
+    <t>Elschter</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t>Ehmd</t>
+  </si>
+  <si>
+    <t>Gogummere</t>
+  </si>
+  <si>
+    <t>Gückel (m), Huehn (w)</t>
+  </si>
+  <si>
+    <t>Güggel, Gluggeri</t>
+  </si>
+  <si>
+    <t>Grumbiere</t>
+  </si>
+  <si>
+    <t>Chatzerolli</t>
+  </si>
+  <si>
+    <t>Mo[o]r</t>
+  </si>
+  <si>
+    <t>Göddi</t>
+  </si>
+  <si>
+    <t>Stachelbeeri</t>
+  </si>
+  <si>
+    <t>Guefe</t>
+  </si>
+  <si>
+    <t>Schüsseli, Dällerli</t>
+  </si>
+  <si>
+    <t>Beggi</t>
+  </si>
+  <si>
+    <t>III_16_0105</t>
+  </si>
+  <si>
+    <t>w-w</t>
+  </si>
+  <si>
+    <t>Karsau</t>
+  </si>
+  <si>
+    <t>Karl Baumgartner</t>
+  </si>
+  <si>
+    <t>Umbeise</t>
+  </si>
+  <si>
+    <t>Diechsl</t>
+  </si>
+  <si>
+    <t>[Ä]gerste</t>
+  </si>
+  <si>
+    <t>Gugummer</t>
+  </si>
+  <si>
+    <t>Güggel, Huhn</t>
+  </si>
+  <si>
+    <t>Härtöpfel &lt;=Erdäpfel&gt;</t>
+  </si>
+  <si>
+    <t>Rölli, Katzerolli</t>
+  </si>
+  <si>
+    <t>Mulwurf</t>
+  </si>
+  <si>
+    <t>Gelbrübe</t>
+  </si>
+  <si>
+    <t>Geißel</t>
+  </si>
+  <si>
+    <t>Chruselbeere, Stachelbeere</t>
+  </si>
+  <si>
+    <t>Tasse, Schüsseli</t>
+  </si>
+  <si>
+    <t>zweien &lt;=zweigen&gt;</t>
+  </si>
+  <si>
+    <t>III_16_0117</t>
+  </si>
+  <si>
+    <t>w-E</t>
+  </si>
+  <si>
+    <t>Wehr</t>
+  </si>
+  <si>
+    <t>Bad.</t>
+  </si>
+  <si>
+    <t>Alfr. Gottstein</t>
+  </si>
+  <si>
+    <t>Bad. Rheinfelden</t>
+  </si>
+  <si>
+    <t>Ameise, Emense</t>
+  </si>
+  <si>
+    <t>Hätsle</t>
+  </si>
+  <si>
+    <t>Fläderemuus</t>
+  </si>
+  <si>
+    <t>Fliege, Muck</t>
+  </si>
+  <si>
+    <t>Guggummere</t>
+  </si>
+  <si>
+    <t>Kater, Rolli</t>
+  </si>
+  <si>
+    <t>Muulwurf</t>
+  </si>
+  <si>
+    <t>Geelruebe</t>
+  </si>
+  <si>
+    <t>Sau &lt;Mohr&gt;</t>
+  </si>
+  <si>
+    <t>Geisle</t>
+  </si>
+  <si>
+    <t>Schdachelbeeri</t>
+  </si>
+  <si>
+    <t>Schdecknodle</t>
+  </si>
+  <si>
+    <t>Schdricknoodl</t>
+  </si>
+  <si>
+    <t>Schüssle, Underdällerli, bläddli</t>
+  </si>
+  <si>
+    <t>zweije, p[f]ropfe</t>
+  </si>
+  <si>
+    <t>Schwieger[?]ochder</t>
+  </si>
+  <si>
+    <t>III_16_0118</t>
+  </si>
+  <si>
+    <t>[7],35</t>
+  </si>
+  <si>
+    <t>w-[F]</t>
+  </si>
+  <si>
+    <t>Öflingen</t>
+  </si>
+  <si>
+    <t>Ho[nneck] [?l]ilf[e]lin</t>
+  </si>
+  <si>
+    <t>L,[A]</t>
+  </si>
+  <si>
+    <t>Wilh. Ha[???]</t>
+  </si>
+  <si>
+    <r>
+      <t>Umbeiße, B</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ramsele</t>
+    </r>
+  </si>
+  <si>
+    <t>Liicht &lt;langes i&gt;</t>
+  </si>
+  <si>
+    <t>Brummbeeri</t>
+  </si>
+  <si>
+    <t>Diegsle &lt;e nach i gesprochen&gt;</t>
+  </si>
+  <si>
+    <t>Änderich</t>
+  </si>
+  <si>
+    <t>Flädermuus</t>
+  </si>
+  <si>
+    <t>Fliege &lt;e nach i gespr.&gt;</t>
+  </si>
+  <si>
+    <t>Buddebeeri</t>
+  </si>
+  <si>
+    <t>Güggel, Hue &lt;e gespr.&gt;</t>
+  </si>
+  <si>
+    <t>Hebannd</t>
+  </si>
+  <si>
+    <t>Räuel, Rolli</t>
+  </si>
+  <si>
+    <t>Gälerüebe</t>
+  </si>
+  <si>
+    <t>Gaißle</t>
+  </si>
+  <si>
+    <t>Chrüse[l]beeri</t>
+  </si>
+  <si>
+    <t>Guufe, Schtecknodle</t>
+  </si>
+  <si>
+    <t>Schwigerdochder</t>
+  </si>
+  <si>
+    <t>III_16_0127</t>
+  </si>
+  <si>
+    <t>w-P</t>
+  </si>
+  <si>
+    <t>Hogschür</t>
+  </si>
+  <si>
+    <t>Land Baden</t>
+  </si>
+  <si>
+    <t>Karl Löffler, Hauptl.</t>
+  </si>
+  <si>
+    <t>Heinstetten</t>
+  </si>
+  <si>
+    <t>Bäramsele (w)</t>
+  </si>
+  <si>
+    <t>Liich (w)</t>
+  </si>
+  <si>
+    <t>Düechsle (w)</t>
+  </si>
+  <si>
+    <t>Fledermuus (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fli</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ge (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ähmd (w)</t>
+  </si>
+  <si>
+    <t>Hagebubbe (w)</t>
+  </si>
+  <si>
+    <t>Gückel, Huoh</t>
+  </si>
+  <si>
+    <t>Heband (w)</t>
+  </si>
+  <si>
+    <t>Herdöpfel (w)</t>
+  </si>
+  <si>
+    <t>Gelerüebe (w)</t>
+  </si>
+  <si>
+    <t>brummle</t>
+  </si>
+  <si>
+    <t>Guuve (w)</t>
+  </si>
+  <si>
+    <t>Stricknoodele (w)</t>
+  </si>
+  <si>
+    <t>Schwigertochder (w)</t>
+  </si>
+  <si>
+    <t>III_16_0141</t>
+  </si>
+  <si>
+    <t>x-b</t>
+  </si>
+  <si>
+    <t>Schachen</t>
+  </si>
+  <si>
+    <t>Hi[??]lm Gunt[e]r</t>
+  </si>
+  <si>
+    <t>Kreis Säckingen</t>
+  </si>
+  <si>
+    <t>Gru[?]tzla[??]r</t>
+  </si>
+  <si>
+    <t>888 {Format des Bogen anders - ich finde die Angabe nicht}</t>
+  </si>
+  <si>
+    <t>Bäramseln</t>
+  </si>
+  <si>
+    <t>Elster</t>
+  </si>
+  <si>
+    <t>Fliēge</t>
+  </si>
+  <si>
+    <t>Gugummera</t>
+  </si>
+  <si>
+    <t>Gückel &lt;=Hahn&gt;, Henne &lt;=Huhn&gt;</t>
+  </si>
+  <si>
+    <t>Rolle, Kater, Raiel</t>
+  </si>
+  <si>
+    <t>Maulwurf</t>
+  </si>
+  <si>
+    <t>Gelbrübe, Geelrüebe</t>
+  </si>
+  <si>
+    <t>Gaißel</t>
+  </si>
+  <si>
+    <t>schelten {reihenfolge vom Informanten wohl vertauscht}</t>
+  </si>
+  <si>
+    <t>Gruselbeere</t>
+  </si>
+  <si>
+    <t>Güfele (s)</t>
+  </si>
+  <si>
+    <t>Schüssele &lt;=Obertasse&gt;, Teller &lt;=Untertasse&gt;</t>
+  </si>
+  <si>
+    <t>Gaißen</t>
+  </si>
+  <si>
+    <t>III_16_0150</t>
+  </si>
+  <si>
+    <t>l-g</t>
+  </si>
+  <si>
+    <t>Waldshut</t>
+  </si>
+  <si>
+    <t>Waldshut {vorne; Hinten kaum lesbar}</t>
+  </si>
+  <si>
+    <t>Wilh. Fritz</t>
+  </si>
+  <si>
+    <t>i. E.</t>
+  </si>
+  <si>
+    <t>Boramsele &lt;im Hauersteiner Land&gt;</t>
+  </si>
+  <si>
+    <t>Erdöpfel, Grundbire</t>
+  </si>
+  <si>
+    <t>Kruselbeeren</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssele</t>
+  </si>
+  <si>
+    <t>III_16_0155</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>l-i</t>
+  </si>
+  <si>
+    <t>Tiengen</t>
+  </si>
+  <si>
+    <t>Josef Zehnder</t>
+  </si>
+  <si>
+    <t>Furtwangen</t>
+  </si>
+  <si>
+    <t>Lieche (w)</t>
+  </si>
+  <si>
+    <t>Totenvogel (m)</t>
+  </si>
+  <si>
+    <t>Grummet, Öhmd (s)</t>
+  </si>
+  <si>
+    <t>Gukumere (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Henne (w)</t>
+  </si>
+  <si>
+    <t>Katzerölli (m)</t>
+  </si>
+  <si>
+    <t>Schermus (w)</t>
+  </si>
+  <si>
+    <t>Gelbrübe (w)</t>
+  </si>
+  <si>
+    <t>Stecknadel, Gufe (w)</t>
+  </si>
+  <si>
+    <t>Schüssle (w), Teller (m)</t>
+  </si>
+  <si>
+    <t>veredeln</t>
+  </si>
+  <si>
+    <t>Gaiss</t>
+  </si>
+  <si>
+    <t>III_16_0160</t>
+  </si>
+  <si>
+    <t>25,5</t>
+  </si>
+  <si>
+    <t>l-e</t>
+  </si>
+  <si>
+    <t>Jndlekofen</t>
+  </si>
+  <si>
+    <t>Karl Fortwängler</t>
+  </si>
+  <si>
+    <t>i. Br.</t>
+  </si>
+  <si>
+    <t>Bärumsle (w)</t>
+  </si>
+  <si>
+    <t>Liich (s)</t>
+  </si>
+  <si>
+    <t>Hetzle (w)</t>
+  </si>
+  <si>
+    <t>Änderich (d', m)</t>
+  </si>
+  <si>
+    <t>Frädermuus (w)</t>
+  </si>
+  <si>
+    <t>Flüüge (w)</t>
+  </si>
+  <si>
+    <t>Hagebutze (w)</t>
+  </si>
+  <si>
+    <t>Güggel, Huhen</t>
+  </si>
+  <si>
+    <t>Hebann (w)</t>
+  </si>
+  <si>
+    <t>Chatzerolly</t>
+  </si>
+  <si>
+    <t>Schermuus (w), Mulwurf (m)</t>
+  </si>
+  <si>
+    <t>Rüebe (w) &lt;???&gt;</t>
+  </si>
+  <si>
+    <t>Gaisle (w)</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (w), Kruselbeeri</t>
+  </si>
+  <si>
+    <t>Güfili (s), Guufe (w), Stecknodle (w)</t>
+  </si>
+  <si>
+    <t>Chaffeeschüssle (w), Underdällerli (s)</t>
+  </si>
+  <si>
+    <t>Milchbecki (s)</t>
+  </si>
+  <si>
+    <t>abzweie</t>
+  </si>
+  <si>
+    <t>III_16_0161</t>
+  </si>
+  <si>
+    <t>l-f</t>
+  </si>
+  <si>
+    <t>Weilheim</t>
+  </si>
+  <si>
+    <t>über Tiengen &lt;z. [?????]</t>
+  </si>
+  <si>
+    <t>Waldshut Hochrhein</t>
+  </si>
+  <si>
+    <t>Bärromsle (w)</t>
+  </si>
+  <si>
+    <t>Güggel, Hueh</t>
+  </si>
+  <si>
+    <t>Scheermuus (w)</t>
+  </si>
+  <si>
+    <t>Gelräbli (s)</t>
+  </si>
+  <si>
+    <t>Götti (m) &lt;Gotte w&gt;</t>
+  </si>
+  <si>
+    <t>Pfluume &lt;zwetschge&gt;</t>
+  </si>
+  <si>
+    <t>schelte</t>
+  </si>
+  <si>
+    <t>Güfili (s)</t>
+  </si>
+  <si>
+    <t>Stricknoodle (w)</t>
+  </si>
+  <si>
+    <t>Schüssili (s)</t>
+  </si>
+  <si>
+    <t>Güggel {verschoben}</t>
   </si>
 </sst>
 </file>
@@ -4082,7 +5087,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4119,6 +5124,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4131,14 +5156,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4457,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB41"/>
+  <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AZ40" sqref="AZ40"/>
+    <sheetView tabSelected="1" topLeftCell="AC21" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4671,7 +5704,7 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -4829,7 +5862,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -4958,7 +5991,7 @@
         <v>129</v>
       </c>
       <c r="AV3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AW3" t="s">
         <v>130</v>
@@ -4990,7 +6023,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -5151,7 +6184,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -5312,7 +6345,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -5348,7 +6381,7 @@
         <v>217</v>
       </c>
       <c r="P6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q6" t="s">
         <v>218</v>
@@ -5473,7 +6506,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -5631,7 +6664,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -5789,7 +6822,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -5947,7 +6980,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -6105,7 +7138,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -6263,7 +7296,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6421,7 +7454,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -6579,7 +7612,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -6737,7 +7770,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -6895,7 +7928,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -7053,7 +8086,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -7211,7 +8244,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -7369,7 +8402,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -7527,7 +8560,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -7688,7 +8721,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -7849,7 +8882,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -8007,7 +9040,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -8165,7 +9198,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -8309,7 +9342,7 @@
         <v>743</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
@@ -8323,7 +9356,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -8484,7 +9517,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -8642,7 +9675,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -8800,7 +9833,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -8827,16 +9860,16 @@
         <v>818</v>
       </c>
       <c r="N28" t="s">
-        <v>819</v>
+        <v>1377</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
       </c>
       <c r="P28" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q28" t="s">
         <v>820</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>821</v>
       </c>
       <c r="R28">
         <v>999</v>
@@ -8857,16 +9890,16 @@
         <v>315</v>
       </c>
       <c r="X28" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y28" t="s">
         <v>822</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>823</v>
       </c>
       <c r="Z28" t="s">
         <v>277</v>
       </c>
       <c r="AA28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AB28" t="s">
         <v>590</v>
@@ -8878,55 +9911,55 @@
         <v>487</v>
       </c>
       <c r="AE28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF28" t="s">
         <v>283</v>
       </c>
       <c r="AG28" t="s">
+        <v>825</v>
+      </c>
+      <c r="AH28" t="s">
         <v>826</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>827</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>828</v>
       </c>
       <c r="AJ28" t="s">
         <v>385</v>
       </c>
       <c r="AK28" t="s">
+        <v>828</v>
+      </c>
+      <c r="AL28" t="s">
         <v>829</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>830</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
         <v>831</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AO28" t="s">
         <v>832</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>833</v>
       </c>
       <c r="AP28" t="s">
         <v>293</v>
       </c>
       <c r="AQ28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AR28" t="s">
         <v>295</v>
       </c>
       <c r="AS28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AT28" t="s">
         <v>297</v>
       </c>
       <c r="AU28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AV28" t="s">
         <v>299</v>
@@ -8935,7 +9968,7 @@
         <v>300</v>
       </c>
       <c r="AX28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>340</v>
@@ -8958,7 +9991,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E29">
         <v>9</v>
@@ -8967,7 +10000,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H29" t="s">
         <v>369</v>
@@ -8979,10 +10012,10 @@
         <v>57</v>
       </c>
       <c r="K29" t="s">
+        <v>842</v>
+      </c>
+      <c r="L29" t="s">
         <v>843</v>
-      </c>
-      <c r="L29" t="s">
-        <v>844</v>
       </c>
       <c r="N29" t="s">
         <v>60</v>
@@ -8991,82 +10024,82 @@
         <v>139</v>
       </c>
       <c r="P29" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q29" t="s">
         <v>845</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29">
+        <v>999</v>
+      </c>
+      <c r="S29" t="s">
         <v>846</v>
-      </c>
-      <c r="R29">
-        <v>999</v>
-      </c>
-      <c r="S29" t="s">
-        <v>847</v>
       </c>
       <c r="T29" t="s">
         <v>245</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="V29" t="s">
         <v>848</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>849</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>850</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>851</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>852</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>853</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>854</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>855</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>856</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>857</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>858</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>859</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>860</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>861</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>862</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>863</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>864</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>865</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>866</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AO29" t="s">
         <v>867</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>868</v>
       </c>
       <c r="AP29" t="s">
         <v>681</v>
@@ -9075,31 +10108,31 @@
         <v>85</v>
       </c>
       <c r="AR29" t="s">
+        <v>868</v>
+      </c>
+      <c r="AS29" t="s">
         <v>869</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT29" t="s">
         <v>870</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AU29" t="s">
         <v>871</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>872</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
         <v>873</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>874</v>
       </c>
       <c r="AX29" t="s">
         <v>498</v>
       </c>
       <c r="AY29" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AZ29" t="s">
         <v>875</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>876</v>
       </c>
       <c r="BA29" s="1" t="s">
         <v>689</v>
@@ -9116,7 +10149,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -9125,7 +10158,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H30" t="s">
         <v>213</v>
@@ -9137,22 +10170,22 @@
         <v>57</v>
       </c>
       <c r="K30" t="s">
+        <v>877</v>
+      </c>
+      <c r="L30" t="s">
         <v>878</v>
-      </c>
-      <c r="L30" t="s">
-        <v>879</v>
       </c>
       <c r="N30" t="s">
         <v>60</v>
       </c>
       <c r="O30" t="s">
+        <v>879</v>
+      </c>
+      <c r="P30" t="s">
         <v>880</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>881</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>882</v>
       </c>
       <c r="R30">
         <v>999</v>
@@ -9170,7 +10203,7 @@
         <v>65</v>
       </c>
       <c r="W30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="X30" t="s">
         <v>107</v>
@@ -9179,7 +10212,7 @@
         <v>375</v>
       </c>
       <c r="Z30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AA30" t="s">
         <v>404</v>
@@ -9188,10 +10221,10 @@
         <v>348</v>
       </c>
       <c r="AC30" t="s">
+        <v>884</v>
+      </c>
+      <c r="AD30" t="s">
         <v>885</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>886</v>
       </c>
       <c r="AE30" t="s">
         <v>803</v>
@@ -9200,7 +10233,7 @@
         <v>569</v>
       </c>
       <c r="AG30" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AH30" t="s">
         <v>193</v>
@@ -9230,22 +10263,22 @@
         <v>575</v>
       </c>
       <c r="AQ30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AR30" t="s">
         <v>202</v>
       </c>
       <c r="AS30" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT30" t="s">
         <v>889</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>890</v>
       </c>
       <c r="AU30" t="s">
         <v>263</v>
       </c>
       <c r="AV30" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AW30" t="s">
         <v>265</v>
@@ -9274,7 +10307,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -9283,7 +10316,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H31" t="s">
         <v>369</v>
@@ -9295,10 +10328,10 @@
         <v>57</v>
       </c>
       <c r="K31" t="s">
+        <v>892</v>
+      </c>
+      <c r="L31" t="s">
         <v>893</v>
-      </c>
-      <c r="L31" t="s">
-        <v>894</v>
       </c>
       <c r="N31" t="s">
         <v>60</v>
@@ -9307,7 +10340,7 @@
         <v>999</v>
       </c>
       <c r="P31" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q31" t="s">
         <v>551</v>
@@ -9325,10 +10358,10 @@
         <v>999</v>
       </c>
       <c r="V31" t="s">
+        <v>895</v>
+      </c>
+      <c r="W31" t="s">
         <v>896</v>
-      </c>
-      <c r="W31" t="s">
-        <v>897</v>
       </c>
       <c r="X31" t="s">
         <v>700</v>
@@ -9337,13 +10370,13 @@
         <v>457</v>
       </c>
       <c r="Z31" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AA31" t="s">
         <v>377</v>
       </c>
       <c r="AB31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AC31" t="s">
         <v>459</v>
@@ -9352,34 +10385,34 @@
         <v>641</v>
       </c>
       <c r="AE31" t="s">
+        <v>899</v>
+      </c>
+      <c r="AF31" t="s">
         <v>900</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>901</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>902</v>
       </c>
       <c r="AH31" t="s">
         <v>155</v>
       </c>
       <c r="AI31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AJ31" t="s">
         <v>385</v>
       </c>
       <c r="AK31" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL31" t="s">
         <v>904</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>905</v>
       </c>
       <c r="AM31" t="s">
         <v>459</v>
       </c>
       <c r="AN31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AO31" t="s">
         <v>712</v>
@@ -9388,25 +10421,25 @@
         <v>124</v>
       </c>
       <c r="AQ31" t="s">
+        <v>906</v>
+      </c>
+      <c r="AR31" t="s">
         <v>907</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AS31" t="s">
         <v>908</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>909</v>
       </c>
       <c r="AT31" t="s">
         <v>494</v>
       </c>
       <c r="AU31" t="s">
+        <v>909</v>
+      </c>
+      <c r="AV31" t="s">
         <v>910</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AW31" t="s">
         <v>911</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>912</v>
       </c>
       <c r="AX31" t="s">
         <v>419</v>
@@ -9415,10 +10448,10 @@
         <v>658</v>
       </c>
       <c r="AZ31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
@@ -9432,7 +10465,7 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -9441,7 +10474,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H32" t="s">
         <v>369</v>
@@ -9453,10 +10486,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s">
+        <v>915</v>
+      </c>
+      <c r="L32" t="s">
         <v>916</v>
-      </c>
-      <c r="L32" t="s">
-        <v>917</v>
       </c>
       <c r="N32" t="s">
         <v>60</v>
@@ -9465,10 +10498,10 @@
         <v>61</v>
       </c>
       <c r="P32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="R32">
         <v>999</v>
@@ -9477,19 +10510,19 @@
         <v>103</v>
       </c>
       <c r="T32" t="s">
+        <v>920</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" t="s">
         <v>922</v>
-      </c>
-      <c r="V32" t="s">
-        <v>923</v>
       </c>
       <c r="W32" t="s">
         <v>427</v>
       </c>
       <c r="X32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="Y32" t="s">
         <v>375</v>
@@ -9498,7 +10531,7 @@
         <v>347</v>
       </c>
       <c r="AA32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AB32" t="s">
         <v>348</v>
@@ -9507,19 +10540,19 @@
         <v>757</v>
       </c>
       <c r="AD32" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE32" t="s">
         <v>926</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>927</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>928</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>929</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>930</v>
       </c>
       <c r="AI32" t="s">
         <v>77</v>
@@ -9531,13 +10564,13 @@
         <v>119</v>
       </c>
       <c r="AL32" t="s">
+        <v>930</v>
+      </c>
+      <c r="AM32" t="s">
         <v>931</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AN32" t="s">
         <v>932</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>933</v>
       </c>
       <c r="AO32" t="s">
         <v>358</v>
@@ -9552,16 +10585,16 @@
         <v>202</v>
       </c>
       <c r="AS32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AT32" t="s">
         <v>362</v>
       </c>
       <c r="AU32" t="s">
+        <v>934</v>
+      </c>
+      <c r="AV32" t="s">
         <v>935</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>936</v>
       </c>
       <c r="AW32" t="s">
         <v>91</v>
@@ -9590,7 +10623,7 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -9599,7 +10632,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H33" t="s">
         <v>97</v>
@@ -9611,10 +10644,10 @@
         <v>57</v>
       </c>
       <c r="K33" t="s">
+        <v>937</v>
+      </c>
+      <c r="L33" t="s">
         <v>938</v>
-      </c>
-      <c r="L33" t="s">
-        <v>939</v>
       </c>
       <c r="N33" t="s">
         <v>60</v>
@@ -9623,10 +10656,10 @@
         <v>61</v>
       </c>
       <c r="P33" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q33" t="s">
         <v>940</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>941</v>
       </c>
       <c r="R33">
         <v>999</v>
@@ -9650,31 +10683,31 @@
         <v>776</v>
       </c>
       <c r="Y33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="Z33" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA33" t="s">
         <v>942</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>943</v>
       </c>
       <c r="AB33" t="s">
         <v>348</v>
       </c>
       <c r="AC33" t="s">
+        <v>944</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE33" t="s">
         <v>945</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>926</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>946</v>
       </c>
       <c r="AF33" t="s">
         <v>569</v>
       </c>
       <c r="AG33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AH33" t="s">
         <v>193</v>
@@ -9689,40 +10722,40 @@
         <v>119</v>
       </c>
       <c r="AL33" t="s">
+        <v>947</v>
+      </c>
+      <c r="AM33" t="s">
         <v>948</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>949</v>
       </c>
       <c r="AN33" t="s">
         <v>809</v>
       </c>
       <c r="AO33" t="s">
+        <v>949</v>
+      </c>
+      <c r="AP33" t="s">
         <v>950</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>951</v>
       </c>
       <c r="AQ33" t="s">
         <v>653</v>
       </c>
       <c r="AR33" t="s">
+        <v>951</v>
+      </c>
+      <c r="AS33" t="s">
         <v>952</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU33" t="s">
         <v>953</v>
       </c>
-      <c r="AT33" t="s">
-        <v>890</v>
-      </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>954</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AW33" t="s">
         <v>955</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>956</v>
       </c>
       <c r="AX33" t="s">
         <v>793</v>
@@ -9730,14 +10763,14 @@
       <c r="AY33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ33" s="6" t="s">
-        <v>957</v>
+      <c r="AZ33" t="s">
+        <v>956</v>
       </c>
       <c r="BA33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BB33" s="6" t="s">
-        <v>958</v>
+      <c r="BB33" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
@@ -9751,7 +10784,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E34">
         <v>11</v>
@@ -9760,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H34" t="s">
         <v>369</v>
@@ -9772,10 +10805,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s">
+        <v>959</v>
+      </c>
+      <c r="L34" t="s">
         <v>960</v>
-      </c>
-      <c r="L34" t="s">
-        <v>961</v>
       </c>
       <c r="N34" t="s">
         <v>60</v>
@@ -9784,10 +10817,10 @@
         <v>561</v>
       </c>
       <c r="P34" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q34" t="s">
         <v>962</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>963</v>
       </c>
       <c r="R34">
         <v>999</v>
@@ -9801,101 +10834,101 @@
       <c r="U34" s="1">
         <v>999</v>
       </c>
-      <c r="V34" s="6" t="s">
+      <c r="V34" t="s">
+        <v>963</v>
+      </c>
+      <c r="W34" t="s">
+        <v>427</v>
+      </c>
+      <c r="X34" t="s">
         <v>964</v>
       </c>
-      <c r="W34" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="X34" s="6" t="s">
+      <c r="Y34" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB34" t="s">
         <v>965</v>
       </c>
-      <c r="Y34" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z34" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AB34" s="6" t="s">
+      <c r="AC34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE34" t="s">
         <v>966</v>
       </c>
-      <c r="AC34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE34" s="6" t="s">
+      <c r="AF34" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG34" t="s">
         <v>967</v>
       </c>
-      <c r="AF34" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="AG34" s="6" t="s">
+      <c r="AH34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI34" t="s">
         <v>968</v>
       </c>
-      <c r="AH34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI34" s="6" t="s">
+      <c r="AJ34" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK34" t="s">
         <v>969</v>
       </c>
-      <c r="AJ34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK34" s="6" t="s">
+      <c r="AL34" t="s">
         <v>970</v>
       </c>
-      <c r="AL34" s="6" t="s">
+      <c r="AM34" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN34" t="s">
         <v>971</v>
       </c>
-      <c r="AM34" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN34" s="6" t="s">
+      <c r="AO34" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS34" t="s">
         <v>972</v>
       </c>
-      <c r="AO34" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP34" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS34" s="6" t="s">
+      <c r="AT34" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU34" t="s">
         <v>973</v>
       </c>
-      <c r="AT34" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="AU34" s="6" t="s">
+      <c r="AV34" t="s">
         <v>974</v>
       </c>
-      <c r="AV34" s="6" t="s">
+      <c r="AW34" t="s">
         <v>975</v>
       </c>
-      <c r="AW34" s="6" t="s">
+      <c r="AX34" t="s">
         <v>976</v>
       </c>
-      <c r="AX34" s="6" t="s">
+      <c r="AY34" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AY34" s="1" t="s">
+      <c r="AZ34" t="s">
+        <v>579</v>
+      </c>
+      <c r="BA34" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="AZ34" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="BA34" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
@@ -9909,7 +10942,7 @@
         <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E35">
         <v>11</v>
@@ -9918,7 +10951,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H35" t="s">
         <v>369</v>
@@ -9930,10 +10963,10 @@
         <v>57</v>
       </c>
       <c r="K35" t="s">
+        <v>980</v>
+      </c>
+      <c r="L35" t="s">
         <v>981</v>
-      </c>
-      <c r="L35" t="s">
-        <v>982</v>
       </c>
       <c r="N35" t="s">
         <v>60</v>
@@ -9942,13 +10975,13 @@
         <v>61</v>
       </c>
       <c r="P35" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>982</v>
+      </c>
+      <c r="R35" t="s">
         <v>984</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>983</v>
-      </c>
-      <c r="R35" t="s">
-        <v>985</v>
       </c>
       <c r="S35" t="s">
         <v>61</v>
@@ -9959,104 +10992,104 @@
       <c r="U35" s="1">
         <v>999</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="W35" s="6" t="s">
+      <c r="V35" t="s">
+        <v>895</v>
+      </c>
+      <c r="W35" t="s">
+        <v>985</v>
+      </c>
+      <c r="X35" t="s">
         <v>986</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="Y35" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z35" t="s">
         <v>987</v>
       </c>
-      <c r="Y35" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>988</v>
       </c>
-      <c r="AA35" s="6" t="s">
+      <c r="AB35" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE35" t="s">
         <v>989</v>
       </c>
-      <c r="AB35" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AF35" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG35" t="s">
         <v>990</v>
       </c>
-      <c r="AF35" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="AG35" s="6" t="s">
+      <c r="AH35" t="s">
         <v>991</v>
       </c>
-      <c r="AH35" s="6" t="s">
+      <c r="AI35" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>992</v>
       </c>
-      <c r="AI35" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>993</v>
       </c>
-      <c r="AK35" s="6" t="s">
+      <c r="AL35" t="s">
         <v>994</v>
       </c>
-      <c r="AL35" s="6" t="s">
+      <c r="AM35" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN35" t="s">
         <v>995</v>
       </c>
-      <c r="AM35" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="AN35" s="6" t="s">
+      <c r="AO35" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ35" t="s">
         <v>996</v>
       </c>
-      <c r="AO35" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP35" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ35" s="6" t="s">
+      <c r="AR35" t="s">
         <v>997</v>
       </c>
-      <c r="AR35" s="6" t="s">
+      <c r="AS35" t="s">
         <v>998</v>
       </c>
-      <c r="AS35" t="s">
-        <v>999</v>
-      </c>
-      <c r="AT35" s="6" t="s">
+      <c r="AT35" t="s">
+        <v>999</v>
+      </c>
+      <c r="AU35" t="s">
         <v>1000</v>
       </c>
-      <c r="AU35" s="6" t="s">
+      <c r="AV35" t="s">
         <v>1001</v>
       </c>
-      <c r="AV35" s="6" t="s">
+      <c r="AW35" t="s">
         <v>1002</v>
       </c>
-      <c r="AW35" s="6" t="s">
+      <c r="AX35" t="s">
         <v>1003</v>
-      </c>
-      <c r="AX35" s="6" t="s">
-        <v>1004</v>
       </c>
       <c r="AY35" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ35" s="6" t="s">
+      <c r="AZ35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BA35" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BB35" t="s">
         <v>1006</v>
-      </c>
-      <c r="BA35" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="BB35" s="6" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
@@ -10070,7 +11103,7 @@
         <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E36">
         <v>11</v>
@@ -10079,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H36" t="s">
         <v>369</v>
@@ -10091,10 +11124,10 @@
         <v>57</v>
       </c>
       <c r="K36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L36" t="s">
         <v>1009</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1010</v>
       </c>
       <c r="N36" t="s">
         <v>560</v>
@@ -10103,10 +11136,10 @@
         <v>61</v>
       </c>
       <c r="P36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q36" t="s">
         <v>1011</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>1012</v>
       </c>
       <c r="R36">
         <v>999</v>
@@ -10120,101 +11153,101 @@
       <c r="U36" s="1">
         <v>999</v>
       </c>
-      <c r="V36" s="6" t="s">
+      <c r="V36" t="s">
+        <v>1012</v>
+      </c>
+      <c r="W36" t="s">
         <v>1013</v>
       </c>
-      <c r="W36" s="6" t="s">
+      <c r="X36" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y36" t="s">
         <v>1014</v>
       </c>
-      <c r="X36" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="Y36" s="6" t="s">
+      <c r="Z36" t="s">
         <v>1015</v>
       </c>
-      <c r="Z36" s="6" t="s">
+      <c r="AA36" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB36" t="s">
         <v>1016</v>
       </c>
-      <c r="AA36" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB36" s="6" t="s">
+      <c r="AC36" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG36" t="s">
         <v>1017</v>
       </c>
-      <c r="AC36" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="AG36" s="6" t="s">
+      <c r="AH36" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI36" t="s">
         <v>1018</v>
       </c>
-      <c r="AH36" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI36" s="6" t="s">
+      <c r="AJ36" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK36" t="s">
         <v>1019</v>
       </c>
-      <c r="AJ36" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK36" s="6" t="s">
+      <c r="AL36" t="s">
         <v>1020</v>
       </c>
-      <c r="AL36" s="6" t="s">
+      <c r="AM36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP36" t="s">
         <v>1021</v>
       </c>
-      <c r="AM36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN36" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="AO36" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="AP36" s="6" t="s">
+      <c r="AQ36" t="s">
+        <v>627</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS36" t="s">
         <v>1022</v>
       </c>
-      <c r="AQ36" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="AR36" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS36" s="6" t="s">
+      <c r="AT36" t="s">
         <v>1023</v>
       </c>
-      <c r="AT36" s="6" t="s">
+      <c r="AU36" t="s">
         <v>1024</v>
       </c>
-      <c r="AU36" s="6" t="s">
+      <c r="AV36" t="s">
         <v>1025</v>
       </c>
-      <c r="AV36" s="6" t="s">
+      <c r="AW36" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX36" t="s">
         <v>1026</v>
-      </c>
-      <c r="AW36" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>1027</v>
       </c>
       <c r="AY36" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ36" s="6" t="s">
-        <v>1029</v>
+      <c r="AZ36" t="s">
+        <v>1028</v>
       </c>
       <c r="BA36" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
@@ -10228,7 +11261,7 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E37">
         <v>11</v>
@@ -10237,7 +11270,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H37" t="s">
         <v>213</v>
@@ -10249,22 +11282,22 @@
         <v>57</v>
       </c>
       <c r="K37" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N37" t="s">
         <v>1031</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1032</v>
       </c>
       <c r="O37" t="s">
         <v>61</v>
       </c>
       <c r="P37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q37" t="s">
         <v>1033</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>1034</v>
       </c>
       <c r="R37">
         <v>999</v>
@@ -10278,101 +11311,101 @@
       <c r="U37" s="1">
         <v>999</v>
       </c>
-      <c r="V37" s="6" t="s">
+      <c r="V37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="W37" t="s">
         <v>1035</v>
       </c>
-      <c r="W37" s="6" t="s">
+      <c r="X37" t="s">
         <v>1036</v>
       </c>
-      <c r="X37" s="6" t="s">
+      <c r="Y37" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z37" t="s">
         <v>1037</v>
       </c>
-      <c r="Y37" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z37" s="6" t="s">
+      <c r="AA37" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC37" t="s">
         <v>1038</v>
       </c>
-      <c r="AA37" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC37" s="6" t="s">
+      <c r="AD37" t="s">
         <v>1039</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AE37" t="s">
         <v>1040</v>
       </c>
-      <c r="AE37" s="6" t="s">
+      <c r="AF37" t="s">
         <v>1041</v>
       </c>
-      <c r="AF37" s="6" t="s">
+      <c r="AG37" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH37" t="s">
         <v>1042</v>
       </c>
-      <c r="AG37" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="AH37" s="6" t="s">
+      <c r="AI37" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>1043</v>
       </c>
-      <c r="AI37" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ37" s="6" t="s">
+      <c r="AK37" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL37" t="s">
         <v>1044</v>
       </c>
-      <c r="AK37" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="AL37" s="6" t="s">
+      <c r="AM37" t="s">
         <v>1045</v>
       </c>
-      <c r="AM37" s="6" t="s">
+      <c r="AN37" t="s">
         <v>1046</v>
       </c>
-      <c r="AN37" s="6" t="s">
+      <c r="AO37" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS37" t="s">
         <v>1047</v>
       </c>
-      <c r="AO37" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP37" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ37" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AR37" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="AS37" s="6" t="s">
+      <c r="AT37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AU37" t="s">
         <v>1048</v>
       </c>
-      <c r="AT37" s="6" t="s">
+      <c r="AV37" t="s">
         <v>1050</v>
       </c>
-      <c r="AU37" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AV37" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AW37" s="6" t="s">
+      <c r="AW37" t="s">
         <v>527</v>
       </c>
-      <c r="AX37" s="6" t="s">
+      <c r="AX37" t="s">
         <v>498</v>
       </c>
       <c r="AY37" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ37" s="6" t="s">
-        <v>1053</v>
+      <c r="AZ37" t="s">
+        <v>1052</v>
       </c>
       <c r="BA37" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
@@ -10386,7 +11419,7 @@
         <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E38">
         <v>11</v>
@@ -10395,7 +11428,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H38" t="s">
         <v>213</v>
@@ -10407,22 +11440,22 @@
         <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N38" t="s">
         <v>560</v>
       </c>
       <c r="O38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P38" t="s">
         <v>1057</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>1058</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>1059</v>
       </c>
       <c r="R38">
         <v>999</v>
@@ -10431,106 +11464,106 @@
         <v>61</v>
       </c>
       <c r="T38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="V38" t="s">
+        <v>314</v>
+      </c>
+      <c r="W38" t="s">
+        <v>896</v>
+      </c>
+      <c r="X38" t="s">
         <v>1061</v>
       </c>
-      <c r="V38" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="X38" s="6" t="s">
+      <c r="Y38" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z38" t="s">
         <v>1062</v>
       </c>
-      <c r="Y38" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z38" s="6" t="s">
+      <c r="AA38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB38" t="s">
         <v>1063</v>
       </c>
-      <c r="AA38" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB38" s="6" t="s">
+      <c r="AC38" t="s">
         <v>1064</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AD38" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE38" t="s">
         <v>1065</v>
       </c>
-      <c r="AD38" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AF38" t="s">
         <v>1066</v>
       </c>
-      <c r="AF38" s="6" t="s">
+      <c r="AG38" t="s">
         <v>1067</v>
       </c>
-      <c r="AG38" s="6" t="s">
+      <c r="AH38" t="s">
         <v>1068</v>
       </c>
-      <c r="AH38" s="6" t="s">
+      <c r="AI38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK38" t="s">
         <v>1069</v>
       </c>
-      <c r="AI38" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AJ38" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK38" s="6" t="s">
+      <c r="AL38" t="s">
         <v>1070</v>
       </c>
-      <c r="AL38" s="6" t="s">
+      <c r="AM38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN38" t="s">
         <v>1071</v>
       </c>
-      <c r="AM38" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN38" s="6" t="s">
+      <c r="AO38" t="s">
         <v>1072</v>
       </c>
-      <c r="AO38" s="6" t="s">
+      <c r="AP38" t="s">
         <v>1073</v>
       </c>
-      <c r="AP38" s="6" t="s">
+      <c r="AQ38" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT38" t="s">
         <v>1074</v>
       </c>
-      <c r="AQ38" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR38" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS38" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AT38" s="6" t="s">
+      <c r="AU38" t="s">
         <v>1075</v>
       </c>
-      <c r="AU38" s="6" t="s">
+      <c r="AV38" t="s">
         <v>1076</v>
       </c>
-      <c r="AV38" s="6" t="s">
+      <c r="AW38" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX38" t="s">
         <v>1077</v>
-      </c>
-      <c r="AW38" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AX38" s="6" t="s">
-        <v>1078</v>
       </c>
       <c r="AY38" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ38" s="6" t="s">
-        <v>1080</v>
+      <c r="AZ38" t="s">
+        <v>1079</v>
       </c>
       <c r="BA38" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
@@ -10544,7 +11577,7 @@
         <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E39">
         <v>11</v>
@@ -10553,7 +11586,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H39" t="s">
         <v>97</v>
@@ -10565,25 +11598,25 @@
         <v>57</v>
       </c>
       <c r="K39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L39" t="s">
         <v>1083</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1084</v>
       </c>
       <c r="N39" t="s">
         <v>60</v>
       </c>
       <c r="O39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="P39" t="s">
         <v>1085</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>1086</v>
       </c>
-      <c r="Q39" t="s">
-        <v>1087</v>
-      </c>
       <c r="R39" t="s">
-        <v>60</v>
+        <v>1225</v>
       </c>
       <c r="S39">
         <v>999</v>
@@ -10592,189 +11625,189 @@
         <v>142</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="V39" t="s">
         <v>1088</v>
       </c>
-      <c r="V39" s="6" t="s">
+      <c r="W39" t="s">
         <v>1089</v>
       </c>
-      <c r="W39" s="6" t="s">
+      <c r="X39" t="s">
         <v>1090</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="Y39" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA39" t="s">
         <v>1091</v>
       </c>
-      <c r="Y39" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z39" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AB39" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC39" t="s">
         <v>1092</v>
       </c>
-      <c r="AB39" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AD39" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG39" t="s">
         <v>1093</v>
       </c>
-      <c r="AD39" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="AG39" s="6" t="s">
+      <c r="AH39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK39" t="s">
         <v>1094</v>
       </c>
-      <c r="AH39" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK39" s="6" t="s">
+      <c r="AL39" s="14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AM39" t="s">
         <v>1095</v>
       </c>
-      <c r="AL39" s="6" t="s">
+      <c r="AN39" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO39" t="s">
         <v>1096</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="AP39" t="s">
+        <v>652</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU39" t="s">
         <v>1097</v>
       </c>
-      <c r="AN39" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="AO39" s="6" t="s">
+      <c r="AV39" t="s">
         <v>1098</v>
       </c>
-      <c r="AP39" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="AQ39" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="AR39" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS39" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="AT39" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU39" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AV39" s="6" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AW39" s="6" t="s">
+      <c r="AW39" t="s">
         <v>300</v>
       </c>
-      <c r="AX39" s="6" t="s">
+      <c r="AX39" t="s">
         <v>131</v>
       </c>
       <c r="AY39" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AZ39" s="6" t="s">
+      <c r="AZ39" t="s">
         <v>660</v>
       </c>
       <c r="BA39" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="7">
         <v>44765</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D40" t="s">
-        <v>839</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E40" s="6">
         <v>11</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>8</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="H40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" t="s">
-        <v>500</v>
-      </c>
-      <c r="J40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="N40" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="L40" t="s">
+      <c r="Q40" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="N40" t="s">
-        <v>560</v>
-      </c>
-      <c r="O40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="R40" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="Q40" t="s">
-        <v>1105</v>
-      </c>
-      <c r="R40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="S40">
-        <v>999</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="S40" s="6">
+        <v>999</v>
+      </c>
+      <c r="T40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40" s="8">
         <v>999</v>
       </c>
       <c r="V40" s="6" t="s">
         <v>723</v>
       </c>
       <c r="W40" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="X40" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Z40" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="Y40" s="6" t="s">
+      <c r="AA40" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AB40" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="AA40" s="6" t="s">
+      <c r="AC40" s="6" t="s">
         <v>1110</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>1112</v>
       </c>
       <c r="AD40" s="6" t="s">
         <v>189</v>
@@ -10783,10 +11816,10 @@
         <v>190</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AH40" s="6" t="s">
         <v>117</v>
@@ -10798,16 +11831,16 @@
         <v>118</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>121</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AO40" s="6" t="s">
         <v>358</v>
@@ -10821,44 +11854,2707 @@
       <c r="AR40" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AS40">
+      <c r="AS40" s="6">
         <v>999</v>
       </c>
       <c r="AT40" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AU40" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AV40" s="6" t="s">
         <v>1117</v>
-      </c>
-      <c r="AU40" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AV40" s="6" t="s">
-        <v>1119</v>
       </c>
       <c r="AW40" s="6" t="s">
         <v>91</v>
       </c>
       <c r="AX40" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AY40" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AY40" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AZ40" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="BA40" s="1" t="s">
+      <c r="BA40" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="11">
         <v>44765</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="D41" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E41" s="9">
+        <v>9</v>
+      </c>
+      <c r="F41" s="9">
+        <v>5</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R41" s="9">
+        <v>999</v>
+      </c>
+      <c r="S41" s="9">
+        <v>999</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U41" s="12">
+        <v>999</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="W41" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z41" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB41" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AC41" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AE41" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AF41" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AG41" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AH41" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AI41" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AJ41" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK41" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL41" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AM41" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AN41" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AO41" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP41" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AQ41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR41" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AS41" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AT41" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AU41" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AV41" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AW41" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AX41" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AY41" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AZ41" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BA41" s="12" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E42" s="9">
+        <v>11</v>
+      </c>
+      <c r="F42" s="9">
+        <v>9</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="R42" s="9">
+        <v>999</v>
+      </c>
+      <c r="S42" s="9">
+        <v>999</v>
+      </c>
+      <c r="T42" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="W42" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="X42" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Y42" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Z42" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AA42" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AB42" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC42" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE42" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AF42" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG42" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AH42" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI42" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ42" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AK42" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL42" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AM42" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN42" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO42" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP42" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ42" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AR42" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AS42" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AT42" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU42" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AV42" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AW42" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AX42" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AY42" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ42" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA42" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E43" s="9">
+        <v>12</v>
+      </c>
+      <c r="F43" s="9">
+        <v>9</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1182</v>
+      </c>
+      <c r="S43">
+        <v>999</v>
+      </c>
+      <c r="T43" t="s">
+        <v>142</v>
+      </c>
+      <c r="U43" s="1">
+        <v>999</v>
+      </c>
+      <c r="V43" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z43" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB43" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AC43" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE43" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF43" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG43" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AH43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI43" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AJ43" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AK43" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AL43" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AM43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN43" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO43" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AP43" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AQ43" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AR43" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS43" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AT43" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AU43" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV43" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AW43" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX43" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AY43" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ43" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BA43" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E44" s="9">
+        <v>12</v>
+      </c>
+      <c r="F44" s="9">
+        <v>21</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="S44">
+        <v>999</v>
+      </c>
+      <c r="T44" t="s">
+        <v>1206</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="Z44" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AB44" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AE44" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF44" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AG44" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AH44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI44" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AJ44" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK44" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AL44" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AM44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN44" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO44" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AP44" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ44" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AR44" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS44" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT44" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU44" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV44" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AW44" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX44" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AY44" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ44" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E45" s="9">
+        <v>12</v>
+      </c>
+      <c r="F45" s="9">
+        <v>22</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="S45">
+        <v>999</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="W45" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y45" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="Z45" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AA45" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AB45" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AC45" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AE45" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF45" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AG45" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AH45" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI45" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AJ45" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK45" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AL45" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AM45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN45" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO45" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AP45" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ45" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AR45" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS45" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT45" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU45" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV45" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AW45" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX45" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AY45" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ45" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BA45" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E46" s="9">
+        <v>13</v>
+      </c>
+      <c r="F46" s="9">
+        <v>3</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46">
+        <v>520</v>
+      </c>
+      <c r="J46">
+        <v>735</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O46">
+        <v>999</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="R46">
+        <v>999</v>
+      </c>
+      <c r="S46">
+        <v>999</v>
+      </c>
+      <c r="T46" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" s="1">
+        <v>999</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="W46" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y46" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z46" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA46" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB46" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AC46" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AE46" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AF46" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG46" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AH46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI46" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AJ46" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AK46" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AL46" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AM46" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN46" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO46" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AP46" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ46" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR46" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS46" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AT46" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU46" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AV46" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AW46" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX46" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY46" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ46" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E47" s="9">
+        <v>13</v>
+      </c>
+      <c r="F47" s="9">
+        <v>6</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R47">
+        <v>999</v>
+      </c>
+      <c r="S47">
+        <v>999</v>
+      </c>
+      <c r="T47" t="s">
+        <v>1252</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V47" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="W47" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y47" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Z47" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AB47" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC47" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AE47" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AF47" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG47" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AH47" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI47" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AJ47" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AK47" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM47" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AN47" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AO47" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP47" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ47" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR47" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS47" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AT47" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AU47" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV47" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AW47" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AX47" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ47" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E48" s="9">
+        <v>13</v>
+      </c>
+      <c r="F48" s="9">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="R48">
+        <v>999</v>
+      </c>
+      <c r="S48">
+        <v>999</v>
+      </c>
+      <c r="T48" t="s">
+        <v>64</v>
+      </c>
+      <c r="U48" s="1">
+        <v>999</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y48" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Z48" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AA48">
+        <v>999</v>
+      </c>
+      <c r="AB48" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC48" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD48" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE48" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AF48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG48" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AH48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI48" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AJ48" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AK48" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AL48" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AM48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN48" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO48" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AP48" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ48" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="AR48" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS48" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AT48" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU48" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV48" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AW48" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX48" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AY48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ48" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E49" s="9">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9">
+        <v>7</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49">
+        <v>530</v>
+      </c>
+      <c r="J49">
+        <v>735</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="R49">
+        <v>999</v>
+      </c>
+      <c r="S49">
+        <v>999</v>
+      </c>
+      <c r="T49" t="s">
+        <v>142</v>
+      </c>
+      <c r="U49" s="1">
+        <v>999</v>
+      </c>
+      <c r="V49" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="W49" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y49" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z49" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AA49" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB49" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AC49" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE49" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AF49" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG49" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AH49" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI49" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ49" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AK49" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AL49" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AM49" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AN49" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AO49" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AP49" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ49" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR49" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS49" s="9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AT49" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AU49" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AV49" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AW49" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX49" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AY49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ49" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA49" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E50" s="9">
+        <v>14</v>
+      </c>
+      <c r="F50" s="9">
+        <v>8</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R50">
+        <v>999</v>
+      </c>
+      <c r="S50">
+        <v>999</v>
+      </c>
+      <c r="T50" t="s">
+        <v>1314</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="W50" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Z50" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AC50" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE50" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF50" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AG50" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AH50" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AI50" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ50" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AK50" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL50" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AM50" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN50" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AO50" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AP50" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ50" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR50" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS50" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AT50" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AU50" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="AV50" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AW50" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX50" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ50" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA50" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E51" s="9">
+        <v>15</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51">
+        <v>540</v>
+      </c>
+      <c r="J51">
+        <v>735</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R51">
+        <v>999</v>
+      </c>
+      <c r="S51">
+        <v>999</v>
+      </c>
+      <c r="T51" t="s">
+        <v>245</v>
+      </c>
+      <c r="U51" s="1">
+        <v>999</v>
+      </c>
+      <c r="V51" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="W51" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y51" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Z51" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA51" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB51" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AC51" s="9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AD51" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AE51" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF51" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AG51" s="9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AH51" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AI51" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AJ51" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK51" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL51" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AM51" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN51" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO51" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AP51" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ51" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AR51" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS51" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT51" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AU51" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AV51" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW51" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX51" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY51" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ51" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA51" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E52" s="9">
+        <v>15</v>
+      </c>
+      <c r="F52" s="9">
+        <v>15</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R52" t="s">
+        <v>1357</v>
+      </c>
+      <c r="S52">
+        <v>999</v>
+      </c>
+      <c r="T52" t="s">
+        <v>1359</v>
+      </c>
+      <c r="U52" s="1">
+        <v>999</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="W52" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z52" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC52" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE52" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AF52" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG52" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AH52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI52" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ52" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AK52" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AL52" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AM52" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN52" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO52" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AP52" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ52" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AR52" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS52" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AT52" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AU52" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV52" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AW52" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX52" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY52" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AZ52" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13">
+        <v>44769</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E53" s="9">
+        <v>16</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="I53" s="14">
+        <v>550</v>
+      </c>
+      <c r="J53" s="14">
+        <v>735</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R53" s="14">
+        <v>999</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="U53" s="12">
+        <v>999</v>
+      </c>
+      <c r="V53" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W53" s="14">
+        <v>999</v>
+      </c>
+      <c r="X53" s="14">
+        <v>999</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>999</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AC53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AD53" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE53" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AF53" s="9">
+        <v>999</v>
+      </c>
+      <c r="AG53" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AH53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AI53" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AJ53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AK53" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL53" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AM53" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN53" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO53" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AQ53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AR53" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS53" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AT53" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AV53" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AW53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AX53" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY53" s="12">
+        <v>999</v>
+      </c>
+      <c r="AZ53" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA53" s="12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E54" s="9">
+        <v>16</v>
+      </c>
+      <c r="F54" s="9">
+        <v>4</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="R54">
+        <v>999</v>
+      </c>
+      <c r="S54">
+        <v>999</v>
+      </c>
+      <c r="T54" t="s">
+        <v>64</v>
+      </c>
+      <c r="U54" s="1">
+        <v>999</v>
+      </c>
+      <c r="V54" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="W54" t="s">
+        <v>1390</v>
+      </c>
+      <c r="X54" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AE54" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AF54">
+        <v>999</v>
+      </c>
+      <c r="AG54" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AH54" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI54" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ54" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AK54" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AL54" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AM54" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN54" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO54" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AP54" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ54" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="AR54" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS54" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT54" s="9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AU54" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AV54" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AW54" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX54" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AY54" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AZ54" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA54" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E55" s="9">
+        <v>16</v>
+      </c>
+      <c r="F55" s="9">
+        <v>9</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="R55">
+        <v>999</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1407</v>
+      </c>
+      <c r="T55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U55" s="1">
+        <v>999</v>
+      </c>
+      <c r="V55" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="W55" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="X55" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y55" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z55" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AA55" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AB55" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AC55" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AD55" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE55" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF55" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AG55" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AH55" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AI55" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ55" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AK55" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AL55" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AM55" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN55" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO55" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AP55" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AQ55" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR55" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS55" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AT55" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AU55" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AV55" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AW55" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AX55" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ55" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA55" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E56" s="9">
+        <v>16</v>
+      </c>
+      <c r="F56" s="9">
+        <v>10</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="R56">
+        <v>999</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1407</v>
+      </c>
+      <c r="T56" t="s">
+        <v>64</v>
+      </c>
+      <c r="U56" s="1">
+        <v>999</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="W56" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y56" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z56" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AA56" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB56" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AC56" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD56" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE56" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF56" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG56" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AH56" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AI56" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ56" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK56" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AL56" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AM56" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN56" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AO56" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AP56" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AQ56" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AR56" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS56" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT56" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AU56" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AV56" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AW56" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX56" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY56" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ56" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA56" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B57A9C-40D7-4ED3-98DF-549D53B6C3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B99D7B-5834-4C03-B078-3B2F7F3A3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="0" windowWidth="13428" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1770">
   <si>
     <t>ID</t>
   </si>
@@ -3844,9 +3844,6 @@
     <t>Pfirt</t>
   </si>
   <si>
-    <t>L, A</t>
-  </si>
-  <si>
     <t>Bürgermeisters[?]a[???]</t>
   </si>
   <si>
@@ -4421,9 +4418,6 @@
   </si>
   <si>
     <t>Gustav Haberer</t>
-  </si>
-  <si>
-    <t>B, A</t>
   </si>
   <si>
     <t>Ortseinwohner</t>
@@ -4777,15 +4771,9 @@
     <t>Schachen</t>
   </si>
   <si>
-    <t>Hi[??]lm Gunt[e]r</t>
-  </si>
-  <si>
     <t>Kreis Säckingen</t>
   </si>
   <si>
-    <t>Gru[?]tzla[??]r</t>
-  </si>
-  <si>
     <t>888 {Format des Bogen anders - ich finde die Angabe nicht}</t>
   </si>
   <si>
@@ -5033,6 +5021,1002 @@
   </si>
   <si>
     <t>Güggel {verschoben}</t>
+  </si>
+  <si>
+    <t>Wilhelm Ganter Hauptlehrer</t>
+  </si>
+  <si>
+    <t>III_14_0003</t>
+  </si>
+  <si>
+    <t>24,30</t>
+  </si>
+  <si>
+    <t>47,50</t>
+  </si>
+  <si>
+    <t>p-C</t>
+  </si>
+  <si>
+    <t>Mollau</t>
+  </si>
+  <si>
+    <t>Tann</t>
+  </si>
+  <si>
+    <t>Alfred Drexlin</t>
+  </si>
+  <si>
+    <t>Haagen</t>
+  </si>
+  <si>
+    <t>der Volkschule und Abendschule</t>
+  </si>
+  <si>
+    <t>Rätscher</t>
+  </si>
+  <si>
+    <t>Muck</t>
+  </si>
+  <si>
+    <t>Ähmdet</t>
+  </si>
+  <si>
+    <t>Hahn, Huehn</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Gelriebe</t>
+  </si>
+  <si>
+    <t>Pfedder</t>
+  </si>
+  <si>
+    <t>Riém &lt;Riäm&gt;</t>
+  </si>
+  <si>
+    <t>schelde</t>
+  </si>
+  <si>
+    <t>Giefele</t>
+  </si>
+  <si>
+    <t>Dässele, Bläddele</t>
+  </si>
+  <si>
+    <t>Kächel</t>
+  </si>
+  <si>
+    <t>Zwiige</t>
+  </si>
+  <si>
+    <t>Sohnsfrai</t>
+  </si>
+  <si>
+    <t>Holdere</t>
+  </si>
+  <si>
+    <t>III_14_0005</t>
+  </si>
+  <si>
+    <t>p-E</t>
+  </si>
+  <si>
+    <t>Felleringen</t>
+  </si>
+  <si>
+    <t>L. Haessler</t>
+  </si>
+  <si>
+    <t>&lt;./.&gt;</t>
+  </si>
+  <si>
+    <t>Ameis, Omeis (w)</t>
+  </si>
+  <si>
+    <t>Begräbnis (s), Lichd (w)</t>
+  </si>
+  <si>
+    <t>Agerscht (m)</t>
+  </si>
+  <si>
+    <t>Radscher (m)</t>
+  </si>
+  <si>
+    <t>Fladdermüss (w)</t>
+  </si>
+  <si>
+    <t>Muck (w)</t>
+  </si>
+  <si>
+    <t>Gugumra (w)</t>
+  </si>
+  <si>
+    <t>Budda, Hagabudda (w)</t>
+  </si>
+  <si>
+    <t>Hahn, Guggel, Goggel (m), Hüan, Bibbel (w)</t>
+  </si>
+  <si>
+    <t>Hewamm, Bubbelfrauj (w)</t>
+  </si>
+  <si>
+    <t>Kollrawa (w)</t>
+  </si>
+  <si>
+    <t>Mohra (w)</t>
+  </si>
+  <si>
+    <t>Pfedder (m)</t>
+  </si>
+  <si>
+    <t>Riam (m)</t>
+  </si>
+  <si>
+    <t>schalda, schempfa</t>
+  </si>
+  <si>
+    <t>Grüselbeera (w)</t>
+  </si>
+  <si>
+    <t>Heftguf (w), Gefala (s)</t>
+  </si>
+  <si>
+    <t>Streggnodel (w)</t>
+  </si>
+  <si>
+    <t>Dasala, Dallerla (s)</t>
+  </si>
+  <si>
+    <t>Haaf (m)</t>
+  </si>
+  <si>
+    <t>Sohnsfrauj (w)</t>
+  </si>
+  <si>
+    <t>Holdra (w)</t>
+  </si>
+  <si>
+    <t>III_14_0007</t>
+  </si>
+  <si>
+    <t>p-G</t>
+  </si>
+  <si>
+    <t>Mitzach</t>
+  </si>
+  <si>
+    <t>Erich Geiheimer</t>
+  </si>
+  <si>
+    <t>Langenargen</t>
+  </si>
+  <si>
+    <t>Omaisa (w)</t>
+  </si>
+  <si>
+    <t>Brombeer (w)</t>
+  </si>
+  <si>
+    <t>Ahmd (s)</t>
+  </si>
+  <si>
+    <t>Gugumer (m)</t>
+  </si>
+  <si>
+    <t>Butta &lt;Hågebutta&gt; (w)</t>
+  </si>
+  <si>
+    <t>Håhn (m), Huan (w)</t>
+  </si>
+  <si>
+    <t>Hewåmm (w)</t>
+  </si>
+  <si>
+    <t>Katzerolli (m)</t>
+  </si>
+  <si>
+    <t>Scharrmus (m)</t>
+  </si>
+  <si>
+    <t>Geleruab (w)</t>
+  </si>
+  <si>
+    <t>Pfettr (m)</t>
+  </si>
+  <si>
+    <t>Pfluma (w)</t>
+  </si>
+  <si>
+    <t>Gruselbeera (w)</t>
+  </si>
+  <si>
+    <t>Guf (w)</t>
+  </si>
+  <si>
+    <t>Stricknådel (w)</t>
+  </si>
+  <si>
+    <t>Tassla (s), Tallarla (s)</t>
+  </si>
+  <si>
+    <t>Håf (m)</t>
+  </si>
+  <si>
+    <t>Sohnsfroi (w)</t>
+  </si>
+  <si>
+    <t>Holderstock (m)</t>
+  </si>
+  <si>
+    <t>[f]-h</t>
+  </si>
+  <si>
+    <t>Regisheim</t>
+  </si>
+  <si>
+    <t>Gebweiler</t>
+  </si>
+  <si>
+    <t>Ringenbach Franz</t>
+  </si>
+  <si>
+    <t>St. Kosman</t>
+  </si>
+  <si>
+    <t>B,A</t>
+  </si>
+  <si>
+    <t>ortsanssässige Personen</t>
+  </si>
+  <si>
+    <t>Omeis (w)</t>
+  </si>
+  <si>
+    <t>Brumberi (a, w)</t>
+  </si>
+  <si>
+    <t>Dissel (a, m)</t>
+  </si>
+  <si>
+    <t>Agerst (a), Ag[a]rst (a, w)</t>
+  </si>
+  <si>
+    <t>Muck (a, w)</t>
+  </si>
+  <si>
+    <t>Ahmt (s', s)</t>
+  </si>
+  <si>
+    <t>Gagummer (a, w)</t>
+  </si>
+  <si>
+    <t>Budd (a, w)</t>
+  </si>
+  <si>
+    <t>Güggelhahn (a), Güller (m), Huahn (a, w)</t>
+  </si>
+  <si>
+    <t>Hewamme (a, ŵ)</t>
+  </si>
+  <si>
+    <t>Katzrolli (a), Rolli (a, m)</t>
+  </si>
+  <si>
+    <t>Scharnialer (a, m)</t>
+  </si>
+  <si>
+    <t>Mohrriawa (a, w)</t>
+  </si>
+  <si>
+    <t>Mohr (a, w)</t>
+  </si>
+  <si>
+    <t>Pfetter (d'r, m)</t>
+  </si>
+  <si>
+    <t>Riama (d'r, m)</t>
+  </si>
+  <si>
+    <t>Pflüm (a, w)</t>
+  </si>
+  <si>
+    <t>Spatz (a, m̂)</t>
+  </si>
+  <si>
+    <t>Grüsselbeeri (d', w)</t>
+  </si>
+  <si>
+    <t>Guf (a, w)</t>
+  </si>
+  <si>
+    <t>Stricknodel (d', w)</t>
+  </si>
+  <si>
+    <t>Tass (a, w), Tallerla (a, s)</t>
+  </si>
+  <si>
+    <t>erdige Schüssel (a, w)</t>
+  </si>
+  <si>
+    <t>Geiss (a, w)</t>
+  </si>
+  <si>
+    <t>Suhnsfroi (die, w)</t>
+  </si>
+  <si>
+    <t>Holdara (a, w)</t>
+  </si>
+  <si>
+    <t>W'</t>
+  </si>
+  <si>
+    <t>III_14_0036</t>
+  </si>
+  <si>
+    <t>25,50</t>
+  </si>
+  <si>
+    <t>c-B</t>
+  </si>
+  <si>
+    <t>Göschweiler</t>
+  </si>
+  <si>
+    <t>Neustadt &lt;Schwarzw!&gt;</t>
+  </si>
+  <si>
+    <t>Eduard Menzer, Hptl.</t>
+  </si>
+  <si>
+    <t>Erwachsene</t>
+  </si>
+  <si>
+    <t>Amosele (w)</t>
+  </si>
+  <si>
+    <t>Dießl (m)</t>
+  </si>
+  <si>
+    <t>Äggerst (m)</t>
+  </si>
+  <si>
+    <t>Entrich (m)</t>
+  </si>
+  <si>
+    <t>Fleddermuus (w)</t>
+  </si>
+  <si>
+    <t>Gigel (m), Hoa (w), Hääre (Mrz.)</t>
+  </si>
+  <si>
+    <t>Herd-epfl (m)</t>
+  </si>
+  <si>
+    <t>Gählriebe (w)</t>
+  </si>
+  <si>
+    <t>Goaßle (w)</t>
+  </si>
+  <si>
+    <t>muule</t>
+  </si>
+  <si>
+    <t>Grusili, Gruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Gifili (s), Gufe (w)</t>
+  </si>
+  <si>
+    <t>Schpieß (m)</t>
+  </si>
+  <si>
+    <t>Schissili, Blädli, Dellerli (s)</t>
+  </si>
+  <si>
+    <t>veredle, zweie</t>
+  </si>
+  <si>
+    <t>Goaß (w)</t>
+  </si>
+  <si>
+    <t>Schwiegerdechter &lt;Einzahl&gt;</t>
+  </si>
+  <si>
+    <t>c-[C]</t>
+  </si>
+  <si>
+    <t>Gündelwangen</t>
+  </si>
+  <si>
+    <t>Neustadt i, Schw.</t>
+  </si>
+  <si>
+    <t>Julius Orsinger</t>
+  </si>
+  <si>
+    <t>Eigeltingen</t>
+  </si>
+  <si>
+    <t>Kreis Stockach</t>
+  </si>
+  <si>
+    <t>Liecht</t>
+  </si>
+  <si>
+    <t>Gukummere</t>
+  </si>
+  <si>
+    <t>Gickel, Hua</t>
+  </si>
+  <si>
+    <t>Hebann</t>
+  </si>
+  <si>
+    <t>Herdöpfel</t>
+  </si>
+  <si>
+    <t>Katzerolli</t>
+  </si>
+  <si>
+    <t>Schär-Mulwurf</t>
+  </si>
+  <si>
+    <t>Gaisle</t>
+  </si>
+  <si>
+    <t>Pflumme</t>
+  </si>
+  <si>
+    <t>Gruzela</t>
+  </si>
+  <si>
+    <t>Guve</t>
+  </si>
+  <si>
+    <t>Schüssele, Dellerli</t>
+  </si>
+  <si>
+    <t>Staihafe</t>
+  </si>
+  <si>
+    <t>Ziege</t>
+  </si>
+  <si>
+    <t>c-w</t>
+  </si>
+  <si>
+    <t>Lenzkirch</t>
+  </si>
+  <si>
+    <t>Neustadt/Schwarzwald</t>
+  </si>
+  <si>
+    <t>Oberlehrer Ernst Schäzle</t>
+  </si>
+  <si>
+    <t>Hinterzarten</t>
+  </si>
+  <si>
+    <t>Schwarzwald</t>
+  </si>
+  <si>
+    <t>Liicht (a)</t>
+  </si>
+  <si>
+    <t>Diisle</t>
+  </si>
+  <si>
+    <t>Ägerscht (e)</t>
+  </si>
+  <si>
+    <t>Hagebutze</t>
+  </si>
+  <si>
+    <t>Gickel, Hue</t>
+  </si>
+  <si>
+    <t>Herdepfel</t>
+  </si>
+  <si>
+    <t>Katzerolli (en)</t>
+  </si>
+  <si>
+    <t>Scheermus (en)</t>
+  </si>
+  <si>
+    <t>Geelrüebe</t>
+  </si>
+  <si>
+    <t>Mohre (e)</t>
+  </si>
+  <si>
+    <t>Götti (de)</t>
+  </si>
+  <si>
+    <t>Gaisle (e)</t>
+  </si>
+  <si>
+    <t>Spatz (de)</t>
+  </si>
+  <si>
+    <t>Guuf (e)</t>
+  </si>
+  <si>
+    <t>Spiß (en)</t>
+  </si>
+  <si>
+    <t>Schüsseli (e)</t>
+  </si>
+  <si>
+    <t>ir[d]ene Hafe</t>
+  </si>
+  <si>
+    <t>veredle</t>
+  </si>
+  <si>
+    <t>Gaihs (e)</t>
+  </si>
+  <si>
+    <t>Schwiegertöchter</t>
+  </si>
+  <si>
+    <t>[X]'</t>
+  </si>
+  <si>
+    <t>III_14_0077</t>
+  </si>
+  <si>
+    <t>III_14_0078</t>
+  </si>
+  <si>
+    <t>III_14_0079</t>
+  </si>
+  <si>
+    <t>III_14_0082</t>
+  </si>
+  <si>
+    <t>47,45</t>
+  </si>
+  <si>
+    <t>[?]-[e] {könnte auch c sein}</t>
+  </si>
+  <si>
+    <t>Dollern</t>
+  </si>
+  <si>
+    <t>Schaal Martin</t>
+  </si>
+  <si>
+    <t>Uttenheim</t>
+  </si>
+  <si>
+    <t>U/Els.</t>
+  </si>
+  <si>
+    <t>Omeisa</t>
+  </si>
+  <si>
+    <t>Fladdermüss</t>
+  </si>
+  <si>
+    <t>Gagumara</t>
+  </si>
+  <si>
+    <t>Hahna, Huehn</t>
+  </si>
+  <si>
+    <t>Hewann</t>
+  </si>
+  <si>
+    <t>Schormüss</t>
+  </si>
+  <si>
+    <t>Kohlrawa</t>
+  </si>
+  <si>
+    <t>Mura</t>
+  </si>
+  <si>
+    <t>Pfetter</t>
+  </si>
+  <si>
+    <t>Riema</t>
+  </si>
+  <si>
+    <t>Grüsselbeera</t>
+  </si>
+  <si>
+    <t>Stecknodel</t>
+  </si>
+  <si>
+    <t>Schessel</t>
+  </si>
+  <si>
+    <t>Sohnfräui</t>
+  </si>
+  <si>
+    <t>III_14_0085</t>
+  </si>
+  <si>
+    <t>r-f</t>
+  </si>
+  <si>
+    <t>Niederbruck</t>
+  </si>
+  <si>
+    <t>Erwin Joos</t>
+  </si>
+  <si>
+    <t>Orsingen</t>
+  </si>
+  <si>
+    <t>Kr. Konstanz</t>
+  </si>
+  <si>
+    <t>Omeisa (w)</t>
+  </si>
+  <si>
+    <t>Amdet (m)</t>
+  </si>
+  <si>
+    <t>Gogummera (w)</t>
+  </si>
+  <si>
+    <t>Hahna, Gückel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hewamma (w)</t>
+  </si>
+  <si>
+    <t>Mora (w)</t>
+  </si>
+  <si>
+    <t>Pfetter (m)</t>
+  </si>
+  <si>
+    <t>Tasala (s)</t>
+  </si>
+  <si>
+    <t>Hafa (m)</t>
+  </si>
+  <si>
+    <t>zwigga</t>
+  </si>
+  <si>
+    <t>III_14_0091</t>
+  </si>
+  <si>
+    <t>Y:1</t>
+  </si>
+  <si>
+    <t>r-m</t>
+  </si>
+  <si>
+    <t>Niederburbach</t>
+  </si>
+  <si>
+    <t>Scherrer Georg</t>
+  </si>
+  <si>
+    <t>Rammersmatt</t>
+  </si>
+  <si>
+    <t>Gagumra</t>
+  </si>
+  <si>
+    <t>Gugel, Hüen</t>
+  </si>
+  <si>
+    <t>Hehmama</t>
+  </si>
+  <si>
+    <t>Scharmüs, Katzakopf</t>
+  </si>
+  <si>
+    <t>Galriawla</t>
+  </si>
+  <si>
+    <t>Riam</t>
+  </si>
+  <si>
+    <t>Fassela</t>
+  </si>
+  <si>
+    <t>Geiss, Muta &lt;ohne Hörner&gt;</t>
+  </si>
+  <si>
+    <t>Sohnsfraui</t>
+  </si>
+  <si>
+    <t>III_14_0107</t>
+  </si>
+  <si>
+    <t>[r]-C</t>
+  </si>
+  <si>
+    <t>Els.</t>
+  </si>
+  <si>
+    <t>desgl.</t>
+  </si>
+  <si>
+    <t>Bruxer [g]r[u]f</t>
+  </si>
+  <si>
+    <t>Hart[m]a[nn]sweiler</t>
+  </si>
+  <si>
+    <t>ober- Els.</t>
+  </si>
+  <si>
+    <t>Brumbara (w)</t>
+  </si>
+  <si>
+    <t>Ante (w)</t>
+  </si>
+  <si>
+    <t>Elschter (w)</t>
+  </si>
+  <si>
+    <t>Muga (w)</t>
+  </si>
+  <si>
+    <t>[o]hmt (s)</t>
+  </si>
+  <si>
+    <t>kokumra (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hüehn (w)</t>
+  </si>
+  <si>
+    <t>Hewamm (w)</t>
+  </si>
+  <si>
+    <t>Hàrdäpfel (m), Erdäpfel</t>
+  </si>
+  <si>
+    <t>Schàrmüs (w)</t>
+  </si>
+  <si>
+    <t>Gàlriewle (s) &lt;Gelberübe&gt;</t>
+  </si>
+  <si>
+    <t>Rième ([m]), Geissel (w) {das m bei Rième ist verschoben - könnte auch einem anderen Wort gehören}</t>
+  </si>
+  <si>
+    <t>schàlte, hàndle, làrme</t>
+  </si>
+  <si>
+    <t>Grüsele (s)</t>
+  </si>
+  <si>
+    <t>Guufe (w)</t>
+  </si>
+  <si>
+    <t>Schissele (w)</t>
+  </si>
+  <si>
+    <t>àigle, zwige &lt;äugeln u. pfropfen&gt;</t>
+  </si>
+  <si>
+    <t>III_14_0139</t>
+  </si>
+  <si>
+    <t>r-x</t>
+  </si>
+  <si>
+    <t>Dattingen</t>
+  </si>
+  <si>
+    <t>Müllheim</t>
+  </si>
+  <si>
+    <t>Menzemer, Bernhard</t>
+  </si>
+  <si>
+    <t>Gondelsheim</t>
+  </si>
+  <si>
+    <t>Ratschreiber Müller und Bürgermeister Kaltenbach</t>
+  </si>
+  <si>
+    <t>Omaise (w)</t>
+  </si>
+  <si>
+    <t>Lich (w) &lt;lang gesproch.&gt;</t>
+  </si>
+  <si>
+    <t>Aegerschder ([w])</t>
+  </si>
+  <si>
+    <t>Rätsch</t>
+  </si>
+  <si>
+    <t>Fliege (w) &lt;e gelesen&gt;</t>
+  </si>
+  <si>
+    <t>Hegebuddene (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Huen (s)</t>
+  </si>
+  <si>
+    <t>Chatzirolli (m)</t>
+  </si>
+  <si>
+    <t>Schär (e, m)</t>
+  </si>
+  <si>
+    <t>Gelrüebli (s)</t>
+  </si>
+  <si>
+    <t>Moor (e, w)</t>
+  </si>
+  <si>
+    <t>schimpfe, de Apfel riibe</t>
+  </si>
+  <si>
+    <t>Chrüseli (m)</t>
+  </si>
+  <si>
+    <t>Gifli, Gufen (s)</t>
+  </si>
+  <si>
+    <t>Schüsseli, Tasse (s)</t>
+  </si>
+  <si>
+    <t>Beggi (s)</t>
+  </si>
+  <si>
+    <t>Sohns Frau</t>
+  </si>
+  <si>
+    <t>III_14_0143</t>
+  </si>
+  <si>
+    <t>25,[1]0</t>
+  </si>
+  <si>
+    <t>r-Wa</t>
+  </si>
+  <si>
+    <t>Zunzingen</t>
+  </si>
+  <si>
+    <t>I. V. Menzemer</t>
+  </si>
+  <si>
+    <t>Omaise</t>
+  </si>
+  <si>
+    <t>Hagebuttene</t>
+  </si>
+  <si>
+    <t>Guckelu, Huen</t>
+  </si>
+  <si>
+    <t>Gelberuebe</t>
+  </si>
+  <si>
+    <t>Gaissle</t>
+  </si>
+  <si>
+    <t>Chruselbeeri</t>
+  </si>
+  <si>
+    <t>III_14_0152</t>
+  </si>
+  <si>
+    <t>s-Ka</t>
+  </si>
+  <si>
+    <t>Raich</t>
+  </si>
+  <si>
+    <t>A. Bartholomä</t>
+  </si>
+  <si>
+    <t>Emmendingen</t>
+  </si>
+  <si>
+    <t>Omsme (w)</t>
+  </si>
+  <si>
+    <t>Ägeste (w)</t>
+  </si>
+  <si>
+    <t>Fliäge (w)</t>
+  </si>
+  <si>
+    <t>Gogummere, Gugummere (w)</t>
+  </si>
+  <si>
+    <t>Gukel (m), Hue (s)</t>
+  </si>
+  <si>
+    <t>Heebann (w)</t>
+  </si>
+  <si>
+    <t>Grumbiere, Härdöpfel (w)</t>
+  </si>
+  <si>
+    <t>Schäär</t>
+  </si>
+  <si>
+    <t>briäsche, balge</t>
+  </si>
+  <si>
+    <t>Stachelbeeri, Chrüüselbeeri</t>
+  </si>
+  <si>
+    <t>X'</t>
+  </si>
+  <si>
+    <t>III_14_0167</t>
+  </si>
+  <si>
+    <t>s-w</t>
+  </si>
+  <si>
+    <t>Todtnau &lt;Baden&gt;</t>
+  </si>
+  <si>
+    <t>{Baden- steht bei Schulort}</t>
+  </si>
+  <si>
+    <t>Wilhelm Läufer</t>
+  </si>
+  <si>
+    <t>Oberprechtal</t>
+  </si>
+  <si>
+    <t>Altstadtkassenrechner Otto Fieger</t>
+  </si>
+  <si>
+    <t>Liicht (e, w)</t>
+  </si>
+  <si>
+    <t>Brummbeere (w)</t>
+  </si>
+  <si>
+    <t>Lande (w)</t>
+  </si>
+  <si>
+    <t>Ägeste (m)</t>
+  </si>
+  <si>
+    <t>Guggummere (w)</t>
+  </si>
+  <si>
+    <t>Hagebutzge (w)</t>
+  </si>
+  <si>
+    <t>Giggel (m), Chluggere (w)</t>
+  </si>
+  <si>
+    <t>Schäärmuus (w)</t>
+  </si>
+  <si>
+    <t>Gäälrüäbbe (w)</t>
+  </si>
+  <si>
+    <t>Gaißlä (w)</t>
+  </si>
+  <si>
+    <t>Pfluuma (w)</t>
+  </si>
+  <si>
+    <t>Wiiwaisli (s)</t>
+  </si>
+  <si>
+    <t>Schtiggnodel (w)</t>
+  </si>
+  <si>
+    <t>Schissili (s)</t>
   </si>
 </sst>
 </file>
@@ -5079,12 +6063,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -5167,11 +6157,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5490,10 +6480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB70"/>
+  <dimension ref="A1:BB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC21" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AL39" sqref="AL39"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9860,7 +10850,7 @@
         <v>818</v>
       </c>
       <c r="N28" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -11443,7 +12433,7 @@
         <v>1055</v>
       </c>
       <c r="L38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N38" t="s">
         <v>560</v>
@@ -11464,10 +12454,10 @@
         <v>61</v>
       </c>
       <c r="T38" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="V38" t="s">
         <v>314</v>
@@ -11476,37 +12466,37 @@
         <v>896</v>
       </c>
       <c r="X38" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y38" t="s">
         <v>457</v>
       </c>
       <c r="Z38" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA38" t="s">
         <v>377</v>
       </c>
       <c r="AB38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AC38" t="s">
         <v>1063</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>1064</v>
       </c>
       <c r="AD38" t="s">
         <v>487</v>
       </c>
       <c r="AE38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AF38" t="s">
         <v>1065</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>1066</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AH38" t="s">
         <v>1067</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>1068</v>
       </c>
       <c r="AI38" t="s">
         <v>1018</v>
@@ -11515,22 +12505,22 @@
         <v>385</v>
       </c>
       <c r="AK38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AL38" t="s">
         <v>1069</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>1070</v>
       </c>
       <c r="AM38" t="s">
         <v>159</v>
       </c>
       <c r="AN38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AO38" t="s">
         <v>1071</v>
       </c>
-      <c r="AO38" t="s">
+      <c r="AP38" t="s">
         <v>1072</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>1073</v>
       </c>
       <c r="AQ38" t="s">
         <v>442</v>
@@ -11542,28 +12532,28 @@
         <v>1022</v>
       </c>
       <c r="AT38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AU38" t="s">
         <v>1074</v>
       </c>
-      <c r="AU38" t="s">
+      <c r="AV38" t="s">
         <v>1075</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>1076</v>
       </c>
       <c r="AW38" t="s">
         <v>265</v>
       </c>
       <c r="AX38" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AY38" s="1" t="s">
         <v>658</v>
       </c>
       <c r="AZ38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="BA38" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
@@ -11586,7 +12576,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H39" t="s">
         <v>97</v>
@@ -11598,25 +12588,25 @@
         <v>57</v>
       </c>
       <c r="K39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L39" t="s">
         <v>1082</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1083</v>
       </c>
       <c r="N39" t="s">
         <v>60</v>
       </c>
       <c r="O39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P39" t="s">
         <v>1084</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>1085</v>
       </c>
-      <c r="Q39" t="s">
-        <v>1086</v>
-      </c>
       <c r="R39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="S39">
         <v>999</v>
@@ -11625,16 +12615,16 @@
         <v>142</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="V39" t="s">
         <v>1087</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>1088</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>1089</v>
-      </c>
-      <c r="X39" t="s">
-        <v>1090</v>
       </c>
       <c r="Y39" t="s">
         <v>457</v>
@@ -11643,13 +12633,13 @@
         <v>458</v>
       </c>
       <c r="AA39" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AB39" t="s">
         <v>348</v>
       </c>
       <c r="AC39" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AD39" t="s">
         <v>618</v>
@@ -11661,7 +12651,7 @@
         <v>642</v>
       </c>
       <c r="AG39" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AH39" t="s">
         <v>155</v>
@@ -11673,19 +12663,19 @@
         <v>385</v>
       </c>
       <c r="AK39" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AM39" t="s">
         <v>1094</v>
-      </c>
-      <c r="AL39" s="14" t="s">
-        <v>1397</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>1095</v>
       </c>
       <c r="AN39" t="s">
         <v>831</v>
       </c>
       <c r="AO39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AP39" t="s">
         <v>652</v>
@@ -11703,10 +12693,10 @@
         <v>297</v>
       </c>
       <c r="AU39" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV39" t="s">
         <v>1097</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>1098</v>
       </c>
       <c r="AW39" t="s">
         <v>300</v>
@@ -11744,7 +12734,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>97</v>
@@ -11756,10 +12746,10 @@
         <v>57</v>
       </c>
       <c r="K40" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>1100</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>1101</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>560</v>
@@ -11768,13 +12758,13 @@
         <v>61</v>
       </c>
       <c r="P40" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="Q40" s="6" t="s">
+      <c r="R40" s="6" t="s">
         <v>1103</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>1104</v>
       </c>
       <c r="S40" s="6">
         <v>999</v>
@@ -11792,22 +12782,22 @@
         <v>1035</v>
       </c>
       <c r="X40" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Y40" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="Y40" s="6" t="s">
+      <c r="Z40" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="Z40" s="6" t="s">
+      <c r="AA40" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="AA40" s="6" t="s">
+      <c r="AB40" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="AB40" s="6" t="s">
+      <c r="AC40" s="6" t="s">
         <v>1109</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>1110</v>
       </c>
       <c r="AD40" s="6" t="s">
         <v>189</v>
@@ -11816,10 +12806,10 @@
         <v>190</v>
       </c>
       <c r="AF40" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG40" s="6" t="s">
         <v>1111</v>
-      </c>
-      <c r="AG40" s="6" t="s">
-        <v>1112</v>
       </c>
       <c r="AH40" s="6" t="s">
         <v>117</v>
@@ -11831,10 +12821,10 @@
         <v>118</v>
       </c>
       <c r="AK40" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AL40" s="6" t="s">
         <v>1113</v>
-      </c>
-      <c r="AL40" s="6" t="s">
-        <v>1114</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>121</v>
@@ -11858,19 +12848,19 @@
         <v>999</v>
       </c>
       <c r="AT40" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AU40" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="AU40" s="6" t="s">
+      <c r="AV40" s="6" t="s">
         <v>1116</v>
-      </c>
-      <c r="AV40" s="6" t="s">
-        <v>1117</v>
       </c>
       <c r="AW40" s="6" t="s">
         <v>91</v>
       </c>
       <c r="AX40" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AY40" s="8" t="s">
         <v>209</v>
@@ -11882,370 +12872,370 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="2">
         <v>44765</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
         <v>1119</v>
       </c>
-      <c r="E41" s="9">
-        <v>9</v>
-      </c>
-      <c r="F41" s="9">
-        <v>5</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" t="s">
         <v>1120</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" t="s">
         <v>1121</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="9" t="s">
+      <c r="K41" t="s">
         <v>1122</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L41" t="s">
         <v>1123</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="N41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" t="s">
         <v>1124</v>
       </c>
-      <c r="N41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P41" s="9" t="s">
+      <c r="Q41" t="s">
         <v>1125</v>
       </c>
-      <c r="Q41" s="9" t="s">
+      <c r="R41">
+        <v>999</v>
+      </c>
+      <c r="S41">
+        <v>999</v>
+      </c>
+      <c r="T41" t="s">
+        <v>64</v>
+      </c>
+      <c r="U41" s="1">
+        <v>999</v>
+      </c>
+      <c r="V41" t="s">
         <v>1126</v>
       </c>
-      <c r="R41" s="9">
-        <v>999</v>
-      </c>
-      <c r="S41" s="9">
-        <v>999</v>
-      </c>
-      <c r="T41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U41" s="12">
-        <v>999</v>
-      </c>
-      <c r="V41" s="9" t="s">
+      <c r="W41" t="s">
+        <v>896</v>
+      </c>
+      <c r="X41" t="s">
         <v>1127</v>
       </c>
-      <c r="W41" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="X41" s="9" t="s">
+      <c r="Y41" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z41" t="s">
         <v>1128</v>
       </c>
-      <c r="Y41" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z41" s="9" t="s">
+      <c r="AA41" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB41" t="s">
         <v>1129</v>
       </c>
-      <c r="AA41" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB41" s="9" t="s">
+      <c r="AC41" t="s">
         <v>1130</v>
       </c>
-      <c r="AC41" s="9" t="s">
+      <c r="AD41" t="s">
         <v>1131</v>
       </c>
-      <c r="AD41" s="9" t="s">
+      <c r="AE41" t="s">
         <v>1132</v>
       </c>
-      <c r="AE41" s="9" t="s">
+      <c r="AF41" t="s">
         <v>1133</v>
       </c>
-      <c r="AF41" s="9" t="s">
+      <c r="AG41" t="s">
         <v>1134</v>
       </c>
-      <c r="AG41" s="9" t="s">
+      <c r="AH41" t="s">
         <v>1135</v>
       </c>
-      <c r="AH41" s="9" t="s">
+      <c r="AI41" t="s">
         <v>1136</v>
       </c>
-      <c r="AI41" s="9" t="s">
+      <c r="AJ41" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL41" t="s">
         <v>1137</v>
       </c>
-      <c r="AJ41" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK41" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="AL41" s="9" t="s">
+      <c r="AM41" t="s">
         <v>1138</v>
       </c>
-      <c r="AM41" s="9" t="s">
+      <c r="AN41" t="s">
         <v>1139</v>
       </c>
-      <c r="AN41" s="9" t="s">
+      <c r="AO41" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP41" t="s">
         <v>1140</v>
       </c>
-      <c r="AO41" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP41" s="9" t="s">
+      <c r="AQ41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR41" t="s">
         <v>1141</v>
       </c>
-      <c r="AQ41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR41" s="9" t="s">
+      <c r="AS41" t="s">
         <v>1142</v>
       </c>
-      <c r="AS41" s="9" t="s">
+      <c r="AT41" t="s">
         <v>1143</v>
       </c>
-      <c r="AT41" s="9" t="s">
+      <c r="AU41" t="s">
         <v>1144</v>
       </c>
-      <c r="AU41" s="9" t="s">
+      <c r="AV41" t="s">
         <v>1145</v>
       </c>
-      <c r="AV41" s="9" t="s">
+      <c r="AW41" t="s">
         <v>1146</v>
       </c>
-      <c r="AW41" s="9" t="s">
+      <c r="AX41" t="s">
         <v>1147</v>
       </c>
-      <c r="AX41" s="9" t="s">
+      <c r="AY41" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="AY41" s="12" t="s">
+      <c r="AZ41" t="s">
         <v>1149</v>
       </c>
-      <c r="AZ41" s="9" t="s">
+      <c r="BA41" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="BA41" s="12" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>44769</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E42" s="9">
+      <c r="D42" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E42">
         <v>11</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42">
         <v>9</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" t="s">
+        <v>500</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K42" t="s">
         <v>1152</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" t="s">
         <v>1153</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="N42" t="s">
         <v>1154</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="O42" t="s">
         <v>1155</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="P42" t="s">
         <v>1156</v>
       </c>
-      <c r="P42" s="9" t="s">
+      <c r="Q42" t="s">
         <v>1157</v>
       </c>
-      <c r="Q42" s="9" t="s">
+      <c r="R42">
+        <v>999</v>
+      </c>
+      <c r="S42">
+        <v>999</v>
+      </c>
+      <c r="T42" t="s">
+        <v>179</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="R42" s="9">
-        <v>999</v>
-      </c>
-      <c r="S42" s="9">
-        <v>999</v>
-      </c>
-      <c r="T42" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="U42" s="1" t="s">
+      <c r="V42" t="s">
         <v>1159</v>
       </c>
-      <c r="V42" s="9" t="s">
+      <c r="W42" t="s">
         <v>1160</v>
       </c>
-      <c r="W42" s="9" t="s">
+      <c r="X42" t="s">
         <v>1161</v>
       </c>
-      <c r="X42" s="9" t="s">
+      <c r="Y42" t="s">
         <v>1162</v>
       </c>
-      <c r="Y42" s="9" t="s">
+      <c r="Z42" t="s">
         <v>1163</v>
       </c>
-      <c r="Z42" s="9" t="s">
+      <c r="AA42" t="s">
         <v>1164</v>
       </c>
-      <c r="AA42" s="9" t="s">
+      <c r="AB42" t="s">
         <v>1165</v>
       </c>
-      <c r="AB42" s="9" t="s">
+      <c r="AC42" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE42" t="s">
         <v>1166</v>
       </c>
-      <c r="AC42" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD42" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE42" s="9" t="s">
+      <c r="AF42" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG42" t="s">
         <v>1167</v>
       </c>
-      <c r="AF42" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG42" s="9" t="s">
+      <c r="AH42" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>1168</v>
       </c>
-      <c r="AH42" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI42" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="AJ42" s="9" t="s">
+      <c r="AK42" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL42" t="s">
         <v>1169</v>
       </c>
-      <c r="AK42" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="AL42" s="9" t="s">
+      <c r="AM42" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ42" t="s">
         <v>1170</v>
       </c>
-      <c r="AM42" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="AN42" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO42" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="AP42" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ42" s="9" t="s">
+      <c r="AR42" t="s">
         <v>1171</v>
       </c>
-      <c r="AR42" s="9" t="s">
+      <c r="AS42" t="s">
         <v>1172</v>
       </c>
-      <c r="AS42" s="9" t="s">
+      <c r="AT42" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU42" t="s">
         <v>1173</v>
       </c>
-      <c r="AT42" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU42" s="9" t="s">
+      <c r="AV42" t="s">
         <v>1174</v>
       </c>
-      <c r="AV42" s="9" t="s">
+      <c r="AW42" t="s">
         <v>1175</v>
       </c>
-      <c r="AW42" s="9" t="s">
+      <c r="AX42" t="s">
         <v>1176</v>
-      </c>
-      <c r="AX42" s="9" t="s">
-        <v>1177</v>
       </c>
       <c r="AY42" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ42" s="9" t="s">
+      <c r="AZ42" t="s">
         <v>814</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="2">
         <v>44769</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E43" s="9">
+      <c r="D43" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E43">
         <v>12</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43">
         <v>9</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" t="s">
         <v>1179</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="L43" t="s">
         <v>1180</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="N43" t="s">
         <v>1181</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" t="s">
         <v>1182</v>
       </c>
-      <c r="O43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P43" s="9" t="s">
+      <c r="Q43" t="s">
         <v>1183</v>
       </c>
-      <c r="Q43" s="9" t="s">
-        <v>1184</v>
-      </c>
       <c r="R43" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S43">
         <v>999</v>
@@ -12256,442 +13246,442 @@
       <c r="U43" s="1">
         <v>999</v>
       </c>
-      <c r="V43" s="9" t="s">
+      <c r="V43" t="s">
+        <v>1184</v>
+      </c>
+      <c r="W43" t="s">
+        <v>455</v>
+      </c>
+      <c r="X43" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB43" t="s">
         <v>1185</v>
       </c>
-      <c r="W43" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="X43" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y43" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z43" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="AA43" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB43" s="9" t="s">
+      <c r="AC43" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG43" t="s">
         <v>1186</v>
       </c>
-      <c r="AC43" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD43" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE43" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF43" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG43" s="9" t="s">
+      <c r="AH43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI43" t="s">
         <v>1187</v>
       </c>
-      <c r="AH43" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI43" s="9" t="s">
+      <c r="AJ43" t="s">
         <v>1188</v>
       </c>
-      <c r="AJ43" s="9" t="s">
+      <c r="AK43" t="s">
         <v>1189</v>
       </c>
-      <c r="AK43" s="9" t="s">
+      <c r="AL43" t="s">
         <v>1190</v>
       </c>
-      <c r="AL43" s="9" t="s">
+      <c r="AM43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO43" t="s">
         <v>1191</v>
       </c>
-      <c r="AM43" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN43" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO43" s="9" t="s">
+      <c r="AP43" t="s">
         <v>1192</v>
       </c>
-      <c r="AP43" s="9" t="s">
+      <c r="AQ43" t="s">
         <v>1193</v>
       </c>
-      <c r="AQ43" s="9" t="s">
+      <c r="AR43" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS43" t="s">
         <v>1194</v>
       </c>
-      <c r="AR43" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS43" s="9" t="s">
+      <c r="AT43" t="s">
         <v>1195</v>
       </c>
-      <c r="AT43" s="9" t="s">
+      <c r="AU43" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV43" t="s">
         <v>1196</v>
       </c>
-      <c r="AU43" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV43" s="9" t="s">
+      <c r="AW43" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX43" t="s">
         <v>1197</v>
-      </c>
-      <c r="AW43" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="AX43" s="9" t="s">
-        <v>1198</v>
       </c>
       <c r="AY43" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ43" s="9" t="s">
-        <v>1079</v>
+      <c r="AZ43" t="s">
+        <v>1078</v>
       </c>
       <c r="BA43" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>44769</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E44" s="9">
+      <c r="D44" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E44">
         <v>12</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44">
         <v>21</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K44" t="s">
         <v>1200</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K44" s="9" t="s">
+      <c r="L44" t="s">
         <v>1201</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="N44" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s">
         <v>1202</v>
       </c>
-      <c r="N44" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P44" s="9" t="s">
+      <c r="Q44" t="s">
         <v>1203</v>
       </c>
-      <c r="Q44" s="9" t="s">
+      <c r="R44" t="s">
         <v>1204</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="S44">
+        <v>999</v>
+      </c>
+      <c r="T44" t="s">
         <v>1205</v>
       </c>
-      <c r="S44">
-        <v>999</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="U44" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="V44" t="s">
         <v>1207</v>
       </c>
-      <c r="V44" s="9" t="s">
+      <c r="W44" t="s">
         <v>1208</v>
       </c>
-      <c r="W44" s="9" t="s">
+      <c r="X44" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y44" t="s">
         <v>1209</v>
       </c>
-      <c r="X44" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y44" s="9" t="s">
+      <c r="Z44" t="s">
         <v>1210</v>
       </c>
-      <c r="Z44" s="9" t="s">
+      <c r="AA44" t="s">
         <v>1211</v>
       </c>
-      <c r="AA44" s="9" t="s">
+      <c r="AB44" t="s">
         <v>1212</v>
       </c>
-      <c r="AB44" s="9" t="s">
+      <c r="AC44" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD44" t="s">
         <v>1213</v>
       </c>
-      <c r="AC44" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD44" s="9" t="s">
+      <c r="AE44" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF44" t="s">
         <v>1214</v>
       </c>
-      <c r="AE44" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF44" s="9" t="s">
+      <c r="AG44" t="s">
         <v>1215</v>
       </c>
-      <c r="AG44" s="9" t="s">
+      <c r="AH44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI44" t="s">
         <v>1216</v>
       </c>
-      <c r="AH44" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI44" s="9" t="s">
+      <c r="AJ44" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK44" t="s">
         <v>1217</v>
       </c>
-      <c r="AJ44" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK44" s="9" t="s">
+      <c r="AL44" t="s">
         <v>1218</v>
       </c>
-      <c r="AL44" s="9" t="s">
+      <c r="AM44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO44" t="s">
         <v>1219</v>
       </c>
-      <c r="AM44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN44" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO44" s="9" t="s">
+      <c r="AP44" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ44" t="s">
         <v>1220</v>
       </c>
-      <c r="AP44" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ44" s="9" t="s">
+      <c r="AR44" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV44" t="s">
         <v>1221</v>
       </c>
-      <c r="AR44" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS44" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AT44" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU44" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV44" s="9" t="s">
+      <c r="AW44" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX44" t="s">
         <v>1222</v>
-      </c>
-      <c r="AW44" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="AX44" s="9" t="s">
-        <v>1223</v>
       </c>
       <c r="AY44" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ44" s="9" t="s">
-        <v>1079</v>
+      <c r="AZ44" t="s">
+        <v>1078</v>
       </c>
       <c r="BA44" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="2">
         <v>44769</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="D45" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E45">
         <v>12</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45">
         <v>22</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K45" t="s">
         <v>1226</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="9" t="s">
+      <c r="L45" t="s">
         <v>1228</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>1227</v>
-      </c>
-      <c r="L45" s="9" t="s">
+      <c r="N45" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S45">
+        <v>999</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="V45" t="s">
+        <v>1207</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1208</v>
+      </c>
+      <c r="X45" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AC45" t="s">
         <v>1229</v>
       </c>
-      <c r="N45" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>1203</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>1204</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>1205</v>
-      </c>
-      <c r="S45">
-        <v>999</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1206</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="V45" s="9" t="s">
-        <v>1208</v>
-      </c>
-      <c r="W45" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="X45" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y45" s="9" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Z45" s="9" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AA45" s="9" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AB45" s="9" t="s">
+      <c r="AD45" t="s">
         <v>1213</v>
       </c>
-      <c r="AC45" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AD45" s="9" t="s">
+      <c r="AE45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF45" t="s">
         <v>1214</v>
       </c>
-      <c r="AE45" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF45" s="9" t="s">
+      <c r="AG45" t="s">
         <v>1215</v>
       </c>
-      <c r="AG45" s="9" t="s">
+      <c r="AH45" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI45" t="s">
         <v>1216</v>
       </c>
-      <c r="AH45" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI45" s="9" t="s">
+      <c r="AJ45" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK45" t="s">
         <v>1217</v>
       </c>
-      <c r="AJ45" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK45" s="9" t="s">
+      <c r="AL45" t="s">
         <v>1218</v>
       </c>
-      <c r="AL45" s="9" t="s">
+      <c r="AM45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO45" t="s">
         <v>1219</v>
       </c>
-      <c r="AM45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN45" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO45" s="9" t="s">
+      <c r="AP45" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ45" t="s">
         <v>1220</v>
       </c>
-      <c r="AP45" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ45" s="9" t="s">
+      <c r="AR45" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV45" t="s">
         <v>1221</v>
       </c>
-      <c r="AR45" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS45" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AT45" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU45" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV45" s="9" t="s">
+      <c r="AW45" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX45" t="s">
         <v>1222</v>
-      </c>
-      <c r="AW45" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="AX45" s="9" t="s">
-        <v>1223</v>
       </c>
       <c r="AY45" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ45" s="9" t="s">
-        <v>1079</v>
+      <c r="AZ45" t="s">
+        <v>1078</v>
       </c>
       <c r="BA45" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>44769</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E46" s="9">
+      <c r="D46" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E46">
         <v>13</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H46" s="9" t="s">
+      <c r="G46" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H46" t="s">
         <v>213</v>
       </c>
       <c r="I46">
@@ -12700,22 +13690,22 @@
       <c r="J46">
         <v>735</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L46" t="s">
         <v>1232</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="N46" t="s">
+        <v>177</v>
+      </c>
+      <c r="O46">
+        <v>999</v>
+      </c>
+      <c r="P46" t="s">
         <v>1233</v>
       </c>
-      <c r="N46" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O46">
-        <v>999</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" t="s">
         <v>177</v>
       </c>
       <c r="R46">
@@ -12730,255 +13720,255 @@
       <c r="U46" s="1">
         <v>999</v>
       </c>
-      <c r="V46" s="9" t="s">
+      <c r="V46" t="s">
         <v>314</v>
       </c>
-      <c r="W46" s="9" t="s">
+      <c r="W46" t="s">
         <v>455</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="X46" t="s">
         <v>275</v>
       </c>
-      <c r="Y46" s="9" t="s">
+      <c r="Y46" t="s">
         <v>822</v>
       </c>
-      <c r="Z46" s="9" t="s">
+      <c r="Z46" t="s">
         <v>777</v>
       </c>
-      <c r="AA46" s="9" t="s">
+      <c r="AA46" t="s">
         <v>823</v>
       </c>
-      <c r="AB46" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AC46" s="9" t="s">
+      <c r="AB46" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AC46" t="s">
         <v>322</v>
       </c>
-      <c r="AD46" s="9" t="s">
+      <c r="AD46" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AE46" t="s">
         <v>1235</v>
       </c>
-      <c r="AE46" s="9" t="s">
+      <c r="AF46" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI46" t="s">
         <v>1236</v>
       </c>
-      <c r="AF46" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG46" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AH46" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI46" s="9" t="s">
+      <c r="AJ46" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK46" t="s">
         <v>1237</v>
       </c>
-      <c r="AJ46" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AK46" s="9" t="s">
+      <c r="AL46" t="s">
         <v>1238</v>
       </c>
-      <c r="AL46" s="9" t="s">
+      <c r="AM46" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS46" t="s">
         <v>1239</v>
       </c>
-      <c r="AM46" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN46" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO46" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AP46" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ46" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR46" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS46" s="9" t="s">
+      <c r="AT46" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU46" t="s">
         <v>1240</v>
       </c>
-      <c r="AT46" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU46" s="9" t="s">
+      <c r="AV46" t="s">
         <v>1241</v>
       </c>
-      <c r="AV46" s="9" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AW46" s="9" t="s">
+      <c r="AW46" t="s">
         <v>394</v>
       </c>
-      <c r="AX46" s="9" t="s">
+      <c r="AX46" t="s">
         <v>208</v>
       </c>
       <c r="AY46" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ46" s="9" t="s">
-        <v>1244</v>
+      <c r="AZ46" t="s">
+        <v>1243</v>
       </c>
       <c r="BA46" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="2">
         <v>44769</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E47" s="9">
+      <c r="D47" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E47">
         <v>13</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47">
         <v>6</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" t="s">
         <v>1245</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="9" t="s">
+      <c r="J47" t="s">
         <v>1246</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="K47" t="s">
         <v>1247</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="L47" t="s">
         <v>1248</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="N47" t="s">
+        <v>177</v>
+      </c>
+      <c r="O47" t="s">
         <v>1249</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O47" s="9" t="s">
+      <c r="P47" t="s">
         <v>1250</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="Q47" t="s">
+        <v>176</v>
+      </c>
+      <c r="R47">
+        <v>999</v>
+      </c>
+      <c r="S47">
+        <v>999</v>
+      </c>
+      <c r="T47" t="s">
+        <v>1519</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="Q47" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="R47">
-        <v>999</v>
-      </c>
-      <c r="S47">
-        <v>999</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="V47" t="s">
         <v>1252</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="W47" t="s">
+        <v>182</v>
+      </c>
+      <c r="X47" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y47" t="s">
         <v>1253</v>
       </c>
-      <c r="V47" s="9" t="s">
+      <c r="Z47" t="s">
         <v>1254</v>
       </c>
-      <c r="W47" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y47" s="9" t="s">
+      <c r="AA47" t="s">
         <v>1255</v>
       </c>
-      <c r="Z47" s="9" t="s">
+      <c r="AB47" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD47" t="s">
         <v>1256</v>
       </c>
-      <c r="AA47" s="9" t="s">
+      <c r="AE47" t="s">
         <v>1257</v>
       </c>
-      <c r="AB47" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC47" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD47" s="9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AE47" s="9" t="s">
+      <c r="AF47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG47" t="s">
         <v>1259</v>
       </c>
-      <c r="AF47" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG47" s="9" t="s">
+      <c r="AH47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>1261</v>
       </c>
-      <c r="AH47" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI47" s="9" t="s">
+      <c r="AK47" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM47" t="s">
         <v>1262</v>
       </c>
-      <c r="AJ47" s="9" t="s">
+      <c r="AN47" t="s">
         <v>1263</v>
       </c>
-      <c r="AK47" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL47" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM47" s="9" t="s">
+      <c r="AO47" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS47" t="s">
         <v>1264</v>
       </c>
-      <c r="AN47" s="9" t="s">
+      <c r="AT47" t="s">
         <v>1265</v>
       </c>
-      <c r="AO47" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP47" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ47" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR47" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS47" s="9" t="s">
+      <c r="AU47" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV47" t="s">
         <v>1266</v>
       </c>
-      <c r="AT47" s="9" t="s">
+      <c r="AW47" t="s">
         <v>1267</v>
       </c>
-      <c r="AU47" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV47" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AW47" s="9" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AX47" s="9" t="s">
+      <c r="AX47" t="s">
         <v>208</v>
       </c>
       <c r="AY47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ47" s="9" t="s">
+      <c r="AZ47" t="s">
         <v>211</v>
       </c>
       <c r="BA47" s="1" t="s">
@@ -12986,52 +13976,52 @@
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>44769</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E48" s="9">
+      <c r="D48" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E48">
         <v>13</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48">
         <v>12</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L48" t="s">
         <v>1270</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K48" s="9" t="s">
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P48" t="s">
         <v>1271</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="Q48" s="9" t="s">
+      <c r="Q48" t="s">
         <v>270</v>
       </c>
       <c r="R48">
@@ -13046,97 +14036,97 @@
       <c r="U48" s="1">
         <v>999</v>
       </c>
-      <c r="V48" s="9" t="s">
+      <c r="V48" t="s">
+        <v>1272</v>
+      </c>
+      <c r="W48" t="s">
+        <v>247</v>
+      </c>
+      <c r="X48" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z48" t="s">
         <v>1274</v>
       </c>
-      <c r="W48" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="X48" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y48" s="9" t="s">
+      <c r="AA48">
+        <v>999</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE48" t="s">
         <v>1275</v>
       </c>
-      <c r="Z48" s="9" t="s">
+      <c r="AF48" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG48" t="s">
         <v>1276</v>
       </c>
-      <c r="AA48">
-        <v>999</v>
-      </c>
-      <c r="AB48" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC48" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD48" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE48" s="9" t="s">
+      <c r="AH48" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI48" t="s">
         <v>1277</v>
       </c>
-      <c r="AF48" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG48" s="9" t="s">
+      <c r="AJ48" t="s">
         <v>1278</v>
       </c>
-      <c r="AH48" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI48" s="9" t="s">
+      <c r="AK48" t="s">
         <v>1279</v>
       </c>
-      <c r="AJ48" s="9" t="s">
+      <c r="AL48" t="s">
         <v>1280</v>
       </c>
-      <c r="AK48" s="9" t="s">
+      <c r="AM48" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO48" t="s">
         <v>1281</v>
       </c>
-      <c r="AL48" s="9" t="s">
+      <c r="AP48" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>833</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS48" t="s">
         <v>1282</v>
       </c>
-      <c r="AM48" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN48" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO48" s="9" t="s">
+      <c r="AT48" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV48" t="s">
         <v>1283</v>
       </c>
-      <c r="AP48" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ48" s="9" t="s">
-        <v>833</v>
-      </c>
-      <c r="AR48" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS48" s="9" t="s">
+      <c r="AW48" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX48" t="s">
         <v>1284</v>
-      </c>
-      <c r="AT48" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="AU48" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AV48" s="9" t="s">
-        <v>1285</v>
-      </c>
-      <c r="AW48" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="AX48" s="9" t="s">
-        <v>1286</v>
       </c>
       <c r="AY48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ48" s="9" t="s">
+      <c r="AZ48" t="s">
         <v>211</v>
       </c>
       <c r="BA48" s="1" t="s">
@@ -13144,28 +14134,28 @@
       </c>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="2">
         <v>44769</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="D49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E49">
         <v>14</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49">
         <v>7</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H49" s="9" t="s">
+      <c r="G49" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H49" t="s">
         <v>213</v>
       </c>
       <c r="I49">
@@ -13174,26 +14164,26 @@
       <c r="J49">
         <v>735</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M49" t="s">
         <v>1288</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="N49" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P49" t="s">
         <v>1289</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="Q49" t="s">
         <v>1290</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>1292</v>
       </c>
       <c r="R49">
         <v>999</v>
@@ -13207,284 +14197,284 @@
       <c r="U49" s="1">
         <v>999</v>
       </c>
-      <c r="V49" s="9" t="s">
+      <c r="V49" t="s">
+        <v>1291</v>
+      </c>
+      <c r="W49" t="s">
+        <v>182</v>
+      </c>
+      <c r="X49" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB49" t="s">
         <v>1293</v>
       </c>
-      <c r="W49" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="X49" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y49" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z49" s="9" t="s">
+      <c r="AC49" t="s">
         <v>1294</v>
       </c>
-      <c r="AA49" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB49" s="9" t="s">
+      <c r="AD49" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE49" t="s">
         <v>1295</v>
       </c>
-      <c r="AC49" s="9" t="s">
+      <c r="AF49" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>1296</v>
       </c>
-      <c r="AD49" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE49" s="9" t="s">
+      <c r="AK49" t="s">
         <v>1297</v>
       </c>
-      <c r="AF49" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="AG49" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="AH49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI49" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ49" s="9" t="s">
+      <c r="AL49" t="s">
         <v>1298</v>
       </c>
-      <c r="AK49" s="9" t="s">
+      <c r="AM49" t="s">
         <v>1299</v>
       </c>
-      <c r="AL49" s="9" t="s">
+      <c r="AN49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO49" t="s">
         <v>1300</v>
       </c>
-      <c r="AM49" s="9" t="s">
+      <c r="AP49" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS49" t="s">
         <v>1301</v>
       </c>
-      <c r="AN49" s="9" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AO49" s="9" t="s">
+      <c r="AT49" t="s">
         <v>1302</v>
       </c>
-      <c r="AP49" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ49" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR49" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS49" s="9" t="s">
+      <c r="AU49" t="s">
         <v>1303</v>
       </c>
-      <c r="AT49" s="9" t="s">
+      <c r="AV49" t="s">
         <v>1304</v>
       </c>
-      <c r="AU49" s="9" t="s">
+      <c r="AW49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX49" t="s">
         <v>1305</v>
-      </c>
-      <c r="AV49" s="9" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AW49" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX49" s="9" t="s">
-        <v>1307</v>
       </c>
       <c r="AY49" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ49" s="9" t="s">
+      <c r="AZ49" t="s">
         <v>211</v>
       </c>
       <c r="BA49" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>44769</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="D50" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E50">
         <v>14</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50">
         <v>8</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K50" t="s">
         <v>1309</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="J50" s="9" t="s">
+      <c r="L50" t="s">
         <v>1310</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="N50" t="s">
+        <v>102</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P50" t="s">
         <v>1311</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="Q50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R50">
+        <v>999</v>
+      </c>
+      <c r="S50">
+        <v>999</v>
+      </c>
+      <c r="T50" t="s">
         <v>1312</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P50" s="9" t="s">
+      <c r="U50" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="Q50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R50">
-        <v>999</v>
-      </c>
-      <c r="S50">
-        <v>999</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="V50" t="s">
         <v>1314</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="W50" t="s">
         <v>1315</v>
       </c>
-      <c r="V50" s="9" t="s">
+      <c r="X50" t="s">
         <v>1316</v>
       </c>
-      <c r="W50" s="9" t="s">
+      <c r="Y50" t="s">
         <v>1317</v>
       </c>
-      <c r="X50" s="9" t="s">
+      <c r="Z50" t="s">
+        <v>801</v>
+      </c>
+      <c r="AA50" t="s">
         <v>1318</v>
       </c>
-      <c r="Y50" s="9" t="s">
+      <c r="AB50" t="s">
         <v>1319</v>
       </c>
-      <c r="Z50" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="AA50" s="9" t="s">
+      <c r="AC50" t="s">
         <v>1320</v>
       </c>
-      <c r="AB50" s="9" t="s">
+      <c r="AD50" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF50" t="s">
         <v>1321</v>
       </c>
-      <c r="AC50" s="9" t="s">
+      <c r="AG50" t="s">
         <v>1322</v>
       </c>
-      <c r="AD50" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="AE50" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF50" s="9" t="s">
+      <c r="AH50" t="s">
         <v>1323</v>
       </c>
-      <c r="AG50" s="9" t="s">
+      <c r="AI50" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ50" t="s">
         <v>1324</v>
       </c>
-      <c r="AH50" s="9" t="s">
+      <c r="AK50" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL50" t="s">
         <v>1325</v>
       </c>
-      <c r="AI50" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ50" s="9" t="s">
+      <c r="AM50" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO50" t="s">
         <v>1326</v>
       </c>
-      <c r="AK50" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL50" s="9" t="s">
+      <c r="AP50" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS50" t="s">
         <v>1327</v>
       </c>
-      <c r="AM50" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN50" s="9" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AO50" s="9" t="s">
+      <c r="AT50" t="s">
         <v>1328</v>
       </c>
-      <c r="AP50" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ50" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS50" s="9" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AT50" s="9" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AU50" s="9" t="s">
+      <c r="AU50" t="s">
         <v>629</v>
       </c>
-      <c r="AV50" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AW50" s="9" t="s">
+      <c r="AV50" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AW50" t="s">
         <v>207</v>
       </c>
-      <c r="AX50" s="9" t="s">
+      <c r="AX50" t="s">
         <v>208</v>
       </c>
       <c r="AY50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AZ50" s="9" t="s">
+      <c r="AZ50" t="s">
         <v>211</v>
       </c>
       <c r="BA50" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="2">
         <v>44769</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="D51" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E51">
         <v>15</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H51" s="9" t="s">
+      <c r="G51" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H51" t="s">
         <v>213</v>
       </c>
       <c r="I51">
@@ -13493,23 +14483,23 @@
       <c r="J51">
         <v>735</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1332</v>
+      </c>
+      <c r="N51" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" t="s">
         <v>1333</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="P51" t="s">
         <v>1334</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O51" s="9" t="s">
+      <c r="Q51" t="s">
         <v>1335</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>1336</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>1337</v>
       </c>
       <c r="R51">
         <v>999</v>
@@ -13523,470 +14513,470 @@
       <c r="U51" s="1">
         <v>999</v>
       </c>
-      <c r="V51" s="9" t="s">
+      <c r="V51" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1337</v>
+      </c>
+      <c r="X51" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y51" t="s">
         <v>1338</v>
       </c>
-      <c r="W51" s="9" t="s">
+      <c r="Z51" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB51" t="s">
         <v>1339</v>
       </c>
-      <c r="X51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y51" s="9" t="s">
+      <c r="AC51" t="s">
         <v>1340</v>
       </c>
-      <c r="Z51" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA51" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="AB51" s="9" t="s">
+      <c r="AD51" t="s">
         <v>1341</v>
       </c>
-      <c r="AC51" s="9" t="s">
+      <c r="AE51" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF51" t="s">
         <v>1342</v>
       </c>
-      <c r="AD51" s="9" t="s">
+      <c r="AG51" t="s">
         <v>1343</v>
       </c>
-      <c r="AE51" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF51" s="9" t="s">
+      <c r="AH51" t="s">
         <v>1344</v>
       </c>
-      <c r="AG51" s="9" t="s">
+      <c r="AI51" t="s">
         <v>1345</v>
       </c>
-      <c r="AH51" s="9" t="s">
+      <c r="AJ51" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL51" t="s">
         <v>1346</v>
       </c>
-      <c r="AI51" s="9" t="s">
+      <c r="AM51" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ51" t="s">
         <v>1347</v>
       </c>
-      <c r="AJ51" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AK51" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="AL51" s="9" t="s">
+      <c r="AR51" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT51" t="s">
         <v>1348</v>
       </c>
-      <c r="AM51" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN51" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO51" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AP51" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ51" s="9" t="s">
+      <c r="AU51" t="s">
         <v>1349</v>
       </c>
-      <c r="AR51" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS51" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT51" s="9" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AU51" s="9" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AV51" s="9" t="s">
+      <c r="AV51" t="s">
         <v>299</v>
       </c>
-      <c r="AW51" s="9" t="s">
+      <c r="AW51" t="s">
         <v>338</v>
       </c>
-      <c r="AX51" s="9" t="s">
+      <c r="AX51" t="s">
         <v>208</v>
       </c>
       <c r="AY51" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ51" s="9" t="s">
+      <c r="AZ51" t="s">
         <v>303</v>
       </c>
       <c r="BA51" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>44769</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E52" s="9">
+      <c r="D52" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E52">
         <v>15</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52">
         <v>15</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" t="s">
+        <v>310</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L52" t="s">
         <v>1353</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K52" s="9" t="s">
+      <c r="N52" t="s">
+        <v>102</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>1353</v>
+      </c>
+      <c r="R52" t="s">
         <v>1354</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="S52">
+        <v>999</v>
+      </c>
+      <c r="T52" t="s">
         <v>1355</v>
       </c>
-      <c r="N52" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P52" s="9" t="s">
+      <c r="U52" s="1">
+        <v>999</v>
+      </c>
+      <c r="V52" t="s">
         <v>1356</v>
       </c>
-      <c r="Q52" s="9" t="s">
+      <c r="W52" t="s">
+        <v>247</v>
+      </c>
+      <c r="X52" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC52" t="s">
         <v>1358</v>
       </c>
-      <c r="R52" t="s">
-        <v>1357</v>
-      </c>
-      <c r="S52">
-        <v>999</v>
-      </c>
-      <c r="T52" t="s">
+      <c r="AD52" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE52" t="s">
         <v>1359</v>
       </c>
-      <c r="U52" s="1">
-        <v>999</v>
-      </c>
-      <c r="V52" s="9" t="s">
+      <c r="AF52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG52" t="s">
         <v>1360</v>
       </c>
-      <c r="W52" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="X52" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y52" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z52" s="9" t="s">
+      <c r="AH52" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ52" t="s">
         <v>1361</v>
       </c>
-      <c r="AA52" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB52" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC52" s="9" t="s">
+      <c r="AK52" t="s">
         <v>1362</v>
       </c>
-      <c r="AD52" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE52" s="9" t="s">
+      <c r="AL52" t="s">
         <v>1363</v>
       </c>
-      <c r="AF52" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG52" s="9" t="s">
+      <c r="AM52" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO52" t="s">
         <v>1364</v>
       </c>
-      <c r="AH52" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI52" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="AJ52" s="9" t="s">
+      <c r="AP52" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ52" t="s">
         <v>1365</v>
       </c>
-      <c r="AK52" s="9" t="s">
+      <c r="AR52" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS52" t="s">
         <v>1366</v>
       </c>
-      <c r="AL52" s="9" t="s">
+      <c r="AT52" t="s">
         <v>1367</v>
       </c>
-      <c r="AM52" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN52" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO52" s="9" t="s">
+      <c r="AU52" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV52" t="s">
         <v>1368</v>
       </c>
-      <c r="AP52" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ52" s="9" t="s">
+      <c r="AW52" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY52" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="AR52" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS52" s="9" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AT52" s="9" t="s">
-        <v>1371</v>
-      </c>
-      <c r="AU52" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AV52" s="9" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AW52" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="AX52" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="AY52" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="AZ52" s="9" t="s">
+      <c r="AZ52" t="s">
         <v>211</v>
       </c>
       <c r="BA52" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="2">
         <v>44769</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="D53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E53">
         <v>16</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53">
         <v>2</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H53" t="s">
+        <v>369</v>
+      </c>
+      <c r="I53">
+        <v>550</v>
+      </c>
+      <c r="J53">
+        <v>735</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P53" t="s">
         <v>1374</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I53" s="14">
-        <v>550</v>
-      </c>
-      <c r="J53" s="14">
-        <v>735</v>
-      </c>
-      <c r="K53" s="9" t="s">
+      <c r="Q53" t="s">
+        <v>63</v>
+      </c>
+      <c r="R53">
+        <v>999</v>
+      </c>
+      <c r="S53" t="s">
         <v>1375</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="T53" t="s">
+        <v>245</v>
+      </c>
+      <c r="U53" s="1">
+        <v>999</v>
+      </c>
+      <c r="V53" t="s">
         <v>1376</v>
       </c>
-      <c r="N53" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P53" s="9" t="s">
+      <c r="W53">
+        <v>999</v>
+      </c>
+      <c r="X53">
+        <v>999</v>
+      </c>
+      <c r="Y53">
+        <v>999</v>
+      </c>
+      <c r="Z53">
+        <v>999</v>
+      </c>
+      <c r="AA53">
+        <v>999</v>
+      </c>
+      <c r="AB53">
+        <v>999</v>
+      </c>
+      <c r="AC53">
+        <v>999</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AF53">
+        <v>999</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AH53">
+        <v>999</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AJ53">
+        <v>999</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP53">
+        <v>999</v>
+      </c>
+      <c r="AQ53">
+        <v>999</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS53" t="s">
         <v>1378</v>
       </c>
-      <c r="Q53" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="14">
-        <v>999</v>
-      </c>
-      <c r="S53" s="14" t="s">
+      <c r="AT53" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU53">
+        <v>999</v>
+      </c>
+      <c r="AV53" t="s">
         <v>1379</v>
       </c>
-      <c r="T53" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="U53" s="12">
-        <v>999</v>
-      </c>
-      <c r="V53" s="9" t="s">
-        <v>1380</v>
-      </c>
-      <c r="W53" s="14">
-        <v>999</v>
-      </c>
-      <c r="X53" s="14">
-        <v>999</v>
-      </c>
-      <c r="Y53" s="14">
-        <v>999</v>
-      </c>
-      <c r="Z53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AA53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AB53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AC53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AD53" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE53" s="9" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AF53" s="9">
-        <v>999</v>
-      </c>
-      <c r="AG53" s="9" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AH53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AI53" s="9" t="s">
-        <v>1381</v>
-      </c>
-      <c r="AJ53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AK53" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL53" s="9" t="s">
-        <v>1282</v>
-      </c>
-      <c r="AM53" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN53" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO53" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AQ53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AR53" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS53" s="9" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AT53" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="AU53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AV53" s="9" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AW53" s="14">
-        <v>999</v>
-      </c>
-      <c r="AX53" s="9" t="s">
+      <c r="AW53">
+        <v>999</v>
+      </c>
+      <c r="AX53" t="s">
         <v>836</v>
       </c>
-      <c r="AY53" s="12">
-        <v>999</v>
-      </c>
-      <c r="AZ53" s="9" t="s">
+      <c r="AY53" s="1">
+        <v>999</v>
+      </c>
+      <c r="AZ53" t="s">
         <v>211</v>
       </c>
-      <c r="BA53" s="12">
+      <c r="BA53" s="1">
         <v>999</v>
       </c>
     </row>
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>44769</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E54" s="9">
+      <c r="D54" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E54">
         <v>16</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54">
         <v>4</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H54" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" t="s">
         <v>1384</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="9" t="s">
+      <c r="Q54" t="s">
         <v>1385</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>1387</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>1388</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>1389</v>
       </c>
       <c r="R54">
         <v>999</v>
@@ -14000,11 +14990,11 @@
       <c r="U54" s="1">
         <v>999</v>
       </c>
-      <c r="V54" s="9" t="s">
+      <c r="V54" t="s">
         <v>314</v>
       </c>
       <c r="W54" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="X54" t="s">
         <v>275</v>
@@ -14013,7 +15003,7 @@
         <v>822</v>
       </c>
       <c r="Z54" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="AA54" t="s">
         <v>823</v>
@@ -14025,72 +15015,72 @@
         <v>280</v>
       </c>
       <c r="AD54" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AF54">
+        <v>999</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AK54" t="s">
         <v>1392</v>
       </c>
-      <c r="AE54" s="9" t="s">
+      <c r="AL54" t="s">
         <v>1393</v>
       </c>
-      <c r="AF54">
-        <v>999</v>
-      </c>
-      <c r="AG54" s="9" t="s">
+      <c r="AM54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>833</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT54" t="s">
         <v>1394</v>
       </c>
-      <c r="AH54" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI54" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ54" s="9" t="s">
+      <c r="AU54" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV54" t="s">
         <v>1395</v>
       </c>
-      <c r="AK54" s="9" t="s">
+      <c r="AW54" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX54" t="s">
         <v>1396</v>
       </c>
-      <c r="AL54" s="9" t="s">
+      <c r="AY54" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AM54" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN54" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO54" s="9" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AP54" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ54" s="9" t="s">
-        <v>833</v>
-      </c>
-      <c r="AR54" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS54" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT54" s="9" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AU54" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AV54" s="9" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AW54" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX54" s="9" t="s">
-        <v>1400</v>
-      </c>
-      <c r="AY54" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AZ54" s="9" t="s">
+      <c r="AZ54" t="s">
         <v>303</v>
       </c>
       <c r="BA54" s="1" t="s">
@@ -14098,59 +15088,59 @@
       </c>
     </row>
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="2">
         <v>44769</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="D55" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E55">
         <v>16</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55">
         <v>9</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1401</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P55" t="s">
         <v>1402</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I55" s="9" t="s">
+      <c r="Q55" t="s">
+        <v>772</v>
+      </c>
+      <c r="R55">
+        <v>999</v>
+      </c>
+      <c r="S55" t="s">
         <v>1403</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>1404</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>1405</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q55" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="R55">
-        <v>999</v>
-      </c>
-      <c r="S55" t="s">
-        <v>1407</v>
       </c>
       <c r="T55" t="s">
         <v>64</v>
@@ -14158,403 +15148,2853 @@
       <c r="U55" s="1">
         <v>999</v>
       </c>
-      <c r="V55" s="9" t="s">
+      <c r="V55" t="s">
+        <v>1404</v>
+      </c>
+      <c r="W55" t="s">
+        <v>1405</v>
+      </c>
+      <c r="X55" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AB55" t="s">
         <v>1408</v>
       </c>
-      <c r="W55" s="9" t="s">
+      <c r="AC55" t="s">
         <v>1409</v>
       </c>
-      <c r="X55" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y55" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z55" s="9" t="s">
+      <c r="AD55" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF55" t="s">
         <v>1410</v>
       </c>
-      <c r="AA55" s="9" t="s">
+      <c r="AG55" t="s">
         <v>1411</v>
       </c>
-      <c r="AB55" s="9" t="s">
+      <c r="AH55" t="s">
         <v>1412</v>
       </c>
-      <c r="AC55" s="9" t="s">
+      <c r="AI55" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ55" t="s">
         <v>1413</v>
       </c>
-      <c r="AD55" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE55" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF55" s="9" t="s">
+      <c r="AK55" t="s">
         <v>1414</v>
       </c>
-      <c r="AG55" s="9" t="s">
+      <c r="AL55" t="s">
         <v>1415</v>
       </c>
-      <c r="AH55" s="9" t="s">
+      <c r="AM55" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO55" t="s">
         <v>1416</v>
       </c>
-      <c r="AI55" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ55" s="9" t="s">
+      <c r="AP55" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS55" t="s">
         <v>1417</v>
       </c>
-      <c r="AK55" s="9" t="s">
+      <c r="AT55" t="s">
         <v>1418</v>
       </c>
-      <c r="AL55" s="9" t="s">
+      <c r="AU55" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AV55" t="s">
         <v>1419</v>
       </c>
-      <c r="AM55" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN55" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO55" s="9" t="s">
+      <c r="AW55" t="s">
         <v>1420</v>
       </c>
-      <c r="AP55" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AQ55" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR55" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS55" s="9" t="s">
+      <c r="AX55" t="s">
         <v>1421</v>
-      </c>
-      <c r="AT55" s="9" t="s">
-        <v>1422</v>
-      </c>
-      <c r="AU55" s="9" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AV55" s="9" t="s">
-        <v>1423</v>
-      </c>
-      <c r="AW55" s="9" t="s">
-        <v>1424</v>
-      </c>
-      <c r="AX55" s="9" t="s">
-        <v>1425</v>
       </c>
       <c r="AY55" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AZ55" s="9" t="s">
+      <c r="AZ55" t="s">
         <v>303</v>
       </c>
       <c r="BA55" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+    <row r="56" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="10">
         <v>44769</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E56" s="9">
+      <c r="D56" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E56" s="6">
         <v>16</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="6">
         <v>10</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>1385</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K56" s="9" t="s">
+      <c r="O56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="R56" s="6">
+        <v>999</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U56" s="8">
+        <v>999</v>
+      </c>
+      <c r="V56" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="W56" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="X56" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y56" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z56" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA56" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC56" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD56" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE56" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF56" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG56" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="AH56" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AI56" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ56" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK56" s="6" t="s">
         <v>1429</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="AL56" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="O56" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="R56">
-        <v>999</v>
-      </c>
-      <c r="S56" t="s">
-        <v>1407</v>
-      </c>
-      <c r="T56" t="s">
-        <v>64</v>
-      </c>
-      <c r="U56" s="1">
-        <v>999</v>
-      </c>
-      <c r="V56" s="9" t="s">
+      <c r="AM56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN56" s="6" t="s">
         <v>1431</v>
       </c>
-      <c r="W56" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="X56" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y56" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z56" s="9" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AA56" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB56" s="9" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AC56" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD56" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE56" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF56" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG56" s="9" t="s">
+      <c r="AO56" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP56" s="6" t="s">
         <v>1432</v>
       </c>
-      <c r="AH56" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="AI56" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ56" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AK56" s="9" t="s">
+      <c r="AQ56" s="6" t="s">
         <v>1433</v>
       </c>
-      <c r="AL56" s="9" t="s">
+      <c r="AR56" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS56" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT56" s="6" t="s">
         <v>1434</v>
       </c>
-      <c r="AM56" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN56" s="9" t="s">
+      <c r="AU56" s="6" t="s">
         <v>1435</v>
       </c>
-      <c r="AO56" s="9" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AP56" s="9" t="s">
+      <c r="AV56" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="AQ56" s="9" t="s">
-        <v>1437</v>
-      </c>
-      <c r="AR56" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS56" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT56" s="9" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AU56" s="9" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AV56" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AW56" s="9" t="s">
+      <c r="AW56" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="AX56" s="9" t="s">
+      <c r="AX56" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AY56" s="1" t="s">
+      <c r="AY56" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="AZ56" s="9" t="s">
+      <c r="AZ56" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="BA56" s="1" t="s">
+      <c r="BA56" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C57" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E57" s="9">
+        <v>8</v>
+      </c>
+      <c r="F57" s="9">
+        <v>3</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="R57" s="9">
+        <v>999</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W57" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="X57" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y57" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z57">
+        <v>999</v>
+      </c>
+      <c r="AA57" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AB57" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC57" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD57" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AE57" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF57" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG57" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AH57" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI57" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ57" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AK57" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL57" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AM57" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN57" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AO57" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AP57" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ57" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AR57" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS57" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AT57" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AU57" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV57" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AW57" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AX57" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AY57" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ57" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA57" s="1" t="s">
+        <v>1461</v>
+      </c>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E58" s="9">
+        <v>8</v>
+      </c>
+      <c r="F58" s="9">
+        <v>5</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="R58" s="9">
+        <v>999</v>
+      </c>
+      <c r="S58">
+        <v>999</v>
+      </c>
+      <c r="T58" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="U58" s="1">
+        <v>999</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="W58" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="X58" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z58" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AA58" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AB58" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AC58" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE58" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AF58" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AG58" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AH58" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AI58" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ58" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK58" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL58" s="9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AM58" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN58" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AO58" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AP58" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ58" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AR58" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS58" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AT58" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AU58" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AV58" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AW58" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AX58" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY58" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ58" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BA58" s="1" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C59" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E59" s="9">
+        <v>8</v>
+      </c>
+      <c r="F59" s="9">
+        <v>7</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S59">
+        <v>999</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="U59" s="1">
+        <v>999</v>
+      </c>
+      <c r="V59" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="W59" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Y59" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA59" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB59" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC59" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD59" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE59" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AF59" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AG59" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AH59" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AI59" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ59" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK59" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AL59" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AM59" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN59" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AO59" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AP59" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AQ59" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR59" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS59" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AT59" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AU59" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AV59" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AW59" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AX59" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY59" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ59" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="BA59" s="1" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C60" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E60" s="9">
+        <v>11</v>
+      </c>
+      <c r="F60" s="9">
+        <v>2</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="R60" s="9">
+        <v>999</v>
+      </c>
+      <c r="S60">
+        <v>999</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="V60" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="W60" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="X60" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Y60" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Z60" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AA60" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AB60" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC60" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AD60" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AE60" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AF60" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AG60" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AH60" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AI60" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="AJ60" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AK60" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AL60" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AM60" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AN60" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AO60" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AP60" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AQ60" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="AR60" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AS60" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AT60" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AU60" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AV60" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AW60" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AX60" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AZ60" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C61" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E61" s="9">
+        <v>16</v>
+      </c>
+      <c r="F61" s="9">
+        <v>3</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="R61" s="9">
+        <v>999</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="V61" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W61" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="X61" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y61" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Z61" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AA61" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AB61" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AC61" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD61" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE61" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF61" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG61" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AH61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI61" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AJ61" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK61" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AL61" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AM61" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN61" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO61" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AP61" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ61" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AR61" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS61" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AT61" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AU61" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AV61" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AW61" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX61" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AY61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AZ61" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA61" s="1" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E62" s="9">
+        <v>16</v>
+      </c>
+      <c r="F62" s="9">
+        <v>4</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="S62" s="9">
+        <v>999</v>
+      </c>
+      <c r="T62" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U62" s="1">
+        <v>999</v>
+      </c>
+      <c r="V62" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W62" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X62" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y62" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z62" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA62" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB62" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC62" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD62" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE62" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AF62" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG62" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AH62" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AI62" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ62" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AK62" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="AL62" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM62" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO62" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AP62" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AQ62" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AR62" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS62" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AT62" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AU62" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV62" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AW62" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AX62" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY62" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AZ62" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA62" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C63" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E63" s="9">
+        <v>16</v>
+      </c>
+      <c r="F63" s="9">
+        <v>5</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O63">
+        <v>999</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="S63" s="9">
+        <v>999</v>
+      </c>
+      <c r="T63" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U63" s="1">
+        <v>999</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W63" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="X63" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y63" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Z63" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AA63" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB63" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC63" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD63" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE63" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF63" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG63" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AH63" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI63" s="9" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AJ63" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AK63" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AL63" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AM63" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AN63" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AO63" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AP63" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AQ63" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AR63" s="9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AS63" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT63" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AU63" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AV63" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AW63" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AX63" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AY63" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AZ63" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA63" s="1" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C64" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E64" s="9">
+        <v>8</v>
+      </c>
+      <c r="F64" s="9">
+        <v>3</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="R64">
+        <v>999</v>
+      </c>
+      <c r="S64" t="s">
+        <v>1628</v>
+      </c>
+      <c r="T64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U64" s="1">
+        <v>999</v>
+      </c>
+      <c r="V64" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W64" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="X64" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y64" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z64" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA64" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB64" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AC64" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD64" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE64" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AF64" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG64" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AH64" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AI64" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ64" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK64" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AL64" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AM64" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AN64" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AO64" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP64" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ64" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR64" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS64" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AT64" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="AU64" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AV64" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AW64" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AX64" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY64" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ64" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA64" s="1" t="s">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C65" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E65" s="9">
+        <v>8</v>
+      </c>
+      <c r="F65" s="9">
+        <v>6</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="S65">
+        <v>999</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U65" s="1">
+        <v>999</v>
+      </c>
+      <c r="V65" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W65" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="X65" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y65" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z65" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA65" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB65" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC65" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD65" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AE65" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AF65" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG65" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AH65" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AI65" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ65" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK65" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL65" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM65" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AN65" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AO65" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AP65" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR65" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS65" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AT65" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU65" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV65" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AW65" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX65" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AY65" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ65" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA65" s="1" t="s">
+        <v>659</v>
+      </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C66" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E66" s="9">
+        <v>9</v>
+      </c>
+      <c r="F66" s="9">
+        <v>5</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="R66">
+        <v>999</v>
+      </c>
+      <c r="S66">
+        <v>999</v>
+      </c>
+      <c r="T66" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U66" s="1">
+        <v>999</v>
+      </c>
+      <c r="V66" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W66" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="X66" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y66" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z66" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA66" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB66" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC66" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD66" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE66" s="9" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AF66" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG66" s="9" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AH66" s="9" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AI66" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK66" s="9" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AL66" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AM66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN66" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AO66" s="9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AP66" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT66" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU66" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="AV66" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AW66" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX66" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY66" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AZ66" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA66" s="1" t="s">
+        <v>1673</v>
+      </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+    <row r="67" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="13">
+        <v>44769</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E67" s="9">
+        <v>10</v>
+      </c>
+      <c r="F67" s="9">
+        <v>7</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P67" s="12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q67" s="12" t="s">
+        <v>1679</v>
+      </c>
+      <c r="R67" s="12">
+        <v>999</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>1680</v>
+      </c>
+      <c r="T67" s="12">
+        <v>999</v>
+      </c>
+      <c r="U67" s="14">
+        <v>999</v>
+      </c>
+      <c r="V67" s="12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W67" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="X67" s="12" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Y67" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z67" s="12" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AA67" s="12" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AB67" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC67" s="12" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AD67" s="12" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AE67" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AF67" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG67" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="AH67" s="12" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI67" s="12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AJ67" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK67" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AL67" s="12" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AM67" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN67" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="AO67" s="12" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AP67" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AQ67" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AR67" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS67" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AT67" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AU67" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV67" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AW67" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX67" s="12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AY67" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ67" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA67" s="14" t="s">
+        <v>912</v>
+      </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E68" s="9">
+        <v>12</v>
+      </c>
+      <c r="F68" s="9">
+        <v>7</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="R68">
+        <v>999</v>
+      </c>
+      <c r="S68">
+        <v>999</v>
+      </c>
+      <c r="T68" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="V68" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="W68" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="X68" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y68" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z68" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AA68" s="9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB68" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC68" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AD68" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE68" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF68" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AG68" s="9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AH68" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI68" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AJ68" s="9" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AK68" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AL68" s="9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="AM68" s="9" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AN68" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO68" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP68" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ68" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR68" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS68" s="9" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AT68" s="9" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AU68" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV68" s="9" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AW68" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AX68" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="AY68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ68" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA68" s="1" t="s">
+        <v>1721</v>
+      </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C69" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E69" s="9">
+        <v>12</v>
+      </c>
+      <c r="F69" s="9">
+        <v>11</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>1725</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="R69">
+        <v>999</v>
+      </c>
+      <c r="S69">
+        <v>999</v>
+      </c>
+      <c r="T69" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="U69" s="1">
+        <v>999</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W69" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X69" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y69" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z69" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="AA69" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB69" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC69" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD69" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE69" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF69" s="9" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AG69" s="9" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AH69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI69" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK69" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AL69" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AM69" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN69" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO69" s="9" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AP69" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ69" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="AR69" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS69" s="9" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AT69" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU69" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV69" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW69" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX69" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ69" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA69" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C70" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E70" s="9">
+        <v>13</v>
+      </c>
+      <c r="F70" s="9">
+        <v>10</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>1735</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>1736</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R70">
+        <v>999</v>
+      </c>
+      <c r="S70">
+        <v>999</v>
+      </c>
+      <c r="T70" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U70" s="1">
+        <v>999</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W70" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="X70" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y70" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z70" s="9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AA70" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AB70" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AC70" s="9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AD70" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE70" s="9" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AF70" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG70" s="9" t="s">
+        <v>1742</v>
+      </c>
+      <c r="AH70" s="9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AI70" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="AJ70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK70" s="9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AL70" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN70" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO70" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AP70" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ70" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AR70" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS70" s="9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AT70" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AU70" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AV70" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AW70" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX70" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY70" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ70" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA70" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E71" s="9">
+        <v>14</v>
+      </c>
+      <c r="F71" s="9">
+        <v>11</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I71">
+        <v>530</v>
+      </c>
+      <c r="J71">
+        <v>745</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>1752</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="R71">
+        <v>999</v>
+      </c>
+      <c r="S71">
+        <v>999</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="V71" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W71" s="9" t="s">
+        <v>1756</v>
+      </c>
+      <c r="X71" s="9" t="s">
+        <v>1757</v>
+      </c>
+      <c r="Y71" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Z71" s="9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AA71" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB71" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC71" s="9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AD71" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE71" s="9" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF71" s="9" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AG71" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AH71" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI71" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="AJ71" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK71" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AL71" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AM71" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN71" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO71" s="9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AP71" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AQ71" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AR71" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS71" s="9" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AT71" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AU71" s="9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AV71" s="9" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AW71" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX71" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AY71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ71" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA71" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11">
+        <v>44769</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B99D7B-5834-4C03-B078-3B2F7F3A3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C380DA8F-880B-47CA-AF9A-00594B285CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="13428" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="0" windowWidth="13152" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="2040">
   <si>
     <t>ID</t>
   </si>
@@ -6018,6 +6018,816 @@
   <si>
     <t>Schissili (s)</t>
   </si>
+  <si>
+    <t>U'</t>
+  </si>
+  <si>
+    <t>III_13_0045</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>48,00</t>
+  </si>
+  <si>
+    <t>v-u</t>
+  </si>
+  <si>
+    <t>Neubreisach</t>
+  </si>
+  <si>
+    <t>Julius HUMM</t>
+  </si>
+  <si>
+    <t>Munzenheim</t>
+  </si>
+  <si>
+    <t>"Licht" (die) &lt;Leiche&gt; {Licht ist tatsächlich in ""}</t>
+  </si>
+  <si>
+    <t>Bromara</t>
+  </si>
+  <si>
+    <t>Dissel (der)</t>
+  </si>
+  <si>
+    <t>Agerscht (der)</t>
+  </si>
+  <si>
+    <t>Mücke (die)</t>
+  </si>
+  <si>
+    <t>O[h]mt (das)</t>
+  </si>
+  <si>
+    <t>Gugummer (die)</t>
+  </si>
+  <si>
+    <t>Butte (die)</t>
+  </si>
+  <si>
+    <t>Güller (der), Huhn (das)</t>
+  </si>
+  <si>
+    <t>Roller (der)</t>
+  </si>
+  <si>
+    <t>Scharniëler (der)</t>
+  </si>
+  <si>
+    <t>Mohr (die)</t>
+  </si>
+  <si>
+    <t>Pfetter (der)</t>
+  </si>
+  <si>
+    <t>Riemen (der)</t>
+  </si>
+  <si>
+    <t>Spatz (der)</t>
+  </si>
+  <si>
+    <t>Grüsselbeere</t>
+  </si>
+  <si>
+    <t>Guhf (die)</t>
+  </si>
+  <si>
+    <t>Rutschhafen (der)</t>
+  </si>
+  <si>
+    <t>zwiega, äugeln</t>
+  </si>
+  <si>
+    <t>Geiss (die)</t>
+  </si>
+  <si>
+    <t>Holder (der)</t>
+  </si>
+  <si>
+    <t>45,40</t>
+  </si>
+  <si>
+    <t>v-L</t>
+  </si>
+  <si>
+    <t>Bötzingen</t>
+  </si>
+  <si>
+    <t>a.K.</t>
+  </si>
+  <si>
+    <t>Freiburg i. Br.</t>
+  </si>
+  <si>
+    <t>Erwin Seitz</t>
+  </si>
+  <si>
+    <t>mit einem Dorfbauern</t>
+  </si>
+  <si>
+    <t>Omais</t>
+  </si>
+  <si>
+    <t>Bromele</t>
+  </si>
+  <si>
+    <t>Dissle</t>
+  </si>
+  <si>
+    <t>Oehmd</t>
+  </si>
+  <si>
+    <t>Guhler, Gluckeri</t>
+  </si>
+  <si>
+    <t>Gählrube</t>
+  </si>
+  <si>
+    <t>Götte, Getti</t>
+  </si>
+  <si>
+    <t>Geissli</t>
+  </si>
+  <si>
+    <t>schälte</t>
+  </si>
+  <si>
+    <t>Schperling</t>
+  </si>
+  <si>
+    <t>Schtachelbeere</t>
+  </si>
+  <si>
+    <t>Giifli</t>
+  </si>
+  <si>
+    <t>Schtricknodel</t>
+  </si>
+  <si>
+    <t>Kaffeeschissle, Benne</t>
+  </si>
+  <si>
+    <t>aigle</t>
+  </si>
+  <si>
+    <t>III_13_0057</t>
+  </si>
+  <si>
+    <t>III_13_0051</t>
+  </si>
+  <si>
+    <t>v-F</t>
+  </si>
+  <si>
+    <t>Opflingen</t>
+  </si>
+  <si>
+    <t>Friedrich Kaiser Hauptlehrer</t>
+  </si>
+  <si>
+    <t>Brumbele (w)</t>
+  </si>
+  <si>
+    <t>Rätscher (m)</t>
+  </si>
+  <si>
+    <t>Ehmd (s), [Öh]m[?]</t>
+  </si>
+  <si>
+    <t>Guggum̄ere (w)</t>
+  </si>
+  <si>
+    <t>Guhler (m), Guggis, Huehn (w)</t>
+  </si>
+  <si>
+    <t>Herdäpfel (w) &lt;e&gt; {das e ist über das a - entweder war ein schreibfehler oder Herdepfel is eine 2. Variante]</t>
+  </si>
+  <si>
+    <t>Gelruebe (w)</t>
+  </si>
+  <si>
+    <t>schelte, schimpfe</t>
+  </si>
+  <si>
+    <t>Stachelbeeri, Chruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Tasse (w)</t>
+  </si>
+  <si>
+    <t>Schwiegertochter, Suhnsfrau (w)</t>
+  </si>
+  <si>
+    <t>III_13:0076</t>
+  </si>
+  <si>
+    <t>25,40</t>
+  </si>
+  <si>
+    <t>48,0</t>
+  </si>
+  <si>
+    <t>w-i</t>
+  </si>
+  <si>
+    <t>Gütenbach</t>
+  </si>
+  <si>
+    <t>Villingen</t>
+  </si>
+  <si>
+    <t>Ludwig Sutter</t>
+  </si>
+  <si>
+    <t>Meersburg</t>
+  </si>
+  <si>
+    <t>Ohrêmeis (w) &lt;ê=offenes e&gt;</t>
+  </si>
+  <si>
+    <t>Līchä (m)</t>
+  </si>
+  <si>
+    <t>Bromb[ē]r (w) {strich über e nicht ganz deutlich, auch überhalb ein weiteres e leicht sichtbar}</t>
+  </si>
+  <si>
+    <t>Dislä (w)</t>
+  </si>
+  <si>
+    <t>Ēntěma</t>
+  </si>
+  <si>
+    <t>Ēlschděr (w)</t>
+  </si>
+  <si>
+    <t>Fläěděrmus (w)</t>
+  </si>
+  <si>
+    <t>Fliěg (w)</t>
+  </si>
+  <si>
+    <t>Guěrk (w), Guggumměr (w)</t>
+  </si>
+  <si>
+    <t>Hifä (s), Hifä &lt;Mehrzahl&gt;</t>
+  </si>
+  <si>
+    <t>Gullěr, Huä (s)</t>
+  </si>
+  <si>
+    <t>Härdepfěl (m)</t>
+  </si>
+  <si>
+    <t>Katzěrolli</t>
+  </si>
+  <si>
+    <t>Gehlriěbä (w)</t>
+  </si>
+  <si>
+    <t>Gētti</t>
+  </si>
+  <si>
+    <t>Gaislě (w)</t>
+  </si>
+  <si>
+    <t>Pflumm[e] (w) {e könnte in klammern sein}</t>
+  </si>
+  <si>
+    <t>Schdachělbeer (w)</t>
+  </si>
+  <si>
+    <t>Schdeckgifli (s)</t>
+  </si>
+  <si>
+    <t>Spiěss (m)</t>
+  </si>
+  <si>
+    <t>Schisslä (w), Bläddli (s)</t>
+  </si>
+  <si>
+    <t>Hafä (m)</t>
+  </si>
+  <si>
+    <t>vereddle</t>
+  </si>
+  <si>
+    <t>Schwiggerdǒchder</t>
+  </si>
+  <si>
+    <t>Holder &lt;offen&gt;</t>
+  </si>
+  <si>
+    <t>III_13_0093</t>
+  </si>
+  <si>
+    <t>25,50 {koords eventuell von Informanten vertauscht?}</t>
+  </si>
+  <si>
+    <t>v-l</t>
+  </si>
+  <si>
+    <t>Neukirch</t>
+  </si>
+  <si>
+    <t>Donaueschingen</t>
+  </si>
+  <si>
+    <t>Jos. Neininger</t>
+  </si>
+  <si>
+    <t>Donauschingen</t>
+  </si>
+  <si>
+    <t>Amais</t>
+  </si>
+  <si>
+    <t>Liiche</t>
+  </si>
+  <si>
+    <t>Brombeera</t>
+  </si>
+  <si>
+    <t>Entema</t>
+  </si>
+  <si>
+    <t>Fliag</t>
+  </si>
+  <si>
+    <t>Gugumera</t>
+  </si>
+  <si>
+    <t>Hiifa</t>
+  </si>
+  <si>
+    <t>Guller, Hua</t>
+  </si>
+  <si>
+    <t>S[777] {wort extrem verblasst}</t>
+  </si>
+  <si>
+    <t>Riaba</t>
+  </si>
+  <si>
+    <t>Sau, Moor</t>
+  </si>
+  <si>
+    <t>Gaisli</t>
+  </si>
+  <si>
+    <t>schel[d]a</t>
+  </si>
+  <si>
+    <t>Stachelbeer</t>
+  </si>
+  <si>
+    <t>Gliifli</t>
+  </si>
+  <si>
+    <t>Schbiass</t>
+  </si>
+  <si>
+    <t>Dällerli, Schissla</t>
+  </si>
+  <si>
+    <t>Haafa</t>
+  </si>
+  <si>
+    <t>pfropfe</t>
+  </si>
+  <si>
+    <t>Schwiegerdochdr</t>
+  </si>
+  <si>
+    <t>Holdera (w)</t>
+  </si>
+  <si>
+    <t>V'</t>
+  </si>
+  <si>
+    <t>III_13_0098</t>
+  </si>
+  <si>
+    <t>47,55</t>
+  </si>
+  <si>
+    <t>o-e</t>
+  </si>
+  <si>
+    <t>Lintal</t>
+  </si>
+  <si>
+    <t>Elsass (ober)</t>
+  </si>
+  <si>
+    <t>Riebert Xaver</t>
+  </si>
+  <si>
+    <t>[L]</t>
+  </si>
+  <si>
+    <t>Riebert {ich nehme an der gleiche Riebert wie der Lehrer}</t>
+  </si>
+  <si>
+    <t>Ratscher (m)</t>
+  </si>
+  <si>
+    <t>[A]hmt (s)</t>
+  </si>
+  <si>
+    <t>Güllr (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Gallrüawa (w)</t>
+  </si>
+  <si>
+    <t>Moore (w)</t>
+  </si>
+  <si>
+    <t>Pflüm (w)</t>
+  </si>
+  <si>
+    <t>briala, spetakla</t>
+  </si>
+  <si>
+    <t>Grüsselbeer (w)</t>
+  </si>
+  <si>
+    <t>Stecknadel (w)</t>
+  </si>
+  <si>
+    <t>Strecknadel (w)</t>
+  </si>
+  <si>
+    <t>Tasla (s)</t>
+  </si>
+  <si>
+    <t>Schessel (w)</t>
+  </si>
+  <si>
+    <t>zwiega, aigla</t>
+  </si>
+  <si>
+    <t>III_13_0116</t>
+  </si>
+  <si>
+    <t>o-u</t>
+  </si>
+  <si>
+    <t>Oberenzen</t>
+  </si>
+  <si>
+    <t>Martin Marzell</t>
+  </si>
+  <si>
+    <t>Markolsheim</t>
+  </si>
+  <si>
+    <t>Unter/Els.</t>
+  </si>
+  <si>
+    <t>Omeis</t>
+  </si>
+  <si>
+    <t>Liecht &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Brombera</t>
+  </si>
+  <si>
+    <t>Agerscht</t>
+  </si>
+  <si>
+    <t>Gagummer</t>
+  </si>
+  <si>
+    <t>Butt</t>
+  </si>
+  <si>
+    <t>Güggel, Hüen</t>
+  </si>
+  <si>
+    <t>Hewamm</t>
+  </si>
+  <si>
+    <t>Scharrnieler</t>
+  </si>
+  <si>
+    <t>Rossgallerüewa</t>
+  </si>
+  <si>
+    <t>Pflüm</t>
+  </si>
+  <si>
+    <t>Grüsala</t>
+  </si>
+  <si>
+    <t>Guf</t>
+  </si>
+  <si>
+    <t>Strecknodel</t>
+  </si>
+  <si>
+    <t>Schessala</t>
+  </si>
+  <si>
+    <t>III_13_0144</t>
+  </si>
+  <si>
+    <t>i.B. Altstadt</t>
+  </si>
+  <si>
+    <t>Frnaz Hirtler {wahrscheinlich eher Franz}</t>
+  </si>
+  <si>
+    <t>Freiburg i.Br.</t>
+  </si>
+  <si>
+    <t>Oomeis (w)</t>
+  </si>
+  <si>
+    <t>Dißle</t>
+  </si>
+  <si>
+    <t>Guller (m), Huehn (s)</t>
+  </si>
+  <si>
+    <t>Ärdepfel (m) &lt;nur im Plural gebr.&gt;</t>
+  </si>
+  <si>
+    <t>Schermuus (w)</t>
+  </si>
+  <si>
+    <t>Sau (w)</t>
+  </si>
+  <si>
+    <t>Guuf (w)</t>
+  </si>
+  <si>
+    <t>Schißle (w) &lt;bezw.&gt; Plättli (f), Untertasse</t>
+  </si>
+  <si>
+    <t>III_13_0147</t>
+  </si>
+  <si>
+    <t>E.G. Zähringen</t>
+  </si>
+  <si>
+    <t>Karl Peter</t>
+  </si>
+  <si>
+    <t>mit alten Einwohnern</t>
+  </si>
+  <si>
+    <t>mit der Liich gehe</t>
+  </si>
+  <si>
+    <t>Brummbere</t>
+  </si>
+  <si>
+    <t>Rätscher, Enterich</t>
+  </si>
+  <si>
+    <t>Mugge, Fliege</t>
+  </si>
+  <si>
+    <t>Guhler, Hihner</t>
+  </si>
+  <si>
+    <t>Härtäpfel &lt;Krummbiere&gt;</t>
+  </si>
+  <si>
+    <t>Gelruebe</t>
+  </si>
+  <si>
+    <t>Geddi</t>
+  </si>
+  <si>
+    <t>schelde, pfuddere</t>
+  </si>
+  <si>
+    <t>Gruselbeer</t>
+  </si>
+  <si>
+    <t>Schißle</t>
+  </si>
+  <si>
+    <t>Pfropfe</t>
+  </si>
+  <si>
+    <t>Gaiße</t>
+  </si>
+  <si>
+    <t>III_13_0148</t>
+  </si>
+  <si>
+    <t>p-e</t>
+  </si>
+  <si>
+    <t>im Breisgau</t>
+  </si>
+  <si>
+    <t>J.L.Wohleb</t>
+  </si>
+  <si>
+    <t>Deichsel</t>
+  </si>
+  <si>
+    <t>Gurke, Gugummere</t>
+  </si>
+  <si>
+    <t>Hahn, Henne</t>
+  </si>
+  <si>
+    <t>Scheermaus</t>
+  </si>
+  <si>
+    <t>Gelberübe</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>Götte</t>
+  </si>
+  <si>
+    <t>Stecknadel, Gufe</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssel</t>
+  </si>
+  <si>
+    <t>Hü[y]elsheim</t>
+  </si>
+  <si>
+    <t>i. Müllhe[im]</t>
+  </si>
+  <si>
+    <t>Ēmd (s)</t>
+  </si>
+  <si>
+    <t>S'</t>
+  </si>
+  <si>
+    <t>III_12_0003</t>
+  </si>
+  <si>
+    <t>24-50</t>
+  </si>
+  <si>
+    <t>48,10</t>
+  </si>
+  <si>
+    <t>[r]-R</t>
+  </si>
+  <si>
+    <t>Tannenkirch</t>
+  </si>
+  <si>
+    <t>Rappoltsweiler</t>
+  </si>
+  <si>
+    <t>Bohn</t>
+  </si>
+  <si>
+    <t>Reichsfeld</t>
+  </si>
+  <si>
+    <t>Kreis Schlettstadt</t>
+  </si>
+  <si>
+    <t>Umeis (w)</t>
+  </si>
+  <si>
+    <t>Brumer (w)</t>
+  </si>
+  <si>
+    <t>Kaas, atzel (w)</t>
+  </si>
+  <si>
+    <t>Anta, ratscher (m)</t>
+  </si>
+  <si>
+    <t>Uhmat (s)</t>
+  </si>
+  <si>
+    <t>Gugumer (w)</t>
+  </si>
+  <si>
+    <t>Butt (w)</t>
+  </si>
+  <si>
+    <t>Güller (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Schalniëler (m)</t>
+  </si>
+  <si>
+    <t>Gali Rüawa</t>
+  </si>
+  <si>
+    <t>Muhr (w)</t>
+  </si>
+  <si>
+    <t>Guff (w)</t>
+  </si>
+  <si>
+    <t>Schtrecknudel (w)</t>
+  </si>
+  <si>
+    <t>Tassel (s'), Tallerla (s', s)</t>
+  </si>
+  <si>
+    <t>H[ā]fa (m)</t>
+  </si>
+  <si>
+    <t>zweja</t>
+  </si>
+  <si>
+    <t>Söhnsfräu (w)</t>
+  </si>
+  <si>
+    <t>Häulard (m)</t>
+  </si>
+  <si>
+    <t>III_12_0007</t>
+  </si>
+  <si>
+    <t>[r]-V</t>
+  </si>
+  <si>
+    <t>Zellenberg</t>
+  </si>
+  <si>
+    <t>Adolf Klemm</t>
+  </si>
+  <si>
+    <t>Mannheim</t>
+  </si>
+  <si>
+    <t>deutscher Sprachkurs</t>
+  </si>
+  <si>
+    <t>Liechd</t>
+  </si>
+  <si>
+    <t>Bruhmre</t>
+  </si>
+  <si>
+    <t>Atzl</t>
+  </si>
+  <si>
+    <t>Enderatscher</t>
+  </si>
+  <si>
+    <t>Fladdermühs</t>
+  </si>
+  <si>
+    <t>Ohmet</t>
+  </si>
+  <si>
+    <t>Güller, Hüehn</t>
+  </si>
+  <si>
+    <t>Hardäpfl, Grummbeere</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Scharnialer</t>
+  </si>
+  <si>
+    <t>999 &lt;?&gt;</t>
+  </si>
+  <si>
+    <t>Bfettr</t>
+  </si>
+  <si>
+    <t>Spotz {eventuell noch ein i oder j nach dem o}</t>
+  </si>
+  <si>
+    <t>Grüssla</t>
+  </si>
+  <si>
+    <t>Guuf</t>
+  </si>
+  <si>
+    <t>Stricknoodl</t>
+  </si>
+  <si>
+    <t>Doss</t>
+  </si>
+  <si>
+    <t>Hoofa</t>
+  </si>
+  <si>
+    <t>zwija</t>
+  </si>
+  <si>
+    <t>Schwejersohn</t>
+  </si>
 </sst>
 </file>
 
@@ -6063,18 +6873,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -6146,7 +6950,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6156,12 +6960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6482,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="AQ54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ83" sqref="AZ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6509,7 +7311,8 @@
     <col min="32" max="32" width="16.59765625" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
     <col min="34" max="34" width="21.19921875" customWidth="1"/>
-    <col min="35" max="45" width="10.69921875" customWidth="1"/>
+    <col min="35" max="44" width="10.69921875" customWidth="1"/>
+    <col min="45" max="45" width="14.5" customWidth="1"/>
     <col min="46" max="46" width="16.09765625" customWidth="1"/>
     <col min="47" max="47" width="21.19921875" customWidth="1"/>
     <col min="48" max="50" width="10.69921875" customWidth="1"/>
@@ -15249,7 +16052,7 @@
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="2">
         <v>44769</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -15410,154 +16213,154 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="2">
         <v>44769</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" t="s">
         <v>1118</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57">
         <v>8</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57">
         <v>3</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" t="s">
         <v>1439</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" t="s">
         <v>97</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" t="s">
         <v>1440</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" t="s">
         <v>1441</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" t="s">
         <v>1442</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" t="s">
         <v>1443</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" t="s">
         <v>1444</v>
       </c>
-      <c r="O57" s="9" t="s">
+      <c r="O57" t="s">
         <v>139</v>
       </c>
-      <c r="P57" s="9" t="s">
+      <c r="P57" t="s">
         <v>1445</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="Q57" t="s">
         <v>1446</v>
       </c>
-      <c r="R57" s="9">
-        <v>999</v>
-      </c>
-      <c r="S57" s="9" t="s">
+      <c r="R57">
+        <v>999</v>
+      </c>
+      <c r="S57" t="s">
         <v>103</v>
       </c>
-      <c r="T57" s="9" t="s">
+      <c r="T57" t="s">
         <v>245</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="V57" s="9" t="s">
+      <c r="V57" t="s">
         <v>1252</v>
       </c>
-      <c r="W57" s="9" t="s">
+      <c r="W57" t="s">
         <v>427</v>
       </c>
-      <c r="X57" s="9" t="s">
+      <c r="X57" t="s">
         <v>428</v>
       </c>
-      <c r="Y57" s="9" t="s">
+      <c r="Y57" t="s">
         <v>375</v>
       </c>
       <c r="Z57">
         <v>999</v>
       </c>
-      <c r="AA57" s="9" t="s">
+      <c r="AA57" t="s">
         <v>1448</v>
       </c>
-      <c r="AB57" s="9" t="s">
+      <c r="AB57" t="s">
         <v>226</v>
       </c>
-      <c r="AC57" s="9" t="s">
+      <c r="AC57" t="s">
         <v>1449</v>
       </c>
-      <c r="AD57" s="9" t="s">
+      <c r="AD57" t="s">
         <v>1450</v>
       </c>
-      <c r="AE57" s="9" t="s">
+      <c r="AE57" t="s">
         <v>228</v>
       </c>
-      <c r="AF57" s="9" t="s">
+      <c r="AF57" t="s">
         <v>115</v>
       </c>
-      <c r="AG57" s="9" t="s">
+      <c r="AG57" t="s">
         <v>1451</v>
       </c>
-      <c r="AH57" s="9" t="s">
+      <c r="AH57" t="s">
         <v>117</v>
       </c>
-      <c r="AI57" s="9" t="s">
+      <c r="AI57" t="s">
         <v>622</v>
       </c>
-      <c r="AJ57" s="9" t="s">
+      <c r="AJ57" t="s">
         <v>1452</v>
       </c>
-      <c r="AK57" s="9" t="s">
+      <c r="AK57" t="s">
         <v>288</v>
       </c>
-      <c r="AL57" s="9" t="s">
+      <c r="AL57" t="s">
         <v>1453</v>
       </c>
-      <c r="AM57" s="9" t="s">
+      <c r="AM57" t="s">
         <v>121</v>
       </c>
-      <c r="AN57" s="9" t="s">
+      <c r="AN57" t="s">
         <v>1454</v>
       </c>
-      <c r="AO57" s="9" t="s">
+      <c r="AO57" t="s">
         <v>1455</v>
       </c>
-      <c r="AP57" s="9" t="s">
+      <c r="AP57" t="s">
         <v>259</v>
       </c>
-      <c r="AQ57" s="9" t="s">
+      <c r="AQ57" t="s">
         <v>1456</v>
       </c>
-      <c r="AR57" s="9" t="s">
+      <c r="AR57" t="s">
         <v>202</v>
       </c>
-      <c r="AS57" s="9" t="s">
+      <c r="AS57" t="s">
         <v>1366</v>
       </c>
-      <c r="AT57" s="9" t="s">
+      <c r="AT57" t="s">
         <v>1457</v>
       </c>
-      <c r="AU57" s="9" t="s">
+      <c r="AU57" t="s">
         <v>520</v>
       </c>
-      <c r="AV57" s="9" t="s">
+      <c r="AV57" t="s">
         <v>1458</v>
       </c>
-      <c r="AW57" s="9" t="s">
+      <c r="AW57" t="s">
         <v>1459</v>
       </c>
-      <c r="AX57" s="9" t="s">
+      <c r="AX57" t="s">
         <v>1460</v>
       </c>
       <c r="AY57" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AZ57" s="9" t="s">
+      <c r="AZ57" t="s">
         <v>1462</v>
       </c>
       <c r="BA57" s="1" t="s">
@@ -15568,154 +16371,154 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="2">
         <v>44769</v>
       </c>
       <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" t="s">
         <v>1547</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58">
         <v>8</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58">
         <v>5</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" t="s">
         <v>1463</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" t="s">
         <v>97</v>
       </c>
       <c r="I58" t="s">
         <v>1440</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" t="s">
         <v>1441</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" t="s">
         <v>1464</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" t="s">
         <v>1465</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" t="s">
         <v>984</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="O58" t="s">
         <v>139</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="P58" t="s">
         <v>1466</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="Q58" t="s">
         <v>551</v>
       </c>
-      <c r="R58" s="9">
+      <c r="R58">
         <v>999</v>
       </c>
       <c r="S58">
         <v>999</v>
       </c>
-      <c r="T58" s="9" t="s">
+      <c r="T58" t="s">
         <v>1467</v>
       </c>
       <c r="U58" s="1">
         <v>999</v>
       </c>
-      <c r="V58" s="9" t="s">
+      <c r="V58" t="s">
         <v>1468</v>
       </c>
-      <c r="W58" s="9" t="s">
+      <c r="W58" t="s">
         <v>1469</v>
       </c>
-      <c r="X58" s="9" t="s">
+      <c r="X58" t="s">
         <v>700</v>
       </c>
-      <c r="Y58" s="9" t="s">
+      <c r="Y58" t="s">
         <v>1162</v>
       </c>
-      <c r="Z58" s="9" t="s">
+      <c r="Z58" t="s">
         <v>1470</v>
       </c>
-      <c r="AA58" s="9" t="s">
+      <c r="AA58" t="s">
         <v>1471</v>
       </c>
-      <c r="AB58" s="9" t="s">
+      <c r="AB58" t="s">
         <v>1472</v>
       </c>
-      <c r="AC58" s="9" t="s">
+      <c r="AC58" t="s">
         <v>1473</v>
       </c>
-      <c r="AD58" s="9" t="s">
+      <c r="AD58" t="s">
         <v>72</v>
       </c>
-      <c r="AE58" s="9" t="s">
+      <c r="AE58" t="s">
         <v>1474</v>
       </c>
-      <c r="AF58" s="9" t="s">
+      <c r="AF58" t="s">
         <v>1475</v>
       </c>
-      <c r="AG58" s="9" t="s">
+      <c r="AG58" t="s">
         <v>1476</v>
       </c>
-      <c r="AH58" s="9" t="s">
+      <c r="AH58" t="s">
         <v>1477</v>
       </c>
-      <c r="AI58" s="9" t="s">
+      <c r="AI58" t="s">
         <v>384</v>
       </c>
-      <c r="AJ58" s="9" t="s">
+      <c r="AJ58" t="s">
         <v>385</v>
       </c>
-      <c r="AK58" s="9" t="s">
+      <c r="AK58" t="s">
         <v>647</v>
       </c>
-      <c r="AL58" s="9" t="s">
+      <c r="AL58" t="s">
         <v>1478</v>
       </c>
-      <c r="AM58" s="9" t="s">
+      <c r="AM58" t="s">
         <v>1479</v>
       </c>
-      <c r="AN58" s="9" t="s">
+      <c r="AN58" t="s">
         <v>1480</v>
       </c>
-      <c r="AO58" s="9" t="s">
+      <c r="AO58" t="s">
         <v>1481</v>
       </c>
-      <c r="AP58" s="9" t="s">
+      <c r="AP58" t="s">
         <v>601</v>
       </c>
-      <c r="AQ58" s="9" t="s">
+      <c r="AQ58" t="s">
         <v>1482</v>
       </c>
-      <c r="AR58" s="9" t="s">
+      <c r="AR58" t="s">
         <v>295</v>
       </c>
-      <c r="AS58" s="9" t="s">
+      <c r="AS58" t="s">
         <v>1483</v>
       </c>
-      <c r="AT58" s="9" t="s">
+      <c r="AT58" t="s">
         <v>1484</v>
       </c>
-      <c r="AU58" s="9" t="s">
+      <c r="AU58" t="s">
         <v>1485</v>
       </c>
-      <c r="AV58" s="9" t="s">
+      <c r="AV58" t="s">
         <v>1486</v>
       </c>
-      <c r="AW58" s="9" t="s">
+      <c r="AW58" t="s">
         <v>1487</v>
       </c>
-      <c r="AX58" s="9" t="s">
+      <c r="AX58" t="s">
         <v>419</v>
       </c>
       <c r="AY58" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AZ58" s="9" t="s">
+      <c r="AZ58" t="s">
         <v>1489</v>
       </c>
       <c r="BA58" s="1" t="s">
@@ -15726,154 +16529,154 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="2">
         <v>44769</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" t="s">
         <v>1547</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59">
         <v>8</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59">
         <v>7</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" t="s">
         <v>1490</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" t="s">
         <v>97</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" t="s">
         <v>1440</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" t="s">
         <v>1441</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" t="s">
         <v>1491</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" t="s">
         <v>1492</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" t="s">
         <v>1444</v>
       </c>
-      <c r="O59" s="9" t="s">
+      <c r="O59" t="s">
         <v>61</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" t="s">
         <v>1493</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="Q59" t="s">
         <v>1494</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="R59" t="s">
         <v>1103</v>
       </c>
       <c r="S59">
         <v>999</v>
       </c>
-      <c r="T59" s="9" t="s">
+      <c r="T59" t="s">
         <v>245</v>
       </c>
       <c r="U59" s="1">
         <v>999</v>
       </c>
-      <c r="V59" s="9" t="s">
+      <c r="V59" t="s">
         <v>1495</v>
       </c>
-      <c r="W59" s="9" t="s">
+      <c r="W59" t="s">
         <v>482</v>
       </c>
-      <c r="X59" s="9" t="s">
+      <c r="X59" t="s">
         <v>1496</v>
       </c>
-      <c r="Y59" s="9" t="s">
+      <c r="Y59" t="s">
         <v>457</v>
       </c>
-      <c r="Z59" s="9" t="s">
+      <c r="Z59" t="s">
         <v>277</v>
       </c>
-      <c r="AA59" s="9" t="s">
+      <c r="AA59" t="s">
         <v>377</v>
       </c>
-      <c r="AB59" s="9" t="s">
+      <c r="AB59" t="s">
         <v>590</v>
       </c>
-      <c r="AC59" s="9" t="s">
+      <c r="AC59" t="s">
         <v>1473</v>
       </c>
-      <c r="AD59" s="9" t="s">
+      <c r="AD59" t="s">
         <v>1497</v>
       </c>
-      <c r="AE59" s="9" t="s">
+      <c r="AE59" t="s">
         <v>1498</v>
       </c>
-      <c r="AF59" s="9" t="s">
+      <c r="AF59" t="s">
         <v>1499</v>
       </c>
-      <c r="AG59" s="9" t="s">
+      <c r="AG59" t="s">
         <v>1500</v>
       </c>
-      <c r="AH59" s="9" t="s">
+      <c r="AH59" t="s">
         <v>1501</v>
       </c>
-      <c r="AI59" s="9" t="s">
+      <c r="AI59" t="s">
         <v>384</v>
       </c>
-      <c r="AJ59" s="9" t="s">
+      <c r="AJ59" t="s">
         <v>1502</v>
       </c>
-      <c r="AK59" s="9" t="s">
+      <c r="AK59" t="s">
         <v>1503</v>
       </c>
-      <c r="AL59" s="9" t="s">
+      <c r="AL59" t="s">
         <v>1504</v>
       </c>
-      <c r="AM59" s="9" t="s">
+      <c r="AM59" t="s">
         <v>830</v>
       </c>
-      <c r="AN59" s="9" t="s">
+      <c r="AN59" t="s">
         <v>1505</v>
       </c>
-      <c r="AO59" s="9" t="s">
+      <c r="AO59" t="s">
         <v>1481</v>
       </c>
-      <c r="AP59" s="9" t="s">
+      <c r="AP59" t="s">
         <v>1506</v>
       </c>
-      <c r="AQ59" s="9" t="s">
+      <c r="AQ59" t="s">
         <v>85</v>
       </c>
-      <c r="AR59" s="9" t="s">
+      <c r="AR59" t="s">
         <v>525</v>
       </c>
-      <c r="AS59" s="9" t="s">
+      <c r="AS59" t="s">
         <v>1507</v>
       </c>
-      <c r="AT59" s="9" t="s">
+      <c r="AT59" t="s">
         <v>1508</v>
       </c>
-      <c r="AU59" s="9" t="s">
+      <c r="AU59" t="s">
         <v>1509</v>
       </c>
-      <c r="AV59" s="9" t="s">
+      <c r="AV59" t="s">
         <v>1510</v>
       </c>
-      <c r="AW59" s="9" t="s">
+      <c r="AW59" t="s">
         <v>1511</v>
       </c>
-      <c r="AX59" s="9" t="s">
+      <c r="AX59" t="s">
         <v>498</v>
       </c>
       <c r="AY59" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ59" s="9" t="s">
+      <c r="AZ59" t="s">
         <v>1513</v>
       </c>
       <c r="BA59" s="1" t="s">
@@ -15884,155 +16687,154 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="2">
         <v>44769</v>
       </c>
       <c r="C60" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" t="s">
         <v>1547</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60">
         <v>11</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" t="s">
         <v>1548</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" t="s">
         <v>213</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" t="s">
         <v>500</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" t="s">
         <v>1441</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="K60" t="s">
         <v>1514</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L60" t="s">
         <v>1515</v>
       </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9" t="s">
+      <c r="N60" t="s">
         <v>1516</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="O60" t="s">
         <v>561</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="P60" t="s">
         <v>1517</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="Q60" t="s">
         <v>1518</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R60">
         <v>999</v>
       </c>
       <c r="S60">
         <v>999</v>
       </c>
-      <c r="T60" s="9" t="s">
+      <c r="T60" t="s">
         <v>1519</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="V60" s="9" t="s">
+      <c r="V60" t="s">
         <v>1521</v>
       </c>
-      <c r="W60" s="9" t="s">
+      <c r="W60" t="s">
         <v>667</v>
       </c>
-      <c r="X60" s="9" t="s">
+      <c r="X60" t="s">
         <v>1522</v>
       </c>
-      <c r="Y60" s="9" t="s">
+      <c r="Y60" t="s">
         <v>1523</v>
       </c>
-      <c r="Z60" s="9" t="s">
+      <c r="Z60" t="s">
         <v>1524</v>
       </c>
-      <c r="AA60" s="9" t="s">
+      <c r="AA60" t="s">
         <v>1471</v>
       </c>
-      <c r="AB60" s="9" t="s">
+      <c r="AB60" t="s">
         <v>671</v>
       </c>
-      <c r="AC60" s="9" t="s">
+      <c r="AC60" t="s">
         <v>1525</v>
       </c>
-      <c r="AD60" s="9" t="s">
+      <c r="AD60" t="s">
         <v>1526</v>
       </c>
-      <c r="AE60" s="9" t="s">
+      <c r="AE60" t="s">
         <v>1527</v>
       </c>
-      <c r="AF60" s="9" t="s">
+      <c r="AF60" t="s">
         <v>1528</v>
       </c>
-      <c r="AG60" s="9" t="s">
+      <c r="AG60" t="s">
         <v>1529</v>
       </c>
-      <c r="AH60" s="9" t="s">
+      <c r="AH60" t="s">
         <v>1530</v>
       </c>
-      <c r="AI60" s="9" t="s">
+      <c r="AI60" t="s">
         <v>676</v>
       </c>
-      <c r="AJ60" s="9" t="s">
+      <c r="AJ60" t="s">
         <v>1531</v>
       </c>
-      <c r="AK60" s="9" t="s">
+      <c r="AK60" t="s">
         <v>1532</v>
       </c>
-      <c r="AL60" s="9" t="s">
+      <c r="AL60" t="s">
         <v>1533</v>
       </c>
-      <c r="AM60" s="9" t="s">
+      <c r="AM60" t="s">
         <v>1534</v>
       </c>
-      <c r="AN60" s="9" t="s">
+      <c r="AN60" t="s">
         <v>1535</v>
       </c>
-      <c r="AO60" s="9" t="s">
+      <c r="AO60" t="s">
         <v>1536</v>
       </c>
-      <c r="AP60" s="9" t="s">
+      <c r="AP60" t="s">
         <v>1537</v>
       </c>
-      <c r="AQ60" s="9" t="s">
+      <c r="AQ60" t="s">
         <v>557</v>
       </c>
-      <c r="AR60" s="9" t="s">
+      <c r="AR60" t="s">
         <v>1538</v>
       </c>
-      <c r="AS60" s="9" t="s">
+      <c r="AS60" t="s">
         <v>1539</v>
       </c>
-      <c r="AT60" s="9" t="s">
+      <c r="AT60" t="s">
         <v>1540</v>
       </c>
-      <c r="AU60" s="9" t="s">
+      <c r="AU60" t="s">
         <v>1541</v>
       </c>
-      <c r="AV60" s="9" t="s">
+      <c r="AV60" t="s">
         <v>1542</v>
       </c>
-      <c r="AW60" s="9" t="s">
+      <c r="AW60" t="s">
         <v>1543</v>
       </c>
-      <c r="AX60" s="9" t="s">
+      <c r="AX60" t="s">
         <v>419</v>
       </c>
       <c r="AY60" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="AZ60" s="9" t="s">
+      <c r="AZ60" t="s">
         <v>1546</v>
       </c>
       <c r="BA60" s="1" t="s">
@@ -16043,154 +16845,154 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="2">
         <v>44769</v>
       </c>
       <c r="C61" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" t="s">
         <v>1547</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61">
         <v>16</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61">
         <v>3</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" t="s">
         <v>1619</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" t="s">
         <v>1549</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" t="s">
         <v>1441</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K61" t="s">
         <v>1550</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" t="s">
         <v>1551</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" t="s">
         <v>1552</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" t="s">
         <v>103</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" t="s">
         <v>1553</v>
       </c>
-      <c r="Q61" s="9" t="s">
+      <c r="Q61" t="s">
         <v>918</v>
       </c>
-      <c r="R61" s="9">
-        <v>999</v>
-      </c>
-      <c r="S61" s="9" t="s">
+      <c r="R61">
+        <v>999</v>
+      </c>
+      <c r="S61" t="s">
         <v>103</v>
       </c>
-      <c r="T61" s="9" t="s">
+      <c r="T61" t="s">
         <v>1519</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="V61" s="9" t="s">
+      <c r="V61" t="s">
         <v>1555</v>
       </c>
-      <c r="W61" s="9" t="s">
+      <c r="W61" t="s">
         <v>455</v>
       </c>
-      <c r="X61" s="9" t="s">
+      <c r="X61" t="s">
         <v>275</v>
       </c>
-      <c r="Y61" s="9" t="s">
+      <c r="Y61" t="s">
         <v>1556</v>
       </c>
-      <c r="Z61" s="9" t="s">
+      <c r="Z61" t="s">
         <v>1557</v>
       </c>
-      <c r="AA61" s="9" t="s">
+      <c r="AA61" t="s">
         <v>1558</v>
       </c>
-      <c r="AB61" s="9" t="s">
+      <c r="AB61" t="s">
         <v>1559</v>
       </c>
-      <c r="AC61" s="9" t="s">
+      <c r="AC61" t="s">
         <v>322</v>
       </c>
-      <c r="AD61" s="9" t="s">
+      <c r="AD61" t="s">
         <v>487</v>
       </c>
-      <c r="AE61" s="9" t="s">
+      <c r="AE61" t="s">
         <v>282</v>
       </c>
-      <c r="AF61" s="9" t="s">
+      <c r="AF61" t="s">
         <v>1410</v>
       </c>
-      <c r="AG61" s="9" t="s">
+      <c r="AG61" t="s">
         <v>1560</v>
       </c>
-      <c r="AH61" s="9" t="s">
+      <c r="AH61" t="s">
         <v>117</v>
       </c>
-      <c r="AI61" s="9" t="s">
+      <c r="AI61" t="s">
         <v>1561</v>
       </c>
-      <c r="AJ61" s="9" t="s">
+      <c r="AJ61" t="s">
         <v>1502</v>
       </c>
-      <c r="AK61" s="9" t="s">
+      <c r="AK61" t="s">
         <v>1429</v>
       </c>
-      <c r="AL61" s="9" t="s">
+      <c r="AL61" t="s">
         <v>1562</v>
       </c>
-      <c r="AM61" s="9" t="s">
+      <c r="AM61" t="s">
         <v>830</v>
       </c>
-      <c r="AN61" s="9" t="s">
+      <c r="AN61" t="s">
         <v>555</v>
       </c>
-      <c r="AO61" s="9" t="s">
+      <c r="AO61" t="s">
         <v>1563</v>
       </c>
-      <c r="AP61" s="9" t="s">
+      <c r="AP61" t="s">
         <v>293</v>
       </c>
-      <c r="AQ61" s="9" t="s">
+      <c r="AQ61" t="s">
         <v>1564</v>
       </c>
-      <c r="AR61" s="9" t="s">
+      <c r="AR61" t="s">
         <v>165</v>
       </c>
-      <c r="AS61" s="9" t="s">
+      <c r="AS61" t="s">
         <v>1565</v>
       </c>
-      <c r="AT61" s="9" t="s">
+      <c r="AT61" t="s">
         <v>1566</v>
       </c>
-      <c r="AU61" s="9" t="s">
+      <c r="AU61" t="s">
         <v>1567</v>
       </c>
-      <c r="AV61" s="9" t="s">
+      <c r="AV61" t="s">
         <v>1568</v>
       </c>
-      <c r="AW61" s="9" t="s">
+      <c r="AW61" t="s">
         <v>394</v>
       </c>
-      <c r="AX61" s="9" t="s">
+      <c r="AX61" t="s">
         <v>1569</v>
       </c>
       <c r="AY61" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="AZ61" s="9" t="s">
+      <c r="AZ61" t="s">
         <v>303</v>
       </c>
       <c r="BA61" s="1" t="s">
@@ -16201,154 +17003,154 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="2">
         <v>44769</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" t="s">
         <v>1547</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62">
         <v>16</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" t="s">
         <v>1620</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" t="s">
         <v>97</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" t="s">
         <v>1549</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" t="s">
         <v>1441</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="K62" t="s">
         <v>1572</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" t="s">
         <v>1573</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" t="s">
         <v>1574</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" t="s">
         <v>1249</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" t="s">
         <v>1575</v>
       </c>
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" t="s">
         <v>1576</v>
       </c>
-      <c r="R62" s="9" t="s">
+      <c r="R62" t="s">
         <v>1577</v>
       </c>
-      <c r="S62" s="9">
-        <v>999</v>
-      </c>
-      <c r="T62" s="9" t="s">
+      <c r="S62">
+        <v>999</v>
+      </c>
+      <c r="T62" t="s">
         <v>64</v>
       </c>
       <c r="U62" s="1">
         <v>999</v>
       </c>
-      <c r="V62" s="9" t="s">
+      <c r="V62" t="s">
         <v>1252</v>
       </c>
-      <c r="W62" s="9" t="s">
+      <c r="W62" t="s">
         <v>1578</v>
       </c>
-      <c r="X62" s="9" t="s">
+      <c r="X62" t="s">
         <v>428</v>
       </c>
-      <c r="Y62" s="9" t="s">
+      <c r="Y62" t="s">
         <v>248</v>
       </c>
-      <c r="Z62" s="9" t="s">
+      <c r="Z62" t="s">
         <v>185</v>
       </c>
-      <c r="AA62" s="9" t="s">
+      <c r="AA62" t="s">
         <v>250</v>
       </c>
-      <c r="AB62" s="9" t="s">
+      <c r="AB62" t="s">
         <v>431</v>
       </c>
-      <c r="AC62" s="9" t="s">
+      <c r="AC62" t="s">
         <v>252</v>
       </c>
-      <c r="AD62" s="9" t="s">
+      <c r="AD62" t="s">
         <v>189</v>
       </c>
-      <c r="AE62" s="9" t="s">
+      <c r="AE62" t="s">
         <v>1579</v>
       </c>
-      <c r="AF62" s="9" t="s">
+      <c r="AF62" t="s">
         <v>229</v>
       </c>
-      <c r="AG62" s="9" t="s">
+      <c r="AG62" t="s">
         <v>1580</v>
       </c>
-      <c r="AH62" s="9" t="s">
+      <c r="AH62" t="s">
         <v>1581</v>
       </c>
-      <c r="AI62" s="9" t="s">
+      <c r="AI62" t="s">
         <v>1582</v>
       </c>
-      <c r="AJ62" s="9" t="s">
+      <c r="AJ62" t="s">
         <v>1583</v>
       </c>
-      <c r="AK62" s="9" t="s">
+      <c r="AK62" t="s">
         <v>1584</v>
       </c>
-      <c r="AL62" s="9" t="s">
+      <c r="AL62" t="s">
         <v>573</v>
       </c>
-      <c r="AM62" s="9" t="s">
+      <c r="AM62" t="s">
         <v>121</v>
       </c>
-      <c r="AN62" s="9" t="s">
+      <c r="AN62" t="s">
         <v>198</v>
       </c>
-      <c r="AO62" s="9" t="s">
+      <c r="AO62" t="s">
         <v>1585</v>
       </c>
-      <c r="AP62" s="9" t="s">
+      <c r="AP62" t="s">
         <v>1586</v>
       </c>
-      <c r="AQ62" s="9" t="s">
+      <c r="AQ62" t="s">
         <v>1433</v>
       </c>
-      <c r="AR62" s="9" t="s">
+      <c r="AR62" t="s">
         <v>86</v>
       </c>
-      <c r="AS62" s="9" t="s">
+      <c r="AS62" t="s">
         <v>1587</v>
       </c>
-      <c r="AT62" s="9" t="s">
+      <c r="AT62" t="s">
         <v>1588</v>
       </c>
-      <c r="AU62" s="9" t="s">
+      <c r="AU62" t="s">
         <v>263</v>
       </c>
-      <c r="AV62" s="9" t="s">
+      <c r="AV62" t="s">
         <v>1589</v>
       </c>
-      <c r="AW62" s="9" t="s">
+      <c r="AW62" t="s">
         <v>1590</v>
       </c>
-      <c r="AX62" s="9" t="s">
+      <c r="AX62" t="s">
         <v>208</v>
       </c>
       <c r="AY62" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="AZ62" s="9" t="s">
+      <c r="AZ62" t="s">
         <v>211</v>
       </c>
       <c r="BA62" s="1" t="s">
@@ -16359,154 +17161,154 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="2">
         <v>44769</v>
       </c>
       <c r="C63" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" t="s">
         <v>1547</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63">
         <v>16</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63">
         <v>5</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" t="s">
         <v>1621</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" t="s">
         <v>1549</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" t="s">
         <v>1441</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" t="s">
         <v>1592</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" t="s">
         <v>1593</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" t="s">
         <v>1594</v>
       </c>
       <c r="O63">
         <v>999</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" t="s">
         <v>1595</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" t="s">
         <v>1596</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="R63" t="s">
         <v>1597</v>
       </c>
-      <c r="S63" s="9">
-        <v>999</v>
-      </c>
-      <c r="T63" s="9" t="s">
+      <c r="S63">
+        <v>999</v>
+      </c>
+      <c r="T63" t="s">
         <v>142</v>
       </c>
       <c r="U63" s="1">
         <v>999</v>
       </c>
-      <c r="V63" s="9" t="s">
+      <c r="V63" t="s">
         <v>1252</v>
       </c>
-      <c r="W63" s="9" t="s">
+      <c r="W63" t="s">
         <v>1598</v>
       </c>
-      <c r="X63" s="9" t="s">
+      <c r="X63" t="s">
         <v>428</v>
       </c>
-      <c r="Y63" s="9" t="s">
+      <c r="Y63" t="s">
         <v>1599</v>
       </c>
-      <c r="Z63" s="9" t="s">
+      <c r="Z63" t="s">
         <v>1600</v>
       </c>
-      <c r="AA63" s="9" t="s">
+      <c r="AA63" t="s">
         <v>1255</v>
       </c>
-      <c r="AB63" s="9" t="s">
+      <c r="AB63" t="s">
         <v>187</v>
       </c>
-      <c r="AC63" s="9" t="s">
+      <c r="AC63" t="s">
         <v>252</v>
       </c>
-      <c r="AD63" s="9" t="s">
+      <c r="AD63" t="s">
         <v>618</v>
       </c>
-      <c r="AE63" s="9" t="s">
+      <c r="AE63" t="s">
         <v>190</v>
       </c>
-      <c r="AF63" s="9" t="s">
+      <c r="AF63" t="s">
         <v>1601</v>
       </c>
-      <c r="AG63" s="9" t="s">
+      <c r="AG63" t="s">
         <v>1602</v>
       </c>
-      <c r="AH63" s="9" t="s">
+      <c r="AH63" t="s">
         <v>117</v>
       </c>
-      <c r="AI63" s="9" t="s">
+      <c r="AI63" t="s">
         <v>1603</v>
       </c>
-      <c r="AJ63" s="9" t="s">
+      <c r="AJ63" t="s">
         <v>1604</v>
       </c>
-      <c r="AK63" s="9" t="s">
+      <c r="AK63" t="s">
         <v>1605</v>
       </c>
-      <c r="AL63" s="9" t="s">
+      <c r="AL63" t="s">
         <v>1606</v>
       </c>
-      <c r="AM63" s="9" t="s">
+      <c r="AM63" t="s">
         <v>1607</v>
       </c>
-      <c r="AN63" s="9" t="s">
+      <c r="AN63" t="s">
         <v>1608</v>
       </c>
-      <c r="AO63" s="9" t="s">
+      <c r="AO63" t="s">
         <v>1609</v>
       </c>
-      <c r="AP63" s="9" t="s">
+      <c r="AP63" t="s">
         <v>1586</v>
       </c>
-      <c r="AQ63" s="9" t="s">
+      <c r="AQ63" t="s">
         <v>1433</v>
       </c>
-      <c r="AR63" s="9" t="s">
+      <c r="AR63" t="s">
         <v>1610</v>
       </c>
-      <c r="AS63" s="9" t="s">
+      <c r="AS63" t="s">
         <v>888</v>
       </c>
-      <c r="AT63" s="9" t="s">
+      <c r="AT63" t="s">
         <v>1611</v>
       </c>
-      <c r="AU63" s="9" t="s">
+      <c r="AU63" t="s">
         <v>1612</v>
       </c>
-      <c r="AV63" s="9" t="s">
+      <c r="AV63" t="s">
         <v>1613</v>
       </c>
-      <c r="AW63" s="9" t="s">
+      <c r="AW63" t="s">
         <v>1614</v>
       </c>
-      <c r="AX63" s="9" t="s">
+      <c r="AX63" t="s">
         <v>1615</v>
       </c>
       <c r="AY63" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="AZ63" s="9" t="s">
+      <c r="AZ63" t="s">
         <v>211</v>
       </c>
       <c r="BA63" s="1" t="s">
@@ -16517,49 +17319,49 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="2">
         <v>44769</v>
       </c>
       <c r="C64" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" t="s">
         <v>1618</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64">
         <v>8</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" t="s">
         <v>1622</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" t="s">
         <v>1440</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" t="s">
         <v>1623</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="K64" t="s">
         <v>1624</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="L64" t="s">
         <v>1625</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" t="s">
         <v>1444</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="O64" t="s">
         <v>139</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="P64" t="s">
         <v>1626</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" t="s">
         <v>1627</v>
       </c>
       <c r="R64">
@@ -16568,103 +17370,103 @@
       <c r="S64" t="s">
         <v>1628</v>
       </c>
-      <c r="T64" s="9" t="s">
+      <c r="T64" t="s">
         <v>142</v>
       </c>
       <c r="U64" s="1">
         <v>999</v>
       </c>
-      <c r="V64" s="9" t="s">
+      <c r="V64" t="s">
         <v>1629</v>
       </c>
-      <c r="W64" s="9" t="s">
+      <c r="W64" t="s">
         <v>401</v>
       </c>
-      <c r="X64" s="9" t="s">
+      <c r="X64" t="s">
         <v>345</v>
       </c>
-      <c r="Y64" s="9" t="s">
+      <c r="Y64" t="s">
         <v>375</v>
       </c>
-      <c r="Z64" s="9" t="s">
+      <c r="Z64" t="s">
         <v>1254</v>
       </c>
-      <c r="AA64" s="9" t="s">
+      <c r="AA64" t="s">
         <v>430</v>
       </c>
-      <c r="AB64" s="9" t="s">
+      <c r="AB64" t="s">
         <v>1630</v>
       </c>
-      <c r="AC64" s="9" t="s">
+      <c r="AC64" t="s">
         <v>757</v>
       </c>
-      <c r="AD64" s="9" t="s">
+      <c r="AD64" t="s">
         <v>925</v>
       </c>
-      <c r="AE64" s="9" t="s">
+      <c r="AE64" t="s">
         <v>1631</v>
       </c>
-      <c r="AF64" s="9" t="s">
+      <c r="AF64" t="s">
         <v>728</v>
       </c>
-      <c r="AG64" s="9" t="s">
+      <c r="AG64" t="s">
         <v>1632</v>
       </c>
-      <c r="AH64" s="9" t="s">
+      <c r="AH64" t="s">
         <v>1633</v>
       </c>
-      <c r="AI64" s="9" t="s">
+      <c r="AI64" t="s">
         <v>77</v>
       </c>
-      <c r="AJ64" s="9" t="s">
+      <c r="AJ64" t="s">
         <v>118</v>
       </c>
-      <c r="AK64" s="9" t="s">
+      <c r="AK64" t="s">
         <v>1634</v>
       </c>
-      <c r="AL64" s="9" t="s">
+      <c r="AL64" t="s">
         <v>1635</v>
       </c>
-      <c r="AM64" s="9" t="s">
+      <c r="AM64" t="s">
         <v>1636</v>
       </c>
-      <c r="AN64" s="9" t="s">
+      <c r="AN64" t="s">
         <v>1637</v>
       </c>
-      <c r="AO64" s="9" t="s">
+      <c r="AO64" t="s">
         <v>1638</v>
       </c>
-      <c r="AP64" s="9" t="s">
+      <c r="AP64" t="s">
         <v>124</v>
       </c>
-      <c r="AQ64" s="9" t="s">
+      <c r="AQ64" t="s">
         <v>85</v>
       </c>
-      <c r="AR64" s="9" t="s">
+      <c r="AR64" t="s">
         <v>202</v>
       </c>
-      <c r="AS64" s="9" t="s">
+      <c r="AS64" t="s">
         <v>1639</v>
       </c>
-      <c r="AT64" s="9" t="s">
+      <c r="AT64" t="s">
         <v>444</v>
       </c>
-      <c r="AU64" s="9" t="s">
+      <c r="AU64" t="s">
         <v>1640</v>
       </c>
-      <c r="AV64" s="9" t="s">
+      <c r="AV64" t="s">
         <v>445</v>
       </c>
-      <c r="AW64" s="9" t="s">
+      <c r="AW64" t="s">
         <v>1641</v>
       </c>
-      <c r="AX64" s="9" t="s">
+      <c r="AX64" t="s">
         <v>419</v>
       </c>
       <c r="AY64" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AZ64" s="9" t="s">
+      <c r="AZ64" t="s">
         <v>211</v>
       </c>
       <c r="BA64" s="1" t="s">
@@ -16675,154 +17477,154 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="2">
         <v>44769</v>
       </c>
       <c r="C65" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" t="s">
         <v>1748</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65">
         <v>8</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65">
         <v>6</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" t="s">
         <v>1643</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" t="s">
         <v>369</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" t="s">
         <v>1440</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" t="s">
         <v>1623</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" t="s">
         <v>1644</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="L65" t="s">
         <v>1645</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" t="s">
         <v>1444</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" t="s">
         <v>61</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" t="s">
         <v>1646</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" t="s">
         <v>1647</v>
       </c>
-      <c r="R65" s="9" t="s">
+      <c r="R65" t="s">
         <v>1648</v>
       </c>
       <c r="S65">
         <v>999</v>
       </c>
-      <c r="T65" s="9" t="s">
+      <c r="T65" t="s">
         <v>142</v>
       </c>
       <c r="U65" s="1">
         <v>999</v>
       </c>
-      <c r="V65" s="9" t="s">
+      <c r="V65" t="s">
         <v>1649</v>
       </c>
-      <c r="W65" s="9" t="s">
+      <c r="W65" t="s">
         <v>896</v>
       </c>
-      <c r="X65" s="9" t="s">
+      <c r="X65" t="s">
         <v>700</v>
       </c>
-      <c r="Y65" s="9" t="s">
+      <c r="Y65" t="s">
         <v>457</v>
       </c>
-      <c r="Z65" s="9" t="s">
+      <c r="Z65" t="s">
         <v>701</v>
       </c>
-      <c r="AA65" s="9" t="s">
+      <c r="AA65" t="s">
         <v>377</v>
       </c>
-      <c r="AB65" s="9" t="s">
+      <c r="AB65" t="s">
         <v>378</v>
       </c>
-      <c r="AC65" s="9" t="s">
+      <c r="AC65" t="s">
         <v>703</v>
       </c>
-      <c r="AD65" s="9" t="s">
+      <c r="AD65" t="s">
         <v>1650</v>
       </c>
-      <c r="AE65" s="9" t="s">
+      <c r="AE65" t="s">
         <v>1651</v>
       </c>
-      <c r="AF65" s="9" t="s">
+      <c r="AF65" t="s">
         <v>705</v>
       </c>
-      <c r="AG65" s="9" t="s">
+      <c r="AG65" t="s">
         <v>1652</v>
       </c>
-      <c r="AH65" s="9" t="s">
+      <c r="AH65" t="s">
         <v>1653</v>
       </c>
-      <c r="AI65" s="9" t="s">
+      <c r="AI65" t="s">
         <v>463</v>
       </c>
-      <c r="AJ65" s="9" t="s">
+      <c r="AJ65" t="s">
         <v>385</v>
       </c>
-      <c r="AK65" s="9" t="s">
+      <c r="AK65" t="s">
         <v>647</v>
       </c>
-      <c r="AL65" s="9" t="s">
+      <c r="AL65" t="s">
         <v>289</v>
       </c>
-      <c r="AM65" s="9" t="s">
+      <c r="AM65" t="s">
         <v>1654</v>
       </c>
-      <c r="AN65" s="9" t="s">
+      <c r="AN65" t="s">
         <v>1655</v>
       </c>
-      <c r="AO65" s="9" t="s">
+      <c r="AO65" t="s">
         <v>1481</v>
       </c>
-      <c r="AP65" s="9" t="s">
+      <c r="AP65" t="s">
         <v>601</v>
       </c>
-      <c r="AQ65" s="9" t="s">
+      <c r="AQ65" t="s">
         <v>85</v>
       </c>
-      <c r="AR65" s="9" t="s">
+      <c r="AR65" t="s">
         <v>295</v>
       </c>
-      <c r="AS65" s="9" t="s">
+      <c r="AS65" t="s">
         <v>1483</v>
       </c>
-      <c r="AT65" s="9" t="s">
+      <c r="AT65" t="s">
         <v>494</v>
       </c>
-      <c r="AU65" s="9" t="s">
+      <c r="AU65" t="s">
         <v>605</v>
       </c>
-      <c r="AV65" s="9" t="s">
+      <c r="AV65" t="s">
         <v>1656</v>
       </c>
-      <c r="AW65" s="9" t="s">
+      <c r="AW65" t="s">
         <v>1657</v>
       </c>
-      <c r="AX65" s="9" t="s">
+      <c r="AX65" t="s">
         <v>1658</v>
       </c>
       <c r="AY65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ65" s="9" t="s">
+      <c r="AZ65" t="s">
         <v>303</v>
       </c>
       <c r="BA65" s="1" t="s">
@@ -16833,49 +17635,49 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="2">
         <v>44769</v>
       </c>
       <c r="C66" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" t="s">
         <v>1748</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66">
         <v>9</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66">
         <v>5</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" t="s">
         <v>1659</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" t="s">
         <v>1660</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" t="s">
         <v>56</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" t="s">
         <v>1623</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" t="s">
         <v>1661</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L66" t="s">
         <v>1662</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N66" t="s">
         <v>1444</v>
       </c>
-      <c r="O66" s="9" t="s">
+      <c r="O66" t="s">
         <v>139</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" t="s">
         <v>1663</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" t="s">
         <v>1664</v>
       </c>
       <c r="R66">
@@ -16884,267 +17686,267 @@
       <c r="S66">
         <v>999</v>
       </c>
-      <c r="T66" s="9" t="s">
+      <c r="T66" t="s">
         <v>64</v>
       </c>
       <c r="U66" s="1">
         <v>999</v>
       </c>
-      <c r="V66" s="9" t="s">
+      <c r="V66" t="s">
         <v>1629</v>
       </c>
-      <c r="W66" s="9" t="s">
+      <c r="W66" t="s">
         <v>401</v>
       </c>
-      <c r="X66" s="9" t="s">
+      <c r="X66" t="s">
         <v>345</v>
       </c>
-      <c r="Y66" s="9" t="s">
+      <c r="Y66" t="s">
         <v>375</v>
       </c>
-      <c r="Z66" s="9" t="s">
+      <c r="Z66" t="s">
         <v>755</v>
       </c>
-      <c r="AA66" s="9" t="s">
+      <c r="AA66" t="s">
         <v>404</v>
       </c>
-      <c r="AB66" s="9" t="s">
+      <c r="AB66" t="s">
         <v>348</v>
       </c>
-      <c r="AC66" s="9" t="s">
+      <c r="AC66" t="s">
         <v>757</v>
       </c>
-      <c r="AD66" s="9" t="s">
+      <c r="AD66" t="s">
         <v>350</v>
       </c>
-      <c r="AE66" s="9" t="s">
+      <c r="AE66" t="s">
         <v>1665</v>
       </c>
-      <c r="AF66" s="9" t="s">
+      <c r="AF66" t="s">
         <v>927</v>
       </c>
-      <c r="AG66" s="9" t="s">
+      <c r="AG66" t="s">
         <v>1666</v>
       </c>
-      <c r="AH66" s="9" t="s">
+      <c r="AH66" t="s">
         <v>1667</v>
       </c>
-      <c r="AI66" s="9" t="s">
+      <c r="AI66" t="s">
         <v>411</v>
       </c>
-      <c r="AJ66" s="9" t="s">
+      <c r="AJ66" t="s">
         <v>118</v>
       </c>
-      <c r="AK66" s="9" t="s">
+      <c r="AK66" t="s">
         <v>1668</v>
       </c>
-      <c r="AL66" s="9" t="s">
+      <c r="AL66" t="s">
         <v>1669</v>
       </c>
-      <c r="AM66" s="9" t="s">
+      <c r="AM66" t="s">
         <v>81</v>
       </c>
-      <c r="AN66" s="9" t="s">
+      <c r="AN66" t="s">
         <v>1637</v>
       </c>
-      <c r="AO66" s="9" t="s">
+      <c r="AO66" t="s">
         <v>1670</v>
       </c>
-      <c r="AP66" s="9" t="s">
+      <c r="AP66" t="s">
         <v>360</v>
       </c>
-      <c r="AQ66" s="9" t="s">
+      <c r="AQ66" t="s">
         <v>85</v>
       </c>
-      <c r="AR66" s="9" t="s">
+      <c r="AR66" t="s">
         <v>202</v>
       </c>
-      <c r="AS66" s="9" t="s">
+      <c r="AS66" t="s">
         <v>127</v>
       </c>
-      <c r="AT66" s="9" t="s">
+      <c r="AT66" t="s">
         <v>362</v>
       </c>
-      <c r="AU66" s="9" t="s">
+      <c r="AU66" t="s">
         <v>973</v>
       </c>
-      <c r="AV66" s="9" t="s">
+      <c r="AV66" t="s">
         <v>1671</v>
       </c>
-      <c r="AW66" s="9" t="s">
+      <c r="AW66" t="s">
         <v>91</v>
       </c>
-      <c r="AX66" s="9" t="s">
+      <c r="AX66" t="s">
         <v>498</v>
       </c>
       <c r="AY66" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="AZ66" s="9" t="s">
+      <c r="AZ66" t="s">
         <v>367</v>
       </c>
       <c r="BA66" s="1" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="67" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="2">
         <v>44769</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" t="s">
         <v>1748</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67">
         <v>10</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67">
         <v>7</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" t="s">
         <v>1674</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" t="s">
         <v>98</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" t="s">
         <v>1623</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" t="s">
         <v>1675</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="L67" t="s">
         <v>560</v>
       </c>
-      <c r="M67" s="12" t="s">
+      <c r="M67" t="s">
         <v>1676</v>
       </c>
-      <c r="N67" s="12" t="s">
+      <c r="N67" t="s">
         <v>1677</v>
       </c>
-      <c r="O67" s="12" t="s">
+      <c r="O67" t="s">
         <v>139</v>
       </c>
-      <c r="P67" s="12" t="s">
+      <c r="P67" t="s">
         <v>1678</v>
       </c>
-      <c r="Q67" s="12" t="s">
+      <c r="Q67" t="s">
         <v>1679</v>
       </c>
-      <c r="R67" s="12">
-        <v>999</v>
-      </c>
-      <c r="S67" s="12" t="s">
+      <c r="R67">
+        <v>999</v>
+      </c>
+      <c r="S67" t="s">
         <v>1680</v>
       </c>
-      <c r="T67" s="12">
-        <v>999</v>
-      </c>
-      <c r="U67" s="14">
-        <v>999</v>
-      </c>
-      <c r="V67" s="12" t="s">
+      <c r="T67">
+        <v>999</v>
+      </c>
+      <c r="U67" s="1">
+        <v>999</v>
+      </c>
+      <c r="V67" t="s">
         <v>1649</v>
       </c>
-      <c r="W67" s="12" t="s">
+      <c r="W67" t="s">
         <v>896</v>
       </c>
-      <c r="X67" s="12" t="s">
+      <c r="X67" t="s">
         <v>1681</v>
       </c>
-      <c r="Y67" s="12" t="s">
+      <c r="Y67" t="s">
         <v>457</v>
       </c>
-      <c r="Z67" s="12" t="s">
+      <c r="Z67" t="s">
         <v>1683</v>
       </c>
-      <c r="AA67" s="12" t="s">
+      <c r="AA67" t="s">
         <v>1682</v>
       </c>
-      <c r="AB67" s="12" t="s">
+      <c r="AB67" t="s">
         <v>378</v>
       </c>
-      <c r="AC67" s="12" t="s">
+      <c r="AC67" t="s">
         <v>1684</v>
       </c>
-      <c r="AD67" s="12" t="s">
+      <c r="AD67" t="s">
         <v>1685</v>
       </c>
-      <c r="AE67" s="12" t="s">
+      <c r="AE67" t="s">
         <v>1686</v>
       </c>
-      <c r="AF67" s="12" t="s">
+      <c r="AF67" t="s">
         <v>642</v>
       </c>
-      <c r="AG67" s="12" t="s">
+      <c r="AG67" t="s">
         <v>1687</v>
       </c>
-      <c r="AH67" s="12" t="s">
+      <c r="AH67" t="s">
         <v>1688</v>
       </c>
-      <c r="AI67" s="12" t="s">
+      <c r="AI67" t="s">
         <v>1689</v>
       </c>
-      <c r="AJ67" s="12" t="s">
+      <c r="AJ67" t="s">
         <v>385</v>
       </c>
-      <c r="AK67" s="12" t="s">
+      <c r="AK67" t="s">
         <v>1690</v>
       </c>
-      <c r="AL67" s="12" t="s">
+      <c r="AL67" t="s">
         <v>1691</v>
       </c>
-      <c r="AM67" s="12" t="s">
+      <c r="AM67" t="s">
         <v>159</v>
       </c>
-      <c r="AN67" s="12" t="s">
+      <c r="AN67" t="s">
         <v>599</v>
       </c>
-      <c r="AO67" s="12" t="s">
+      <c r="AO67" t="s">
         <v>1692</v>
       </c>
-      <c r="AP67" s="12" t="s">
+      <c r="AP67" t="s">
         <v>652</v>
       </c>
-      <c r="AQ67" s="12" t="s">
+      <c r="AQ67" t="s">
         <v>1693</v>
       </c>
-      <c r="AR67" s="12" t="s">
+      <c r="AR67" t="s">
         <v>295</v>
       </c>
-      <c r="AS67" s="12" t="s">
+      <c r="AS67" t="s">
         <v>1694</v>
       </c>
-      <c r="AT67" s="12" t="s">
+      <c r="AT67" t="s">
         <v>1695</v>
       </c>
-      <c r="AU67" s="12" t="s">
+      <c r="AU67" t="s">
         <v>1096</v>
       </c>
-      <c r="AV67" s="12" t="s">
+      <c r="AV67" t="s">
         <v>1696</v>
       </c>
-      <c r="AW67" s="12" t="s">
+      <c r="AW67" t="s">
         <v>394</v>
       </c>
-      <c r="AX67" s="12" t="s">
+      <c r="AX67" t="s">
         <v>1697</v>
       </c>
-      <c r="AY67" s="14" t="s">
+      <c r="AY67" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AZ67" s="9" t="s">
+      <c r="AZ67" t="s">
         <v>1078</v>
       </c>
-      <c r="BA67" s="14" t="s">
+      <c r="BA67" s="1" t="s">
         <v>912</v>
       </c>
     </row>
@@ -17152,50 +17954,49 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="2">
         <v>44769</v>
       </c>
       <c r="C68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" t="s">
         <v>1748</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68">
         <v>12</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68">
         <v>7</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" t="s">
         <v>1698</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" t="s">
         <v>97</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" t="s">
         <v>240</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" t="s">
         <v>1441</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="K68" t="s">
         <v>1699</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L68" t="s">
         <v>1700</v>
       </c>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9" t="s">
+      <c r="N68" t="s">
         <v>1701</v>
       </c>
-      <c r="O68" s="9" t="s">
+      <c r="O68" t="s">
         <v>1249</v>
       </c>
-      <c r="P68" s="9" t="s">
+      <c r="P68" t="s">
         <v>1702</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" t="s">
         <v>1703</v>
       </c>
       <c r="R68">
@@ -17204,103 +18005,103 @@
       <c r="S68">
         <v>999</v>
       </c>
-      <c r="T68" s="9" t="s">
+      <c r="T68" t="s">
         <v>179</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="V68" s="9" t="s">
+      <c r="V68" t="s">
         <v>1705</v>
       </c>
-      <c r="W68" s="9" t="s">
+      <c r="W68" t="s">
         <v>1706</v>
       </c>
-      <c r="X68" s="9" t="s">
+      <c r="X68" t="s">
         <v>821</v>
       </c>
-      <c r="Y68" s="9" t="s">
+      <c r="Y68" t="s">
         <v>822</v>
       </c>
-      <c r="Z68" s="9" t="s">
+      <c r="Z68" t="s">
         <v>1707</v>
       </c>
-      <c r="AA68" s="9" t="s">
+      <c r="AA68" t="s">
         <v>1708</v>
       </c>
-      <c r="AB68" s="9" t="s">
+      <c r="AB68" t="s">
         <v>279</v>
       </c>
-      <c r="AC68" s="9" t="s">
+      <c r="AC68" t="s">
         <v>1709</v>
       </c>
-      <c r="AD68" s="9" t="s">
+      <c r="AD68" t="s">
         <v>281</v>
       </c>
-      <c r="AE68" s="9" t="s">
+      <c r="AE68" t="s">
         <v>324</v>
       </c>
-      <c r="AF68" s="9" t="s">
+      <c r="AF68" t="s">
         <v>1710</v>
       </c>
-      <c r="AG68" s="9" t="s">
+      <c r="AG68" t="s">
         <v>1711</v>
       </c>
-      <c r="AH68" s="9" t="s">
+      <c r="AH68" t="s">
         <v>155</v>
       </c>
-      <c r="AI68" s="9" t="s">
+      <c r="AI68" t="s">
         <v>1018</v>
       </c>
-      <c r="AJ68" s="9" t="s">
+      <c r="AJ68" t="s">
         <v>1712</v>
       </c>
-      <c r="AK68" s="9" t="s">
+      <c r="AK68" t="s">
         <v>1713</v>
       </c>
-      <c r="AL68" s="9" t="s">
+      <c r="AL68" t="s">
         <v>1714</v>
       </c>
-      <c r="AM68" s="9" t="s">
+      <c r="AM68" t="s">
         <v>1715</v>
       </c>
-      <c r="AN68" s="9" t="s">
+      <c r="AN68" t="s">
         <v>388</v>
       </c>
-      <c r="AO68" s="9" t="s">
+      <c r="AO68" t="s">
         <v>292</v>
       </c>
-      <c r="AP68" s="9" t="s">
+      <c r="AP68" t="s">
         <v>293</v>
       </c>
-      <c r="AQ68" s="9" t="s">
+      <c r="AQ68" t="s">
         <v>1716</v>
       </c>
-      <c r="AR68" s="9" t="s">
+      <c r="AR68" t="s">
         <v>295</v>
       </c>
-      <c r="AS68" s="9" t="s">
+      <c r="AS68" t="s">
         <v>1717</v>
       </c>
-      <c r="AT68" s="9" t="s">
+      <c r="AT68" t="s">
         <v>1718</v>
       </c>
-      <c r="AU68" s="9" t="s">
+      <c r="AU68" t="s">
         <v>1074</v>
       </c>
-      <c r="AV68" s="9" t="s">
+      <c r="AV68" t="s">
         <v>1719</v>
       </c>
-      <c r="AW68" s="9" t="s">
+      <c r="AW68" t="s">
         <v>1720</v>
       </c>
-      <c r="AX68" s="9" t="s">
+      <c r="AX68" t="s">
         <v>793</v>
       </c>
       <c r="AY68" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AZ68" s="9" t="s">
+      <c r="AZ68" t="s">
         <v>303</v>
       </c>
       <c r="BA68" s="1" t="s">
@@ -17311,49 +18112,49 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="2">
         <v>44769</v>
       </c>
       <c r="C69" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" t="s">
         <v>1748</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69">
         <v>12</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69">
         <v>11</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" t="s">
         <v>1722</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" t="s">
         <v>97</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" t="s">
         <v>1723</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" t="s">
         <v>1623</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="K69" t="s">
         <v>1724</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L69" t="s">
         <v>1725</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" t="s">
         <v>1701</v>
       </c>
-      <c r="O69" s="9" t="s">
+      <c r="O69" t="s">
         <v>103</v>
       </c>
-      <c r="P69" s="9" t="s">
+      <c r="P69" t="s">
         <v>1726</v>
       </c>
-      <c r="Q69" s="9" t="s">
+      <c r="Q69" t="s">
         <v>1703</v>
       </c>
       <c r="R69">
@@ -17362,103 +18163,103 @@
       <c r="S69">
         <v>999</v>
       </c>
-      <c r="T69" s="9" t="s">
+      <c r="T69" t="s">
         <v>245</v>
       </c>
       <c r="U69" s="1">
         <v>999</v>
       </c>
-      <c r="V69" s="9" t="s">
+      <c r="V69" t="s">
         <v>1727</v>
       </c>
-      <c r="W69" s="9" t="s">
+      <c r="W69" t="s">
         <v>1578</v>
       </c>
-      <c r="X69" s="9" t="s">
+      <c r="X69" t="s">
         <v>183</v>
       </c>
-      <c r="Y69" s="9" t="s">
+      <c r="Y69" t="s">
         <v>248</v>
       </c>
-      <c r="Z69" s="9" t="s">
+      <c r="Z69" t="s">
         <v>883</v>
       </c>
-      <c r="AA69" s="9" t="s">
+      <c r="AA69" t="s">
         <v>1255</v>
       </c>
-      <c r="AB69" s="9" t="s">
+      <c r="AB69" t="s">
         <v>187</v>
       </c>
-      <c r="AC69" s="9" t="s">
+      <c r="AC69" t="s">
         <v>252</v>
       </c>
-      <c r="AD69" s="9" t="s">
+      <c r="AD69" t="s">
         <v>189</v>
       </c>
-      <c r="AE69" s="9" t="s">
+      <c r="AE69" t="s">
         <v>190</v>
       </c>
-      <c r="AF69" s="9" t="s">
+      <c r="AF69" t="s">
         <v>1728</v>
       </c>
-      <c r="AG69" s="9" t="s">
+      <c r="AG69" t="s">
         <v>1729</v>
       </c>
-      <c r="AH69" s="9" t="s">
+      <c r="AH69" t="s">
         <v>117</v>
       </c>
-      <c r="AI69" s="9" t="s">
+      <c r="AI69" t="s">
         <v>571</v>
       </c>
-      <c r="AJ69" s="9" t="s">
+      <c r="AJ69" t="s">
         <v>118</v>
       </c>
-      <c r="AK69" s="9" t="s">
+      <c r="AK69" t="s">
         <v>1279</v>
       </c>
-      <c r="AL69" s="9" t="s">
+      <c r="AL69" t="s">
         <v>1730</v>
       </c>
-      <c r="AM69" s="9" t="s">
+      <c r="AM69" t="s">
         <v>257</v>
       </c>
-      <c r="AN69" s="9" t="s">
+      <c r="AN69" t="s">
         <v>198</v>
       </c>
-      <c r="AO69" s="9" t="s">
+      <c r="AO69" t="s">
         <v>1731</v>
       </c>
-      <c r="AP69" s="9" t="s">
+      <c r="AP69" t="s">
         <v>259</v>
       </c>
-      <c r="AQ69" s="9" t="s">
+      <c r="AQ69" t="s">
         <v>811</v>
       </c>
-      <c r="AR69" s="9" t="s">
+      <c r="AR69" t="s">
         <v>202</v>
       </c>
-      <c r="AS69" s="9" t="s">
+      <c r="AS69" t="s">
         <v>1732</v>
       </c>
-      <c r="AT69" s="9" t="s">
+      <c r="AT69" t="s">
         <v>889</v>
       </c>
-      <c r="AU69" s="9" t="s">
+      <c r="AU69" t="s">
         <v>205</v>
       </c>
-      <c r="AV69" s="9" t="s">
+      <c r="AV69" t="s">
         <v>206</v>
       </c>
-      <c r="AW69" s="9" t="s">
+      <c r="AW69" t="s">
         <v>792</v>
       </c>
-      <c r="AX69" s="9" t="s">
+      <c r="AX69" t="s">
         <v>1197</v>
       </c>
       <c r="AY69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ69" s="9" t="s">
+      <c r="AZ69" t="s">
         <v>211</v>
       </c>
       <c r="BA69" s="1" t="s">
@@ -17469,49 +18270,49 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="2">
         <v>44769</v>
       </c>
       <c r="C70" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" t="s">
         <v>1748</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70">
         <v>10</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" t="s">
         <v>1733</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" t="s">
         <v>97</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" t="s">
         <v>240</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" t="s">
         <v>1623</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K70" t="s">
         <v>1734</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" t="s">
         <v>1735</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" t="s">
         <v>177</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="O70" t="s">
         <v>103</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="P70" t="s">
         <v>1736</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q70" t="s">
         <v>1737</v>
       </c>
       <c r="R70">
@@ -17520,264 +18321,264 @@
       <c r="S70">
         <v>999</v>
       </c>
-      <c r="T70" s="9" t="s">
+      <c r="T70" t="s">
         <v>64</v>
       </c>
       <c r="U70" s="1">
         <v>999</v>
       </c>
-      <c r="V70" s="9" t="s">
+      <c r="V70" t="s">
         <v>1738</v>
       </c>
-      <c r="W70" s="9" t="s">
+      <c r="W70" t="s">
         <v>455</v>
       </c>
-      <c r="X70" s="9" t="s">
+      <c r="X70" t="s">
         <v>821</v>
       </c>
-      <c r="Y70" s="9" t="s">
+      <c r="Y70" t="s">
         <v>822</v>
       </c>
-      <c r="Z70" s="9" t="s">
+      <c r="Z70" t="s">
         <v>1739</v>
       </c>
-      <c r="AA70" s="9" t="s">
+      <c r="AA70" t="s">
         <v>1318</v>
       </c>
-      <c r="AB70" s="9" t="s">
+      <c r="AB70" t="s">
         <v>1185</v>
       </c>
-      <c r="AC70" s="9" t="s">
+      <c r="AC70" t="s">
         <v>1740</v>
       </c>
-      <c r="AD70" s="9" t="s">
+      <c r="AD70" t="s">
         <v>1213</v>
       </c>
-      <c r="AE70" s="9" t="s">
+      <c r="AE70" t="s">
         <v>1741</v>
       </c>
-      <c r="AF70" s="9" t="s">
+      <c r="AF70" t="s">
         <v>642</v>
       </c>
-      <c r="AG70" s="9" t="s">
+      <c r="AG70" t="s">
         <v>1742</v>
       </c>
-      <c r="AH70" s="9" t="s">
+      <c r="AH70" t="s">
         <v>1743</v>
       </c>
-      <c r="AI70" s="9" t="s">
+      <c r="AI70" t="s">
         <v>1744</v>
       </c>
-      <c r="AJ70" s="9" t="s">
+      <c r="AJ70" t="s">
         <v>118</v>
       </c>
-      <c r="AK70" s="9" t="s">
+      <c r="AK70" t="s">
         <v>1745</v>
       </c>
-      <c r="AL70" s="9" t="s">
+      <c r="AL70" t="s">
         <v>197</v>
       </c>
-      <c r="AM70" s="9" t="s">
+      <c r="AM70" t="s">
         <v>121</v>
       </c>
-      <c r="AN70" s="9" t="s">
+      <c r="AN70" t="s">
         <v>1263</v>
       </c>
-      <c r="AO70" s="9" t="s">
+      <c r="AO70" t="s">
         <v>1585</v>
       </c>
-      <c r="AP70" s="9" t="s">
+      <c r="AP70" t="s">
         <v>1192</v>
       </c>
-      <c r="AQ70" s="9" t="s">
+      <c r="AQ70" t="s">
         <v>1746</v>
       </c>
-      <c r="AR70" s="9" t="s">
+      <c r="AR70" t="s">
         <v>165</v>
       </c>
-      <c r="AS70" s="9" t="s">
+      <c r="AS70" t="s">
         <v>1747</v>
       </c>
-      <c r="AT70" s="9" t="s">
+      <c r="AT70" t="s">
         <v>1695</v>
       </c>
-      <c r="AU70" s="9" t="s">
+      <c r="AU70" t="s">
         <v>1435</v>
       </c>
-      <c r="AV70" s="9" t="s">
+      <c r="AV70" t="s">
         <v>1266</v>
       </c>
-      <c r="AW70" s="9" t="s">
+      <c r="AW70" t="s">
         <v>207</v>
       </c>
-      <c r="AX70" s="9" t="s">
+      <c r="AX70" t="s">
         <v>1197</v>
       </c>
       <c r="AY70" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AZ70" s="9" t="s">
+      <c r="AZ70" t="s">
         <v>211</v>
       </c>
       <c r="BA70" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="7">
         <v>44769</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="6" t="s">
         <v>1748</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="6">
         <v>14</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="6">
         <v>11</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="6" t="s">
         <v>1749</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="6">
         <v>530</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="6">
         <v>745</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="6" t="s">
         <v>1750</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L71" s="6" t="s">
         <v>1751</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N71" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="O71" s="9" t="s">
+      <c r="O71" s="6" t="s">
         <v>1752</v>
       </c>
-      <c r="P71" s="9" t="s">
+      <c r="P71" s="6" t="s">
         <v>1753</v>
       </c>
-      <c r="Q71" s="9" t="s">
+      <c r="Q71" s="6" t="s">
         <v>1754</v>
       </c>
-      <c r="R71">
-        <v>999</v>
-      </c>
-      <c r="S71">
-        <v>999</v>
-      </c>
-      <c r="T71" s="9" t="s">
+      <c r="R71" s="6">
+        <v>999</v>
+      </c>
+      <c r="S71" s="6">
+        <v>999</v>
+      </c>
+      <c r="T71" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="U71" s="1" t="s">
+      <c r="U71" s="8" t="s">
         <v>1755</v>
       </c>
-      <c r="V71" s="9" t="s">
+      <c r="V71" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="W71" s="9" t="s">
+      <c r="W71" s="6" t="s">
         <v>1756</v>
       </c>
-      <c r="X71" s="9" t="s">
+      <c r="X71" s="6" t="s">
         <v>1757</v>
       </c>
-      <c r="Y71" s="9" t="s">
+      <c r="Y71" s="6" t="s">
         <v>1758</v>
       </c>
-      <c r="Z71" s="9" t="s">
+      <c r="Z71" s="6" t="s">
         <v>1759</v>
       </c>
-      <c r="AA71" s="9" t="s">
+      <c r="AA71" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AB71" s="9" t="s">
+      <c r="AB71" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="AC71" s="9" t="s">
+      <c r="AC71" s="6" t="s">
         <v>1740</v>
       </c>
-      <c r="AD71" s="9" t="s">
+      <c r="AD71" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AE71" s="9" t="s">
+      <c r="AE71" s="6" t="s">
         <v>1760</v>
       </c>
-      <c r="AF71" s="9" t="s">
+      <c r="AF71" s="6" t="s">
         <v>1761</v>
       </c>
-      <c r="AG71" s="9" t="s">
+      <c r="AG71" s="6" t="s">
         <v>1762</v>
       </c>
-      <c r="AH71" s="9" t="s">
+      <c r="AH71" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AI71" s="9" t="s">
+      <c r="AI71" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AJ71" s="9" t="s">
+      <c r="AJ71" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="AK71" s="9" t="s">
+      <c r="AK71" s="6" t="s">
         <v>1763</v>
       </c>
-      <c r="AL71" s="9" t="s">
+      <c r="AL71" s="6" t="s">
         <v>1764</v>
       </c>
-      <c r="AM71" s="9" t="s">
+      <c r="AM71" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="AN71" s="9" t="s">
+      <c r="AN71" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AO71" s="9" t="s">
+      <c r="AO71" s="6" t="s">
         <v>1765</v>
       </c>
-      <c r="AP71" s="9" t="s">
+      <c r="AP71" s="6" t="s">
         <v>1766</v>
       </c>
-      <c r="AQ71" s="9" t="s">
+      <c r="AQ71" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="AR71" s="9" t="s">
+      <c r="AR71" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AS71" s="9" t="s">
+      <c r="AS71" s="6" t="s">
         <v>1767</v>
       </c>
-      <c r="AT71" s="9" t="s">
+      <c r="AT71" s="6" t="s">
         <v>1695</v>
       </c>
-      <c r="AU71" s="9" t="s">
+      <c r="AU71" s="6" t="s">
         <v>1768</v>
       </c>
-      <c r="AV71" s="9" t="s">
+      <c r="AV71" s="6" t="s">
         <v>1769</v>
       </c>
-      <c r="AW71" s="9" t="s">
+      <c r="AW71" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="AX71" s="9" t="s">
+      <c r="AX71" s="6" t="s">
         <v>1615</v>
       </c>
-      <c r="AY71" s="1" t="s">
+      <c r="AY71" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="AZ71" s="9" t="s">
+      <c r="AZ71" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="BA71" s="1" t="s">
+      <c r="BA71" s="8" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -17785,168 +18586,2002 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="2">
         <v>44769</v>
       </c>
       <c r="C72" t="s">
         <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I72" t="s">
+        <v>175</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1775</v>
+      </c>
+      <c r="N72" t="s">
+        <v>551</v>
+      </c>
+      <c r="O72" t="s">
+        <v>139</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1777</v>
+      </c>
+      <c r="R72" t="s">
+        <v>551</v>
+      </c>
+      <c r="S72">
+        <v>999</v>
+      </c>
+      <c r="T72" t="s">
+        <v>245</v>
+      </c>
+      <c r="U72" s="1">
+        <v>999</v>
+      </c>
+      <c r="V72">
+        <v>999</v>
+      </c>
+      <c r="W72" t="s">
+        <v>1778</v>
+      </c>
+      <c r="X72" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AA72">
+        <v>999</v>
+      </c>
+      <c r="AB72">
+        <v>999</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AH72">
+        <v>999</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>438</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AP72">
+        <v>999</v>
+      </c>
+      <c r="AQ72">
+        <v>999</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AU72">
+        <v>999</v>
+      </c>
+      <c r="AV72">
+        <v>999</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AY72" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>1798</v>
+      </c>
+      <c r="BA72" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="2">
         <v>44769</v>
       </c>
       <c r="C73" t="s">
         <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E73">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1801</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1802</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O73" t="s">
+        <v>103</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1804</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>772</v>
+      </c>
+      <c r="R73">
+        <v>999</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="V73" t="s">
+        <v>1806</v>
+      </c>
+      <c r="W73" t="s">
+        <v>182</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1807</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>942</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>884</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>1819</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>1820</v>
+      </c>
+      <c r="AY73" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA73" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="2">
         <v>44769</v>
       </c>
       <c r="C74" t="s">
         <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E74">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I74" t="s">
+        <v>240</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1824</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O74" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>1984</v>
+      </c>
+      <c r="S74" t="s">
+        <v>103</v>
+      </c>
+      <c r="T74" t="s">
+        <v>142</v>
+      </c>
+      <c r="U74" s="1">
+        <v>999</v>
+      </c>
+      <c r="V74" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W74" t="s">
+        <v>455</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1826</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AT74" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>793</v>
+      </c>
+      <c r="AY74" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA74" s="1" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" s="2">
+        <v>44769</v>
+      </c>
       <c r="C75" t="s">
         <v>54</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1841</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1842</v>
+      </c>
+      <c r="O75" t="s">
+        <v>103</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1843</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1844</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S75">
+        <v>999</v>
+      </c>
+      <c r="T75" t="s">
+        <v>245</v>
+      </c>
+      <c r="U75" s="1">
+        <v>999</v>
+      </c>
+      <c r="V75" t="s">
+        <v>1845</v>
+      </c>
+      <c r="W75" t="s">
+        <v>1846</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>1849</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AD75" s="11" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AY75" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA75" s="1" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" s="2">
+        <v>44769</v>
+      </c>
       <c r="C76" t="s">
         <v>54</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E76">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1872</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1873</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1874</v>
+      </c>
+      <c r="O76" t="s">
+        <v>103</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1875</v>
+      </c>
+      <c r="Q76">
+        <v>999</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1876</v>
+      </c>
+      <c r="S76">
+        <v>999</v>
+      </c>
+      <c r="T76" t="s">
+        <v>245</v>
+      </c>
+      <c r="U76" s="1">
+        <v>999</v>
+      </c>
+      <c r="V76" t="s">
+        <v>1877</v>
+      </c>
+      <c r="W76" t="s">
+        <v>1878</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1879</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>1883</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>1885</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>1886</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AY76" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>1869</v>
+      </c>
+      <c r="BA76" s="1" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" s="2">
+        <v>44769</v>
+      </c>
       <c r="C77" t="s">
         <v>54</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I77" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1901</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1902</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1516</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1904</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>551</v>
+      </c>
+      <c r="R77">
+        <v>999</v>
+      </c>
+      <c r="S77">
+        <v>999</v>
+      </c>
+      <c r="T77" t="s">
+        <v>1905</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="V77" t="s">
+        <v>1521</v>
+      </c>
+      <c r="W77" t="s">
+        <v>896</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AY77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>1897</v>
+      </c>
+      <c r="BA77" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" s="2">
+        <v>44770</v>
+      </c>
       <c r="C78" t="s">
         <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>500</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1921</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1922</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1516</v>
+      </c>
+      <c r="O78" t="s">
+        <v>561</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="R78">
+        <v>999</v>
+      </c>
+      <c r="S78" t="s">
+        <v>1925</v>
+      </c>
+      <c r="T78" t="s">
+        <v>142</v>
+      </c>
+      <c r="U78" s="1">
+        <v>999</v>
+      </c>
+      <c r="V78" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="W78" s="10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="X78" s="10" t="s">
+        <v>1928</v>
+      </c>
+      <c r="Y78" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z78" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AA78" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB78" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC78" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD78" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE78" s="10" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AF78" s="10" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AG78" s="10" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AH78" s="10" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AI78" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ78" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK78" s="10" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AL78" s="10" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AM78" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN78" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AO78" s="10" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP78" s="10" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AQ78" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR78" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS78" s="10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AT78" s="10" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AU78" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AV78" s="10" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AW78" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX78" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY78" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ78" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA78" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" s="2">
+        <v>44770</v>
+      </c>
       <c r="C79" t="s">
         <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E79">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H79">
+        <v>999</v>
+      </c>
+      <c r="I79">
+        <v>999</v>
+      </c>
+      <c r="J79">
+        <v>999</v>
+      </c>
+      <c r="K79">
+        <v>999</v>
+      </c>
+      <c r="L79" t="s">
+        <v>772</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1942</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O79" t="s">
+        <v>103</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1943</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R79">
+        <v>999</v>
+      </c>
+      <c r="S79">
+        <v>999</v>
+      </c>
+      <c r="T79" t="s">
+        <v>142</v>
+      </c>
+      <c r="U79" s="1">
+        <v>999</v>
+      </c>
+      <c r="V79" s="10" t="s">
+        <v>1945</v>
+      </c>
+      <c r="W79" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="X79" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y79" s="10" t="s">
+        <v>1946</v>
+      </c>
+      <c r="Z79">
+        <v>999</v>
+      </c>
+      <c r="AA79">
+        <v>999</v>
+      </c>
+      <c r="AB79" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC79" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD79">
+        <v>999</v>
+      </c>
+      <c r="AE79" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF79" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG79" s="10" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AH79">
+        <v>999</v>
+      </c>
+      <c r="AI79" s="10" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AJ79" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK79" s="10" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AL79" s="10" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AM79" s="10" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AN79" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO79" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP79" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ79" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR79" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS79" s="10">
+        <v>999</v>
+      </c>
+      <c r="AT79" s="10" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AU79">
+        <v>999</v>
+      </c>
+      <c r="AV79" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AW79" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX79" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY79" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ79" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA79" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="80" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" s="2">
+        <v>44770</v>
+      </c>
       <c r="C80" t="s">
         <v>54</v>
       </c>
+      <c r="D80" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E80">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H80">
+        <v>999</v>
+      </c>
+      <c r="I80">
+        <v>999</v>
+      </c>
+      <c r="J80">
+        <v>999</v>
+      </c>
+      <c r="K80">
+        <v>999</v>
+      </c>
+      <c r="L80" t="s">
+        <v>772</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1954</v>
+      </c>
+      <c r="N80" t="s">
+        <v>772</v>
+      </c>
+      <c r="O80" t="s">
+        <v>103</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1955</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>772</v>
+      </c>
+      <c r="R80">
+        <v>999</v>
+      </c>
+      <c r="S80">
+        <v>999</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="V80" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="W80" s="10" t="s">
+        <v>1957</v>
+      </c>
+      <c r="X80" s="10" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Y80" s="10" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Z80" s="10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA80" s="10" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AB80" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC80" s="10" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AD80" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE80" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF80" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG80" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AH80" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI80" s="10" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AJ80" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK80" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL80" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AM80" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN80" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AO80" s="10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AP80" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ80" s="10" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AR80" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS80" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AT80" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU80" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="AV80" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AW80" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX80" s="10" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AY80" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AZ80" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA80" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" s="7">
+        <v>44770</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D81" s="6" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E81" s="6">
+        <v>14</v>
+      </c>
+      <c r="F81" s="6">
+        <v>2</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I81" s="6">
+        <v>530</v>
+      </c>
+      <c r="J81" s="6">
+        <v>755</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="R81" s="6">
+        <v>999</v>
+      </c>
+      <c r="S81" s="6">
+        <v>999</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U81" s="8">
+        <v>999</v>
+      </c>
+      <c r="V81" s="12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W81" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="X81" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>1974</v>
+      </c>
+      <c r="Z81" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA81" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB81" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC81" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD81" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE81" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AF81" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG81" s="12" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AH81" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI81" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ81" s="12" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AK81" s="12" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AL81" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AM81" s="12" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AN81" s="12" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AO81" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AP81" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ81" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="AR81" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS81" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT81" s="12" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AU81" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV81" s="12" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AW81" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX81" s="6">
+        <v>999</v>
+      </c>
+      <c r="AY81" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AZ81" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA81" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" s="2">
+        <v>44770</v>
+      </c>
       <c r="C82" t="s">
         <v>54</v>
       </c>
+      <c r="D82" s="10" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E82" s="10">
+        <v>10</v>
+      </c>
+      <c r="F82" s="10">
+        <v>2</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>1990</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>1991</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="P82" s="10" t="s">
+        <v>1993</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="R82" s="10" t="s">
+        <v>1995</v>
+      </c>
+      <c r="S82" s="10" t="s">
+        <v>1628</v>
+      </c>
+      <c r="T82" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="V82" s="10" t="s">
+        <v>1996</v>
+      </c>
+      <c r="W82" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="X82" s="10" t="s">
+        <v>1997</v>
+      </c>
+      <c r="Y82" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z82" s="10" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AA82" s="10" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AB82" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC82" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD82" s="10" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AE82" s="10" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AF82" s="10" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AG82" s="10" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AH82" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI82" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ82" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK82" s="10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AL82" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AM82" s="10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AN82" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AO82" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP82" s="10" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AQ82" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR82" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS82" s="10" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AT82" s="10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AU82" s="10" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AV82" s="10" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AW82" s="10" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AX82" s="10" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AY82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ82" s="10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="BA82" s="1" t="s">
+        <v>2012</v>
+      </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" s="2">
+        <v>44770</v>
+      </c>
       <c r="C83" t="s">
         <v>54</v>
       </c>
+      <c r="D83" s="10" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E83" s="10">
+        <v>10</v>
+      </c>
+      <c r="F83" s="10">
+        <v>6</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>2017</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>2018</v>
+      </c>
+      <c r="R83" s="10">
+        <v>999</v>
+      </c>
+      <c r="S83" s="10">
+        <v>999</v>
+      </c>
+      <c r="T83" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="V83" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W83" s="10" t="s">
+        <v>2020</v>
+      </c>
+      <c r="X83" s="10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="Y83" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z83" s="10" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AA83" s="10" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AB83" s="10" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AC83" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD83" s="10" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AE83" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AF83" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG83" s="10" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AH83" s="10" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AI83" s="10" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AJ83" s="10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AK83" s="10" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AL83" s="10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AM83" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN83" s="10" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AO83" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP83" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ83" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR83" s="10" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AS83" s="10" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AT83" s="10" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AU83" s="10" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AV83" s="10" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AW83" s="10" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AX83" s="10" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AY83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ83" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA83" s="1" t="s">
+        <v>2039</v>
+      </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -18008,7 +20643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18016,7 +20651,12 @@
   <cols>
     <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C380DA8F-880B-47CA-AF9A-00594B285CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCB875E-9D08-4786-916C-109877108710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="0" windowWidth="13152" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="2392">
   <si>
     <t>ID</t>
   </si>
@@ -6828,6 +6828,1125 @@
   <si>
     <t>Schwejersohn</t>
   </si>
+  <si>
+    <t>III_12_0009</t>
+  </si>
+  <si>
+    <t>r-X</t>
+  </si>
+  <si>
+    <t>St. PILT</t>
+  </si>
+  <si>
+    <t>Ernst Meyer</t>
+  </si>
+  <si>
+    <t>Ingersheim</t>
+  </si>
+  <si>
+    <t>Om[e]is (w)</t>
+  </si>
+  <si>
+    <t>Brommer (w)</t>
+  </si>
+  <si>
+    <t>Leiche (w)</t>
+  </si>
+  <si>
+    <t>Atz (w)</t>
+  </si>
+  <si>
+    <t>Entenretscher (m)</t>
+  </si>
+  <si>
+    <t>Mücke (w)</t>
+  </si>
+  <si>
+    <t>Ohmt (s)</t>
+  </si>
+  <si>
+    <t>Guller (m), Huhn (s)</t>
+  </si>
+  <si>
+    <t>Erdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Müllwerfer (m)</t>
+  </si>
+  <si>
+    <t>schelten</t>
+  </si>
+  <si>
+    <t>Gruselbeere (w)</t>
+  </si>
+  <si>
+    <t>Goof (w)</t>
+  </si>
+  <si>
+    <t>zwigen</t>
+  </si>
+  <si>
+    <t>III_12_0033</t>
+  </si>
+  <si>
+    <t>s-y</t>
+  </si>
+  <si>
+    <t>Ringsheim</t>
+  </si>
+  <si>
+    <t>Vivell, Alois</t>
+  </si>
+  <si>
+    <t>Wolfach i/K.</t>
+  </si>
+  <si>
+    <t>Alois Vivell</t>
+  </si>
+  <si>
+    <t>Liecht (w)</t>
+  </si>
+  <si>
+    <t>Brumbere (w)</t>
+  </si>
+  <si>
+    <t>Agescht, Atzel (m)</t>
+  </si>
+  <si>
+    <t>Raetscher (m)</t>
+  </si>
+  <si>
+    <t>Flaedermues (w)</t>
+  </si>
+  <si>
+    <t>Aehmd (s)</t>
+  </si>
+  <si>
+    <t>Guggummer (w)</t>
+  </si>
+  <si>
+    <t>Guller, Huehn (m)</t>
+  </si>
+  <si>
+    <t>Herdepfel (m)</t>
+  </si>
+  <si>
+    <t>Hohlmuus (w)</t>
+  </si>
+  <si>
+    <t>Gaelrueb (w)</t>
+  </si>
+  <si>
+    <t>Geddi (dr['], m)</t>
+  </si>
+  <si>
+    <t>Geisel (w)</t>
+  </si>
+  <si>
+    <t>Pfluem[e] (w) {e eventuell durchgestrichen}</t>
+  </si>
+  <si>
+    <t>schaelde</t>
+  </si>
+  <si>
+    <t>Gie[r]li (s) {könnte auch f sein}</t>
+  </si>
+  <si>
+    <t>Schdriggnodel (w)</t>
+  </si>
+  <si>
+    <t>Kaffeeschiesseli (s)</t>
+  </si>
+  <si>
+    <t>abzwiege</t>
+  </si>
+  <si>
+    <t>Schwieger[t]ochter  {könnte auch d sein}</t>
+  </si>
+  <si>
+    <t>III_12_0035</t>
+  </si>
+  <si>
+    <t>s-t</t>
+  </si>
+  <si>
+    <t>Oberhausen</t>
+  </si>
+  <si>
+    <t>Karl Ser[m]in {könnte auch n sein}</t>
+  </si>
+  <si>
+    <t>Licht (w) &lt;von der Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Grumbäre (w)</t>
+  </si>
+  <si>
+    <t>Agescht (m)</t>
+  </si>
+  <si>
+    <t>Schärmüs (w)</t>
+  </si>
+  <si>
+    <t>Gahlrueb (w)</t>
+  </si>
+  <si>
+    <t>Geti (m)</t>
+  </si>
+  <si>
+    <t>Geiße (w)</t>
+  </si>
+  <si>
+    <t>Pflüüm (w)</t>
+  </si>
+  <si>
+    <t>schtritte</t>
+  </si>
+  <si>
+    <t>Grüselbär (w)</t>
+  </si>
+  <si>
+    <t>Giefli (s)</t>
+  </si>
+  <si>
+    <t>Schtricknod'l (w)</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (d', w), Schwiegerdochder</t>
+  </si>
+  <si>
+    <t>III_12_0050</t>
+  </si>
+  <si>
+    <t>s-J</t>
+  </si>
+  <si>
+    <t>Schweighausen</t>
+  </si>
+  <si>
+    <t>Landkreis Lahr</t>
+  </si>
+  <si>
+    <t>Gentner Albert</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Mithilfe von {...} Bauern</t>
+  </si>
+  <si>
+    <t>Umbeise (w)</t>
+  </si>
+  <si>
+    <t>Blumbere (w)</t>
+  </si>
+  <si>
+    <t>Dissle (w)</t>
+  </si>
+  <si>
+    <t>Entemer (m)</t>
+  </si>
+  <si>
+    <t>Flädrmus (w)</t>
+  </si>
+  <si>
+    <t>Guller (m), Henne (w)</t>
+  </si>
+  <si>
+    <t>Gaelerueb (w)</t>
+  </si>
+  <si>
+    <t>wüest sage</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (w)</t>
+  </si>
+  <si>
+    <t>Guve (w)</t>
+  </si>
+  <si>
+    <t>Schüssele (w)</t>
+  </si>
+  <si>
+    <t>Gais (w)</t>
+  </si>
+  <si>
+    <t>III_12_0051</t>
+  </si>
+  <si>
+    <t>Ottoschwanden</t>
+  </si>
+  <si>
+    <t>Heinrich Meier</t>
+  </si>
+  <si>
+    <t>Diersburg</t>
+  </si>
+  <si>
+    <t>Umbaise (w)</t>
+  </si>
+  <si>
+    <t>Licht (w) &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Ageschte (w)</t>
+  </si>
+  <si>
+    <t>Ehmd (s) &lt;E fast wie I&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Guller (m), Huän (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Härtepfl</t>
+  </si>
+  <si>
+    <t>Rolli, Katzerolli (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>Gälru</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>we (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Spatz (s)</t>
+  </si>
+  <si>
+    <t>Kruuselbeere (w)</t>
+  </si>
+  <si>
+    <t>Guufe (w), Giifli (s)</t>
+  </si>
+  <si>
+    <t>Schissle (w)</t>
+  </si>
+  <si>
+    <t>zwiige, aigle</t>
+  </si>
+  <si>
+    <t>Schwiigerdoochder (w)</t>
+  </si>
+  <si>
+    <t>III_12_0052</t>
+  </si>
+  <si>
+    <t>s-L</t>
+  </si>
+  <si>
+    <t>Freiamt-Mußbach</t>
+  </si>
+  <si>
+    <t>Emmendingen/Baden</t>
+  </si>
+  <si>
+    <t>{Baden- steht bei Kreis}</t>
+  </si>
+  <si>
+    <t>Karl Heß</t>
+  </si>
+  <si>
+    <t>Achern</t>
+  </si>
+  <si>
+    <t>Fliege &lt;seltener: Mucke&gt;</t>
+  </si>
+  <si>
+    <t>Iehmd (s) &lt;Öhmd&gt;</t>
+  </si>
+  <si>
+    <t>Hiëfe (w)</t>
+  </si>
+  <si>
+    <t>Guller, Huhn (w)</t>
+  </si>
+  <si>
+    <t>Hewamm (w), Wiib (s)</t>
+  </si>
+  <si>
+    <t>Härdepfl (m)</t>
+  </si>
+  <si>
+    <t>Schär (m), Schärmus (w)</t>
+  </si>
+  <si>
+    <t>Gälruwe (w)</t>
+  </si>
+  <si>
+    <t>Gëddi (m) &lt;Götti&gt;</t>
+  </si>
+  <si>
+    <t>Schissili (s), Dellerli (s)</t>
+  </si>
+  <si>
+    <t>Hafe' (m)</t>
+  </si>
+  <si>
+    <t>abzwei[i]ge {i und e sind im gleichen ort gedruckt}</t>
+  </si>
+  <si>
+    <t>III_12_0059</t>
+  </si>
+  <si>
+    <t>s-P</t>
+  </si>
+  <si>
+    <t>Katzenmoos</t>
+  </si>
+  <si>
+    <t>Hermann Zimmer</t>
+  </si>
+  <si>
+    <t>Triberg</t>
+  </si>
+  <si>
+    <t>H. Zimmer</t>
+  </si>
+  <si>
+    <t>Liech (w) &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Brombere (w)</t>
+  </si>
+  <si>
+    <t>Diesel (w)</t>
+  </si>
+  <si>
+    <t>Ageste (w)</t>
+  </si>
+  <si>
+    <t>Öhmet (m)</t>
+  </si>
+  <si>
+    <t>Hiefele (w)</t>
+  </si>
+  <si>
+    <t>Guller (m), Henn (w)</t>
+  </si>
+  <si>
+    <t>Stachelbeere (w)</t>
+  </si>
+  <si>
+    <t>Schüssel (w)</t>
+  </si>
+  <si>
+    <t>zwiegen</t>
+  </si>
+  <si>
+    <t>III_12_0081</t>
+  </si>
+  <si>
+    <t>48,05</t>
+  </si>
+  <si>
+    <t>t-[ol]</t>
+  </si>
+  <si>
+    <t>Kayserberg</t>
+  </si>
+  <si>
+    <t>Karl Sontag</t>
+  </si>
+  <si>
+    <t>i. Elsass</t>
+  </si>
+  <si>
+    <t>Omäise (w)</t>
+  </si>
+  <si>
+    <t>Licht (a, w)</t>
+  </si>
+  <si>
+    <t>Bromera (w)</t>
+  </si>
+  <si>
+    <t>Atzel (w)</t>
+  </si>
+  <si>
+    <t>Mogg (w)</t>
+  </si>
+  <si>
+    <t>Ohmet (s)</t>
+  </si>
+  <si>
+    <t>Gogommer (w)</t>
+  </si>
+  <si>
+    <t>Bodda (w)</t>
+  </si>
+  <si>
+    <t>Güller (m), Bibbel (w), Hüön (w)</t>
+  </si>
+  <si>
+    <t>Häwamm (w)</t>
+  </si>
+  <si>
+    <t>Scharniäler (m)</t>
+  </si>
+  <si>
+    <t>Galrüöwa (w)</t>
+  </si>
+  <si>
+    <t>Riäma (m)</t>
+  </si>
+  <si>
+    <t>Grüsselsbära (w)</t>
+  </si>
+  <si>
+    <t>Gof (w)</t>
+  </si>
+  <si>
+    <t>Schtreggnodel (w)</t>
+  </si>
+  <si>
+    <t>Tass (w), Ondertass (w)</t>
+  </si>
+  <si>
+    <t>ardener Hafa (m)</t>
+  </si>
+  <si>
+    <t>zwija, pfropfa</t>
+  </si>
+  <si>
+    <t>Gaïss (w)</t>
+  </si>
+  <si>
+    <t>Sohnsfroï (w)</t>
+  </si>
+  <si>
+    <t>III_12_0098</t>
+  </si>
+  <si>
+    <t>t-z</t>
+  </si>
+  <si>
+    <t>Urschenheim</t>
+  </si>
+  <si>
+    <t>Hermann Wißmann</t>
+  </si>
+  <si>
+    <t>Breisach</t>
+  </si>
+  <si>
+    <t>des Ortes</t>
+  </si>
+  <si>
+    <t>Brumerde</t>
+  </si>
+  <si>
+    <t>Ägerst</t>
+  </si>
+  <si>
+    <t>Ohmed</t>
+  </si>
+  <si>
+    <t>Güller, Hüan</t>
+  </si>
+  <si>
+    <t>Schaällnieller</t>
+  </si>
+  <si>
+    <t>Galrüeb</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>me</t>
+    </r>
+  </si>
+  <si>
+    <t>schelda</t>
+  </si>
+  <si>
+    <t>Grüßelbera</t>
+  </si>
+  <si>
+    <t>Taß</t>
+  </si>
+  <si>
+    <t>III_12_0107</t>
+  </si>
+  <si>
+    <t>t-M</t>
+  </si>
+  <si>
+    <t>Oberrotweil</t>
+  </si>
+  <si>
+    <t>a. Kaiserstuhl</t>
+  </si>
+  <si>
+    <t>Josef Schwab</t>
+  </si>
+  <si>
+    <t>Licht (s) &lt;ch wie in ach&gt;</t>
+  </si>
+  <si>
+    <t>O̩meise (w)</t>
+  </si>
+  <si>
+    <t>Bru̩mbera (w)</t>
+  </si>
+  <si>
+    <t>Dissla (w)</t>
+  </si>
+  <si>
+    <t>Agerst (m)</t>
+  </si>
+  <si>
+    <t>Fla̩dermüs (w)</t>
+  </si>
+  <si>
+    <t>Gugummera (w)</t>
+  </si>
+  <si>
+    <t>Hãgabutta (w)</t>
+  </si>
+  <si>
+    <t>Guler (m), Huahn (w)</t>
+  </si>
+  <si>
+    <t>Hebãmme (w)</t>
+  </si>
+  <si>
+    <t>Galruaba (w)</t>
+  </si>
+  <si>
+    <t>Geissel (w)</t>
+  </si>
+  <si>
+    <t>Gru̩selbä̩ri (w)</t>
+  </si>
+  <si>
+    <t>Gifli (s)</t>
+  </si>
+  <si>
+    <t>Strecknodla (w)</t>
+  </si>
+  <si>
+    <t>ardena Hafa (m)</t>
+  </si>
+  <si>
+    <t>III_12_0111</t>
+  </si>
+  <si>
+    <t>t-T</t>
+  </si>
+  <si>
+    <t>Bahlingen</t>
+  </si>
+  <si>
+    <t>F. Leisinger</t>
+  </si>
+  <si>
+    <t>Bräunlingen A. Donaueschingen</t>
+  </si>
+  <si>
+    <t>Oomeise</t>
+  </si>
+  <si>
+    <t>Brummbeere</t>
+  </si>
+  <si>
+    <t>Dißlä &lt;ä zwischen e und ä&gt;</t>
+  </si>
+  <si>
+    <t>Agerste &lt;A leicht nach ä&gt;</t>
+  </si>
+  <si>
+    <t>Änterätscher</t>
+  </si>
+  <si>
+    <t>Flädermüüs</t>
+  </si>
+  <si>
+    <t>Muggä</t>
+  </si>
+  <si>
+    <t>Aämd</t>
+  </si>
+  <si>
+    <t>Haagebudde</t>
+  </si>
+  <si>
+    <t>Guuler, Huehn</t>
+  </si>
+  <si>
+    <t>Roller, Katzeroller</t>
+  </si>
+  <si>
+    <t>Schäärmüüs</t>
+  </si>
+  <si>
+    <t>Gaäliruäbe</t>
+  </si>
+  <si>
+    <t>Pflüämä</t>
+  </si>
+  <si>
+    <t>schäldä</t>
+  </si>
+  <si>
+    <t>Grüslbeere</t>
+  </si>
+  <si>
+    <t>Giifili</t>
+  </si>
+  <si>
+    <t>Stricknoodlä</t>
+  </si>
+  <si>
+    <t>Dochdrmann</t>
+  </si>
+  <si>
+    <t>III_12_0112</t>
+  </si>
+  <si>
+    <t>u-a</t>
+  </si>
+  <si>
+    <t>Landkreis Emmendingen</t>
+  </si>
+  <si>
+    <t>Franz Schmiederer</t>
+  </si>
+  <si>
+    <t>Bad Peterstal</t>
+  </si>
+  <si>
+    <t>Heimbach {1. Seite}</t>
+  </si>
+  <si>
+    <t>Dißle (w)</t>
+  </si>
+  <si>
+    <t>Anderich (m)</t>
+  </si>
+  <si>
+    <t>Ahmdet (m)</t>
+  </si>
+  <si>
+    <t>Hagebudde (m)</t>
+  </si>
+  <si>
+    <t>Gulli (m), Huen (w)</t>
+  </si>
+  <si>
+    <t>Hardepfl (m)</t>
+  </si>
+  <si>
+    <t>Gallruewe (w)</t>
+  </si>
+  <si>
+    <t>Grüsselbäre (w)</t>
+  </si>
+  <si>
+    <t>Schisseli (s), Plattli (s)</t>
+  </si>
+  <si>
+    <t>Schwigerdochder (w)</t>
+  </si>
+  <si>
+    <t>III_12_0119</t>
+  </si>
+  <si>
+    <t>t-R</t>
+  </si>
+  <si>
+    <t>Forchheim</t>
+  </si>
+  <si>
+    <t>[M]aia Ober[st]ell</t>
+  </si>
+  <si>
+    <t>Freiburg i. Brg</t>
+  </si>
+  <si>
+    <t>vergrabe, zu de Licht</t>
+  </si>
+  <si>
+    <t>Elschder</t>
+  </si>
+  <si>
+    <t>Rädscher</t>
+  </si>
+  <si>
+    <t>Guller, Hu-en</t>
+  </si>
+  <si>
+    <t>Niäler</t>
+  </si>
+  <si>
+    <t>Gäälruäbe</t>
+  </si>
+  <si>
+    <t>Pflummä</t>
+  </si>
+  <si>
+    <t>briäle</t>
+  </si>
+  <si>
+    <t>Schdachelbääre</t>
+  </si>
+  <si>
+    <t>Schdriggnoodle</t>
+  </si>
+  <si>
+    <t>Kaffeschisseli, Dällerli</t>
+  </si>
+  <si>
+    <t>irdene Haafe</t>
+  </si>
+  <si>
+    <t>zwiigä</t>
+  </si>
+  <si>
+    <t>Schwiägerdoochder</t>
+  </si>
+  <si>
+    <t>[S]' {könnte auch t sein}</t>
+  </si>
+  <si>
+    <t>III_12_0128</t>
+  </si>
+  <si>
+    <t>u-g</t>
+  </si>
+  <si>
+    <t>Siegelau</t>
+  </si>
+  <si>
+    <t>Adolf Klauser</t>
+  </si>
+  <si>
+    <t>Freiburg/Brsg.</t>
+  </si>
+  <si>
+    <t>Umbeise̊ (w)</t>
+  </si>
+  <si>
+    <t>Liicht (d', w)</t>
+  </si>
+  <si>
+    <t>Brummbere̊ (w)</t>
+  </si>
+  <si>
+    <t>Dißle̊ (w)</t>
+  </si>
+  <si>
+    <t>Ente̊ (w)</t>
+  </si>
+  <si>
+    <t>Öhmdet (m)</t>
+  </si>
+  <si>
+    <t>Gugummere̊ (w)</t>
+  </si>
+  <si>
+    <t>Herdäpfel (m) &lt;e&gt; { das e ist in klammern über das ä}</t>
+  </si>
+  <si>
+    <t>Gälruebe̊ (w)</t>
+  </si>
+  <si>
+    <t>Pflume̊ (w)</t>
+  </si>
+  <si>
+    <t>schelte̊</t>
+  </si>
+  <si>
+    <t>Stachelbeer (w)</t>
+  </si>
+  <si>
+    <t>Gufe̊ (w)</t>
+  </si>
+  <si>
+    <t>Schüssel (w), Plättli (s)</t>
+  </si>
+  <si>
+    <t>irdene Hafe̊ (m)</t>
+  </si>
+  <si>
+    <t>zwîge</t>
+  </si>
+  <si>
+    <t>Geiß (s)</t>
+  </si>
+  <si>
+    <t>III_12_0145</t>
+  </si>
+  <si>
+    <t>u-r</t>
+  </si>
+  <si>
+    <t>Yach</t>
+  </si>
+  <si>
+    <t>Steinhart</t>
+  </si>
+  <si>
+    <t>Freiburg i/Brg.</t>
+  </si>
+  <si>
+    <t>gehn z'Gräb, Licht (e)</t>
+  </si>
+  <si>
+    <t>Humbere</t>
+  </si>
+  <si>
+    <t>Regeschüttler</t>
+  </si>
+  <si>
+    <t>Rach</t>
+  </si>
+  <si>
+    <t>Fliège, Mucke</t>
+  </si>
+  <si>
+    <t>Hiéfe</t>
+  </si>
+  <si>
+    <t>Guller, Henne</t>
+  </si>
+  <si>
+    <t>Scher</t>
+  </si>
+  <si>
+    <t>Stachelbere</t>
+  </si>
+  <si>
+    <t>Schüssle, Blättli</t>
+  </si>
+  <si>
+    <t>abzwiige</t>
+  </si>
+  <si>
+    <t>Jung (die)</t>
+  </si>
+  <si>
+    <t>III_12:0151</t>
+  </si>
+  <si>
+    <t>[u]-o</t>
+  </si>
+  <si>
+    <t>Bleibach</t>
+  </si>
+  <si>
+    <t>Erwin Hirt</t>
+  </si>
+  <si>
+    <t>Umbeisse (f)</t>
+  </si>
+  <si>
+    <t>Liecht (f)</t>
+  </si>
+  <si>
+    <t>Brumbere (f)</t>
+  </si>
+  <si>
+    <t>Diessle (f)</t>
+  </si>
+  <si>
+    <t>Elster (f)</t>
+  </si>
+  <si>
+    <t>Ente (f)</t>
+  </si>
+  <si>
+    <t>Fledermaus (f)</t>
+  </si>
+  <si>
+    <t>Mucke (f)</t>
+  </si>
+  <si>
+    <t>Gugummer (f)</t>
+  </si>
+  <si>
+    <t>Hüfele (f)</t>
+  </si>
+  <si>
+    <t>Guller (m)</t>
+  </si>
+  <si>
+    <t>Hebamm (f)</t>
+  </si>
+  <si>
+    <t>Schärrmus (f)</t>
+  </si>
+  <si>
+    <t>Rübe (f)</t>
+  </si>
+  <si>
+    <t>Mohr (f)</t>
+  </si>
+  <si>
+    <t>Geisel (f)</t>
+  </si>
+  <si>
+    <t>Pflume (f)</t>
+  </si>
+  <si>
+    <t>Stachelbeere (f)</t>
+  </si>
+  <si>
+    <t>Steckgufe (f)</t>
+  </si>
+  <si>
+    <t>Stricknadel (f)</t>
+  </si>
+  <si>
+    <t>Schüssele (s)</t>
+  </si>
+  <si>
+    <t>Geiss (f)</t>
+  </si>
+  <si>
+    <t>Schwiegertochter (f)</t>
+  </si>
+  <si>
+    <t>III_12_0160</t>
+  </si>
+  <si>
+    <t>u-D</t>
+  </si>
+  <si>
+    <t>Langenschiltach</t>
+  </si>
+  <si>
+    <t>Willingen</t>
+  </si>
+  <si>
+    <t>La[en]d[er]</t>
+  </si>
+  <si>
+    <t>König[sb]u[rf]</t>
+  </si>
+  <si>
+    <t>Amoas (w)</t>
+  </si>
+  <si>
+    <t>Liecht (w) &lt;langes i&gt;</t>
+  </si>
+  <si>
+    <t>Drombeer (w)</t>
+  </si>
+  <si>
+    <t>Diesel (w) &lt;langes i&gt;</t>
+  </si>
+  <si>
+    <t>Hätzel (w)</t>
+  </si>
+  <si>
+    <t>Endenaa (m)</t>
+  </si>
+  <si>
+    <t>Fleddermus (w)</t>
+  </si>
+  <si>
+    <t>Flieg (w) &lt;kein langes i&gt;</t>
+  </si>
+  <si>
+    <t>Gugummer (w)</t>
+  </si>
+  <si>
+    <t>Erdepfel (m)</t>
+  </si>
+  <si>
+    <t>Katzerolle (m)</t>
+  </si>
+  <si>
+    <t>Gälerieb (w) &lt;kein lang. i&gt;</t>
+  </si>
+  <si>
+    <t>NB &lt;???&gt;</t>
+  </si>
+  <si>
+    <t>Moor (m)</t>
+  </si>
+  <si>
+    <t>Gedde (m)</t>
+  </si>
+  <si>
+    <t>Goasel (w)</t>
+  </si>
+  <si>
+    <t>Pflomme (w)</t>
+  </si>
+  <si>
+    <t>Stecknoddel (w)</t>
+  </si>
+  <si>
+    <t>Stricknoddel (w)</t>
+  </si>
+  <si>
+    <t>Kaffeeschissel (w)</t>
+  </si>
+  <si>
+    <t>Gos (w)</t>
+  </si>
+  <si>
+    <t>Schwiegerdoochter (w)</t>
+  </si>
 </sst>
 </file>
 
@@ -6873,12 +7992,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -6950,7 +8075,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6962,6 +8087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -7284,8 +8410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ83" sqref="AZ83"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18765,7 +19891,7 @@
       <c r="H73" t="s">
         <v>1772</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="I73" t="s">
         <v>1799</v>
       </c>
       <c r="J73" t="s">
@@ -18947,10 +20073,10 @@
       <c r="P74" t="s">
         <v>1825</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" t="s">
         <v>1983</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" t="s">
         <v>1984</v>
       </c>
       <c r="S74" t="s">
@@ -19034,7 +20160,7 @@
       <c r="AS74" t="s">
         <v>1834</v>
       </c>
-      <c r="AT74" s="11" t="s">
+      <c r="AT74" t="s">
         <v>297</v>
       </c>
       <c r="AU74" t="s">
@@ -19144,7 +20270,7 @@
       <c r="AC75" t="s">
         <v>1852</v>
       </c>
-      <c r="AD75" s="11" t="s">
+      <c r="AD75" t="s">
         <v>1985</v>
       </c>
       <c r="AE75" t="s">
@@ -19594,97 +20720,97 @@
       <c r="U78" s="1">
         <v>999</v>
       </c>
-      <c r="V78" s="10" t="s">
+      <c r="V78" t="s">
         <v>1926</v>
       </c>
-      <c r="W78" s="10" t="s">
+      <c r="W78" t="s">
         <v>1927</v>
       </c>
-      <c r="X78" s="10" t="s">
+      <c r="X78" t="s">
         <v>1928</v>
       </c>
-      <c r="Y78" s="10" t="s">
+      <c r="Y78" t="s">
         <v>375</v>
       </c>
-      <c r="Z78" s="10" t="s">
+      <c r="Z78" t="s">
         <v>1929</v>
       </c>
-      <c r="AA78" s="10" t="s">
+      <c r="AA78" t="s">
         <v>430</v>
       </c>
-      <c r="AB78" s="10" t="s">
+      <c r="AB78" t="s">
         <v>348</v>
       </c>
-      <c r="AC78" s="10" t="s">
+      <c r="AC78" t="s">
         <v>1449</v>
       </c>
-      <c r="AD78" s="10" t="s">
+      <c r="AD78" t="s">
         <v>925</v>
       </c>
-      <c r="AE78" s="10" t="s">
+      <c r="AE78" t="s">
         <v>1930</v>
       </c>
-      <c r="AF78" s="10" t="s">
+      <c r="AF78" t="s">
         <v>1931</v>
       </c>
-      <c r="AG78" s="10" t="s">
+      <c r="AG78" t="s">
         <v>1932</v>
       </c>
-      <c r="AH78" s="10" t="s">
+      <c r="AH78" t="s">
         <v>1933</v>
       </c>
-      <c r="AI78" s="10" t="s">
+      <c r="AI78" t="s">
         <v>77</v>
       </c>
-      <c r="AJ78" s="10" t="s">
+      <c r="AJ78" t="s">
         <v>118</v>
       </c>
-      <c r="AK78" s="10" t="s">
+      <c r="AK78" t="s">
         <v>1934</v>
       </c>
-      <c r="AL78" s="10" t="s">
+      <c r="AL78" t="s">
         <v>1935</v>
       </c>
-      <c r="AM78" s="10" t="s">
+      <c r="AM78" t="s">
         <v>257</v>
       </c>
-      <c r="AN78" s="10" t="s">
+      <c r="AN78" t="s">
         <v>1454</v>
       </c>
-      <c r="AO78" s="10" t="s">
+      <c r="AO78" t="s">
         <v>1638</v>
       </c>
-      <c r="AP78" s="10" t="s">
+      <c r="AP78" t="s">
         <v>1936</v>
       </c>
-      <c r="AQ78" s="10" t="s">
+      <c r="AQ78" t="s">
         <v>414</v>
       </c>
-      <c r="AR78" s="10" t="s">
+      <c r="AR78" t="s">
         <v>202</v>
       </c>
-      <c r="AS78" s="10" t="s">
+      <c r="AS78" t="s">
         <v>1937</v>
       </c>
-      <c r="AT78" s="10" t="s">
+      <c r="AT78" t="s">
         <v>1938</v>
       </c>
-      <c r="AU78" s="10" t="s">
+      <c r="AU78" t="s">
         <v>1939</v>
       </c>
-      <c r="AV78" s="10" t="s">
+      <c r="AV78" t="s">
         <v>1940</v>
       </c>
-      <c r="AW78" s="10" t="s">
+      <c r="AW78" t="s">
         <v>91</v>
       </c>
-      <c r="AX78" s="10" t="s">
+      <c r="AX78" t="s">
         <v>419</v>
       </c>
       <c r="AY78" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AZ78" s="10" t="s">
+      <c r="AZ78" t="s">
         <v>211</v>
       </c>
       <c r="BA78" s="1" t="s">
@@ -19755,16 +20881,16 @@
       <c r="U79" s="1">
         <v>999</v>
       </c>
-      <c r="V79" s="10" t="s">
+      <c r="V79" t="s">
         <v>1945</v>
       </c>
-      <c r="W79" s="10" t="s">
+      <c r="W79" t="s">
         <v>1337</v>
       </c>
-      <c r="X79" s="10" t="s">
+      <c r="X79" t="s">
         <v>1089</v>
       </c>
-      <c r="Y79" s="10" t="s">
+      <c r="Y79" t="s">
         <v>1946</v>
       </c>
       <c r="Z79">
@@ -19773,79 +20899,79 @@
       <c r="AA79">
         <v>999</v>
       </c>
-      <c r="AB79" s="10" t="s">
+      <c r="AB79" t="s">
         <v>279</v>
       </c>
-      <c r="AC79" s="10" t="s">
+      <c r="AC79" t="s">
         <v>1473</v>
       </c>
       <c r="AD79">
         <v>999</v>
       </c>
-      <c r="AE79" s="10" t="s">
+      <c r="AE79" t="s">
         <v>324</v>
       </c>
-      <c r="AF79" s="10" t="s">
+      <c r="AF79" t="s">
         <v>283</v>
       </c>
-      <c r="AG79" s="10" t="s">
+      <c r="AG79" t="s">
         <v>1947</v>
       </c>
       <c r="AH79">
         <v>999</v>
       </c>
-      <c r="AI79" s="10" t="s">
+      <c r="AI79" t="s">
         <v>1948</v>
       </c>
-      <c r="AJ79" s="10" t="s">
+      <c r="AJ79" t="s">
         <v>1502</v>
       </c>
-      <c r="AK79" s="10" t="s">
+      <c r="AK79" t="s">
         <v>1949</v>
       </c>
-      <c r="AL79" s="10" t="s">
+      <c r="AL79" t="s">
         <v>1832</v>
       </c>
-      <c r="AM79" s="10" t="s">
+      <c r="AM79" t="s">
         <v>1950</v>
       </c>
-      <c r="AN79" s="10" t="s">
+      <c r="AN79" t="s">
         <v>831</v>
       </c>
-      <c r="AO79" s="10" t="s">
+      <c r="AO79" t="s">
         <v>1191</v>
       </c>
-      <c r="AP79" s="10" t="s">
+      <c r="AP79" t="s">
         <v>1192</v>
       </c>
-      <c r="AQ79" s="10" t="s">
+      <c r="AQ79" t="s">
         <v>260</v>
       </c>
-      <c r="AR79" s="10" t="s">
+      <c r="AR79" t="s">
         <v>202</v>
       </c>
-      <c r="AS79" s="10">
-        <v>999</v>
-      </c>
-      <c r="AT79" s="10" t="s">
+      <c r="AS79">
+        <v>999</v>
+      </c>
+      <c r="AT79" t="s">
         <v>1951</v>
       </c>
       <c r="AU79">
         <v>999</v>
       </c>
-      <c r="AV79" s="10" t="s">
+      <c r="AV79" t="s">
         <v>1952</v>
       </c>
-      <c r="AW79" s="10" t="s">
+      <c r="AW79" t="s">
         <v>394</v>
       </c>
-      <c r="AX79" s="10" t="s">
+      <c r="AX79" t="s">
         <v>1197</v>
       </c>
       <c r="AY79" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ79" s="10" t="s">
+      <c r="AZ79" t="s">
         <v>303</v>
       </c>
       <c r="BA79" s="1" t="s">
@@ -19916,97 +21042,97 @@
       <c r="U80" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="V80" s="10" t="s">
+      <c r="V80" t="s">
         <v>723</v>
       </c>
-      <c r="W80" s="10" t="s">
+      <c r="W80" t="s">
         <v>1957</v>
       </c>
-      <c r="X80" s="10" t="s">
+      <c r="X80" t="s">
         <v>1958</v>
       </c>
-      <c r="Y80" s="10" t="s">
+      <c r="Y80" t="s">
         <v>1808</v>
       </c>
-      <c r="Z80" s="10" t="s">
+      <c r="Z80" t="s">
         <v>1357</v>
       </c>
-      <c r="AA80" s="10" t="s">
+      <c r="AA80" t="s">
         <v>1959</v>
       </c>
-      <c r="AB80" s="10" t="s">
+      <c r="AB80" t="s">
         <v>226</v>
       </c>
-      <c r="AC80" s="10" t="s">
+      <c r="AC80" t="s">
         <v>1960</v>
       </c>
-      <c r="AD80" s="10" t="s">
+      <c r="AD80" t="s">
         <v>189</v>
       </c>
-      <c r="AE80" s="10" t="s">
+      <c r="AE80" t="s">
         <v>228</v>
       </c>
-      <c r="AF80" s="10" t="s">
+      <c r="AF80" t="s">
         <v>804</v>
       </c>
-      <c r="AG80" s="10" t="s">
+      <c r="AG80" t="s">
         <v>1961</v>
       </c>
-      <c r="AH80" s="10" t="s">
+      <c r="AH80" t="s">
         <v>117</v>
       </c>
-      <c r="AI80" s="10" t="s">
+      <c r="AI80" t="s">
         <v>1962</v>
       </c>
-      <c r="AJ80" s="10" t="s">
+      <c r="AJ80" t="s">
         <v>354</v>
       </c>
-      <c r="AK80" s="10" t="s">
+      <c r="AK80" t="s">
         <v>255</v>
       </c>
-      <c r="AL80" s="10" t="s">
+      <c r="AL80" t="s">
         <v>1963</v>
       </c>
-      <c r="AM80" s="10" t="s">
+      <c r="AM80" t="s">
         <v>257</v>
       </c>
-      <c r="AN80" s="10" t="s">
+      <c r="AN80" t="s">
         <v>1964</v>
       </c>
-      <c r="AO80" s="10" t="s">
+      <c r="AO80" t="s">
         <v>1585</v>
       </c>
-      <c r="AP80" s="10" t="s">
+      <c r="AP80" t="s">
         <v>259</v>
       </c>
-      <c r="AQ80" s="10" t="s">
+      <c r="AQ80" t="s">
         <v>1965</v>
       </c>
-      <c r="AR80" s="10" t="s">
+      <c r="AR80" t="s">
         <v>202</v>
       </c>
-      <c r="AS80" s="10" t="s">
+      <c r="AS80" t="s">
         <v>1966</v>
       </c>
-      <c r="AT80" s="10" t="s">
+      <c r="AT80" t="s">
         <v>889</v>
       </c>
-      <c r="AU80" s="10" t="s">
+      <c r="AU80" t="s">
         <v>790</v>
       </c>
-      <c r="AV80" s="10" t="s">
+      <c r="AV80" t="s">
         <v>1967</v>
       </c>
-      <c r="AW80" s="10" t="s">
+      <c r="AW80" t="s">
         <v>792</v>
       </c>
-      <c r="AX80" s="10" t="s">
+      <c r="AX80" t="s">
         <v>1968</v>
       </c>
       <c r="AY80" s="1" t="s">
         <v>1969</v>
       </c>
-      <c r="AZ80" s="10" t="s">
+      <c r="AZ80" t="s">
         <v>211</v>
       </c>
       <c r="BA80" s="1" t="s">
@@ -20077,88 +21203,88 @@
       <c r="U81" s="8">
         <v>999</v>
       </c>
-      <c r="V81" s="12" t="s">
+      <c r="V81" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="W81" s="12" t="s">
+      <c r="W81" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="X81" s="12" t="s">
+      <c r="X81" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="Y81" s="12" t="s">
+      <c r="Y81" s="6" t="s">
         <v>1974</v>
       </c>
-      <c r="Z81" s="12" t="s">
+      <c r="Z81" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="AA81" s="12" t="s">
+      <c r="AA81" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="AB81" s="12" t="s">
+      <c r="AB81" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="AC81" s="12" t="s">
+      <c r="AC81" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AD81" s="12" t="s">
+      <c r="AD81" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AE81" s="12" t="s">
+      <c r="AE81" s="6" t="s">
         <v>1975</v>
       </c>
-      <c r="AF81" s="12" t="s">
+      <c r="AF81" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="AG81" s="12" t="s">
+      <c r="AG81" s="6" t="s">
         <v>1976</v>
       </c>
-      <c r="AH81" s="12" t="s">
+      <c r="AH81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AI81" s="12" t="s">
+      <c r="AI81" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="AJ81" s="12" t="s">
+      <c r="AJ81" s="6" t="s">
         <v>1583</v>
       </c>
-      <c r="AK81" s="12" t="s">
+      <c r="AK81" s="6" t="s">
         <v>1977</v>
       </c>
-      <c r="AL81" s="12" t="s">
+      <c r="AL81" s="6" t="s">
         <v>1978</v>
       </c>
-      <c r="AM81" s="12" t="s">
+      <c r="AM81" s="6" t="s">
         <v>1979</v>
       </c>
-      <c r="AN81" s="12" t="s">
+      <c r="AN81" s="6" t="s">
         <v>1980</v>
       </c>
-      <c r="AO81" s="12" t="s">
+      <c r="AO81" s="6" t="s">
         <v>1281</v>
       </c>
-      <c r="AP81" s="12" t="s">
+      <c r="AP81" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="AQ81" s="12" t="s">
+      <c r="AQ81" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="AR81" s="12" t="s">
+      <c r="AR81" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AS81" s="12" t="s">
+      <c r="AS81" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="AT81" s="12" t="s">
+      <c r="AT81" s="6" t="s">
         <v>1981</v>
       </c>
-      <c r="AU81" s="12" t="s">
+      <c r="AU81" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="AV81" s="12" t="s">
+      <c r="AV81" s="6" t="s">
         <v>1982</v>
       </c>
-      <c r="AW81" s="12" t="s">
+      <c r="AW81" s="6" t="s">
         <v>265</v>
       </c>
       <c r="AX81" s="6">
@@ -20167,7 +21293,7 @@
       <c r="AY81" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="AZ81" s="12" t="s">
+      <c r="AZ81" s="6" t="s">
         <v>211</v>
       </c>
       <c r="BA81" s="8" t="s">
@@ -20184,148 +21310,148 @@
       <c r="C82" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" t="s">
         <v>1986</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82">
         <v>10</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82">
         <v>2</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" t="s">
         <v>1987</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" t="s">
         <v>1772</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" t="s">
         <v>1988</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" t="s">
         <v>1989</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" t="s">
         <v>1990</v>
       </c>
-      <c r="L82" s="10" t="s">
+      <c r="L82" t="s">
         <v>1991</v>
       </c>
-      <c r="N82" s="10" t="s">
+      <c r="N82" t="s">
         <v>1992</v>
       </c>
-      <c r="O82" s="10" t="s">
+      <c r="O82" t="s">
         <v>504</v>
       </c>
-      <c r="P82" s="10" t="s">
+      <c r="P82" t="s">
         <v>1993</v>
       </c>
-      <c r="Q82" s="10" t="s">
+      <c r="Q82" t="s">
         <v>1994</v>
       </c>
-      <c r="R82" s="10" t="s">
+      <c r="R82" t="s">
         <v>1995</v>
       </c>
-      <c r="S82" s="10" t="s">
+      <c r="S82" t="s">
         <v>1628</v>
       </c>
-      <c r="T82" s="10" t="s">
+      <c r="T82" t="s">
         <v>142</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>1993</v>
       </c>
-      <c r="V82" s="10" t="s">
+      <c r="V82" t="s">
         <v>1996</v>
       </c>
-      <c r="W82" s="10" t="s">
+      <c r="W82" t="s">
         <v>896</v>
       </c>
-      <c r="X82" s="10" t="s">
+      <c r="X82" t="s">
         <v>1997</v>
       </c>
-      <c r="Y82" s="10" t="s">
+      <c r="Y82" t="s">
         <v>1162</v>
       </c>
-      <c r="Z82" s="10" t="s">
+      <c r="Z82" t="s">
         <v>1998</v>
       </c>
-      <c r="AA82" s="10" t="s">
+      <c r="AA82" t="s">
         <v>1999</v>
       </c>
-      <c r="AB82" s="10" t="s">
+      <c r="AB82" t="s">
         <v>378</v>
       </c>
-      <c r="AC82" s="10" t="s">
+      <c r="AC82" t="s">
         <v>1473</v>
       </c>
-      <c r="AD82" s="10" t="s">
+      <c r="AD82" t="s">
         <v>2000</v>
       </c>
-      <c r="AE82" s="10" t="s">
+      <c r="AE82" t="s">
         <v>2001</v>
       </c>
-      <c r="AF82" s="10" t="s">
+      <c r="AF82" t="s">
         <v>2002</v>
       </c>
-      <c r="AG82" s="10" t="s">
+      <c r="AG82" t="s">
         <v>2003</v>
       </c>
-      <c r="AH82" s="10" t="s">
+      <c r="AH82" t="s">
         <v>1688</v>
       </c>
-      <c r="AI82" s="10" t="s">
+      <c r="AI82" t="s">
         <v>463</v>
       </c>
-      <c r="AJ82" s="10" t="s">
+      <c r="AJ82" t="s">
         <v>1168</v>
       </c>
-      <c r="AK82" s="10" t="s">
+      <c r="AK82" t="s">
         <v>2004</v>
       </c>
-      <c r="AL82" s="10" t="s">
+      <c r="AL82" t="s">
         <v>2005</v>
       </c>
-      <c r="AM82" s="10" t="s">
+      <c r="AM82" t="s">
         <v>2006</v>
       </c>
-      <c r="AN82" s="10" t="s">
+      <c r="AN82" t="s">
         <v>1655</v>
       </c>
-      <c r="AO82" s="10" t="s">
+      <c r="AO82" t="s">
         <v>712</v>
       </c>
-      <c r="AP82" s="10" t="s">
+      <c r="AP82" t="s">
         <v>1912</v>
       </c>
-      <c r="AQ82" s="10" t="s">
+      <c r="AQ82" t="s">
         <v>85</v>
       </c>
-      <c r="AR82" s="10" t="s">
+      <c r="AR82" t="s">
         <v>165</v>
       </c>
-      <c r="AS82" s="10" t="s">
+      <c r="AS82" t="s">
         <v>1914</v>
       </c>
-      <c r="AT82" s="10" t="s">
+      <c r="AT82" t="s">
         <v>2007</v>
       </c>
-      <c r="AU82" s="10" t="s">
+      <c r="AU82" t="s">
         <v>2008</v>
       </c>
-      <c r="AV82" s="10" t="s">
+      <c r="AV82" t="s">
         <v>2009</v>
       </c>
-      <c r="AW82" s="10" t="s">
+      <c r="AW82" t="s">
         <v>2010</v>
       </c>
-      <c r="AX82" s="10" t="s">
+      <c r="AX82" t="s">
         <v>2011</v>
       </c>
       <c r="AY82" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AZ82" s="10" t="s">
+      <c r="AZ82" t="s">
         <v>2013</v>
       </c>
       <c r="BA82" s="1" t="s">
@@ -20342,148 +21468,148 @@
       <c r="C83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" t="s">
         <v>1986</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83">
         <v>10</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83">
         <v>6</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" t="s">
         <v>2014</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" t="s">
         <v>1772</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" t="s">
         <v>98</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" t="s">
         <v>1989</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" t="s">
         <v>2015</v>
       </c>
-      <c r="L83" s="10" t="s">
+      <c r="L83" t="s">
         <v>2016</v>
       </c>
-      <c r="N83" s="10" t="s">
+      <c r="N83" t="s">
         <v>1992</v>
       </c>
-      <c r="O83" s="10" t="s">
+      <c r="O83" t="s">
         <v>139</v>
       </c>
-      <c r="P83" s="10" t="s">
+      <c r="P83" t="s">
         <v>2017</v>
       </c>
-      <c r="Q83" s="10" t="s">
+      <c r="Q83" t="s">
         <v>2018</v>
       </c>
-      <c r="R83" s="10">
-        <v>999</v>
-      </c>
-      <c r="S83" s="10">
-        <v>999</v>
-      </c>
-      <c r="T83" s="10" t="s">
+      <c r="R83">
+        <v>999</v>
+      </c>
+      <c r="S83">
+        <v>999</v>
+      </c>
+      <c r="T83" t="s">
         <v>179</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="V83" s="10" t="s">
+      <c r="V83" t="s">
         <v>1629</v>
       </c>
-      <c r="W83" s="10" t="s">
+      <c r="W83" t="s">
         <v>2020</v>
       </c>
-      <c r="X83" s="10" t="s">
+      <c r="X83" t="s">
         <v>2021</v>
       </c>
-      <c r="Y83" s="10" t="s">
+      <c r="Y83" t="s">
         <v>375</v>
       </c>
-      <c r="Z83" s="10" t="s">
+      <c r="Z83" t="s">
         <v>2022</v>
       </c>
-      <c r="AA83" s="10" t="s">
+      <c r="AA83" t="s">
         <v>2023</v>
       </c>
-      <c r="AB83" s="10" t="s">
+      <c r="AB83" t="s">
         <v>2024</v>
       </c>
-      <c r="AC83" s="10" t="s">
+      <c r="AC83" t="s">
         <v>1449</v>
       </c>
-      <c r="AD83" s="10" t="s">
+      <c r="AD83" t="s">
         <v>2025</v>
       </c>
-      <c r="AE83" s="10" t="s">
+      <c r="AE83" t="s">
         <v>1275</v>
       </c>
-      <c r="AF83" s="10" t="s">
+      <c r="AF83" t="s">
         <v>115</v>
       </c>
-      <c r="AG83" s="10" t="s">
+      <c r="AG83" t="s">
         <v>2026</v>
       </c>
-      <c r="AH83" s="10" t="s">
+      <c r="AH83" t="s">
         <v>1933</v>
       </c>
-      <c r="AI83" s="10" t="s">
+      <c r="AI83" t="s">
         <v>2027</v>
       </c>
-      <c r="AJ83" s="10" t="s">
+      <c r="AJ83" t="s">
         <v>2028</v>
       </c>
-      <c r="AK83" s="10" t="s">
+      <c r="AK83" t="s">
         <v>2029</v>
       </c>
-      <c r="AL83" s="10" t="s">
+      <c r="AL83" t="s">
         <v>2030</v>
       </c>
-      <c r="AM83" s="10" t="s">
+      <c r="AM83" t="s">
         <v>257</v>
       </c>
-      <c r="AN83" s="10" t="s">
+      <c r="AN83" t="s">
         <v>2031</v>
       </c>
-      <c r="AO83" s="10" t="s">
+      <c r="AO83" t="s">
         <v>358</v>
       </c>
-      <c r="AP83" s="10" t="s">
+      <c r="AP83" t="s">
         <v>124</v>
       </c>
-      <c r="AQ83" s="10" t="s">
+      <c r="AQ83" t="s">
         <v>85</v>
       </c>
-      <c r="AR83" s="10" t="s">
+      <c r="AR83" t="s">
         <v>2032</v>
       </c>
-      <c r="AS83" s="10" t="s">
+      <c r="AS83" t="s">
         <v>2033</v>
       </c>
-      <c r="AT83" s="10" t="s">
+      <c r="AT83" t="s">
         <v>2034</v>
       </c>
-      <c r="AU83" s="10" t="s">
+      <c r="AU83" t="s">
         <v>2035</v>
       </c>
-      <c r="AV83" s="10" t="s">
+      <c r="AV83" t="s">
         <v>2036</v>
       </c>
-      <c r="AW83" s="10" t="s">
+      <c r="AW83" t="s">
         <v>2037</v>
       </c>
-      <c r="AX83" s="10" t="s">
+      <c r="AX83" t="s">
         <v>2038</v>
       </c>
       <c r="AY83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ83" s="10" t="s">
+      <c r="AZ83" t="s">
         <v>211</v>
       </c>
       <c r="BA83" s="1" t="s">
@@ -20494,139 +21620,2712 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="2">
+        <v>44771</v>
+      </c>
       <c r="C84" t="s">
         <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I84" t="s">
+        <v>500</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2041</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O84" t="s">
+        <v>139</v>
+      </c>
+      <c r="P84" t="s">
+        <v>2043</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>2044</v>
+      </c>
+      <c r="R84">
+        <v>999</v>
+      </c>
+      <c r="S84" t="s">
+        <v>139</v>
+      </c>
+      <c r="T84" t="s">
+        <v>64</v>
+      </c>
+      <c r="U84" s="1">
+        <v>999</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>2045</v>
+      </c>
+      <c r="W84" s="10" t="s">
+        <v>2047</v>
+      </c>
+      <c r="X84" s="10" t="s">
+        <v>2046</v>
+      </c>
+      <c r="Y84" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z84" s="10" t="s">
+        <v>2048</v>
+      </c>
+      <c r="AA84" s="10" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AB84" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AC84" s="10" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AD84" s="10" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AE84">
+        <v>999</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>2058</v>
+      </c>
+      <c r="AY84" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ84" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA84" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2">
+        <v>44771</v>
+      </c>
       <c r="C85" t="s">
         <v>54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I85" t="s">
+        <v>240</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2060</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2061</v>
+      </c>
+      <c r="N85" t="s">
+        <v>141</v>
+      </c>
+      <c r="O85" t="s">
+        <v>103</v>
+      </c>
+      <c r="P85" t="s">
+        <v>2062</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>2063</v>
+      </c>
+      <c r="R85">
+        <v>999</v>
+      </c>
+      <c r="S85">
+        <v>999</v>
+      </c>
+      <c r="T85" t="s">
+        <v>142</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="V85" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W85" s="10" t="s">
+        <v>2065</v>
+      </c>
+      <c r="X85" s="10" t="s">
+        <v>2066</v>
+      </c>
+      <c r="Y85" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z85" s="10" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AA85" s="10" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AB85" s="10" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AC85" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD85" s="10" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AE85" s="10" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AF85" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG85" s="10" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AH85" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI85" s="10" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AJ85" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK85" s="10" t="s">
+        <v>2074</v>
+      </c>
+      <c r="AL85" s="10" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AM85" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN85" s="10" t="s">
+        <v>2076</v>
+      </c>
+      <c r="AO85" s="10" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AP85" s="10" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AQ85" s="10" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AR85" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS85" s="10" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AT85" s="10" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AU85" s="10" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AV85" s="10" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AW85" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX85" s="10" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AY85" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AZ85" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA85" s="1" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="2">
+        <v>44771</v>
+      </c>
       <c r="C86" t="s">
         <v>54</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E86">
+        <v>13</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I86" t="s">
+        <v>240</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2086</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2087</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O86" t="s">
+        <v>103</v>
+      </c>
+      <c r="P86" t="s">
+        <v>2088</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>772</v>
+      </c>
+      <c r="R86">
+        <v>999</v>
+      </c>
+      <c r="S86" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T86" t="s">
+        <v>142</v>
+      </c>
+      <c r="U86" s="1">
+        <v>999</v>
+      </c>
+      <c r="V86" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W86" s="10" t="s">
+        <v>2089</v>
+      </c>
+      <c r="X86" s="10" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Y86" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z86" s="10" t="s">
+        <v>2091</v>
+      </c>
+      <c r="AA86" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AB86" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC86" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD86" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE86" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF86" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG86" s="10" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AH86" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI86" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="AJ86" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK86" s="10" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AL86" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AM86" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN86" s="10" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AO86" s="10" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AP86" s="10" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AQ86" s="10" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AR86" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS86" s="10" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AT86" s="10" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AU86" s="10" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AV86" s="10" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AW86" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX86" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY86" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ86" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA86" s="1" t="s">
+        <v>2101</v>
       </c>
     </row>
     <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2">
+        <v>44771</v>
+      </c>
       <c r="C87" t="s">
         <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E87">
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I87" t="s">
+        <v>268</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2103</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2104</v>
+      </c>
+      <c r="N87" t="s">
+        <v>2105</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P87" t="s">
+        <v>2106</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>2107</v>
+      </c>
+      <c r="R87">
+        <v>999</v>
+      </c>
+      <c r="S87" t="s">
+        <v>103</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1519</v>
+      </c>
+      <c r="U87" s="11" t="s">
+        <v>2108</v>
+      </c>
+      <c r="V87" s="10" t="s">
+        <v>2109</v>
+      </c>
+      <c r="W87" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="X87" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Y87" s="10" t="s">
+        <v>2111</v>
+      </c>
+      <c r="Z87" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA87" s="10" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AB87" s="10" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AC87" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD87" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE87" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF87" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG87" s="10" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AH87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI87" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AJ87" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK87" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AL87" s="10" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AM87" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN87" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO87" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AP87" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ87" s="10" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AR87" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS87" s="10" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AT87" s="10" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AU87" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV87" s="10" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AW87" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX87" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="AY87" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AZ87" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA87" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" s="2">
+        <v>44771</v>
+      </c>
       <c r="C88" t="s">
         <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I88">
+        <v>530</v>
+      </c>
+      <c r="J88">
+        <v>810</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2122</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P88" t="s">
+        <v>2123</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>2124</v>
+      </c>
+      <c r="R88" t="s">
+        <v>918</v>
+      </c>
+      <c r="S88">
+        <v>999</v>
+      </c>
+      <c r="T88" t="s">
+        <v>64</v>
+      </c>
+      <c r="U88" s="1">
+        <v>999</v>
+      </c>
+      <c r="V88" s="10" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W88" s="10" t="s">
+        <v>2126</v>
+      </c>
+      <c r="X88" s="10" t="s">
+        <v>2066</v>
+      </c>
+      <c r="Y88" s="10" t="s">
+        <v>2111</v>
+      </c>
+      <c r="Z88" s="10" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AA88" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB88" s="10" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC88" s="10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AD88" s="10" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AE88" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF88" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG88" s="10" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AH88" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI88" s="10" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AJ88" s="10" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AK88" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL88" s="10" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AM88" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN88" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO88" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP88" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ88" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR88" s="10" t="s">
+        <v>2133</v>
+      </c>
+      <c r="AS88" s="10" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AT88" s="10" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AU88" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AV88" s="10" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AW88" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX88" s="10" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AY88" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ88" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA88" s="1" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="2">
+        <v>44771</v>
+      </c>
       <c r="C89" t="s">
         <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E89">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I89" t="s">
+        <v>268</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2141</v>
+      </c>
+      <c r="N89" t="s">
+        <v>2142</v>
+      </c>
+      <c r="O89" t="s">
+        <v>2143</v>
+      </c>
+      <c r="P89" t="s">
+        <v>2144</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>2145</v>
+      </c>
+      <c r="R89">
+        <v>999</v>
+      </c>
+      <c r="S89" t="s">
+        <v>103</v>
+      </c>
+      <c r="T89" t="s">
+        <v>64</v>
+      </c>
+      <c r="U89" s="1">
+        <v>999</v>
+      </c>
+      <c r="V89" s="10" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W89" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="X89" s="10" t="s">
+        <v>2066</v>
+      </c>
+      <c r="Y89" s="10" t="s">
+        <v>2111</v>
+      </c>
+      <c r="Z89" s="10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AA89" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB89" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC89" s="10" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AD89" s="10" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AE89" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF89" s="10" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AG89" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AH89" s="10" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AI89" s="10" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AJ89" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK89" s="10" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AL89" s="10" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AM89" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN89" s="10" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AO89" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP89" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ89" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AR89" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS89" s="10" t="s">
+        <v>2134</v>
+      </c>
+      <c r="AT89" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU89" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV89" s="10" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AW89" s="10" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AX89" s="10" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AY89" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ89" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA89" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" s="2">
+        <v>44771</v>
+      </c>
       <c r="C90" t="s">
         <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E90">
+        <v>15</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2159</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O90" t="s">
+        <v>103</v>
+      </c>
+      <c r="P90" t="s">
+        <v>2161</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>2162</v>
+      </c>
+      <c r="R90">
+        <v>999</v>
+      </c>
+      <c r="S90">
+        <v>999</v>
+      </c>
+      <c r="T90" t="s">
+        <v>64</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="V90" s="10" t="s">
+        <v>2109</v>
+      </c>
+      <c r="W90" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="X90" s="10" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Y90" s="10" t="s">
+        <v>2166</v>
+      </c>
+      <c r="Z90" s="10" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AA90" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB90" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC90" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD90" s="10" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AE90" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF90" s="10" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AG90" s="10" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AH90" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI90" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AJ90" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK90" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL90" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM90" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN90" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO90" s="10" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AP90" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ90" s="10" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AR90" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS90" s="10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AT90" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU90" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV90" s="10" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AW90" s="10" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AX90" s="10" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AY90" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ90" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA90" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" s="2">
+        <v>44771</v>
+      </c>
       <c r="C91" t="s">
         <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2177</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O91" t="s">
+        <v>561</v>
+      </c>
+      <c r="P91" t="s">
+        <v>2178</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>551</v>
+      </c>
+      <c r="R91">
+        <v>999</v>
+      </c>
+      <c r="S91" t="s">
+        <v>2179</v>
+      </c>
+      <c r="T91" t="s">
+        <v>64</v>
+      </c>
+      <c r="U91" s="1">
+        <v>999</v>
+      </c>
+      <c r="V91" s="10" t="s">
+        <v>2180</v>
+      </c>
+      <c r="W91" s="10" t="s">
+        <v>2181</v>
+      </c>
+      <c r="X91" s="10" t="s">
+        <v>2182</v>
+      </c>
+      <c r="Y91" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z91" s="10" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AA91" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AB91" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC91" s="10" t="s">
+        <v>2184</v>
+      </c>
+      <c r="AD91" s="10" t="s">
+        <v>2185</v>
+      </c>
+      <c r="AE91" s="10" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AF91" s="10" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AG91" s="10" t="s">
+        <v>2188</v>
+      </c>
+      <c r="AH91" s="10" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AI91" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ91" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK91" s="10" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AL91" s="10" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AM91" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN91" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AO91" s="10" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AP91" s="10" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AQ91" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR91" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS91" s="10" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AT91" s="10" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AU91" s="10" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AV91" s="10" t="s">
+        <v>2196</v>
+      </c>
+      <c r="AW91" s="10" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AX91" s="10" t="s">
+        <v>2198</v>
+      </c>
+      <c r="AY91" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AZ91" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA91" s="1" t="s">
+        <v>2200</v>
       </c>
     </row>
     <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" s="2">
+        <v>44771</v>
+      </c>
       <c r="C92" t="s">
         <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I92" t="s">
+        <v>500</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L92" t="s">
+        <v>2203</v>
+      </c>
+      <c r="N92" t="s">
+        <v>551</v>
+      </c>
+      <c r="O92" t="s">
+        <v>479</v>
+      </c>
+      <c r="P92" t="s">
+        <v>2204</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>2205</v>
+      </c>
+      <c r="R92">
+        <v>999</v>
+      </c>
+      <c r="S92" t="s">
+        <v>103</v>
+      </c>
+      <c r="T92" t="s">
+        <v>64</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="V92" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="W92" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="X92" s="10" t="s">
+        <v>2207</v>
+      </c>
+      <c r="Y92" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z92" s="10" t="s">
+        <v>2208</v>
+      </c>
+      <c r="AA92" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB92" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC92" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD92" s="10" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AE92" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AF92" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG92" s="10" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AH92" s="10" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AI92" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ92" s="10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AK92" s="10" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AL92" s="10" t="s">
+        <v>2212</v>
+      </c>
+      <c r="AM92" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN92" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AO92" s="10" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AP92" s="10" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AQ92" s="10" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AR92" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS92" s="10" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AT92" s="10" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AU92" s="10" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AV92" s="10" t="s">
+        <v>2216</v>
+      </c>
+      <c r="AW92" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX92" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AY92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ92" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA92" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E93">
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2217</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I93">
+        <v>510</v>
+      </c>
+      <c r="J93">
+        <v>85</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2218</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2219</v>
+      </c>
+      <c r="M93" t="s">
+        <v>2220</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O93" t="s">
+        <v>103</v>
+      </c>
+      <c r="P93" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1775</v>
+      </c>
+      <c r="R93">
+        <v>999</v>
+      </c>
+      <c r="S93" t="s">
+        <v>504</v>
+      </c>
+      <c r="T93" t="s">
+        <v>64</v>
+      </c>
+      <c r="U93" s="1">
+        <v>999</v>
+      </c>
+      <c r="V93" s="10" t="s">
+        <v>2223</v>
+      </c>
+      <c r="W93" s="10" t="s">
+        <v>2222</v>
+      </c>
+      <c r="X93" s="10" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Y93" s="10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Z93" s="10" t="s">
+        <v>2226</v>
+      </c>
+      <c r="AA93" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AB93" s="10" t="s">
+        <v>2227</v>
+      </c>
+      <c r="AC93" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD93" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE93" s="10" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AF93" s="10" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AG93" s="10" t="s">
+        <v>2230</v>
+      </c>
+      <c r="AH93" s="10" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AI93" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ93" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK93" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL93" s="10" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AM93" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN93" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO93" s="10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AP93" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ93" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>997</v>
+      </c>
+      <c r="AS93" s="10" t="s">
+        <v>2234</v>
+      </c>
+      <c r="AT93" s="10" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AU93" s="10" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AV93" s="10" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AW93" s="10" t="s">
+        <v>2237</v>
+      </c>
+      <c r="AX93" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ93" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA93" s="1" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I94">
+        <v>520</v>
+      </c>
+      <c r="J94">
+        <v>85</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2239</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O94" t="s">
+        <v>772</v>
+      </c>
+      <c r="P94" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>2242</v>
+      </c>
+      <c r="R94">
+        <v>999</v>
+      </c>
+      <c r="S94">
+        <v>999</v>
+      </c>
+      <c r="T94" t="s">
+        <v>64</v>
+      </c>
+      <c r="U94" s="1">
+        <v>999</v>
+      </c>
+      <c r="V94" s="10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="W94" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="X94" s="10" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Y94" s="10" t="s">
+        <v>2245</v>
+      </c>
+      <c r="Z94" s="10" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AA94" s="10" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AB94" s="10" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AC94" s="10" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AD94" s="10" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AE94" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF94" s="10" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AG94" s="10" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AH94" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI94" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ94" s="10" t="s">
+        <v>2253</v>
+      </c>
+      <c r="AK94" s="10" t="s">
+        <v>2254</v>
+      </c>
+      <c r="AL94" s="10" t="s">
+        <v>2255</v>
+      </c>
+      <c r="AM94" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN94" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AO94" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP94" s="10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AQ94" s="10" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AR94" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS94" s="10" t="s">
+        <v>2258</v>
+      </c>
+      <c r="AT94" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="AU94" s="10" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AV94" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AW94" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX94" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ94" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA94" s="1" t="s">
+        <v>2261</v>
+      </c>
     </row>
     <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I95">
+        <v>520</v>
+      </c>
+      <c r="J95">
+        <v>85</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L95" t="s">
+        <v>2267</v>
+      </c>
+      <c r="N95" t="s">
+        <v>2264</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P95" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>2266</v>
+      </c>
+      <c r="R95">
+        <v>999</v>
+      </c>
+      <c r="S95">
+        <v>999</v>
+      </c>
+      <c r="T95" t="s">
+        <v>64</v>
+      </c>
+      <c r="U95" s="1">
+        <v>999</v>
+      </c>
+      <c r="V95" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W95" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="X95" s="10" t="s">
+        <v>2110</v>
+      </c>
+      <c r="Y95" s="10" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Z95" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA95" s="10" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AB95" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC95" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD95" s="10" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AE95" s="10" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF95" s="10" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AG95" s="10" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AH95" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI95" s="10" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AJ95" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK95" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL95" s="10" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AM95" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN95" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO95" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP95" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="AQ95" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR95" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS95" s="10" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AT95" s="10" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AU95" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="AV95" s="10" t="s">
+        <v>2276</v>
+      </c>
+      <c r="AW95" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX95" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="AY95" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AZ95" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA95" s="1" t="s">
+        <v>2277</v>
+      </c>
     </row>
     <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I96">
+        <v>520</v>
+      </c>
+      <c r="J96">
+        <v>85</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P96" t="s">
+        <v>2281</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>2282</v>
+      </c>
+      <c r="R96">
+        <v>999</v>
+      </c>
+      <c r="S96">
+        <v>999</v>
+      </c>
+      <c r="T96" t="s">
+        <v>142</v>
+      </c>
+      <c r="U96" s="1">
+        <v>999</v>
+      </c>
+      <c r="V96" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="W96" s="10" t="s">
+        <v>2283</v>
+      </c>
+      <c r="X96" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y96" s="10" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Z96" s="10" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AA96" s="10" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AB96" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC96" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD96" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE96" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF96" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG96" s="10" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AH96" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI96" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AJ96" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK96" s="10" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AL96" s="10" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AM96" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN96" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AO96" s="10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AP96" s="10" t="s">
+        <v>2289</v>
+      </c>
+      <c r="AQ96" s="10" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AR96" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS96" s="10" t="s">
+        <v>2291</v>
+      </c>
+      <c r="AT96" s="10" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AU96" s="10" t="s">
+        <v>2292</v>
+      </c>
+      <c r="AV96" s="10" t="s">
+        <v>2293</v>
+      </c>
+      <c r="AW96" s="10" t="s">
+        <v>2294</v>
+      </c>
+      <c r="AX96" s="10" t="s">
+        <v>2295</v>
+      </c>
+      <c r="AY96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ96" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA96" s="1" t="s">
+        <v>2296</v>
+      </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E97">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I97">
+        <v>530</v>
+      </c>
+      <c r="J97">
+        <v>85</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2300</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O97" t="s">
+        <v>103</v>
+      </c>
+      <c r="P97" t="s">
+        <v>2301</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>2302</v>
+      </c>
+      <c r="R97">
+        <v>999</v>
+      </c>
+      <c r="S97">
+        <v>999</v>
+      </c>
+      <c r="T97" t="s">
+        <v>64</v>
+      </c>
+      <c r="U97" s="1">
+        <v>999</v>
+      </c>
+      <c r="V97" s="10" t="s">
+        <v>2303</v>
+      </c>
+      <c r="W97" s="10" t="s">
+        <v>2304</v>
+      </c>
+      <c r="X97" s="10" t="s">
+        <v>2305</v>
+      </c>
+      <c r="Y97" s="10" t="s">
+        <v>2306</v>
+      </c>
+      <c r="Z97" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA97" s="10" t="s">
+        <v>2307</v>
+      </c>
+      <c r="AB97" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC97" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD97" s="10" t="s">
+        <v>2308</v>
+      </c>
+      <c r="AE97" s="10" t="s">
+        <v>2309</v>
+      </c>
+      <c r="AF97" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG97" s="10" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AH97" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI97" s="10" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AJ97" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK97" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL97" s="10" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AM97" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN97" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO97" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP97" s="10" t="s">
+        <v>2312</v>
+      </c>
+      <c r="AQ97" s="10" t="s">
+        <v>2313</v>
+      </c>
+      <c r="AR97" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS97" s="10" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AT97" s="10" t="s">
+        <v>2315</v>
+      </c>
+      <c r="AU97" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV97" s="10" t="s">
+        <v>2316</v>
+      </c>
+      <c r="AW97" s="10" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AX97" s="10" t="s">
+        <v>2318</v>
+      </c>
+      <c r="AY97" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="AZ97" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA97" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E98">
+        <v>15</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2320</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I98">
+        <v>540</v>
+      </c>
+      <c r="J98">
+        <v>85</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2322</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O98" t="s">
+        <v>103</v>
+      </c>
+      <c r="P98" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>2324</v>
+      </c>
+      <c r="R98">
+        <v>999</v>
+      </c>
+      <c r="S98">
+        <v>999</v>
+      </c>
+      <c r="T98" t="s">
+        <v>64</v>
+      </c>
+      <c r="U98" s="1">
+        <v>999</v>
+      </c>
+      <c r="V98" s="10" t="s">
+        <v>1272</v>
+      </c>
+      <c r="W98" s="10" t="s">
+        <v>2325</v>
+      </c>
+      <c r="X98" s="10" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Y98" s="10" t="s">
+        <v>1808</v>
+      </c>
+      <c r="Z98" s="10" t="s">
+        <v>2327</v>
+      </c>
+      <c r="AA98" s="10" t="s">
+        <v>2328</v>
+      </c>
+      <c r="AB98" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC98" s="10" t="s">
+        <v>2329</v>
+      </c>
+      <c r="AD98" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE98" s="10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AF98" s="10" t="s">
+        <v>2330</v>
+      </c>
+      <c r="AG98" s="10" t="s">
+        <v>2331</v>
+      </c>
+      <c r="AH98" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI98" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AJ98" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK98" s="10" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AL98" s="12" t="s">
+        <v>2382</v>
+      </c>
+      <c r="AM98" s="10" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AN98" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO98" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP98" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ98" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AR98" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS98" s="10" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AT98" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU98" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV98" s="10" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AW98" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX98" s="10" t="s">
+        <v>2335</v>
+      </c>
+      <c r="AY98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ98" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA98" s="1" t="s">
+        <v>2336</v>
+      </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2338</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2339</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O99" t="s">
+        <v>103</v>
+      </c>
+      <c r="P99" t="s">
+        <v>2340</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1383</v>
+      </c>
+      <c r="R99" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S99">
+        <v>999</v>
+      </c>
+      <c r="T99" t="s">
+        <v>142</v>
+      </c>
+      <c r="U99" s="1">
+        <v>999</v>
+      </c>
+      <c r="V99" s="10" t="s">
+        <v>2341</v>
+      </c>
+      <c r="W99" s="10" t="s">
+        <v>2342</v>
+      </c>
+      <c r="X99" s="10" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Y99" s="10" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Z99" s="10" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AA99" s="10" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AB99" s="10" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AC99" s="10" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AD99" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE99" s="10" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AF99" s="10" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AG99" s="10" t="s">
+        <v>2351</v>
+      </c>
+      <c r="AH99" s="10" t="s">
+        <v>2352</v>
+      </c>
+      <c r="AI99" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ99" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK99" s="10" t="s">
+        <v>2353</v>
+      </c>
+      <c r="AL99" s="10" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AM99" s="10" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AN99" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO99" s="10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AP99" s="10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AQ99" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="AR99" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS99" s="10" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AT99" s="10" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AU99" s="10" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AV99" s="10" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AW99" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX99" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AY99" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="AZ99" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA99" s="1" t="s">
+        <v>2363</v>
+      </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
+      <c r="B100" s="7">
+        <v>44771</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E100" s="6">
+        <v>16</v>
+      </c>
+      <c r="F100" s="6">
+        <v>3</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I100" s="6">
+        <v>550</v>
+      </c>
+      <c r="J100" s="6">
+        <v>85</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>2368</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>2369</v>
+      </c>
+      <c r="R100" s="6">
+        <v>999</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T100" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="U100" s="8">
+        <v>999</v>
+      </c>
+      <c r="V100" s="13" t="s">
+        <v>2370</v>
+      </c>
+      <c r="W100" s="13" t="s">
+        <v>2371</v>
+      </c>
+      <c r="X100" s="13" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Y100" s="13" t="s">
+        <v>2373</v>
+      </c>
+      <c r="Z100" s="13" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AA100" s="13" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AB100" s="13" t="s">
+        <v>2376</v>
+      </c>
+      <c r="AC100" s="13" t="s">
+        <v>2377</v>
+      </c>
+      <c r="AD100" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE100" s="13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AF100" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG100" s="13" t="s">
+        <v>2331</v>
+      </c>
+      <c r="AH100" s="13" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI100" s="13" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AJ100" s="13" t="s">
+        <v>2380</v>
+      </c>
+      <c r="AK100" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL100" s="13" t="s">
+        <v>2381</v>
+      </c>
+      <c r="AM100" s="13" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AN100" s="13" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AO100" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="AP100" s="13" t="s">
+        <v>2386</v>
+      </c>
+      <c r="AQ100" s="13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AR100" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS100" s="13" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AT100" s="13" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AU100" s="13" t="s">
+        <v>2388</v>
+      </c>
+      <c r="AV100" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="AW100" s="13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="AX100" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY100" s="8" t="s">
+        <v>2390</v>
+      </c>
+      <c r="AZ100" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA100" s="8" t="s">
+        <v>2391</v>
+      </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20643,9 +24342,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20655,6 +24356,11 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.74305555555555547</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F34949-5727-458D-8B4B-DDBEA05A89DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEE289-2E95-40AA-AB8B-319879DF1960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="13212" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2592" yWindow="0" windowWidth="13212" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="2897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6005" uniqueCount="3103">
   <si>
     <t>ID</t>
   </si>
@@ -9319,9 +9319,6 @@
     <t>Sohnsfraü</t>
   </si>
   <si>
-    <t>Y'</t>
-  </si>
-  <si>
     <t>Y[2]</t>
   </si>
   <si>
@@ -9580,9 +9577,6 @@
     <t>s-[?]</t>
   </si>
   <si>
-    <t>Brüclensweiler</t>
-  </si>
-  <si>
     <t>Burger [K]eu[e]</t>
   </si>
   <si>
@@ -9620,6 +9614,672 @@
   </si>
   <si>
     <t>zwiega, [a]ïglla</t>
+  </si>
+  <si>
+    <t>s-O</t>
+  </si>
+  <si>
+    <t>Brückensweiler</t>
+  </si>
+  <si>
+    <t>Zittel[b]āst (m) {Holdra durchgestrichen}</t>
+  </si>
+  <si>
+    <t>Diefmatten</t>
+  </si>
+  <si>
+    <t>Elsaß &lt;Ober&gt;</t>
+  </si>
+  <si>
+    <t>Frau Maria Welte[r]h[u]</t>
+  </si>
+  <si>
+    <t>Licht (w), Begräbnis (w)</t>
+  </si>
+  <si>
+    <t>Gākummra (w)</t>
+  </si>
+  <si>
+    <t>Guva (w)</t>
+  </si>
+  <si>
+    <t>Dasala (s)</t>
+  </si>
+  <si>
+    <t>s-Q</t>
+  </si>
+  <si>
+    <t>Gildweiler/Falkweiler {rückseite steht Gildweiler, auf der seite oben stehn Falkweiler}</t>
+  </si>
+  <si>
+    <t>Rudolf H[?]a[?]s[?]r</t>
+  </si>
+  <si>
+    <t>Heidelberg &lt;seit 1914 im allemannischen gebiet [?] [=]ahr [in] Freiburg (2 Jahre im Elsaß)&gt;</t>
+  </si>
+  <si>
+    <t>Guckl, Huan</t>
+  </si>
+  <si>
+    <t>Scharmus</t>
+  </si>
+  <si>
+    <t>Galrüava</t>
+  </si>
+  <si>
+    <t>Gödda</t>
+  </si>
+  <si>
+    <t>[?r]iacha, Pfüma</t>
+  </si>
+  <si>
+    <t>Gufa,Güfala</t>
+  </si>
+  <si>
+    <t>Schüssala</t>
+  </si>
+  <si>
+    <t>Schwiegerdochtr</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>s-R</t>
+  </si>
+  <si>
+    <t>Gildweiler</t>
+  </si>
+  <si>
+    <t>Fedler</t>
+  </si>
+  <si>
+    <t>der [R]eane</t>
+  </si>
+  <si>
+    <t>Gugumer</t>
+  </si>
+  <si>
+    <t>Gugel, Huhn</t>
+  </si>
+  <si>
+    <t>Erdapfel</t>
+  </si>
+  <si>
+    <t>Scharmaus</t>
+  </si>
+  <si>
+    <t>händeln</t>
+  </si>
+  <si>
+    <t>Stricknudel</t>
+  </si>
+  <si>
+    <t>schüssel</t>
+  </si>
+  <si>
+    <t>s-S</t>
+  </si>
+  <si>
+    <t>Ammerzweiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Ber[u]weiler&gt;</t>
+  </si>
+  <si>
+    <t>o/Elsaß</t>
+  </si>
+  <si>
+    <t>Fender Alfo[ns]</t>
+  </si>
+  <si>
+    <t>Rhe[n]iau</t>
+  </si>
+  <si>
+    <t>u/Els.</t>
+  </si>
+  <si>
+    <t>von Ammerzweiler</t>
+  </si>
+  <si>
+    <t>Brumbera (w)</t>
+  </si>
+  <si>
+    <t>Dissel {e ist in Klammern}</t>
+  </si>
+  <si>
+    <t>Agrschda (w)</t>
+  </si>
+  <si>
+    <t>Gagummera (w)</t>
+  </si>
+  <si>
+    <t>Hågabudda (w)</t>
+  </si>
+  <si>
+    <t>Gugl (m), Glugrä {ä in Klammern}</t>
+  </si>
+  <si>
+    <t>Hewåmma</t>
+  </si>
+  <si>
+    <t>Galriawa (w)</t>
+  </si>
+  <si>
+    <t>Pflühma</t>
+  </si>
+  <si>
+    <t>Streggnodla (w)</t>
+  </si>
+  <si>
+    <t>D[å]ssa (w) {könnte auch ä sein}</t>
+  </si>
+  <si>
+    <t>Suhnsfräu (w)</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>Holderschdog</t>
+  </si>
+  <si>
+    <t>s-T</t>
+  </si>
+  <si>
+    <t>Schun[del]meier</t>
+  </si>
+  <si>
+    <t>Fahrenbach/Mosbach</t>
+  </si>
+  <si>
+    <t>Bürgermeister</t>
+  </si>
+  <si>
+    <t>Lichd</t>
+  </si>
+  <si>
+    <t>Agerschda</t>
+  </si>
+  <si>
+    <t>Hagabudda, Budda</t>
+  </si>
+  <si>
+    <t>Gugel, Hoan</t>
+  </si>
+  <si>
+    <t>Galrebla</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Grüsalbera</t>
+  </si>
+  <si>
+    <t>Schdrignodla</t>
+  </si>
+  <si>
+    <t>Schissala</t>
+  </si>
+  <si>
+    <t>s-Ta</t>
+  </si>
+  <si>
+    <t>Oberburnhaupt</t>
+  </si>
+  <si>
+    <t>Hilberer Anton</t>
+  </si>
+  <si>
+    <t>Kinzigtal</t>
+  </si>
+  <si>
+    <t>Kreis Wolfach</t>
+  </si>
+  <si>
+    <t>[B]</t>
+  </si>
+  <si>
+    <t>unter Mithilfe der Schüler</t>
+  </si>
+  <si>
+    <t>Amaisā (w)</t>
+  </si>
+  <si>
+    <t>Līcht (w)</t>
+  </si>
+  <si>
+    <t>Brumberā (w)</t>
+  </si>
+  <si>
+    <t>Ågerschdā (w)</t>
+  </si>
+  <si>
+    <t>Anterātsch (m)</t>
+  </si>
+  <si>
+    <t>Muckā (w)</t>
+  </si>
+  <si>
+    <t>Gugumārā (w)</t>
+  </si>
+  <si>
+    <t>Buttā (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Guggel (m), Hu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hebåmme (w)</t>
+  </si>
+  <si>
+    <t>Hārdepfel (m)</t>
+  </si>
+  <si>
+    <t>Gālrüābla (s)</t>
+  </si>
+  <si>
+    <t>Mohrā (w)</t>
+  </si>
+  <si>
+    <t>Geddā (m), Bårrä (m)</t>
+  </si>
+  <si>
+    <t>Riēmā (m)</t>
+  </si>
+  <si>
+    <t>Pflümā (w)</t>
+  </si>
+  <si>
+    <t>åbriālā (w)</t>
+  </si>
+  <si>
+    <t>Schpåtz (m)</t>
+  </si>
+  <si>
+    <t>Krüselbeerā (w)</t>
+  </si>
+  <si>
+    <t>Gufā (w)</t>
+  </si>
+  <si>
+    <t>Schtricknådlā (w)</t>
+  </si>
+  <si>
+    <t>Daselā (s), Dālerlā (s)</t>
+  </si>
+  <si>
+    <t>ardigā Håfā (m)</t>
+  </si>
+  <si>
+    <t>zwigā</t>
+  </si>
+  <si>
+    <t>Hollara (w)</t>
+  </si>
+  <si>
+    <t>s-Z</t>
+  </si>
+  <si>
+    <t>Illfurt</t>
+  </si>
+  <si>
+    <t>Kanton: Altkirch</t>
+  </si>
+  <si>
+    <t>[Sü]l [K]lein</t>
+  </si>
+  <si>
+    <t>Liebenzweiler</t>
+  </si>
+  <si>
+    <t>Begräbnis (s), Beerdigung (w), Licht (w) &lt;häufiger&gt; {häufiger bezieht sich auf letzteres}</t>
+  </si>
+  <si>
+    <t>Dis[s]el (m)</t>
+  </si>
+  <si>
+    <t>Gagŭmara (w)</t>
+  </si>
+  <si>
+    <t>Gügel (m), Hüen (w)</t>
+  </si>
+  <si>
+    <t>Scharmüs (w) &lt;Schar (m)&gt;</t>
+  </si>
+  <si>
+    <t>Gala‿-Riaba (w) {ligatur bogen sollte von a bis R gehen}</t>
+  </si>
+  <si>
+    <t>Gätta (m), Gätti</t>
+  </si>
+  <si>
+    <t>handla, schimpfe</t>
+  </si>
+  <si>
+    <t>Háfar (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ga, prfropfa</t>
+    </r>
+  </si>
+  <si>
+    <t>s-d</t>
+  </si>
+  <si>
+    <t>Niederm[o]rschweiler</t>
+  </si>
+  <si>
+    <t>[???] Mülhausen</t>
+  </si>
+  <si>
+    <t>Omaisa</t>
+  </si>
+  <si>
+    <t>Vi̊rgrawa</t>
+  </si>
+  <si>
+    <t>Disi̊l</t>
+  </si>
+  <si>
+    <t>Agi̊rschta</t>
+  </si>
+  <si>
+    <t>Flad[i̊]rmüs</t>
+  </si>
+  <si>
+    <t>Gågumra</t>
+  </si>
+  <si>
+    <t>Gügi̊l</t>
+  </si>
+  <si>
+    <t>Hemåmma</t>
+  </si>
+  <si>
+    <t>Hardapfel</t>
+  </si>
+  <si>
+    <t>Schārmis</t>
+  </si>
+  <si>
+    <t>Gabriawa</t>
+  </si>
+  <si>
+    <t>Mōra</t>
+  </si>
+  <si>
+    <t>Gelta</t>
+  </si>
+  <si>
+    <t>Stri̊cknodla</t>
+  </si>
+  <si>
+    <t>Tassala</t>
+  </si>
+  <si>
+    <t>ardigi̊r Håfa</t>
+  </si>
+  <si>
+    <t>zwīga</t>
+  </si>
+  <si>
+    <t>Schwi̊gi̊rtochti̊r</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>Holdara</t>
+  </si>
+  <si>
+    <t>s-c</t>
+  </si>
+  <si>
+    <t>Galfingen</t>
+  </si>
+  <si>
+    <t>Heu[re]sh[usen]</t>
+  </si>
+  <si>
+    <t>Helbl[ing], [?]o[t]e</t>
+  </si>
+  <si>
+    <t>Krs. Mühlhausen</t>
+  </si>
+  <si>
+    <t>Brumbeer</t>
+  </si>
+  <si>
+    <t>Ag[a]rscht[a]</t>
+  </si>
+  <si>
+    <t>Fladarm[ü]s</t>
+  </si>
+  <si>
+    <t>Gagümra, Gagummra</t>
+  </si>
+  <si>
+    <t>Hagebutt[e]</t>
+  </si>
+  <si>
+    <t>Guk[e]l, Hüan</t>
+  </si>
+  <si>
+    <t>Rolli[?]</t>
+  </si>
+  <si>
+    <t>Galriawe</t>
+  </si>
+  <si>
+    <t>[M]ohr[e]</t>
+  </si>
+  <si>
+    <t>888, &lt;Pol[r]i[?]&gt;, Gette</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Srachelbeere</t>
+  </si>
+  <si>
+    <t>Ste[c]knod[e]l</t>
+  </si>
+  <si>
+    <t>[T]assele</t>
+  </si>
+  <si>
+    <t>zwieg[e]</t>
+  </si>
+  <si>
+    <t>Gai[ß]</t>
+  </si>
+  <si>
+    <t>Schwiegertochter, Suhnsfr[oi]</t>
+  </si>
+  <si>
+    <t>Holdara, Holder[k]u[r]st (w)</t>
+  </si>
+  <si>
+    <t>Hochstatt</t>
+  </si>
+  <si>
+    <t>Elisabeth Weiland</t>
+  </si>
+  <si>
+    <t>Waldkirch</t>
+  </si>
+  <si>
+    <t>i. Badew.</t>
+  </si>
+  <si>
+    <t>Liacht (w)</t>
+  </si>
+  <si>
+    <t>Ag[er]schte (w)</t>
+  </si>
+  <si>
+    <t>Gogummara (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hüen (die)</t>
+  </si>
+  <si>
+    <t>Hebam̄</t>
+  </si>
+  <si>
+    <t>Hardapfel (m)</t>
+  </si>
+  <si>
+    <t>Kotz (w), Rolli (m)</t>
+  </si>
+  <si>
+    <t>Galrüwla (s)</t>
+  </si>
+  <si>
+    <t>Riama (m))</t>
+  </si>
+  <si>
+    <t>schalta, handla</t>
+  </si>
+  <si>
+    <t>Grüasalbeera (w)</t>
+  </si>
+  <si>
+    <t>Dassala, Dallarla (s)</t>
+  </si>
+  <si>
+    <t>ardige Hafa (a[n], m)</t>
+  </si>
+  <si>
+    <t>zwiaga</t>
+  </si>
+  <si>
+    <t>Suhnsfroi</t>
+  </si>
+  <si>
+    <t>&lt;Der Unterzeichnete führt vërtretungsweise die Schule in Galfingen und ist seit iSeptember ic9 42 ins Elsass abgeordnen&gt; {ganzer Bogen sehr undeutlich}</t>
+  </si>
+  <si>
+    <t>[s]-g</t>
+  </si>
+  <si>
+    <t>[s]-i</t>
+  </si>
+  <si>
+    <t>Zillisheim</t>
+  </si>
+  <si>
+    <t>Franz Zeller</t>
+  </si>
+  <si>
+    <t>Neudstadt</t>
+  </si>
+  <si>
+    <t>i[?] Schn[?].</t>
+  </si>
+  <si>
+    <t>Gagummra (w)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Hühan (s)</t>
+  </si>
+  <si>
+    <t>Mohrrüawa &lt;unbekannt&gt;</t>
+  </si>
+  <si>
+    <t>Gedda (w)</t>
+  </si>
+  <si>
+    <t>Krüsala (s)</t>
+  </si>
+  <si>
+    <t>Guhfa (w)</t>
+  </si>
+  <si>
+    <t>Dasala, Dalarla (s)</t>
+  </si>
+  <si>
+    <t>zwiega, äigla</t>
+  </si>
+  <si>
+    <t>[s]-a</t>
+  </si>
+  <si>
+    <t>Reiningen</t>
+  </si>
+  <si>
+    <t>Stampfler</t>
+  </si>
+  <si>
+    <t>Dissel &lt;Lāuda&gt;</t>
+  </si>
+  <si>
+    <t>Gāgumm[e]ra</t>
+  </si>
+  <si>
+    <t>Guckel, Gluckara</t>
+  </si>
+  <si>
+    <t>Roßgalriawa</t>
+  </si>
+  <si>
+    <t>Gätta</t>
+  </si>
+  <si>
+    <t>Spātz</t>
+  </si>
+  <si>
+    <t>Grüßelbära</t>
+  </si>
+  <si>
+    <t>Tassala, Schissala</t>
+  </si>
+  <si>
+    <t>Schwigertochter</t>
   </si>
 </sst>
 </file>
@@ -9754,7 +10414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9766,9 +10426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -10089,8 +10747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="BA116" sqref="BA116"/>
+    <sheetView tabSelected="1" topLeftCell="I102" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N125" sqref="N125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10124,7 +10782,8 @@
     <col min="51" max="51" width="10.69921875" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.69921875" customWidth="1"/>
     <col min="53" max="53" width="19" style="1" customWidth="1"/>
-    <col min="54" max="1023" width="10.69921875" customWidth="1"/>
+    <col min="54" max="54" width="49.5" customWidth="1"/>
+    <col min="55" max="1023" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10328,6 +10987,9 @@
       <c r="L2" t="s">
         <v>59</v>
       </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
       <c r="N2" t="s">
         <v>60</v>
       </c>
@@ -10486,6 +11148,9 @@
       <c r="L3" t="s">
         <v>99</v>
       </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
       <c r="N3" t="s">
         <v>60</v>
       </c>
@@ -10647,6 +11312,9 @@
       <c r="L4" t="s">
         <v>138</v>
       </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
       <c r="N4" t="s">
         <v>60</v>
       </c>
@@ -10808,6 +11476,9 @@
       <c r="L5" t="s">
         <v>176</v>
       </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
       <c r="N5" t="s">
         <v>177</v>
       </c>
@@ -11130,6 +11801,9 @@
       <c r="L7" t="s">
         <v>242</v>
       </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
       <c r="N7" t="s">
         <v>102</v>
       </c>
@@ -11288,6 +11962,9 @@
       <c r="L8" t="s">
         <v>270</v>
       </c>
+      <c r="M8">
+        <v>999</v>
+      </c>
       <c r="N8" t="s">
         <v>102</v>
       </c>
@@ -11446,6 +12123,9 @@
       <c r="L9" t="s">
         <v>308</v>
       </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
       <c r="N9" t="s">
         <v>102</v>
       </c>
@@ -11604,6 +12284,9 @@
       <c r="L10" t="s">
         <v>312</v>
       </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
       <c r="N10" t="s">
         <v>102</v>
       </c>
@@ -11762,6 +12445,9 @@
       <c r="L11" t="s">
         <v>343</v>
       </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
       <c r="N11" t="s">
         <v>60</v>
       </c>
@@ -11920,6 +12606,9 @@
       <c r="L12" t="s">
         <v>665</v>
       </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
       <c r="N12" t="s">
         <v>60</v>
       </c>
@@ -12078,6 +12767,9 @@
       <c r="L13" t="s">
         <v>399</v>
       </c>
+      <c r="M13">
+        <v>999</v>
+      </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
@@ -12236,6 +12928,9 @@
       <c r="L14" t="s">
         <v>421</v>
       </c>
+      <c r="M14">
+        <v>999</v>
+      </c>
       <c r="N14" t="s">
         <v>60</v>
       </c>
@@ -12394,6 +13089,9 @@
       <c r="L15" t="s">
         <v>450</v>
       </c>
+      <c r="M15">
+        <v>999</v>
+      </c>
       <c r="N15" t="s">
         <v>60</v>
       </c>
@@ -12552,6 +13250,9 @@
       <c r="L16" t="s">
         <v>478</v>
       </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
       <c r="N16" t="s">
         <v>60</v>
       </c>
@@ -12710,6 +13411,9 @@
       <c r="L17" t="s">
         <v>503</v>
       </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
       <c r="N17" t="s">
         <v>60</v>
       </c>
@@ -12868,6 +13572,9 @@
       <c r="L18" t="s">
         <v>548</v>
       </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
       <c r="N18" t="s">
         <v>60</v>
       </c>
@@ -13026,6 +13733,9 @@
       <c r="L19" t="s">
         <v>559</v>
       </c>
+      <c r="M19">
+        <v>999</v>
+      </c>
       <c r="N19" t="s">
         <v>560</v>
       </c>
@@ -13184,6 +13894,9 @@
       <c r="L20" t="s">
         <v>580</v>
       </c>
+      <c r="M20">
+        <v>999</v>
+      </c>
       <c r="N20" t="s">
         <v>60</v>
       </c>
@@ -13345,6 +14058,9 @@
       <c r="L21" t="s">
         <v>611</v>
       </c>
+      <c r="M21">
+        <v>999</v>
+      </c>
       <c r="N21" t="s">
         <v>60</v>
       </c>
@@ -13506,6 +14222,9 @@
       <c r="L22" t="s">
         <v>632</v>
       </c>
+      <c r="M22">
+        <v>999</v>
+      </c>
       <c r="N22" t="s">
         <v>60</v>
       </c>
@@ -13664,6 +14383,9 @@
       <c r="L23" t="s">
         <v>695</v>
       </c>
+      <c r="M23">
+        <v>999</v>
+      </c>
       <c r="N23" t="s">
         <v>60</v>
       </c>
@@ -13822,6 +14544,9 @@
       <c r="L24" t="s">
         <v>720</v>
       </c>
+      <c r="M24">
+        <v>999</v>
+      </c>
       <c r="N24" t="s">
         <v>60</v>
       </c>
@@ -13980,6 +14705,9 @@
       <c r="L25" t="s">
         <v>747</v>
       </c>
+      <c r="M25">
+        <v>999</v>
+      </c>
       <c r="N25" t="s">
         <v>60</v>
       </c>
@@ -14141,6 +14869,9 @@
       <c r="L26" t="s">
         <v>771</v>
       </c>
+      <c r="M26">
+        <v>999</v>
+      </c>
       <c r="N26" t="s">
         <v>60</v>
       </c>
@@ -14299,6 +15030,9 @@
       <c r="L27" t="s">
         <v>797</v>
       </c>
+      <c r="M27">
+        <v>999</v>
+      </c>
       <c r="N27" t="s">
         <v>60</v>
       </c>
@@ -14457,6 +15191,9 @@
       <c r="L28" t="s">
         <v>818</v>
       </c>
+      <c r="M28">
+        <v>999</v>
+      </c>
       <c r="N28" t="s">
         <v>1373</v>
       </c>
@@ -14615,6 +15352,9 @@
       <c r="L29" t="s">
         <v>843</v>
       </c>
+      <c r="M29">
+        <v>999</v>
+      </c>
       <c r="N29" t="s">
         <v>60</v>
       </c>
@@ -14773,6 +15513,9 @@
       <c r="L30" t="s">
         <v>878</v>
       </c>
+      <c r="M30">
+        <v>999</v>
+      </c>
       <c r="N30" t="s">
         <v>60</v>
       </c>
@@ -14931,6 +15674,9 @@
       <c r="L31" t="s">
         <v>893</v>
       </c>
+      <c r="M31">
+        <v>999</v>
+      </c>
       <c r="N31" t="s">
         <v>60</v>
       </c>
@@ -15089,6 +15835,9 @@
       <c r="L32" t="s">
         <v>916</v>
       </c>
+      <c r="M32">
+        <v>999</v>
+      </c>
       <c r="N32" t="s">
         <v>60</v>
       </c>
@@ -15247,6 +15996,9 @@
       <c r="L33" t="s">
         <v>938</v>
       </c>
+      <c r="M33">
+        <v>999</v>
+      </c>
       <c r="N33" t="s">
         <v>60</v>
       </c>
@@ -15408,6 +16160,9 @@
       <c r="L34" t="s">
         <v>960</v>
       </c>
+      <c r="M34">
+        <v>999</v>
+      </c>
       <c r="N34" t="s">
         <v>60</v>
       </c>
@@ -15566,6 +16321,9 @@
       <c r="L35" t="s">
         <v>981</v>
       </c>
+      <c r="M35">
+        <v>999</v>
+      </c>
       <c r="N35" t="s">
         <v>60</v>
       </c>
@@ -15727,6 +16485,9 @@
       <c r="L36" t="s">
         <v>1009</v>
       </c>
+      <c r="M36">
+        <v>999</v>
+      </c>
       <c r="N36" t="s">
         <v>560</v>
       </c>
@@ -15885,6 +16646,9 @@
       <c r="L37" t="s">
         <v>1053</v>
       </c>
+      <c r="M37">
+        <v>999</v>
+      </c>
       <c r="N37" t="s">
         <v>1031</v>
       </c>
@@ -16043,6 +16807,9 @@
       <c r="L38" t="s">
         <v>1079</v>
       </c>
+      <c r="M38">
+        <v>999</v>
+      </c>
       <c r="N38" t="s">
         <v>560</v>
       </c>
@@ -16201,6 +16968,9 @@
       <c r="L39" t="s">
         <v>1082</v>
       </c>
+      <c r="M39">
+        <v>999</v>
+      </c>
       <c r="N39" t="s">
         <v>60</v>
       </c>
@@ -16359,6 +17129,9 @@
       <c r="L40" s="6" t="s">
         <v>1100</v>
       </c>
+      <c r="M40">
+        <v>999</v>
+      </c>
       <c r="N40" s="6" t="s">
         <v>560</v>
       </c>
@@ -16517,6 +17290,9 @@
       <c r="L41" t="s">
         <v>1123</v>
       </c>
+      <c r="M41">
+        <v>999</v>
+      </c>
       <c r="N41" t="s">
         <v>60</v>
       </c>
@@ -16675,6 +17451,9 @@
       <c r="L42" t="s">
         <v>1153</v>
       </c>
+      <c r="M42">
+        <v>999</v>
+      </c>
       <c r="N42" t="s">
         <v>1154</v>
       </c>
@@ -16830,6 +17609,9 @@
       <c r="L43" t="s">
         <v>1180</v>
       </c>
+      <c r="M43">
+        <v>999</v>
+      </c>
       <c r="N43" t="s">
         <v>1181</v>
       </c>
@@ -16988,6 +17770,9 @@
       <c r="L44" t="s">
         <v>1201</v>
       </c>
+      <c r="M44">
+        <v>999</v>
+      </c>
       <c r="N44" t="s">
         <v>177</v>
       </c>
@@ -17146,6 +17931,9 @@
       <c r="L45" t="s">
         <v>1228</v>
       </c>
+      <c r="M45">
+        <v>999</v>
+      </c>
       <c r="N45" t="s">
         <v>177</v>
       </c>
@@ -17304,6 +18092,9 @@
       <c r="L46" t="s">
         <v>1232</v>
       </c>
+      <c r="M46">
+        <v>999</v>
+      </c>
       <c r="N46" t="s">
         <v>177</v>
       </c>
@@ -17462,6 +18253,9 @@
       <c r="L47" t="s">
         <v>1248</v>
       </c>
+      <c r="M47">
+        <v>999</v>
+      </c>
       <c r="N47" t="s">
         <v>177</v>
       </c>
@@ -17620,6 +18414,9 @@
       <c r="L48" t="s">
         <v>1270</v>
       </c>
+      <c r="M48">
+        <v>999</v>
+      </c>
       <c r="N48" t="s">
         <v>102</v>
       </c>
@@ -17939,6 +18736,9 @@
       <c r="L50" t="s">
         <v>1310</v>
       </c>
+      <c r="M50">
+        <v>999</v>
+      </c>
       <c r="N50" t="s">
         <v>102</v>
       </c>
@@ -18097,6 +18897,9 @@
       <c r="L51" t="s">
         <v>1332</v>
       </c>
+      <c r="M51">
+        <v>999</v>
+      </c>
       <c r="N51" t="s">
         <v>102</v>
       </c>
@@ -18255,6 +19058,9 @@
       <c r="L52" t="s">
         <v>1353</v>
       </c>
+      <c r="M52">
+        <v>999</v>
+      </c>
       <c r="N52" t="s">
         <v>102</v>
       </c>
@@ -18413,6 +19219,9 @@
       <c r="L53" t="s">
         <v>1372</v>
       </c>
+      <c r="M53">
+        <v>999</v>
+      </c>
       <c r="N53" t="s">
         <v>1372</v>
       </c>
@@ -18732,6 +19541,9 @@
       <c r="L55" t="s">
         <v>1401</v>
       </c>
+      <c r="M55">
+        <v>999</v>
+      </c>
       <c r="N55" t="s">
         <v>1372</v>
       </c>
@@ -19051,6 +19863,9 @@
       <c r="L57" t="s">
         <v>1443</v>
       </c>
+      <c r="M57">
+        <v>999</v>
+      </c>
       <c r="N57" t="s">
         <v>1444</v>
       </c>
@@ -19209,6 +20024,9 @@
       <c r="L58" t="s">
         <v>1465</v>
       </c>
+      <c r="M58">
+        <v>999</v>
+      </c>
       <c r="N58" t="s">
         <v>984</v>
       </c>
@@ -19367,6 +20185,9 @@
       <c r="L59" t="s">
         <v>1492</v>
       </c>
+      <c r="M59">
+        <v>999</v>
+      </c>
       <c r="N59" t="s">
         <v>1444</v>
       </c>
@@ -19525,6 +20346,9 @@
       <c r="L60" t="s">
         <v>1515</v>
       </c>
+      <c r="M60">
+        <v>999</v>
+      </c>
       <c r="N60" t="s">
         <v>1516</v>
       </c>
@@ -19683,6 +20507,9 @@
       <c r="L61" t="s">
         <v>1551</v>
       </c>
+      <c r="M61">
+        <v>999</v>
+      </c>
       <c r="N61" t="s">
         <v>1552</v>
       </c>
@@ -19841,6 +20668,9 @@
       <c r="L62" t="s">
         <v>1573</v>
       </c>
+      <c r="M62">
+        <v>999</v>
+      </c>
       <c r="N62" t="s">
         <v>1574</v>
       </c>
@@ -19999,6 +20829,9 @@
       <c r="L63" t="s">
         <v>1593</v>
       </c>
+      <c r="M63">
+        <v>999</v>
+      </c>
       <c r="N63" t="s">
         <v>1594</v>
       </c>
@@ -20157,6 +20990,9 @@
       <c r="L64" t="s">
         <v>1625</v>
       </c>
+      <c r="M64">
+        <v>999</v>
+      </c>
       <c r="N64" t="s">
         <v>1444</v>
       </c>
@@ -20315,6 +21151,9 @@
       <c r="L65" t="s">
         <v>1645</v>
       </c>
+      <c r="M65">
+        <v>999</v>
+      </c>
       <c r="N65" t="s">
         <v>1444</v>
       </c>
@@ -20473,6 +21312,9 @@
       <c r="L66" t="s">
         <v>1662</v>
       </c>
+      <c r="M66">
+        <v>999</v>
+      </c>
       <c r="N66" t="s">
         <v>1444</v>
       </c>
@@ -20792,6 +21634,9 @@
       <c r="L68" t="s">
         <v>1700</v>
       </c>
+      <c r="M68">
+        <v>999</v>
+      </c>
       <c r="N68" t="s">
         <v>1701</v>
       </c>
@@ -20950,6 +21795,9 @@
       <c r="L69" t="s">
         <v>1725</v>
       </c>
+      <c r="M69">
+        <v>999</v>
+      </c>
       <c r="N69" t="s">
         <v>1701</v>
       </c>
@@ -21108,6 +21956,9 @@
       <c r="L70" t="s">
         <v>1735</v>
       </c>
+      <c r="M70">
+        <v>999</v>
+      </c>
       <c r="N70" t="s">
         <v>177</v>
       </c>
@@ -21266,6 +22117,9 @@
       <c r="L71" s="6" t="s">
         <v>1751</v>
       </c>
+      <c r="M71" s="6">
+        <v>999</v>
+      </c>
       <c r="N71" s="6" t="s">
         <v>664</v>
       </c>
@@ -21424,6 +22278,9 @@
       <c r="L72" t="s">
         <v>1775</v>
       </c>
+      <c r="M72">
+        <v>999</v>
+      </c>
       <c r="N72" t="s">
         <v>551</v>
       </c>
@@ -21743,6 +22600,9 @@
       <c r="L74" t="s">
         <v>1824</v>
       </c>
+      <c r="M74">
+        <v>999</v>
+      </c>
       <c r="N74" t="s">
         <v>1803</v>
       </c>
@@ -21901,6 +22761,9 @@
       <c r="L75" t="s">
         <v>1840</v>
       </c>
+      <c r="M75">
+        <v>999</v>
+      </c>
       <c r="N75" t="s">
         <v>1841</v>
       </c>
@@ -22059,6 +22922,9 @@
       <c r="L76" t="s">
         <v>1872</v>
       </c>
+      <c r="M76">
+        <v>999</v>
+      </c>
       <c r="N76" t="s">
         <v>1873</v>
       </c>
@@ -22217,6 +23083,9 @@
       <c r="L77" t="s">
         <v>1901</v>
       </c>
+      <c r="M77">
+        <v>999</v>
+      </c>
       <c r="N77" t="s">
         <v>1516</v>
       </c>
@@ -22375,6 +23244,9 @@
       <c r="L78" t="s">
         <v>1921</v>
       </c>
+      <c r="M78">
+        <v>999</v>
+      </c>
       <c r="N78" t="s">
         <v>1516</v>
       </c>
@@ -23016,6 +23888,9 @@
       <c r="L82" t="s">
         <v>1990</v>
       </c>
+      <c r="M82">
+        <v>999</v>
+      </c>
       <c r="N82" t="s">
         <v>1991</v>
       </c>
@@ -23174,6 +24049,9 @@
       <c r="L83" t="s">
         <v>2015</v>
       </c>
+      <c r="M83">
+        <v>999</v>
+      </c>
       <c r="N83" t="s">
         <v>1991</v>
       </c>
@@ -23332,6 +24210,9 @@
       <c r="L84" t="s">
         <v>2041</v>
       </c>
+      <c r="M84">
+        <v>999</v>
+      </c>
       <c r="N84" t="s">
         <v>1991</v>
       </c>
@@ -23490,6 +24371,9 @@
       <c r="L85" t="s">
         <v>2060</v>
       </c>
+      <c r="M85">
+        <v>999</v>
+      </c>
       <c r="N85" t="s">
         <v>141</v>
       </c>
@@ -23648,6 +24532,9 @@
       <c r="L86" t="s">
         <v>2086</v>
       </c>
+      <c r="M86">
+        <v>999</v>
+      </c>
       <c r="N86" t="s">
         <v>1737</v>
       </c>
@@ -23806,6 +24693,9 @@
       <c r="L87" t="s">
         <v>2103</v>
       </c>
+      <c r="M87">
+        <v>999</v>
+      </c>
       <c r="N87" t="s">
         <v>2104</v>
       </c>
@@ -23964,6 +24854,9 @@
       <c r="L88" t="s">
         <v>2121</v>
       </c>
+      <c r="M88">
+        <v>999</v>
+      </c>
       <c r="N88" t="s">
         <v>1803</v>
       </c>
@@ -24122,6 +25015,9 @@
       <c r="L89" t="s">
         <v>2140</v>
       </c>
+      <c r="M89">
+        <v>999</v>
+      </c>
       <c r="N89" t="s">
         <v>2141</v>
       </c>
@@ -24280,6 +25176,9 @@
       <c r="L90" t="s">
         <v>2159</v>
       </c>
+      <c r="M90">
+        <v>999</v>
+      </c>
       <c r="N90" t="s">
         <v>1737</v>
       </c>
@@ -24438,6 +25337,9 @@
       <c r="L91" t="s">
         <v>2176</v>
       </c>
+      <c r="M91">
+        <v>999</v>
+      </c>
       <c r="N91" t="s">
         <v>1991</v>
       </c>
@@ -24596,6 +25498,9 @@
       <c r="L92" t="s">
         <v>2202</v>
       </c>
+      <c r="M92">
+        <v>999</v>
+      </c>
       <c r="N92" t="s">
         <v>551</v>
       </c>
@@ -24915,6 +25820,9 @@
       <c r="L94" t="s">
         <v>2239</v>
       </c>
+      <c r="M94">
+        <v>999</v>
+      </c>
       <c r="N94" t="s">
         <v>1737</v>
       </c>
@@ -25073,6 +25981,9 @@
       <c r="L95" t="s">
         <v>2266</v>
       </c>
+      <c r="M95">
+        <v>999</v>
+      </c>
       <c r="N95" t="s">
         <v>2263</v>
       </c>
@@ -25231,6 +26142,9 @@
       <c r="L96" t="s">
         <v>2279</v>
       </c>
+      <c r="M96">
+        <v>999</v>
+      </c>
       <c r="N96" t="s">
         <v>1737</v>
       </c>
@@ -25389,6 +26303,9 @@
       <c r="L97" t="s">
         <v>2298</v>
       </c>
+      <c r="M97">
+        <v>999</v>
+      </c>
       <c r="N97" t="s">
         <v>1737</v>
       </c>
@@ -25547,6 +26464,9 @@
       <c r="L98" t="s">
         <v>2320</v>
       </c>
+      <c r="M98">
+        <v>999</v>
+      </c>
       <c r="N98" t="s">
         <v>1737</v>
       </c>
@@ -25705,6 +26625,9 @@
       <c r="L99" t="s">
         <v>2336</v>
       </c>
+      <c r="M99">
+        <v>999</v>
+      </c>
       <c r="N99" t="s">
         <v>1737</v>
       </c>
@@ -25863,6 +26786,9 @@
       <c r="L100" s="6" t="s">
         <v>2363</v>
       </c>
+      <c r="M100">
+        <v>999</v>
+      </c>
       <c r="N100" s="6" t="s">
         <v>2364</v>
       </c>
@@ -25965,10 +26891,10 @@
       <c r="AU100" s="6" t="s">
         <v>2385</v>
       </c>
-      <c r="AV100" s="13" t="s">
+      <c r="AV100" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="AW100" s="13" t="s">
+      <c r="AW100" s="6" t="s">
         <v>2628</v>
       </c>
       <c r="AX100" s="6" t="s">
@@ -25991,154 +26917,154 @@
       <c r="B101" s="2">
         <v>44772</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" t="s">
         <v>2389</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101">
         <v>7</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101">
         <v>5</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" t="s">
         <v>2391</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" t="s">
         <v>2392</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="I101" t="s">
         <v>2393</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" t="s">
         <v>2394</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" t="s">
         <v>2395</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="L101" t="s">
         <v>2396</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" t="s">
         <v>2398</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" t="s">
         <v>2397</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" t="s">
         <v>2399</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" t="s">
         <v>2400</v>
       </c>
-      <c r="Q101" s="11" t="s">
+      <c r="Q101" t="s">
         <v>2401</v>
       </c>
-      <c r="R101" s="11">
-        <v>999</v>
-      </c>
-      <c r="S101" s="11" t="s">
+      <c r="R101">
+        <v>999</v>
+      </c>
+      <c r="S101" t="s">
         <v>2402</v>
       </c>
-      <c r="T101" s="11" t="s">
+      <c r="T101" t="s">
         <v>142</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="V101" s="11" t="s">
+      <c r="V101" t="s">
         <v>2404</v>
       </c>
-      <c r="W101" s="11" t="s">
+      <c r="W101" t="s">
         <v>482</v>
       </c>
-      <c r="X101" s="11" t="s">
+      <c r="X101" t="s">
         <v>2405</v>
       </c>
-      <c r="Y101" s="11" t="s">
+      <c r="Y101" t="s">
         <v>2406</v>
       </c>
-      <c r="Z101" s="11" t="s">
+      <c r="Z101" t="s">
         <v>2407</v>
       </c>
-      <c r="AA101" s="11" t="s">
+      <c r="AA101" t="s">
         <v>2408</v>
       </c>
-      <c r="AB101" s="11" t="s">
+      <c r="AB101" t="s">
         <v>2409</v>
       </c>
-      <c r="AC101" s="11" t="s">
+      <c r="AC101" t="s">
         <v>2410</v>
       </c>
-      <c r="AD101" s="11" t="s">
+      <c r="AD101" t="s">
         <v>2411</v>
       </c>
-      <c r="AE101" s="11" t="s">
+      <c r="AE101" t="s">
         <v>2412</v>
       </c>
-      <c r="AF101" s="11" t="s">
+      <c r="AF101" t="s">
         <v>2413</v>
       </c>
-      <c r="AG101" s="11" t="s">
+      <c r="AG101" t="s">
         <v>2414</v>
       </c>
-      <c r="AH101" s="11" t="s">
+      <c r="AH101" t="s">
         <v>2415</v>
       </c>
-      <c r="AI101" s="11" t="s">
+      <c r="AI101" t="s">
         <v>2416</v>
       </c>
-      <c r="AJ101" s="11" t="s">
+      <c r="AJ101" t="s">
         <v>2417</v>
       </c>
-      <c r="AK101" s="11" t="s">
+      <c r="AK101" t="s">
         <v>2418</v>
       </c>
-      <c r="AL101" s="11" t="s">
+      <c r="AL101" t="s">
         <v>2419</v>
       </c>
-      <c r="AM101" s="11" t="s">
+      <c r="AM101" t="s">
         <v>2420</v>
       </c>
-      <c r="AN101" s="11" t="s">
+      <c r="AN101" t="s">
         <v>2421</v>
       </c>
-      <c r="AO101" s="11" t="s">
+      <c r="AO101" t="s">
         <v>2422</v>
       </c>
-      <c r="AP101" s="11" t="s">
+      <c r="AP101" t="s">
         <v>2423</v>
       </c>
-      <c r="AQ101" s="11" t="s">
+      <c r="AQ101" t="s">
         <v>2424</v>
       </c>
-      <c r="AR101" s="11" t="s">
+      <c r="AR101" t="s">
         <v>2425</v>
       </c>
-      <c r="AS101" s="11" t="s">
+      <c r="AS101" t="s">
         <v>2426</v>
       </c>
-      <c r="AT101" s="11" t="s">
+      <c r="AT101" t="s">
         <v>2427</v>
       </c>
-      <c r="AU101" s="11" t="s">
+      <c r="AU101" t="s">
         <v>1096</v>
       </c>
-      <c r="AV101" s="11" t="s">
+      <c r="AV101" t="s">
         <v>2428</v>
       </c>
-      <c r="AW101" s="11" t="s">
+      <c r="AW101" t="s">
         <v>2429</v>
       </c>
-      <c r="AX101" s="11" t="s">
+      <c r="AX101" t="s">
         <v>2430</v>
       </c>
       <c r="AY101" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AZ101" s="11" t="s">
+      <c r="AZ101" t="s">
         <v>1243</v>
       </c>
       <c r="BA101" s="1" t="s">
@@ -26152,151 +27078,154 @@
       <c r="B102" s="2">
         <v>44772</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" t="s">
         <v>54</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" t="s">
         <v>2389</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102">
         <v>8</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102">
         <v>14</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" t="s">
         <v>2433</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" t="s">
         <v>2392</v>
       </c>
-      <c r="I102" s="11" t="s">
+      <c r="I102" t="s">
         <v>1440</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" t="s">
         <v>2434</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" t="s">
         <v>2435</v>
       </c>
-      <c r="L102" s="11" t="s">
+      <c r="L102" t="s">
         <v>2436</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="M102">
+        <v>999</v>
+      </c>
+      <c r="N102" t="s">
         <v>2437</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" t="s">
         <v>2438</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" t="s">
         <v>2439</v>
       </c>
-      <c r="Q102" s="11" t="s">
+      <c r="Q102" t="s">
         <v>2440</v>
       </c>
-      <c r="R102" s="11">
-        <v>999</v>
-      </c>
-      <c r="S102" s="11">
-        <v>999</v>
-      </c>
-      <c r="T102" s="11" t="s">
+      <c r="R102">
+        <v>999</v>
+      </c>
+      <c r="S102">
+        <v>999</v>
+      </c>
+      <c r="T102" t="s">
         <v>245</v>
       </c>
       <c r="U102" s="1">
         <v>999</v>
       </c>
-      <c r="V102" s="11" t="s">
+      <c r="V102" t="s">
         <v>2441</v>
       </c>
-      <c r="W102" s="11" t="s">
+      <c r="W102" t="s">
         <v>482</v>
       </c>
-      <c r="X102" s="11" t="s">
+      <c r="X102" t="s">
         <v>2442</v>
       </c>
-      <c r="Y102" s="11" t="s">
+      <c r="Y102" t="s">
         <v>2443</v>
       </c>
-      <c r="Z102" s="11" t="s">
+      <c r="Z102" t="s">
         <v>2182</v>
       </c>
-      <c r="AA102" s="11" t="s">
+      <c r="AA102" t="s">
         <v>2444</v>
       </c>
-      <c r="AB102" s="11" t="s">
+      <c r="AB102" t="s">
         <v>2445</v>
       </c>
-      <c r="AC102" s="11" t="s">
+      <c r="AC102" t="s">
         <v>1473</v>
       </c>
-      <c r="AD102" s="11" t="s">
+      <c r="AD102" t="s">
         <v>2446</v>
       </c>
-      <c r="AE102" s="11" t="s">
+      <c r="AE102" t="s">
         <v>2000</v>
       </c>
       <c r="AF102">
         <v>999</v>
       </c>
-      <c r="AG102" s="11" t="s">
+      <c r="AG102" t="s">
         <v>2447</v>
       </c>
-      <c r="AH102" s="11" t="s">
+      <c r="AH102" t="s">
         <v>2448</v>
       </c>
-      <c r="AI102" s="11" t="s">
+      <c r="AI102" t="s">
         <v>2449</v>
       </c>
-      <c r="AJ102" s="11" t="s">
+      <c r="AJ102" t="s">
         <v>2450</v>
       </c>
-      <c r="AK102" s="11" t="s">
+      <c r="AK102" t="s">
         <v>2451</v>
       </c>
-      <c r="AL102" s="11" t="s">
+      <c r="AL102" t="s">
         <v>2452</v>
       </c>
-      <c r="AM102" s="11" t="s">
+      <c r="AM102" t="s">
         <v>2453</v>
       </c>
-      <c r="AN102" s="11" t="s">
+      <c r="AN102" t="s">
         <v>2454</v>
       </c>
-      <c r="AO102" s="11" t="s">
+      <c r="AO102" t="s">
         <v>2455</v>
       </c>
-      <c r="AP102" s="11" t="s">
+      <c r="AP102" t="s">
         <v>2456</v>
       </c>
-      <c r="AQ102" s="11" t="s">
+      <c r="AQ102" t="s">
         <v>2457</v>
       </c>
-      <c r="AR102" s="11" t="s">
+      <c r="AR102" t="s">
         <v>603</v>
       </c>
-      <c r="AS102" s="11" t="s">
+      <c r="AS102" t="s">
         <v>2458</v>
       </c>
-      <c r="AT102" s="11" t="s">
+      <c r="AT102" t="s">
         <v>1914</v>
       </c>
-      <c r="AU102" s="11" t="s">
+      <c r="AU102" t="s">
         <v>1074</v>
       </c>
-      <c r="AV102" s="11" t="s">
+      <c r="AV102" t="s">
         <v>2459</v>
       </c>
-      <c r="AW102" s="11" t="s">
+      <c r="AW102" t="s">
         <v>2460</v>
       </c>
-      <c r="AX102" s="11" t="s">
+      <c r="AX102" t="s">
         <v>2461</v>
       </c>
       <c r="AY102" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ102" s="11" t="s">
+      <c r="AZ102" t="s">
         <v>2432</v>
       </c>
       <c r="BA102" s="1" t="s">
@@ -26310,151 +27239,154 @@
       <c r="B103" s="2">
         <v>44772</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" t="s">
         <v>2389</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103">
         <v>9</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103">
         <v>7</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" t="s">
         <v>2464</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" t="s">
         <v>2392</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" t="s">
         <v>56</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J103" t="s">
         <v>2434</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K103" t="s">
         <v>2465</v>
       </c>
-      <c r="L103" s="11" t="s">
+      <c r="L103" t="s">
         <v>2466</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="M103">
+        <v>999</v>
+      </c>
+      <c r="N103" t="s">
         <v>2437</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" t="s">
         <v>2438</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" t="s">
         <v>2467</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="Q103" t="s">
         <v>2468</v>
       </c>
-      <c r="R103" s="11">
-        <v>999</v>
-      </c>
-      <c r="S103" s="11">
-        <v>999</v>
-      </c>
-      <c r="T103" s="11" t="s">
+      <c r="R103">
+        <v>999</v>
+      </c>
+      <c r="S103">
+        <v>999</v>
+      </c>
+      <c r="T103" t="s">
         <v>142</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="V103" s="11" t="s">
+      <c r="V103" t="s">
         <v>2469</v>
       </c>
-      <c r="W103" s="11" t="s">
+      <c r="W103" t="s">
         <v>66</v>
       </c>
-      <c r="X103" s="11" t="s">
+      <c r="X103" t="s">
         <v>107</v>
       </c>
-      <c r="Y103" s="11" t="s">
+      <c r="Y103" t="s">
         <v>2470</v>
       </c>
-      <c r="Z103" s="11" t="s">
+      <c r="Z103" t="s">
         <v>2471</v>
       </c>
-      <c r="AA103" s="11" t="s">
+      <c r="AA103" t="s">
         <v>250</v>
       </c>
-      <c r="AB103" s="11" t="s">
+      <c r="AB103" t="s">
         <v>2472</v>
       </c>
-      <c r="AC103" s="11" t="s">
+      <c r="AC103" t="s">
         <v>2473</v>
       </c>
-      <c r="AD103" s="11" t="s">
+      <c r="AD103" t="s">
         <v>2474</v>
       </c>
-      <c r="AE103" s="11" t="s">
+      <c r="AE103" t="s">
         <v>2475</v>
       </c>
-      <c r="AF103" s="11" t="s">
+      <c r="AF103" t="s">
         <v>2476</v>
       </c>
-      <c r="AG103" s="11" t="s">
+      <c r="AG103" t="s">
         <v>2477</v>
       </c>
-      <c r="AH103" s="11" t="s">
+      <c r="AH103" t="s">
         <v>1932</v>
       </c>
-      <c r="AI103" s="11" t="s">
+      <c r="AI103" t="s">
         <v>2478</v>
       </c>
-      <c r="AJ103" s="11" t="s">
+      <c r="AJ103" t="s">
         <v>2479</v>
       </c>
-      <c r="AK103" s="11" t="s">
+      <c r="AK103" t="s">
         <v>2480</v>
       </c>
-      <c r="AL103" s="11" t="s">
+      <c r="AL103" t="s">
         <v>2481</v>
       </c>
-      <c r="AM103" s="11" t="s">
+      <c r="AM103" t="s">
         <v>1978</v>
       </c>
-      <c r="AN103" s="11" t="s">
+      <c r="AN103" t="s">
         <v>2482</v>
       </c>
-      <c r="AO103" s="11" t="s">
+      <c r="AO103" t="s">
         <v>2483</v>
       </c>
-      <c r="AP103" s="11" t="s">
+      <c r="AP103" t="s">
         <v>2484</v>
       </c>
-      <c r="AQ103" s="11" t="s">
+      <c r="AQ103" t="s">
         <v>2485</v>
       </c>
-      <c r="AR103" s="11" t="s">
+      <c r="AR103" t="s">
         <v>202</v>
       </c>
-      <c r="AS103" s="11" t="s">
+      <c r="AS103" t="s">
         <v>2486</v>
       </c>
-      <c r="AT103" s="11" t="s">
+      <c r="AT103" t="s">
         <v>2487</v>
       </c>
-      <c r="AU103" s="11" t="s">
+      <c r="AU103" t="s">
         <v>1818</v>
       </c>
-      <c r="AV103" s="11" t="s">
+      <c r="AV103" t="s">
         <v>2488</v>
       </c>
-      <c r="AW103" s="11" t="s">
+      <c r="AW103" t="s">
         <v>2489</v>
       </c>
-      <c r="AX103" s="11" t="s">
+      <c r="AX103" t="s">
         <v>2490</v>
       </c>
       <c r="AY103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ103" s="11" t="s">
+      <c r="AZ103" t="s">
         <v>2463</v>
       </c>
       <c r="BA103" s="1" t="s">
@@ -26468,151 +27400,154 @@
       <c r="B104" s="2">
         <v>44772</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" t="s">
         <v>2389</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104">
         <v>11</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104">
         <v>3</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" t="s">
         <v>2518</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="H104" t="s">
         <v>2392</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" t="s">
         <v>500</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" t="s">
         <v>2394</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K104" t="s">
         <v>2493</v>
       </c>
-      <c r="L104" s="11" t="s">
+      <c r="L104" t="s">
         <v>2494</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="M104">
+        <v>999</v>
+      </c>
+      <c r="N104" t="s">
         <v>2437</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" t="s">
         <v>2495</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" t="s">
         <v>2496</v>
       </c>
-      <c r="Q104" s="11" t="s">
+      <c r="Q104" t="s">
         <v>2497</v>
       </c>
-      <c r="R104" s="11" t="s">
+      <c r="R104" t="s">
         <v>2498</v>
       </c>
-      <c r="S104" s="11">
-        <v>999</v>
-      </c>
-      <c r="T104" s="11" t="s">
+      <c r="S104">
+        <v>999</v>
+      </c>
+      <c r="T104" t="s">
         <v>64</v>
       </c>
       <c r="U104" s="1">
         <v>999</v>
       </c>
-      <c r="V104" s="11" t="s">
+      <c r="V104" t="s">
         <v>2469</v>
       </c>
-      <c r="W104" s="11" t="s">
+      <c r="W104" t="s">
         <v>2499</v>
       </c>
-      <c r="X104" s="11" t="s">
+      <c r="X104" t="s">
         <v>2500</v>
       </c>
-      <c r="Y104" s="11" t="s">
+      <c r="Y104" t="s">
         <v>2501</v>
       </c>
-      <c r="Z104" s="11" t="s">
+      <c r="Z104" t="s">
         <v>2471</v>
       </c>
-      <c r="AA104" s="11" t="s">
+      <c r="AA104" t="s">
         <v>2502</v>
       </c>
-      <c r="AB104" s="11" t="s">
+      <c r="AB104" t="s">
         <v>2503</v>
       </c>
-      <c r="AC104" s="11" t="s">
+      <c r="AC104" t="s">
         <v>1449</v>
       </c>
-      <c r="AD104" s="11" t="s">
+      <c r="AD104" t="s">
         <v>2504</v>
       </c>
-      <c r="AE104" s="11" t="s">
+      <c r="AE104" t="s">
         <v>1275</v>
       </c>
-      <c r="AF104" s="11" t="s">
+      <c r="AF104" t="s">
         <v>2506</v>
       </c>
-      <c r="AG104" s="11" t="s">
+      <c r="AG104" t="s">
         <v>2505</v>
       </c>
-      <c r="AH104" s="11" t="s">
+      <c r="AH104" t="s">
         <v>2507</v>
       </c>
-      <c r="AI104" s="11" t="s">
+      <c r="AI104" t="s">
         <v>2508</v>
       </c>
-      <c r="AJ104" s="11" t="s">
+      <c r="AJ104" t="s">
         <v>2509</v>
       </c>
-      <c r="AK104" s="11" t="s">
+      <c r="AK104" t="s">
         <v>2510</v>
       </c>
-      <c r="AL104" s="11" t="s">
+      <c r="AL104" t="s">
         <v>2511</v>
       </c>
-      <c r="AM104" s="11" t="s">
+      <c r="AM104" t="s">
         <v>121</v>
       </c>
-      <c r="AN104" s="11" t="s">
+      <c r="AN104" t="s">
         <v>2482</v>
       </c>
-      <c r="AO104" s="11" t="s">
+      <c r="AO104" t="s">
         <v>2512</v>
       </c>
-      <c r="AP104" s="11" t="s">
+      <c r="AP104" t="s">
         <v>2513</v>
       </c>
-      <c r="AQ104" s="11" t="s">
+      <c r="AQ104" t="s">
         <v>2457</v>
       </c>
-      <c r="AR104" s="11" t="s">
+      <c r="AR104" t="s">
         <v>202</v>
       </c>
-      <c r="AS104" s="11" t="s">
+      <c r="AS104" t="s">
         <v>2514</v>
       </c>
-      <c r="AT104" s="11" t="s">
+      <c r="AT104" t="s">
         <v>2515</v>
       </c>
-      <c r="AU104" s="11" t="s">
+      <c r="AU104" t="s">
         <v>520</v>
       </c>
-      <c r="AV104" s="11" t="s">
+      <c r="AV104" t="s">
         <v>2516</v>
       </c>
-      <c r="AW104" s="11" t="s">
+      <c r="AW104" t="s">
         <v>2517</v>
       </c>
-      <c r="AX104" s="11" t="s">
+      <c r="AX104" t="s">
         <v>2461</v>
       </c>
       <c r="AY104" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ104" s="11" t="s">
+      <c r="AZ104" t="s">
         <v>2492</v>
       </c>
       <c r="BA104" s="1" t="s">
@@ -26626,151 +27561,154 @@
       <c r="B105" s="2">
         <v>44772</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" t="s">
         <v>2389</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105">
         <v>13</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105">
         <v>1</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="G105" t="s">
         <v>2519</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" t="s">
         <v>2392</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="I105" t="s">
         <v>240</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="J105" t="s">
         <v>2394</v>
       </c>
-      <c r="K105" s="11" t="s">
+      <c r="K105" t="s">
         <v>2520</v>
       </c>
-      <c r="L105" s="11" t="s">
+      <c r="L105" t="s">
         <v>2521</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="M105">
+        <v>999</v>
+      </c>
+      <c r="N105" t="s">
         <v>2522</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" t="s">
         <v>2523</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" t="s">
         <v>2524</v>
       </c>
-      <c r="Q105" s="11" t="s">
+      <c r="Q105" t="s">
         <v>2525</v>
       </c>
-      <c r="R105" s="11">
-        <v>999</v>
-      </c>
-      <c r="S105" s="11" t="s">
+      <c r="R105">
+        <v>999</v>
+      </c>
+      <c r="S105" t="s">
         <v>2526</v>
       </c>
-      <c r="T105" s="11" t="s">
+      <c r="T105" t="s">
         <v>64</v>
       </c>
       <c r="U105" s="1">
         <v>999</v>
       </c>
-      <c r="V105" s="11" t="s">
+      <c r="V105" t="s">
         <v>2527</v>
       </c>
-      <c r="W105" s="11" t="s">
+      <c r="W105" t="s">
         <v>2528</v>
       </c>
-      <c r="X105" s="11" t="s">
+      <c r="X105" t="s">
         <v>2529</v>
       </c>
-      <c r="Y105" s="11" t="s">
+      <c r="Y105" t="s">
         <v>2530</v>
       </c>
-      <c r="Z105" s="11" t="s">
+      <c r="Z105" t="s">
         <v>1254</v>
       </c>
-      <c r="AA105" s="11" t="s">
+      <c r="AA105" t="s">
         <v>2502</v>
       </c>
-      <c r="AB105" s="11" t="s">
+      <c r="AB105" t="s">
         <v>2531</v>
       </c>
-      <c r="AC105" s="11" t="s">
+      <c r="AC105" t="s">
         <v>2532</v>
       </c>
-      <c r="AD105" s="11" t="s">
+      <c r="AD105" t="s">
         <v>2024</v>
       </c>
-      <c r="AE105" s="11" t="s">
+      <c r="AE105" t="s">
         <v>2475</v>
       </c>
-      <c r="AF105" s="11" t="s">
+      <c r="AF105" t="s">
         <v>2533</v>
       </c>
-      <c r="AG105" s="11" t="s">
+      <c r="AG105" t="s">
         <v>2534</v>
       </c>
-      <c r="AH105" s="11" t="s">
+      <c r="AH105" t="s">
         <v>1932</v>
       </c>
-      <c r="AI105" s="11" t="s">
+      <c r="AI105" t="s">
         <v>2535</v>
       </c>
-      <c r="AJ105" s="11" t="s">
+      <c r="AJ105" t="s">
         <v>2479</v>
       </c>
-      <c r="AK105" s="11" t="s">
+      <c r="AK105" t="s">
         <v>2510</v>
       </c>
-      <c r="AL105" s="11" t="s">
+      <c r="AL105" t="s">
         <v>2536</v>
       </c>
       <c r="AM105">
         <v>999</v>
       </c>
-      <c r="AN105" s="11" t="s">
+      <c r="AN105" t="s">
         <v>2537</v>
       </c>
-      <c r="AO105" s="11" t="s">
+      <c r="AO105" t="s">
         <v>2538</v>
       </c>
-      <c r="AP105" s="11" t="s">
+      <c r="AP105" t="s">
         <v>2539</v>
       </c>
-      <c r="AQ105" s="11" t="s">
+      <c r="AQ105" t="s">
         <v>653</v>
       </c>
-      <c r="AR105" s="11" t="s">
+      <c r="AR105" t="s">
         <v>2540</v>
       </c>
-      <c r="AS105" s="11" t="s">
+      <c r="AS105" t="s">
         <v>2541</v>
       </c>
-      <c r="AT105" s="11" t="s">
+      <c r="AT105" t="s">
         <v>2542</v>
       </c>
-      <c r="AU105" s="11" t="s">
+      <c r="AU105" t="s">
         <v>1818</v>
       </c>
-      <c r="AV105" s="11" t="s">
+      <c r="AV105" t="s">
         <v>2543</v>
       </c>
-      <c r="AW105" s="11" t="s">
+      <c r="AW105" t="s">
         <v>2517</v>
       </c>
-      <c r="AX105" s="11" t="s">
+      <c r="AX105" t="s">
         <v>2544</v>
       </c>
       <c r="AY105" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="AZ105" s="11" t="s">
+      <c r="AZ105" t="s">
         <v>2463</v>
       </c>
       <c r="BA105" s="1" t="s">
@@ -26784,151 +27722,154 @@
       <c r="B106" s="2">
         <v>44772</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" t="s">
         <v>54</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" t="s">
         <v>2389</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106">
         <v>13</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106">
         <v>9</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" t="s">
         <v>2547</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="H106" t="s">
         <v>2392</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="I106" t="s">
         <v>240</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" t="s">
         <v>2434</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K106" t="s">
         <v>2548</v>
       </c>
-      <c r="L106" s="11" t="s">
+      <c r="L106" t="s">
         <v>2549</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="M106">
+        <v>999</v>
+      </c>
+      <c r="N106" t="s">
         <v>2550</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" t="s">
         <v>139</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" t="s">
         <v>2551</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" t="s">
         <v>2552</v>
       </c>
-      <c r="R106" s="11">
-        <v>999</v>
-      </c>
-      <c r="S106" s="11">
-        <v>999</v>
-      </c>
-      <c r="T106" s="11" t="s">
+      <c r="R106">
+        <v>999</v>
+      </c>
+      <c r="S106">
+        <v>999</v>
+      </c>
+      <c r="T106" t="s">
         <v>142</v>
       </c>
       <c r="U106" s="1">
         <v>999</v>
       </c>
-      <c r="V106" s="11" t="s">
+      <c r="V106" t="s">
         <v>2553</v>
       </c>
-      <c r="W106" s="11" t="s">
+      <c r="W106" t="s">
         <v>2554</v>
       </c>
-      <c r="X106" s="11" t="s">
+      <c r="X106" t="s">
         <v>2555</v>
       </c>
-      <c r="Y106" s="11" t="s">
+      <c r="Y106" t="s">
         <v>2556</v>
       </c>
       <c r="Z106" t="s">
         <v>2557</v>
       </c>
-      <c r="AA106" s="11" t="s">
+      <c r="AA106" t="s">
         <v>2268</v>
       </c>
-      <c r="AB106" s="11" t="s">
+      <c r="AB106" t="s">
         <v>2558</v>
       </c>
-      <c r="AC106" s="11" t="s">
+      <c r="AC106" t="s">
         <v>2576</v>
       </c>
-      <c r="AD106" s="11" t="s">
+      <c r="AD106" t="s">
         <v>2184</v>
       </c>
-      <c r="AE106" s="11" t="s">
+      <c r="AE106" t="s">
         <v>2559</v>
       </c>
       <c r="AF106" t="s">
         <v>2560</v>
       </c>
-      <c r="AG106" s="11" t="s">
+      <c r="AG106" t="s">
         <v>2561</v>
       </c>
-      <c r="AH106" s="11" t="s">
+      <c r="AH106" t="s">
         <v>1501</v>
       </c>
-      <c r="AI106" s="11" t="s">
+      <c r="AI106" t="s">
         <v>2575</v>
       </c>
-      <c r="AJ106" s="11" t="s">
+      <c r="AJ106" t="s">
         <v>2562</v>
       </c>
-      <c r="AK106" s="11" t="s">
+      <c r="AK106" t="s">
         <v>2563</v>
       </c>
-      <c r="AL106" s="11" t="s">
+      <c r="AL106" t="s">
         <v>2574</v>
       </c>
-      <c r="AM106" s="11" t="s">
+      <c r="AM106" t="s">
         <v>159</v>
       </c>
-      <c r="AN106" s="11" t="s">
+      <c r="AN106" t="s">
         <v>2564</v>
       </c>
-      <c r="AO106" s="11" t="s">
+      <c r="AO106" t="s">
         <v>2565</v>
       </c>
-      <c r="AP106" s="11" t="s">
+      <c r="AP106" t="s">
         <v>2566</v>
       </c>
-      <c r="AQ106" s="11" t="s">
+      <c r="AQ106" t="s">
         <v>653</v>
       </c>
-      <c r="AR106" s="11" t="s">
+      <c r="AR106" t="s">
         <v>525</v>
       </c>
-      <c r="AS106" s="11" t="s">
+      <c r="AS106" t="s">
         <v>2573</v>
       </c>
-      <c r="AT106" s="11" t="s">
+      <c r="AT106" t="s">
         <v>2006</v>
       </c>
-      <c r="AU106" s="11" t="s">
+      <c r="AU106" t="s">
         <v>2567</v>
       </c>
-      <c r="AV106" s="11" t="s">
+      <c r="AV106" t="s">
         <v>2568</v>
       </c>
       <c r="AW106" t="s">
         <v>2572</v>
       </c>
-      <c r="AX106" s="11" t="s">
+      <c r="AX106" t="s">
         <v>2569</v>
       </c>
       <c r="AY106" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="AZ106" s="11" t="s">
+      <c r="AZ106" t="s">
         <v>2432</v>
       </c>
       <c r="BA106" s="1" t="s">
@@ -26942,151 +27883,154 @@
       <c r="B107" s="2">
         <v>44772</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" t="s">
         <v>2389</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107">
         <v>14</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107">
         <v>2</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" t="s">
         <v>2577</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="H107" t="s">
         <v>2392</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="I107" t="s">
         <v>268</v>
       </c>
-      <c r="J107" s="11" t="s">
+      <c r="J107" t="s">
         <v>2394</v>
       </c>
-      <c r="K107" s="11" t="s">
+      <c r="K107" t="s">
         <v>2578</v>
       </c>
-      <c r="L107" s="11" t="s">
+      <c r="L107" t="s">
         <v>2579</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="M107">
+        <v>999</v>
+      </c>
+      <c r="N107" t="s">
         <v>2522</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" t="s">
         <v>2580</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" t="s">
         <v>2581</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" t="s">
         <v>2582</v>
       </c>
-      <c r="R107" s="11">
-        <v>999</v>
-      </c>
-      <c r="S107" s="11">
-        <v>999</v>
-      </c>
-      <c r="T107" s="11" t="s">
+      <c r="R107">
+        <v>999</v>
+      </c>
+      <c r="S107">
+        <v>999</v>
+      </c>
+      <c r="T107" t="s">
         <v>142</v>
       </c>
       <c r="U107" s="1">
         <v>999</v>
       </c>
-      <c r="V107" s="11" t="s">
+      <c r="V107" t="s">
         <v>2583</v>
       </c>
-      <c r="W107" s="11" t="s">
+      <c r="W107" t="s">
         <v>2584</v>
       </c>
-      <c r="X107" s="11" t="s">
+      <c r="X107" t="s">
         <v>2500</v>
       </c>
-      <c r="Y107" s="11" t="s">
+      <c r="Y107" t="s">
         <v>2585</v>
       </c>
-      <c r="Z107" s="11" t="s">
+      <c r="Z107" t="s">
         <v>2471</v>
       </c>
-      <c r="AA107" s="11" t="s">
+      <c r="AA107" t="s">
         <v>2586</v>
       </c>
-      <c r="AB107" s="11" t="s">
+      <c r="AB107" t="s">
         <v>2587</v>
       </c>
-      <c r="AC107" s="11" t="s">
+      <c r="AC107" t="s">
         <v>2473</v>
       </c>
-      <c r="AD107" s="11" t="s">
+      <c r="AD107" t="s">
         <v>2588</v>
       </c>
-      <c r="AE107" s="11" t="s">
+      <c r="AE107" t="s">
         <v>2589</v>
       </c>
-      <c r="AF107" s="11" t="s">
+      <c r="AF107" t="s">
         <v>2590</v>
       </c>
-      <c r="AG107" s="11" t="s">
+      <c r="AG107" t="s">
         <v>2591</v>
       </c>
-      <c r="AH107" s="11" t="s">
+      <c r="AH107" t="s">
         <v>1932</v>
       </c>
-      <c r="AI107" s="11" t="s">
+      <c r="AI107" t="s">
         <v>2592</v>
       </c>
-      <c r="AJ107" s="11" t="s">
+      <c r="AJ107" t="s">
         <v>2593</v>
       </c>
-      <c r="AK107" s="11" t="s">
+      <c r="AK107" t="s">
         <v>2594</v>
       </c>
-      <c r="AL107" s="11" t="s">
+      <c r="AL107" t="s">
         <v>2595</v>
       </c>
-      <c r="AM107" s="11" t="s">
+      <c r="AM107" t="s">
         <v>121</v>
       </c>
-      <c r="AN107" s="11" t="s">
+      <c r="AN107" t="s">
         <v>2596</v>
       </c>
-      <c r="AO107" s="11" t="s">
+      <c r="AO107" t="s">
         <v>2597</v>
       </c>
-      <c r="AP107" s="11" t="s">
+      <c r="AP107" t="s">
         <v>2513</v>
       </c>
-      <c r="AQ107" s="11" t="s">
+      <c r="AQ107" t="s">
         <v>1456</v>
       </c>
-      <c r="AR107" s="11" t="s">
+      <c r="AR107" t="s">
         <v>202</v>
       </c>
-      <c r="AS107" s="11" t="s">
+      <c r="AS107" t="s">
         <v>2598</v>
       </c>
-      <c r="AT107" s="11" t="s">
+      <c r="AT107" t="s">
         <v>2599</v>
       </c>
-      <c r="AU107" s="11" t="s">
+      <c r="AU107" t="s">
         <v>2600</v>
       </c>
-      <c r="AV107" s="11" t="s">
+      <c r="AV107" t="s">
         <v>2601</v>
       </c>
-      <c r="AW107" s="11" t="s">
+      <c r="AW107" t="s">
         <v>2517</v>
       </c>
-      <c r="AX107" s="11" t="s">
+      <c r="AX107" t="s">
         <v>2490</v>
       </c>
       <c r="AY107" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="AZ107" s="11" t="s">
+      <c r="AZ107" t="s">
         <v>2463</v>
       </c>
       <c r="BA107" s="1" t="s">
@@ -27100,151 +28044,154 @@
       <c r="B108" s="7">
         <v>44772</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="6" t="s">
         <v>2389</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="6">
         <v>16</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="6">
         <v>5</v>
       </c>
-      <c r="G108" s="12" t="s">
+      <c r="G108" s="6" t="s">
         <v>2604</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="H108" s="6" t="s">
         <v>2392</v>
       </c>
-      <c r="I108" s="12" t="s">
+      <c r="I108" s="6" t="s">
         <v>1549</v>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="6" t="s">
         <v>2394</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K108" s="6" t="s">
         <v>2605</v>
       </c>
-      <c r="L108" s="12" t="s">
+      <c r="L108" s="6" t="s">
         <v>2606</v>
       </c>
-      <c r="N108" s="12" t="s">
+      <c r="M108">
+        <v>999</v>
+      </c>
+      <c r="N108" s="6" t="s">
         <v>2607</v>
       </c>
-      <c r="O108" s="12" t="s">
+      <c r="O108" s="6" t="s">
         <v>2608</v>
       </c>
-      <c r="P108" s="12" t="s">
+      <c r="P108" s="6" t="s">
         <v>2609</v>
       </c>
-      <c r="Q108" s="12" t="s">
+      <c r="Q108" s="6" t="s">
         <v>2607</v>
       </c>
-      <c r="R108" s="12">
-        <v>999</v>
-      </c>
-      <c r="S108" s="12">
-        <v>999</v>
-      </c>
-      <c r="T108" s="12" t="s">
+      <c r="R108" s="6">
+        <v>999</v>
+      </c>
+      <c r="S108" s="6">
+        <v>999</v>
+      </c>
+      <c r="T108" s="6" t="s">
         <v>179</v>
       </c>
       <c r="U108" s="8" t="s">
         <v>2610</v>
       </c>
-      <c r="V108" s="12" t="s">
+      <c r="V108" s="6" t="s">
         <v>2611</v>
       </c>
-      <c r="W108" s="12" t="s">
+      <c r="W108" s="6" t="s">
         <v>2612</v>
       </c>
-      <c r="X108" s="12" t="s">
+      <c r="X108" s="6" t="s">
         <v>2613</v>
       </c>
-      <c r="Y108" s="12" t="s">
+      <c r="Y108" s="6" t="s">
         <v>2614</v>
       </c>
-      <c r="Z108" s="12" t="s">
+      <c r="Z108" s="6" t="s">
         <v>2182</v>
       </c>
-      <c r="AA108" s="12" t="s">
+      <c r="AA108" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="AB108" s="12" t="s">
+      <c r="AB108" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="AC108" s="12" t="s">
+      <c r="AC108" s="6" t="s">
         <v>2049</v>
       </c>
-      <c r="AD108" s="12" t="s">
+      <c r="AD108" s="6" t="s">
         <v>2615</v>
       </c>
-      <c r="AE108" s="12" t="s">
+      <c r="AE108" s="6" t="s">
         <v>2616</v>
       </c>
-      <c r="AF108" s="12" t="s">
+      <c r="AF108" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AG108" s="12" t="s">
+      <c r="AG108" s="6" t="s">
         <v>2617</v>
       </c>
-      <c r="AH108" s="12" t="s">
+      <c r="AH108" s="6" t="s">
         <v>2618</v>
       </c>
-      <c r="AI108" s="12" t="s">
+      <c r="AI108" s="6" t="s">
         <v>2619</v>
       </c>
-      <c r="AJ108" s="12" t="s">
+      <c r="AJ108" s="6" t="s">
         <v>2450</v>
       </c>
-      <c r="AK108" s="12" t="s">
+      <c r="AK108" s="6" t="s">
         <v>2620</v>
       </c>
-      <c r="AL108" s="12" t="s">
+      <c r="AL108" s="6" t="s">
         <v>2621</v>
       </c>
-      <c r="AM108" s="12" t="s">
+      <c r="AM108" s="6" t="s">
         <v>2622</v>
       </c>
-      <c r="AN108" s="12" t="s">
+      <c r="AN108" s="6" t="s">
         <v>2623</v>
       </c>
-      <c r="AO108" s="12" t="s">
+      <c r="AO108" s="6" t="s">
         <v>2624</v>
       </c>
-      <c r="AP108" s="12" t="s">
+      <c r="AP108" s="6" t="s">
         <v>2625</v>
       </c>
-      <c r="AQ108" s="12" t="s">
+      <c r="AQ108" s="6" t="s">
         <v>2054</v>
       </c>
-      <c r="AR108" s="12" t="s">
+      <c r="AR108" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="AS108" s="12" t="s">
+      <c r="AS108" s="6" t="s">
         <v>2626</v>
       </c>
-      <c r="AT108" s="12" t="s">
+      <c r="AT108" s="6" t="s">
         <v>2193</v>
       </c>
-      <c r="AU108" s="12" t="s">
+      <c r="AU108" s="6" t="s">
         <v>2627</v>
       </c>
-      <c r="AV108" s="12" t="s">
+      <c r="AV108" s="6" t="s">
         <v>1835</v>
       </c>
-      <c r="AW108" s="12" t="s">
+      <c r="AW108" s="6" t="s">
         <v>2628</v>
       </c>
-      <c r="AX108" s="12" t="s">
+      <c r="AX108" s="6" t="s">
         <v>1615</v>
       </c>
       <c r="AY108" s="8" t="s">
         <v>2629</v>
       </c>
-      <c r="AZ108" s="12" t="s">
+      <c r="AZ108" s="6" t="s">
         <v>1028</v>
       </c>
       <c r="BA108" s="8" t="s">
@@ -27258,151 +28205,154 @@
       <c r="B109" s="2">
         <v>44772</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" t="s">
         <v>2762</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109">
         <v>9</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109">
         <v>1</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" t="s">
         <v>2633</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H109" t="s">
         <v>97</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I109" t="s">
         <v>56</v>
       </c>
-      <c r="J109" s="11" t="s">
+      <c r="J109" t="s">
         <v>2763</v>
       </c>
-      <c r="K109" s="11" t="s">
+      <c r="K109" t="s">
         <v>2764</v>
       </c>
-      <c r="L109" s="11" t="s">
+      <c r="L109" t="s">
         <v>2765</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="M109">
+        <v>999</v>
+      </c>
+      <c r="N109" t="s">
         <v>1444</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" t="s">
         <v>61</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" t="s">
         <v>2788</v>
       </c>
-      <c r="Q109" s="11" t="s">
+      <c r="Q109" t="s">
         <v>2766</v>
       </c>
-      <c r="R109" s="11" t="s">
+      <c r="R109" t="s">
         <v>984</v>
       </c>
-      <c r="S109" s="11">
-        <v>999</v>
-      </c>
-      <c r="T109" s="11" t="s">
+      <c r="S109">
+        <v>999</v>
+      </c>
+      <c r="T109" t="s">
         <v>64</v>
       </c>
       <c r="U109" s="1">
         <v>999</v>
       </c>
-      <c r="V109" s="11" t="s">
+      <c r="V109" t="s">
         <v>1649</v>
       </c>
-      <c r="W109" s="11" t="s">
+      <c r="W109" t="s">
         <v>896</v>
       </c>
-      <c r="X109" s="11" t="s">
+      <c r="X109" t="s">
         <v>700</v>
       </c>
-      <c r="Y109" s="11" t="s">
+      <c r="Y109" t="s">
         <v>457</v>
       </c>
-      <c r="Z109" s="11" t="s">
+      <c r="Z109" t="s">
         <v>701</v>
       </c>
-      <c r="AA109" s="11" t="s">
+      <c r="AA109" t="s">
         <v>2767</v>
       </c>
-      <c r="AB109" s="11" t="s">
+      <c r="AB109" t="s">
         <v>639</v>
       </c>
-      <c r="AC109" s="11" t="s">
+      <c r="AC109" t="s">
         <v>703</v>
       </c>
-      <c r="AD109" s="11" t="s">
+      <c r="AD109" t="s">
         <v>2768</v>
       </c>
-      <c r="AE109" s="11" t="s">
+      <c r="AE109" t="s">
         <v>1474</v>
       </c>
-      <c r="AF109" s="11" t="s">
+      <c r="AF109" t="s">
         <v>642</v>
       </c>
-      <c r="AG109" s="11" t="s">
+      <c r="AG109" t="s">
         <v>2769</v>
       </c>
-      <c r="AH109" s="11" t="s">
+      <c r="AH109" t="s">
         <v>1688</v>
       </c>
-      <c r="AI109" s="11" t="s">
+      <c r="AI109" t="s">
         <v>463</v>
       </c>
-      <c r="AJ109" s="11" t="s">
+      <c r="AJ109" t="s">
         <v>385</v>
       </c>
-      <c r="AK109" s="11" t="s">
+      <c r="AK109" t="s">
         <v>647</v>
       </c>
       <c r="AL109">
         <v>999</v>
       </c>
-      <c r="AM109" s="11" t="s">
+      <c r="AM109" t="s">
         <v>1479</v>
       </c>
-      <c r="AN109" s="11" t="s">
+      <c r="AN109" t="s">
         <v>1655</v>
       </c>
-      <c r="AO109" s="11" t="s">
+      <c r="AO109" t="s">
         <v>712</v>
       </c>
-      <c r="AP109" s="11" t="s">
+      <c r="AP109" t="s">
         <v>601</v>
       </c>
-      <c r="AQ109" s="11" t="s">
+      <c r="AQ109" t="s">
         <v>85</v>
       </c>
-      <c r="AR109" s="11" t="s">
+      <c r="AR109" t="s">
         <v>2770</v>
       </c>
-      <c r="AS109" s="11" t="s">
+      <c r="AS109" t="s">
         <v>1483</v>
       </c>
-      <c r="AT109" s="11" t="s">
+      <c r="AT109" t="s">
         <v>2771</v>
       </c>
-      <c r="AU109" s="11" t="s">
+      <c r="AU109" t="s">
         <v>2772</v>
       </c>
-      <c r="AV109" s="11" t="s">
+      <c r="AV109" t="s">
         <v>2773</v>
       </c>
-      <c r="AW109" s="11" t="s">
+      <c r="AW109" t="s">
         <v>1657</v>
       </c>
-      <c r="AX109" s="11" t="s">
+      <c r="AX109" t="s">
         <v>2774</v>
       </c>
       <c r="AY109" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ109" s="11" t="s">
+      <c r="AZ109" t="s">
         <v>1489</v>
       </c>
       <c r="BA109" s="1" t="s">
@@ -27419,151 +28369,154 @@
       <c r="B110" s="2">
         <v>44772</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E110" s="11">
+      <c r="D110" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E110">
         <v>9</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110">
         <v>2</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G110" t="s">
         <v>2634</v>
       </c>
-      <c r="H110" s="11" t="s">
+      <c r="H110" t="s">
         <v>213</v>
       </c>
-      <c r="I110" s="11" t="s">
+      <c r="I110" t="s">
         <v>56</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" t="s">
         <v>2763</v>
       </c>
-      <c r="K110" s="11" t="s">
+      <c r="K110" t="s">
         <v>2776</v>
       </c>
-      <c r="L110" s="11" t="s">
-        <v>2816</v>
-      </c>
-      <c r="N110" s="11" t="s">
+      <c r="L110" t="s">
+        <v>2815</v>
+      </c>
+      <c r="M110">
+        <v>999</v>
+      </c>
+      <c r="N110" t="s">
         <v>1444</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" t="s">
         <v>451</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" t="s">
         <v>2777</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="Q110" t="s">
         <v>2789</v>
       </c>
-      <c r="R110" s="11">
-        <v>999</v>
-      </c>
-      <c r="S110" s="11">
-        <v>999</v>
-      </c>
-      <c r="T110" s="11" t="s">
+      <c r="R110">
+        <v>999</v>
+      </c>
+      <c r="S110">
+        <v>999</v>
+      </c>
+      <c r="T110" t="s">
         <v>142</v>
       </c>
       <c r="U110" s="1">
         <v>999</v>
       </c>
-      <c r="V110" s="11" t="s">
+      <c r="V110" t="s">
         <v>1159</v>
       </c>
-      <c r="W110" s="11" t="s">
+      <c r="W110" t="s">
         <v>896</v>
       </c>
-      <c r="X110" s="11" t="s">
+      <c r="X110" t="s">
         <v>428</v>
       </c>
-      <c r="Y110" s="11" t="s">
+      <c r="Y110" t="s">
         <v>457</v>
       </c>
-      <c r="Z110" s="11" t="s">
+      <c r="Z110" t="s">
         <v>1061</v>
       </c>
       <c r="AA110">
         <v>999</v>
       </c>
-      <c r="AB110" s="11" t="s">
+      <c r="AB110" t="s">
         <v>378</v>
       </c>
-      <c r="AC110" s="11" t="s">
+      <c r="AC110" t="s">
         <v>2778</v>
       </c>
       <c r="AD110" t="s">
         <v>2779</v>
       </c>
-      <c r="AE110" s="11" t="s">
+      <c r="AE110" t="s">
         <v>2780</v>
       </c>
-      <c r="AF110" s="11" t="s">
+      <c r="AF110" t="s">
         <v>569</v>
       </c>
-      <c r="AG110" s="11" t="s">
+      <c r="AG110" t="s">
         <v>2781</v>
       </c>
-      <c r="AH110" s="11" t="s">
+      <c r="AH110" t="s">
         <v>2782</v>
       </c>
-      <c r="AI110" s="11" t="s">
+      <c r="AI110" t="s">
         <v>2783</v>
       </c>
-      <c r="AJ110" s="11" t="s">
+      <c r="AJ110" t="s">
         <v>385</v>
       </c>
-      <c r="AK110" s="11" t="s">
+      <c r="AK110" t="s">
         <v>2784</v>
       </c>
-      <c r="AL110" s="11" t="s">
+      <c r="AL110" t="s">
         <v>2785</v>
       </c>
-      <c r="AM110" s="11" t="s">
+      <c r="AM110" t="s">
         <v>2786</v>
       </c>
-      <c r="AN110" s="11" t="s">
+      <c r="AN110" t="s">
         <v>2787</v>
       </c>
-      <c r="AO110" s="11" t="s">
+      <c r="AO110" t="s">
         <v>2790</v>
       </c>
-      <c r="AP110" s="11" t="s">
+      <c r="AP110" t="s">
         <v>2791</v>
       </c>
-      <c r="AQ110" s="11" t="s">
+      <c r="AQ110" t="s">
         <v>653</v>
       </c>
       <c r="AR110" t="s">
         <v>951</v>
       </c>
-      <c r="AS110" s="11" t="s">
+      <c r="AS110" t="s">
         <v>361</v>
       </c>
-      <c r="AT110" s="11" t="s">
+      <c r="AT110" t="s">
         <v>2792</v>
       </c>
-      <c r="AU110" s="11" t="s">
+      <c r="AU110" t="s">
         <v>2793</v>
       </c>
-      <c r="AV110" s="11" t="s">
+      <c r="AV110" t="s">
         <v>2794</v>
       </c>
-      <c r="AW110" s="11" t="s">
+      <c r="AW110" t="s">
         <v>792</v>
       </c>
-      <c r="AX110" s="11" t="s">
+      <c r="AX110" t="s">
         <v>2316</v>
       </c>
       <c r="AY110" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ110" s="11" t="s">
+      <c r="AZ110" t="s">
         <v>1462</v>
       </c>
       <c r="BA110" s="1" t="s">
@@ -27577,155 +28530,158 @@
       <c r="B111" s="2">
         <v>44772</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H111" t="s">
         <v>2796</v>
       </c>
-      <c r="E111" s="11">
-        <v>9</v>
-      </c>
-      <c r="F111" s="11">
-        <v>3</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>2635</v>
-      </c>
-      <c r="H111" s="11" t="s">
+      <c r="I111" t="s">
+        <v>56</v>
+      </c>
+      <c r="J111" t="s">
         <v>2797</v>
       </c>
-      <c r="I111" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J111" s="11" t="s">
+      <c r="K111" t="s">
+        <v>2102</v>
+      </c>
+      <c r="L111" t="s">
+        <v>2804</v>
+      </c>
+      <c r="M111">
+        <v>999</v>
+      </c>
+      <c r="N111" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O111" t="s">
         <v>2798</v>
       </c>
-      <c r="K111" s="11" t="s">
-        <v>2102</v>
-      </c>
-      <c r="L111" s="11" t="s">
+      <c r="P111" t="s">
+        <v>2799</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>2800</v>
+      </c>
+      <c r="R111" t="s">
+        <v>2801</v>
+      </c>
+      <c r="S111">
+        <v>999</v>
+      </c>
+      <c r="T111" t="s">
+        <v>142</v>
+      </c>
+      <c r="U111" s="1">
+        <v>999</v>
+      </c>
+      <c r="V111" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W111" t="s">
+        <v>896</v>
+      </c>
+      <c r="X111" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AA111">
+        <v>999</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG111" t="s">
         <v>2805</v>
       </c>
-      <c r="N111" s="11" t="s">
-        <v>1444</v>
-      </c>
-      <c r="O111" s="11" t="s">
-        <v>2799</v>
-      </c>
-      <c r="P111" s="11" t="s">
-        <v>2800</v>
-      </c>
-      <c r="Q111" s="11" t="s">
-        <v>2801</v>
-      </c>
-      <c r="R111" s="11" t="s">
-        <v>2802</v>
-      </c>
-      <c r="S111" s="11">
-        <v>999</v>
-      </c>
-      <c r="T111" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U111" s="1">
-        <v>999</v>
-      </c>
-      <c r="V111" s="11" t="s">
-        <v>1649</v>
-      </c>
-      <c r="W111" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="X111" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="Y111" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z111" s="11" t="s">
-        <v>2803</v>
-      </c>
-      <c r="AA111">
-        <v>999</v>
-      </c>
-      <c r="AB111" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC111" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="AD111" s="11" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AE111" s="11" t="s">
-        <v>2804</v>
-      </c>
-      <c r="AF111" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="AG111" s="11" t="s">
+      <c r="AH111" t="s">
         <v>2806</v>
       </c>
-      <c r="AH111" t="s">
+      <c r="AI111" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL111" t="s">
         <v>2807</v>
       </c>
-      <c r="AI111" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ111" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK111" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="AL111" s="11" t="s">
+      <c r="AM111" t="s">
         <v>2808</v>
       </c>
-      <c r="AM111" s="11" t="s">
+      <c r="AN111" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>907</v>
+      </c>
+      <c r="AS111" t="s">
         <v>2809</v>
       </c>
-      <c r="AN111" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="AO111" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP111" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ111" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR111" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="AS111" s="11" t="s">
+      <c r="AT111" t="s">
         <v>2810</v>
       </c>
-      <c r="AT111" s="11" t="s">
+      <c r="AU111" t="s">
         <v>2811</v>
       </c>
-      <c r="AU111" s="11" t="s">
+      <c r="AV111" t="s">
         <v>2812</v>
       </c>
-      <c r="AV111" s="11" t="s">
+      <c r="AW111" t="s">
         <v>2813</v>
       </c>
-      <c r="AW111" s="11" t="s">
-        <v>2814</v>
-      </c>
-      <c r="AX111" s="11" t="s">
+      <c r="AX111" t="s">
         <v>498</v>
       </c>
       <c r="AY111" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ111" s="11" t="s">
+      <c r="AZ111" t="s">
         <v>1489</v>
       </c>
       <c r="BA111" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.25">
@@ -27735,962 +28691,2744 @@
       <c r="B112" s="2">
         <v>44772</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E112" s="11">
+      <c r="D112" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E112">
         <v>9</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112">
         <v>4</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G112" t="s">
         <v>2636</v>
       </c>
-      <c r="H112" s="11" t="s">
+      <c r="H112" t="s">
         <v>369</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I112" t="s">
         <v>56</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" t="s">
         <v>2763</v>
       </c>
-      <c r="K112" s="11" t="s">
+      <c r="K112" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L112" t="s">
         <v>2817</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="M112">
+        <v>999</v>
+      </c>
+      <c r="N112" t="s">
+        <v>60</v>
+      </c>
+      <c r="O112" t="s">
         <v>2818</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O112" s="11" t="s">
+      <c r="P112" t="s">
         <v>2819</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="Q112" t="s">
         <v>2820</v>
       </c>
-      <c r="Q112" s="11" t="s">
+      <c r="R112" t="s">
         <v>2821</v>
       </c>
-      <c r="R112" s="11" t="s">
+      <c r="S112">
+        <v>999</v>
+      </c>
+      <c r="T112" t="s">
+        <v>245</v>
+      </c>
+      <c r="U112" s="1">
+        <v>999</v>
+      </c>
+      <c r="V112" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W112" t="s">
+        <v>401</v>
+      </c>
+      <c r="X112" t="s">
+        <v>923</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z112" t="s">
         <v>2822</v>
       </c>
-      <c r="S112" s="11">
-        <v>999</v>
-      </c>
-      <c r="T112" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="U112" s="1">
-        <v>999</v>
-      </c>
-      <c r="V112" s="11" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W112" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="X112" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="Y112" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z112" s="11" t="s">
+      <c r="AA112" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC112" t="s">
         <v>2823</v>
       </c>
-      <c r="AA112" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB112" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC112" s="11" t="s">
+      <c r="AD112" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG112" t="s">
         <v>2824</v>
       </c>
-      <c r="AD112" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="AE112" s="11" t="s">
-        <v>1665</v>
-      </c>
-      <c r="AF112" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG112" s="11" t="s">
+      <c r="AH112" t="s">
         <v>2825</v>
       </c>
-      <c r="AH112" s="11" t="s">
+      <c r="AI112" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK112" t="s">
         <v>2826</v>
       </c>
-      <c r="AI112" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ112" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK112" s="11" t="s">
+      <c r="AL112" t="s">
         <v>2827</v>
       </c>
-      <c r="AL112" s="11" t="s">
+      <c r="AM112" t="s">
         <v>2828</v>
       </c>
-      <c r="AM112" s="11" t="s">
+      <c r="AN112" t="s">
         <v>2829</v>
       </c>
-      <c r="AN112" s="11" t="s">
+      <c r="AO112" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS112" t="s">
         <v>2830</v>
       </c>
-      <c r="AO112" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP112" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ112" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="AR112" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS112" s="11" t="s">
+      <c r="AT112" t="s">
         <v>2831</v>
       </c>
-      <c r="AT112" s="11" t="s">
+      <c r="AU112" t="s">
         <v>2832</v>
       </c>
-      <c r="AU112" s="11" t="s">
+      <c r="AV112" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AW112" t="s">
         <v>2833</v>
       </c>
-      <c r="AV112" s="11" t="s">
-        <v>1939</v>
-      </c>
-      <c r="AW112" s="11" t="s">
+      <c r="AX112" t="s">
         <v>2834</v>
-      </c>
-      <c r="AX112" s="11" t="s">
-        <v>2835</v>
       </c>
       <c r="AY112" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ112" s="11" t="s">
-        <v>2837</v>
+      <c r="AZ112" t="s">
+        <v>2836</v>
       </c>
       <c r="BA112" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
-    <row r="113" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>44772</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E113" s="11">
+      <c r="D113" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E113">
         <v>9</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113">
         <v>5</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G113" t="s">
         <v>2637</v>
       </c>
-      <c r="H113" s="11" t="s">
+      <c r="H113" t="s">
         <v>369</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" t="s">
         <v>56</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" t="s">
         <v>2763</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="K113" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L113" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M113">
+        <v>999</v>
+      </c>
+      <c r="N113" t="s">
+        <v>60</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2818</v>
+      </c>
+      <c r="P113" t="s">
         <v>2838</v>
       </c>
-      <c r="L113" s="11" t="s">
-        <v>2818</v>
-      </c>
-      <c r="N113" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O113" s="11" t="s">
-        <v>2819</v>
-      </c>
-      <c r="P113" s="11" t="s">
+      <c r="Q113" t="s">
+        <v>2820</v>
+      </c>
+      <c r="R113" t="s">
+        <v>2821</v>
+      </c>
+      <c r="S113">
+        <v>999</v>
+      </c>
+      <c r="T113" t="s">
+        <v>245</v>
+      </c>
+      <c r="U113" s="1">
+        <v>999</v>
+      </c>
+      <c r="V113" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W113" t="s">
+        <v>401</v>
+      </c>
+      <c r="X113" t="s">
         <v>2839</v>
       </c>
-      <c r="Q113" s="11" t="s">
-        <v>2821</v>
-      </c>
-      <c r="R113" s="11" t="s">
+      <c r="Y113" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z113" t="s">
         <v>2822</v>
       </c>
-      <c r="S113" s="11">
-        <v>999</v>
-      </c>
-      <c r="T113" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="U113" s="1">
-        <v>999</v>
-      </c>
-      <c r="V113" s="11" t="s">
-        <v>1629</v>
-      </c>
-      <c r="W113" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="X113" s="11" t="s">
+      <c r="AA113" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>2824</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>2828</v>
+      </c>
+      <c r="AN113" t="s">
         <v>2840</v>
       </c>
-      <c r="Y113" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z113" s="11" t="s">
-        <v>2823</v>
-      </c>
-      <c r="AA113" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB113" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC113" s="11" t="s">
-        <v>2824</v>
-      </c>
-      <c r="AD113" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="AE113" s="11" t="s">
-        <v>1665</v>
-      </c>
-      <c r="AF113" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG113" s="11" t="s">
-        <v>2825</v>
-      </c>
-      <c r="AH113" s="11" t="s">
-        <v>2826</v>
-      </c>
-      <c r="AI113" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ113" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK113" s="11" t="s">
-        <v>2827</v>
-      </c>
-      <c r="AL113" s="11" t="s">
-        <v>2828</v>
-      </c>
-      <c r="AM113" s="11" t="s">
-        <v>2829</v>
-      </c>
-      <c r="AN113" s="11" t="s">
+      <c r="AO113" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS113" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AT113" t="s">
         <v>2841</v>
       </c>
-      <c r="AO113" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP113" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ113" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="AR113" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS113" s="11" t="s">
-        <v>2831</v>
-      </c>
-      <c r="AT113" s="11" t="s">
-        <v>2842</v>
-      </c>
-      <c r="AU113" s="11" t="s">
+      <c r="AU113" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AV113" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AW113" t="s">
         <v>2833</v>
       </c>
-      <c r="AV113" s="11" t="s">
-        <v>1939</v>
-      </c>
-      <c r="AW113" s="11" t="s">
+      <c r="AX113" t="s">
         <v>2834</v>
-      </c>
-      <c r="AX113" s="11" t="s">
-        <v>2835</v>
       </c>
       <c r="AY113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AZ113" s="11" t="s">
-        <v>2837</v>
+      <c r="AZ113" t="s">
+        <v>2836</v>
       </c>
       <c r="BA113" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
-    <row r="114" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>44772</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E114" s="11">
+      <c r="D114" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E114">
         <v>9</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114">
         <v>6</v>
       </c>
-      <c r="G114" s="11" t="s">
+      <c r="G114" t="s">
         <v>2638</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" t="s">
         <v>369</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" t="s">
         <v>56</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" t="s">
         <v>2763</v>
       </c>
-      <c r="K114" s="11" t="s">
+      <c r="K114" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L114" t="s">
         <v>2843</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="M114">
+        <v>999</v>
+      </c>
+      <c r="N114" t="s">
+        <v>60</v>
+      </c>
+      <c r="O114">
+        <v>999</v>
+      </c>
+      <c r="P114" t="s">
         <v>2844</v>
       </c>
-      <c r="N114" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O114">
-        <v>999</v>
-      </c>
-      <c r="P114" s="11" t="s">
+      <c r="Q114" t="s">
         <v>2845</v>
       </c>
-      <c r="Q114" s="11" t="s">
+      <c r="R114">
+        <v>999</v>
+      </c>
+      <c r="S114">
+        <v>999</v>
+      </c>
+      <c r="T114" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U114" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="R114">
-        <v>999</v>
-      </c>
-      <c r="S114" s="11">
-        <v>999</v>
-      </c>
-      <c r="T114" s="11" t="s">
-        <v>1205</v>
-      </c>
-      <c r="U114" s="1" t="s">
+      <c r="V114" t="s">
+        <v>723</v>
+      </c>
+      <c r="W114" t="s">
         <v>2847</v>
       </c>
-      <c r="V114" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="W114" s="11" t="s">
+      <c r="X114" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z114" t="s">
         <v>2848</v>
       </c>
-      <c r="X114" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="Y114" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z114" s="11" t="s">
+      <c r="AA114" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC114" t="s">
         <v>2849</v>
       </c>
-      <c r="AA114" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB114" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC114" s="11" t="s">
+      <c r="AD114" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE114" t="s">
         <v>2850</v>
       </c>
-      <c r="AD114" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="AE114" s="11" t="s">
+      <c r="AF114" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG114" t="s">
         <v>2851</v>
       </c>
-      <c r="AF114" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG114" s="11" t="s">
+      <c r="AH114" t="s">
         <v>2852</v>
       </c>
-      <c r="AH114" s="11" t="s">
+      <c r="AI114" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL114" t="s">
         <v>2853</v>
       </c>
-      <c r="AI114" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ114" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK114" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL114" s="11" t="s">
+      <c r="AM114" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>932</v>
+      </c>
+      <c r="AO114" t="s">
         <v>2854</v>
       </c>
-      <c r="AM114" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="AN114" s="11" t="s">
-        <v>932</v>
-      </c>
-      <c r="AO114" s="11" t="s">
+      <c r="AP114" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ114" t="s">
         <v>2855</v>
       </c>
-      <c r="AP114" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="AQ114" s="11" t="s">
+      <c r="AR114" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS114" t="s">
         <v>2856</v>
       </c>
-      <c r="AR114" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS114" s="11" t="s">
+      <c r="AT114" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>790</v>
+      </c>
+      <c r="AV114" t="s">
         <v>2857</v>
       </c>
-      <c r="AT114" s="11" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AU114" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="AV114" s="11" t="s">
+      <c r="AW114" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX114" t="s">
         <v>2858</v>
       </c>
-      <c r="AW114" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX114" s="11" t="s">
+      <c r="AY114" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="AY114" s="1" t="s">
-        <v>2860</v>
-      </c>
-      <c r="AZ114" s="11" t="s">
+      <c r="AZ114" t="s">
         <v>134</v>
       </c>
       <c r="BA114" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="115" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>44772</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E115" s="11">
+      <c r="D115" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E115">
         <v>9</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115">
         <v>7</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G115" t="s">
         <v>2639</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" t="s">
         <v>97</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" t="s">
         <v>56</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" t="s">
         <v>2763</v>
       </c>
-      <c r="K115" s="11" t="s">
+      <c r="K115" t="s">
+        <v>2861</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M115">
+        <v>999</v>
+      </c>
+      <c r="N115" t="s">
+        <v>60</v>
+      </c>
+      <c r="O115" t="s">
+        <v>61</v>
+      </c>
+      <c r="P115" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>317</v>
+      </c>
+      <c r="R115" t="s">
+        <v>316</v>
+      </c>
+      <c r="S115">
+        <v>999</v>
+      </c>
+      <c r="T115" t="s">
+        <v>245</v>
+      </c>
+      <c r="U115" s="1">
+        <v>999</v>
+      </c>
+      <c r="V115" t="s">
+        <v>1495</v>
+      </c>
+      <c r="W115" t="s">
+        <v>482</v>
+      </c>
+      <c r="X115" t="s">
         <v>2862</v>
       </c>
-      <c r="L115" s="11" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N115" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O115" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P115" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q115" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="R115" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="S115" s="11">
-        <v>999</v>
-      </c>
-      <c r="T115" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="U115" s="1">
-        <v>999</v>
-      </c>
-      <c r="V115" s="11" t="s">
-        <v>1495</v>
-      </c>
-      <c r="W115" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="X115" s="11" t="s">
+      <c r="Y115" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z115" t="s">
         <v>2863</v>
       </c>
-      <c r="Y115" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z115" s="11" t="s">
+      <c r="AA115" t="s">
         <v>2864</v>
       </c>
-      <c r="AA115" s="11" t="s">
+      <c r="AB115" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD115" t="s">
         <v>2865</v>
       </c>
-      <c r="AB115" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC115" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD115" s="11" t="s">
+      <c r="AE115" t="s">
         <v>2866</v>
       </c>
-      <c r="AE115" s="11" t="s">
+      <c r="AF115" t="s">
         <v>2867</v>
       </c>
-      <c r="AF115" s="11" t="s">
+      <c r="AG115" t="s">
         <v>2868</v>
       </c>
-      <c r="AG115" s="11" t="s">
+      <c r="AH115" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AI115" t="s">
         <v>2869</v>
       </c>
-      <c r="AH115" s="11" t="s">
-        <v>1653</v>
-      </c>
-      <c r="AI115" s="11" t="s">
+      <c r="AJ115" t="s">
         <v>2870</v>
       </c>
-      <c r="AJ115" s="11" t="s">
+      <c r="AK115" t="s">
         <v>2871</v>
       </c>
-      <c r="AK115" s="11" t="s">
+      <c r="AL115" t="s">
         <v>2872</v>
       </c>
-      <c r="AL115" s="11" t="s">
+      <c r="AM115" t="s">
+        <v>2808</v>
+      </c>
+      <c r="AN115" t="s">
         <v>2873</v>
       </c>
-      <c r="AM115" s="11" t="s">
-        <v>2809</v>
-      </c>
-      <c r="AN115" s="11" t="s">
+      <c r="AO115" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ115" t="s">
+        <v>468</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS115" t="s">
         <v>2874</v>
       </c>
-      <c r="AO115" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="AP115" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ115" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="AR115" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS115" s="11" t="s">
+      <c r="AT115" t="s">
         <v>2875</v>
       </c>
-      <c r="AT115" s="11" t="s">
+      <c r="AU115" t="s">
         <v>2876</v>
       </c>
-      <c r="AU115" s="11" t="s">
+      <c r="AV115" t="s">
         <v>2877</v>
       </c>
-      <c r="AV115" s="11" t="s">
+      <c r="AW115" t="s">
         <v>2878</v>
       </c>
-      <c r="AW115" s="11" t="s">
+      <c r="AX115" t="s">
         <v>2879</v>
-      </c>
-      <c r="AX115" s="11" t="s">
-        <v>2880</v>
       </c>
       <c r="AY115" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ115" s="11" t="s">
-        <v>2861</v>
+      <c r="AZ115" t="s">
+        <v>2860</v>
       </c>
       <c r="BA115" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
-    <row r="116" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>44772</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" t="s">
         <v>54</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E116" s="11">
+      <c r="D116" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E116">
         <v>9</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116">
         <v>8</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G116" t="s">
         <v>2640</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" t="s">
         <v>369</v>
       </c>
-      <c r="I116" s="11" t="s">
+      <c r="I116" t="s">
         <v>56</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" t="s">
         <v>2763</v>
       </c>
-      <c r="K116" s="11" t="s">
+      <c r="K116" t="s">
+        <v>2881</v>
+      </c>
+      <c r="L116" t="s">
+        <v>2896</v>
+      </c>
+      <c r="M116">
+        <v>999</v>
+      </c>
+      <c r="N116" t="s">
+        <v>60</v>
+      </c>
+      <c r="O116" t="s">
+        <v>139</v>
+      </c>
+      <c r="P116" t="s">
         <v>2882</v>
       </c>
-      <c r="L116" s="11" t="s">
+      <c r="Q116" t="s">
         <v>2883</v>
       </c>
-      <c r="N116" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O116" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P116" s="11" t="s">
+      <c r="R116">
+        <v>999</v>
+      </c>
+      <c r="S116" t="s">
         <v>2884</v>
       </c>
-      <c r="Q116" s="11" t="s">
+      <c r="T116" t="s">
+        <v>64</v>
+      </c>
+      <c r="U116" s="1">
+        <v>999</v>
+      </c>
+      <c r="V116" t="s">
+        <v>1495</v>
+      </c>
+      <c r="W116" t="s">
+        <v>896</v>
+      </c>
+      <c r="X116" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD116" t="s">
         <v>2885</v>
       </c>
-      <c r="R116">
-        <v>999</v>
-      </c>
-      <c r="S116" t="s">
+      <c r="AE116" t="s">
         <v>2886</v>
       </c>
-      <c r="T116" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="U116" s="1">
-        <v>999</v>
-      </c>
-      <c r="V116" s="11" t="s">
-        <v>1495</v>
-      </c>
-      <c r="W116" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="X116" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="Y116" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z116" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA116" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB116" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC116" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="AD116" s="11" t="s">
+      <c r="AF116" t="s">
         <v>2887</v>
       </c>
-      <c r="AE116" s="11" t="s">
+      <c r="AG116" t="s">
         <v>2888</v>
       </c>
-      <c r="AF116" s="11" t="s">
+      <c r="AH116" t="s">
+        <v>2806</v>
+      </c>
+      <c r="AI116" t="s">
         <v>2889</v>
       </c>
-      <c r="AG116" s="11" t="s">
+      <c r="AJ116" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL116" t="s">
         <v>2890</v>
       </c>
-      <c r="AH116" s="11" t="s">
-        <v>2807</v>
-      </c>
-      <c r="AI116" s="11" t="s">
+      <c r="AM116" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>995</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>907</v>
+      </c>
+      <c r="AS116" t="s">
         <v>2891</v>
       </c>
-      <c r="AJ116" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK116" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="AL116" s="11" t="s">
+      <c r="AT116" t="s">
         <v>2892</v>
       </c>
-      <c r="AM116" s="11" t="s">
-        <v>1479</v>
-      </c>
-      <c r="AN116" s="11" t="s">
-        <v>995</v>
-      </c>
-      <c r="AO116" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP116" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ116" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="AR116" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="AS116" s="11" t="s">
+      <c r="AU116" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AV116" t="s">
         <v>2893</v>
       </c>
-      <c r="AT116" s="11" t="s">
+      <c r="AW116" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AX116" t="s">
         <v>2894</v>
-      </c>
-      <c r="AU116" s="11" t="s">
-        <v>2235</v>
-      </c>
-      <c r="AV116" s="11" t="s">
-        <v>2895</v>
-      </c>
-      <c r="AW116" s="11" t="s">
-        <v>2814</v>
-      </c>
-      <c r="AX116" s="11" t="s">
-        <v>2896</v>
       </c>
       <c r="AY116" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AZ116" s="11" t="s">
+      <c r="AZ116" t="s">
         <v>1896</v>
       </c>
       <c r="BA116" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="117" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>44772</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" t="s">
         <v>54</v>
       </c>
-      <c r="G117" s="11" t="s">
+      <c r="D117" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
         <v>2641</v>
       </c>
+      <c r="H117" t="s">
+        <v>369</v>
+      </c>
+      <c r="I117" t="s">
+        <v>56</v>
+      </c>
+      <c r="J117" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K117" t="s">
+        <v>2895</v>
+      </c>
+      <c r="L117" t="s">
+        <v>2898</v>
+      </c>
+      <c r="M117">
+        <v>999</v>
+      </c>
+      <c r="N117" t="s">
+        <v>60</v>
+      </c>
+      <c r="O117" t="s">
+        <v>2899</v>
+      </c>
+      <c r="P117" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>560</v>
+      </c>
+      <c r="R117">
+        <v>999</v>
+      </c>
+      <c r="S117">
+        <v>999</v>
+      </c>
+      <c r="T117" t="s">
+        <v>245</v>
+      </c>
+      <c r="U117" s="1">
+        <v>999</v>
+      </c>
+      <c r="V117" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W117" t="s">
+        <v>2901</v>
+      </c>
+      <c r="X117" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>2805</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>2806</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>2807</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS117" t="s">
+        <v>2809</v>
+      </c>
+      <c r="AT117" t="s">
+        <v>2903</v>
+      </c>
+      <c r="AU117" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AV117" t="s">
+        <v>2904</v>
+      </c>
+      <c r="AW117" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AX117" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ117" t="s">
+        <v>2897</v>
+      </c>
+      <c r="BA117" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="118" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>44772</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" t="s">
         <v>54</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="D118" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E118">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
         <v>2642</v>
       </c>
+      <c r="H118" t="s">
+        <v>369</v>
+      </c>
+      <c r="I118" t="s">
+        <v>56</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L118" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M118">
+        <v>999</v>
+      </c>
+      <c r="N118" t="s">
+        <v>60</v>
+      </c>
+      <c r="O118" t="s">
+        <v>61</v>
+      </c>
+      <c r="P118" t="s">
+        <v>2907</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>2908</v>
+      </c>
+      <c r="R118">
+        <v>999</v>
+      </c>
+      <c r="S118">
+        <v>999</v>
+      </c>
+      <c r="T118" t="s">
+        <v>64</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="V118" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W118" t="s">
+        <v>182</v>
+      </c>
+      <c r="X118" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>2909</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>2910</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>2911</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>2912</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS118" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>2914</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV118" t="s">
+        <v>2915</v>
+      </c>
+      <c r="AW118">
+        <v>999</v>
+      </c>
+      <c r="AX118" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY118" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ118" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA118" s="1" t="s">
+        <v>2916</v>
+      </c>
     </row>
-    <row r="119" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>44772</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" t="s">
         <v>54</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="D119" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
         <v>2643</v>
       </c>
+      <c r="H119" t="s">
+        <v>213</v>
+      </c>
+      <c r="I119" t="s">
+        <v>56</v>
+      </c>
+      <c r="J119" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K119" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L119" t="s">
+        <v>2919</v>
+      </c>
+      <c r="M119">
+        <v>999</v>
+      </c>
+      <c r="N119" t="s">
+        <v>60</v>
+      </c>
+      <c r="O119" t="s">
+        <v>61</v>
+      </c>
+      <c r="P119" t="s">
+        <v>2920</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>918</v>
+      </c>
+      <c r="R119">
+        <v>999</v>
+      </c>
+      <c r="S119" t="s">
+        <v>103</v>
+      </c>
+      <c r="T119" t="s">
+        <v>245</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="V119" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W119" t="s">
+        <v>66</v>
+      </c>
+      <c r="X119" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>1973</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>2922</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>2923</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>2924</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>948</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AV119" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AW119" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX119" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AY119" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ119" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA119" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="120" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>44772</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" t="s">
         <v>54</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="D120" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
         <v>2644</v>
       </c>
+      <c r="H120" t="s">
+        <v>369</v>
+      </c>
+      <c r="I120" t="s">
+        <v>56</v>
+      </c>
+      <c r="J120" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L120" t="s">
+        <v>2930</v>
+      </c>
+      <c r="M120" t="s">
+        <v>2931</v>
+      </c>
+      <c r="N120" t="s">
+        <v>60</v>
+      </c>
+      <c r="O120" t="s">
+        <v>2932</v>
+      </c>
+      <c r="P120" t="s">
+        <v>2933</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>2934</v>
+      </c>
+      <c r="R120">
+        <v>999</v>
+      </c>
+      <c r="S120" t="s">
+        <v>2935</v>
+      </c>
+      <c r="T120" t="s">
+        <v>245</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="V120" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W120" t="s">
+        <v>896</v>
+      </c>
+      <c r="X120" t="s">
+        <v>2937</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>2938</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>2939</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>898</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>2940</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>2941</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>2942</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>2943</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>2944</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>491</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>2945</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>2946</v>
+      </c>
+      <c r="AV120" t="s">
+        <v>2947</v>
+      </c>
+      <c r="AW120" t="s">
+        <v>527</v>
+      </c>
+      <c r="AX120" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY120" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ120" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BA120" s="1" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="121" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>44772</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" t="s">
         <v>54</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="D121" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
         <v>2645</v>
       </c>
+      <c r="H121" t="s">
+        <v>213</v>
+      </c>
+      <c r="I121" t="s">
+        <v>56</v>
+      </c>
+      <c r="J121" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K121" t="s">
+        <v>2951</v>
+      </c>
+      <c r="L121" t="s">
+        <v>982</v>
+      </c>
+      <c r="M121">
+        <v>999</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O121" t="s">
+        <v>61</v>
+      </c>
+      <c r="P121" t="s">
+        <v>2952</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>2953</v>
+      </c>
+      <c r="R121">
+        <v>999</v>
+      </c>
+      <c r="S121">
+        <v>999</v>
+      </c>
+      <c r="T121" t="s">
+        <v>179</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="V121" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W121" t="s">
+        <v>2955</v>
+      </c>
+      <c r="X121" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>2956</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>2957</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>2958</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>2959</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS121" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AV121" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AW121" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX121" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY121" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ121" t="s">
+        <v>2950</v>
+      </c>
+      <c r="BA121" s="1" t="s">
+        <v>766</v>
+      </c>
     </row>
-    <row r="122" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>44772</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="D122" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E122">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
         <v>2646</v>
       </c>
+      <c r="H122" t="s">
+        <v>97</v>
+      </c>
+      <c r="I122" t="s">
+        <v>56</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2964</v>
+      </c>
+      <c r="L122" t="s">
+        <v>2965</v>
+      </c>
+      <c r="M122">
+        <v>999</v>
+      </c>
+      <c r="N122" t="s">
+        <v>984</v>
+      </c>
+      <c r="O122" t="s">
+        <v>61</v>
+      </c>
+      <c r="P122" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>2967</v>
+      </c>
+      <c r="R122" t="s">
+        <v>2968</v>
+      </c>
+      <c r="S122">
+        <v>999</v>
+      </c>
+      <c r="T122" t="s">
+        <v>2969</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="V122" t="s">
+        <v>2971</v>
+      </c>
+      <c r="W122" t="s">
+        <v>2972</v>
+      </c>
+      <c r="X122" t="s">
+        <v>2973</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>2974</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>2975</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>2976</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>2977</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>2978</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>2979</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>2980</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>2982</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>2983</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>2984</v>
+      </c>
+      <c r="AO122" t="s">
+        <v>2985</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>2986</v>
+      </c>
+      <c r="AQ122" t="s">
+        <v>2987</v>
+      </c>
+      <c r="AR122" t="s">
+        <v>2988</v>
+      </c>
+      <c r="AS122" t="s">
+        <v>2989</v>
+      </c>
+      <c r="AT122" t="s">
+        <v>2990</v>
+      </c>
+      <c r="AU122" t="s">
+        <v>2991</v>
+      </c>
+      <c r="AV122" t="s">
+        <v>2992</v>
+      </c>
+      <c r="AW122" t="s">
+        <v>2993</v>
+      </c>
+      <c r="AX122" t="s">
+        <v>2994</v>
+      </c>
+      <c r="AY122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ122" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA122" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="123" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>44772</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" t="s">
         <v>54</v>
       </c>
-      <c r="G123" s="11" t="s">
+      <c r="D123" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
         <v>2647</v>
       </c>
+      <c r="H123" t="s">
+        <v>97</v>
+      </c>
+      <c r="I123" t="s">
+        <v>98</v>
+      </c>
+      <c r="J123" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K123" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L123" t="s">
+        <v>2997</v>
+      </c>
+      <c r="M123">
+        <v>999</v>
+      </c>
+      <c r="N123" t="s">
+        <v>2998</v>
+      </c>
+      <c r="O123" t="s">
+        <v>61</v>
+      </c>
+      <c r="P123" t="s">
+        <v>2999</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>3000</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1224</v>
+      </c>
+      <c r="S123">
+        <v>999</v>
+      </c>
+      <c r="T123">
+        <v>999</v>
+      </c>
+      <c r="U123" s="1">
+        <v>999</v>
+      </c>
+      <c r="V123" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W123" t="s">
+        <v>3001</v>
+      </c>
+      <c r="X123">
+        <v>999</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>3002</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>3003</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>3004</v>
+      </c>
+      <c r="AH123">
+        <v>999</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>3005</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>3006</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>3007</v>
+      </c>
+      <c r="AO123" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP123">
+        <v>999</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>3008</v>
+      </c>
+      <c r="AR123" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS123" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AT123" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU123" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV123">
+        <v>999</v>
+      </c>
+      <c r="AW123" t="s">
+        <v>3009</v>
+      </c>
+      <c r="AX123" t="s">
+        <v>3010</v>
+      </c>
+      <c r="AY123" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ123" t="s">
+        <v>2995</v>
+      </c>
+      <c r="BA123" s="1" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="124" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>44772</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" t="s">
         <v>54</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="D124" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
         <v>2648</v>
       </c>
+      <c r="H124" t="s">
+        <v>213</v>
+      </c>
+      <c r="I124" t="s">
+        <v>98</v>
+      </c>
+      <c r="J124" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K124" t="s">
+        <v>3011</v>
+      </c>
+      <c r="L124" t="s">
+        <v>3012</v>
+      </c>
+      <c r="M124">
+        <v>999</v>
+      </c>
+      <c r="N124" t="s">
+        <v>3013</v>
+      </c>
+      <c r="O124">
+        <v>999</v>
+      </c>
+      <c r="P124">
+        <v>999</v>
+      </c>
+      <c r="Q124">
+        <v>999</v>
+      </c>
+      <c r="R124">
+        <v>999</v>
+      </c>
+      <c r="S124">
+        <v>999</v>
+      </c>
+      <c r="T124">
+        <v>999</v>
+      </c>
+      <c r="U124" s="1">
+        <v>999</v>
+      </c>
+      <c r="V124" t="s">
+        <v>3014</v>
+      </c>
+      <c r="W124" t="s">
+        <v>3015</v>
+      </c>
+      <c r="X124" t="s">
+        <v>923</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>3016</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>3019</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>3020</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>3021</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>3022</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>3023</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>3024</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>3025</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>3026</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ124" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR124" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS124" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU124" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AV124" t="s">
+        <v>3028</v>
+      </c>
+      <c r="AW124" t="s">
+        <v>3029</v>
+      </c>
+      <c r="AX124" t="s">
+        <v>3030</v>
+      </c>
+      <c r="AY124" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AZ124" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA124" s="1" t="s">
+        <v>3031</v>
+      </c>
     </row>
-    <row r="125" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>44772</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" t="s">
         <v>54</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="D125" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
         <v>2649</v>
       </c>
+      <c r="H125">
+        <v>999</v>
+      </c>
+      <c r="I125" t="s">
+        <v>98</v>
+      </c>
+      <c r="J125" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K125" t="s">
+        <v>3034</v>
+      </c>
+      <c r="L125" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M125">
+        <v>999</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>3038</v>
+      </c>
+      <c r="O125">
+        <v>999</v>
+      </c>
+      <c r="P125" t="s">
+        <v>3036</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>3037</v>
+      </c>
+      <c r="R125">
+        <v>999</v>
+      </c>
+      <c r="S125">
+        <v>999</v>
+      </c>
+      <c r="T125">
+        <v>999</v>
+      </c>
+      <c r="U125" s="1">
+        <v>999</v>
+      </c>
+      <c r="V125" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W125" t="s">
+        <v>427</v>
+      </c>
+      <c r="X125" t="s">
+        <v>3039</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>3040</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>3041</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>3042</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>3043</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>3044</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>2852</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>3045</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>3046</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>3047</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>3048</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>949</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>2791</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>3049</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS125" t="s">
+        <v>3050</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>3051</v>
+      </c>
+      <c r="AU125" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV125" t="s">
+        <v>3052</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX125" t="s">
+        <v>3053</v>
+      </c>
+      <c r="AY125" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AZ125" t="s">
+        <v>3033</v>
+      </c>
+      <c r="BA125" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="BB125" t="s">
+        <v>3076</v>
+      </c>
     </row>
-    <row r="126" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>44772</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" t="s">
         <v>54</v>
       </c>
-      <c r="G126" s="11" t="s">
+      <c r="D126" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s">
         <v>2650</v>
       </c>
+      <c r="H126" t="s">
+        <v>97</v>
+      </c>
+      <c r="I126" t="s">
+        <v>98</v>
+      </c>
+      <c r="J126" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K126" t="s">
+        <v>3077</v>
+      </c>
+      <c r="L126" t="s">
+        <v>3057</v>
+      </c>
+      <c r="M126">
+        <v>999</v>
+      </c>
+      <c r="N126" t="s">
+        <v>560</v>
+      </c>
+      <c r="O126" t="s">
+        <v>61</v>
+      </c>
+      <c r="P126" t="s">
+        <v>3058</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>3059</v>
+      </c>
+      <c r="R126">
+        <v>999</v>
+      </c>
+      <c r="S126" t="s">
+        <v>3060</v>
+      </c>
+      <c r="T126" t="s">
+        <v>245</v>
+      </c>
+      <c r="U126" s="1">
+        <v>999</v>
+      </c>
+      <c r="V126" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W126" t="s">
+        <v>3061</v>
+      </c>
+      <c r="X126" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>3062</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>3063</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>3064</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>3065</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>3067</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>3068</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>2808</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>491</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>3069</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AS126" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU126" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV126" t="s">
+        <v>3072</v>
+      </c>
+      <c r="AW126" t="s">
+        <v>3073</v>
+      </c>
+      <c r="AX126" t="s">
+        <v>3074</v>
+      </c>
+      <c r="AY126" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ126" t="s">
+        <v>3056</v>
+      </c>
+      <c r="BA126" s="1" t="s">
+        <v>3075</v>
+      </c>
     </row>
-    <row r="127" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>44772</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" t="s">
         <v>54</v>
       </c>
-      <c r="G127" s="11" t="s">
+      <c r="D127" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
         <v>2651</v>
       </c>
+      <c r="H127" t="s">
+        <v>369</v>
+      </c>
+      <c r="I127" t="s">
+        <v>98</v>
+      </c>
+      <c r="J127" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K127" t="s">
+        <v>3078</v>
+      </c>
+      <c r="L127" t="s">
+        <v>3079</v>
+      </c>
+      <c r="M127">
+        <v>999</v>
+      </c>
+      <c r="N127" t="s">
+        <v>560</v>
+      </c>
+      <c r="O127" t="s">
+        <v>61</v>
+      </c>
+      <c r="P127" t="s">
+        <v>3080</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>3081</v>
+      </c>
+      <c r="R127">
+        <v>999</v>
+      </c>
+      <c r="S127" t="s">
+        <v>3082</v>
+      </c>
+      <c r="T127" t="s">
+        <v>64</v>
+      </c>
+      <c r="U127" s="1">
+        <v>999</v>
+      </c>
+      <c r="V127" t="s">
+        <v>1495</v>
+      </c>
+      <c r="W127" t="s">
+        <v>896</v>
+      </c>
+      <c r="X127" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>3083</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>3085</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN127" t="s">
+        <v>3086</v>
+      </c>
+      <c r="AO127" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>467</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS127" t="s">
+        <v>3087</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>3088</v>
+      </c>
+      <c r="AU127" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV127" t="s">
+        <v>3089</v>
+      </c>
+      <c r="AW127" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX127" t="s">
+        <v>3090</v>
+      </c>
+      <c r="AY127" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AZ127" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA127" s="1" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="128" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" t="s">
         <v>54</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="D128" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
         <v>2652</v>
+      </c>
+      <c r="H128" t="s">
+        <v>213</v>
+      </c>
+      <c r="I128" t="s">
+        <v>98</v>
+      </c>
+      <c r="J128" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K128" t="s">
+        <v>3091</v>
+      </c>
+      <c r="L128" t="s">
+        <v>3092</v>
+      </c>
+      <c r="M128">
+        <v>999</v>
+      </c>
+      <c r="N128" t="s">
+        <v>560</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P128" t="s">
+        <v>3093</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>60</v>
+      </c>
+      <c r="R128">
+        <v>999</v>
+      </c>
+      <c r="S128">
+        <v>999</v>
+      </c>
+      <c r="T128">
+        <v>999</v>
+      </c>
+      <c r="U128" s="1">
+        <v>999</v>
+      </c>
+      <c r="V128" t="s">
+        <v>723</v>
+      </c>
+      <c r="W128" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X128" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>3094</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>3095</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>3096</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>3097</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>3098</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>3099</v>
+      </c>
+      <c r="AS128" t="s">
+        <v>3100</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU128" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV128" t="s">
+        <v>3101</v>
+      </c>
+      <c r="AW128" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX128" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AY128" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ128" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA128" s="1" t="s">
+        <v>3102</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" t="s">
         <v>54</v>
       </c>
-      <c r="G129" s="11" t="s">
+      <c r="G129" t="s">
         <v>2653</v>
       </c>
     </row>
@@ -28698,10 +31436,10 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" t="s">
         <v>54</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" t="s">
         <v>2654</v>
       </c>
     </row>
@@ -28709,10 +31447,10 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -28720,10 +31458,10 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" t="s">
         <v>2656</v>
       </c>
     </row>
@@ -28731,10 +31469,10 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" t="s">
         <v>54</v>
       </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" t="s">
         <v>2657</v>
       </c>
     </row>
@@ -28742,10 +31480,10 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" t="s">
         <v>54</v>
       </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" t="s">
         <v>2658</v>
       </c>
     </row>
@@ -28753,10 +31491,10 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" t="s">
         <v>54</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" t="s">
         <v>2659</v>
       </c>
     </row>
@@ -28764,10 +31502,10 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="G136" t="s">
         <v>2660</v>
       </c>
     </row>
@@ -28775,10 +31513,10 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" t="s">
         <v>54</v>
       </c>
-      <c r="G137" s="11" t="s">
+      <c r="G137" t="s">
         <v>2661</v>
       </c>
     </row>
@@ -28786,10 +31524,10 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" t="s">
         <v>54</v>
       </c>
-      <c r="G138" s="11" t="s">
+      <c r="G138" t="s">
         <v>2662</v>
       </c>
     </row>
@@ -28797,10 +31535,10 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" t="s">
         <v>54</v>
       </c>
-      <c r="G139" s="11" t="s">
+      <c r="G139" t="s">
         <v>2663</v>
       </c>
     </row>
@@ -28808,10 +31546,10 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" t="s">
         <v>54</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G140" t="s">
         <v>2664</v>
       </c>
     </row>
@@ -28819,10 +31557,10 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" t="s">
         <v>54</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G141" t="s">
         <v>2665</v>
       </c>
     </row>
@@ -28830,10 +31568,10 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" t="s">
         <v>54</v>
       </c>
-      <c r="G142" s="11" t="s">
+      <c r="G142" t="s">
         <v>2666</v>
       </c>
     </row>
@@ -28841,10 +31579,10 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" t="s">
         <v>54</v>
       </c>
-      <c r="G143" s="11" t="s">
+      <c r="G143" t="s">
         <v>2667</v>
       </c>
     </row>
@@ -28852,10 +31590,10 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" t="s">
         <v>54</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="G144" t="s">
         <v>2668</v>
       </c>
     </row>
@@ -28863,10 +31601,10 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" t="s">
         <v>54</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="G145" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -28874,10 +31612,10 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" t="s">
         <v>54</v>
       </c>
-      <c r="G146" s="11" t="s">
+      <c r="G146" t="s">
         <v>2670</v>
       </c>
     </row>
@@ -28885,10 +31623,10 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" t="s">
         <v>54</v>
       </c>
-      <c r="G147" s="11" t="s">
+      <c r="G147" t="s">
         <v>2671</v>
       </c>
     </row>
@@ -28896,10 +31634,10 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="G148" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -28907,10 +31645,10 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" t="s">
         <v>54</v>
       </c>
-      <c r="G149" s="11" t="s">
+      <c r="G149" t="s">
         <v>2673</v>
       </c>
     </row>
@@ -28918,10 +31656,10 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" t="s">
         <v>54</v>
       </c>
-      <c r="G150" s="11" t="s">
+      <c r="G150" t="s">
         <v>2674</v>
       </c>
     </row>
@@ -28929,10 +31667,10 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" t="s">
         <v>54</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" t="s">
         <v>2675</v>
       </c>
     </row>
@@ -28940,10 +31678,10 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" t="s">
         <v>54</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" t="s">
         <v>2676</v>
       </c>
     </row>
@@ -28951,10 +31689,10 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" t="s">
         <v>54</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" t="s">
         <v>2677</v>
       </c>
     </row>
@@ -28962,10 +31700,10 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" t="s">
         <v>54</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="G154" t="s">
         <v>2678</v>
       </c>
     </row>
@@ -28973,10 +31711,10 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" t="s">
         <v>54</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="G155" t="s">
         <v>2679</v>
       </c>
     </row>
@@ -28984,10 +31722,10 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" t="s">
         <v>54</v>
       </c>
-      <c r="G156" s="11" t="s">
+      <c r="G156" t="s">
         <v>2680</v>
       </c>
     </row>
@@ -28995,10 +31733,10 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" t="s">
         <v>54</v>
       </c>
-      <c r="G157" s="11" t="s">
+      <c r="G157" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -29006,10 +31744,10 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" t="s">
         <v>54</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="G158" t="s">
         <v>2682</v>
       </c>
     </row>
@@ -29017,10 +31755,10 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" t="s">
         <v>54</v>
       </c>
-      <c r="G159" s="11" t="s">
+      <c r="G159" t="s">
         <v>2683</v>
       </c>
     </row>
@@ -29028,10 +31766,10 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" t="s">
         <v>54</v>
       </c>
-      <c r="G160" s="11" t="s">
+      <c r="G160" t="s">
         <v>2684</v>
       </c>
     </row>
@@ -29039,10 +31777,10 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" t="s">
         <v>54</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="G161" t="s">
         <v>2685</v>
       </c>
     </row>
@@ -29050,10 +31788,10 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" t="s">
         <v>54</v>
       </c>
-      <c r="G162" s="11" t="s">
+      <c r="G162" t="s">
         <v>2686</v>
       </c>
     </row>
@@ -29061,10 +31799,10 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" t="s">
         <v>54</v>
       </c>
-      <c r="G163" s="11" t="s">
+      <c r="G163" t="s">
         <v>2687</v>
       </c>
     </row>
@@ -29072,10 +31810,10 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" t="s">
         <v>54</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="G164" t="s">
         <v>2688</v>
       </c>
     </row>
@@ -29083,10 +31821,10 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" t="s">
         <v>54</v>
       </c>
-      <c r="G165" s="11" t="s">
+      <c r="G165" t="s">
         <v>2689</v>
       </c>
     </row>
@@ -29094,10 +31832,10 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" t="s">
         <v>54</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="G166" t="s">
         <v>2690</v>
       </c>
     </row>
@@ -29105,10 +31843,10 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" t="s">
         <v>54</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="G167" t="s">
         <v>2691</v>
       </c>
     </row>
@@ -29116,10 +31854,10 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" t="s">
         <v>54</v>
       </c>
-      <c r="G168" s="11" t="s">
+      <c r="G168" t="s">
         <v>2692</v>
       </c>
     </row>
@@ -29127,10 +31865,10 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" t="s">
         <v>54</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="G169" t="s">
         <v>2693</v>
       </c>
     </row>
@@ -29138,10 +31876,10 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" t="s">
         <v>54</v>
       </c>
-      <c r="G170" s="11" t="s">
+      <c r="G170" t="s">
         <v>2694</v>
       </c>
     </row>
@@ -29149,10 +31887,10 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" t="s">
         <v>54</v>
       </c>
-      <c r="G171" s="11" t="s">
+      <c r="G171" t="s">
         <v>2695</v>
       </c>
     </row>
@@ -29160,10 +31898,10 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" t="s">
         <v>54</v>
       </c>
-      <c r="G172" s="11" t="s">
+      <c r="G172" t="s">
         <v>2696</v>
       </c>
     </row>
@@ -29171,10 +31909,10 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" t="s">
         <v>54</v>
       </c>
-      <c r="G173" s="11" t="s">
+      <c r="G173" t="s">
         <v>2697</v>
       </c>
     </row>
@@ -29182,10 +31920,10 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" t="s">
         <v>54</v>
       </c>
-      <c r="G174" s="11" t="s">
+      <c r="G174" t="s">
         <v>2698</v>
       </c>
     </row>
@@ -29193,10 +31931,10 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" t="s">
         <v>54</v>
       </c>
-      <c r="G175" s="11" t="s">
+      <c r="G175" t="s">
         <v>2699</v>
       </c>
     </row>
@@ -29204,10 +31942,10 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" t="s">
         <v>54</v>
       </c>
-      <c r="G176" s="11" t="s">
+      <c r="G176" t="s">
         <v>2700</v>
       </c>
     </row>
@@ -29215,10 +31953,10 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" t="s">
         <v>54</v>
       </c>
-      <c r="G177" s="11" t="s">
+      <c r="G177" t="s">
         <v>2701</v>
       </c>
     </row>
@@ -29226,10 +31964,10 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" t="s">
         <v>54</v>
       </c>
-      <c r="G178" s="11" t="s">
+      <c r="G178" t="s">
         <v>2702</v>
       </c>
     </row>
@@ -29237,10 +31975,10 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" t="s">
         <v>54</v>
       </c>
-      <c r="G179" s="11" t="s">
+      <c r="G179" t="s">
         <v>2703</v>
       </c>
     </row>
@@ -29248,10 +31986,10 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" t="s">
         <v>54</v>
       </c>
-      <c r="G180" s="11" t="s">
+      <c r="G180" t="s">
         <v>2704</v>
       </c>
     </row>
@@ -29259,10 +31997,10 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" t="s">
         <v>54</v>
       </c>
-      <c r="G181" s="11" t="s">
+      <c r="G181" t="s">
         <v>2705</v>
       </c>
     </row>
@@ -29270,10 +32008,10 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" t="s">
         <v>54</v>
       </c>
-      <c r="G182" s="11" t="s">
+      <c r="G182" t="s">
         <v>2706</v>
       </c>
     </row>
@@ -29281,10 +32019,10 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" t="s">
         <v>54</v>
       </c>
-      <c r="G183" s="11" t="s">
+      <c r="G183" t="s">
         <v>2707</v>
       </c>
     </row>
@@ -29292,10 +32030,10 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" t="s">
         <v>54</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G184" t="s">
         <v>2708</v>
       </c>
     </row>
@@ -29303,10 +32041,10 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" t="s">
         <v>54</v>
       </c>
-      <c r="G185" s="11" t="s">
+      <c r="G185" t="s">
         <v>2709</v>
       </c>
     </row>
@@ -29314,10 +32052,10 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" t="s">
         <v>54</v>
       </c>
-      <c r="G186" s="11" t="s">
+      <c r="G186" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -29325,10 +32063,10 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" t="s">
         <v>54</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="G187" t="s">
         <v>2711</v>
       </c>
     </row>
@@ -29336,10 +32074,10 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" t="s">
         <v>54</v>
       </c>
-      <c r="G188" s="11" t="s">
+      <c r="G188" t="s">
         <v>2712</v>
       </c>
     </row>
@@ -29347,10 +32085,10 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" t="s">
         <v>54</v>
       </c>
-      <c r="G189" s="11" t="s">
+      <c r="G189" t="s">
         <v>2713</v>
       </c>
     </row>
@@ -29358,10 +32096,10 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" t="s">
         <v>54</v>
       </c>
-      <c r="G190" s="11" t="s">
+      <c r="G190" t="s">
         <v>2714</v>
       </c>
     </row>
@@ -29369,10 +32107,10 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" t="s">
         <v>54</v>
       </c>
-      <c r="G191" s="11" t="s">
+      <c r="G191" t="s">
         <v>2715</v>
       </c>
     </row>
@@ -29380,10 +32118,10 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" t="s">
         <v>54</v>
       </c>
-      <c r="G192" s="11" t="s">
+      <c r="G192" t="s">
         <v>2716</v>
       </c>
     </row>
@@ -29391,10 +32129,10 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" t="s">
         <v>54</v>
       </c>
-      <c r="G193" s="11" t="s">
+      <c r="G193" t="s">
         <v>2717</v>
       </c>
     </row>
@@ -29402,10 +32140,10 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" t="s">
         <v>54</v>
       </c>
-      <c r="G194" s="11" t="s">
+      <c r="G194" t="s">
         <v>2718</v>
       </c>
     </row>
@@ -29413,10 +32151,10 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" t="s">
         <v>54</v>
       </c>
-      <c r="G195" s="11" t="s">
+      <c r="G195" t="s">
         <v>2719</v>
       </c>
     </row>
@@ -29424,10 +32162,10 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" t="s">
         <v>54</v>
       </c>
-      <c r="G196" s="11" t="s">
+      <c r="G196" t="s">
         <v>2720</v>
       </c>
     </row>
@@ -29435,10 +32173,10 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" t="s">
         <v>54</v>
       </c>
-      <c r="G197" s="11" t="s">
+      <c r="G197" t="s">
         <v>2721</v>
       </c>
     </row>
@@ -29446,10 +32184,10 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" t="s">
         <v>54</v>
       </c>
-      <c r="G198" s="11" t="s">
+      <c r="G198" t="s">
         <v>2722</v>
       </c>
     </row>
@@ -29457,10 +32195,10 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" t="s">
         <v>54</v>
       </c>
-      <c r="G199" s="11" t="s">
+      <c r="G199" t="s">
         <v>2723</v>
       </c>
     </row>
@@ -29468,10 +32206,10 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" t="s">
         <v>54</v>
       </c>
-      <c r="G200" s="11" t="s">
+      <c r="G200" t="s">
         <v>2724</v>
       </c>
     </row>
@@ -29479,10 +32217,10 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" t="s">
         <v>54</v>
       </c>
-      <c r="G201" s="11" t="s">
+      <c r="G201" t="s">
         <v>2725</v>
       </c>
     </row>
@@ -29490,10 +32228,10 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" t="s">
         <v>54</v>
       </c>
-      <c r="G202" s="11" t="s">
+      <c r="G202" t="s">
         <v>2726</v>
       </c>
     </row>
@@ -29501,10 +32239,10 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" t="s">
         <v>54</v>
       </c>
-      <c r="G203" s="11" t="s">
+      <c r="G203" t="s">
         <v>2727</v>
       </c>
     </row>
@@ -29512,10 +32250,10 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" t="s">
         <v>54</v>
       </c>
-      <c r="G204" s="11" t="s">
+      <c r="G204" t="s">
         <v>2728</v>
       </c>
     </row>
@@ -29523,10 +32261,10 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" t="s">
         <v>54</v>
       </c>
-      <c r="G205" s="11" t="s">
+      <c r="G205" t="s">
         <v>2729</v>
       </c>
     </row>
@@ -29534,10 +32272,10 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" t="s">
         <v>54</v>
       </c>
-      <c r="G206" s="11" t="s">
+      <c r="G206" t="s">
         <v>2730</v>
       </c>
     </row>
@@ -29545,10 +32283,10 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" t="s">
         <v>54</v>
       </c>
-      <c r="G207" s="11" t="s">
+      <c r="G207" t="s">
         <v>2731</v>
       </c>
     </row>
@@ -29556,10 +32294,10 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" t="s">
         <v>54</v>
       </c>
-      <c r="G208" s="11" t="s">
+      <c r="G208" t="s">
         <v>2732</v>
       </c>
     </row>
@@ -29567,10 +32305,10 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" t="s">
         <v>54</v>
       </c>
-      <c r="G209" s="11" t="s">
+      <c r="G209" t="s">
         <v>2733</v>
       </c>
     </row>
@@ -29578,10 +32316,10 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" t="s">
         <v>54</v>
       </c>
-      <c r="G210" s="11" t="s">
+      <c r="G210" t="s">
         <v>2734</v>
       </c>
     </row>
@@ -29589,10 +32327,10 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" t="s">
         <v>54</v>
       </c>
-      <c r="G211" s="11" t="s">
+      <c r="G211" t="s">
         <v>2735</v>
       </c>
     </row>
@@ -29600,10 +32338,10 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" t="s">
         <v>54</v>
       </c>
-      <c r="G212" s="11" t="s">
+      <c r="G212" t="s">
         <v>2736</v>
       </c>
     </row>
@@ -29611,10 +32349,10 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" t="s">
         <v>54</v>
       </c>
-      <c r="G213" s="11" t="s">
+      <c r="G213" t="s">
         <v>2737</v>
       </c>
     </row>
@@ -29622,10 +32360,10 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" t="s">
         <v>54</v>
       </c>
-      <c r="G214" s="11" t="s">
+      <c r="G214" t="s">
         <v>2738</v>
       </c>
     </row>
@@ -29633,10 +32371,10 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C215" t="s">
         <v>54</v>
       </c>
-      <c r="G215" s="11" t="s">
+      <c r="G215" t="s">
         <v>2739</v>
       </c>
     </row>
@@ -29644,10 +32382,10 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C216" t="s">
         <v>54</v>
       </c>
-      <c r="G216" s="11" t="s">
+      <c r="G216" t="s">
         <v>2740</v>
       </c>
     </row>
@@ -29655,10 +32393,10 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="C217" s="11" t="s">
+      <c r="C217" t="s">
         <v>54</v>
       </c>
-      <c r="G217" s="11" t="s">
+      <c r="G217" t="s">
         <v>2741</v>
       </c>
     </row>
@@ -29666,10 +32404,10 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C218" t="s">
         <v>54</v>
       </c>
-      <c r="G218" s="11" t="s">
+      <c r="G218" t="s">
         <v>2742</v>
       </c>
     </row>
@@ -29677,10 +32415,10 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="C219" t="s">
         <v>54</v>
       </c>
-      <c r="G219" s="11" t="s">
+      <c r="G219" t="s">
         <v>2743</v>
       </c>
     </row>
@@ -29688,10 +32426,10 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" t="s">
         <v>54</v>
       </c>
-      <c r="G220" s="11" t="s">
+      <c r="G220" t="s">
         <v>2744</v>
       </c>
     </row>
@@ -29699,10 +32437,10 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C221" t="s">
         <v>54</v>
       </c>
-      <c r="G221" s="11" t="s">
+      <c r="G221" t="s">
         <v>2745</v>
       </c>
     </row>
@@ -29710,10 +32448,10 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C222" t="s">
         <v>54</v>
       </c>
-      <c r="G222" s="11" t="s">
+      <c r="G222" t="s">
         <v>2746</v>
       </c>
     </row>
@@ -29721,10 +32459,10 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C223" t="s">
         <v>54</v>
       </c>
-      <c r="G223" s="11" t="s">
+      <c r="G223" t="s">
         <v>2747</v>
       </c>
     </row>
@@ -29732,10 +32470,10 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C224" t="s">
         <v>54</v>
       </c>
-      <c r="G224" s="11" t="s">
+      <c r="G224" t="s">
         <v>2748</v>
       </c>
     </row>
@@ -29743,10 +32481,10 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C225" t="s">
         <v>54</v>
       </c>
-      <c r="G225" s="11" t="s">
+      <c r="G225" t="s">
         <v>2749</v>
       </c>
     </row>
@@ -29754,10 +32492,10 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C226" t="s">
         <v>54</v>
       </c>
-      <c r="G226" s="11" t="s">
+      <c r="G226" t="s">
         <v>2750</v>
       </c>
     </row>
@@ -29765,10 +32503,10 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C227" t="s">
         <v>54</v>
       </c>
-      <c r="G227" s="11" t="s">
+      <c r="G227" t="s">
         <v>2751</v>
       </c>
     </row>
@@ -29776,10 +32514,10 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C228" t="s">
         <v>54</v>
       </c>
-      <c r="G228" s="11" t="s">
+      <c r="G228" t="s">
         <v>2752</v>
       </c>
     </row>
@@ -29787,10 +32525,10 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C229" t="s">
         <v>54</v>
       </c>
-      <c r="G229" s="11" t="s">
+      <c r="G229" t="s">
         <v>2753</v>
       </c>
     </row>
@@ -29798,10 +32536,10 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="C230" s="11" t="s">
+      <c r="C230" t="s">
         <v>54</v>
       </c>
-      <c r="G230" s="11" t="s">
+      <c r="G230" t="s">
         <v>2754</v>
       </c>
     </row>
@@ -29809,10 +32547,10 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="C231" s="11" t="s">
+      <c r="C231" t="s">
         <v>54</v>
       </c>
-      <c r="G231" s="11" t="s">
+      <c r="G231" t="s">
         <v>2755</v>
       </c>
     </row>
@@ -29820,10 +32558,10 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="C232" s="11" t="s">
+      <c r="C232" t="s">
         <v>54</v>
       </c>
-      <c r="G232" s="11" t="s">
+      <c r="G232" t="s">
         <v>2756</v>
       </c>
     </row>
@@ -29831,10 +32569,10 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C233" t="s">
         <v>54</v>
       </c>
-      <c r="G233" s="11" t="s">
+      <c r="G233" t="s">
         <v>2757</v>
       </c>
     </row>
@@ -29842,10 +32580,10 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="C234" s="11" t="s">
+      <c r="C234" t="s">
         <v>54</v>
       </c>
-      <c r="G234" s="11" t="s">
+      <c r="G234" t="s">
         <v>2758</v>
       </c>
     </row>
@@ -29853,10 +32591,10 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C235" t="s">
         <v>54</v>
       </c>
-      <c r="G235" s="11" t="s">
+      <c r="G235" t="s">
         <v>2759</v>
       </c>
     </row>
@@ -29864,10 +32602,10 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C236" t="s">
         <v>54</v>
       </c>
-      <c r="G236" s="11" t="s">
+      <c r="G236" t="s">
         <v>2760</v>
       </c>
     </row>
@@ -29884,10 +32622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29895,15 +32633,36 @@
     <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.84375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.90277777777777779</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEE289-2E95-40AA-AB8B-319879DF1960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D31A78-5F23-4A0E-8902-D312B9EFFF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="0" windowWidth="13212" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="12240" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6005" uniqueCount="3103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6670" uniqueCount="3327">
   <si>
     <t>ID</t>
   </si>
@@ -9730,12 +9730,6 @@
     <t>o/Elsaß</t>
   </si>
   <si>
-    <t>Fender Alfo[ns]</t>
-  </si>
-  <si>
-    <t>Rhe[n]iau</t>
-  </si>
-  <si>
     <t>u/Els.</t>
   </si>
   <si>
@@ -9776,9 +9770,6 @@
   </si>
   <si>
     <t>Suhnsfräu (w)</t>
-  </si>
-  <si>
-    <t>1 hr</t>
   </si>
   <si>
     <t>Holderschdog</t>
@@ -10069,9 +10060,6 @@
     <t>Schwi̊gi̊rtochti̊r</t>
   </si>
   <si>
-    <t>1hr</t>
-  </si>
-  <si>
     <t>Holdara</t>
   </si>
   <si>
@@ -10280,6 +10268,835 @@
   </si>
   <si>
     <t>Schwigertochter</t>
+  </si>
+  <si>
+    <t>t-l</t>
+  </si>
+  <si>
+    <t>Brunstatt</t>
+  </si>
+  <si>
+    <t>Merglen Ju[h?]f</t>
+  </si>
+  <si>
+    <t>S[em?]fri[?n]</t>
+  </si>
+  <si>
+    <t>Kr. [Oh]amm</t>
+  </si>
+  <si>
+    <t>L, A</t>
+  </si>
+  <si>
+    <t>Merglen u. Kollme[ger]</t>
+  </si>
+  <si>
+    <t>Licht (a)</t>
+  </si>
+  <si>
+    <t>Ageschta</t>
+  </si>
+  <si>
+    <t>Ratsch ([d]')</t>
+  </si>
+  <si>
+    <t>Gukel, Hüan</t>
+  </si>
+  <si>
+    <t>He[w]amm</t>
+  </si>
+  <si>
+    <t>Katzarolli</t>
+  </si>
+  <si>
+    <t>Galrüawa</t>
+  </si>
+  <si>
+    <t>Moora</t>
+  </si>
+  <si>
+    <t>Streknodla</t>
+  </si>
+  <si>
+    <t>ve[rn]igla</t>
+  </si>
+  <si>
+    <t>t-[k]</t>
+  </si>
+  <si>
+    <t>t-f</t>
+  </si>
+  <si>
+    <t>Fröningen</t>
+  </si>
+  <si>
+    <t>&lt;Bearbeiter:&gt; Mangold Ernst</t>
+  </si>
+  <si>
+    <t>Herrn Mangold</t>
+  </si>
+  <si>
+    <t>Agerschte (w)</t>
+  </si>
+  <si>
+    <t>Aamt (s)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Hüahn (w)</t>
+  </si>
+  <si>
+    <t>Hewamme (w)</t>
+  </si>
+  <si>
+    <t>Hardepfel (w)</t>
+  </si>
+  <si>
+    <t>Galriwa (w)</t>
+  </si>
+  <si>
+    <t>Geta (m)</t>
+  </si>
+  <si>
+    <t>Riema (m)</t>
+  </si>
+  <si>
+    <t>Tasa (w)</t>
+  </si>
+  <si>
+    <t>Suhnsfraui, Schwiegertochter (w)</t>
+  </si>
+  <si>
+    <t>t-[f]</t>
+  </si>
+  <si>
+    <t>o/Elsass {steht eigentlich bei Kreis}</t>
+  </si>
+  <si>
+    <t>Eichhorn</t>
+  </si>
+  <si>
+    <t>Ernst Mangold</t>
+  </si>
+  <si>
+    <t>Anderatsch</t>
+  </si>
+  <si>
+    <t>Āmt &lt;gedehntes A.)</t>
+  </si>
+  <si>
+    <t>Galriwe, Galriewe</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Grüselbäre</t>
+  </si>
+  <si>
+    <t>Tasala, Tase</t>
+  </si>
+  <si>
+    <t>Suhnsfraui, Schwiegertochter</t>
+  </si>
+  <si>
+    <t>s-V</t>
+  </si>
+  <si>
+    <t>Bernweiler</t>
+  </si>
+  <si>
+    <t>ober-Elsaß</t>
+  </si>
+  <si>
+    <t>Fender Alfons</t>
+  </si>
+  <si>
+    <t>Rheniau</t>
+  </si>
+  <si>
+    <t>u/Elsaß</t>
+  </si>
+  <si>
+    <t>Dissil (m)</t>
+  </si>
+  <si>
+    <t>Agrschta (w)</t>
+  </si>
+  <si>
+    <t>Gågummera (w)</t>
+  </si>
+  <si>
+    <t>Gugl (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hewåmma (w)</t>
+  </si>
+  <si>
+    <t>Gidda (m)</t>
+  </si>
+  <si>
+    <t>Dåssa (w)</t>
+  </si>
+  <si>
+    <t>ardiger Håfa</t>
+  </si>
+  <si>
+    <t>s-U</t>
+  </si>
+  <si>
+    <t>Kr. Altkirch {nur vorderseite}</t>
+  </si>
+  <si>
+    <t>Balschweiler {nicht auf rückseite</t>
+  </si>
+  <si>
+    <t>Ageschda</t>
+  </si>
+  <si>
+    <t>Hagabudda</t>
+  </si>
+  <si>
+    <t>Guggel, Huan</t>
+  </si>
+  <si>
+    <t>Hardebfel</t>
+  </si>
+  <si>
+    <t>Kotz</t>
+  </si>
+  <si>
+    <t>Galriaba</t>
+  </si>
+  <si>
+    <t>Spodz</t>
+  </si>
+  <si>
+    <t>Stochelbära</t>
+  </si>
+  <si>
+    <t>Schticknodla</t>
+  </si>
+  <si>
+    <t>Holunder</t>
+  </si>
+  <si>
+    <t>s-W</t>
+  </si>
+  <si>
+    <t>Enschingen</t>
+  </si>
+  <si>
+    <t>Heinrich Eugen</t>
+  </si>
+  <si>
+    <t>Orschweiler</t>
+  </si>
+  <si>
+    <t>u.Elsaß</t>
+  </si>
+  <si>
+    <t>Gukel, Huhn</t>
+  </si>
+  <si>
+    <t>Kartoffel &lt;Erdäpfel&gt;</t>
+  </si>
+  <si>
+    <t>Kater &lt;Rolli&gt;</t>
+  </si>
+  <si>
+    <t>Mutterschwein &lt;Mohre&gt;</t>
+  </si>
+  <si>
+    <t>Nadel</t>
+  </si>
+  <si>
+    <t>propfen</t>
+  </si>
+  <si>
+    <t>Schwiegertochter &lt;Sohnsfrau&gt;</t>
+  </si>
+  <si>
+    <t>[t]-s</t>
+  </si>
+  <si>
+    <t>Geispitzen</t>
+  </si>
+  <si>
+    <t>A. Ecke[n]stei[n]</t>
+  </si>
+  <si>
+    <t>&lt;Schülerin&gt; Martha Fellmann</t>
+  </si>
+  <si>
+    <t>A[r]meisa</t>
+  </si>
+  <si>
+    <t>Blaumara</t>
+  </si>
+  <si>
+    <t>Gagummara</t>
+  </si>
+  <si>
+    <t>Guggel, Hüehn</t>
+  </si>
+  <si>
+    <t>Hardöpfel</t>
+  </si>
+  <si>
+    <t>Mauhr</t>
+  </si>
+  <si>
+    <t>Schtreknaudla</t>
+  </si>
+  <si>
+    <t>Tepfi</t>
+  </si>
+  <si>
+    <t>t-t</t>
+  </si>
+  <si>
+    <t>Rixheim</t>
+  </si>
+  <si>
+    <t>Margarete Sco[p]si</t>
+  </si>
+  <si>
+    <t>Lünschweiler</t>
+  </si>
+  <si>
+    <t>Omeisa (w) {original wohl Ameisa aber A durchgestrichen}</t>
+  </si>
+  <si>
+    <t>Ahm (s)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hebamma (w)</t>
+  </si>
+  <si>
+    <t>Katzarolli (m)</t>
+  </si>
+  <si>
+    <t>Pflüma (m)</t>
+  </si>
+  <si>
+    <t>Grüsala (s)</t>
+  </si>
+  <si>
+    <t>eigla</t>
+  </si>
+  <si>
+    <t>Suhnsfroi (w)</t>
+  </si>
+  <si>
+    <t>Krs. Mülhausen</t>
+  </si>
+  <si>
+    <t>Rixheim {Steht nur auf Seite 1.}</t>
+  </si>
+  <si>
+    <t>Krs. Mülhausen {Steht nur auf Seite 1.}</t>
+  </si>
+  <si>
+    <t>Dißel</t>
+  </si>
+  <si>
+    <t>Agrschda</t>
+  </si>
+  <si>
+    <t>Chugumra</t>
+  </si>
+  <si>
+    <t>Buta</t>
+  </si>
+  <si>
+    <t>Gügel, Huan</t>
+  </si>
+  <si>
+    <t>Galriavla</t>
+  </si>
+  <si>
+    <t>Grüssala</t>
+  </si>
+  <si>
+    <t>t-[m]</t>
+  </si>
+  <si>
+    <t>Mülhausen - Riedisheim</t>
+  </si>
+  <si>
+    <t>Joh. Ro[r]sch</t>
+  </si>
+  <si>
+    <t>Isenheim</t>
+  </si>
+  <si>
+    <t>Omais (w)</t>
+  </si>
+  <si>
+    <t>Brumbeera. Brohmera (w)</t>
+  </si>
+  <si>
+    <t>Agrscht (w)</t>
+  </si>
+  <si>
+    <t>Antaratscher (m)</t>
+  </si>
+  <si>
+    <t>Grummet, Ahmt (s)</t>
+  </si>
+  <si>
+    <t>Gãgummra (w)</t>
+  </si>
+  <si>
+    <t>Hãhna (m), Gluckra (w)</t>
+  </si>
+  <si>
+    <t>Hehwãmm (w)</t>
+  </si>
+  <si>
+    <t>Kãtzarolli (m)</t>
+  </si>
+  <si>
+    <t>Scharnialer (m), Scharmüs (w)</t>
+  </si>
+  <si>
+    <t>Getta (m), Pfetter (m)</t>
+  </si>
+  <si>
+    <t>Peitscha (w), Riama (m)</t>
+  </si>
+  <si>
+    <t>Schtrecknodel (w)</t>
+  </si>
+  <si>
+    <t>Tãssa (w), Tassla (s)</t>
+  </si>
+  <si>
+    <t>Hãfa (m)</t>
+  </si>
+  <si>
+    <t>t-[n]</t>
+  </si>
+  <si>
+    <t>Brubach</t>
+  </si>
+  <si>
+    <t>Pa[pur]en Therese</t>
+  </si>
+  <si>
+    <t>Ob. Els.</t>
+  </si>
+  <si>
+    <t>Hollinger Johann</t>
+  </si>
+  <si>
+    <t>Lícht (s)</t>
+  </si>
+  <si>
+    <t>Ratsch (w)</t>
+  </si>
+  <si>
+    <t>Mu[c]ka (w)</t>
+  </si>
+  <si>
+    <t>Am[n]t (s)</t>
+  </si>
+  <si>
+    <t>Gakummera (w)</t>
+  </si>
+  <si>
+    <t>Gukel (m)</t>
+  </si>
+  <si>
+    <t>Geta (w)</t>
+  </si>
+  <si>
+    <t>Rima (w)</t>
+  </si>
+  <si>
+    <t>Grüsala (w)</t>
+  </si>
+  <si>
+    <t>Stricknodal (w)</t>
+  </si>
+  <si>
+    <t>Tassa (s)</t>
+  </si>
+  <si>
+    <t>t-o</t>
+  </si>
+  <si>
+    <t>Niedersteinbrunn</t>
+  </si>
+  <si>
+    <t>Mulhausen/Es.</t>
+  </si>
+  <si>
+    <t>Heinrich Schleg[e]r</t>
+  </si>
+  <si>
+    <t>[L] {Nur der Name des Informanten/Lehrers geschrieben}</t>
+  </si>
+  <si>
+    <t>Schleger</t>
+  </si>
+  <si>
+    <t>Brumra</t>
+  </si>
+  <si>
+    <t>Fladerm[ü]s {oder û}</t>
+  </si>
+  <si>
+    <t>Ehmt</t>
+  </si>
+  <si>
+    <t>Gukumra</t>
+  </si>
+  <si>
+    <t>Hard[ä]pfel {oder â}</t>
+  </si>
+  <si>
+    <t>Scharm[ü]s {oder û}</t>
+  </si>
+  <si>
+    <t>Galr[ü]aba {oder û}</t>
+  </si>
+  <si>
+    <t>schimpfa</t>
+  </si>
+  <si>
+    <t>Stachelbera</t>
+  </si>
+  <si>
+    <t>Stecknadel</t>
+  </si>
+  <si>
+    <t>Strecknõdla</t>
+  </si>
+  <si>
+    <t>Tassla &lt;mit&gt; Tallerla</t>
+  </si>
+  <si>
+    <t>Kehrla</t>
+  </si>
+  <si>
+    <t>t-p</t>
+  </si>
+  <si>
+    <t>Landser</t>
+  </si>
+  <si>
+    <t>Wilhelm Seleid</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Beärdigung</t>
+  </si>
+  <si>
+    <t>Tissel</t>
+  </si>
+  <si>
+    <t>Flädermüs</t>
+  </si>
+  <si>
+    <t>Gagummre</t>
+  </si>
+  <si>
+    <t>Gälri[e]ble</t>
+  </si>
+  <si>
+    <t>händla</t>
+  </si>
+  <si>
+    <t>Krüsele</t>
+  </si>
+  <si>
+    <t>Tässala</t>
+  </si>
+  <si>
+    <t>Geiß {in klammern oder anführungsstrichen}</t>
+  </si>
+  <si>
+    <t>t-r</t>
+  </si>
+  <si>
+    <t>Schlierbach</t>
+  </si>
+  <si>
+    <t>Mülhausen i/Els.</t>
+  </si>
+  <si>
+    <t>Theophil Hille[rw]eck</t>
+  </si>
+  <si>
+    <t>Niedermorschweiler</t>
+  </si>
+  <si>
+    <t>Th. Hille[wr]eck</t>
+  </si>
+  <si>
+    <t>Bromere (w)</t>
+  </si>
+  <si>
+    <t>Egerste (w)</t>
+  </si>
+  <si>
+    <t>Retsch (m)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Gluckere (w), Huhn (s)</t>
+  </si>
+  <si>
+    <t>Schermaus (w)</t>
+  </si>
+  <si>
+    <t>Gelbe Rübe (w)</t>
+  </si>
+  <si>
+    <t>Tassele (s)</t>
+  </si>
+  <si>
+    <t>zwiega &lt;zweigen&gt;</t>
+  </si>
+  <si>
+    <t>t-u</t>
+  </si>
+  <si>
+    <t>Zimmersheim</t>
+  </si>
+  <si>
+    <t>A[?]tar Hunigg</t>
+  </si>
+  <si>
+    <t>t-v</t>
+  </si>
+  <si>
+    <t>Eschenzweiler</t>
+  </si>
+  <si>
+    <t>[W]iderha[r]n</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Kr. Hah[r]</t>
+  </si>
+  <si>
+    <t>i. B</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cht</t>
+    </r>
+  </si>
+  <si>
+    <t>Diss'l</t>
+  </si>
+  <si>
+    <t>Ägrsta</t>
+  </si>
+  <si>
+    <t>Rātsch</t>
+  </si>
+  <si>
+    <r>
+      <t>Flāderm</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Mu[c]ka</t>
+  </si>
+  <si>
+    <t>2. Schnitt &lt;āhmda&gt;</t>
+  </si>
+  <si>
+    <t>Gagum̄era</t>
+  </si>
+  <si>
+    <t>Gūckl &lt;Hūehn&gt;</t>
+  </si>
+  <si>
+    <t>Hārdepf'l</t>
+  </si>
+  <si>
+    <r>
+      <t>Sch</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rm</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lrūeba</t>
+    </r>
+  </si>
+  <si>
+    <t>Gettā</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ama</t>
+    </r>
+  </si>
+  <si>
+    <t>Pflūma</t>
+  </si>
+  <si>
+    <t>schālta</t>
+  </si>
+  <si>
+    <r>
+      <t>Heftg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fa</t>
+    </r>
+  </si>
+  <si>
+    <t>Tassā</t>
+  </si>
+  <si>
+    <t>Haf[ä] &lt;ā&gt;</t>
+  </si>
+  <si>
+    <t>Schwegertocht[ö]</t>
   </si>
 </sst>
 </file>
@@ -10414,7 +11231,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -10426,7 +11243,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -10747,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I102" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView tabSelected="1" topLeftCell="AR131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA148" sqref="BA148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -30019,22 +30837,22 @@
         <v>2932</v>
       </c>
       <c r="P120" t="s">
+        <v>3145</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>3146</v>
+      </c>
+      <c r="R120">
+        <v>999</v>
+      </c>
+      <c r="S120" t="s">
         <v>2933</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>2934</v>
-      </c>
-      <c r="R120">
-        <v>999</v>
-      </c>
-      <c r="S120" t="s">
-        <v>2935</v>
       </c>
       <c r="T120" t="s">
         <v>245</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="V120" t="s">
         <v>1159</v>
@@ -30043,13 +30861,13 @@
         <v>896</v>
       </c>
       <c r="X120" t="s">
+        <v>2935</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>2936</v>
+      </c>
+      <c r="Z120" t="s">
         <v>2937</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>2938</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>2939</v>
       </c>
       <c r="AA120" t="s">
         <v>377</v>
@@ -30064,16 +30882,16 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>2939</v>
+      </c>
+      <c r="AG120" t="s">
         <v>2940</v>
       </c>
-      <c r="AF120" t="s">
+      <c r="AH120" t="s">
         <v>2941</v>
-      </c>
-      <c r="AG120" t="s">
-        <v>2942</v>
-      </c>
-      <c r="AH120" t="s">
-        <v>2943</v>
       </c>
       <c r="AI120" t="s">
         <v>463</v>
@@ -30085,7 +30903,7 @@
         <v>903</v>
       </c>
       <c r="AL120" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="AM120" t="s">
         <v>1479</v>
@@ -30097,7 +30915,7 @@
         <v>712</v>
       </c>
       <c r="AP120" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="AQ120" t="s">
         <v>414</v>
@@ -30112,10 +30930,10 @@
         <v>494</v>
       </c>
       <c r="AU120" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="AV120" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="AW120" t="s">
         <v>527</v>
@@ -30130,7 +30948,7 @@
         <v>1489</v>
       </c>
       <c r="BA120" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.25">
@@ -30165,7 +30983,7 @@
         <v>2763</v>
       </c>
       <c r="K121" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="L121" t="s">
         <v>982</v>
@@ -30180,10 +30998,10 @@
         <v>61</v>
       </c>
       <c r="P121" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="Q121" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="R121">
         <v>999</v>
@@ -30195,13 +31013,13 @@
         <v>179</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="V121" t="s">
         <v>1629</v>
       </c>
       <c r="W121" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="X121" t="s">
         <v>67</v>
@@ -30210,7 +31028,7 @@
         <v>346</v>
       </c>
       <c r="Z121" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="AA121" t="s">
         <v>404</v>
@@ -30228,10 +31046,10 @@
         <v>228</v>
       </c>
       <c r="AF121" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="AG121" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="AH121" t="s">
         <v>2825</v>
@@ -30246,10 +31064,10 @@
         <v>119</v>
       </c>
       <c r="AL121" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="AM121" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="AN121" t="s">
         <v>122</v>
@@ -30267,16 +31085,16 @@
         <v>126</v>
       </c>
       <c r="AS121" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="AT121" t="s">
         <v>362</v>
       </c>
       <c r="AU121" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="AV121" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="AW121" t="s">
         <v>91</v>
@@ -30288,7 +31106,7 @@
         <v>365</v>
       </c>
       <c r="AZ121" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BA121" s="1" t="s">
         <v>766</v>
@@ -30326,10 +31144,10 @@
         <v>2763</v>
       </c>
       <c r="K122" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="L122" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="M122">
         <v>999</v>
@@ -30341,64 +31159,64 @@
         <v>61</v>
       </c>
       <c r="P122" t="s">
+        <v>2963</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>2964</v>
+      </c>
+      <c r="R122" t="s">
+        <v>2965</v>
+      </c>
+      <c r="S122">
+        <v>999</v>
+      </c>
+      <c r="T122" t="s">
         <v>2966</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="U122" s="1" t="s">
         <v>2967</v>
       </c>
-      <c r="R122" t="s">
+      <c r="V122" t="s">
         <v>2968</v>
       </c>
-      <c r="S122">
-        <v>999</v>
-      </c>
-      <c r="T122" t="s">
+      <c r="W122" t="s">
         <v>2969</v>
       </c>
-      <c r="U122" s="1" t="s">
+      <c r="X122" t="s">
         <v>2970</v>
-      </c>
-      <c r="V122" t="s">
-        <v>2971</v>
-      </c>
-      <c r="W122" t="s">
-        <v>2972</v>
-      </c>
-      <c r="X122" t="s">
-        <v>2973</v>
       </c>
       <c r="Y122" t="s">
         <v>1162</v>
       </c>
       <c r="Z122" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="AA122" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="AB122" t="s">
         <v>378</v>
       </c>
       <c r="AC122" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="AD122" t="s">
         <v>1497</v>
       </c>
       <c r="AE122" t="s">
+        <v>2974</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>2975</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>2976</v>
+      </c>
+      <c r="AH122" t="s">
         <v>2977</v>
       </c>
-      <c r="AF122" t="s">
+      <c r="AI122" t="s">
         <v>2978</v>
-      </c>
-      <c r="AG122" t="s">
-        <v>2979</v>
-      </c>
-      <c r="AH122" t="s">
-        <v>2980</v>
-      </c>
-      <c r="AI122" t="s">
-        <v>2981</v>
       </c>
       <c r="AJ122" t="s">
         <v>385</v>
@@ -30407,43 +31225,43 @@
         <v>647</v>
       </c>
       <c r="AL122" t="s">
+        <v>2979</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>2980</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AO122" t="s">
         <v>2982</v>
       </c>
-      <c r="AM122" t="s">
+      <c r="AP122" t="s">
         <v>2983</v>
       </c>
-      <c r="AN122" t="s">
+      <c r="AQ122" t="s">
         <v>2984</v>
       </c>
-      <c r="AO122" t="s">
+      <c r="AR122" t="s">
         <v>2985</v>
       </c>
-      <c r="AP122" t="s">
+      <c r="AS122" t="s">
         <v>2986</v>
       </c>
-      <c r="AQ122" t="s">
+      <c r="AT122" t="s">
         <v>2987</v>
       </c>
-      <c r="AR122" t="s">
+      <c r="AU122" t="s">
         <v>2988</v>
       </c>
-      <c r="AS122" t="s">
+      <c r="AV122" t="s">
         <v>2989</v>
       </c>
-      <c r="AT122" t="s">
+      <c r="AW122" t="s">
         <v>2990</v>
       </c>
-      <c r="AU122" t="s">
+      <c r="AX122" t="s">
         <v>2991</v>
-      </c>
-      <c r="AV122" t="s">
-        <v>2992</v>
-      </c>
-      <c r="AW122" t="s">
-        <v>2993</v>
-      </c>
-      <c r="AX122" t="s">
-        <v>2994</v>
       </c>
       <c r="AY122" s="1" t="s">
         <v>340</v>
@@ -30487,25 +31305,25 @@
         <v>2763</v>
       </c>
       <c r="K123" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="L123" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="M123">
         <v>999</v>
       </c>
       <c r="N123" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="O123" t="s">
         <v>61</v>
       </c>
       <c r="P123" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="Q123" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="R123" t="s">
         <v>1224</v>
@@ -30523,13 +31341,13 @@
         <v>1159</v>
       </c>
       <c r="W123" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="X123">
         <v>999</v>
       </c>
       <c r="Y123" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="Z123" t="s">
         <v>1128</v>
@@ -30547,13 +31365,13 @@
         <v>487</v>
       </c>
       <c r="AE123" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AF123" t="s">
         <v>705</v>
       </c>
       <c r="AG123" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="AH123">
         <v>999</v>
@@ -30565,16 +31383,16 @@
         <v>385</v>
       </c>
       <c r="AK123" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="AL123" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="AM123" t="s">
         <v>159</v>
       </c>
       <c r="AN123" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AO123" t="s">
         <v>712</v>
@@ -30583,7 +31401,7 @@
         <v>999</v>
       </c>
       <c r="AQ123" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="AR123" t="s">
         <v>295</v>
@@ -30601,19 +31419,19 @@
         <v>999</v>
       </c>
       <c r="AW123" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="AX123" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="AY123" s="1" t="s">
         <v>658</v>
       </c>
       <c r="AZ123" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BA123" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.25">
@@ -30648,58 +31466,58 @@
         <v>2763</v>
       </c>
       <c r="K124" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L124" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M124">
+        <v>999</v>
+      </c>
+      <c r="N124" t="s">
+        <v>3010</v>
+      </c>
+      <c r="O124">
+        <v>999</v>
+      </c>
+      <c r="P124">
+        <v>999</v>
+      </c>
+      <c r="Q124">
+        <v>999</v>
+      </c>
+      <c r="R124">
+        <v>999</v>
+      </c>
+      <c r="S124">
+        <v>999</v>
+      </c>
+      <c r="T124">
+        <v>999</v>
+      </c>
+      <c r="U124" s="1">
+        <v>999</v>
+      </c>
+      <c r="V124" t="s">
         <v>3011</v>
       </c>
-      <c r="L124" t="s">
+      <c r="W124" t="s">
         <v>3012</v>
-      </c>
-      <c r="M124">
-        <v>999</v>
-      </c>
-      <c r="N124" t="s">
-        <v>3013</v>
-      </c>
-      <c r="O124">
-        <v>999</v>
-      </c>
-      <c r="P124">
-        <v>999</v>
-      </c>
-      <c r="Q124">
-        <v>999</v>
-      </c>
-      <c r="R124">
-        <v>999</v>
-      </c>
-      <c r="S124">
-        <v>999</v>
-      </c>
-      <c r="T124">
-        <v>999</v>
-      </c>
-      <c r="U124" s="1">
-        <v>999</v>
-      </c>
-      <c r="V124" t="s">
-        <v>3014</v>
-      </c>
-      <c r="W124" t="s">
-        <v>3015</v>
       </c>
       <c r="X124" t="s">
         <v>923</v>
       </c>
       <c r="Y124" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="Z124" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AA124" t="s">
         <v>404</v>
       </c>
       <c r="AB124" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="AC124" t="s">
         <v>757</v>
@@ -30708,34 +31526,34 @@
         <v>350</v>
       </c>
       <c r="AE124" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="AF124" t="s">
         <v>927</v>
       </c>
       <c r="AG124" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AH124" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="AI124" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="AJ124" t="s">
         <v>354</v>
       </c>
       <c r="AK124" t="s">
+        <v>3020</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>3021</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>3022</v>
+      </c>
+      <c r="AN124" t="s">
         <v>3023</v>
-      </c>
-      <c r="AL124" t="s">
-        <v>3024</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>3025</v>
-      </c>
-      <c r="AN124" t="s">
-        <v>3026</v>
       </c>
       <c r="AO124" t="s">
         <v>358</v>
@@ -30756,16 +31574,16 @@
         <v>362</v>
       </c>
       <c r="AU124" t="s">
+        <v>3024</v>
+      </c>
+      <c r="AV124" t="s">
+        <v>3025</v>
+      </c>
+      <c r="AW124" t="s">
+        <v>3026</v>
+      </c>
+      <c r="AX124" t="s">
         <v>3027</v>
-      </c>
-      <c r="AV124" t="s">
-        <v>3028</v>
-      </c>
-      <c r="AW124" t="s">
-        <v>3029</v>
-      </c>
-      <c r="AX124" t="s">
-        <v>3030</v>
       </c>
       <c r="AY124" s="1" t="s">
         <v>1397</v>
@@ -30774,7 +31592,7 @@
         <v>367</v>
       </c>
       <c r="BA124" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.25">
@@ -30809,25 +31627,25 @@
         <v>2763</v>
       </c>
       <c r="K125" t="s">
+        <v>3030</v>
+      </c>
+      <c r="L125" t="s">
+        <v>3031</v>
+      </c>
+      <c r="M125">
+        <v>999</v>
+      </c>
+      <c r="N125" t="s">
         <v>3034</v>
       </c>
-      <c r="L125" t="s">
-        <v>3035</v>
-      </c>
-      <c r="M125">
-        <v>999</v>
-      </c>
-      <c r="N125" s="11" t="s">
-        <v>3038</v>
-      </c>
       <c r="O125">
         <v>999</v>
       </c>
       <c r="P125" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="Q125" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="R125">
         <v>999</v>
@@ -30848,19 +31666,19 @@
         <v>427</v>
       </c>
       <c r="X125" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="Y125" t="s">
         <v>375</v>
       </c>
       <c r="Z125" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="AA125" t="s">
         <v>404</v>
       </c>
       <c r="AB125" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="AC125" t="s">
         <v>757</v>
@@ -30869,13 +31687,13 @@
         <v>925</v>
       </c>
       <c r="AE125" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="AF125" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="AG125" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="AH125" t="s">
         <v>2852</v>
@@ -30884,19 +31702,19 @@
         <v>77</v>
       </c>
       <c r="AJ125" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="AK125" t="s">
         <v>119</v>
       </c>
       <c r="AL125" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="AM125" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="AN125" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="AO125" t="s">
         <v>949</v>
@@ -30905,40 +31723,40 @@
         <v>2791</v>
       </c>
       <c r="AQ125" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="AR125" t="s">
         <v>202</v>
       </c>
       <c r="AS125" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="AT125" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="AU125" t="s">
         <v>205</v>
       </c>
       <c r="AV125" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="AW125" t="s">
         <v>792</v>
       </c>
       <c r="AX125" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="AY125" s="1" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="AZ125" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="BA125" s="1" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="BB125" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.25">
@@ -30973,10 +31791,10 @@
         <v>2763</v>
       </c>
       <c r="K126" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="L126" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="M126">
         <v>999</v>
@@ -30988,16 +31806,16 @@
         <v>61</v>
       </c>
       <c r="P126" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="Q126" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="R126">
         <v>999</v>
       </c>
       <c r="S126" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="T126" t="s">
         <v>245</v>
@@ -31009,7 +31827,7 @@
         <v>1159</v>
       </c>
       <c r="W126" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="X126" t="s">
         <v>700</v>
@@ -31018,7 +31836,7 @@
         <v>457</v>
       </c>
       <c r="Z126" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="AA126" t="s">
         <v>377</v>
@@ -31033,28 +31851,28 @@
         <v>1497</v>
       </c>
       <c r="AE126" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="AF126" t="s">
         <v>382</v>
       </c>
       <c r="AG126" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="AH126" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="AI126" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="AJ126" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="AK126" t="s">
         <v>647</v>
       </c>
       <c r="AL126" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="AM126" t="s">
         <v>2808</v>
@@ -31063,19 +31881,19 @@
         <v>491</v>
       </c>
       <c r="AO126" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="AP126" t="s">
         <v>1506</v>
       </c>
       <c r="AQ126" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="AR126" t="s">
         <v>2425</v>
       </c>
       <c r="AS126" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="AT126" t="s">
         <v>494</v>
@@ -31084,22 +31902,22 @@
         <v>605</v>
       </c>
       <c r="AV126" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="AW126" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="AX126" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="AY126" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AZ126" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="BA126" s="1" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.25">
@@ -31134,10 +31952,10 @@
         <v>2763</v>
       </c>
       <c r="K127" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="L127" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="M127">
         <v>999</v>
@@ -31149,16 +31967,16 @@
         <v>61</v>
       </c>
       <c r="P127" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="Q127" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="R127">
         <v>999</v>
       </c>
       <c r="S127" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="T127" t="s">
         <v>64</v>
@@ -31194,13 +32012,13 @@
         <v>1497</v>
       </c>
       <c r="AE127" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="AF127" t="s">
         <v>705</v>
       </c>
       <c r="AG127" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="AH127" t="s">
         <v>1653</v>
@@ -31215,13 +32033,13 @@
         <v>119</v>
       </c>
       <c r="AL127" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="AM127" t="s">
         <v>1479</v>
       </c>
       <c r="AN127" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="AO127" t="s">
         <v>712</v>
@@ -31236,22 +32054,22 @@
         <v>603</v>
       </c>
       <c r="AS127" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="AT127" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="AU127" t="s">
         <v>363</v>
       </c>
       <c r="AV127" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="AW127" t="s">
         <v>1657</v>
       </c>
       <c r="AX127" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="AY127" s="1" t="s">
         <v>1148</v>
@@ -31267,6 +32085,9 @@
       <c r="A128">
         <v>127</v>
       </c>
+      <c r="B128" s="2">
+        <v>44774</v>
+      </c>
       <c r="C128" t="s">
         <v>54</v>
       </c>
@@ -31292,10 +32113,10 @@
         <v>2763</v>
       </c>
       <c r="K128" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="L128" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="M128">
         <v>999</v>
@@ -31307,7 +32128,7 @@
         <v>1056</v>
       </c>
       <c r="P128" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="Q128" t="s">
         <v>60</v>
@@ -31334,7 +32155,7 @@
         <v>345</v>
       </c>
       <c r="Y128" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="Z128" t="s">
         <v>755</v>
@@ -31352,13 +32173,13 @@
         <v>925</v>
       </c>
       <c r="AE128" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="AF128" t="s">
         <v>409</v>
       </c>
       <c r="AG128" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="AH128" t="s">
         <v>352</v>
@@ -31373,13 +32194,13 @@
         <v>119</v>
       </c>
       <c r="AL128" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="AM128" t="s">
         <v>81</v>
       </c>
       <c r="AN128" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="AO128" t="s">
         <v>358</v>
@@ -31391,10 +32212,10 @@
         <v>414</v>
       </c>
       <c r="AR128" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="AS128" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="AT128" t="s">
         <v>362</v>
@@ -31403,7 +32224,7 @@
         <v>417</v>
       </c>
       <c r="AV128" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="AW128" t="s">
         <v>130</v>
@@ -31418,233 +32239,2582 @@
         <v>134</v>
       </c>
       <c r="BA128" s="1" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
+      <c r="B129" s="2">
+        <v>44774</v>
+      </c>
       <c r="C129" t="s">
         <v>54</v>
       </c>
+      <c r="D129" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
       <c r="G129" t="s">
         <v>2653</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
+      <c r="B130" s="2">
+        <v>44774</v>
+      </c>
       <c r="C130" t="s">
         <v>54</v>
       </c>
+      <c r="D130" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
       <c r="G130" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
+      <c r="B131" s="2">
+        <v>44774</v>
+      </c>
       <c r="C131" t="s">
         <v>54</v>
       </c>
+      <c r="D131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>9</v>
+      </c>
       <c r="G131" t="s">
         <v>2655</v>
       </c>
+      <c r="H131" t="s">
+        <v>97</v>
+      </c>
+      <c r="I131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K131" t="s">
+        <v>3099</v>
+      </c>
+      <c r="L131" t="s">
+        <v>3100</v>
+      </c>
+      <c r="M131">
+        <v>999</v>
+      </c>
+      <c r="N131" t="s">
+        <v>560</v>
+      </c>
+      <c r="O131" t="s">
+        <v>61</v>
+      </c>
+      <c r="P131" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>3102</v>
+      </c>
+      <c r="R131" t="s">
+        <v>3103</v>
+      </c>
+      <c r="S131">
+        <v>999</v>
+      </c>
+      <c r="T131" t="s">
+        <v>3104</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="V131" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W131" t="s">
+        <v>3106</v>
+      </c>
+      <c r="X131" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>3107</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>3108</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>3109</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>3110</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>3111</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>3112</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>3113</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO131" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ131" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS131" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>3114</v>
+      </c>
+      <c r="AV131" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AW131" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX131" t="s">
+        <v>3115</v>
+      </c>
+      <c r="AY131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ131" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA131" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
+      <c r="B132" s="2">
+        <v>44774</v>
+      </c>
       <c r="C132" t="s">
         <v>54</v>
       </c>
+      <c r="D132" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
       <c r="G132" t="s">
         <v>2656</v>
       </c>
+      <c r="H132" t="s">
+        <v>369</v>
+      </c>
+      <c r="I132" t="s">
+        <v>98</v>
+      </c>
+      <c r="J132" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K132" t="s">
+        <v>3116</v>
+      </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
+      <c r="B133" s="2">
+        <v>44774</v>
+      </c>
       <c r="C133" t="s">
         <v>54</v>
       </c>
+      <c r="D133" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
       <c r="G133" t="s">
         <v>2657</v>
       </c>
+      <c r="H133" t="s">
+        <v>369</v>
+      </c>
+      <c r="I133" t="s">
+        <v>98</v>
+      </c>
+      <c r="J133" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K133" t="s">
+        <v>3117</v>
+      </c>
+      <c r="L133" t="s">
+        <v>3118</v>
+      </c>
+      <c r="M133">
+        <v>999</v>
+      </c>
+      <c r="N133" t="s">
+        <v>560</v>
+      </c>
+      <c r="O133" t="s">
+        <v>61</v>
+      </c>
+      <c r="P133" t="s">
+        <v>3119</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>3118</v>
+      </c>
+      <c r="R133">
+        <v>999</v>
+      </c>
+      <c r="S133">
+        <v>999</v>
+      </c>
+      <c r="T133" t="s">
+        <v>179</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="V133" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W133" t="s">
+        <v>896</v>
+      </c>
+      <c r="X133" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>3121</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>2778</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>3123</v>
+      </c>
+      <c r="AH133" t="s">
+        <v>3124</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>3125</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL133" t="s">
+        <v>3126</v>
+      </c>
+      <c r="AM133" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN133" t="s">
+        <v>3127</v>
+      </c>
+      <c r="AO133" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AP133" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR133" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS133" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AT133" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU133" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV133" t="s">
+        <v>3129</v>
+      </c>
+      <c r="AW133" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX133" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY133" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ133" t="s">
+        <v>1896</v>
+      </c>
+      <c r="BA133" s="1" t="s">
+        <v>3130</v>
+      </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
+      <c r="B134" s="2">
+        <v>44774</v>
+      </c>
       <c r="C134" t="s">
         <v>54</v>
       </c>
+      <c r="D134" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>11</v>
+      </c>
       <c r="G134" t="s">
         <v>2658</v>
       </c>
+      <c r="H134" t="s">
+        <v>213</v>
+      </c>
+      <c r="I134" t="s">
+        <v>98</v>
+      </c>
+      <c r="J134" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K134" t="s">
+        <v>3131</v>
+      </c>
+      <c r="L134" t="s">
+        <v>3118</v>
+      </c>
+      <c r="M134">
+        <v>999</v>
+      </c>
+      <c r="N134" t="s">
+        <v>60</v>
+      </c>
+      <c r="O134" t="s">
+        <v>3132</v>
+      </c>
+      <c r="P134" t="s">
+        <v>3133</v>
+      </c>
+      <c r="Q134">
+        <v>999</v>
+      </c>
+      <c r="R134">
+        <v>999</v>
+      </c>
+      <c r="S134">
+        <v>999</v>
+      </c>
+      <c r="T134" t="s">
+        <v>179</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="V134" t="s">
+        <v>723</v>
+      </c>
+      <c r="W134" t="s">
+        <v>427</v>
+      </c>
+      <c r="X134" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>3135</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>2805</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>3137</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>3138</v>
+      </c>
+      <c r="AN134" t="s">
+        <v>733</v>
+      </c>
+      <c r="AO134" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>2791</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS134" t="s">
+        <v>3139</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>3140</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX134" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY134" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ134" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA134" s="1" t="s">
+        <v>3141</v>
+      </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
+      <c r="B135" s="2">
+        <v>44774</v>
+      </c>
       <c r="C135" t="s">
         <v>54</v>
       </c>
+      <c r="D135" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>12</v>
+      </c>
       <c r="G135" t="s">
         <v>2659</v>
       </c>
+      <c r="H135" t="s">
+        <v>369</v>
+      </c>
+      <c r="I135" t="s">
+        <v>98</v>
+      </c>
+      <c r="J135" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K135" t="s">
+        <v>3142</v>
+      </c>
+      <c r="L135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="M135">
+        <v>999</v>
+      </c>
+      <c r="N135" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O135" t="s">
+        <v>3144</v>
+      </c>
+      <c r="P135" t="s">
+        <v>3145</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>3146</v>
+      </c>
+      <c r="R135">
+        <v>999</v>
+      </c>
+      <c r="S135" t="s">
+        <v>3147</v>
+      </c>
+      <c r="T135" t="s">
+        <v>245</v>
+      </c>
+      <c r="U135" s="1">
+        <v>999</v>
+      </c>
+      <c r="V135" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W135" t="s">
+        <v>896</v>
+      </c>
+      <c r="X135" t="s">
+        <v>923</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>3148</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>3151</v>
+      </c>
+      <c r="AH135" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>902</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>903</v>
+      </c>
+      <c r="AL135" t="s">
+        <v>2942</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AN135" t="s">
+        <v>3153</v>
+      </c>
+      <c r="AO135" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP135" t="s">
+        <v>467</v>
+      </c>
+      <c r="AQ135" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR135" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS135" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AT135" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AU135" t="s">
+        <v>2944</v>
+      </c>
+      <c r="AV135" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AW135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="AX135" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY135" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ135" t="s">
+        <v>1896</v>
+      </c>
+      <c r="BA135" s="1" t="s">
+        <v>2946</v>
+      </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
+      <c r="B136" s="2">
+        <v>44774</v>
+      </c>
       <c r="C136" t="s">
         <v>54</v>
       </c>
+      <c r="D136" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>13</v>
+      </c>
       <c r="G136" t="s">
         <v>2660</v>
       </c>
+      <c r="H136" t="s">
+        <v>369</v>
+      </c>
+      <c r="I136" t="s">
+        <v>98</v>
+      </c>
+      <c r="J136" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K136" t="s">
+        <v>3156</v>
+      </c>
+      <c r="L136" t="s">
+        <v>3158</v>
+      </c>
+      <c r="M136">
+        <v>999</v>
+      </c>
+      <c r="N136" t="s">
+        <v>3157</v>
+      </c>
+      <c r="O136">
+        <v>999</v>
+      </c>
+      <c r="P136">
+        <v>999</v>
+      </c>
+      <c r="Q136">
+        <v>999</v>
+      </c>
+      <c r="R136">
+        <v>999</v>
+      </c>
+      <c r="S136">
+        <v>999</v>
+      </c>
+      <c r="T136">
+        <v>999</v>
+      </c>
+      <c r="U136" s="1">
+        <v>999</v>
+      </c>
+      <c r="V136" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W136" t="s">
+        <v>2064</v>
+      </c>
+      <c r="X136" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>3159</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>3160</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>3161</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>3162</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>3163</v>
+      </c>
+      <c r="AK136" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>3164</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>3022</v>
+      </c>
+      <c r="AN136" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AO136" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP136" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ136" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AR136" t="s">
+        <v>3165</v>
+      </c>
+      <c r="AS136" t="s">
+        <v>3166</v>
+      </c>
+      <c r="AT136" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU136" t="s">
+        <v>3167</v>
+      </c>
+      <c r="AV136" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AW136" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX136" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY136" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ136" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA136" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
+      <c r="B137" s="2">
+        <v>44774</v>
+      </c>
       <c r="C137" t="s">
         <v>54</v>
       </c>
+      <c r="D137" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
       <c r="G137" t="s">
         <v>2661</v>
       </c>
+      <c r="H137" t="s">
+        <v>97</v>
+      </c>
+      <c r="I137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J137" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K137" t="s">
+        <v>3169</v>
+      </c>
+      <c r="L137" t="s">
+        <v>3170</v>
+      </c>
+      <c r="M137">
+        <v>999</v>
+      </c>
+      <c r="N137" t="s">
+        <v>60</v>
+      </c>
+      <c r="O137" t="s">
+        <v>2932</v>
+      </c>
+      <c r="P137" t="s">
+        <v>3171</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>3172</v>
+      </c>
+      <c r="R137">
+        <v>999</v>
+      </c>
+      <c r="S137" t="s">
+        <v>3173</v>
+      </c>
+      <c r="T137" t="s">
+        <v>142</v>
+      </c>
+      <c r="U137" s="1">
+        <v>999</v>
+      </c>
+      <c r="V137" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W137" t="s">
+        <v>66</v>
+      </c>
+      <c r="X137" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>1973</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA137">
+        <v>999</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD137" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AE137">
+        <v>999</v>
+      </c>
+      <c r="AF137" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AJ137" t="s">
+        <v>3176</v>
+      </c>
+      <c r="AK137" t="s">
+        <v>2925</v>
+      </c>
+      <c r="AL137" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AM137" t="s">
+        <v>3177</v>
+      </c>
+      <c r="AN137" t="s">
+        <v>733</v>
+      </c>
+      <c r="AO137" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP137" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ137" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AR137" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS137" t="s">
+        <v>888</v>
+      </c>
+      <c r="AT137" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AU137" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV137" t="s">
+        <v>445</v>
+      </c>
+      <c r="AW137" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX137" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AY137" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ137" t="s">
+        <v>3168</v>
+      </c>
+      <c r="BA137" s="1" t="s">
+        <v>3180</v>
+      </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="B138" s="2">
+        <v>44774</v>
+      </c>
       <c r="C138" t="s">
         <v>54</v>
       </c>
+      <c r="D138" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E138">
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
       <c r="G138" t="s">
         <v>2662</v>
       </c>
+      <c r="H138" t="s">
+        <v>213</v>
+      </c>
+      <c r="I138" t="s">
+        <v>500</v>
+      </c>
+      <c r="J138" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K138" t="s">
+        <v>3181</v>
+      </c>
+      <c r="L138" t="s">
+        <v>3182</v>
+      </c>
+      <c r="M138">
+        <v>999</v>
+      </c>
+      <c r="N138" t="s">
+        <v>560</v>
+      </c>
+      <c r="O138">
+        <v>999</v>
+      </c>
+      <c r="P138" t="s">
+        <v>3183</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>1201</v>
+      </c>
+      <c r="R138">
+        <v>999</v>
+      </c>
+      <c r="S138" t="s">
+        <v>103</v>
+      </c>
+      <c r="T138" t="s">
+        <v>245</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="V138" t="s">
+        <v>3185</v>
+      </c>
+      <c r="W138" t="s">
+        <v>182</v>
+      </c>
+      <c r="X138" t="s">
+        <v>3186</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>3187</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG138" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>3189</v>
+      </c>
+      <c r="AJ138" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK138" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL138" t="s">
+        <v>732</v>
+      </c>
+      <c r="AM138" t="s">
+        <v>3190</v>
+      </c>
+      <c r="AN138" t="s">
+        <v>971</v>
+      </c>
+      <c r="AO138" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP138" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ138" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AR138" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS138" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AT138" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU138" t="s">
+        <v>3191</v>
+      </c>
+      <c r="AV138" t="s">
+        <v>3025</v>
+      </c>
+      <c r="AW138" t="s">
+        <v>3192</v>
+      </c>
+      <c r="AX138" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY138" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ138" t="s">
+        <v>3029</v>
+      </c>
+      <c r="BA138" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
+      <c r="B139" s="2">
+        <v>44779</v>
+      </c>
       <c r="C139" t="s">
         <v>54</v>
       </c>
+      <c r="D139" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E139">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
       <c r="G139" t="s">
         <v>2663</v>
       </c>
+      <c r="H139" t="s">
+        <v>97</v>
+      </c>
+      <c r="I139" t="s">
+        <v>567</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>3193</v>
+      </c>
+      <c r="L139" t="s">
+        <v>3194</v>
+      </c>
+      <c r="M139">
+        <v>999</v>
+      </c>
+      <c r="N139" t="s">
+        <v>560</v>
+      </c>
+      <c r="O139" t="s">
+        <v>61</v>
+      </c>
+      <c r="P139" t="s">
+        <v>3195</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>3196</v>
+      </c>
+      <c r="R139">
+        <v>999</v>
+      </c>
+      <c r="S139">
+        <v>999</v>
+      </c>
+      <c r="T139" t="s">
+        <v>142</v>
+      </c>
+      <c r="U139" s="1">
+        <v>999</v>
+      </c>
+      <c r="V139" t="s">
+        <v>3197</v>
+      </c>
+      <c r="W139" t="s">
+        <v>896</v>
+      </c>
+      <c r="X139" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>3198</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AF139" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>3199</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>3200</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ139" t="s">
+        <v>3201</v>
+      </c>
+      <c r="AK139" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL139" t="s">
+        <v>2807</v>
+      </c>
+      <c r="AM139" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="AO139" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP139" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AQ139" t="s">
+        <v>468</v>
+      </c>
+      <c r="AR139" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS139" t="s">
+        <v>3203</v>
+      </c>
+      <c r="AT139" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU139" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AV139" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AW139" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX139" t="s">
+        <v>3204</v>
+      </c>
+      <c r="AY139" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ139" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA139" s="1" t="s">
+        <v>3205</v>
+      </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
+      <c r="B140" s="2">
+        <v>44779</v>
+      </c>
       <c r="C140" t="s">
         <v>54</v>
       </c>
+      <c r="D140" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
       <c r="G140" t="s">
         <v>2664</v>
       </c>
+      <c r="H140" t="s">
+        <v>213</v>
+      </c>
+      <c r="I140" t="s">
+        <v>500</v>
+      </c>
+      <c r="J140" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K140" t="s">
+        <v>3193</v>
+      </c>
+      <c r="L140" t="s">
+        <v>3207</v>
+      </c>
+      <c r="M140">
+        <v>999</v>
+      </c>
+      <c r="N140" t="s">
+        <v>3208</v>
+      </c>
+      <c r="O140">
+        <v>999</v>
+      </c>
+      <c r="P140">
+        <v>999</v>
+      </c>
+      <c r="Q140">
+        <v>999</v>
+      </c>
+      <c r="R140">
+        <v>999</v>
+      </c>
+      <c r="S140">
+        <v>999</v>
+      </c>
+      <c r="T140">
+        <v>999</v>
+      </c>
+      <c r="U140" s="1">
+        <v>999</v>
+      </c>
+      <c r="V140" t="s">
+        <v>3011</v>
+      </c>
+      <c r="W140" t="s">
+        <v>2952</v>
+      </c>
+      <c r="X140" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>3210</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>3211</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>3212</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>3213</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>3111</v>
+      </c>
+      <c r="AK140" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>3214</v>
+      </c>
+      <c r="AM140" t="s">
+        <v>2957</v>
+      </c>
+      <c r="AN140" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO140" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP140" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ140" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR140" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS140" t="s">
+        <v>3215</v>
+      </c>
+      <c r="AT140" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU140" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV140" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AW140" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX140" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY140" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ140" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA140" s="1" t="s">
+        <v>3071</v>
+      </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
+      <c r="B141" s="2">
+        <v>44779</v>
+      </c>
       <c r="C141" t="s">
         <v>54</v>
       </c>
+      <c r="D141" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E141">
+        <v>11</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
       <c r="G141" t="s">
         <v>2665</v>
       </c>
+      <c r="H141" t="s">
+        <v>97</v>
+      </c>
+      <c r="I141" t="s">
+        <v>500</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K141" t="s">
+        <v>3216</v>
+      </c>
+      <c r="L141" t="s">
+        <v>3217</v>
+      </c>
+      <c r="M141">
+        <v>999</v>
+      </c>
+      <c r="N141" t="s">
+        <v>560</v>
+      </c>
+      <c r="O141" t="s">
+        <v>61</v>
+      </c>
+      <c r="P141" t="s">
+        <v>3218</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>3219</v>
+      </c>
+      <c r="R141">
+        <v>999</v>
+      </c>
+      <c r="S141">
+        <v>999</v>
+      </c>
+      <c r="T141" t="s">
+        <v>142</v>
+      </c>
+      <c r="U141" s="1">
+        <v>999</v>
+      </c>
+      <c r="V141" t="s">
+        <v>3220</v>
+      </c>
+      <c r="W141" t="s">
+        <v>896</v>
+      </c>
+      <c r="X141" t="s">
+        <v>3221</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>3222</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>3223</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>3227</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>2889</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>3228</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>3229</v>
+      </c>
+      <c r="AL141" t="s">
+        <v>2807</v>
+      </c>
+      <c r="AM141" t="s">
+        <v>2808</v>
+      </c>
+      <c r="AN141" t="s">
+        <v>3230</v>
+      </c>
+      <c r="AO141" t="s">
+        <v>3231</v>
+      </c>
+      <c r="AP141" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ141" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR141" t="s">
+        <v>2770</v>
+      </c>
+      <c r="AS141" t="s">
+        <v>3203</v>
+      </c>
+      <c r="AT141" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU141" t="s">
+        <v>3232</v>
+      </c>
+      <c r="AV141" t="s">
+        <v>3233</v>
+      </c>
+      <c r="AW141" t="s">
+        <v>3234</v>
+      </c>
+      <c r="AX141" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY141" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AZ141" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BA141" s="1" t="s">
+        <v>659</v>
+      </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="B142" s="2">
+        <v>44779</v>
+      </c>
       <c r="C142" t="s">
         <v>54</v>
       </c>
+      <c r="D142" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E142">
+        <v>11</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
       <c r="G142" t="s">
         <v>2666</v>
       </c>
+      <c r="H142" t="s">
+        <v>213</v>
+      </c>
+      <c r="I142" t="s">
+        <v>500</v>
+      </c>
+      <c r="J142" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K142" t="s">
+        <v>3235</v>
+      </c>
+      <c r="L142" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M142">
+        <v>999</v>
+      </c>
+      <c r="N142" t="s">
+        <v>560</v>
+      </c>
+      <c r="O142" t="s">
+        <v>61</v>
+      </c>
+      <c r="P142" t="s">
+        <v>3237</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>3088</v>
+      </c>
+      <c r="R142">
+        <v>999</v>
+      </c>
+      <c r="S142" t="s">
+        <v>3238</v>
+      </c>
+      <c r="T142" t="s">
+        <v>245</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="V142" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W142" s="12" t="s">
+        <v>3240</v>
+      </c>
+      <c r="X142" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y142" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z142" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA142" s="12" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AB142" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC142" s="12" t="s">
+        <v>3242</v>
+      </c>
+      <c r="AD142" s="12" t="s">
+        <v>3243</v>
+      </c>
+      <c r="AE142" s="12" t="s">
+        <v>3244</v>
+      </c>
+      <c r="AF142" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG142" s="12" t="s">
+        <v>3245</v>
+      </c>
+      <c r="AH142" s="12" t="s">
+        <v>3124</v>
+      </c>
+      <c r="AI142" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ142" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK142" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL142" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="AM142" s="12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AN142" s="12" t="s">
+        <v>3246</v>
+      </c>
+      <c r="AO142" s="12" t="s">
+        <v>3247</v>
+      </c>
+      <c r="AP142" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ142" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR142" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS142" s="12" t="s">
+        <v>3248</v>
+      </c>
+      <c r="AT142" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU142" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="AV142" s="12" t="s">
+        <v>3250</v>
+      </c>
+      <c r="AW142" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX142" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY142" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ142" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BA142" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
+      <c r="B143" s="2">
+        <v>44779</v>
+      </c>
       <c r="C143" t="s">
         <v>54</v>
       </c>
+      <c r="D143" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E143">
+        <v>11</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
       <c r="G143" t="s">
         <v>2667</v>
       </c>
+      <c r="H143" t="s">
+        <v>213</v>
+      </c>
+      <c r="I143" t="s">
+        <v>567</v>
+      </c>
+      <c r="J143" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K143" t="s">
+        <v>3251</v>
+      </c>
+      <c r="L143" t="s">
+        <v>3252</v>
+      </c>
+      <c r="M143">
+        <v>999</v>
+      </c>
+      <c r="N143" t="s">
+        <v>3253</v>
+      </c>
+      <c r="O143" t="s">
+        <v>61</v>
+      </c>
+      <c r="P143" t="s">
+        <v>3254</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>551</v>
+      </c>
+      <c r="R143">
+        <v>999</v>
+      </c>
+      <c r="S143">
+        <v>999</v>
+      </c>
+      <c r="T143" t="s">
+        <v>3255</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="V143" s="12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="W143" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="X143" s="12" t="s">
+        <v>3257</v>
+      </c>
+      <c r="Y143" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z143" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA143" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="AB143" s="12" t="s">
+        <v>3258</v>
+      </c>
+      <c r="AC143" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD143" s="12" t="s">
+        <v>3259</v>
+      </c>
+      <c r="AE143" s="12" t="s">
+        <v>3260</v>
+      </c>
+      <c r="AF143" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG143" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH143" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI143" s="12" t="s">
+        <v>3261</v>
+      </c>
+      <c r="AJ143" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK143" s="12" t="s">
+        <v>3262</v>
+      </c>
+      <c r="AL143" s="12" t="s">
+        <v>3263</v>
+      </c>
+      <c r="AM143" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN143" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO143" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP143" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ143" s="12" t="s">
+        <v>3264</v>
+      </c>
+      <c r="AR143" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS143" s="12" t="s">
+        <v>3265</v>
+      </c>
+      <c r="AT143" s="12" t="s">
+        <v>3266</v>
+      </c>
+      <c r="AU143" s="12" t="s">
+        <v>3267</v>
+      </c>
+      <c r="AV143" s="12" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AW143" s="12" t="s">
+        <v>3269</v>
+      </c>
+      <c r="AX143" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY143" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ143" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA143" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
+      <c r="B144" s="2">
+        <v>44779</v>
+      </c>
       <c r="C144" t="s">
         <v>54</v>
       </c>
+      <c r="D144" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E144">
+        <v>11</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
       <c r="G144" t="s">
         <v>2668</v>
       </c>
+      <c r="H144" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" t="s">
+        <v>567</v>
+      </c>
+      <c r="J144" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K144" t="s">
+        <v>3270</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3271</v>
+      </c>
+      <c r="M144">
+        <v>999</v>
+      </c>
+      <c r="N144" t="s">
+        <v>560</v>
+      </c>
+      <c r="O144" t="s">
+        <v>549</v>
+      </c>
+      <c r="P144" t="s">
+        <v>3272</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>3273</v>
+      </c>
+      <c r="R144">
+        <v>999</v>
+      </c>
+      <c r="S144" t="s">
+        <v>3274</v>
+      </c>
+      <c r="T144" t="s">
+        <v>245</v>
+      </c>
+      <c r="U144" s="1">
+        <v>999</v>
+      </c>
+      <c r="V144" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W144" s="12" t="s">
+        <v>3275</v>
+      </c>
+      <c r="X144" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y144" s="12" t="s">
+        <v>3276</v>
+      </c>
+      <c r="Z144" s="12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA144" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB144" s="12" t="s">
+        <v>3277</v>
+      </c>
+      <c r="AC144" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD144" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE144" s="12" t="s">
+        <v>3278</v>
+      </c>
+      <c r="AF144" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG144" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AH144" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI144" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ144" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK144" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL144" s="12" t="s">
+        <v>3279</v>
+      </c>
+      <c r="AM144" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN144" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO144" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AP144" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ144" s="12" t="s">
+        <v>3280</v>
+      </c>
+      <c r="AR144" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS144" s="12" t="s">
+        <v>3281</v>
+      </c>
+      <c r="AT144" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU144" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV144" s="12" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AW144" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX144" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY144" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AZ144" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA144" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
+      <c r="B145" s="2">
+        <v>44779</v>
+      </c>
       <c r="C145" t="s">
         <v>54</v>
       </c>
+      <c r="D145" t="s">
+        <v>2917</v>
+      </c>
       <c r="G145" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
+      <c r="B146" s="2">
+        <v>44779</v>
+      </c>
       <c r="C146" t="s">
         <v>54</v>
       </c>
+      <c r="D146" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E146">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>8</v>
+      </c>
       <c r="G146" t="s">
         <v>2670</v>
       </c>
+      <c r="H146" t="s">
+        <v>213</v>
+      </c>
+      <c r="I146" t="s">
+        <v>500</v>
+      </c>
+      <c r="J146" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K146" t="s">
+        <v>3284</v>
+      </c>
+      <c r="L146" t="s">
+        <v>3285</v>
+      </c>
+      <c r="M146">
+        <v>999</v>
+      </c>
+      <c r="N146" t="s">
+        <v>3286</v>
+      </c>
+      <c r="O146" t="s">
+        <v>61</v>
+      </c>
+      <c r="P146" t="s">
+        <v>3287</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>3288</v>
+      </c>
+      <c r="R146" t="s">
+        <v>3206</v>
+      </c>
+      <c r="S146">
+        <v>999</v>
+      </c>
+      <c r="T146" t="s">
+        <v>142</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="V146" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W146" s="12" t="s">
+        <v>2125</v>
+      </c>
+      <c r="X146" s="12" t="s">
+        <v>3290</v>
+      </c>
+      <c r="Y146" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z146" s="12" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AA146" s="12" t="s">
+        <v>3292</v>
+      </c>
+      <c r="AB146" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AC146" s="12" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AD146" s="12" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AE146" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF146" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG146" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AH146" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI146" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AJ146" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK146" s="12" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AL146" s="12" t="s">
+        <v>3295</v>
+      </c>
+      <c r="AM146" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AN146" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO146" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AP146" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AQ146" s="12" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AR146" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS146" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AT146" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU146" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV146" s="12" t="s">
+        <v>3296</v>
+      </c>
+      <c r="AW146" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX146" s="12" t="s">
+        <v>3297</v>
+      </c>
+      <c r="AY146" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ146" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA146" s="1" t="s">
+        <v>1027</v>
+      </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
+      <c r="B147" s="2">
+        <v>44779</v>
+      </c>
       <c r="C147" t="s">
         <v>54</v>
       </c>
+      <c r="D147" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E147">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>9</v>
+      </c>
       <c r="G147" t="s">
         <v>2671</v>
       </c>
+      <c r="H147" t="s">
+        <v>213</v>
+      </c>
+      <c r="I147" t="s">
+        <v>500</v>
+      </c>
+      <c r="J147" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K147" t="s">
+        <v>3298</v>
+      </c>
+      <c r="L147" t="s">
+        <v>3299</v>
+      </c>
+      <c r="M147">
+        <v>999</v>
+      </c>
+      <c r="N147" t="s">
+        <v>560</v>
+      </c>
+      <c r="O147" t="s">
+        <v>61</v>
+      </c>
+      <c r="P147" t="s">
+        <v>3300</v>
+      </c>
+      <c r="AZ147" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="B148" s="2">
+        <v>44779</v>
+      </c>
       <c r="C148" t="s">
         <v>54</v>
       </c>
+      <c r="D148" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E148">
+        <v>11</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
       <c r="G148" t="s">
         <v>2672</v>
       </c>
+      <c r="H148" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" t="s">
+        <v>567</v>
+      </c>
+      <c r="J148" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K148" t="s">
+        <v>3301</v>
+      </c>
+      <c r="L148" t="s">
+        <v>3302</v>
+      </c>
+      <c r="M148">
+        <v>999</v>
+      </c>
+      <c r="N148" t="s">
+        <v>560</v>
+      </c>
+      <c r="O148" t="s">
+        <v>61</v>
+      </c>
+      <c r="P148" t="s">
+        <v>3303</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>3304</v>
+      </c>
+      <c r="R148" t="s">
+        <v>3305</v>
+      </c>
+      <c r="S148" t="s">
+        <v>3306</v>
+      </c>
+      <c r="T148" t="s">
+        <v>245</v>
+      </c>
+      <c r="U148" s="1">
+        <v>999</v>
+      </c>
+      <c r="V148" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="W148" s="12" t="s">
+        <v>3307</v>
+      </c>
+      <c r="X148" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y148" s="12" t="s">
+        <v>3308</v>
+      </c>
+      <c r="Z148" s="12" t="s">
+        <v>3309</v>
+      </c>
+      <c r="AA148" s="12" t="s">
+        <v>3310</v>
+      </c>
+      <c r="AB148" s="12" t="s">
+        <v>3311</v>
+      </c>
+      <c r="AC148" s="12" t="s">
+        <v>3312</v>
+      </c>
+      <c r="AD148" s="12" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AE148" s="12" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AF148" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG148" s="12" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AH148" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI148" s="12" t="s">
+        <v>3316</v>
+      </c>
+      <c r="AJ148" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK148" s="12" t="s">
+        <v>3317</v>
+      </c>
+      <c r="AL148" s="12" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AM148" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN148" s="12" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AO148" s="12" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AP148" s="12" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AQ148" s="12" t="s">
+        <v>3322</v>
+      </c>
+      <c r="AR148" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS148" s="12" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AT148" s="12" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AU148" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV148" s="12" t="s">
+        <v>3324</v>
+      </c>
+      <c r="AW148" s="12" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AX148" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY148" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ148" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA148" s="1" t="s">
+        <v>3326</v>
+      </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
+      <c r="B149" s="2">
+        <v>44779</v>
+      </c>
       <c r="C149" t="s">
         <v>54</v>
       </c>
@@ -31652,10 +34822,13 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="B150" s="2">
+        <v>44779</v>
+      </c>
       <c r="C150" t="s">
         <v>54</v>
       </c>
@@ -31663,7 +34836,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -31674,7 +34847,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -31685,7 +34858,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -31696,7 +34869,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -31707,7 +34880,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -31718,7 +34891,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -31729,7 +34902,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -31740,7 +34913,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -31751,7 +34924,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -31762,7 +34935,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -32622,10 +35795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32633,36 +35806,26 @@
     <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.81527777777777777</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2949</v>
-      </c>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3032</v>
-      </c>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0.90277777777777779</v>
-      </c>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D31A78-5F23-4A0E-8902-D312B9EFFF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A113DFED-0AD3-4B35-8140-32F4AF483726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="12240" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="216" yWindow="0" windowWidth="13932" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6670" uniqueCount="3327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7023" uniqueCount="3493">
   <si>
     <t>ID</t>
   </si>
@@ -11098,6 +11098,525 @@
   <si>
     <t>Schwegertocht[ö]</t>
   </si>
+  <si>
+    <t>t-w</t>
+  </si>
+  <si>
+    <t>Habsheim</t>
+  </si>
+  <si>
+    <t>Leo Reitzer</t>
+  </si>
+  <si>
+    <t>Moosch</t>
+  </si>
+  <si>
+    <t>Agrschta (w) &lt;Agrsta&gt;</t>
+  </si>
+  <si>
+    <t>Ratsch (m) &lt;Anta&gt;</t>
+  </si>
+  <si>
+    <t>Gagumra (w)</t>
+  </si>
+  <si>
+    <t>Gugl (m), Hühan (w)</t>
+  </si>
+  <si>
+    <t>Hard[ä]pfel (m)</t>
+  </si>
+  <si>
+    <t>Rüawa (w)</t>
+  </si>
+  <si>
+    <t>RIama (m)</t>
+  </si>
+  <si>
+    <t>Stachelbeera (m)</t>
+  </si>
+  <si>
+    <t>Stochnodl (m)</t>
+  </si>
+  <si>
+    <t>Stricknodl (w)</t>
+  </si>
+  <si>
+    <t>&lt;ā: dumpfes a&gt; {nächstes kommentar durchgestrichen:} &lt;e am Ende eines Wortes ähnelt einem a&gt;</t>
+  </si>
+  <si>
+    <t>t-x</t>
+  </si>
+  <si>
+    <t>Kembs</t>
+  </si>
+  <si>
+    <t>Roos Karl</t>
+  </si>
+  <si>
+    <t>St. Ludwig</t>
+  </si>
+  <si>
+    <t>Spricht den hiesigen Dialekt</t>
+  </si>
+  <si>
+    <t>roti Omeisa (w)</t>
+  </si>
+  <si>
+    <t>Begräbnis (s) &lt;auch Licht (w)&gt;</t>
+  </si>
+  <si>
+    <t>Brumbeeri, Bromala (s)</t>
+  </si>
+  <si>
+    <t>Dissl (m)</t>
+  </si>
+  <si>
+    <t>Agarsta (w) &lt;st.sch&gt;</t>
+  </si>
+  <si>
+    <t>Gagūmara (w)</t>
+  </si>
+  <si>
+    <t>Gugl, Hüehn</t>
+  </si>
+  <si>
+    <t>Hebāmm</t>
+  </si>
+  <si>
+    <t>Hardäpfel &lt;Har-däpfel&gt;</t>
+  </si>
+  <si>
+    <t>Galriaba (w)</t>
+  </si>
+  <si>
+    <t>Spàtz (m)</t>
+  </si>
+  <si>
+    <t>Chrüsele (s)</t>
+  </si>
+  <si>
+    <t>Schessele (s)</t>
+  </si>
+  <si>
+    <t>H[à]fa (m) {könnte auch ā sein}</t>
+  </si>
+  <si>
+    <t>Kleinlanden</t>
+  </si>
+  <si>
+    <t>Beck Moritz</t>
+  </si>
+  <si>
+    <t>Ehmt (m)</t>
+  </si>
+  <si>
+    <t>Hagebutta (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m)</t>
+  </si>
+  <si>
+    <t>Hebam (w)</t>
+  </si>
+  <si>
+    <t>Rossgalrieba (w)</t>
+  </si>
+  <si>
+    <t>Geisla (w)</t>
+  </si>
+  <si>
+    <t>Nodla (w)</t>
+  </si>
+  <si>
+    <t>Tassle (s)</t>
+  </si>
+  <si>
+    <t>Suhnsfräui (w)</t>
+  </si>
+  <si>
+    <t>Holdară</t>
+  </si>
+  <si>
+    <t>t-y</t>
+  </si>
+  <si>
+    <t>Niffer</t>
+  </si>
+  <si>
+    <t>Mülhausen &lt;E&gt;</t>
+  </si>
+  <si>
+    <t>[K]. [A]chmann</t>
+  </si>
+  <si>
+    <t>Gutach</t>
+  </si>
+  <si>
+    <t>[A]chmann</t>
+  </si>
+  <si>
+    <t>Omeise &gt;O mit klang nach [u]&gt;</t>
+  </si>
+  <si>
+    <t>Liicha</t>
+  </si>
+  <si>
+    <t>Brumb[a]ri</t>
+  </si>
+  <si>
+    <t>Dischla</t>
+  </si>
+  <si>
+    <t>Agrschde</t>
+  </si>
+  <si>
+    <t>Flaadrmüs</t>
+  </si>
+  <si>
+    <t>Äimd &lt;a nach i&gt;</t>
+  </si>
+  <si>
+    <t>Gogumm[e]re &lt;offenes o&gt;</t>
+  </si>
+  <si>
+    <t>Heibamm</t>
+  </si>
+  <si>
+    <t>Barä &lt;vom Franz.&gt;</t>
+  </si>
+  <si>
+    <t>Gaisla</t>
+  </si>
+  <si>
+    <t>Chrüsali</t>
+  </si>
+  <si>
+    <t>Schdreckn[?]odla</t>
+  </si>
+  <si>
+    <t>Schessale</t>
+  </si>
+  <si>
+    <t>Hofe &lt;offenes o&gt;</t>
+  </si>
+  <si>
+    <t>Schwegrdochdr</t>
+  </si>
+  <si>
+    <t>t-B/[?]</t>
+  </si>
+  <si>
+    <t>Bamblach</t>
+  </si>
+  <si>
+    <t>u. Rheinweiler</t>
+  </si>
+  <si>
+    <t>F. Sigmund, Hauptl.</t>
+  </si>
+  <si>
+    <t>Birkendorf</t>
+  </si>
+  <si>
+    <t>F. Sigmund</t>
+  </si>
+  <si>
+    <r>
+      <t>Br</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>melle</t>
+    </r>
+  </si>
+  <si>
+    <t>Die[g]sle</t>
+  </si>
+  <si>
+    <t>Ägeste</t>
+  </si>
+  <si>
+    <t>Goggel, Huhn</t>
+  </si>
+  <si>
+    <t>Mŭlwŭrf</t>
+  </si>
+  <si>
+    <t>Mohrrüeben</t>
+  </si>
+  <si>
+    <t>Mo&lt;u&gt;r</t>
+  </si>
+  <si>
+    <t>Brunollen</t>
+  </si>
+  <si>
+    <t>Chriselbeeri</t>
+  </si>
+  <si>
+    <t>Geise</t>
+  </si>
+  <si>
+    <t>t-Q</t>
+  </si>
+  <si>
+    <t>Kandern</t>
+  </si>
+  <si>
+    <t>M[??]lm[e]r Schilling</t>
+  </si>
+  <si>
+    <t>Ba[p??]</t>
+  </si>
+  <si>
+    <t>&lt;Alemanne&gt;</t>
+  </si>
+  <si>
+    <t>t-[L]</t>
+  </si>
+  <si>
+    <t>Bellingen</t>
+  </si>
+  <si>
+    <t>M. Mildpre[ts]</t>
+  </si>
+  <si>
+    <t>Freiburg i. Breisgau</t>
+  </si>
+  <si>
+    <t>S, A</t>
+  </si>
+  <si>
+    <t>Brumbell[ä] (w)</t>
+  </si>
+  <si>
+    <t>Dishtel (m)</t>
+  </si>
+  <si>
+    <t>Liih[d] (w)</t>
+  </si>
+  <si>
+    <t>[M]ig[s]i (m)</t>
+  </si>
+  <si>
+    <t>End[ä]</t>
+  </si>
+  <si>
+    <t>Muge (w)</t>
+  </si>
+  <si>
+    <t>Gugumeer (w)</t>
+  </si>
+  <si>
+    <t>Hagebutte (w) &lt;butte (w)&gt;</t>
+  </si>
+  <si>
+    <t>Gu[h]ler (m), Huen (s)</t>
+  </si>
+  <si>
+    <t>Härtepfel (m)</t>
+  </si>
+  <si>
+    <t>Mulwurf (m), Schär</t>
+  </si>
+  <si>
+    <t>Galeribe (w)</t>
+  </si>
+  <si>
+    <t>Geislä (w)</t>
+  </si>
+  <si>
+    <t>ufbigäre</t>
+  </si>
+  <si>
+    <t>Griselbeere (w)</t>
+  </si>
+  <si>
+    <t>Stri[c]knodel (w)</t>
+  </si>
+  <si>
+    <t>Schisseli, tallerli (s)</t>
+  </si>
+  <si>
+    <t>zwiegä</t>
+  </si>
+  <si>
+    <t>Holdere (s', w)</t>
+  </si>
+  <si>
+    <t>t-[D]</t>
+  </si>
+  <si>
+    <t>Hertingen</t>
+  </si>
+  <si>
+    <t>[?]ā[r]ly</t>
+  </si>
+  <si>
+    <t>Greuzach</t>
+  </si>
+  <si>
+    <t>u [?].ferede Kāhl</t>
+  </si>
+  <si>
+    <t>Omeise (s', w)</t>
+  </si>
+  <si>
+    <t>Liicht ([s]', w)</t>
+  </si>
+  <si>
+    <t>Brumbeeri (d', w)</t>
+  </si>
+  <si>
+    <t>Die[]le (d', w)</t>
+  </si>
+  <si>
+    <t>Ägerschte (d', w)</t>
+  </si>
+  <si>
+    <t>Flädermuss (d', w)</t>
+  </si>
+  <si>
+    <t>Schtuebefliege (d', w)</t>
+  </si>
+  <si>
+    <t>[Eh]md (s')</t>
+  </si>
+  <si>
+    <t>gougoumere (d', w)</t>
+  </si>
+  <si>
+    <t>B[?]udeer (d', w)</t>
+  </si>
+  <si>
+    <t>Gougel (d', m) Huehn ('s, s)</t>
+  </si>
+  <si>
+    <t>Hebamm (s', w)</t>
+  </si>
+  <si>
+    <t>Härdäpfel (d', w)</t>
+  </si>
+  <si>
+    <t>Rolli ([?], m)</t>
+  </si>
+  <si>
+    <t>Gälrüebe (d', w)</t>
+  </si>
+  <si>
+    <t>Moor (d', w)</t>
+  </si>
+  <si>
+    <t>Götti (dr, m)</t>
+  </si>
+  <si>
+    <t>Schär (dr, m)</t>
+  </si>
+  <si>
+    <t>Rätsch (dr, m)</t>
+  </si>
+  <si>
+    <t>Geisle (d', w)</t>
+  </si>
+  <si>
+    <t>Pflume (d', w)</t>
+  </si>
+  <si>
+    <t>Schpatz (dr, m)</t>
+  </si>
+  <si>
+    <t>Chrüselbeeri (d', w)</t>
+  </si>
+  <si>
+    <t>Guefe (d', w)</t>
+  </si>
+  <si>
+    <t>Schricknodle (d', w)</t>
+  </si>
+  <si>
+    <t>Schüsseli ('s), dällerli ('s, s)</t>
+  </si>
+  <si>
+    <t>Hafe (dr, m)</t>
+  </si>
+  <si>
+    <t>Schwiegerdochder (d', w)</t>
+  </si>
+  <si>
+    <t>t-P</t>
+  </si>
+  <si>
+    <t>Feuerbach</t>
+  </si>
+  <si>
+    <t>P. Werner</t>
+  </si>
+  <si>
+    <t>Spaichingen</t>
+  </si>
+  <si>
+    <t>Württbg.</t>
+  </si>
+  <si>
+    <t>Leich</t>
+  </si>
+  <si>
+    <t>Braubeere</t>
+  </si>
+  <si>
+    <t>{Mucke durchgestrichen - sonst keine Angabe}</t>
+  </si>
+  <si>
+    <t>G[ŭ]ckel, Huhn &lt;alem.&gt;</t>
+  </si>
+  <si>
+    <t>Herdäpfel, grumbiere &lt;alem&gt;</t>
+  </si>
+  <si>
+    <t>Rolle, Rolli (alem)</t>
+  </si>
+  <si>
+    <t>Scheer</t>
+  </si>
+  <si>
+    <t>Mohr &lt;alem&gt;</t>
+  </si>
+  <si>
+    <t>Göte, Göti &lt;alem&gt;</t>
+  </si>
+  <si>
+    <t>Geisel, Geisle &lt;alem&gt;</t>
+  </si>
+  <si>
+    <t>Chrüselbeer )alem.&gt;</t>
+  </si>
+  <si>
+    <t>Glufen, Güfle &lt;alem.&gt;</t>
+  </si>
+  <si>
+    <t>Schüssele</t>
+  </si>
+  <si>
+    <t>Häfele</t>
+  </si>
+  <si>
+    <t>zwiegen &lt;alem&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -11148,7 +11667,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11158,6 +11677,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11231,7 +11756,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -11243,8 +11768,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -11565,8 +12092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA148" sqref="BA148"/>
+    <sheetView tabSelected="1" topLeftCell="AP127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA167" sqref="BA167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32242,51 +32769,57 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="129" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="13">
         <v>44774</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="12" t="s">
         <v>2917</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="12">
         <v>10</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="12">
         <v>7</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="12" t="s">
         <v>2653</v>
       </c>
+      <c r="U129" s="14"/>
+      <c r="AY129" s="14"/>
+      <c r="BA129" s="14"/>
     </row>
-    <row r="130" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="13">
         <v>44774</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="12" t="s">
         <v>2917</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="12">
         <v>10</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="12">
         <v>8</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="12" t="s">
         <v>2654</v>
       </c>
+      <c r="U130" s="14"/>
+      <c r="AY130" s="14"/>
+      <c r="BA130" s="14"/>
     </row>
     <row r="131" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -32449,40 +32982,43 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="13">
         <v>44774</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="12" t="s">
         <v>2917</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="12">
         <v>10</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="12">
         <v>10</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="12" t="s">
         <v>2656</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="12" t="s">
         <v>2763</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="12" t="s">
         <v>3116</v>
       </c>
+      <c r="U132" s="14"/>
+      <c r="AY132" s="14"/>
+      <c r="BA132" s="14"/>
     </row>
     <row r="133" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -33481,7 +34017,7 @@
       <c r="J139" t="s">
         <v>2763</v>
       </c>
-      <c r="K139" s="11" t="s">
+      <c r="K139" s="5" t="s">
         <v>3193</v>
       </c>
       <c r="L139" t="s">
@@ -33997,91 +34533,91 @@
       <c r="U142" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="V142" s="12" t="s">
+      <c r="V142" t="s">
         <v>1159</v>
       </c>
-      <c r="W142" s="12" t="s">
+      <c r="W142" t="s">
         <v>3240</v>
       </c>
-      <c r="X142" s="12" t="s">
+      <c r="X142" t="s">
         <v>1089</v>
       </c>
-      <c r="Y142" s="12" t="s">
+      <c r="Y142" t="s">
         <v>457</v>
       </c>
-      <c r="Z142" s="12" t="s">
+      <c r="Z142" t="s">
         <v>277</v>
       </c>
-      <c r="AA142" s="12" t="s">
+      <c r="AA142" t="s">
         <v>3241</v>
       </c>
-      <c r="AB142" s="12" t="s">
+      <c r="AB142" t="s">
         <v>378</v>
       </c>
-      <c r="AC142" s="12" t="s">
+      <c r="AC142" t="s">
         <v>3242</v>
       </c>
-      <c r="AD142" s="12" t="s">
+      <c r="AD142" t="s">
         <v>3243</v>
       </c>
-      <c r="AE142" s="12" t="s">
+      <c r="AE142" t="s">
         <v>3244</v>
       </c>
-      <c r="AF142" s="12" t="s">
+      <c r="AF142" t="s">
         <v>283</v>
       </c>
-      <c r="AG142" s="12" t="s">
+      <c r="AG142" t="s">
         <v>3245</v>
       </c>
-      <c r="AH142" s="12" t="s">
+      <c r="AH142" t="s">
         <v>3124</v>
       </c>
-      <c r="AI142" s="12" t="s">
+      <c r="AI142" t="s">
         <v>708</v>
       </c>
-      <c r="AJ142" s="12" t="s">
+      <c r="AJ142" t="s">
         <v>385</v>
       </c>
-      <c r="AK142" s="12" t="s">
+      <c r="AK142" t="s">
         <v>597</v>
       </c>
-      <c r="AL142" s="12" t="s">
+      <c r="AL142" t="s">
         <v>3126</v>
       </c>
-      <c r="AM142" s="12" t="s">
+      <c r="AM142" t="s">
         <v>1479</v>
       </c>
-      <c r="AN142" s="12" t="s">
+      <c r="AN142" t="s">
         <v>3246</v>
       </c>
-      <c r="AO142" s="12" t="s">
+      <c r="AO142" t="s">
         <v>3247</v>
       </c>
-      <c r="AP142" s="12" t="s">
+      <c r="AP142" t="s">
         <v>601</v>
       </c>
-      <c r="AQ142" s="12" t="s">
+      <c r="AQ142" t="s">
         <v>996</v>
       </c>
-      <c r="AR142" s="12" t="s">
+      <c r="AR142" t="s">
         <v>295</v>
       </c>
-      <c r="AS142" s="12" t="s">
+      <c r="AS142" t="s">
         <v>3248</v>
       </c>
-      <c r="AT142" s="12" t="s">
+      <c r="AT142" t="s">
         <v>494</v>
       </c>
-      <c r="AU142" s="12" t="s">
+      <c r="AU142" t="s">
         <v>3249</v>
       </c>
-      <c r="AV142" s="12" t="s">
+      <c r="AV142" t="s">
         <v>3250</v>
       </c>
-      <c r="AW142" s="12" t="s">
+      <c r="AW142" t="s">
         <v>1657</v>
       </c>
-      <c r="AX142" s="12" t="s">
+      <c r="AX142" t="s">
         <v>419</v>
       </c>
       <c r="AY142" s="1" t="s">
@@ -34158,91 +34694,91 @@
       <c r="U143" s="1" t="s">
         <v>3256</v>
       </c>
-      <c r="V143" s="12" t="s">
+      <c r="V143" t="s">
         <v>1252</v>
       </c>
-      <c r="W143" s="12" t="s">
+      <c r="W143" t="s">
         <v>427</v>
       </c>
-      <c r="X143" s="12" t="s">
+      <c r="X143" t="s">
         <v>3257</v>
       </c>
-      <c r="Y143" s="12" t="s">
+      <c r="Y143" t="s">
         <v>375</v>
       </c>
-      <c r="Z143" s="12" t="s">
+      <c r="Z143" t="s">
         <v>347</v>
       </c>
-      <c r="AA143" s="12" t="s">
+      <c r="AA143" t="s">
         <v>924</v>
       </c>
-      <c r="AB143" s="12" t="s">
+      <c r="AB143" t="s">
         <v>3258</v>
       </c>
-      <c r="AC143" s="12" t="s">
+      <c r="AC143" t="s">
         <v>757</v>
       </c>
-      <c r="AD143" s="12" t="s">
+      <c r="AD143" t="s">
         <v>3259</v>
       </c>
-      <c r="AE143" s="12" t="s">
+      <c r="AE143" t="s">
         <v>3260</v>
       </c>
-      <c r="AF143" s="12" t="s">
+      <c r="AF143" t="s">
         <v>927</v>
       </c>
-      <c r="AG143" s="12" t="s">
+      <c r="AG143" t="s">
         <v>410</v>
       </c>
-      <c r="AH143" s="12" t="s">
+      <c r="AH143" t="s">
         <v>193</v>
       </c>
-      <c r="AI143" s="12" t="s">
+      <c r="AI143" t="s">
         <v>3261</v>
       </c>
-      <c r="AJ143" s="12" t="s">
+      <c r="AJ143" t="s">
         <v>118</v>
       </c>
-      <c r="AK143" s="12" t="s">
+      <c r="AK143" t="s">
         <v>3262</v>
       </c>
-      <c r="AL143" s="12" t="s">
+      <c r="AL143" t="s">
         <v>3263</v>
       </c>
-      <c r="AM143" s="12" t="s">
+      <c r="AM143" t="s">
         <v>121</v>
       </c>
-      <c r="AN143" s="12" t="s">
+      <c r="AN143" t="s">
         <v>574</v>
       </c>
-      <c r="AO143" s="12" t="s">
+      <c r="AO143" t="s">
         <v>358</v>
       </c>
-      <c r="AP143" s="12" t="s">
+      <c r="AP143" t="s">
         <v>124</v>
       </c>
-      <c r="AQ143" s="12" t="s">
+      <c r="AQ143" t="s">
         <v>3264</v>
       </c>
-      <c r="AR143" s="12" t="s">
+      <c r="AR143" t="s">
         <v>202</v>
       </c>
-      <c r="AS143" s="12" t="s">
+      <c r="AS143" t="s">
         <v>3265</v>
       </c>
-      <c r="AT143" s="12" t="s">
+      <c r="AT143" t="s">
         <v>3266</v>
       </c>
-      <c r="AU143" s="12" t="s">
+      <c r="AU143" t="s">
         <v>3267</v>
       </c>
-      <c r="AV143" s="12" t="s">
+      <c r="AV143" t="s">
         <v>3268</v>
       </c>
-      <c r="AW143" s="12" t="s">
+      <c r="AW143" t="s">
         <v>3269</v>
       </c>
-      <c r="AX143" s="12" t="s">
+      <c r="AX143" t="s">
         <v>419</v>
       </c>
       <c r="AY143" s="1" t="s">
@@ -34255,7 +34791,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="144" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:53" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -34319,91 +34855,91 @@
       <c r="U144" s="1">
         <v>999</v>
       </c>
-      <c r="V144" s="12" t="s">
+      <c r="V144" t="s">
         <v>1727</v>
       </c>
-      <c r="W144" s="12" t="s">
+      <c r="W144" t="s">
         <v>3275</v>
       </c>
-      <c r="X144" s="12" t="s">
+      <c r="X144" t="s">
         <v>776</v>
       </c>
-      <c r="Y144" s="12" t="s">
+      <c r="Y144" t="s">
         <v>3276</v>
       </c>
-      <c r="Z144" s="12" t="s">
+      <c r="Z144" t="s">
         <v>1254</v>
       </c>
-      <c r="AA144" s="12" t="s">
+      <c r="AA144" t="s">
         <v>404</v>
       </c>
-      <c r="AB144" s="12" t="s">
+      <c r="AB144" t="s">
         <v>3277</v>
       </c>
-      <c r="AC144" s="12" t="s">
+      <c r="AC144" t="s">
         <v>71</v>
       </c>
-      <c r="AD144" s="12" t="s">
+      <c r="AD144" t="s">
         <v>113</v>
       </c>
-      <c r="AE144" s="12" t="s">
+      <c r="AE144" t="s">
         <v>3278</v>
       </c>
-      <c r="AF144" s="12" t="s">
+      <c r="AF144" t="s">
         <v>569</v>
       </c>
-      <c r="AG144" s="12" t="s">
+      <c r="AG144" t="s">
         <v>3188</v>
       </c>
-      <c r="AH144" s="12" t="s">
+      <c r="AH144" t="s">
         <v>117</v>
       </c>
-      <c r="AI144" s="12" t="s">
+      <c r="AI144" t="s">
         <v>622</v>
       </c>
-      <c r="AJ144" s="12" t="s">
+      <c r="AJ144" t="s">
         <v>118</v>
       </c>
-      <c r="AK144" s="12" t="s">
+      <c r="AK144" t="s">
         <v>255</v>
       </c>
-      <c r="AL144" s="12" t="s">
+      <c r="AL144" t="s">
         <v>3279</v>
       </c>
-      <c r="AM144" s="12" t="s">
+      <c r="AM144" t="s">
         <v>121</v>
       </c>
-      <c r="AN144" s="12" t="s">
+      <c r="AN144" t="s">
         <v>574</v>
       </c>
-      <c r="AO144" s="12" t="s">
+      <c r="AO144" t="s">
         <v>1638</v>
       </c>
-      <c r="AP144" s="12" t="s">
+      <c r="AP144" t="s">
         <v>124</v>
       </c>
-      <c r="AQ144" s="12" t="s">
+      <c r="AQ144" t="s">
         <v>3280</v>
       </c>
-      <c r="AR144" s="12" t="s">
+      <c r="AR144" t="s">
         <v>202</v>
       </c>
-      <c r="AS144" s="12" t="s">
+      <c r="AS144" t="s">
         <v>3281</v>
       </c>
-      <c r="AT144" s="12" t="s">
+      <c r="AT144" t="s">
         <v>889</v>
       </c>
-      <c r="AU144" s="12" t="s">
+      <c r="AU144" t="s">
         <v>363</v>
       </c>
-      <c r="AV144" s="12" t="s">
+      <c r="AV144" t="s">
         <v>3282</v>
       </c>
-      <c r="AW144" s="12" t="s">
+      <c r="AW144" t="s">
         <v>792</v>
       </c>
-      <c r="AX144" s="12" t="s">
+      <c r="AX144" t="s">
         <v>131</v>
       </c>
       <c r="AY144" s="1" t="s">
@@ -34416,24 +34952,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="13">
         <v>44779</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="12" t="s">
         <v>2917</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="12" t="s">
         <v>2669</v>
       </c>
+      <c r="U145" s="14"/>
+      <c r="AY145" s="14"/>
+      <c r="BA145" s="14"/>
     </row>
-    <row r="146" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -34497,91 +35036,91 @@
       <c r="U146" s="1" t="s">
         <v>3289</v>
       </c>
-      <c r="V146" s="12" t="s">
+      <c r="V146" t="s">
         <v>1159</v>
       </c>
-      <c r="W146" s="12" t="s">
+      <c r="W146" t="s">
         <v>2125</v>
       </c>
-      <c r="X146" s="12" t="s">
+      <c r="X146" t="s">
         <v>3290</v>
       </c>
-      <c r="Y146" s="12" t="s">
+      <c r="Y146" t="s">
         <v>457</v>
       </c>
-      <c r="Z146" s="12" t="s">
+      <c r="Z146" t="s">
         <v>3291</v>
       </c>
-      <c r="AA146" s="12" t="s">
+      <c r="AA146" t="s">
         <v>3292</v>
       </c>
-      <c r="AB146" s="12" t="s">
+      <c r="AB146" t="s">
         <v>1062</v>
       </c>
-      <c r="AC146" s="12" t="s">
+      <c r="AC146" t="s">
         <v>2049</v>
       </c>
-      <c r="AD146" s="12" t="s">
+      <c r="AD146" t="s">
         <v>2050</v>
       </c>
-      <c r="AE146" s="12" t="s">
+      <c r="AE146" t="s">
         <v>381</v>
       </c>
-      <c r="AF146" s="12" t="s">
+      <c r="AF146" t="s">
         <v>642</v>
       </c>
-      <c r="AG146" s="12" t="s">
+      <c r="AG146" t="s">
         <v>3293</v>
       </c>
-      <c r="AH146" s="12" t="s">
+      <c r="AH146" t="s">
         <v>285</v>
       </c>
-      <c r="AI146" s="12" t="s">
+      <c r="AI146" t="s">
         <v>2052</v>
       </c>
-      <c r="AJ146" s="12" t="s">
+      <c r="AJ146" t="s">
         <v>385</v>
       </c>
-      <c r="AK146" s="12" t="s">
+      <c r="AK146" t="s">
         <v>3294</v>
       </c>
-      <c r="AL146" s="12" t="s">
+      <c r="AL146" t="s">
         <v>3295</v>
       </c>
-      <c r="AM146" s="12" t="s">
+      <c r="AM146" t="s">
         <v>649</v>
       </c>
-      <c r="AN146" s="12" t="s">
+      <c r="AN146" t="s">
         <v>555</v>
       </c>
-      <c r="AO146" s="12" t="s">
+      <c r="AO146" t="s">
         <v>1071</v>
       </c>
-      <c r="AP146" s="12" t="s">
+      <c r="AP146" t="s">
         <v>1072</v>
       </c>
-      <c r="AQ146" s="12" t="s">
+      <c r="AQ146" t="s">
         <v>2926</v>
       </c>
-      <c r="AR146" s="12" t="s">
+      <c r="AR146" t="s">
         <v>295</v>
       </c>
-      <c r="AS146" s="12" t="s">
+      <c r="AS146" t="s">
         <v>1694</v>
       </c>
-      <c r="AT146" s="12" t="s">
+      <c r="AT146" t="s">
         <v>297</v>
       </c>
-      <c r="AU146" s="12" t="s">
+      <c r="AU146" t="s">
         <v>1074</v>
       </c>
-      <c r="AV146" s="12" t="s">
+      <c r="AV146" t="s">
         <v>3296</v>
       </c>
-      <c r="AW146" s="12" t="s">
+      <c r="AW146" t="s">
         <v>300</v>
       </c>
-      <c r="AX146" s="12" t="s">
+      <c r="AX146" t="s">
         <v>3297</v>
       </c>
       <c r="AY146" s="1" t="s">
@@ -34594,60 +35133,63 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="147" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="13">
         <v>44779</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="12" t="s">
         <v>2917</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="12">
         <v>11</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="12">
         <v>9</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="12" t="s">
         <v>2671</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="12" t="s">
         <v>2763</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="12" t="s">
         <v>3298</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="12" t="s">
         <v>3299</v>
       </c>
-      <c r="M147">
-        <v>999</v>
-      </c>
-      <c r="N147" t="s">
+      <c r="M147" s="12">
+        <v>999</v>
+      </c>
+      <c r="N147" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="O147" t="s">
+      <c r="O147" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="P147" t="s">
+      <c r="P147" s="12" t="s">
         <v>3300</v>
       </c>
-      <c r="AZ147" t="s">
+      <c r="U147" s="14"/>
+      <c r="AY147" s="14"/>
+      <c r="AZ147" s="12" t="s">
         <v>134</v>
       </c>
+      <c r="BA147" s="14"/>
     </row>
-    <row r="148" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -34711,91 +35253,91 @@
       <c r="U148" s="1">
         <v>999</v>
       </c>
-      <c r="V148" s="12" t="s">
+      <c r="V148" t="s">
         <v>723</v>
       </c>
-      <c r="W148" s="12" t="s">
+      <c r="W148" t="s">
         <v>3307</v>
       </c>
-      <c r="X148" s="12" t="s">
+      <c r="X148" t="s">
         <v>345</v>
       </c>
-      <c r="Y148" s="12" t="s">
+      <c r="Y148" t="s">
         <v>3308</v>
       </c>
-      <c r="Z148" s="12" t="s">
+      <c r="Z148" t="s">
         <v>3309</v>
       </c>
-      <c r="AA148" s="12" t="s">
+      <c r="AA148" t="s">
         <v>3310</v>
       </c>
-      <c r="AB148" s="12" t="s">
+      <c r="AB148" t="s">
         <v>3311</v>
       </c>
-      <c r="AC148" s="12" t="s">
+      <c r="AC148" t="s">
         <v>3312</v>
       </c>
-      <c r="AD148" s="12" t="s">
+      <c r="AD148" t="s">
         <v>3313</v>
       </c>
-      <c r="AE148" s="12" t="s">
+      <c r="AE148" t="s">
         <v>3314</v>
       </c>
-      <c r="AF148" s="12" t="s">
+      <c r="AF148" t="s">
         <v>927</v>
       </c>
-      <c r="AG148" s="12" t="s">
+      <c r="AG148" t="s">
         <v>3315</v>
       </c>
-      <c r="AH148" s="12" t="s">
+      <c r="AH148" t="s">
         <v>117</v>
       </c>
-      <c r="AI148" s="12" t="s">
+      <c r="AI148" t="s">
         <v>3316</v>
       </c>
-      <c r="AJ148" s="12" t="s">
+      <c r="AJ148" t="s">
         <v>118</v>
       </c>
-      <c r="AK148" s="12" t="s">
+      <c r="AK148" t="s">
         <v>3317</v>
       </c>
-      <c r="AL148" s="12" t="s">
+      <c r="AL148" t="s">
         <v>3318</v>
       </c>
-      <c r="AM148" s="12" t="s">
+      <c r="AM148" t="s">
         <v>121</v>
       </c>
-      <c r="AN148" s="12" t="s">
+      <c r="AN148" t="s">
         <v>3319</v>
       </c>
-      <c r="AO148" s="12" t="s">
+      <c r="AO148" t="s">
         <v>3320</v>
       </c>
-      <c r="AP148" s="12" t="s">
+      <c r="AP148" t="s">
         <v>3321</v>
       </c>
-      <c r="AQ148" s="12" t="s">
+      <c r="AQ148" t="s">
         <v>3322</v>
       </c>
-      <c r="AR148" s="12" t="s">
+      <c r="AR148" t="s">
         <v>202</v>
       </c>
-      <c r="AS148" s="12" t="s">
+      <c r="AS148" t="s">
         <v>1889</v>
       </c>
-      <c r="AT148" s="12" t="s">
+      <c r="AT148" t="s">
         <v>3323</v>
       </c>
-      <c r="AU148" s="12" t="s">
+      <c r="AU148" t="s">
         <v>417</v>
       </c>
-      <c r="AV148" s="12" t="s">
+      <c r="AV148" t="s">
         <v>3324</v>
       </c>
-      <c r="AW148" s="12" t="s">
+      <c r="AW148" t="s">
         <v>3325</v>
       </c>
-      <c r="AX148" s="12" t="s">
+      <c r="AX148" t="s">
         <v>498</v>
       </c>
       <c r="AY148" s="1" t="s">
@@ -34808,170 +35350,1319 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="149" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="2">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="C149" t="s">
         <v>54</v>
       </c>
+      <c r="D149" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E149">
+        <v>11</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
       <c r="G149" t="s">
         <v>2673</v>
       </c>
+      <c r="H149" t="s">
+        <v>369</v>
+      </c>
+      <c r="I149" t="s">
+        <v>567</v>
+      </c>
+      <c r="J149" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K149" t="s">
+        <v>3327</v>
+      </c>
+      <c r="L149" t="s">
+        <v>3328</v>
+      </c>
+      <c r="M149">
+        <v>999</v>
+      </c>
+      <c r="N149" t="s">
+        <v>560</v>
+      </c>
+      <c r="O149" t="s">
+        <v>61</v>
+      </c>
+      <c r="P149" t="s">
+        <v>3329</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>3330</v>
+      </c>
+      <c r="R149">
+        <v>999</v>
+      </c>
+      <c r="S149">
+        <v>999</v>
+      </c>
+      <c r="T149" t="s">
+        <v>64</v>
+      </c>
+      <c r="U149" s="1">
+        <v>999</v>
+      </c>
+      <c r="V149" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W149" t="s">
+        <v>2064</v>
+      </c>
+      <c r="X149" t="s">
+        <v>2862</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>3331</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>3332</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>639</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN149" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO149" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AP149" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ149" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR149" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS149" t="s">
+        <v>3338</v>
+      </c>
+      <c r="AT149" t="s">
+        <v>3339</v>
+      </c>
+      <c r="AU149" t="s">
+        <v>3340</v>
+      </c>
+      <c r="AV149" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AW149" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX149" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY149" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ149" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BA149" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="150" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="2">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="C150" t="s">
         <v>54</v>
       </c>
+      <c r="D150" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E150">
+        <v>11</v>
+      </c>
+      <c r="F150">
+        <v>12</v>
+      </c>
       <c r="G150" t="s">
         <v>2674</v>
       </c>
+      <c r="H150" t="s">
+        <v>97</v>
+      </c>
+      <c r="I150" t="s">
+        <v>567</v>
+      </c>
+      <c r="J150" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K150" t="s">
+        <v>3342</v>
+      </c>
+      <c r="L150" t="s">
+        <v>3343</v>
+      </c>
+      <c r="M150">
+        <v>999</v>
+      </c>
+      <c r="N150" t="s">
+        <v>560</v>
+      </c>
+      <c r="O150" t="s">
+        <v>581</v>
+      </c>
+      <c r="P150" t="s">
+        <v>3344</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>3345</v>
+      </c>
+      <c r="R150">
+        <v>999</v>
+      </c>
+      <c r="S150">
+        <v>999</v>
+      </c>
+      <c r="T150" t="s">
+        <v>142</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="V150" s="11" t="s">
+        <v>3347</v>
+      </c>
+      <c r="W150" s="11" t="s">
+        <v>3348</v>
+      </c>
+      <c r="X150" s="11" t="s">
+        <v>3349</v>
+      </c>
+      <c r="Y150" s="11" t="s">
+        <v>3350</v>
+      </c>
+      <c r="Z150" s="11" t="s">
+        <v>3351</v>
+      </c>
+      <c r="AA150" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB150" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="AC150" s="11" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AD150" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE150" s="11" t="s">
+        <v>3352</v>
+      </c>
+      <c r="AF150" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG150" s="11" t="s">
+        <v>3353</v>
+      </c>
+      <c r="AH150" s="11" t="s">
+        <v>3354</v>
+      </c>
+      <c r="AI150" s="11" t="s">
+        <v>3355</v>
+      </c>
+      <c r="AJ150" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK150" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL150" s="11" t="s">
+        <v>3356</v>
+      </c>
+      <c r="AM150" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN150" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO150" s="11" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AP150" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ150" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AR150" s="11" t="s">
+        <v>3357</v>
+      </c>
+      <c r="AS150" s="11" t="s">
+        <v>3358</v>
+      </c>
+      <c r="AT150" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU150" s="11" t="s">
+        <v>2944</v>
+      </c>
+      <c r="AV150" s="11" t="s">
+        <v>3359</v>
+      </c>
+      <c r="AW150" s="11" t="s">
+        <v>3360</v>
+      </c>
+      <c r="AX150" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY150" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ150" t="s">
+        <v>3029</v>
+      </c>
+      <c r="BA150" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="BB150" t="s">
+        <v>3341</v>
+      </c>
     </row>
-    <row r="151" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="B151" s="2">
+        <v>44781</v>
+      </c>
       <c r="C151" t="s">
         <v>54</v>
       </c>
+      <c r="D151" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
       <c r="G151" t="s">
         <v>2675</v>
       </c>
+      <c r="H151" t="s">
+        <v>369</v>
+      </c>
+      <c r="I151" t="s">
+        <v>175</v>
+      </c>
+      <c r="J151" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K151" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L151" t="s">
+        <v>3361</v>
+      </c>
+      <c r="M151">
+        <v>999</v>
+      </c>
+      <c r="N151" t="s">
+        <v>560</v>
+      </c>
+      <c r="O151" t="s">
+        <v>139</v>
+      </c>
+      <c r="P151" t="s">
+        <v>3362</v>
+      </c>
+      <c r="Q151">
+        <v>999</v>
+      </c>
+      <c r="R151" t="s">
+        <v>564</v>
+      </c>
+      <c r="S151">
+        <v>999</v>
+      </c>
+      <c r="T151" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="V151" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W151" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="X151" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y151" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z151" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA151" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB151" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC151" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD151" s="11" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AE151" s="11" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AF151" s="11" t="s">
+        <v>3364</v>
+      </c>
+      <c r="AG151" s="11" t="s">
+        <v>3365</v>
+      </c>
+      <c r="AH151" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="AI151" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ151" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK151" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="AL151" s="11" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AM151" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN151" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO151" s="11" t="s">
+        <v>3368</v>
+      </c>
+      <c r="AP151" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ151" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR151" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS151" s="11" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AT151" s="11" t="s">
+        <v>3369</v>
+      </c>
+      <c r="AU151" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV151" s="11" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AW151" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AX151" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY151" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AZ151" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BA151" s="1" t="s">
+        <v>3371</v>
+      </c>
     </row>
-    <row r="152" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152" s="2">
+        <v>44781</v>
+      </c>
       <c r="C152" t="s">
         <v>54</v>
       </c>
+      <c r="D152" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
       <c r="G152" t="s">
         <v>2676</v>
       </c>
+      <c r="H152" t="s">
+        <v>97</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J152" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K152" t="s">
+        <v>3373</v>
+      </c>
+      <c r="L152" t="s">
+        <v>3374</v>
+      </c>
+      <c r="M152">
+        <v>999</v>
+      </c>
+      <c r="N152" t="s">
+        <v>3375</v>
+      </c>
+      <c r="O152" t="s">
+        <v>61</v>
+      </c>
+      <c r="P152" t="s">
+        <v>3376</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>3377</v>
+      </c>
+      <c r="R152" t="s">
+        <v>1597</v>
+      </c>
+      <c r="S152">
+        <v>999</v>
+      </c>
+      <c r="T152" t="s">
+        <v>142</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="V152" s="11" t="s">
+        <v>3379</v>
+      </c>
+      <c r="W152" s="11" t="s">
+        <v>3380</v>
+      </c>
+      <c r="X152" s="11" t="s">
+        <v>3381</v>
+      </c>
+      <c r="Y152" s="11" t="s">
+        <v>3382</v>
+      </c>
+      <c r="Z152" s="11" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AA152" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB152" s="11" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AC152" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD152" s="11" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AE152" s="11" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AF152" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG152" s="11" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AH152" s="11" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AI152" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ152" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK152" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL152" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="AM152" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="AN152" s="11" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AO152" s="11" t="s">
+        <v>3389</v>
+      </c>
+      <c r="AP152" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ152" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR152" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS152" s="11" t="s">
+        <v>3390</v>
+      </c>
+      <c r="AT152" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU152" s="11" t="s">
+        <v>3391</v>
+      </c>
+      <c r="AV152" s="11" t="s">
+        <v>3392</v>
+      </c>
+      <c r="AW152" s="11" t="s">
+        <v>3393</v>
+      </c>
+      <c r="AX152" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY152" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ152" t="s">
+        <v>3372</v>
+      </c>
+      <c r="BA152" s="1" t="s">
+        <v>3394</v>
+      </c>
     </row>
-    <row r="153" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
+      <c r="B153" s="2">
+        <v>44781</v>
+      </c>
       <c r="C153" t="s">
         <v>54</v>
       </c>
+      <c r="D153" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
       <c r="G153" t="s">
         <v>2677</v>
       </c>
+      <c r="H153" t="s">
+        <v>97</v>
+      </c>
+      <c r="I153" t="s">
+        <v>175</v>
+      </c>
+      <c r="J153" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K153" t="s">
+        <v>3395</v>
+      </c>
+      <c r="L153" t="s">
+        <v>3396</v>
+      </c>
+      <c r="M153" t="s">
+        <v>3397</v>
+      </c>
+      <c r="N153" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O153" t="s">
+        <v>103</v>
+      </c>
+      <c r="P153" t="s">
+        <v>3398</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>3399</v>
+      </c>
+      <c r="R153">
+        <v>999</v>
+      </c>
+      <c r="S153">
+        <v>999</v>
+      </c>
+      <c r="T153" t="s">
+        <v>142</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="V153" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="W153" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="X153" s="11" t="s">
+        <v>3401</v>
+      </c>
+      <c r="Y153" s="11" t="s">
+        <v>3402</v>
+      </c>
+      <c r="Z153" s="11" t="s">
+        <v>3403</v>
+      </c>
+      <c r="AA153" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB153" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC153" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD153" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE153" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF153" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG153" s="11" t="s">
+        <v>3404</v>
+      </c>
+      <c r="AH153" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI153" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ153" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK153" s="11" t="s">
+        <v>3405</v>
+      </c>
+      <c r="AL153" s="11" t="s">
+        <v>3406</v>
+      </c>
+      <c r="AM153" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN153" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO153" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP153" s="11" t="s">
+        <v>3408</v>
+      </c>
+      <c r="AQ153" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="AR153" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS153" s="11" t="s">
+        <v>3409</v>
+      </c>
+      <c r="AT153" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="AU153" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV153" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW153" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX153" s="11" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AY153" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="AZ153" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA153" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="154" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
         <v>153</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B154" s="13">
+        <v>44781</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G154" t="s">
+      <c r="D154" s="12" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E154" s="12">
+        <v>12</v>
+      </c>
+      <c r="F154" s="12">
+        <v>4</v>
+      </c>
+      <c r="G154" s="12" t="s">
         <v>2678</v>
       </c>
+      <c r="H154" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I154" s="12">
+        <v>510</v>
+      </c>
+      <c r="J154" s="12">
+        <v>740</v>
+      </c>
+      <c r="K154" s="12" t="s">
+        <v>3411</v>
+      </c>
+      <c r="L154" s="12" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M154" s="12">
+        <v>999</v>
+      </c>
+      <c r="N154" s="12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O154" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P154" s="12" t="s">
+        <v>3413</v>
+      </c>
+      <c r="Q154" s="12" t="s">
+        <v>3414</v>
+      </c>
+      <c r="R154" s="12">
+        <v>999</v>
+      </c>
+      <c r="S154" s="12">
+        <v>999</v>
+      </c>
+      <c r="T154" s="12" t="s">
+        <v>1904</v>
+      </c>
+      <c r="U154" s="14" t="s">
+        <v>3415</v>
+      </c>
+      <c r="AY154" s="14"/>
+      <c r="AZ154" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA154" s="14"/>
     </row>
-    <row r="155" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="B155" s="2">
+        <v>44781</v>
+      </c>
       <c r="C155" t="s">
         <v>54</v>
       </c>
+      <c r="D155" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E155">
+        <v>12</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
       <c r="G155" t="s">
         <v>2679</v>
       </c>
+      <c r="H155" t="s">
+        <v>97</v>
+      </c>
+      <c r="I155" t="s">
+        <v>175</v>
+      </c>
+      <c r="J155" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K155" t="s">
+        <v>3416</v>
+      </c>
+      <c r="L155" t="s">
+        <v>3417</v>
+      </c>
+      <c r="M155">
+        <v>999</v>
+      </c>
+      <c r="N155" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O155">
+        <v>999</v>
+      </c>
+      <c r="P155" t="s">
+        <v>3418</v>
+      </c>
+      <c r="Q155">
+        <v>999</v>
+      </c>
+      <c r="R155" t="s">
+        <v>3419</v>
+      </c>
+      <c r="S155">
+        <v>999</v>
+      </c>
+      <c r="T155" t="s">
+        <v>3420</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="V155" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W155" s="11" t="s">
+        <v>3423</v>
+      </c>
+      <c r="X155" s="11" t="s">
+        <v>3421</v>
+      </c>
+      <c r="Y155" s="11" t="s">
+        <v>3422</v>
+      </c>
+      <c r="Z155" s="11" t="s">
+        <v>3424</v>
+      </c>
+      <c r="AA155" s="11" t="s">
+        <v>3425</v>
+      </c>
+      <c r="AB155" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC155" s="11" t="s">
+        <v>3426</v>
+      </c>
+      <c r="AD155" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE155" s="11" t="s">
+        <v>3427</v>
+      </c>
+      <c r="AF155" s="11" t="s">
+        <v>3428</v>
+      </c>
+      <c r="AG155" s="11" t="s">
+        <v>3429</v>
+      </c>
+      <c r="AH155" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI155" s="11" t="s">
+        <v>3430</v>
+      </c>
+      <c r="AJ155" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK155" s="11" t="s">
+        <v>3431</v>
+      </c>
+      <c r="AL155" s="11" t="s">
+        <v>3432</v>
+      </c>
+      <c r="AM155" s="11" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AN155" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO155" s="11" t="s">
+        <v>3433</v>
+      </c>
+      <c r="AP155" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ155" s="11" t="s">
+        <v>3434</v>
+      </c>
+      <c r="AR155" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS155" s="11" t="s">
+        <v>3435</v>
+      </c>
+      <c r="AT155" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU155" s="11" t="s">
+        <v>3436</v>
+      </c>
+      <c r="AV155" s="11" t="s">
+        <v>3437</v>
+      </c>
+      <c r="AW155" s="11" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AX155" s="11" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AY155" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ155" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA155" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="156" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
+      <c r="B156" s="2">
+        <v>44781</v>
+      </c>
       <c r="C156" t="s">
         <v>54</v>
       </c>
+      <c r="D156" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
       <c r="G156" t="s">
         <v>2680</v>
       </c>
+      <c r="H156" t="s">
+        <v>97</v>
+      </c>
+      <c r="I156" t="s">
+        <v>175</v>
+      </c>
+      <c r="J156" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K156" t="s">
+        <v>3440</v>
+      </c>
+      <c r="L156" t="s">
+        <v>3441</v>
+      </c>
+      <c r="M156">
+        <v>999</v>
+      </c>
+      <c r="N156" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O156" t="s">
+        <v>103</v>
+      </c>
+      <c r="P156" t="s">
+        <v>3442</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>3443</v>
+      </c>
+      <c r="R156">
+        <v>999</v>
+      </c>
+      <c r="S156" t="s">
+        <v>103</v>
+      </c>
+      <c r="T156" t="s">
+        <v>2966</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="V156" s="11" t="s">
+        <v>3445</v>
+      </c>
+      <c r="W156" s="11" t="s">
+        <v>3446</v>
+      </c>
+      <c r="X156" s="11" t="s">
+        <v>3447</v>
+      </c>
+      <c r="Y156" s="11" t="s">
+        <v>3448</v>
+      </c>
+      <c r="Z156" s="11" t="s">
+        <v>3449</v>
+      </c>
+      <c r="AA156" s="11" t="s">
+        <v>3463</v>
+      </c>
+      <c r="AB156" s="11" t="s">
+        <v>3450</v>
+      </c>
+      <c r="AC156" s="11" t="s">
+        <v>3451</v>
+      </c>
+      <c r="AD156" s="11" t="s">
+        <v>3452</v>
+      </c>
+      <c r="AE156" s="11" t="s">
+        <v>3453</v>
+      </c>
+      <c r="AF156" s="11" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AG156" s="11" t="s">
+        <v>3455</v>
+      </c>
+      <c r="AH156" s="11" t="s">
+        <v>3456</v>
+      </c>
+      <c r="AI156" s="11" t="s">
+        <v>3457</v>
+      </c>
+      <c r="AJ156" s="11" t="s">
+        <v>3458</v>
+      </c>
+      <c r="AK156" s="11" t="s">
+        <v>3462</v>
+      </c>
+      <c r="AL156" s="11" t="s">
+        <v>3459</v>
+      </c>
+      <c r="AM156" s="11" t="s">
+        <v>3460</v>
+      </c>
+      <c r="AN156" s="11" t="s">
+        <v>3461</v>
+      </c>
+      <c r="AO156" s="11" t="s">
+        <v>3464</v>
+      </c>
+      <c r="AP156" s="11" t="s">
+        <v>3465</v>
+      </c>
+      <c r="AQ156" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="AR156" s="11" t="s">
+        <v>3466</v>
+      </c>
+      <c r="AS156" s="11" t="s">
+        <v>3467</v>
+      </c>
+      <c r="AT156" s="11" t="s">
+        <v>3468</v>
+      </c>
+      <c r="AU156" s="11" t="s">
+        <v>3469</v>
+      </c>
+      <c r="AV156" s="11" t="s">
+        <v>3470</v>
+      </c>
+      <c r="AW156" s="11" t="s">
+        <v>3471</v>
+      </c>
+      <c r="AX156" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY156" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AZ156" t="s">
+        <v>3439</v>
+      </c>
+      <c r="BA156" s="1" t="s">
+        <v>3472</v>
+      </c>
     </row>
-    <row r="157" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="B157" s="2"/>
       <c r="C157" t="s">
         <v>54</v>
       </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
       <c r="G157" t="s">
         <v>2681</v>
       </c>
     </row>
-    <row r="158" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="B158" s="2"/>
       <c r="C158" t="s">
         <v>54</v>
       </c>
+      <c r="E158">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
       <c r="G158" t="s">
         <v>2682</v>
       </c>
     </row>
-    <row r="159" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="B159" s="2"/>
       <c r="C159" t="s">
         <v>54</v>
       </c>
+      <c r="E159">
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <v>9</v>
+      </c>
       <c r="G159" t="s">
         <v>2683</v>
       </c>
     </row>
-    <row r="160" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
+      <c r="B160" s="2"/>
       <c r="C160" t="s">
         <v>54</v>
       </c>
+      <c r="E160">
+        <v>12</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
       <c r="G160" t="s">
         <v>2684</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
+      <c r="B161" s="2"/>
       <c r="C161" t="s">
         <v>54</v>
       </c>
+      <c r="E161">
+        <v>12</v>
+      </c>
+      <c r="F161">
+        <v>11</v>
+      </c>
       <c r="G161" t="s">
         <v>2685</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
+      <c r="B162" s="2"/>
       <c r="C162" t="s">
         <v>54</v>
       </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
       <c r="G162" t="s">
         <v>2686</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="B163" s="2"/>
       <c r="C163" t="s">
         <v>54</v>
       </c>
@@ -34979,7 +36670,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -34990,7 +36681,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -35001,7 +36692,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -35012,18 +36703,168 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
+      <c r="B167" s="2">
+        <v>44781</v>
+      </c>
       <c r="C167" t="s">
         <v>54</v>
       </c>
+      <c r="D167" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E167">
+        <v>12</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
       <c r="G167" t="s">
         <v>2691</v>
       </c>
+      <c r="H167" t="s">
+        <v>97</v>
+      </c>
+      <c r="I167" t="s">
+        <v>175</v>
+      </c>
+      <c r="J167" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K167" t="s">
+        <v>3473</v>
+      </c>
+      <c r="L167" t="s">
+        <v>3474</v>
+      </c>
+      <c r="M167">
+        <v>999</v>
+      </c>
+      <c r="N167" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O167">
+        <v>999</v>
+      </c>
+      <c r="P167" t="s">
+        <v>3475</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>3476</v>
+      </c>
+      <c r="R167">
+        <v>999</v>
+      </c>
+      <c r="S167" t="s">
+        <v>3477</v>
+      </c>
+      <c r="T167">
+        <v>999</v>
+      </c>
+      <c r="U167" s="1">
+        <v>999</v>
+      </c>
+      <c r="V167" s="11">
+        <v>999</v>
+      </c>
+      <c r="W167" t="s">
+        <v>3478</v>
+      </c>
+      <c r="X167" t="s">
+        <v>3479</v>
+      </c>
+      <c r="Y167">
+        <v>999</v>
+      </c>
+      <c r="Z167">
+        <v>999</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB167">
+        <v>999</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>3480</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF167">
+        <v>999</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>3481</v>
+      </c>
+      <c r="AH167">
+        <v>999</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>3482</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>3483</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>3484</v>
+      </c>
+      <c r="AL167">
+        <v>999</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>3485</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>3486</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>3487</v>
+      </c>
+      <c r="AP167" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ167">
+        <v>999</v>
+      </c>
+      <c r="AR167" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS167" t="s">
+        <v>3488</v>
+      </c>
+      <c r="AT167" t="s">
+        <v>3489</v>
+      </c>
+      <c r="AU167">
+        <v>999</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>3490</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>3491</v>
+      </c>
+      <c r="AX167" t="s">
+        <v>3492</v>
+      </c>
+      <c r="AY167" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ167" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA167" s="1">
+        <v>999</v>
+      </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -35034,7 +36875,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -35045,7 +36886,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -35056,7 +36897,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -35067,7 +36908,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -35078,7 +36919,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -35089,7 +36930,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -35100,7 +36941,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -35111,7 +36952,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A113DFED-0AD3-4B35-8140-32F4AF483726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC72C88-0087-4044-9D26-C4E75A89A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="0" windowWidth="13932" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="312" windowWidth="12984" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7023" uniqueCount="3493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7216" uniqueCount="3568">
   <si>
     <t>ID</t>
   </si>
@@ -11255,9 +11255,6 @@
     <t>[A]chmann</t>
   </si>
   <si>
-    <t>Omeise &gt;O mit klang nach [u]&gt;</t>
-  </si>
-  <si>
     <t>Liicha</t>
   </si>
   <si>
@@ -11616,6 +11613,234 @@
   </si>
   <si>
     <t>zwiegen &lt;alem&gt;</t>
+  </si>
+  <si>
+    <t>t-E</t>
+  </si>
+  <si>
+    <t>Liel</t>
+  </si>
+  <si>
+    <t>Johanna Reith</t>
+  </si>
+  <si>
+    <t>Bergöschingen [u]nd Waldshut</t>
+  </si>
+  <si>
+    <t>Joh. Reith</t>
+  </si>
+  <si>
+    <t>Bromberi</t>
+  </si>
+  <si>
+    <t>Di[e]shlä</t>
+  </si>
+  <si>
+    <t>Änterich</t>
+  </si>
+  <si>
+    <t>Flege</t>
+  </si>
+  <si>
+    <t>Hagebutte[re]</t>
+  </si>
+  <si>
+    <t>Härdäpfel</t>
+  </si>
+  <si>
+    <t>Schär</t>
+  </si>
+  <si>
+    <t>Gälrebe</t>
+  </si>
+  <si>
+    <t>Gotte</t>
+  </si>
+  <si>
+    <t>Schtachbeeri</t>
+  </si>
+  <si>
+    <t>Schüssele, Dallerle</t>
+  </si>
+  <si>
+    <t>t-F</t>
+  </si>
+  <si>
+    <t>Kleinkembs</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>&lt;gef[eu?]t von den Schülern, geschrieben [u.] Lehrer&gt;</t>
+  </si>
+  <si>
+    <t>Liëcht (w)</t>
+  </si>
+  <si>
+    <t>Dieschtle</t>
+  </si>
+  <si>
+    <t>Agescht[e] (w)</t>
+  </si>
+  <si>
+    <t>Fladermuus (w)</t>
+  </si>
+  <si>
+    <t>Fliëge (w)</t>
+  </si>
+  <si>
+    <t>Gugume[er] (w)</t>
+  </si>
+  <si>
+    <t>Gu[c]kel (m), Huähn (s)</t>
+  </si>
+  <si>
+    <t>Scharmuus (w)</t>
+  </si>
+  <si>
+    <t>Gälrüëbe (w) {anderes umlaut Zeichen für e als für a und u}</t>
+  </si>
+  <si>
+    <t>Brüēle. sch[i]mpfe</t>
+  </si>
+  <si>
+    <t>Schwiegertichter (w)</t>
+  </si>
+  <si>
+    <t>Elis[e]bath Hill[e?]bra[n]d</t>
+  </si>
+  <si>
+    <t>Holdere (die)</t>
+  </si>
+  <si>
+    <t>t-G</t>
+  </si>
+  <si>
+    <t>Blansingen</t>
+  </si>
+  <si>
+    <t>[G]stl. E. F. [W]üsler</t>
+  </si>
+  <si>
+    <t>[H]i[mm]</t>
+  </si>
+  <si>
+    <t>t-J</t>
+  </si>
+  <si>
+    <t>Huttingen</t>
+  </si>
+  <si>
+    <t>Karl Collet</t>
+  </si>
+  <si>
+    <t>Gernsbach</t>
+  </si>
+  <si>
+    <t>B, A</t>
+  </si>
+  <si>
+    <t>mit Hilfe von Schülern und Erwachsene</t>
+  </si>
+  <si>
+    <t>&lt;Das "ä" ist hier ein Zwischenlaut zwischen a u. ä&gt;</t>
+  </si>
+  <si>
+    <t>Liicht (s)</t>
+  </si>
+  <si>
+    <t>Omeise &lt;O mit klang nach [u]&gt;</t>
+  </si>
+  <si>
+    <t>Brumbeerí (w)</t>
+  </si>
+  <si>
+    <t>Diächsle (w)</t>
+  </si>
+  <si>
+    <t>Ägeschte (w)</t>
+  </si>
+  <si>
+    <t>Flädermūs (w)</t>
+  </si>
+  <si>
+    <t>Budde (w) &lt;Hagebudde&gt;</t>
+  </si>
+  <si>
+    <t>Guggl (m), Hūän</t>
+  </si>
+  <si>
+    <t>Schäre (m)</t>
+  </si>
+  <si>
+    <t>Gällerübe (w)</t>
+  </si>
+  <si>
+    <t>Gedi (m)</t>
+  </si>
+  <si>
+    <t>Gei[ß]le (w)</t>
+  </si>
+  <si>
+    <t>ufbigähre, schimpfe</t>
+  </si>
+  <si>
+    <t>Chīslbeeri (w) {punkt und strich beim ersten i}</t>
+  </si>
+  <si>
+    <t>Gūfe (w)</t>
+  </si>
+  <si>
+    <t>Schdriggnodle (w)</t>
+  </si>
+  <si>
+    <t>Schisseli (s)</t>
+  </si>
+  <si>
+    <t>Schwiägerdochter</t>
+  </si>
+  <si>
+    <t>09/08(2022</t>
+  </si>
+  <si>
+    <t>t-[?]</t>
+  </si>
+  <si>
+    <t>[E]ugen Scherald</t>
+  </si>
+  <si>
+    <t>[T]udte[r]u</t>
+  </si>
+  <si>
+    <t>Familie Karl [M]outingel Mollba[ch]</t>
+  </si>
+  <si>
+    <t>Omese (w)</t>
+  </si>
+  <si>
+    <t>Brombeeri (s)</t>
+  </si>
+  <si>
+    <t>Diechtle UwI</t>
+  </si>
+  <si>
+    <t>Ägerschte (w)</t>
+  </si>
+  <si>
+    <t>Guggumere (w)</t>
+  </si>
+  <si>
+    <t>Hagebudde[re] (w)</t>
+  </si>
+  <si>
+    <t>Grumbiire (w)</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (w)</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -11756,7 +11981,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -11768,10 +11993,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -12092,8 +12318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA167" sqref="BA167"/>
+    <sheetView tabSelected="1" topLeftCell="AQ146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA164" sqref="BA164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32769,57 +32995,57 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="129" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="12">
+    <row r="129" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="12">
         <v>44774</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129" s="11">
         <v>10</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129" s="11">
         <v>7</v>
       </c>
-      <c r="G129" s="12" t="s">
+      <c r="G129" s="11" t="s">
         <v>2653</v>
       </c>
-      <c r="U129" s="14"/>
-      <c r="AY129" s="14"/>
-      <c r="BA129" s="14"/>
+      <c r="U129" s="13"/>
+      <c r="AY129" s="13"/>
+      <c r="BA129" s="13"/>
     </row>
-    <row r="130" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="12">
+    <row r="130" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
         <v>129</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="12">
         <v>44774</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="11">
         <v>10</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F130" s="11">
         <v>8</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G130" s="11" t="s">
         <v>2654</v>
       </c>
-      <c r="U130" s="14"/>
-      <c r="AY130" s="14"/>
-      <c r="BA130" s="14"/>
+      <c r="U130" s="13"/>
+      <c r="AY130" s="13"/>
+      <c r="BA130" s="13"/>
     </row>
     <row r="131" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -32982,43 +33208,43 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="1:53" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12">
+    <row r="132" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="12">
         <v>44774</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E132" s="11">
         <v>10</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F132" s="11">
         <v>10</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G132" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H132" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="I132" s="12" t="s">
+      <c r="I132" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J132" s="12" t="s">
+      <c r="J132" s="11" t="s">
         <v>2763</v>
       </c>
-      <c r="K132" s="12" t="s">
+      <c r="K132" s="11" t="s">
         <v>3116</v>
       </c>
-      <c r="U132" s="14"/>
-      <c r="AY132" s="14"/>
-      <c r="BA132" s="14"/>
+      <c r="U132" s="13"/>
+      <c r="AY132" s="13"/>
+      <c r="BA132" s="13"/>
     </row>
     <row r="133" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -34952,25 +35178,25 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="12">
+    <row r="145" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
         <v>144</v>
       </c>
-      <c r="B145" s="13">
+      <c r="B145" s="12">
         <v>44779</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="G145" s="12" t="s">
+      <c r="G145" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="U145" s="14"/>
-      <c r="AY145" s="14"/>
-      <c r="BA145" s="14"/>
+      <c r="U145" s="13"/>
+      <c r="AY145" s="13"/>
+      <c r="BA145" s="13"/>
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -35133,61 +35359,61 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="147" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12">
+    <row r="147" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="12">
         <v>44779</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="E147" s="12">
+      <c r="E147" s="11">
         <v>11</v>
       </c>
-      <c r="F147" s="12">
+      <c r="F147" s="11">
         <v>9</v>
       </c>
-      <c r="G147" s="12" t="s">
+      <c r="G147" s="11" t="s">
         <v>2671</v>
       </c>
-      <c r="H147" s="12" t="s">
+      <c r="H147" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I147" s="12" t="s">
+      <c r="I147" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="J147" s="12" t="s">
+      <c r="J147" s="11" t="s">
         <v>2763</v>
       </c>
-      <c r="K147" s="12" t="s">
+      <c r="K147" s="11" t="s">
         <v>3298</v>
       </c>
-      <c r="L147" s="12" t="s">
+      <c r="L147" s="11" t="s">
         <v>3299</v>
       </c>
-      <c r="M147" s="12">
-        <v>999</v>
-      </c>
-      <c r="N147" s="12" t="s">
+      <c r="M147" s="11">
+        <v>999</v>
+      </c>
+      <c r="N147" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="O147" s="12" t="s">
+      <c r="O147" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="P147" s="12" t="s">
+      <c r="P147" s="11" t="s">
         <v>3300</v>
       </c>
-      <c r="U147" s="14"/>
-      <c r="AY147" s="14"/>
-      <c r="AZ147" s="12" t="s">
+      <c r="U147" s="13"/>
+      <c r="AY147" s="13"/>
+      <c r="AZ147" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="BA147" s="14"/>
+      <c r="BA147" s="13"/>
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -35575,91 +35801,91 @@
       <c r="U150" s="1" t="s">
         <v>3346</v>
       </c>
-      <c r="V150" s="11" t="s">
+      <c r="V150" t="s">
         <v>3347</v>
       </c>
-      <c r="W150" s="11" t="s">
+      <c r="W150" t="s">
         <v>3348</v>
       </c>
-      <c r="X150" s="11" t="s">
+      <c r="X150" t="s">
         <v>3349</v>
       </c>
-      <c r="Y150" s="11" t="s">
+      <c r="Y150" t="s">
         <v>3350</v>
       </c>
-      <c r="Z150" s="11" t="s">
+      <c r="Z150" t="s">
         <v>3351</v>
       </c>
-      <c r="AA150" s="11" t="s">
+      <c r="AA150" t="s">
         <v>377</v>
       </c>
-      <c r="AB150" s="11" t="s">
+      <c r="AB150" t="s">
         <v>898</v>
       </c>
-      <c r="AC150" s="11" t="s">
+      <c r="AC150" t="s">
         <v>1684</v>
       </c>
-      <c r="AD150" s="11" t="s">
+      <c r="AD150" t="s">
         <v>72</v>
       </c>
-      <c r="AE150" s="11" t="s">
+      <c r="AE150" t="s">
         <v>3352</v>
       </c>
-      <c r="AF150" s="11" t="s">
+      <c r="AF150" t="s">
         <v>728</v>
       </c>
-      <c r="AG150" s="11" t="s">
+      <c r="AG150" t="s">
         <v>3353</v>
       </c>
-      <c r="AH150" s="11" t="s">
+      <c r="AH150" t="s">
         <v>3354</v>
       </c>
-      <c r="AI150" s="11" t="s">
+      <c r="AI150" t="s">
         <v>3355</v>
       </c>
-      <c r="AJ150" s="11" t="s">
+      <c r="AJ150" t="s">
         <v>118</v>
       </c>
-      <c r="AK150" s="11" t="s">
+      <c r="AK150" t="s">
         <v>119</v>
       </c>
-      <c r="AL150" s="11" t="s">
+      <c r="AL150" t="s">
         <v>3356</v>
       </c>
-      <c r="AM150" s="11" t="s">
+      <c r="AM150" t="s">
         <v>159</v>
       </c>
-      <c r="AN150" s="11" t="s">
+      <c r="AN150" t="s">
         <v>466</v>
       </c>
-      <c r="AO150" s="11" t="s">
+      <c r="AO150" t="s">
         <v>3128</v>
       </c>
-      <c r="AP150" s="11" t="s">
+      <c r="AP150" t="s">
         <v>601</v>
       </c>
-      <c r="AQ150" s="11" t="s">
+      <c r="AQ150" t="s">
         <v>1170</v>
       </c>
-      <c r="AR150" s="11" t="s">
+      <c r="AR150" t="s">
         <v>3357</v>
       </c>
-      <c r="AS150" s="11" t="s">
+      <c r="AS150" t="s">
         <v>3358</v>
       </c>
-      <c r="AT150" s="11" t="s">
+      <c r="AT150" t="s">
         <v>494</v>
       </c>
-      <c r="AU150" s="11" t="s">
+      <c r="AU150" t="s">
         <v>2944</v>
       </c>
-      <c r="AV150" s="11" t="s">
+      <c r="AV150" t="s">
         <v>3359</v>
       </c>
-      <c r="AW150" s="11" t="s">
+      <c r="AW150" t="s">
         <v>3360</v>
       </c>
-      <c r="AX150" s="11" t="s">
+      <c r="AX150" t="s">
         <v>419</v>
       </c>
       <c r="AY150" s="1" t="s">
@@ -35739,91 +35965,91 @@
       <c r="U151" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="V151" s="11" t="s">
+      <c r="V151" t="s">
         <v>1649</v>
       </c>
-      <c r="W151" s="11" t="s">
+      <c r="W151" t="s">
         <v>896</v>
       </c>
-      <c r="X151" s="11" t="s">
+      <c r="X151" t="s">
         <v>821</v>
       </c>
-      <c r="Y151" s="11" t="s">
+      <c r="Y151" t="s">
         <v>457</v>
       </c>
-      <c r="Z151" s="11" t="s">
+      <c r="Z151" t="s">
         <v>458</v>
       </c>
-      <c r="AA151" s="11" t="s">
+      <c r="AA151" t="s">
         <v>377</v>
       </c>
-      <c r="AB151" s="11" t="s">
+      <c r="AB151" t="s">
         <v>378</v>
       </c>
-      <c r="AC151" s="11" t="s">
+      <c r="AC151" t="s">
         <v>703</v>
       </c>
-      <c r="AD151" s="11" t="s">
+      <c r="AD151" t="s">
         <v>3363</v>
       </c>
-      <c r="AE151" s="11" t="s">
+      <c r="AE151" t="s">
         <v>3333</v>
       </c>
-      <c r="AF151" s="11" t="s">
+      <c r="AF151" t="s">
         <v>3364</v>
       </c>
-      <c r="AG151" s="11" t="s">
+      <c r="AG151" t="s">
         <v>3365</v>
       </c>
-      <c r="AH151" s="11" t="s">
+      <c r="AH151" t="s">
         <v>3366</v>
       </c>
-      <c r="AI151" s="11" t="s">
+      <c r="AI151" t="s">
         <v>463</v>
       </c>
-      <c r="AJ151" s="11" t="s">
+      <c r="AJ151" t="s">
         <v>385</v>
       </c>
-      <c r="AK151" s="11" t="s">
+      <c r="AK151" t="s">
         <v>647</v>
       </c>
-      <c r="AL151" s="11" t="s">
+      <c r="AL151" t="s">
         <v>3367</v>
       </c>
-      <c r="AM151" s="11" t="s">
+      <c r="AM151" t="s">
         <v>159</v>
       </c>
-      <c r="AN151" s="11" t="s">
+      <c r="AN151" t="s">
         <v>555</v>
       </c>
-      <c r="AO151" s="11" t="s">
+      <c r="AO151" t="s">
         <v>3368</v>
       </c>
-      <c r="AP151" s="11" t="s">
+      <c r="AP151" t="s">
         <v>601</v>
       </c>
-      <c r="AQ151" s="11" t="s">
+      <c r="AQ151" t="s">
         <v>996</v>
       </c>
-      <c r="AR151" s="11" t="s">
+      <c r="AR151" t="s">
         <v>295</v>
       </c>
-      <c r="AS151" s="11" t="s">
+      <c r="AS151" t="s">
         <v>2116</v>
       </c>
-      <c r="AT151" s="11" t="s">
+      <c r="AT151" t="s">
         <v>3369</v>
       </c>
-      <c r="AU151" s="11" t="s">
+      <c r="AU151" t="s">
         <v>605</v>
       </c>
-      <c r="AV151" s="11" t="s">
+      <c r="AV151" t="s">
         <v>3370</v>
       </c>
-      <c r="AW151" s="11" t="s">
+      <c r="AW151" t="s">
         <v>1657</v>
       </c>
-      <c r="AX151" s="11" t="s">
+      <c r="AX151" t="s">
         <v>419</v>
       </c>
       <c r="AY151" s="1" t="s">
@@ -35900,91 +36126,91 @@
       <c r="U152" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="V152" s="11" t="s">
+      <c r="V152" t="s">
+        <v>3537</v>
+      </c>
+      <c r="W152" t="s">
         <v>3379</v>
       </c>
-      <c r="W152" s="11" t="s">
+      <c r="X152" t="s">
         <v>3380</v>
       </c>
-      <c r="X152" s="11" t="s">
+      <c r="Y152" t="s">
         <v>3381</v>
       </c>
-      <c r="Y152" s="11" t="s">
+      <c r="Z152" t="s">
         <v>3382</v>
       </c>
-      <c r="Z152" s="11" t="s">
+      <c r="AA152" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB152" t="s">
         <v>3383</v>
       </c>
-      <c r="AA152" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB152" s="11" t="s">
+      <c r="AC152" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD152" t="s">
         <v>3384</v>
       </c>
-      <c r="AC152" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD152" s="11" t="s">
+      <c r="AE152" t="s">
         <v>3385</v>
       </c>
-      <c r="AE152" s="11" t="s">
+      <c r="AF152" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AH152" t="s">
         <v>3386</v>
       </c>
-      <c r="AF152" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="AG152" s="11" t="s">
-        <v>2851</v>
-      </c>
-      <c r="AH152" s="11" t="s">
+      <c r="AI152" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>784</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>3406</v>
+      </c>
+      <c r="AN152" t="s">
         <v>3387</v>
       </c>
-      <c r="AI152" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ152" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK152" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL152" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="AM152" s="11" t="s">
-        <v>3407</v>
-      </c>
-      <c r="AN152" s="11" t="s">
+      <c r="AO152" t="s">
         <v>3388</v>
       </c>
-      <c r="AO152" s="11" t="s">
+      <c r="AP152" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR152" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS152" t="s">
         <v>3389</v>
       </c>
-      <c r="AP152" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ152" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="AR152" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS152" s="11" t="s">
+      <c r="AT152" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU152" t="s">
         <v>3390</v>
       </c>
-      <c r="AT152" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU152" s="11" t="s">
+      <c r="AV152" t="s">
         <v>3391</v>
       </c>
-      <c r="AV152" s="11" t="s">
+      <c r="AW152" t="s">
         <v>3392</v>
       </c>
-      <c r="AW152" s="11" t="s">
-        <v>3393</v>
-      </c>
-      <c r="AX152" s="11" t="s">
+      <c r="AX152" t="s">
         <v>1197</v>
       </c>
       <c r="AY152" s="1" t="s">
@@ -35994,7 +36220,7 @@
         <v>3372</v>
       </c>
       <c r="BA152" s="1" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.25">
@@ -36029,13 +36255,13 @@
         <v>2763</v>
       </c>
       <c r="K153" t="s">
+        <v>3394</v>
+      </c>
+      <c r="L153" t="s">
         <v>3395</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>3396</v>
-      </c>
-      <c r="M153" t="s">
-        <v>3397</v>
       </c>
       <c r="N153" t="s">
         <v>1701</v>
@@ -36044,10 +36270,10 @@
         <v>103</v>
       </c>
       <c r="P153" t="s">
+        <v>3397</v>
+      </c>
+      <c r="Q153" t="s">
         <v>3398</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>3399</v>
       </c>
       <c r="R153">
         <v>999</v>
@@ -36059,97 +36285,97 @@
         <v>142</v>
       </c>
       <c r="U153" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="V153" t="s">
+        <v>723</v>
+      </c>
+      <c r="W153" t="s">
+        <v>247</v>
+      </c>
+      <c r="X153" t="s">
         <v>3400</v>
       </c>
-      <c r="V153" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="W153" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="X153" s="11" t="s">
+      <c r="Y153" t="s">
         <v>3401</v>
       </c>
-      <c r="Y153" s="11" t="s">
+      <c r="Z153" t="s">
         <v>3402</v>
       </c>
-      <c r="Z153" s="11" t="s">
+      <c r="AA153" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG153" t="s">
         <v>3403</v>
       </c>
-      <c r="AA153" s="11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AB153" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC153" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD153" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE153" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF153" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG153" s="11" t="s">
+      <c r="AH153" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK153" t="s">
         <v>3404</v>
       </c>
-      <c r="AH153" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI153" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="AJ153" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK153" s="11" t="s">
+      <c r="AL153" t="s">
         <v>3405</v>
       </c>
-      <c r="AL153" s="11" t="s">
-        <v>3406</v>
-      </c>
-      <c r="AM153" s="11" t="s">
+      <c r="AM153" t="s">
         <v>121</v>
       </c>
-      <c r="AN153" s="11" t="s">
+      <c r="AN153" t="s">
         <v>198</v>
       </c>
-      <c r="AO153" s="11" t="s">
+      <c r="AO153" t="s">
         <v>234</v>
       </c>
-      <c r="AP153" s="11" t="s">
+      <c r="AP153" t="s">
+        <v>3407</v>
+      </c>
+      <c r="AQ153" t="s">
+        <v>787</v>
+      </c>
+      <c r="AR153" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS153" t="s">
         <v>3408</v>
       </c>
-      <c r="AQ153" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="AR153" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS153" s="11" t="s">
+      <c r="AT153" t="s">
+        <v>628</v>
+      </c>
+      <c r="AU153" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV153" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW153" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX153" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AY153" s="1" t="s">
         <v>3409</v>
-      </c>
-      <c r="AT153" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="AU153" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="AV153" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW153" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AX153" s="11" t="s">
-        <v>2172</v>
-      </c>
-      <c r="AY153" s="1" t="s">
-        <v>3410</v>
       </c>
       <c r="AZ153" t="s">
         <v>1462</v>
@@ -36158,75 +36384,75 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12">
+    <row r="154" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="12">
         <v>44781</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="11">
         <v>12</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="11">
         <v>4</v>
       </c>
-      <c r="G154" s="12" t="s">
+      <c r="G154" s="11" t="s">
         <v>2678</v>
       </c>
-      <c r="H154" s="12" t="s">
+      <c r="H154" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I154" s="12">
+      <c r="I154" s="11">
         <v>510</v>
       </c>
-      <c r="J154" s="12">
+      <c r="J154" s="11">
         <v>740</v>
       </c>
-      <c r="K154" s="12" t="s">
+      <c r="K154" s="11" t="s">
+        <v>3410</v>
+      </c>
+      <c r="L154" s="11" t="s">
         <v>3411</v>
       </c>
-      <c r="L154" s="12" t="s">
+      <c r="M154" s="11">
+        <v>999</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P154" s="11" t="s">
         <v>3412</v>
       </c>
-      <c r="M154" s="12">
-        <v>999</v>
-      </c>
-      <c r="N154" s="12" t="s">
-        <v>1701</v>
-      </c>
-      <c r="O154" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P154" s="12" t="s">
+      <c r="Q154" s="11" t="s">
         <v>3413</v>
       </c>
-      <c r="Q154" s="12" t="s">
+      <c r="R154" s="11">
+        <v>999</v>
+      </c>
+      <c r="S154" s="11">
+        <v>999</v>
+      </c>
+      <c r="T154" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="U154" s="13" t="s">
         <v>3414</v>
       </c>
-      <c r="R154" s="12">
-        <v>999</v>
-      </c>
-      <c r="S154" s="12">
-        <v>999</v>
-      </c>
-      <c r="T154" s="12" t="s">
-        <v>1904</v>
-      </c>
-      <c r="U154" s="14" t="s">
-        <v>3415</v>
-      </c>
-      <c r="AY154" s="14"/>
-      <c r="AZ154" s="12" t="s">
+      <c r="AY154" s="13"/>
+      <c r="AZ154" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="BA154" s="14"/>
+      <c r="BA154" s="13"/>
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -36260,10 +36486,10 @@
         <v>2763</v>
       </c>
       <c r="K155" t="s">
+        <v>3415</v>
+      </c>
+      <c r="L155" t="s">
         <v>3416</v>
-      </c>
-      <c r="L155" t="s">
-        <v>3417</v>
       </c>
       <c r="M155">
         <v>999</v>
@@ -36275,109 +36501,109 @@
         <v>999</v>
       </c>
       <c r="P155" t="s">
+        <v>3417</v>
+      </c>
+      <c r="Q155">
+        <v>999</v>
+      </c>
+      <c r="R155" t="s">
         <v>3418</v>
       </c>
-      <c r="Q155">
-        <v>999</v>
-      </c>
-      <c r="R155" t="s">
+      <c r="S155">
+        <v>999</v>
+      </c>
+      <c r="T155" t="s">
         <v>3419</v>
-      </c>
-      <c r="S155">
-        <v>999</v>
-      </c>
-      <c r="T155" t="s">
-        <v>3420</v>
       </c>
       <c r="U155" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="V155" s="11" t="s">
+      <c r="V155" t="s">
         <v>1159</v>
       </c>
-      <c r="W155" s="11" t="s">
+      <c r="W155" t="s">
+        <v>3422</v>
+      </c>
+      <c r="X155" t="s">
+        <v>3420</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>3421</v>
+      </c>
+      <c r="Z155" t="s">
         <v>3423</v>
       </c>
-      <c r="X155" s="11" t="s">
-        <v>3421</v>
-      </c>
-      <c r="Y155" s="11" t="s">
-        <v>3422</v>
-      </c>
-      <c r="Z155" s="11" t="s">
+      <c r="AA155" t="s">
         <v>3424</v>
       </c>
-      <c r="AA155" s="11" t="s">
+      <c r="AB155" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC155" t="s">
         <v>3425</v>
       </c>
-      <c r="AB155" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC155" s="11" t="s">
+      <c r="AD155" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE155" t="s">
         <v>3426</v>
       </c>
-      <c r="AD155" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE155" s="11" t="s">
+      <c r="AF155" t="s">
         <v>3427</v>
       </c>
-      <c r="AF155" s="11" t="s">
+      <c r="AG155" t="s">
         <v>3428</v>
       </c>
-      <c r="AG155" s="11" t="s">
+      <c r="AH155" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI155" t="s">
         <v>3429</v>
       </c>
-      <c r="AH155" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI155" s="11" t="s">
+      <c r="AJ155" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK155" t="s">
         <v>3430</v>
       </c>
-      <c r="AJ155" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK155" s="11" t="s">
+      <c r="AL155" t="s">
         <v>3431</v>
       </c>
-      <c r="AL155" s="11" t="s">
+      <c r="AM155" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AN155" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO155" t="s">
         <v>3432</v>
       </c>
-      <c r="AM155" s="11" t="s">
-        <v>1949</v>
-      </c>
-      <c r="AN155" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO155" s="11" t="s">
+      <c r="AP155" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ155" t="s">
         <v>3433</v>
       </c>
-      <c r="AP155" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ155" s="11" t="s">
+      <c r="AR155" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS155" t="s">
         <v>3434</v>
       </c>
-      <c r="AR155" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS155" s="11" t="s">
+      <c r="AT155" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU155" t="s">
         <v>3435</v>
       </c>
-      <c r="AT155" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU155" s="11" t="s">
+      <c r="AV155" t="s">
         <v>3436</v>
       </c>
-      <c r="AV155" s="11" t="s">
+      <c r="AW155" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AX155" t="s">
         <v>3437</v>
-      </c>
-      <c r="AW155" s="11" t="s">
-        <v>1865</v>
-      </c>
-      <c r="AX155" s="11" t="s">
-        <v>3438</v>
       </c>
       <c r="AY155" s="1" t="s">
         <v>340</v>
@@ -36421,10 +36647,10 @@
         <v>2763</v>
       </c>
       <c r="K156" t="s">
+        <v>3439</v>
+      </c>
+      <c r="L156" t="s">
         <v>3440</v>
-      </c>
-      <c r="L156" t="s">
-        <v>3441</v>
       </c>
       <c r="M156">
         <v>999</v>
@@ -36436,10 +36662,10 @@
         <v>103</v>
       </c>
       <c r="P156" t="s">
+        <v>3441</v>
+      </c>
+      <c r="Q156" t="s">
         <v>3442</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>3443</v>
       </c>
       <c r="R156">
         <v>999</v>
@@ -36451,113 +36677,118 @@
         <v>2966</v>
       </c>
       <c r="U156" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="V156" t="s">
         <v>3444</v>
       </c>
-      <c r="V156" s="11" t="s">
+      <c r="W156" t="s">
         <v>3445</v>
       </c>
-      <c r="W156" s="11" t="s">
+      <c r="X156" t="s">
         <v>3446</v>
       </c>
-      <c r="X156" s="11" t="s">
+      <c r="Y156" t="s">
         <v>3447</v>
       </c>
-      <c r="Y156" s="11" t="s">
+      <c r="Z156" t="s">
         <v>3448</v>
       </c>
-      <c r="Z156" s="11" t="s">
+      <c r="AA156" t="s">
+        <v>3462</v>
+      </c>
+      <c r="AB156" t="s">
         <v>3449</v>
       </c>
-      <c r="AA156" s="11" t="s">
+      <c r="AC156" t="s">
+        <v>3450</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>3451</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>3452</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>3453</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>3455</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>3456</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>3457</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>3461</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>3458</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>3459</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>3460</v>
+      </c>
+      <c r="AO156" t="s">
         <v>3463</v>
       </c>
-      <c r="AB156" s="11" t="s">
-        <v>3450</v>
-      </c>
-      <c r="AC156" s="11" t="s">
-        <v>3451</v>
-      </c>
-      <c r="AD156" s="11" t="s">
-        <v>3452</v>
-      </c>
-      <c r="AE156" s="11" t="s">
-        <v>3453</v>
-      </c>
-      <c r="AF156" s="11" t="s">
-        <v>3454</v>
-      </c>
-      <c r="AG156" s="11" t="s">
-        <v>3455</v>
-      </c>
-      <c r="AH156" s="11" t="s">
-        <v>3456</v>
-      </c>
-      <c r="AI156" s="11" t="s">
-        <v>3457</v>
-      </c>
-      <c r="AJ156" s="11" t="s">
-        <v>3458</v>
-      </c>
-      <c r="AK156" s="11" t="s">
-        <v>3462</v>
-      </c>
-      <c r="AL156" s="11" t="s">
-        <v>3459</v>
-      </c>
-      <c r="AM156" s="11" t="s">
-        <v>3460</v>
-      </c>
-      <c r="AN156" s="11" t="s">
-        <v>3461</v>
-      </c>
-      <c r="AO156" s="11" t="s">
+      <c r="AP156" t="s">
         <v>3464</v>
       </c>
-      <c r="AP156" s="11" t="s">
+      <c r="AQ156" t="s">
+        <v>811</v>
+      </c>
+      <c r="AR156" t="s">
         <v>3465</v>
       </c>
-      <c r="AQ156" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="AR156" s="11" t="s">
+      <c r="AS156" t="s">
         <v>3466</v>
       </c>
-      <c r="AS156" s="11" t="s">
+      <c r="AT156" t="s">
         <v>3467</v>
       </c>
-      <c r="AT156" s="11" t="s">
+      <c r="AU156" t="s">
         <v>3468</v>
       </c>
-      <c r="AU156" s="11" t="s">
+      <c r="AV156" t="s">
         <v>3469</v>
       </c>
-      <c r="AV156" s="11" t="s">
+      <c r="AW156" t="s">
         <v>3470</v>
       </c>
-      <c r="AW156" s="11" t="s">
-        <v>3471</v>
-      </c>
-      <c r="AX156" s="11" t="s">
+      <c r="AX156" t="s">
         <v>131</v>
       </c>
       <c r="AY156" s="1" t="s">
         <v>558</v>
       </c>
       <c r="AZ156" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="BA156" s="1" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2"/>
+      <c r="B157" s="2">
+        <v>44782</v>
+      </c>
       <c r="C157" t="s">
         <v>54</v>
       </c>
+      <c r="D157" t="s">
+        <v>2917</v>
+      </c>
       <c r="E157">
         <v>12</v>
       </c>
@@ -36566,16 +36797,159 @@
       </c>
       <c r="G157" t="s">
         <v>2681</v>
+      </c>
+      <c r="H157" t="s">
+        <v>97</v>
+      </c>
+      <c r="I157" t="s">
+        <v>175</v>
+      </c>
+      <c r="J157" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K157" t="s">
+        <v>3492</v>
+      </c>
+      <c r="L157" t="s">
+        <v>3493</v>
+      </c>
+      <c r="M157">
+        <v>999</v>
+      </c>
+      <c r="N157" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O157" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P157" t="s">
+        <v>3494</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>3495</v>
+      </c>
+      <c r="R157">
+        <v>999</v>
+      </c>
+      <c r="S157">
+        <v>999</v>
+      </c>
+      <c r="T157" t="s">
+        <v>142</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="V157" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="W157" s="14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X157" s="14" t="s">
+        <v>3497</v>
+      </c>
+      <c r="Y157" s="14" t="s">
+        <v>3498</v>
+      </c>
+      <c r="Z157" s="14" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA157" s="14" t="s">
+        <v>3499</v>
+      </c>
+      <c r="AB157" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC157" s="14" t="s">
+        <v>3500</v>
+      </c>
+      <c r="AD157" s="14" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AE157" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF157" s="14" t="s">
+        <v>3501</v>
+      </c>
+      <c r="AG157" s="14" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AH157" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI157" s="14" t="s">
+        <v>3502</v>
+      </c>
+      <c r="AJ157" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK157" s="14" t="s">
+        <v>3503</v>
+      </c>
+      <c r="AL157" s="14" t="s">
+        <v>3504</v>
+      </c>
+      <c r="AM157" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN157" s="14" t="s">
+        <v>3505</v>
+      </c>
+      <c r="AO157" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP157" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ157" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="AR157" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS157" s="14" t="s">
+        <v>3506</v>
+      </c>
+      <c r="AT157" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU157" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV157" s="14" t="s">
+        <v>3507</v>
+      </c>
+      <c r="AW157" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX157" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY157" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ157" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA157" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2"/>
+      <c r="B158" s="2">
+        <v>44782</v>
+      </c>
       <c r="C158" t="s">
         <v>54</v>
       </c>
+      <c r="D158" t="s">
+        <v>2917</v>
+      </c>
       <c r="E158">
         <v>12</v>
       </c>
@@ -36585,33 +36959,228 @@
       <c r="G158" t="s">
         <v>2682</v>
       </c>
+      <c r="H158" t="s">
+        <v>97</v>
+      </c>
+      <c r="I158" t="s">
+        <v>175</v>
+      </c>
+      <c r="J158" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K158" t="s">
+        <v>3508</v>
+      </c>
+      <c r="L158" t="s">
+        <v>3509</v>
+      </c>
+      <c r="M158">
+        <v>999</v>
+      </c>
+      <c r="N158" t="s">
+        <v>177</v>
+      </c>
+      <c r="O158" t="s">
+        <v>103</v>
+      </c>
+      <c r="P158" t="s">
+        <v>3523</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>3510</v>
+      </c>
+      <c r="R158">
+        <v>999</v>
+      </c>
+      <c r="S158">
+        <v>999</v>
+      </c>
+      <c r="T158" t="s">
+        <v>64</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="V158" s="14" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W158" s="14" t="s">
+        <v>3512</v>
+      </c>
+      <c r="X158" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y158" s="14" t="s">
+        <v>3513</v>
+      </c>
+      <c r="Z158" s="14" t="s">
+        <v>3514</v>
+      </c>
+      <c r="AA158" s="14" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AB158" s="14" t="s">
+        <v>3515</v>
+      </c>
+      <c r="AC158" s="14" t="s">
+        <v>3516</v>
+      </c>
+      <c r="AD158" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE158" s="14" t="s">
+        <v>3517</v>
+      </c>
+      <c r="AF158" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG158" s="14" t="s">
+        <v>3518</v>
+      </c>
+      <c r="AH158" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI158" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AJ158" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK158" s="14" t="s">
+        <v>3519</v>
+      </c>
+      <c r="AL158" s="14" t="s">
+        <v>3520</v>
+      </c>
+      <c r="AM158" s="14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AN158" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO158" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP158" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ158" s="14" t="s">
+        <v>3521</v>
+      </c>
+      <c r="AR158" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS158" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AT158" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU158" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV158" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW158" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX158" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY158" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ158" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA158" s="1" t="s">
+        <v>3522</v>
+      </c>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s">
+      <c r="B159" s="12">
+        <v>44782</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E159">
+      <c r="D159" s="11" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E159" s="11">
         <v>12</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="11">
         <v>9</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="11" t="s">
         <v>2683</v>
       </c>
+      <c r="H159" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>3525</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>3526</v>
+      </c>
+      <c r="M159" s="11">
+        <v>999</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O159" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P159" s="11" t="s">
+        <v>3527</v>
+      </c>
+      <c r="Q159" s="11" t="s">
+        <v>3528</v>
+      </c>
+      <c r="R159" s="11">
+        <v>999</v>
+      </c>
+      <c r="S159" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T159" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="U159" s="13">
+        <v>999</v>
+      </c>
+      <c r="AY159" s="13"/>
+      <c r="AZ159" s="15" t="s">
+        <v>3524</v>
+      </c>
+      <c r="BA159" s="13"/>
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2"/>
+      <c r="B160" s="2">
+        <v>44782</v>
+      </c>
       <c r="C160" t="s">
         <v>54</v>
       </c>
+      <c r="D160" t="s">
+        <v>2917</v>
+      </c>
       <c r="E160">
         <v>12</v>
       </c>
@@ -36620,6 +37189,147 @@
       </c>
       <c r="G160" t="s">
         <v>2684</v>
+      </c>
+      <c r="H160" t="s">
+        <v>213</v>
+      </c>
+      <c r="I160" t="s">
+        <v>175</v>
+      </c>
+      <c r="J160" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K160" t="s">
+        <v>3529</v>
+      </c>
+      <c r="L160" t="s">
+        <v>3530</v>
+      </c>
+      <c r="M160">
+        <v>999</v>
+      </c>
+      <c r="N160" t="s">
+        <v>177</v>
+      </c>
+      <c r="O160" t="s">
+        <v>103</v>
+      </c>
+      <c r="P160" t="s">
+        <v>3531</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>3532</v>
+      </c>
+      <c r="R160">
+        <v>999</v>
+      </c>
+      <c r="S160">
+        <v>999</v>
+      </c>
+      <c r="T160" t="s">
+        <v>3533</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="V160" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="W160" s="14" t="s">
+        <v>3536</v>
+      </c>
+      <c r="X160" s="14" t="s">
+        <v>3538</v>
+      </c>
+      <c r="Y160" s="14" t="s">
+        <v>3539</v>
+      </c>
+      <c r="Z160" s="14" t="s">
+        <v>3540</v>
+      </c>
+      <c r="AA160" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB160" s="14" t="s">
+        <v>3541</v>
+      </c>
+      <c r="AC160" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AD160" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE160" s="14" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF160" s="14" t="s">
+        <v>3542</v>
+      </c>
+      <c r="AG160" s="14" t="s">
+        <v>3543</v>
+      </c>
+      <c r="AH160" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI160" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ160" s="14" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AK160" s="14" t="s">
+        <v>3544</v>
+      </c>
+      <c r="AL160" s="14" t="s">
+        <v>3545</v>
+      </c>
+      <c r="AM160" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN160" s="14" t="s">
+        <v>3546</v>
+      </c>
+      <c r="AO160" s="14" t="s">
+        <v>3547</v>
+      </c>
+      <c r="AP160" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AQ160" s="14" t="s">
+        <v>3548</v>
+      </c>
+      <c r="AR160" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS160" s="14" t="s">
+        <v>3549</v>
+      </c>
+      <c r="AT160" s="14" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AU160" s="14" t="s">
+        <v>3551</v>
+      </c>
+      <c r="AV160" s="14" t="s">
+        <v>3552</v>
+      </c>
+      <c r="AW160" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AX160" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY160" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ160" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA160" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="BB160" t="s">
+        <v>3535</v>
       </c>
     </row>
     <row r="161" spans="1:53" x14ac:dyDescent="0.25">
@@ -36674,11 +37384,161 @@
       <c r="A164">
         <v>163</v>
       </c>
+      <c r="B164" t="s">
+        <v>3554</v>
+      </c>
       <c r="C164" t="s">
         <v>54</v>
       </c>
+      <c r="D164" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E164">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>14</v>
+      </c>
       <c r="G164" t="s">
         <v>2688</v>
+      </c>
+      <c r="H164" t="s">
+        <v>97</v>
+      </c>
+      <c r="I164" t="s">
+        <v>175</v>
+      </c>
+      <c r="J164" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K164" t="s">
+        <v>3555</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M164">
+        <v>999</v>
+      </c>
+      <c r="N164" t="s">
+        <v>177</v>
+      </c>
+      <c r="O164" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P164" t="s">
+        <v>3556</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>3557</v>
+      </c>
+      <c r="R164" t="s">
+        <v>1597</v>
+      </c>
+      <c r="S164">
+        <v>999</v>
+      </c>
+      <c r="T164" t="s">
+        <v>179</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="V164" s="14" t="s">
+        <v>3559</v>
+      </c>
+      <c r="W164" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="X164" s="14" t="s">
+        <v>3560</v>
+      </c>
+      <c r="Y164" s="14" t="s">
+        <v>3561</v>
+      </c>
+      <c r="Z164" s="14" t="s">
+        <v>3562</v>
+      </c>
+      <c r="AA164" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB164" s="14" t="s">
+        <v>3515</v>
+      </c>
+      <c r="AC164" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD164" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE164" s="14" t="s">
+        <v>3563</v>
+      </c>
+      <c r="AF164" s="14" t="s">
+        <v>3564</v>
+      </c>
+      <c r="AG164" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AH164" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI164" s="14" t="s">
+        <v>3565</v>
+      </c>
+      <c r="AJ164" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK164" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL164" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AM164" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN164" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO164" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP164" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ164" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="AR164" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS164" s="14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AT164" s="14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AU164" s="14" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AV164" s="14" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AW164" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX164" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY164" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ164" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA164" s="1" t="s">
+        <v>3566</v>
       </c>
     </row>
     <row r="165" spans="1:53" x14ac:dyDescent="0.25">
@@ -36735,10 +37595,10 @@
         <v>2763</v>
       </c>
       <c r="K167" t="s">
+        <v>3472</v>
+      </c>
+      <c r="L167" t="s">
         <v>3473</v>
-      </c>
-      <c r="L167" t="s">
-        <v>3474</v>
       </c>
       <c r="M167">
         <v>999</v>
@@ -36750,31 +37610,31 @@
         <v>999</v>
       </c>
       <c r="P167" t="s">
+        <v>3474</v>
+      </c>
+      <c r="Q167" t="s">
         <v>3475</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167">
+        <v>999</v>
+      </c>
+      <c r="S167" t="s">
         <v>3476</v>
       </c>
-      <c r="R167">
-        <v>999</v>
-      </c>
-      <c r="S167" t="s">
+      <c r="T167">
+        <v>999</v>
+      </c>
+      <c r="U167" s="1">
+        <v>999</v>
+      </c>
+      <c r="V167">
+        <v>999</v>
+      </c>
+      <c r="W167" t="s">
         <v>3477</v>
       </c>
-      <c r="T167">
-        <v>999</v>
-      </c>
-      <c r="U167" s="1">
-        <v>999</v>
-      </c>
-      <c r="V167" s="11">
-        <v>999</v>
-      </c>
-      <c r="W167" t="s">
+      <c r="X167" t="s">
         <v>3478</v>
-      </c>
-      <c r="X167" t="s">
-        <v>3479</v>
       </c>
       <c r="Y167">
         <v>999</v>
@@ -36789,7 +37649,7 @@
         <v>999</v>
       </c>
       <c r="AC167" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="AD167" t="s">
         <v>189</v>
@@ -36801,31 +37661,31 @@
         <v>999</v>
       </c>
       <c r="AG167" t="s">
+        <v>3480</v>
+      </c>
+      <c r="AH167">
+        <v>999</v>
+      </c>
+      <c r="AI167" t="s">
         <v>3481</v>
       </c>
-      <c r="AH167">
-        <v>999</v>
-      </c>
-      <c r="AI167" t="s">
+      <c r="AJ167" t="s">
         <v>3482</v>
       </c>
-      <c r="AJ167" t="s">
+      <c r="AK167" t="s">
         <v>3483</v>
       </c>
-      <c r="AK167" t="s">
+      <c r="AL167">
+        <v>999</v>
+      </c>
+      <c r="AM167" t="s">
         <v>3484</v>
       </c>
-      <c r="AL167">
-        <v>999</v>
-      </c>
-      <c r="AM167" t="s">
+      <c r="AN167" t="s">
         <v>3485</v>
       </c>
-      <c r="AN167" t="s">
+      <c r="AO167" t="s">
         <v>3486</v>
-      </c>
-      <c r="AO167" t="s">
-        <v>3487</v>
       </c>
       <c r="AP167" t="s">
         <v>259</v>
@@ -36837,22 +37697,22 @@
         <v>202</v>
       </c>
       <c r="AS167" t="s">
+        <v>3487</v>
+      </c>
+      <c r="AT167" t="s">
         <v>3488</v>
       </c>
-      <c r="AT167" t="s">
+      <c r="AU167">
+        <v>999</v>
+      </c>
+      <c r="AV167" t="s">
         <v>3489</v>
       </c>
-      <c r="AU167">
-        <v>999</v>
-      </c>
-      <c r="AV167" t="s">
+      <c r="AW167" t="s">
         <v>3490</v>
       </c>
-      <c r="AW167" t="s">
+      <c r="AX167" t="s">
         <v>3491</v>
-      </c>
-      <c r="AX167" t="s">
-        <v>3492</v>
       </c>
       <c r="AY167" s="1" t="s">
         <v>209</v>
@@ -37636,10 +38496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -37668,6 +38528,11 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
     </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>3567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC72C88-0087-4044-9D26-C4E75A89A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3A980C-88B2-4B2E-8A29-45407178A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="312" windowWidth="12984" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="84" windowWidth="14232" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7216" uniqueCount="3568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="3737">
   <si>
     <t>ID</t>
   </si>
@@ -11600,9 +11600,6 @@
     <t>Geisel, Geisle &lt;alem&gt;</t>
   </si>
   <si>
-    <t>Chrüselbeer )alem.&gt;</t>
-  </si>
-  <si>
     <t>Glufen, Güfle &lt;alem.&gt;</t>
   </si>
   <si>
@@ -11801,9 +11798,6 @@
     <t>Schwiägerdochter</t>
   </si>
   <si>
-    <t>09/08(2022</t>
-  </si>
-  <si>
     <t>t-[?]</t>
   </si>
   <si>
@@ -11841,6 +11835,561 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>Chrüselbeer &lt;alem.&gt;</t>
+  </si>
+  <si>
+    <t>t-Ja</t>
+  </si>
+  <si>
+    <t>Wintersweiler</t>
+  </si>
+  <si>
+    <t>durch Mithilfe d. Schüler</t>
+  </si>
+  <si>
+    <t>Diĕ[ss]le (w)</t>
+  </si>
+  <si>
+    <t>Ägescht[a] (w)</t>
+  </si>
+  <si>
+    <t>Änta (w) &lt;für Enterich kein Wort&gt;</t>
+  </si>
+  <si>
+    <t>Fläd[e]rmuus (w)</t>
+  </si>
+  <si>
+    <t>Flí[ĕ]ga (w)</t>
+  </si>
+  <si>
+    <t>Guggum[e]r[a] (w) &lt;Gŭrka&gt;</t>
+  </si>
+  <si>
+    <t>H[a]gebŭdda (w)</t>
+  </si>
+  <si>
+    <t>Gŭkl (m), Hŭăn (s)</t>
+  </si>
+  <si>
+    <t>Krŭmb[íre] {í könnte auch ohne Strich sein}</t>
+  </si>
+  <si>
+    <t>Rolli (m) &lt;Katzerolli&gt;</t>
+  </si>
+  <si>
+    <t>Sch[ă]rmŭŭs (m)</t>
+  </si>
+  <si>
+    <t>Gälrübe[e] (w) &lt;Gelb[e] Rübe&gt;</t>
+  </si>
+  <si>
+    <t>Geißl[e] (w)</t>
+  </si>
+  <si>
+    <t>Pflŭŭme (w)</t>
+  </si>
+  <si>
+    <t>schimpfa, brŭele</t>
+  </si>
+  <si>
+    <t>Gŭfe (w)</t>
+  </si>
+  <si>
+    <t>Stricknodl[e] (w)</t>
+  </si>
+  <si>
+    <t>T[i]ßli (s) &lt;kleine T[e]ssa&gt;, Schüsseli (s) &lt;groß&gt;</t>
+  </si>
+  <si>
+    <t>Hafe[n] (m)</t>
+  </si>
+  <si>
+    <t>zwiig[e]</t>
+  </si>
+  <si>
+    <t>Fand ich allgemein schwierig zu lesen (Insbesonder Vokale)</t>
+  </si>
+  <si>
+    <t>Holdere (m)</t>
+  </si>
+  <si>
+    <t>t-K</t>
+  </si>
+  <si>
+    <t>Mappach</t>
+  </si>
+  <si>
+    <t>Georg Mörg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [K]arlbruhn</t>
+  </si>
+  <si>
+    <t>Omeise &lt;Einz.&gt;, Oms[?e] &lt;Mehr.&gt; (w)</t>
+  </si>
+  <si>
+    <t>Liech</t>
+  </si>
+  <si>
+    <t>Dischle (w)</t>
+  </si>
+  <si>
+    <t>Änderich (m)</t>
+  </si>
+  <si>
+    <t>Gugl, Huen</t>
+  </si>
+  <si>
+    <t>[D]i[?]krübe (w) &lt;?&gt;</t>
+  </si>
+  <si>
+    <t>S[?]batz (m)</t>
+  </si>
+  <si>
+    <t>Chrüslbeeri (w)</t>
+  </si>
+  <si>
+    <t>Guefe (w)</t>
+  </si>
+  <si>
+    <t>Stri[c]knodle (w)</t>
+  </si>
+  <si>
+    <t>Holdäre</t>
+  </si>
+  <si>
+    <t>t-L</t>
+  </si>
+  <si>
+    <t>Holzen</t>
+  </si>
+  <si>
+    <t>[Z]. [Zr]eund</t>
+  </si>
+  <si>
+    <t>Schw,</t>
+  </si>
+  <si>
+    <t>u. Erwachsene</t>
+  </si>
+  <si>
+    <t>Ōmeise</t>
+  </si>
+  <si>
+    <t>El[?]ster</t>
+  </si>
+  <si>
+    <t>Ände</t>
+  </si>
+  <si>
+    <t>Emdet</t>
+  </si>
+  <si>
+    <t>Gugum̄ere</t>
+  </si>
+  <si>
+    <t>Guckel, Hu[e]hn {e wohl hinterher nachgefügt}</t>
+  </si>
+  <si>
+    <t>[G]rum̄biere</t>
+  </si>
+  <si>
+    <t>Schäärmus</t>
+  </si>
+  <si>
+    <t>Gälirüebe</t>
+  </si>
+  <si>
+    <t>brüelen</t>
+  </si>
+  <si>
+    <t>Chrüslbeeri</t>
+  </si>
+  <si>
+    <t>Schüßeli</t>
+  </si>
+  <si>
+    <t>Hāfe</t>
+  </si>
+  <si>
+    <t>t-N</t>
+  </si>
+  <si>
+    <t>Walter Vagel</t>
+  </si>
+  <si>
+    <t>Kr. Müllheim</t>
+  </si>
+  <si>
+    <t>Omsle (w), Omeise</t>
+  </si>
+  <si>
+    <t>Lichungung, [L]eerdigung</t>
+  </si>
+  <si>
+    <t>Die[c]sle (w)</t>
+  </si>
+  <si>
+    <t>Egerste &lt;Ag&gt;, Elster</t>
+  </si>
+  <si>
+    <t>Enderich, Anderich</t>
+  </si>
+  <si>
+    <t>Fleddermus</t>
+  </si>
+  <si>
+    <t>Ähmd, Ahmd</t>
+  </si>
+  <si>
+    <t>Hagebutte (w), Buttere</t>
+  </si>
+  <si>
+    <t>Guckel. Huhn</t>
+  </si>
+  <si>
+    <t>Schar, Scharmus</t>
+  </si>
+  <si>
+    <t>Gelribe</t>
+  </si>
+  <si>
+    <t>Mohr, Zu[c]htsau</t>
+  </si>
+  <si>
+    <t>Schimpfe</t>
+  </si>
+  <si>
+    <t>Gufa, Stecknodle</t>
+  </si>
+  <si>
+    <t>Tasse, Tallerle</t>
+  </si>
+  <si>
+    <t>zwiege, pfropfe</t>
+  </si>
+  <si>
+    <t>Schwiegertochter, Suhnsfrau</t>
+  </si>
+  <si>
+    <t>t-O</t>
+  </si>
+  <si>
+    <t>Riedlingen</t>
+  </si>
+  <si>
+    <t>W. Fi[?]sler</t>
+  </si>
+  <si>
+    <t>L[?]fel</t>
+  </si>
+  <si>
+    <t>Omeise (f)</t>
+  </si>
+  <si>
+    <t>Licht (f)</t>
+  </si>
+  <si>
+    <t>Brombeeri (f)</t>
+  </si>
+  <si>
+    <t>Diexle (f)</t>
+  </si>
+  <si>
+    <t>Elstere (f)</t>
+  </si>
+  <si>
+    <t>Änterich (m)</t>
+  </si>
+  <si>
+    <t>Flädermus (f)</t>
+  </si>
+  <si>
+    <t>Fliege (f)</t>
+  </si>
+  <si>
+    <t>Ähmd (s) {zeile 47 statt 48}</t>
+  </si>
+  <si>
+    <t>Gugummere (f)</t>
+  </si>
+  <si>
+    <t>Butte (f)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hŭen (f)</t>
+  </si>
+  <si>
+    <t>Hebam (f)</t>
+  </si>
+  <si>
+    <t>Krumbire (f)</t>
+  </si>
+  <si>
+    <t>Schärmus (f)</t>
+  </si>
+  <si>
+    <t>Rüebe (f)</t>
+  </si>
+  <si>
+    <t>Mor (f)</t>
+  </si>
+  <si>
+    <t>Gött[e] (m)</t>
+  </si>
+  <si>
+    <t>Geißle (f)</t>
+  </si>
+  <si>
+    <t>Gufe (f)</t>
+  </si>
+  <si>
+    <t>Stricknodle (f)</t>
+  </si>
+  <si>
+    <t>Tässli (s)</t>
+  </si>
+  <si>
+    <t>Sitzenkirch</t>
+  </si>
+  <si>
+    <t>fr. Nagel</t>
+  </si>
+  <si>
+    <t>und Einheimischen</t>
+  </si>
+  <si>
+    <t>Brumberi</t>
+  </si>
+  <si>
+    <t>Fliëge</t>
+  </si>
+  <si>
+    <t>Gockel, Huen</t>
+  </si>
+  <si>
+    <t>H[e]bamm[e]</t>
+  </si>
+  <si>
+    <t>Grumbire</t>
+  </si>
+  <si>
+    <t>Gelrüebe</t>
+  </si>
+  <si>
+    <t>Schüsselë &lt;mit&gt; Unde[r]blädde[r]</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (d')</t>
+  </si>
+  <si>
+    <t>t-S</t>
+  </si>
+  <si>
+    <t>Malsburg</t>
+  </si>
+  <si>
+    <t>Vogelbach</t>
+  </si>
+  <si>
+    <t>Karl [A]chmann</t>
+  </si>
+  <si>
+    <t>Elschder (w)</t>
+  </si>
+  <si>
+    <t>Guggel, Hun</t>
+  </si>
+  <si>
+    <t>Grumbīēre (w)</t>
+  </si>
+  <si>
+    <t>Galrüebe (w)</t>
+  </si>
+  <si>
+    <t>Göddī (m)</t>
+  </si>
+  <si>
+    <t>schim[p]fe, düber[e]</t>
+  </si>
+  <si>
+    <t>Schdachelbäre (w)</t>
+  </si>
+  <si>
+    <t>Güüfli (f)</t>
+  </si>
+  <si>
+    <t>Schdriggnoodla (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli (f)</t>
+  </si>
+  <si>
+    <t>Omesse (w)</t>
+  </si>
+  <si>
+    <t>Schw[īī]gerdochder (w)</t>
+  </si>
+  <si>
+    <t>t-[R]</t>
+  </si>
+  <si>
+    <t>Endenburg</t>
+  </si>
+  <si>
+    <r>
+      <t>Omeise, Omsm</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Brumbeeri (e, w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Di</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chsle (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Guggel (m), Hueh (s)</t>
+  </si>
+  <si>
+    <t>Chatzer[u]lli (m)</t>
+  </si>
+  <si>
+    <t>Gu[w]e (w)</t>
+  </si>
+  <si>
+    <t>[f]ünefulta hafa (m) &lt;feu[??]felt&gt; {durchegehend unsicher}</t>
+  </si>
+  <si>
+    <t>Schwiegertochter &lt;die junge [fr]au&gt;</t>
+  </si>
+  <si>
+    <t>t-U</t>
+  </si>
+  <si>
+    <t>Hofen</t>
+  </si>
+  <si>
+    <t>Mainau</t>
+  </si>
+  <si>
+    <t>Bäramsle (w)</t>
+  </si>
+  <si>
+    <t>Dis(c)hsle (w)</t>
+  </si>
+  <si>
+    <t>Elster &lt;Vogel [b]rut hi[er] nicht b[n]&gt;</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhn (s, w)</t>
+  </si>
+  <si>
+    <t>Grumbire (w)</t>
+  </si>
+  <si>
+    <t>Gelrübe</t>
+  </si>
+  <si>
+    <t>G[ö]tti (m) {umlaut ist unsicher}</t>
+  </si>
+  <si>
+    <t>schelte, balge</t>
+  </si>
+  <si>
+    <t>balge, brüele</t>
+  </si>
+  <si>
+    <t>Gluvle (s)</t>
+  </si>
+  <si>
+    <t>t-V</t>
+  </si>
+  <si>
+    <t>&lt;Termin 20 Jahr 41 [Kr a]&gt;</t>
+  </si>
+  <si>
+    <t>Weitenau</t>
+  </si>
+  <si>
+    <t>[T]ohl</t>
+  </si>
+  <si>
+    <t>des 7. u. 8. Schuljahrs</t>
+  </si>
+  <si>
+    <t>des 7. u. 8. Schulj.</t>
+  </si>
+  <si>
+    <t>Liechd (w)</t>
+  </si>
+  <si>
+    <t>Dis[c]hle</t>
+  </si>
+  <si>
+    <t>Elster &lt;Hier nicht heimische Vogelart&gt;</t>
+  </si>
+  <si>
+    <t>Flademus</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhn (w. s)</t>
+  </si>
+  <si>
+    <t>Gelbr[ü]be {umlaut unsicher}</t>
+  </si>
+  <si>
+    <t>briele, balge &lt;schelte&gt;</t>
+  </si>
+  <si>
+    <t>Gluve (w), Guve (w)</t>
+  </si>
+  <si>
+    <t>Schusseli</t>
+  </si>
+  <si>
+    <t>&lt;ab&gt;zwiige</t>
   </si>
 </sst>
 </file>
@@ -11997,7 +12546,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -12318,8 +12867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA164" sqref="BA164"/>
+    <sheetView topLeftCell="AP133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA172" sqref="BA172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36127,7 +36676,7 @@
         <v>3378</v>
       </c>
       <c r="V152" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="W152" t="s">
         <v>3379</v>
@@ -36808,10 +37357,10 @@
         <v>2763</v>
       </c>
       <c r="K157" t="s">
+        <v>3491</v>
+      </c>
+      <c r="L157" t="s">
         <v>3492</v>
-      </c>
-      <c r="L157" t="s">
-        <v>3493</v>
       </c>
       <c r="M157">
         <v>999</v>
@@ -36823,10 +37372,10 @@
         <v>1249</v>
       </c>
       <c r="P157" t="s">
+        <v>3493</v>
+      </c>
+      <c r="Q157" t="s">
         <v>3494</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>3495</v>
       </c>
       <c r="R157">
         <v>999</v>
@@ -36838,93 +37387,93 @@
         <v>142</v>
       </c>
       <c r="U157" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="V157" t="s">
+        <v>723</v>
+      </c>
+      <c r="W157" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X157" t="s">
         <v>3496</v>
       </c>
-      <c r="V157" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="W157" s="14" t="s">
-        <v>1578</v>
-      </c>
-      <c r="X157" s="14" t="s">
+      <c r="Y157" t="s">
         <v>3497</v>
       </c>
-      <c r="Y157" s="14" t="s">
+      <c r="Z157" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA157" t="s">
         <v>3498</v>
       </c>
-      <c r="Z157" s="14" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AA157" s="14" t="s">
+      <c r="AB157" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC157" t="s">
         <v>3499</v>
       </c>
-      <c r="AB157" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC157" s="14" t="s">
+      <c r="AD157" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF157" t="s">
         <v>3500</v>
       </c>
-      <c r="AD157" s="14" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AE157" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF157" s="14" t="s">
+      <c r="AG157" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI157" t="s">
         <v>3501</v>
       </c>
-      <c r="AG157" s="14" t="s">
-        <v>3174</v>
-      </c>
-      <c r="AH157" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="AI157" s="14" t="s">
+      <c r="AJ157" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK157" t="s">
         <v>3502</v>
       </c>
-      <c r="AJ157" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK157" s="14" t="s">
+      <c r="AL157" t="s">
         <v>3503</v>
       </c>
-      <c r="AL157" s="14" t="s">
+      <c r="AM157" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN157" t="s">
         <v>3504</v>
       </c>
-      <c r="AM157" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN157" s="14" t="s">
+      <c r="AO157" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP157" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ157" t="s">
+        <v>787</v>
+      </c>
+      <c r="AR157" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS157" t="s">
         <v>3505</v>
       </c>
-      <c r="AO157" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP157" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ157" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="AR157" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS157" s="14" t="s">
+      <c r="AT157" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU157" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV157" t="s">
         <v>3506</v>
       </c>
-      <c r="AT157" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="AU157" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV157" s="14" t="s">
-        <v>3507</v>
-      </c>
-      <c r="AW157" s="14" t="s">
+      <c r="AW157" t="s">
         <v>792</v>
       </c>
-      <c r="AX157" s="14" t="s">
+      <c r="AX157" t="s">
         <v>131</v>
       </c>
       <c r="AY157" s="1" t="s">
@@ -36969,10 +37518,10 @@
         <v>2763</v>
       </c>
       <c r="K158" t="s">
+        <v>3507</v>
+      </c>
+      <c r="L158" t="s">
         <v>3508</v>
-      </c>
-      <c r="L158" t="s">
-        <v>3509</v>
       </c>
       <c r="M158">
         <v>999</v>
@@ -36984,10 +37533,10 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="Q158" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="R158">
         <v>999</v>
@@ -36999,103 +37548,103 @@
         <v>64</v>
       </c>
       <c r="U158" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="V158" t="s">
+        <v>1649</v>
+      </c>
+      <c r="W158" t="s">
         <v>3511</v>
       </c>
-      <c r="V158" s="14" t="s">
-        <v>1649</v>
-      </c>
-      <c r="W158" s="14" t="s">
+      <c r="X158" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y158" t="s">
         <v>3512</v>
       </c>
-      <c r="X158" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y158" s="14" t="s">
+      <c r="Z158" t="s">
         <v>3513</v>
       </c>
-      <c r="Z158" s="14" t="s">
+      <c r="AA158" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AB158" t="s">
         <v>3514</v>
       </c>
-      <c r="AA158" s="14" t="s">
-        <v>2268</v>
-      </c>
-      <c r="AB158" s="14" t="s">
+      <c r="AC158" t="s">
         <v>3515</v>
       </c>
-      <c r="AC158" s="14" t="s">
+      <c r="AD158" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE158" t="s">
         <v>3516</v>
       </c>
-      <c r="AD158" s="14" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AE158" s="14" t="s">
+      <c r="AF158" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG158" t="s">
         <v>3517</v>
       </c>
-      <c r="AF158" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG158" s="14" t="s">
+      <c r="AH158" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK158" t="s">
         <v>3518</v>
       </c>
-      <c r="AH158" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI158" s="14" t="s">
-        <v>1216</v>
-      </c>
-      <c r="AJ158" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK158" s="14" t="s">
+      <c r="AL158" t="s">
         <v>3519</v>
       </c>
-      <c r="AL158" s="14" t="s">
+      <c r="AM158" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AN158" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO158" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP158" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ158" t="s">
         <v>3520</v>
       </c>
-      <c r="AM158" s="14" t="s">
-        <v>1949</v>
-      </c>
-      <c r="AN158" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO158" s="14" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AP158" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ158" s="14" t="s">
-        <v>3521</v>
-      </c>
-      <c r="AR158" s="14" t="s">
+      <c r="AR158" t="s">
         <v>165</v>
       </c>
-      <c r="AS158" s="14" t="s">
+      <c r="AS158" t="s">
         <v>1834</v>
       </c>
-      <c r="AT158" s="14" t="s">
+      <c r="AT158" t="s">
         <v>297</v>
       </c>
-      <c r="AU158" s="14" t="s">
+      <c r="AU158" t="s">
         <v>298</v>
       </c>
-      <c r="AV158" s="14" t="s">
+      <c r="AV158" t="s">
         <v>299</v>
       </c>
-      <c r="AW158" s="14" t="s">
+      <c r="AW158" t="s">
         <v>394</v>
       </c>
-      <c r="AX158" s="14" t="s">
+      <c r="AX158" t="s">
         <v>131</v>
       </c>
       <c r="AY158" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ158" s="14" t="s">
+      <c r="AZ158" t="s">
         <v>1078</v>
       </c>
       <c r="BA158" s="1" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="159" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -37130,10 +37679,10 @@
         <v>2763</v>
       </c>
       <c r="K159" s="11" t="s">
+        <v>3524</v>
+      </c>
+      <c r="L159" s="11" t="s">
         <v>3525</v>
-      </c>
-      <c r="L159" s="11" t="s">
-        <v>3526</v>
       </c>
       <c r="M159" s="11">
         <v>999</v>
@@ -37145,10 +37694,10 @@
         <v>103</v>
       </c>
       <c r="P159" s="11" t="s">
+        <v>3526</v>
+      </c>
+      <c r="Q159" s="11" t="s">
         <v>3527</v>
-      </c>
-      <c r="Q159" s="11" t="s">
-        <v>3528</v>
       </c>
       <c r="R159" s="11">
         <v>999</v>
@@ -37163,8 +37712,8 @@
         <v>999</v>
       </c>
       <c r="AY159" s="13"/>
-      <c r="AZ159" s="15" t="s">
-        <v>3524</v>
+      <c r="AZ159" s="11" t="s">
+        <v>3523</v>
       </c>
       <c r="BA159" s="13"/>
     </row>
@@ -37200,10 +37749,10 @@
         <v>2763</v>
       </c>
       <c r="K160" t="s">
+        <v>3528</v>
+      </c>
+      <c r="L160" t="s">
         <v>3529</v>
-      </c>
-      <c r="L160" t="s">
-        <v>3530</v>
       </c>
       <c r="M160">
         <v>999</v>
@@ -37215,131 +37764,136 @@
         <v>103</v>
       </c>
       <c r="P160" t="s">
+        <v>3530</v>
+      </c>
+      <c r="Q160" t="s">
         <v>3531</v>
       </c>
-      <c r="Q160" t="s">
+      <c r="R160">
+        <v>999</v>
+      </c>
+      <c r="S160">
+        <v>999</v>
+      </c>
+      <c r="T160" t="s">
         <v>3532</v>
       </c>
-      <c r="R160">
-        <v>999</v>
-      </c>
-      <c r="S160">
-        <v>999</v>
-      </c>
-      <c r="T160" t="s">
+      <c r="U160" s="1" t="s">
         <v>3533</v>
       </c>
-      <c r="U160" s="1" t="s">
-        <v>3534</v>
-      </c>
-      <c r="V160" s="14" t="s">
+      <c r="V160" t="s">
         <v>314</v>
       </c>
-      <c r="W160" s="14" t="s">
-        <v>3536</v>
-      </c>
-      <c r="X160" s="14" t="s">
+      <c r="W160" t="s">
+        <v>3535</v>
+      </c>
+      <c r="X160" t="s">
+        <v>3537</v>
+      </c>
+      <c r="Y160" t="s">
         <v>3538</v>
       </c>
-      <c r="Y160" s="14" t="s">
+      <c r="Z160" t="s">
         <v>3539</v>
       </c>
-      <c r="Z160" s="14" t="s">
+      <c r="AA160" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB160" t="s">
         <v>3540</v>
       </c>
-      <c r="AA160" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB160" s="14" t="s">
+      <c r="AC160" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF160" t="s">
         <v>3541</v>
       </c>
-      <c r="AC160" s="14" t="s">
-        <v>1740</v>
-      </c>
-      <c r="AD160" s="14" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AE160" s="14" t="s">
-        <v>1760</v>
-      </c>
-      <c r="AF160" s="14" t="s">
+      <c r="AG160" t="s">
         <v>3542</v>
       </c>
-      <c r="AG160" s="14" t="s">
+      <c r="AH160" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AK160" t="s">
         <v>3543</v>
       </c>
-      <c r="AH160" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI160" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ160" s="14" t="s">
-        <v>2130</v>
-      </c>
-      <c r="AK160" s="14" t="s">
+      <c r="AL160" t="s">
         <v>3544</v>
       </c>
-      <c r="AL160" s="14" t="s">
+      <c r="AM160" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN160" t="s">
         <v>3545</v>
       </c>
-      <c r="AM160" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="AN160" s="14" t="s">
+      <c r="AO160" t="s">
         <v>3546</v>
       </c>
-      <c r="AO160" s="14" t="s">
+      <c r="AP160" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AQ160" t="s">
         <v>3547</v>
       </c>
-      <c r="AP160" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AQ160" s="14" t="s">
+      <c r="AR160" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS160" t="s">
         <v>3548</v>
       </c>
-      <c r="AR160" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS160" s="14" t="s">
+      <c r="AT160" t="s">
         <v>3549</v>
       </c>
-      <c r="AT160" s="14" t="s">
+      <c r="AU160" t="s">
         <v>3550</v>
       </c>
-      <c r="AU160" s="14" t="s">
+      <c r="AV160" t="s">
         <v>3551</v>
       </c>
-      <c r="AV160" s="14" t="s">
-        <v>3552</v>
-      </c>
-      <c r="AW160" s="14" t="s">
+      <c r="AW160" t="s">
         <v>1175</v>
       </c>
-      <c r="AX160" s="14" t="s">
+      <c r="AX160" t="s">
         <v>1197</v>
       </c>
       <c r="AY160" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ160" s="14" t="s">
+      <c r="AZ160" t="s">
         <v>1078</v>
       </c>
       <c r="BA160" s="1" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="BB160" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
-    <row r="161" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="2"/>
+      <c r="B161" s="2">
+        <v>44784</v>
+      </c>
       <c r="C161" t="s">
         <v>54</v>
       </c>
+      <c r="D161" t="s">
+        <v>2917</v>
+      </c>
       <c r="E161">
         <v>12</v>
       </c>
@@ -37349,15 +37903,161 @@
       <c r="G161" t="s">
         <v>2685</v>
       </c>
+      <c r="H161" t="s">
+        <v>97</v>
+      </c>
+      <c r="I161" t="s">
+        <v>175</v>
+      </c>
+      <c r="J161" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K161" t="s">
+        <v>3567</v>
+      </c>
+      <c r="L161" t="s">
+        <v>3568</v>
+      </c>
+      <c r="M161">
+        <v>999</v>
+      </c>
+      <c r="N161" t="s">
+        <v>177</v>
+      </c>
+      <c r="O161" t="s">
+        <v>103</v>
+      </c>
+      <c r="P161" t="s">
+        <v>3530</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>3531</v>
+      </c>
+      <c r="R161">
+        <v>999</v>
+      </c>
+      <c r="S161">
+        <v>999</v>
+      </c>
+      <c r="T161" t="s">
+        <v>64</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="V161" s="14" t="s">
+        <v>3696</v>
+      </c>
+      <c r="W161" t="s">
+        <v>3535</v>
+      </c>
+      <c r="X161" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>3570</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>3572</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>3574</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>3575</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>3576</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>3577</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>3578</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>3579</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>3580</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>3582</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>3583</v>
+      </c>
+      <c r="AQ161" t="s">
+        <v>3584</v>
+      </c>
+      <c r="AR161" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS161" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT161" t="s">
+        <v>3585</v>
+      </c>
+      <c r="AU161" t="s">
+        <v>3586</v>
+      </c>
+      <c r="AV161" t="s">
+        <v>3587</v>
+      </c>
+      <c r="AW161" t="s">
+        <v>3588</v>
+      </c>
+      <c r="AX161" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AY161" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ161" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA161" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB161" s="14" t="s">
+        <v>3590</v>
+      </c>
     </row>
-    <row r="162" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2">
+        <v>44784</v>
+      </c>
       <c r="C162" t="s">
         <v>54</v>
       </c>
+      <c r="D162" t="s">
+        <v>2917</v>
+      </c>
       <c r="E162">
         <v>12</v>
       </c>
@@ -37367,25 +38067,312 @@
       <c r="G162" t="s">
         <v>2686</v>
       </c>
+      <c r="H162" t="s">
+        <v>97</v>
+      </c>
+      <c r="I162" t="s">
+        <v>175</v>
+      </c>
+      <c r="J162" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K162" t="s">
+        <v>3592</v>
+      </c>
+      <c r="L162" t="s">
+        <v>3593</v>
+      </c>
+      <c r="M162">
+        <v>999</v>
+      </c>
+      <c r="N162" t="s">
+        <v>177</v>
+      </c>
+      <c r="O162" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P162" t="s">
+        <v>3594</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>3595</v>
+      </c>
+      <c r="R162">
+        <v>999</v>
+      </c>
+      <c r="S162">
+        <v>999</v>
+      </c>
+      <c r="T162" t="s">
+        <v>245</v>
+      </c>
+      <c r="U162" s="1">
+        <v>999</v>
+      </c>
+      <c r="V162" s="14" t="s">
+        <v>3596</v>
+      </c>
+      <c r="W162" t="s">
+        <v>3597</v>
+      </c>
+      <c r="X162" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>3598</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>3560</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>3599</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>3515</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>3600</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK162" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>3601</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN162" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO162" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP162" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR162" t="s">
+        <v>3602</v>
+      </c>
+      <c r="AS162" t="s">
+        <v>3603</v>
+      </c>
+      <c r="AT162" t="s">
+        <v>3604</v>
+      </c>
+      <c r="AU162" t="s">
+        <v>3605</v>
+      </c>
+      <c r="AV162" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW162" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX162" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AY162" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ162" s="14" t="s">
+        <v>3591</v>
+      </c>
+      <c r="BA162" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="163" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="2"/>
+      <c r="B163" s="2">
+        <v>44784</v>
+      </c>
       <c r="C163" t="s">
         <v>54</v>
       </c>
+      <c r="D163" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E163">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>13</v>
+      </c>
       <c r="G163" t="s">
         <v>2687</v>
       </c>
+      <c r="H163" t="s">
+        <v>97</v>
+      </c>
+      <c r="I163" t="s">
+        <v>175</v>
+      </c>
+      <c r="J163" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K163" t="s">
+        <v>3607</v>
+      </c>
+      <c r="L163" t="s">
+        <v>3608</v>
+      </c>
+      <c r="M163">
+        <v>999</v>
+      </c>
+      <c r="N163" t="s">
+        <v>177</v>
+      </c>
+      <c r="O163" t="s">
+        <v>103</v>
+      </c>
+      <c r="P163" t="s">
+        <v>3609</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>2364</v>
+      </c>
+      <c r="R163" t="s">
+        <v>3610</v>
+      </c>
+      <c r="S163">
+        <v>999</v>
+      </c>
+      <c r="T163" t="s">
+        <v>3419</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="V163" t="s">
+        <v>3612</v>
+      </c>
+      <c r="W163" t="s">
+        <v>182</v>
+      </c>
+      <c r="X163" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>3613</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>3614</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>3615</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>3616</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>3617</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>3618</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK163" t="s">
+        <v>3619</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>3620</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO163" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP163" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ163" t="s">
+        <v>3621</v>
+      </c>
+      <c r="AR163" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS163" t="s">
+        <v>3622</v>
+      </c>
+      <c r="AT163" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU163" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV163" t="s">
+        <v>3623</v>
+      </c>
+      <c r="AW163" t="s">
+        <v>3624</v>
+      </c>
+      <c r="AX163" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY163" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ163" s="14" t="s">
+        <v>3606</v>
+      </c>
+      <c r="BA163" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="164" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>3554</v>
+      <c r="B164" s="2">
+        <v>44782</v>
       </c>
       <c r="C164" t="s">
         <v>54</v>
@@ -37412,7 +38399,7 @@
         <v>2763</v>
       </c>
       <c r="K164" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="L164" t="s">
         <v>1183</v>
@@ -37427,10 +38414,10 @@
         <v>1249</v>
       </c>
       <c r="P164" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="Q164" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="R164" t="s">
         <v>1597</v>
@@ -37442,93 +38429,93 @@
         <v>179</v>
       </c>
       <c r="U164" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="V164" t="s">
+        <v>3557</v>
+      </c>
+      <c r="W164" t="s">
+        <v>455</v>
+      </c>
+      <c r="X164" t="s">
         <v>3558</v>
       </c>
-      <c r="V164" s="14" t="s">
+      <c r="Y164" t="s">
         <v>3559</v>
       </c>
-      <c r="W164" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="X164" s="14" t="s">
+      <c r="Z164" t="s">
         <v>3560</v>
       </c>
-      <c r="Y164" s="14" t="s">
+      <c r="AA164" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>3514</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE164" t="s">
         <v>3561</v>
       </c>
-      <c r="Z164" s="14" t="s">
+      <c r="AF164" t="s">
         <v>3562</v>
       </c>
-      <c r="AA164" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB164" s="14" t="s">
-        <v>3515</v>
-      </c>
-      <c r="AC164" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD164" s="14" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AE164" s="14" t="s">
+      <c r="AG164" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI164" t="s">
         <v>3563</v>
       </c>
-      <c r="AF164" s="14" t="s">
-        <v>3564</v>
-      </c>
-      <c r="AG164" s="14" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AH164" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI164" s="14" t="s">
-        <v>3565</v>
-      </c>
-      <c r="AJ164" s="14" t="s">
+      <c r="AJ164" t="s">
         <v>385</v>
       </c>
-      <c r="AK164" s="14" t="s">
+      <c r="AK164" t="s">
         <v>232</v>
       </c>
-      <c r="AL164" s="14" t="s">
+      <c r="AL164" t="s">
         <v>1190</v>
       </c>
-      <c r="AM164" s="14" t="s">
+      <c r="AM164" t="s">
         <v>159</v>
       </c>
-      <c r="AN164" s="14" t="s">
+      <c r="AN164" t="s">
         <v>831</v>
       </c>
-      <c r="AO164" s="14" t="s">
+      <c r="AO164" t="s">
         <v>1191</v>
       </c>
-      <c r="AP164" s="14" t="s">
+      <c r="AP164" t="s">
         <v>1192</v>
       </c>
-      <c r="AQ164" s="14" t="s">
+      <c r="AQ164" t="s">
         <v>811</v>
       </c>
-      <c r="AR164" s="14" t="s">
+      <c r="AR164" t="s">
         <v>295</v>
       </c>
-      <c r="AS164" s="14" t="s">
+      <c r="AS164" t="s">
         <v>1239</v>
       </c>
-      <c r="AT164" s="14" t="s">
+      <c r="AT164" t="s">
         <v>1695</v>
       </c>
-      <c r="AU164" s="14" t="s">
+      <c r="AU164" t="s">
         <v>1435</v>
       </c>
-      <c r="AV164" s="14" t="s">
+      <c r="AV164" t="s">
         <v>1835</v>
       </c>
-      <c r="AW164" s="14" t="s">
+      <c r="AW164" t="s">
         <v>394</v>
       </c>
-      <c r="AX164" s="14" t="s">
+      <c r="AX164" t="s">
         <v>1197</v>
       </c>
       <c r="AY164" s="1" t="s">
@@ -37538,32 +38525,332 @@
         <v>1078</v>
       </c>
       <c r="BA164" s="1" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
     </row>
-    <row r="165" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
+      <c r="B165" s="2">
+        <v>44784</v>
+      </c>
       <c r="C165" t="s">
         <v>54</v>
       </c>
+      <c r="D165" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>15</v>
+      </c>
       <c r="G165" t="s">
         <v>2689</v>
       </c>
+      <c r="H165" t="s">
+        <v>97</v>
+      </c>
+      <c r="I165" t="s">
+        <v>175</v>
+      </c>
+      <c r="J165" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K165" t="s">
+        <v>3625</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1990</v>
+      </c>
+      <c r="M165">
+        <v>999</v>
+      </c>
+      <c r="N165" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O165" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P165" t="s">
+        <v>3626</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>3411</v>
+      </c>
+      <c r="R165" t="s">
+        <v>3627</v>
+      </c>
+      <c r="S165">
+        <v>999</v>
+      </c>
+      <c r="T165" t="s">
+        <v>64</v>
+      </c>
+      <c r="U165" s="1">
+        <v>999</v>
+      </c>
+      <c r="V165" s="14" t="s">
+        <v>3628</v>
+      </c>
+      <c r="W165" s="14" t="s">
+        <v>3629</v>
+      </c>
+      <c r="X165" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y165" s="14" t="s">
+        <v>3630</v>
+      </c>
+      <c r="Z165" s="14" t="s">
+        <v>3631</v>
+      </c>
+      <c r="AA165" s="14" t="s">
+        <v>3632</v>
+      </c>
+      <c r="AB165" s="14" t="s">
+        <v>3633</v>
+      </c>
+      <c r="AC165" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD165" s="14" t="s">
+        <v>3634</v>
+      </c>
+      <c r="AE165" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF165" s="14" t="s">
+        <v>3635</v>
+      </c>
+      <c r="AG165" s="14" t="s">
+        <v>3636</v>
+      </c>
+      <c r="AH165" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI165" s="14" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AJ165" s="14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK165" s="14" t="s">
+        <v>3637</v>
+      </c>
+      <c r="AL165" s="14" t="s">
+        <v>3638</v>
+      </c>
+      <c r="AM165" s="14" t="s">
+        <v>3639</v>
+      </c>
+      <c r="AN165" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO165" s="14" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AP165" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ165" s="14" t="s">
+        <v>3640</v>
+      </c>
+      <c r="AR165" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS165" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT165" s="14" t="s">
+        <v>3641</v>
+      </c>
+      <c r="AU165" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV165" s="14" t="s">
+        <v>3642</v>
+      </c>
+      <c r="AW165" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX165" s="14" t="s">
+        <v>3643</v>
+      </c>
+      <c r="AY165" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ165" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BA165" s="1" t="s">
+        <v>3644</v>
+      </c>
     </row>
-    <row r="166" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
+      <c r="B166" s="2">
+        <v>44784</v>
+      </c>
       <c r="C166" t="s">
         <v>54</v>
       </c>
+      <c r="D166" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E166">
+        <v>12</v>
+      </c>
+      <c r="F166">
+        <v>16</v>
+      </c>
       <c r="G166" t="s">
         <v>2690</v>
       </c>
+      <c r="H166" t="s">
+        <v>97</v>
+      </c>
+      <c r="I166" t="s">
+        <v>175</v>
+      </c>
+      <c r="J166" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K166" t="s">
+        <v>3645</v>
+      </c>
+      <c r="L166" t="s">
+        <v>3646</v>
+      </c>
+      <c r="M166">
+        <v>999</v>
+      </c>
+      <c r="N166" t="s">
+        <v>177</v>
+      </c>
+      <c r="O166" t="s">
+        <v>103</v>
+      </c>
+      <c r="P166" t="s">
+        <v>3647</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>3648</v>
+      </c>
+      <c r="R166">
+        <v>999</v>
+      </c>
+      <c r="S166">
+        <v>999</v>
+      </c>
+      <c r="T166" t="s">
+        <v>142</v>
+      </c>
+      <c r="U166" s="1">
+        <v>999</v>
+      </c>
+      <c r="V166" s="14" t="s">
+        <v>3649</v>
+      </c>
+      <c r="W166" s="14" t="s">
+        <v>3650</v>
+      </c>
+      <c r="X166" s="14" t="s">
+        <v>3651</v>
+      </c>
+      <c r="Y166" s="14" t="s">
+        <v>3652</v>
+      </c>
+      <c r="Z166" s="14" t="s">
+        <v>3653</v>
+      </c>
+      <c r="AA166" s="14" t="s">
+        <v>3654</v>
+      </c>
+      <c r="AB166" s="14" t="s">
+        <v>3655</v>
+      </c>
+      <c r="AC166" s="14" t="s">
+        <v>3656</v>
+      </c>
+      <c r="AD166" s="14" t="s">
+        <v>3657</v>
+      </c>
+      <c r="AE166" s="14" t="s">
+        <v>3658</v>
+      </c>
+      <c r="AF166" s="14" t="s">
+        <v>3659</v>
+      </c>
+      <c r="AG166" s="14" t="s">
+        <v>3660</v>
+      </c>
+      <c r="AH166" s="14" t="s">
+        <v>3661</v>
+      </c>
+      <c r="AI166" s="14" t="s">
+        <v>3662</v>
+      </c>
+      <c r="AJ166" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK166" s="14" t="s">
+        <v>3663</v>
+      </c>
+      <c r="AL166" s="14" t="s">
+        <v>3664</v>
+      </c>
+      <c r="AM166" s="14" t="s">
+        <v>3665</v>
+      </c>
+      <c r="AN166" s="14" t="s">
+        <v>3666</v>
+      </c>
+      <c r="AO166" s="14" t="s">
+        <v>3667</v>
+      </c>
+      <c r="AP166" s="14" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AQ166" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR166" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS166" s="14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AT166" s="14" t="s">
+        <v>3668</v>
+      </c>
+      <c r="AU166" s="14" t="s">
+        <v>3669</v>
+      </c>
+      <c r="AV166" s="14" t="s">
+        <v>3670</v>
+      </c>
+      <c r="AW166" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX166" s="14" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AY166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ166" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BA166" s="1" t="s">
+        <v>2360</v>
+      </c>
     </row>
-    <row r="167" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -37697,22 +38984,22 @@
         <v>202</v>
       </c>
       <c r="AS167" t="s">
+        <v>3566</v>
+      </c>
+      <c r="AT167" s="15" t="s">
         <v>3487</v>
       </c>
-      <c r="AT167" t="s">
+      <c r="AU167">
+        <v>999</v>
+      </c>
+      <c r="AV167" t="s">
         <v>3488</v>
       </c>
-      <c r="AU167">
-        <v>999</v>
-      </c>
-      <c r="AV167" t="s">
+      <c r="AW167" t="s">
         <v>3489</v>
       </c>
-      <c r="AW167" t="s">
+      <c r="AX167" t="s">
         <v>3490</v>
-      </c>
-      <c r="AX167" t="s">
-        <v>3491</v>
       </c>
       <c r="AY167" s="1" t="s">
         <v>209</v>
@@ -37724,65 +39011,818 @@
         <v>999</v>
       </c>
     </row>
-    <row r="168" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168" s="2">
+        <v>44784</v>
+      </c>
       <c r="C168" t="s">
         <v>54</v>
       </c>
+      <c r="D168" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E168">
+        <v>13</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
       <c r="G168" t="s">
         <v>2692</v>
       </c>
+      <c r="H168" t="s">
+        <v>97</v>
+      </c>
+      <c r="I168" t="s">
+        <v>240</v>
+      </c>
+      <c r="J168" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K168" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L168" t="s">
+        <v>3671</v>
+      </c>
+      <c r="M168">
+        <v>999</v>
+      </c>
+      <c r="N168" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O168" t="s">
+        <v>103</v>
+      </c>
+      <c r="P168" t="s">
+        <v>3672</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R168">
+        <v>999</v>
+      </c>
+      <c r="S168">
+        <v>999</v>
+      </c>
+      <c r="T168" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="V168" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="W168" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="X168" s="14" t="s">
+        <v>3674</v>
+      </c>
+      <c r="Y168" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z168" s="14" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AA168" s="14" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB168" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC168" s="14" t="s">
+        <v>3675</v>
+      </c>
+      <c r="AD168" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE168" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF168" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG168" s="14" t="s">
+        <v>3676</v>
+      </c>
+      <c r="AH168" s="14" t="s">
+        <v>3677</v>
+      </c>
+      <c r="AI168" s="14" t="s">
+        <v>3678</v>
+      </c>
+      <c r="AJ168" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK168" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL168" s="14" t="s">
+        <v>3679</v>
+      </c>
+      <c r="AM168" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="AN168" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO168" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AP168" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ168" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR168" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS168" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT168" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU168" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV168" s="14" t="s">
+        <v>3680</v>
+      </c>
+      <c r="AW168" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX168" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY168" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ168" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA168" s="1" t="s">
+        <v>3681</v>
+      </c>
     </row>
-    <row r="169" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
+      <c r="B169" s="2">
+        <v>44784</v>
+      </c>
       <c r="C169" t="s">
         <v>54</v>
       </c>
+      <c r="D169" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E169">
+        <v>13</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
       <c r="G169" t="s">
         <v>2693</v>
       </c>
+      <c r="H169" t="s">
+        <v>97</v>
+      </c>
+      <c r="I169" t="s">
+        <v>240</v>
+      </c>
+      <c r="J169" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K169" t="s">
+        <v>3682</v>
+      </c>
+      <c r="L169" t="s">
+        <v>3683</v>
+      </c>
+      <c r="M169" t="s">
+        <v>3684</v>
+      </c>
+      <c r="N169" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O169" t="s">
+        <v>103</v>
+      </c>
+      <c r="P169" t="s">
+        <v>3685</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>3377</v>
+      </c>
+      <c r="R169" t="s">
+        <v>1597</v>
+      </c>
+      <c r="S169">
+        <v>999</v>
+      </c>
+      <c r="T169" t="s">
+        <v>142</v>
+      </c>
+      <c r="U169" s="1">
+        <v>999</v>
+      </c>
+      <c r="V169" s="14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W169" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="X169" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y169" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z169" s="14" t="s">
+        <v>3686</v>
+      </c>
+      <c r="AA169" s="14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AB169" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC169" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD169" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE169" s="14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AF169" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG169" s="14" t="s">
+        <v>3687</v>
+      </c>
+      <c r="AH169" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI169" s="14" t="s">
+        <v>3688</v>
+      </c>
+      <c r="AJ169" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK169" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL169" s="14" t="s">
+        <v>3689</v>
+      </c>
+      <c r="AM169" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN169" s="14" t="s">
+        <v>3690</v>
+      </c>
+      <c r="AO169" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP169" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ169" s="14" t="s">
+        <v>3691</v>
+      </c>
+      <c r="AR169" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS169" s="14" t="s">
+        <v>3692</v>
+      </c>
+      <c r="AT169" s="14" t="s">
+        <v>3693</v>
+      </c>
+      <c r="AU169" s="14" t="s">
+        <v>3694</v>
+      </c>
+      <c r="AV169" s="14" t="s">
+        <v>3695</v>
+      </c>
+      <c r="AW169" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX169" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY169" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ169" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA169" s="1" t="s">
+        <v>3697</v>
+      </c>
     </row>
-    <row r="170" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
+      <c r="B170" s="2">
+        <v>44784</v>
+      </c>
       <c r="C170" t="s">
         <v>54</v>
       </c>
+      <c r="D170" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E170">
+        <v>13</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
       <c r="G170" t="s">
         <v>2694</v>
       </c>
+      <c r="H170" t="s">
+        <v>97</v>
+      </c>
+      <c r="I170" t="s">
+        <v>240</v>
+      </c>
+      <c r="J170" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K170" t="s">
+        <v>3698</v>
+      </c>
+      <c r="L170" t="s">
+        <v>3699</v>
+      </c>
+      <c r="M170">
+        <v>999</v>
+      </c>
+      <c r="N170" t="s">
+        <v>177</v>
+      </c>
+      <c r="O170" t="s">
+        <v>103</v>
+      </c>
+      <c r="P170" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q170">
+        <v>999</v>
+      </c>
+      <c r="R170" t="s">
+        <v>3418</v>
+      </c>
+      <c r="S170" t="s">
+        <v>103</v>
+      </c>
+      <c r="T170" t="s">
+        <v>64</v>
+      </c>
+      <c r="U170" s="1">
+        <v>999</v>
+      </c>
+      <c r="V170" s="14" t="s">
+        <v>3700</v>
+      </c>
+      <c r="W170" s="14" t="s">
+        <v>1756</v>
+      </c>
+      <c r="X170" s="14" t="s">
+        <v>3701</v>
+      </c>
+      <c r="Y170" s="14" t="s">
+        <v>3702</v>
+      </c>
+      <c r="Z170" s="14" t="s">
+        <v>3686</v>
+      </c>
+      <c r="AA170" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB170" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AC170" s="14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AD170" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE170" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF170" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG170" s="14" t="s">
+        <v>3703</v>
+      </c>
+      <c r="AH170" s="14" t="s">
+        <v>3366</v>
+      </c>
+      <c r="AI170" s="14" t="s">
+        <v>3563</v>
+      </c>
+      <c r="AJ170" s="14" t="s">
+        <v>3704</v>
+      </c>
+      <c r="AK170" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL170" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AM170" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN170" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO170" s="14" t="s">
+        <v>3546</v>
+      </c>
+      <c r="AP170" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ170" s="14" t="s">
+        <v>3719</v>
+      </c>
+      <c r="AR170" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS170" s="14" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AT170" s="14" t="s">
+        <v>3705</v>
+      </c>
+      <c r="AU170" s="14" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AV170" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW170" s="14" t="s">
+        <v>3706</v>
+      </c>
+      <c r="AX170" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY170" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ170" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA170" s="1" t="s">
+        <v>3707</v>
+      </c>
     </row>
-    <row r="171" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
+      <c r="B171" s="2">
+        <v>44784</v>
+      </c>
       <c r="C171" t="s">
         <v>54</v>
       </c>
+      <c r="D171" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E171">
+        <v>13</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
       <c r="G171" t="s">
         <v>2695</v>
       </c>
+      <c r="H171" t="s">
+        <v>97</v>
+      </c>
+      <c r="I171" t="s">
+        <v>240</v>
+      </c>
+      <c r="J171" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K171" t="s">
+        <v>3708</v>
+      </c>
+      <c r="L171" t="s">
+        <v>3709</v>
+      </c>
+      <c r="M171">
+        <v>999</v>
+      </c>
+      <c r="N171" t="s">
+        <v>177</v>
+      </c>
+      <c r="O171" t="s">
+        <v>103</v>
+      </c>
+      <c r="P171" t="s">
+        <v>3724</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>3710</v>
+      </c>
+      <c r="R171" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S171">
+        <v>999</v>
+      </c>
+      <c r="T171" t="s">
+        <v>245</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>3725</v>
+      </c>
+      <c r="V171" s="14" t="s">
+        <v>3711</v>
+      </c>
+      <c r="W171" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="X171" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y171" s="14" t="s">
+        <v>3712</v>
+      </c>
+      <c r="Z171" s="14" t="s">
+        <v>3713</v>
+      </c>
+      <c r="AA171" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB171" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC171" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD171" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE171" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF171" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG171" s="14" t="s">
+        <v>3714</v>
+      </c>
+      <c r="AH171" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI171" s="14" t="s">
+        <v>3715</v>
+      </c>
+      <c r="AJ171" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK171" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL171" s="14" t="s">
+        <v>3716</v>
+      </c>
+      <c r="AM171" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN171" s="14" t="s">
+        <v>3717</v>
+      </c>
+      <c r="AO171" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP171" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ171" s="14" t="s">
+        <v>3718</v>
+      </c>
+      <c r="AR171" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS171" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT171" s="14" t="s">
+        <v>3720</v>
+      </c>
+      <c r="AU171" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV171" s="14" t="s">
+        <v>3670</v>
+      </c>
+      <c r="AW171" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX171" s="14" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AY171" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ171" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA171" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="172" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="B172" s="2">
+        <v>44784</v>
+      </c>
       <c r="C172" t="s">
         <v>54</v>
       </c>
+      <c r="D172" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E172">
+        <v>13</v>
+      </c>
+      <c r="F172">
+        <v>5</v>
+      </c>
       <c r="G172" t="s">
         <v>2696</v>
       </c>
+      <c r="H172" t="s">
+        <v>97</v>
+      </c>
+      <c r="I172" t="s">
+        <v>240</v>
+      </c>
+      <c r="J172" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K172" t="s">
+        <v>3721</v>
+      </c>
+      <c r="L172" t="s">
+        <v>3723</v>
+      </c>
+      <c r="M172">
+        <v>999</v>
+      </c>
+      <c r="N172" t="s">
+        <v>177</v>
+      </c>
+      <c r="O172" t="s">
+        <v>103</v>
+      </c>
+      <c r="P172" t="s">
+        <v>3724</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>3710</v>
+      </c>
+      <c r="R172" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S172">
+        <v>999</v>
+      </c>
+      <c r="T172" t="s">
+        <v>245</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="V172" s="14" t="s">
+        <v>3711</v>
+      </c>
+      <c r="W172" s="14" t="s">
+        <v>3727</v>
+      </c>
+      <c r="X172" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y172" s="14" t="s">
+        <v>3728</v>
+      </c>
+      <c r="Z172" s="14" t="s">
+        <v>3729</v>
+      </c>
+      <c r="AA172" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB172" s="14" t="s">
+        <v>3730</v>
+      </c>
+      <c r="AC172" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD172" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE172" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF172" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG172" s="14" t="s">
+        <v>3731</v>
+      </c>
+      <c r="AH172" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI172" s="14" t="s">
+        <v>3678</v>
+      </c>
+      <c r="AJ172" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK172" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL172" s="14" t="s">
+        <v>3732</v>
+      </c>
+      <c r="AM172" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN172" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO172" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP172" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ172" s="14" t="s">
+        <v>3733</v>
+      </c>
+      <c r="AS172" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT172" s="14" t="s">
+        <v>3734</v>
+      </c>
+      <c r="AU172" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV172" s="14" t="s">
+        <v>3735</v>
+      </c>
+      <c r="AW172" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX172" s="14" t="s">
+        <v>3736</v>
+      </c>
+      <c r="AY172" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ172" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA172" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB172" t="s">
+        <v>3722</v>
+      </c>
     </row>
-    <row r="173" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
+      <c r="B173" s="2">
+        <v>44784</v>
+      </c>
       <c r="C173" t="s">
         <v>54</v>
       </c>
@@ -37790,7 +39830,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="174" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -37801,7 +39841,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="175" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -37812,7 +39852,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="176" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -38498,9 +40538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38530,7 +40568,7 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3A980C-88B2-4B2E-8A29-45407178A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9BCB77-8E23-4A4F-B26E-092A062BBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="84" windowWidth="14232" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="3737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7832" uniqueCount="3800">
   <si>
     <t>ID</t>
   </si>
@@ -12391,6 +12391,195 @@
   <si>
     <t>&lt;ab&gt;zwiige</t>
   </si>
+  <si>
+    <t>t-W</t>
+  </si>
+  <si>
+    <t>Wieslet</t>
+  </si>
+  <si>
+    <t>ü/Schopfheim</t>
+  </si>
+  <si>
+    <t>Fr. Stephan</t>
+  </si>
+  <si>
+    <t>Wiesloch</t>
+  </si>
+  <si>
+    <t>errfogt von 3. Ortswohnern</t>
+  </si>
+  <si>
+    <t>s'isch u L[ii]cht (m) {i in Liicht eventuell mit Striche und Umlaut, das ganze könnte auch 2 Wörter sein?}</t>
+  </si>
+  <si>
+    <t>Elst[e]re (w)</t>
+  </si>
+  <si>
+    <t>Óhmd (s)</t>
+  </si>
+  <si>
+    <t>Gugel (m), Huehn</t>
+  </si>
+  <si>
+    <t>Geelrüebe (w)</t>
+  </si>
+  <si>
+    <t>balge, schimpfe</t>
+  </si>
+  <si>
+    <t>Schüsselí (s)</t>
+  </si>
+  <si>
+    <t>zwííge, äí[?]gle</t>
+  </si>
+  <si>
+    <t>Holdersü[rt] (m)</t>
+  </si>
+  <si>
+    <t>t-X</t>
+  </si>
+  <si>
+    <t>Sallneck</t>
+  </si>
+  <si>
+    <t>Beller</t>
+  </si>
+  <si>
+    <t>Holzhausen b/Kahl</t>
+  </si>
+  <si>
+    <t>Dischtle (w)</t>
+  </si>
+  <si>
+    <t>Fladermus (w</t>
+  </si>
+  <si>
+    <t>Enta (w)</t>
+  </si>
+  <si>
+    <t>Flie[g]e (w) {zeichen beim g - t oder kreuz?}</t>
+  </si>
+  <si>
+    <t>Goggel (m, m) Hueh (s)</t>
+  </si>
+  <si>
+    <t>Hebamm' (w)</t>
+  </si>
+  <si>
+    <t>Gr[ů]mbiere (w) {nicht deutlich ob zeichen über u diakritikum oder "standard" u zeichen}</t>
+  </si>
+  <si>
+    <t>[Dik]rüebe (w)</t>
+  </si>
+  <si>
+    <t>Pflume (w) {e oder diakritikum über u}</t>
+  </si>
+  <si>
+    <t>schimpfe, bruele</t>
+  </si>
+  <si>
+    <t>Gufe {diakritikum, e oder standardzeichen für u?}</t>
+  </si>
+  <si>
+    <t>Tegernau</t>
+  </si>
+  <si>
+    <t>M. Fischer H[e]ftli[n]</t>
+  </si>
+  <si>
+    <t>Konstanz</t>
+  </si>
+  <si>
+    <t>Liicht (s')</t>
+  </si>
+  <si>
+    <t>Diechle</t>
+  </si>
+  <si>
+    <t>Anterich</t>
+  </si>
+  <si>
+    <t>Ehmdet</t>
+  </si>
+  <si>
+    <t>Guggel, Hue</t>
+  </si>
+  <si>
+    <t>Grumbiire</t>
+  </si>
+  <si>
+    <t>Galrübe</t>
+  </si>
+  <si>
+    <t>pri[a]schn</t>
+  </si>
+  <si>
+    <t>Gresgen</t>
+  </si>
+  <si>
+    <t>Emil Sch[n]o[??]z</t>
+  </si>
+  <si>
+    <t>Kehl as Rh.</t>
+  </si>
+  <si>
+    <t>Omesme (w)</t>
+  </si>
+  <si>
+    <t>L[i]cht (w) {strich und punkt über i}</t>
+  </si>
+  <si>
+    <t>Brumbeeri (s)</t>
+  </si>
+  <si>
+    <t>Diĕchsle (w)</t>
+  </si>
+  <si>
+    <t>Flädermŭs (w)</t>
+  </si>
+  <si>
+    <t>Fliĕge (w)</t>
+  </si>
+  <si>
+    <t>Gŭgŭmmere (w)</t>
+  </si>
+  <si>
+    <t>Hagebŭdde (w)</t>
+  </si>
+  <si>
+    <t>Gŭhl, Gŭckel (m), Hŭä (s)</t>
+  </si>
+  <si>
+    <t>Hebam[m] (w)</t>
+  </si>
+  <si>
+    <t>Grŭmbĕre (w)</t>
+  </si>
+  <si>
+    <t>Rolli, Chatzerolli (w)</t>
+  </si>
+  <si>
+    <t>Gälrüĕbe (w)</t>
+  </si>
+  <si>
+    <t>Pflŭme (w)</t>
+  </si>
+  <si>
+    <t>balge</t>
+  </si>
+  <si>
+    <t>Stachelbeeri (s)</t>
+  </si>
+  <si>
+    <t>Schüssle (w)</t>
+  </si>
+  <si>
+    <t>zw[i]ge {strich und punkt über i}</t>
+  </si>
+  <si>
+    <t>{zeichen über u durchgehend was für Standard u spricht, aber erscheint auch teils bei e}</t>
+  </si>
 </sst>
 </file>
 
@@ -12441,7 +12630,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12457,6 +12646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12530,7 +12725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -12547,6 +12742,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -12867,8 +13066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView topLeftCell="AP133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA172" sqref="BA172"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW176" sqref="A176:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36637,7 +36836,7 @@
         <v>97</v>
       </c>
       <c r="I152" t="s">
-        <v>1723</v>
+        <v>175</v>
       </c>
       <c r="J152" t="s">
         <v>2763</v>
@@ -37945,7 +38144,7 @@
       <c r="U161" s="1" t="s">
         <v>3569</v>
       </c>
-      <c r="V161" s="14" t="s">
+      <c r="V161" t="s">
         <v>3696</v>
       </c>
       <c r="W161" t="s">
@@ -38035,13 +38234,13 @@
       <c r="AY161" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ161" s="14" t="s">
+      <c r="AZ161" t="s">
         <v>1078</v>
       </c>
       <c r="BA161" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BB161" s="14" t="s">
+      <c r="BB161" t="s">
         <v>3590</v>
       </c>
     </row>
@@ -38109,7 +38308,7 @@
       <c r="U162" s="1">
         <v>999</v>
       </c>
-      <c r="V162" s="14" t="s">
+      <c r="V162" t="s">
         <v>3596</v>
       </c>
       <c r="W162" t="s">
@@ -38199,7 +38398,7 @@
       <c r="AY162" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ162" s="14" t="s">
+      <c r="AZ162" t="s">
         <v>3591</v>
       </c>
       <c r="BA162" s="1" t="s">
@@ -38360,7 +38559,7 @@
       <c r="AY163" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AZ163" s="14" t="s">
+      <c r="AZ163" t="s">
         <v>3606</v>
       </c>
       <c r="BA163" s="1" t="s">
@@ -38592,91 +38791,91 @@
       <c r="U165" s="1">
         <v>999</v>
       </c>
-      <c r="V165" s="14" t="s">
+      <c r="V165" t="s">
         <v>3628</v>
       </c>
-      <c r="W165" s="14" t="s">
+      <c r="W165" t="s">
         <v>3629</v>
       </c>
-      <c r="X165" s="14" t="s">
+      <c r="X165" t="s">
         <v>821</v>
       </c>
-      <c r="Y165" s="14" t="s">
+      <c r="Y165" t="s">
         <v>3630</v>
       </c>
-      <c r="Z165" s="14" t="s">
+      <c r="Z165" t="s">
         <v>3631</v>
       </c>
-      <c r="AA165" s="14" t="s">
+      <c r="AA165" t="s">
         <v>3632</v>
       </c>
-      <c r="AB165" s="14" t="s">
+      <c r="AB165" t="s">
         <v>3633</v>
       </c>
-      <c r="AC165" s="14" t="s">
+      <c r="AC165" t="s">
         <v>252</v>
       </c>
-      <c r="AD165" s="14" t="s">
+      <c r="AD165" t="s">
         <v>3634</v>
       </c>
-      <c r="AE165" s="14" t="s">
+      <c r="AE165" t="s">
         <v>190</v>
       </c>
-      <c r="AF165" s="14" t="s">
+      <c r="AF165" t="s">
         <v>3635</v>
       </c>
-      <c r="AG165" s="14" t="s">
+      <c r="AG165" t="s">
         <v>3636</v>
       </c>
-      <c r="AH165" s="14" t="s">
+      <c r="AH165" t="s">
         <v>117</v>
       </c>
-      <c r="AI165" s="14" t="s">
+      <c r="AI165" t="s">
         <v>1260</v>
       </c>
-      <c r="AJ165" s="14" t="s">
+      <c r="AJ165" t="s">
         <v>1261</v>
       </c>
-      <c r="AK165" s="14" t="s">
+      <c r="AK165" t="s">
         <v>3637</v>
       </c>
-      <c r="AL165" s="14" t="s">
+      <c r="AL165" t="s">
         <v>3638</v>
       </c>
-      <c r="AM165" s="14" t="s">
+      <c r="AM165" t="s">
         <v>3639</v>
       </c>
-      <c r="AN165" s="14" t="s">
+      <c r="AN165" t="s">
         <v>198</v>
       </c>
-      <c r="AO165" s="14" t="s">
+      <c r="AO165" t="s">
         <v>1326</v>
       </c>
-      <c r="AP165" s="14" t="s">
+      <c r="AP165" t="s">
         <v>259</v>
       </c>
-      <c r="AQ165" s="14" t="s">
+      <c r="AQ165" t="s">
         <v>3640</v>
       </c>
-      <c r="AR165" s="14" t="s">
+      <c r="AR165" t="s">
         <v>202</v>
       </c>
-      <c r="AS165" s="14" t="s">
+      <c r="AS165" t="s">
         <v>203</v>
       </c>
-      <c r="AT165" s="14" t="s">
+      <c r="AT165" t="s">
         <v>3641</v>
       </c>
-      <c r="AU165" s="14" t="s">
+      <c r="AU165" t="s">
         <v>205</v>
       </c>
-      <c r="AV165" s="14" t="s">
+      <c r="AV165" t="s">
         <v>3642</v>
       </c>
-      <c r="AW165" s="14" t="s">
+      <c r="AW165" t="s">
         <v>792</v>
       </c>
-      <c r="AX165" s="14" t="s">
+      <c r="AX165" t="s">
         <v>3643</v>
       </c>
       <c r="AY165" s="1" t="s">
@@ -38753,91 +38952,91 @@
       <c r="U166" s="1">
         <v>999</v>
       </c>
-      <c r="V166" s="14" t="s">
+      <c r="V166" t="s">
         <v>3649</v>
       </c>
-      <c r="W166" s="14" t="s">
+      <c r="W166" t="s">
         <v>3650</v>
       </c>
-      <c r="X166" s="14" t="s">
+      <c r="X166" t="s">
         <v>3651</v>
       </c>
-      <c r="Y166" s="14" t="s">
+      <c r="Y166" t="s">
         <v>3652</v>
       </c>
-      <c r="Z166" s="14" t="s">
+      <c r="Z166" t="s">
         <v>3653</v>
       </c>
-      <c r="AA166" s="14" t="s">
+      <c r="AA166" t="s">
         <v>3654</v>
       </c>
-      <c r="AB166" s="14" t="s">
+      <c r="AB166" t="s">
         <v>3655</v>
       </c>
-      <c r="AC166" s="14" t="s">
+      <c r="AC166" t="s">
         <v>3656</v>
       </c>
-      <c r="AD166" s="14" t="s">
+      <c r="AD166" t="s">
         <v>3657</v>
       </c>
-      <c r="AE166" s="14" t="s">
+      <c r="AE166" t="s">
         <v>3658</v>
       </c>
-      <c r="AF166" s="14" t="s">
+      <c r="AF166" t="s">
         <v>3659</v>
       </c>
-      <c r="AG166" s="14" t="s">
+      <c r="AG166" t="s">
         <v>3660</v>
       </c>
-      <c r="AH166" s="14" t="s">
+      <c r="AH166" t="s">
         <v>3661</v>
       </c>
-      <c r="AI166" s="14" t="s">
+      <c r="AI166" t="s">
         <v>3662</v>
       </c>
-      <c r="AJ166" s="14" t="s">
+      <c r="AJ166" t="s">
         <v>385</v>
       </c>
-      <c r="AK166" s="14" t="s">
+      <c r="AK166" t="s">
         <v>3663</v>
       </c>
-      <c r="AL166" s="14" t="s">
+      <c r="AL166" t="s">
         <v>3664</v>
       </c>
-      <c r="AM166" s="14" t="s">
+      <c r="AM166" t="s">
         <v>3665</v>
       </c>
-      <c r="AN166" s="14" t="s">
+      <c r="AN166" t="s">
         <v>3666</v>
       </c>
-      <c r="AO166" s="14" t="s">
+      <c r="AO166" t="s">
         <v>3667</v>
       </c>
-      <c r="AP166" s="14" t="s">
+      <c r="AP166" t="s">
         <v>2354</v>
       </c>
-      <c r="AQ166" s="14" t="s">
+      <c r="AQ166" t="s">
         <v>260</v>
       </c>
-      <c r="AR166" s="14" t="s">
+      <c r="AR166" t="s">
         <v>295</v>
       </c>
-      <c r="AS166" s="14" t="s">
+      <c r="AS166" t="s">
         <v>1239</v>
       </c>
-      <c r="AT166" s="14" t="s">
+      <c r="AT166" t="s">
         <v>3668</v>
       </c>
-      <c r="AU166" s="14" t="s">
+      <c r="AU166" t="s">
         <v>3669</v>
       </c>
-      <c r="AV166" s="14" t="s">
+      <c r="AV166" t="s">
         <v>3670</v>
       </c>
-      <c r="AW166" s="14" t="s">
+      <c r="AW166" t="s">
         <v>394</v>
       </c>
-      <c r="AX166" s="14" t="s">
+      <c r="AX166" t="s">
         <v>1894</v>
       </c>
       <c r="AY166" s="1" t="s">
@@ -38986,7 +39185,7 @@
       <c r="AS167" t="s">
         <v>3566</v>
       </c>
-      <c r="AT167" s="15" t="s">
+      <c r="AT167" t="s">
         <v>3487</v>
       </c>
       <c r="AU167">
@@ -39075,91 +39274,91 @@
       <c r="U168" s="1" t="s">
         <v>3673</v>
       </c>
-      <c r="V168" s="14" t="s">
+      <c r="V168" t="s">
         <v>723</v>
       </c>
-      <c r="W168" s="14" t="s">
+      <c r="W168" t="s">
         <v>247</v>
       </c>
-      <c r="X168" s="14" t="s">
+      <c r="X168" t="s">
         <v>3674</v>
       </c>
-      <c r="Y168" s="14" t="s">
+      <c r="Y168" t="s">
         <v>248</v>
       </c>
-      <c r="Z168" s="14" t="s">
+      <c r="Z168" t="s">
         <v>2283</v>
       </c>
-      <c r="AA168" s="14" t="s">
+      <c r="AA168" t="s">
         <v>1708</v>
       </c>
-      <c r="AB168" s="14" t="s">
+      <c r="AB168" t="s">
         <v>226</v>
       </c>
-      <c r="AC168" s="14" t="s">
+      <c r="AC168" t="s">
         <v>3675</v>
       </c>
-      <c r="AD168" s="14" t="s">
+      <c r="AD168" t="s">
         <v>189</v>
       </c>
-      <c r="AE168" s="14" t="s">
+      <c r="AE168" t="s">
         <v>228</v>
       </c>
-      <c r="AF168" s="14" t="s">
+      <c r="AF168" t="s">
         <v>804</v>
       </c>
-      <c r="AG168" s="14" t="s">
+      <c r="AG168" t="s">
         <v>3676</v>
       </c>
-      <c r="AH168" s="14" t="s">
+      <c r="AH168" t="s">
         <v>3677</v>
       </c>
-      <c r="AI168" s="14" t="s">
+      <c r="AI168" t="s">
         <v>3678</v>
       </c>
-      <c r="AJ168" s="14" t="s">
+      <c r="AJ168" t="s">
         <v>118</v>
       </c>
-      <c r="AK168" s="14" t="s">
+      <c r="AK168" t="s">
         <v>288</v>
       </c>
-      <c r="AL168" s="14" t="s">
+      <c r="AL168" t="s">
         <v>3679</v>
       </c>
-      <c r="AM168" s="14" t="s">
+      <c r="AM168" t="s">
         <v>948</v>
       </c>
-      <c r="AN168" s="14" t="s">
+      <c r="AN168" t="s">
         <v>1263</v>
       </c>
-      <c r="AO168" s="14" t="s">
+      <c r="AO168" t="s">
         <v>1300</v>
       </c>
-      <c r="AP168" s="14" t="s">
+      <c r="AP168" t="s">
         <v>259</v>
       </c>
-      <c r="AQ168" s="14" t="s">
+      <c r="AQ168" t="s">
         <v>260</v>
       </c>
-      <c r="AR168" s="14" t="s">
+      <c r="AR168" t="s">
         <v>202</v>
       </c>
-      <c r="AS168" s="14" t="s">
+      <c r="AS168" t="s">
         <v>203</v>
       </c>
-      <c r="AT168" s="14" t="s">
+      <c r="AT168" t="s">
         <v>889</v>
       </c>
-      <c r="AU168" s="14" t="s">
+      <c r="AU168" t="s">
         <v>205</v>
       </c>
-      <c r="AV168" s="14" t="s">
+      <c r="AV168" t="s">
         <v>3680</v>
       </c>
-      <c r="AW168" s="14" t="s">
+      <c r="AW168" t="s">
         <v>792</v>
       </c>
-      <c r="AX168" s="14" t="s">
+      <c r="AX168" t="s">
         <v>131</v>
       </c>
       <c r="AY168" s="1" t="s">
@@ -39236,91 +39435,91 @@
       <c r="U169" s="1">
         <v>999</v>
       </c>
-      <c r="V169" s="14" t="s">
+      <c r="V169" t="s">
         <v>1159</v>
       </c>
-      <c r="W169" s="14" t="s">
+      <c r="W169" t="s">
         <v>455</v>
       </c>
-      <c r="X169" s="14" t="s">
+      <c r="X169" t="s">
         <v>456</v>
       </c>
-      <c r="Y169" s="14" t="s">
+      <c r="Y169" t="s">
         <v>822</v>
       </c>
-      <c r="Z169" s="14" t="s">
+      <c r="Z169" t="s">
         <v>3686</v>
       </c>
-      <c r="AA169" s="14" t="s">
+      <c r="AA169" t="s">
         <v>1318</v>
       </c>
-      <c r="AB169" s="14" t="s">
+      <c r="AB169" t="s">
         <v>590</v>
       </c>
-      <c r="AC169" s="14" t="s">
+      <c r="AC169" t="s">
         <v>322</v>
       </c>
-      <c r="AD169" s="14" t="s">
+      <c r="AD169" t="s">
         <v>1213</v>
       </c>
-      <c r="AE169" s="14" t="s">
+      <c r="AE169" t="s">
         <v>1295</v>
       </c>
-      <c r="AF169" s="14" t="s">
+      <c r="AF169" t="s">
         <v>382</v>
       </c>
-      <c r="AG169" s="14" t="s">
+      <c r="AG169" t="s">
         <v>3687</v>
       </c>
-      <c r="AH169" s="14" t="s">
+      <c r="AH169" t="s">
         <v>155</v>
       </c>
-      <c r="AI169" s="14" t="s">
+      <c r="AI169" t="s">
         <v>3688</v>
       </c>
-      <c r="AJ169" s="14" t="s">
+      <c r="AJ169" t="s">
         <v>1188</v>
       </c>
-      <c r="AK169" s="14" t="s">
+      <c r="AK169" t="s">
         <v>386</v>
       </c>
-      <c r="AL169" s="14" t="s">
+      <c r="AL169" t="s">
         <v>3689</v>
       </c>
-      <c r="AM169" s="14" t="s">
+      <c r="AM169" t="s">
         <v>830</v>
       </c>
-      <c r="AN169" s="14" t="s">
+      <c r="AN169" t="s">
         <v>3690</v>
       </c>
-      <c r="AO169" s="14" t="s">
+      <c r="AO169" t="s">
         <v>1191</v>
       </c>
-      <c r="AP169" s="14" t="s">
+      <c r="AP169" t="s">
         <v>1192</v>
       </c>
-      <c r="AQ169" s="14" t="s">
+      <c r="AQ169" t="s">
         <v>3691</v>
       </c>
-      <c r="AR169" s="14" t="s">
+      <c r="AR169" t="s">
         <v>165</v>
       </c>
-      <c r="AS169" s="14" t="s">
+      <c r="AS169" t="s">
         <v>3692</v>
       </c>
-      <c r="AT169" s="14" t="s">
+      <c r="AT169" t="s">
         <v>3693</v>
       </c>
-      <c r="AU169" s="14" t="s">
+      <c r="AU169" t="s">
         <v>3694</v>
       </c>
-      <c r="AV169" s="14" t="s">
+      <c r="AV169" t="s">
         <v>3695</v>
       </c>
-      <c r="AW169" s="14" t="s">
+      <c r="AW169" t="s">
         <v>338</v>
       </c>
-      <c r="AX169" s="14" t="s">
+      <c r="AX169" t="s">
         <v>1197</v>
       </c>
       <c r="AY169" s="1" t="s">
@@ -39397,91 +39596,91 @@
       <c r="U170" s="1">
         <v>999</v>
       </c>
-      <c r="V170" s="14" t="s">
+      <c r="V170" t="s">
         <v>3700</v>
       </c>
-      <c r="W170" s="14" t="s">
+      <c r="W170" t="s">
         <v>1756</v>
       </c>
-      <c r="X170" s="14" t="s">
+      <c r="X170" t="s">
         <v>3701</v>
       </c>
-      <c r="Y170" s="14" t="s">
+      <c r="Y170" t="s">
         <v>3702</v>
       </c>
-      <c r="Z170" s="14" t="s">
+      <c r="Z170" t="s">
         <v>3686</v>
       </c>
-      <c r="AA170" s="14" t="s">
+      <c r="AA170" t="s">
         <v>320</v>
       </c>
-      <c r="AB170" s="14" t="s">
+      <c r="AB170" t="s">
         <v>1185</v>
       </c>
-      <c r="AC170" s="14" t="s">
+      <c r="AC170" t="s">
         <v>1340</v>
       </c>
-      <c r="AD170" s="14" t="s">
+      <c r="AD170" t="s">
         <v>1213</v>
       </c>
-      <c r="AE170" s="14" t="s">
+      <c r="AE170" t="s">
         <v>324</v>
       </c>
-      <c r="AF170" s="14" t="s">
+      <c r="AF170" t="s">
         <v>382</v>
       </c>
-      <c r="AG170" s="14" t="s">
+      <c r="AG170" t="s">
         <v>3703</v>
       </c>
-      <c r="AH170" s="14" t="s">
+      <c r="AH170" t="s">
         <v>3366</v>
       </c>
-      <c r="AI170" s="14" t="s">
+      <c r="AI170" t="s">
         <v>3563</v>
       </c>
-      <c r="AJ170" s="14" t="s">
+      <c r="AJ170" t="s">
         <v>3704</v>
       </c>
-      <c r="AK170" s="14" t="s">
+      <c r="AK170" t="s">
         <v>490</v>
       </c>
-      <c r="AL170" s="14" t="s">
+      <c r="AL170" t="s">
         <v>1190</v>
       </c>
-      <c r="AM170" s="14" t="s">
+      <c r="AM170" t="s">
         <v>830</v>
       </c>
-      <c r="AN170" s="14" t="s">
+      <c r="AN170" t="s">
         <v>831</v>
       </c>
-      <c r="AO170" s="14" t="s">
+      <c r="AO170" t="s">
         <v>3546</v>
       </c>
-      <c r="AP170" s="14" t="s">
+      <c r="AP170" t="s">
         <v>293</v>
       </c>
-      <c r="AQ170" s="14" t="s">
+      <c r="AQ170" t="s">
         <v>3719</v>
       </c>
-      <c r="AR170" s="14" t="s">
+      <c r="AR170" t="s">
         <v>295</v>
       </c>
-      <c r="AS170" s="14" t="s">
+      <c r="AS170" t="s">
         <v>2116</v>
       </c>
-      <c r="AT170" s="14" t="s">
+      <c r="AT170" t="s">
         <v>3705</v>
       </c>
-      <c r="AU170" s="14" t="s">
+      <c r="AU170" t="s">
         <v>1240</v>
       </c>
-      <c r="AV170" s="14" t="s">
+      <c r="AV170" t="s">
         <v>299</v>
       </c>
-      <c r="AW170" s="14" t="s">
+      <c r="AW170" t="s">
         <v>3706</v>
       </c>
-      <c r="AX170" s="14" t="s">
+      <c r="AX170" t="s">
         <v>1197</v>
       </c>
       <c r="AY170" s="1" t="s">
@@ -39558,91 +39757,91 @@
       <c r="U171" s="1" t="s">
         <v>3725</v>
       </c>
-      <c r="V171" s="14" t="s">
+      <c r="V171" t="s">
         <v>3711</v>
       </c>
-      <c r="W171" s="14" t="s">
+      <c r="W171" t="s">
         <v>2064</v>
       </c>
-      <c r="X171" s="14" t="s">
+      <c r="X171" t="s">
         <v>821</v>
       </c>
-      <c r="Y171" s="14" t="s">
+      <c r="Y171" t="s">
         <v>3712</v>
       </c>
-      <c r="Z171" s="14" t="s">
+      <c r="Z171" t="s">
         <v>3713</v>
       </c>
-      <c r="AA171" s="14" t="s">
+      <c r="AA171" t="s">
         <v>823</v>
       </c>
-      <c r="AB171" s="14" t="s">
+      <c r="AB171" t="s">
         <v>408</v>
       </c>
-      <c r="AC171" s="14" t="s">
+      <c r="AC171" t="s">
         <v>252</v>
       </c>
-      <c r="AD171" s="14" t="s">
+      <c r="AD171" t="s">
         <v>281</v>
       </c>
-      <c r="AE171" s="14" t="s">
+      <c r="AE171" t="s">
         <v>324</v>
       </c>
-      <c r="AF171" s="14" t="s">
+      <c r="AF171" t="s">
         <v>283</v>
       </c>
-      <c r="AG171" s="14" t="s">
+      <c r="AG171" t="s">
         <v>3714</v>
       </c>
-      <c r="AH171" s="14" t="s">
+      <c r="AH171" t="s">
         <v>117</v>
       </c>
-      <c r="AI171" s="14" t="s">
+      <c r="AI171" t="s">
         <v>3715</v>
       </c>
-      <c r="AJ171" s="14" t="s">
+      <c r="AJ171" t="s">
         <v>385</v>
       </c>
-      <c r="AK171" s="14" t="s">
+      <c r="AK171" t="s">
         <v>490</v>
       </c>
-      <c r="AL171" s="14" t="s">
+      <c r="AL171" t="s">
         <v>3716</v>
       </c>
-      <c r="AM171" s="14" t="s">
+      <c r="AM171" t="s">
         <v>830</v>
       </c>
-      <c r="AN171" s="14" t="s">
+      <c r="AN171" t="s">
         <v>3717</v>
       </c>
-      <c r="AO171" s="14" t="s">
+      <c r="AO171" t="s">
         <v>1191</v>
       </c>
-      <c r="AP171" s="14" t="s">
+      <c r="AP171" t="s">
         <v>293</v>
       </c>
-      <c r="AQ171" s="14" t="s">
+      <c r="AQ171" t="s">
         <v>3718</v>
       </c>
-      <c r="AR171" s="14" t="s">
+      <c r="AR171" t="s">
         <v>295</v>
       </c>
-      <c r="AS171" s="14" t="s">
+      <c r="AS171" t="s">
         <v>334</v>
       </c>
-      <c r="AT171" s="14" t="s">
+      <c r="AT171" t="s">
         <v>3720</v>
       </c>
-      <c r="AU171" s="14" t="s">
+      <c r="AU171" t="s">
         <v>298</v>
       </c>
-      <c r="AV171" s="14" t="s">
+      <c r="AV171" t="s">
         <v>3670</v>
       </c>
-      <c r="AW171" s="14" t="s">
+      <c r="AW171" t="s">
         <v>394</v>
       </c>
-      <c r="AX171" s="14" t="s">
+      <c r="AX171" t="s">
         <v>2333</v>
       </c>
       <c r="AY171" s="1" t="s">
@@ -39719,88 +39918,91 @@
       <c r="U172" s="1" t="s">
         <v>3726</v>
       </c>
-      <c r="V172" s="14" t="s">
+      <c r="V172" t="s">
         <v>3711</v>
       </c>
-      <c r="W172" s="14" t="s">
+      <c r="W172" t="s">
         <v>3727</v>
       </c>
-      <c r="X172" s="14" t="s">
+      <c r="X172" t="s">
         <v>428</v>
       </c>
-      <c r="Y172" s="14" t="s">
+      <c r="Y172" t="s">
         <v>3728</v>
       </c>
-      <c r="Z172" s="14" t="s">
+      <c r="Z172" t="s">
         <v>3729</v>
       </c>
-      <c r="AA172" s="14" t="s">
+      <c r="AA172" t="s">
         <v>250</v>
       </c>
-      <c r="AB172" s="14" t="s">
+      <c r="AB172" t="s">
         <v>3730</v>
       </c>
-      <c r="AC172" s="14" t="s">
+      <c r="AC172" t="s">
         <v>252</v>
       </c>
-      <c r="AD172" s="14" t="s">
+      <c r="AD172" t="s">
         <v>281</v>
       </c>
-      <c r="AE172" s="14" t="s">
+      <c r="AE172" t="s">
         <v>324</v>
       </c>
-      <c r="AF172" s="14" t="s">
+      <c r="AF172" t="s">
         <v>229</v>
       </c>
-      <c r="AG172" s="14" t="s">
+      <c r="AG172" t="s">
         <v>3731</v>
       </c>
-      <c r="AH172" s="14" t="s">
+      <c r="AH172" t="s">
         <v>117</v>
       </c>
-      <c r="AI172" s="14" t="s">
+      <c r="AI172" t="s">
         <v>3678</v>
       </c>
-      <c r="AJ172" s="14" t="s">
+      <c r="AJ172" t="s">
         <v>118</v>
       </c>
-      <c r="AK172" s="14" t="s">
+      <c r="AK172" t="s">
         <v>490</v>
       </c>
-      <c r="AL172" s="14" t="s">
+      <c r="AL172" t="s">
         <v>3732</v>
       </c>
-      <c r="AM172" s="14" t="s">
+      <c r="AM172" t="s">
         <v>257</v>
       </c>
-      <c r="AN172" s="14" t="s">
+      <c r="AN172" t="s">
         <v>198</v>
       </c>
-      <c r="AO172" s="14" t="s">
+      <c r="AO172" t="s">
         <v>1191</v>
       </c>
-      <c r="AP172" s="14" t="s">
+      <c r="AP172" t="s">
         <v>259</v>
       </c>
-      <c r="AQ172" s="14" t="s">
+      <c r="AQ172" t="s">
         <v>3733</v>
       </c>
-      <c r="AS172" s="14" t="s">
+      <c r="AR172" t="s">
         <v>202</v>
       </c>
-      <c r="AT172" s="14" t="s">
+      <c r="AS172" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT172" t="s">
         <v>3734</v>
       </c>
-      <c r="AU172" s="14" t="s">
+      <c r="AU172" t="s">
         <v>520</v>
       </c>
-      <c r="AV172" s="14" t="s">
+      <c r="AV172" t="s">
         <v>3735</v>
       </c>
-      <c r="AW172" s="14" t="s">
+      <c r="AW172" t="s">
         <v>792</v>
       </c>
-      <c r="AX172" s="14" t="s">
+      <c r="AX172" t="s">
         <v>3736</v>
       </c>
       <c r="AY172" s="1" t="s">
@@ -39821,51 +40023,654 @@
         <v>172</v>
       </c>
       <c r="B173" s="2">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="C173" t="s">
         <v>54</v>
       </c>
+      <c r="D173" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E173">
+        <v>13</v>
+      </c>
+      <c r="F173">
+        <v>6</v>
+      </c>
       <c r="G173" t="s">
         <v>2697</v>
+      </c>
+      <c r="H173" t="s">
+        <v>97</v>
+      </c>
+      <c r="I173" t="s">
+        <v>240</v>
+      </c>
+      <c r="J173" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K173" t="s">
+        <v>3737</v>
+      </c>
+      <c r="L173" t="s">
+        <v>3738</v>
+      </c>
+      <c r="M173" t="s">
+        <v>3739</v>
+      </c>
+      <c r="N173" t="s">
+        <v>177</v>
+      </c>
+      <c r="O173" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P173" t="s">
+        <v>3740</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>3741</v>
+      </c>
+      <c r="R173">
+        <v>999</v>
+      </c>
+      <c r="S173">
+        <v>999</v>
+      </c>
+      <c r="T173" t="s">
+        <v>179</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="V173" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W173" s="14" t="s">
+        <v>3743</v>
+      </c>
+      <c r="X173" s="14" t="s">
+        <v>3537</v>
+      </c>
+      <c r="Y173" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z173" s="14" t="s">
+        <v>3744</v>
+      </c>
+      <c r="AA173" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB173" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC173" s="14" t="s">
+        <v>3515</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>3745</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>3746</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>3747</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP173" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AQ173" t="s">
+        <v>3748</v>
+      </c>
+      <c r="AR173" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS173" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT173" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU173" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV173" t="s">
+        <v>3749</v>
+      </c>
+      <c r="AW173" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX173" t="s">
+        <v>3750</v>
+      </c>
+      <c r="AY173" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AZ173" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA173" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="B174" s="2">
+        <v>44785</v>
+      </c>
       <c r="C174" t="s">
         <v>54</v>
       </c>
+      <c r="D174" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E174">
+        <v>13</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
       <c r="G174" t="s">
         <v>2698</v>
+      </c>
+      <c r="H174" t="s">
+        <v>97</v>
+      </c>
+      <c r="I174" t="s">
+        <v>240</v>
+      </c>
+      <c r="J174" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K174" t="s">
+        <v>3752</v>
+      </c>
+      <c r="L174" t="s">
+        <v>3753</v>
+      </c>
+      <c r="M174">
+        <v>999</v>
+      </c>
+      <c r="N174" t="s">
+        <v>177</v>
+      </c>
+      <c r="O174" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P174" t="s">
+        <v>3754</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>3755</v>
+      </c>
+      <c r="R174">
+        <v>999</v>
+      </c>
+      <c r="S174">
+        <v>999</v>
+      </c>
+      <c r="T174" t="s">
+        <v>64</v>
+      </c>
+      <c r="U174" s="1">
+        <v>999</v>
+      </c>
+      <c r="V174" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="W174" s="14" t="s">
+        <v>1756</v>
+      </c>
+      <c r="X174" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y174" s="14" t="s">
+        <v>3756</v>
+      </c>
+      <c r="Z174" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA174" s="14" t="s">
+        <v>3758</v>
+      </c>
+      <c r="AB174" s="14" t="s">
+        <v>3757</v>
+      </c>
+      <c r="AC174" s="14" t="s">
+        <v>3759</v>
+      </c>
+      <c r="AD174" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE174" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF174" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG174" s="14" t="s">
+        <v>3760</v>
+      </c>
+      <c r="AH174" s="14" t="s">
+        <v>3761</v>
+      </c>
+      <c r="AI174" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="AJ174" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK174" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL174" s="14" t="s">
+        <v>3763</v>
+      </c>
+      <c r="AM174" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN174" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO174" s="14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP174" s="16" t="s">
+        <v>3764</v>
+      </c>
+      <c r="AQ174" s="14" t="s">
+        <v>3765</v>
+      </c>
+      <c r="AR174" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS174" s="14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AT174" s="16" t="s">
+        <v>3766</v>
+      </c>
+      <c r="AU174" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV174" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW174" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX174" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY174" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AZ174" s="14" t="s">
+        <v>3751</v>
+      </c>
+      <c r="BA174" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
+      <c r="B175" s="2">
+        <v>44785</v>
+      </c>
       <c r="C175" t="s">
         <v>54</v>
       </c>
+      <c r="D175" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E175">
+        <v>13</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
       <c r="G175" t="s">
         <v>2699</v>
       </c>
+      <c r="H175" t="s">
+        <v>97</v>
+      </c>
+      <c r="I175" t="s">
+        <v>240</v>
+      </c>
+      <c r="J175" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K175" t="s">
+        <v>3373</v>
+      </c>
+      <c r="L175" t="s">
+        <v>3767</v>
+      </c>
+      <c r="M175">
+        <v>999</v>
+      </c>
+      <c r="N175" t="s">
+        <v>177</v>
+      </c>
+      <c r="O175">
+        <v>999</v>
+      </c>
+      <c r="P175" t="s">
+        <v>3768</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>3769</v>
+      </c>
+      <c r="R175">
+        <v>999</v>
+      </c>
+      <c r="S175">
+        <v>999</v>
+      </c>
+      <c r="T175">
+        <v>999</v>
+      </c>
+      <c r="U175" s="1">
+        <v>999</v>
+      </c>
+      <c r="V175" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="W175" s="14" t="s">
+        <v>3770</v>
+      </c>
+      <c r="X175" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y175" s="14" t="s">
+        <v>3771</v>
+      </c>
+      <c r="Z175" s="14" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA175" s="14" t="s">
+        <v>3772</v>
+      </c>
+      <c r="AB175" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC175" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD175" s="14" t="s">
+        <v>3773</v>
+      </c>
+      <c r="AE175" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF175" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG175" s="14" t="s">
+        <v>3774</v>
+      </c>
+      <c r="AH175" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI175" s="14" t="s">
+        <v>3775</v>
+      </c>
+      <c r="AJ175" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK175" s="14" t="s">
+        <v>3502</v>
+      </c>
+      <c r="AL175" s="14" t="s">
+        <v>3776</v>
+      </c>
+      <c r="AM175" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN175" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO175" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP175" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ175" s="14" t="s">
+        <v>3777</v>
+      </c>
+      <c r="AR175" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS175" s="14" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AT175" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU175" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV175" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW175" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX175" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AY175" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ175" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA175" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="17">
         <v>175</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B176" s="18">
+        <v>44785</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G176" t="s">
+      <c r="D176" s="17" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E176" s="17">
+        <v>13</v>
+      </c>
+      <c r="F176" s="17">
+        <v>9</v>
+      </c>
+      <c r="G176" s="17" t="s">
         <v>2700</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I176" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K176" s="17" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L176" s="17" t="s">
+        <v>3778</v>
+      </c>
+      <c r="M176" s="17">
+        <v>999</v>
+      </c>
+      <c r="N176" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O176" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P176" s="17" t="s">
+        <v>3779</v>
+      </c>
+      <c r="Q176" s="17" t="s">
+        <v>3780</v>
+      </c>
+      <c r="R176" s="17">
+        <v>999</v>
+      </c>
+      <c r="S176" s="17">
+        <v>999</v>
+      </c>
+      <c r="T176" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="U176" s="19">
+        <v>999</v>
+      </c>
+      <c r="V176" s="16" t="s">
+        <v>3781</v>
+      </c>
+      <c r="W176" s="16" t="s">
+        <v>3782</v>
+      </c>
+      <c r="X176" s="16" t="s">
+        <v>3783</v>
+      </c>
+      <c r="Y176" s="16" t="s">
+        <v>3784</v>
+      </c>
+      <c r="Z176" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA176" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB176" s="16" t="s">
+        <v>3785</v>
+      </c>
+      <c r="AC176" s="16" t="s">
+        <v>3786</v>
+      </c>
+      <c r="AD176" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE176" s="16" t="s">
+        <v>3787</v>
+      </c>
+      <c r="AF176" s="16" t="s">
+        <v>3788</v>
+      </c>
+      <c r="AG176" s="16" t="s">
+        <v>3789</v>
+      </c>
+      <c r="AH176" s="16" t="s">
+        <v>3790</v>
+      </c>
+      <c r="AI176" s="16" t="s">
+        <v>3791</v>
+      </c>
+      <c r="AJ176" s="16" t="s">
+        <v>3792</v>
+      </c>
+      <c r="AK176" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL176" s="16" t="s">
+        <v>3793</v>
+      </c>
+      <c r="AM176" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN176" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO176" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP176" s="16" t="s">
+        <v>3794</v>
+      </c>
+      <c r="AQ176" s="16" t="s">
+        <v>3795</v>
+      </c>
+      <c r="AR176" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS176" s="16" t="s">
+        <v>3796</v>
+      </c>
+      <c r="AT176" s="16" t="s">
+        <v>3585</v>
+      </c>
+      <c r="AU176" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV176" s="16" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AW176" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX176" s="16" t="s">
+        <v>3798</v>
+      </c>
+      <c r="AY176" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ176" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA176" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB176" s="16" t="s">
+        <v>3799</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>44785</v>
       </c>
       <c r="C177" t="s">
         <v>54</v>
@@ -40538,7 +41343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9BCB77-8E23-4A4F-B26E-092A062BBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FC598-A817-4875-8FB7-C96F7BC78991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="14040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7832" uniqueCount="3800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="3876">
   <si>
     <t>ID</t>
   </si>
@@ -12579,6 +12579,297 @@
   </si>
   <si>
     <t>{zeichen über u durchgehend was für Standard u spricht, aber erscheint auch teils bei e}</t>
+  </si>
+  <si>
+    <t>u-[b] {oder l}</t>
+  </si>
+  <si>
+    <t>Pfaffenburg</t>
+  </si>
+  <si>
+    <t>Hermann Leonhardt</t>
+  </si>
+  <si>
+    <t>Maldulm</t>
+  </si>
+  <si>
+    <t>Lich (d', w) {strich und Punkt über i}</t>
+  </si>
+  <si>
+    <t>Discht'le (w)</t>
+  </si>
+  <si>
+    <t>Elsch'der (w)</t>
+  </si>
+  <si>
+    <t>Fladermŭ̄s (w)</t>
+  </si>
+  <si>
+    <t>Fli͜äge (w) {Bogen unter i und ä}</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hŭ͜eh (s)</t>
+  </si>
+  <si>
+    <t>Hebamd (w)</t>
+  </si>
+  <si>
+    <t>Erdöpfel ([h'], m)</t>
+  </si>
+  <si>
+    <t>Schǟr (m)</t>
+  </si>
+  <si>
+    <t>Gallr[iä]be (w)</t>
+  </si>
+  <si>
+    <t>Mōhr (w)</t>
+  </si>
+  <si>
+    <t>Gaiß'le (w)</t>
+  </si>
+  <si>
+    <t>Pflŭ̄me (w)</t>
+  </si>
+  <si>
+    <t>[h]ŭddĕrĕ, mŭ̄lĕ[?] drŭfle</t>
+  </si>
+  <si>
+    <t>Sch'batz (m)</t>
+  </si>
+  <si>
+    <t>Schdachelbeeri (w)</t>
+  </si>
+  <si>
+    <t>Güfli (s)</t>
+  </si>
+  <si>
+    <t>Sch'drigg͜=nōdle (w)</t>
+  </si>
+  <si>
+    <t>schdeinnener Hāfe (m)</t>
+  </si>
+  <si>
+    <t>zwei'n</t>
+  </si>
+  <si>
+    <t>Ga͜iß (w)</t>
+  </si>
+  <si>
+    <t>u-c</t>
+  </si>
+  <si>
+    <t>Ehrsberg</t>
+  </si>
+  <si>
+    <t>Gēht[er] Kīefer</t>
+  </si>
+  <si>
+    <t>Åmeise (w)</t>
+  </si>
+  <si>
+    <t>Lichd (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Bruumbeer</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (w)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Di</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>schle (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Elschdr (w)</t>
+  </si>
+  <si>
+    <t>Gugumre (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hue (s)</t>
+  </si>
+  <si>
+    <t>Hardöpfel (m)</t>
+  </si>
+  <si>
+    <t>Chetzerolli (m)</t>
+  </si>
+  <si>
+    <t>Schärmiggelschteegel (m)</t>
+  </si>
+  <si>
+    <t>deufle</t>
+  </si>
+  <si>
+    <t>Steck[eg]üfli (s)</t>
+  </si>
+  <si>
+    <t>Schüßle (w)</t>
+  </si>
+  <si>
+    <t>u-d</t>
+  </si>
+  <si>
+    <t>Häg</t>
+  </si>
+  <si>
+    <t>Dr. Karl F. Siegel</t>
+  </si>
+  <si>
+    <t>Ohmeisse &lt;grösseresorte:&gt; Klammere</t>
+  </si>
+  <si>
+    <t>Beerdigung, Lĭcht {punkt und diakritikum für Licht}</t>
+  </si>
+  <si>
+    <t>Brombéri</t>
+  </si>
+  <si>
+    <t>Díchse &lt;3 silbig&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mŭr:&gt; Ente &lt;gibt hier keine!&gt;</t>
+  </si>
+  <si>
+    <t>Fledermūs</t>
+  </si>
+  <si>
+    <t>Fliége &lt;3 silbig&gt;</t>
+  </si>
+  <si>
+    <t>Mād</t>
+  </si>
+  <si>
+    <t>Gurke</t>
+  </si>
+  <si>
+    <t>Hagebŭtte</t>
+  </si>
+  <si>
+    <t>Gückel, Húe</t>
+  </si>
+  <si>
+    <t>Hebamm, Hebandt</t>
+  </si>
+  <si>
+    <t>Schermūs</t>
+  </si>
+  <si>
+    <t>Gällrüebe</t>
+  </si>
+  <si>
+    <t>Geissle</t>
+  </si>
+  <si>
+    <t>Pflūme</t>
+  </si>
+  <si>
+    <t>Chrüselberi</t>
+  </si>
+  <si>
+    <t>Stecknōdle, Güfli</t>
+  </si>
+  <si>
+    <t>Stricknōdle</t>
+  </si>
+  <si>
+    <t>&lt;ab-&gt;zweie</t>
+  </si>
+  <si>
+    <t>u-e</t>
+  </si>
+  <si>
+    <t>Happach</t>
+  </si>
+  <si>
+    <t>Breuer</t>
+  </si>
+  <si>
+    <t>K[a?]rlbruhn</t>
+  </si>
+  <si>
+    <t>i. B.</t>
+  </si>
+  <si>
+    <t>Licht &lt;langes i&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Fli</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ä</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ge</t>
+    </r>
+  </si>
+  <si>
+    <t>Gückel, Hun</t>
+  </si>
+  <si>
+    <t>Güfli</t>
+  </si>
+  <si>
+    <t>Schüßle</t>
+  </si>
+  <si>
+    <t>zweie[e]</t>
+  </si>
+  <si>
+    <t>Geiße</t>
   </si>
 </sst>
 </file>
@@ -12740,12 +13031,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -13066,8 +13357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW176" sqref="A176:XFD176"/>
+    <sheetView topLeftCell="AP141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ181" sqref="AZ181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39987,7 +40278,7 @@
       <c r="AR172" t="s">
         <v>202</v>
       </c>
-      <c r="AS172" s="15" t="s">
+      <c r="AS172" t="s">
         <v>203</v>
       </c>
       <c r="AT172" t="s">
@@ -40082,28 +40373,28 @@
       <c r="U173" s="1" t="s">
         <v>3742</v>
       </c>
-      <c r="V173" s="14" t="s">
+      <c r="V173" t="s">
         <v>1738</v>
       </c>
-      <c r="W173" s="14" t="s">
+      <c r="W173" t="s">
         <v>3743</v>
       </c>
-      <c r="X173" s="14" t="s">
+      <c r="X173" t="s">
         <v>3537</v>
       </c>
-      <c r="Y173" s="14" t="s">
+      <c r="Y173" t="s">
         <v>822</v>
       </c>
-      <c r="Z173" s="14" t="s">
+      <c r="Z173" t="s">
         <v>3744</v>
       </c>
-      <c r="AA173" s="14" t="s">
+      <c r="AA173" t="s">
         <v>485</v>
       </c>
-      <c r="AB173" s="14" t="s">
+      <c r="AB173" t="s">
         <v>226</v>
       </c>
-      <c r="AC173" s="14" t="s">
+      <c r="AC173" t="s">
         <v>3515</v>
       </c>
       <c r="AD173" t="s">
@@ -40172,7 +40463,7 @@
       <c r="AY173" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="AZ173" s="14" t="s">
+      <c r="AZ173" t="s">
         <v>303</v>
       </c>
       <c r="BA173" s="1" t="s">
@@ -40243,97 +40534,97 @@
       <c r="U174" s="1">
         <v>999</v>
       </c>
-      <c r="V174" s="14" t="s">
+      <c r="V174" t="s">
         <v>1738</v>
       </c>
-      <c r="W174" s="14" t="s">
+      <c r="W174" t="s">
         <v>1756</v>
       </c>
-      <c r="X174" s="14" t="s">
+      <c r="X174" t="s">
         <v>821</v>
       </c>
-      <c r="Y174" s="14" t="s">
+      <c r="Y174" t="s">
         <v>3756</v>
       </c>
-      <c r="Z174" s="14" t="s">
+      <c r="Z174" t="s">
         <v>277</v>
       </c>
-      <c r="AA174" s="14" t="s">
+      <c r="AA174" t="s">
         <v>3758</v>
       </c>
-      <c r="AB174" s="14" t="s">
+      <c r="AB174" t="s">
         <v>3757</v>
       </c>
-      <c r="AC174" s="14" t="s">
+      <c r="AC174" t="s">
         <v>3759</v>
       </c>
-      <c r="AD174" s="14" t="s">
+      <c r="AD174" t="s">
         <v>1213</v>
       </c>
-      <c r="AE174" s="14" t="s">
+      <c r="AE174" t="s">
         <v>324</v>
       </c>
-      <c r="AF174" s="14" t="s">
+      <c r="AF174" t="s">
         <v>642</v>
       </c>
-      <c r="AG174" s="14" t="s">
+      <c r="AG174" t="s">
         <v>3760</v>
       </c>
-      <c r="AH174" s="14" t="s">
+      <c r="AH174" t="s">
         <v>3761</v>
       </c>
-      <c r="AI174" s="16" t="s">
+      <c r="AI174" s="14" t="s">
         <v>3762</v>
       </c>
-      <c r="AJ174" s="14" t="s">
+      <c r="AJ174" t="s">
         <v>385</v>
       </c>
-      <c r="AK174" s="14" t="s">
+      <c r="AK174" t="s">
         <v>490</v>
       </c>
-      <c r="AL174" s="14" t="s">
+      <c r="AL174" t="s">
         <v>3763</v>
       </c>
-      <c r="AM174" s="14" t="s">
+      <c r="AM174" t="s">
         <v>290</v>
       </c>
-      <c r="AN174" s="14" t="s">
+      <c r="AN174" t="s">
         <v>831</v>
       </c>
-      <c r="AO174" s="14" t="s">
+      <c r="AO174" t="s">
         <v>1191</v>
       </c>
-      <c r="AP174" s="16" t="s">
+      <c r="AP174" s="14" t="s">
         <v>3764</v>
       </c>
-      <c r="AQ174" s="14" t="s">
+      <c r="AQ174" t="s">
         <v>3765</v>
       </c>
-      <c r="AR174" s="14" t="s">
+      <c r="AR174" t="s">
         <v>295</v>
       </c>
-      <c r="AS174" s="14" t="s">
+      <c r="AS174" t="s">
         <v>1239</v>
       </c>
-      <c r="AT174" s="16" t="s">
+      <c r="AT174" s="14" t="s">
         <v>3766</v>
       </c>
-      <c r="AU174" s="14" t="s">
+      <c r="AU174" t="s">
         <v>205</v>
       </c>
-      <c r="AV174" s="14" t="s">
+      <c r="AV174" t="s">
         <v>299</v>
       </c>
-      <c r="AW174" s="14" t="s">
+      <c r="AW174" t="s">
         <v>792</v>
       </c>
-      <c r="AX174" s="14" t="s">
+      <c r="AX174" t="s">
         <v>131</v>
       </c>
       <c r="AY174" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="AZ174" s="14" t="s">
+      <c r="AZ174" t="s">
         <v>3751</v>
       </c>
       <c r="BA174" s="1" t="s">
@@ -40404,348 +40695,963 @@
       <c r="U175" s="1">
         <v>999</v>
       </c>
-      <c r="V175" s="14" t="s">
+      <c r="V175" t="s">
         <v>723</v>
       </c>
-      <c r="W175" s="14" t="s">
+      <c r="W175" t="s">
         <v>3770</v>
       </c>
-      <c r="X175" s="14" t="s">
+      <c r="X175" t="s">
         <v>183</v>
       </c>
-      <c r="Y175" s="14" t="s">
+      <c r="Y175" t="s">
         <v>3771</v>
       </c>
-      <c r="Z175" s="14" t="s">
+      <c r="Z175" t="s">
         <v>1254</v>
       </c>
-      <c r="AA175" s="14" t="s">
+      <c r="AA175" t="s">
         <v>3772</v>
       </c>
-      <c r="AB175" s="14" t="s">
+      <c r="AB175" t="s">
         <v>408</v>
       </c>
-      <c r="AC175" s="14" t="s">
+      <c r="AC175" t="s">
         <v>252</v>
       </c>
-      <c r="AD175" s="14" t="s">
+      <c r="AD175" t="s">
         <v>3773</v>
       </c>
-      <c r="AE175" s="14" t="s">
+      <c r="AE175" t="s">
         <v>190</v>
       </c>
-      <c r="AF175" s="14" t="s">
+      <c r="AF175" t="s">
         <v>804</v>
       </c>
-      <c r="AG175" s="14" t="s">
+      <c r="AG175" t="s">
         <v>3774</v>
       </c>
-      <c r="AH175" s="14" t="s">
+      <c r="AH175" t="s">
         <v>515</v>
       </c>
-      <c r="AI175" s="14" t="s">
+      <c r="AI175" t="s">
         <v>3775</v>
       </c>
-      <c r="AJ175" s="14" t="s">
+      <c r="AJ175" t="s">
         <v>118</v>
       </c>
-      <c r="AK175" s="14" t="s">
+      <c r="AK175" t="s">
         <v>3502</v>
       </c>
-      <c r="AL175" s="14" t="s">
+      <c r="AL175" t="s">
         <v>3776</v>
       </c>
-      <c r="AM175" s="14" t="s">
+      <c r="AM175" t="s">
         <v>121</v>
       </c>
-      <c r="AN175" s="14" t="s">
+      <c r="AN175" t="s">
         <v>1263</v>
       </c>
-      <c r="AO175" s="14" t="s">
+      <c r="AO175" t="s">
         <v>234</v>
       </c>
-      <c r="AP175" s="14" t="s">
+      <c r="AP175" t="s">
         <v>235</v>
       </c>
-      <c r="AQ175" s="14" t="s">
+      <c r="AQ175" t="s">
         <v>3777</v>
       </c>
-      <c r="AR175" s="14" t="s">
+      <c r="AR175" t="s">
         <v>202</v>
       </c>
-      <c r="AS175" s="14" t="s">
+      <c r="AS175" t="s">
         <v>1264</v>
       </c>
-      <c r="AT175" s="14" t="s">
+      <c r="AT175" t="s">
         <v>889</v>
       </c>
-      <c r="AU175" s="14" t="s">
+      <c r="AU175" t="s">
         <v>205</v>
       </c>
-      <c r="AV175" s="14" t="s">
+      <c r="AV175" t="s">
         <v>206</v>
       </c>
-      <c r="AW175" s="14" t="s">
+      <c r="AW175" t="s">
         <v>264</v>
       </c>
-      <c r="AX175" s="14" t="s">
+      <c r="AX175" t="s">
         <v>1197</v>
       </c>
       <c r="AY175" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ175" s="14" t="s">
+      <c r="AZ175" t="s">
         <v>211</v>
       </c>
       <c r="BA175" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="176" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="17">
+    <row r="176" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
         <v>175</v>
       </c>
-      <c r="B176" s="18">
+      <c r="B176" s="15">
         <v>44785</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D176" s="17" t="s">
+      <c r="D176" s="14" t="s">
         <v>2917</v>
       </c>
-      <c r="E176" s="17">
+      <c r="E176" s="14">
         <v>13</v>
       </c>
-      <c r="F176" s="17">
+      <c r="F176" s="14">
         <v>9</v>
       </c>
-      <c r="G176" s="17" t="s">
+      <c r="G176" s="14" t="s">
         <v>2700</v>
       </c>
-      <c r="H176" s="17" t="s">
+      <c r="H176" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I176" s="17" t="s">
+      <c r="I176" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="J176" s="17" t="s">
+      <c r="J176" s="14" t="s">
         <v>2763</v>
       </c>
-      <c r="K176" s="17" t="s">
+      <c r="K176" s="14" t="s">
         <v>2201</v>
       </c>
-      <c r="L176" s="17" t="s">
+      <c r="L176" s="14" t="s">
         <v>3778</v>
       </c>
-      <c r="M176" s="17">
-        <v>999</v>
-      </c>
-      <c r="N176" s="17" t="s">
+      <c r="M176" s="14">
+        <v>999</v>
+      </c>
+      <c r="N176" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="O176" s="17" t="s">
+      <c r="O176" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="P176" s="17" t="s">
+      <c r="P176" s="14" t="s">
         <v>3779</v>
       </c>
-      <c r="Q176" s="17" t="s">
+      <c r="Q176" s="14" t="s">
         <v>3780</v>
       </c>
-      <c r="R176" s="17">
-        <v>999</v>
-      </c>
-      <c r="S176" s="17">
-        <v>999</v>
-      </c>
-      <c r="T176" s="17" t="s">
+      <c r="R176" s="14">
+        <v>999</v>
+      </c>
+      <c r="S176" s="14">
+        <v>999</v>
+      </c>
+      <c r="T176" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="U176" s="19">
-        <v>999</v>
-      </c>
-      <c r="V176" s="16" t="s">
+      <c r="U176" s="16">
+        <v>999</v>
+      </c>
+      <c r="V176" s="14" t="s">
         <v>3781</v>
       </c>
-      <c r="W176" s="16" t="s">
+      <c r="W176" s="14" t="s">
         <v>3782</v>
       </c>
-      <c r="X176" s="16" t="s">
+      <c r="X176" s="14" t="s">
         <v>3783</v>
       </c>
-      <c r="Y176" s="16" t="s">
+      <c r="Y176" s="14" t="s">
         <v>3784</v>
       </c>
-      <c r="Z176" s="16" t="s">
+      <c r="Z176" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="AA176" s="16" t="s">
+      <c r="AA176" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="AB176" s="16" t="s">
+      <c r="AB176" s="14" t="s">
         <v>3785</v>
       </c>
-      <c r="AC176" s="16" t="s">
+      <c r="AC176" s="14" t="s">
         <v>3786</v>
       </c>
-      <c r="AD176" s="16" t="s">
+      <c r="AD176" s="14" t="s">
         <v>1213</v>
       </c>
-      <c r="AE176" s="16" t="s">
+      <c r="AE176" s="14" t="s">
         <v>3787</v>
       </c>
-      <c r="AF176" s="16" t="s">
+      <c r="AF176" s="14" t="s">
         <v>3788</v>
       </c>
-      <c r="AG176" s="16" t="s">
+      <c r="AG176" s="14" t="s">
         <v>3789</v>
       </c>
-      <c r="AH176" s="16" t="s">
+      <c r="AH176" s="14" t="s">
         <v>3790</v>
       </c>
-      <c r="AI176" s="16" t="s">
+      <c r="AI176" s="14" t="s">
         <v>3791</v>
       </c>
-      <c r="AJ176" s="16" t="s">
+      <c r="AJ176" s="14" t="s">
         <v>3792</v>
       </c>
-      <c r="AK176" s="16" t="s">
+      <c r="AK176" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="AL176" s="16" t="s">
+      <c r="AL176" s="14" t="s">
         <v>3793</v>
       </c>
-      <c r="AM176" s="16" t="s">
+      <c r="AM176" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="AN176" s="16" t="s">
+      <c r="AN176" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="AO176" s="16" t="s">
+      <c r="AO176" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="AP176" s="16" t="s">
+      <c r="AP176" s="14" t="s">
         <v>3794</v>
       </c>
-      <c r="AQ176" s="16" t="s">
+      <c r="AQ176" s="14" t="s">
         <v>3795</v>
       </c>
-      <c r="AR176" s="16" t="s">
+      <c r="AR176" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="AS176" s="16" t="s">
+      <c r="AS176" s="14" t="s">
         <v>3796</v>
       </c>
-      <c r="AT176" s="16" t="s">
+      <c r="AT176" s="14" t="s">
         <v>3585</v>
       </c>
-      <c r="AU176" s="16" t="s">
+      <c r="AU176" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="AV176" s="16" t="s">
+      <c r="AV176" s="14" t="s">
         <v>3797</v>
       </c>
-      <c r="AW176" s="16" t="s">
+      <c r="AW176" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="AX176" s="16" t="s">
+      <c r="AX176" s="14" t="s">
         <v>3798</v>
       </c>
-      <c r="AY176" s="19" t="s">
+      <c r="AY176" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="AZ176" s="16" t="s">
+      <c r="AZ176" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="BA176" s="19" t="s">
+      <c r="BA176" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="BB176" s="16" t="s">
+      <c r="BB176" s="14" t="s">
         <v>3799</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="C177" t="s">
         <v>54</v>
       </c>
+      <c r="D177" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E177">
+        <v>14</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
       <c r="G177" t="s">
         <v>2701</v>
       </c>
+      <c r="H177" t="s">
+        <v>97</v>
+      </c>
+      <c r="I177" t="s">
+        <v>268</v>
+      </c>
+      <c r="J177" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K177" t="s">
+        <v>3800</v>
+      </c>
+      <c r="L177" t="s">
+        <v>3801</v>
+      </c>
+      <c r="M177">
+        <v>999</v>
+      </c>
+      <c r="N177" t="s">
+        <v>177</v>
+      </c>
+      <c r="O177" t="s">
+        <v>103</v>
+      </c>
+      <c r="P177" t="s">
+        <v>3802</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>3803</v>
+      </c>
+      <c r="R177">
+        <v>999</v>
+      </c>
+      <c r="S177" t="s">
+        <v>103</v>
+      </c>
+      <c r="T177" t="s">
+        <v>64</v>
+      </c>
+      <c r="U177" s="1">
+        <v>999</v>
+      </c>
+      <c r="V177" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W177" s="17" t="s">
+        <v>3804</v>
+      </c>
+      <c r="X177" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y177" s="17" t="s">
+        <v>3805</v>
+      </c>
+      <c r="Z177" s="17" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AA177" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB177" s="17" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AC177" s="17" t="s">
+        <v>3808</v>
+      </c>
+      <c r="AD177" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE177" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF177" s="17" t="s">
+        <v>3788</v>
+      </c>
+      <c r="AG177" s="17" t="s">
+        <v>3809</v>
+      </c>
+      <c r="AH177" s="17" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AI177" s="17" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AJ177" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK177" s="17" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AL177" s="17" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AM177" s="17" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AN177" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO177" s="17" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AP177" s="17" t="s">
+        <v>3816</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>3817</v>
+      </c>
+      <c r="AR177" t="s">
+        <v>3818</v>
+      </c>
+      <c r="AS177" t="s">
+        <v>3819</v>
+      </c>
+      <c r="AT177" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AV177" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW177" t="s">
+        <v>3822</v>
+      </c>
+      <c r="AX177" t="s">
+        <v>3823</v>
+      </c>
+      <c r="AY177" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="AZ177" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA177" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
+      <c r="B178" s="2">
+        <v>44786</v>
+      </c>
       <c r="C178" t="s">
         <v>54</v>
       </c>
+      <c r="D178" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
       <c r="G178" t="s">
         <v>2702</v>
       </c>
+      <c r="H178" t="s">
+        <v>97</v>
+      </c>
+      <c r="I178" t="s">
+        <v>268</v>
+      </c>
+      <c r="J178" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K178" t="s">
+        <v>3825</v>
+      </c>
+      <c r="L178" t="s">
+        <v>3826</v>
+      </c>
+      <c r="M178">
+        <v>999</v>
+      </c>
+      <c r="N178" t="s">
+        <v>177</v>
+      </c>
+      <c r="O178" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P178" t="s">
+        <v>3827</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>2017</v>
+      </c>
+      <c r="R178">
+        <v>999</v>
+      </c>
+      <c r="S178">
+        <v>999</v>
+      </c>
+      <c r="T178" t="s">
+        <v>64</v>
+      </c>
+      <c r="U178" s="1">
+        <v>999</v>
+      </c>
+      <c r="V178" t="s">
+        <v>3828</v>
+      </c>
+      <c r="W178" s="17" t="s">
+        <v>3829</v>
+      </c>
+      <c r="X178" s="17" t="s">
+        <v>3830</v>
+      </c>
+      <c r="Y178" s="17" t="s">
+        <v>3831</v>
+      </c>
+      <c r="Z178" s="17" t="s">
+        <v>3832</v>
+      </c>
+      <c r="AA178" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB178" s="17" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AC178" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AD178" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE178" s="17" t="s">
+        <v>3833</v>
+      </c>
+      <c r="AF178" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG178" s="17" t="s">
+        <v>3834</v>
+      </c>
+      <c r="AH178" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI178" s="18" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AJ178" s="17" t="s">
+        <v>3836</v>
+      </c>
+      <c r="AK178" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL178" s="17" t="s">
+        <v>3837</v>
+      </c>
+      <c r="AM178" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN178" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO178" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP178" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ178" s="17" t="s">
+        <v>3838</v>
+      </c>
+      <c r="AR178" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS178" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="AT178" s="19" t="s">
+        <v>3839</v>
+      </c>
+      <c r="AU178" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV178" s="17" t="s">
+        <v>3840</v>
+      </c>
+      <c r="AW178" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX178" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY178" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ178" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA178" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
+      <c r="B179" s="2">
+        <v>44786</v>
+      </c>
       <c r="C179" t="s">
         <v>54</v>
       </c>
+      <c r="D179" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
       <c r="G179" t="s">
         <v>2703</v>
       </c>
+      <c r="H179" t="s">
+        <v>97</v>
+      </c>
+      <c r="I179" t="s">
+        <v>268</v>
+      </c>
+      <c r="J179" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K179" t="s">
+        <v>3841</v>
+      </c>
+      <c r="L179" t="s">
+        <v>3842</v>
+      </c>
+      <c r="M179">
+        <v>999</v>
+      </c>
+      <c r="N179" t="s">
+        <v>177</v>
+      </c>
+      <c r="O179" t="s">
+        <v>103</v>
+      </c>
+      <c r="P179" t="s">
+        <v>3843</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>772</v>
+      </c>
+      <c r="R179">
+        <v>999</v>
+      </c>
+      <c r="S179">
+        <v>999</v>
+      </c>
+      <c r="T179" t="s">
+        <v>142</v>
+      </c>
+      <c r="U179" s="1">
+        <v>999</v>
+      </c>
+      <c r="V179" t="s">
+        <v>3844</v>
+      </c>
+      <c r="W179" s="17" t="s">
+        <v>3845</v>
+      </c>
+      <c r="X179" s="17" t="s">
+        <v>3846</v>
+      </c>
+      <c r="Y179" s="17" t="s">
+        <v>3847</v>
+      </c>
+      <c r="Z179" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA179" s="17" t="s">
+        <v>3848</v>
+      </c>
+      <c r="AB179" s="17" t="s">
+        <v>3849</v>
+      </c>
+      <c r="AC179" s="17" t="s">
+        <v>3850</v>
+      </c>
+      <c r="AD179" s="17" t="s">
+        <v>3851</v>
+      </c>
+      <c r="AE179" s="17" t="s">
+        <v>3852</v>
+      </c>
+      <c r="AF179" s="17" t="s">
+        <v>3853</v>
+      </c>
+      <c r="AG179" s="17" t="s">
+        <v>3854</v>
+      </c>
+      <c r="AH179" s="17" t="s">
+        <v>3855</v>
+      </c>
+      <c r="AI179" s="17" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AJ179" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK179" s="17" t="s">
+        <v>3856</v>
+      </c>
+      <c r="AL179" s="17" t="s">
+        <v>3857</v>
+      </c>
+      <c r="AM179" s="17" t="s">
+        <v>3022</v>
+      </c>
+      <c r="AN179" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO179" s="17" t="s">
+        <v>3858</v>
+      </c>
+      <c r="AP179" s="17" t="s">
+        <v>3859</v>
+      </c>
+      <c r="AQ179" s="17" t="s">
+        <v>3838</v>
+      </c>
+      <c r="AR179" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS179" s="17" t="s">
+        <v>3860</v>
+      </c>
+      <c r="AT179" s="17" t="s">
+        <v>3861</v>
+      </c>
+      <c r="AU179" s="17" t="s">
+        <v>3862</v>
+      </c>
+      <c r="AV179" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW179" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX179" s="17" t="s">
+        <v>3863</v>
+      </c>
+      <c r="AY179" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ179" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA179" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
+      <c r="B180" s="2">
+        <v>44786</v>
+      </c>
       <c r="C180" t="s">
         <v>54</v>
       </c>
+      <c r="D180" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
       <c r="G180" t="s">
         <v>2704</v>
       </c>
+      <c r="H180" t="s">
+        <v>97</v>
+      </c>
+      <c r="I180" t="s">
+        <v>268</v>
+      </c>
+      <c r="J180" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K180" t="s">
+        <v>3864</v>
+      </c>
+      <c r="L180" t="s">
+        <v>3865</v>
+      </c>
+      <c r="M180">
+        <v>999</v>
+      </c>
+      <c r="N180" t="s">
+        <v>177</v>
+      </c>
+      <c r="O180" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P180" t="s">
+        <v>3866</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>3867</v>
+      </c>
+      <c r="R180" t="s">
+        <v>3868</v>
+      </c>
+      <c r="S180">
+        <v>999</v>
+      </c>
+      <c r="T180" t="s">
+        <v>245</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="V180">
+        <v>999</v>
+      </c>
+      <c r="W180" s="17" t="s">
+        <v>3869</v>
+      </c>
+      <c r="X180" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y180" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z180">
+        <v>999</v>
+      </c>
+      <c r="AA180">
+        <v>999</v>
+      </c>
+      <c r="AB180" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC180" s="17" t="s">
+        <v>3870</v>
+      </c>
+      <c r="AD180" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE180" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF180">
+        <v>999</v>
+      </c>
+      <c r="AG180" s="17" t="s">
+        <v>3871</v>
+      </c>
+      <c r="AH180">
+        <v>999</v>
+      </c>
+      <c r="AI180" s="17" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ180">
+        <v>999</v>
+      </c>
+      <c r="AK180" s="17" t="s">
+        <v>3502</v>
+      </c>
+      <c r="AL180">
+        <v>999</v>
+      </c>
+      <c r="AM180">
+        <v>999</v>
+      </c>
+      <c r="AN180" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO180" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP180" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ180" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="AR180" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS180">
+        <v>999</v>
+      </c>
+      <c r="AT180" s="18" t="s">
+        <v>3872</v>
+      </c>
+      <c r="AU180" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV180" s="17" t="s">
+        <v>3873</v>
+      </c>
+      <c r="AW180" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX180" s="17" t="s">
+        <v>3874</v>
+      </c>
+      <c r="AY180" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AZ180" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA180" s="1">
+        <v>999</v>
+      </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="C181" t="s">
         <v>54</v>
       </c>
+      <c r="D181" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
+      </c>
+      <c r="F181">
+        <v>5</v>
+      </c>
       <c r="G181" t="s">
         <v>2705</v>
       </c>
+      <c r="AZ181" s="17" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="C182" t="s">
         <v>54</v>
       </c>
+      <c r="D182" t="s">
+        <v>2917</v>
+      </c>
       <c r="G182" t="s">
         <v>2706</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="C183" t="s">
         <v>54</v>
       </c>
+      <c r="D183" t="s">
+        <v>2917</v>
+      </c>
       <c r="G183" t="s">
         <v>2707</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -40756,7 +41662,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -40767,7 +41673,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -40778,7 +41684,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -40789,7 +41695,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -40800,7 +41706,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -40811,7 +41717,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -40822,7 +41728,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -40833,7 +41739,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -41343,7 +42249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77FD39-FD4D-4EC8-ADF3-46C3165B80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCE2CD-BF9D-47E7-9ADA-E322EE36558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="12660" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="3964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8674" uniqueCount="4093">
   <si>
     <t>ID</t>
   </si>
@@ -12908,9 +12908,6 @@
     <t>u-r+</t>
   </si>
   <si>
-    <t>[F]adf[?oos]-Au und [F]adf[?oos]-Schwarzenbach</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adolf Harsch </t>
   </si>
   <si>
@@ -12965,9 +12962,6 @@
     <t>Schüßla</t>
   </si>
   <si>
-    <t>B[?k]i</t>
-  </si>
-  <si>
     <t>Veredla</t>
   </si>
   <si>
@@ -13038,9 +13032,6 @@
   </si>
   <si>
     <t>u-î+l</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Atzenbach + Riedichen</t>
   </si>
   <si>
     <t>Gildweiler/Falkweiler {rückseite steht Gildweiler, auf der Seite oben steht Falkweiler}</t>
@@ -13155,6 +13146,402 @@
   </si>
   <si>
     <t>Dube (w)</t>
+  </si>
+  <si>
+    <t>Atzenbach + Riedichen</t>
+  </si>
+  <si>
+    <t>u-h</t>
+  </si>
+  <si>
+    <t>Zell</t>
+  </si>
+  <si>
+    <t>i. Wiesental {1. Seite}</t>
+  </si>
+  <si>
+    <t>[Au]seh[en]</t>
+  </si>
+  <si>
+    <t>Liichd (w)</t>
+  </si>
+  <si>
+    <t>Di̋echsel (w)</t>
+  </si>
+  <si>
+    <t>Endä (w)</t>
+  </si>
+  <si>
+    <t>Öhmde (s)</t>
+  </si>
+  <si>
+    <t>Härdöpfel (m) &lt;Grumbiere (w)&gt;</t>
+  </si>
+  <si>
+    <t>Güggel (m), Chluggere (w)</t>
+  </si>
+  <si>
+    <t>Gaißle (w)</t>
+  </si>
+  <si>
+    <t>Stickgufe (w)</t>
+  </si>
+  <si>
+    <t>i/W</t>
+  </si>
+  <si>
+    <t>Di̋echsle (w)</t>
+  </si>
+  <si>
+    <t>Fli̋ege (w)</t>
+  </si>
+  <si>
+    <t>&lt;Wiesental&gt;</t>
+  </si>
+  <si>
+    <t>Ernst Zi[u]ermann {oder m}</t>
+  </si>
+  <si>
+    <t>Ähmd, Öhmd</t>
+  </si>
+  <si>
+    <t>Gugumĕre</t>
+  </si>
+  <si>
+    <t>[G]üggel, Húën {Stich über u eher gerade - kein Diaktritikum}</t>
+  </si>
+  <si>
+    <t>Dīĕchsle {Strich und punkt über i}</t>
+  </si>
+  <si>
+    <t>Herdöpfel, Grumbīre {Strich und punkt über i}</t>
+  </si>
+  <si>
+    <t>Schärmūs</t>
+  </si>
+  <si>
+    <t>Mōr</t>
+  </si>
+  <si>
+    <t>Schüßle, Chachle</t>
+  </si>
+  <si>
+    <t>verzwīege {strich und punkt über i}</t>
+  </si>
+  <si>
+    <t>u-p</t>
+  </si>
+  <si>
+    <t>Hasel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Glashütten&gt;</t>
+  </si>
+  <si>
+    <t>P. Rang</t>
+  </si>
+  <si>
+    <t>[L] {nur der Name des Informanten/Lehrers geschrieben}</t>
+  </si>
+  <si>
+    <t>[R]ang</t>
+  </si>
+  <si>
+    <t>B[ä]ramsel (w)</t>
+  </si>
+  <si>
+    <t>Līecht (ĕ) {Strich und punkt über i}</t>
+  </si>
+  <si>
+    <t>Diegsel (w)</t>
+  </si>
+  <si>
+    <t>Fl[ă]d[er]mus (w)</t>
+  </si>
+  <si>
+    <t>Öhm[d] (s)</t>
+  </si>
+  <si>
+    <t>Gu[?]e[??] (w)</t>
+  </si>
+  <si>
+    <t>Guller (m) Huh[e]n (s)</t>
+  </si>
+  <si>
+    <t>Grumb?[i]re</t>
+  </si>
+  <si>
+    <t>schimpen</t>
+  </si>
+  <si>
+    <t>u-q</t>
+  </si>
+  <si>
+    <t>Gersbach</t>
+  </si>
+  <si>
+    <t>Heinrich Ziegler</t>
+  </si>
+  <si>
+    <t>Bärammele (w)</t>
+  </si>
+  <si>
+    <t>Bromberi (w)</t>
+  </si>
+  <si>
+    <t>Aˈgeschtä (w)</t>
+  </si>
+  <si>
+    <t>Gurgä (w), Gagumere (w)</t>
+  </si>
+  <si>
+    <t>Bubbe (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Huehˈ (w)</t>
+  </si>
+  <si>
+    <t>Heban (w)</t>
+  </si>
+  <si>
+    <t>wärche</t>
+  </si>
+  <si>
+    <t>Schtachelbeeri (w)</t>
+  </si>
+  <si>
+    <t>Kaffischüssle, Untertasse</t>
+  </si>
+  <si>
+    <t>Schteihafe</t>
+  </si>
+  <si>
+    <t>zweje</t>
+  </si>
+  <si>
+    <t>{Tinte teilweise leicht zerflossen - manche Buchstaben nicht deutlich}</t>
+  </si>
+  <si>
+    <t>7,40</t>
+  </si>
+  <si>
+    <t>u-s</t>
+  </si>
+  <si>
+    <t>Todtmoos-Au</t>
+  </si>
+  <si>
+    <t>Todtmoos-Au und Todtmoos-Schwarzenbach</t>
+  </si>
+  <si>
+    <t>Nonnenweier</t>
+  </si>
+  <si>
+    <t>Rudmann</t>
+  </si>
+  <si>
+    <t>Wasenweiler</t>
+  </si>
+  <si>
+    <t>Kreis Freiburg</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Fliege &lt;[?]ch[??]hen (e)&gt;</t>
+  </si>
+  <si>
+    <t>Ähm[de]</t>
+  </si>
+  <si>
+    <t>Gurge</t>
+  </si>
+  <si>
+    <t>Güggel, Hun</t>
+  </si>
+  <si>
+    <t>Erdöpfel</t>
+  </si>
+  <si>
+    <t>Catz</t>
+  </si>
+  <si>
+    <t>Gödi</t>
+  </si>
+  <si>
+    <t>schulde</t>
+  </si>
+  <si>
+    <t>[D]rübel</t>
+  </si>
+  <si>
+    <t>Stecknodle, Güfli</t>
+  </si>
+  <si>
+    <t>Sti[]knodle {nicht deutlich ob dort noch ein Buchstabe ist}</t>
+  </si>
+  <si>
+    <t>Becki, Hafe</t>
+  </si>
+  <si>
+    <t>Beiki</t>
+  </si>
+  <si>
+    <t>u-o</t>
+  </si>
+  <si>
+    <t>Raitbach</t>
+  </si>
+  <si>
+    <t>Ruel [F]eremann</t>
+  </si>
+  <si>
+    <t>Löffingen</t>
+  </si>
+  <si>
+    <t>[O]ehmd {punkt im O und strich der unten abkommt - fehler??}</t>
+  </si>
+  <si>
+    <t>Guggel, Hueh</t>
+  </si>
+  <si>
+    <t>Schtoachelbeeri</t>
+  </si>
+  <si>
+    <t>Schdriggnodle</t>
+  </si>
+  <si>
+    <t>u-ta</t>
+  </si>
+  <si>
+    <t>Rütte</t>
+  </si>
+  <si>
+    <t>Wenker [Wins]</t>
+  </si>
+  <si>
+    <t>Bäramseli (w)</t>
+  </si>
+  <si>
+    <t>Elschder (w) &lt;Wögeli&gt;</t>
+  </si>
+  <si>
+    <t>Gückel, Huii</t>
+  </si>
+  <si>
+    <t>Erdöpfel (m)</t>
+  </si>
+  <si>
+    <t>Schär (w)</t>
+  </si>
+  <si>
+    <t>Gellrübe (w) &lt;Mohrrübe&gt;</t>
+  </si>
+  <si>
+    <t>Geißel (w)</t>
+  </si>
+  <si>
+    <t>Rin[d]sche (w)</t>
+  </si>
+  <si>
+    <t>Kruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Gülfeli (s)</t>
+  </si>
+  <si>
+    <t>Sch[eo]ug[eu]i (w)</t>
+  </si>
+  <si>
+    <t>u-[n] {oder e}</t>
+  </si>
+  <si>
+    <t>Hausen/Wiesental</t>
+  </si>
+  <si>
+    <t>Wilhelm Krauss</t>
+  </si>
+  <si>
+    <t>Diechsel (w)</t>
+  </si>
+  <si>
+    <t>Hagebuede (w)</t>
+  </si>
+  <si>
+    <t>Gügel, Huen</t>
+  </si>
+  <si>
+    <t>Scharmus (w)</t>
+  </si>
+  <si>
+    <t>döbere. schimpfe</t>
+  </si>
+  <si>
+    <t>Napf (m)</t>
+  </si>
+  <si>
+    <t>umzweie</t>
+  </si>
+  <si>
+    <t>Schiegertochter (w)</t>
+  </si>
+  <si>
+    <t>Holderbeeri (w)</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>u-u</t>
+  </si>
+  <si>
+    <t>Großherrischwand</t>
+  </si>
+  <si>
+    <t>&lt;für Kleinherrischwand - Wehrhalden gelten die selben Angaben ungefähr&gt;</t>
+  </si>
+  <si>
+    <t>Erich Schwarz</t>
+  </si>
+  <si>
+    <t>teilw. Rückfrage [...] und Bevölkerung</t>
+  </si>
+  <si>
+    <t>Beramsele (w)</t>
+  </si>
+  <si>
+    <t>Liech (w), er wird vergrabe, beerdigt</t>
+  </si>
+  <si>
+    <t>Gugummere, Gurke (w)</t>
+  </si>
+  <si>
+    <t>Gügel (m), Hüehndli (s)</t>
+  </si>
+  <si>
+    <t>Puppen (w)</t>
+  </si>
+  <si>
+    <t>&lt;Katze&gt;rolli (m)</t>
+  </si>
+  <si>
+    <t>Scheer (m)</t>
+  </si>
+  <si>
+    <t>Gelberübe (w)</t>
+  </si>
+  <si>
+    <t>brummle, schnöre, mule, umemule, gesche wärche</t>
+  </si>
+  <si>
+    <t>Kruselbeeri, Stachelbeeri (w)</t>
+  </si>
+  <si>
+    <t>Gülfili, Stecknodel (w)</t>
+  </si>
+  <si>
+    <t>Schüssili, Tellerli (s)</t>
   </si>
 </sst>
 </file>
@@ -13318,7 +13705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -13336,9 +13723,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -13659,8 +14048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL149" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ184" sqref="AQ184"/>
+    <sheetView tabSelected="1" topLeftCell="AR158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA198" sqref="BA198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26020,7 +26409,7 @@
         <v>1904</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="V77" t="s">
         <v>1521</v>
@@ -27630,7 +28019,7 @@
         <v>1519</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="V87" t="s">
         <v>2106</v>
@@ -31010,7 +31399,7 @@
       <c r="T108" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="U108" s="19" t="s">
+      <c r="U108" s="18" t="s">
         <v>2608</v>
       </c>
       <c r="V108" s="6" t="s">
@@ -32597,7 +32986,7 @@
         <v>2903</v>
       </c>
       <c r="L118" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="M118">
         <v>999</v>
@@ -38570,8 +38959,8 @@
       <c r="T160" t="s">
         <v>3529</v>
       </c>
-      <c r="U160" s="18" t="s">
-        <v>3954</v>
+      <c r="U160" s="17" t="s">
+        <v>3951</v>
       </c>
       <c r="V160" t="s">
         <v>314</v>
@@ -41258,7 +41647,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="177" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -41419,7 +41808,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="178" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -41580,7 +41969,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="179" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -41741,7 +42130,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -41902,7 +42291,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="181" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -41949,22 +42338,22 @@
         <v>103</v>
       </c>
       <c r="P181" t="s">
+        <v>3889</v>
+      </c>
+      <c r="Q181" t="s">
         <v>3890</v>
       </c>
-      <c r="Q181" t="s">
+      <c r="R181" t="s">
         <v>3891</v>
       </c>
-      <c r="R181" t="s">
+      <c r="S181" t="s">
         <v>3892</v>
-      </c>
-      <c r="S181" t="s">
-        <v>3893</v>
       </c>
       <c r="T181" t="s">
         <v>1519</v>
       </c>
       <c r="U181" s="1" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="V181" t="s">
         <v>314</v>
@@ -42063,7 +42452,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -42098,7 +42487,7 @@
         <v>3887</v>
       </c>
       <c r="L182" t="s">
-        <v>3888</v>
+        <v>4022</v>
       </c>
       <c r="M182">
         <v>999</v>
@@ -42110,13 +42499,13 @@
         <v>103</v>
       </c>
       <c r="P182" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="Q182" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="R182" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="S182" t="s">
         <v>2882</v>
@@ -42127,92 +42516,92 @@
       <c r="U182" s="1">
         <v>999</v>
       </c>
-      <c r="V182" s="17" t="s">
+      <c r="V182" t="s">
+        <v>3895</v>
+      </c>
+      <c r="W182" t="s">
         <v>3896</v>
       </c>
-      <c r="W182" s="17" t="s">
+      <c r="X182" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y182" t="s">
         <v>3897</v>
       </c>
-      <c r="X182" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y182" s="17" t="s">
+      <c r="Z182" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>3847</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG182" t="s">
         <v>3898</v>
       </c>
-      <c r="Z182" s="17" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AA182" s="17" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AB182" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC182" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD182" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE182" s="17" t="s">
-        <v>3847</v>
-      </c>
-      <c r="AF182" s="17" t="s">
-        <v>1601</v>
-      </c>
-      <c r="AG182" s="17" t="s">
+      <c r="AH182" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ182" t="s">
         <v>3899</v>
       </c>
-      <c r="AH182" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI182" s="17" t="s">
-        <v>1582</v>
-      </c>
-      <c r="AJ182" s="17" t="s">
+      <c r="AK182" t="s">
         <v>3900</v>
       </c>
-      <c r="AK182" s="17" t="s">
+      <c r="AL182" t="s">
         <v>3901</v>
       </c>
-      <c r="AL182" s="17" t="s">
+      <c r="AM182" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO182" t="s">
         <v>3902</v>
       </c>
-      <c r="AM182" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN182" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO182" s="17" t="s">
+      <c r="AP182" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ182" t="s">
         <v>3903</v>
       </c>
-      <c r="AP182" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="AQ182" s="17" t="s">
+      <c r="AR182" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS182" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AT182" t="s">
         <v>3904</v>
       </c>
-      <c r="AR182" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS182" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AT182" s="17" t="s">
+      <c r="AU182" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV182" t="s">
         <v>3905</v>
       </c>
-      <c r="AU182" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="AV182" s="17" t="s">
+      <c r="AW182" s="21" t="s">
+        <v>4040</v>
+      </c>
+      <c r="AX182" t="s">
         <v>3906</v>
-      </c>
-      <c r="AW182" s="17" t="s">
-        <v>3907</v>
-      </c>
-      <c r="AX182" s="17" t="s">
-        <v>3908</v>
       </c>
       <c r="AY182" s="1" t="s">
         <v>209</v>
@@ -42224,7 +42613,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -42256,10 +42645,10 @@
         <v>2761</v>
       </c>
       <c r="K183" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="L183" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="M183">
         <v>999</v>
@@ -42271,7 +42660,7 @@
         <v>103</v>
       </c>
       <c r="P183" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="Q183" t="s">
         <v>845</v>
@@ -42288,91 +42677,91 @@
       <c r="U183" s="1">
         <v>999</v>
       </c>
-      <c r="V183" s="17" t="s">
+      <c r="V183" t="s">
         <v>752</v>
       </c>
-      <c r="W183" s="17" t="s">
+      <c r="W183" t="s">
         <v>3272</v>
       </c>
-      <c r="X183" s="17" t="s">
+      <c r="X183" t="s">
         <v>223</v>
       </c>
-      <c r="Y183" s="17" t="s">
+      <c r="Y183" t="s">
         <v>248</v>
       </c>
-      <c r="Z183" s="17" t="s">
+      <c r="Z183" t="s">
         <v>1357</v>
       </c>
-      <c r="AA183" s="17" t="s">
+      <c r="AA183" t="s">
         <v>1255</v>
       </c>
-      <c r="AB183" s="17" t="s">
+      <c r="AB183" t="s">
         <v>226</v>
       </c>
-      <c r="AC183" s="17" t="s">
+      <c r="AC183" t="s">
         <v>3496</v>
       </c>
-      <c r="AD183" s="17" t="s">
+      <c r="AD183" t="s">
+        <v>3910</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>3911</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG183" t="s">
         <v>3912</v>
       </c>
-      <c r="AE183" s="17" t="s">
+      <c r="AH183" t="s">
         <v>3913</v>
       </c>
-      <c r="AF183" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG183" s="17" t="s">
+      <c r="AI183" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AP183" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>3833</v>
+      </c>
+      <c r="AR183" t="s">
         <v>3914</v>
       </c>
-      <c r="AH183" s="17" t="s">
+      <c r="AS183" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AT183" t="s">
         <v>3915</v>
       </c>
-      <c r="AI183" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ183" s="17" t="s">
-        <v>1583</v>
-      </c>
-      <c r="AK183" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL183" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM183" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN183" s="17" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AO183" s="17" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AP183" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ183" s="17" t="s">
-        <v>3833</v>
-      </c>
-      <c r="AR183" s="17" t="s">
+      <c r="AU183" t="s">
         <v>3916</v>
       </c>
-      <c r="AS183" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AT183" s="17" t="s">
-        <v>3917</v>
-      </c>
-      <c r="AU183" s="17" t="s">
-        <v>3918</v>
-      </c>
-      <c r="AV183" s="17" t="s">
+      <c r="AV183" t="s">
         <v>3485</v>
       </c>
-      <c r="AW183" s="17" t="s">
+      <c r="AW183" t="s">
         <v>792</v>
       </c>
-      <c r="AX183" s="17" t="s">
+      <c r="AX183" t="s">
         <v>208</v>
       </c>
       <c r="AY183" s="1" t="s">
@@ -42385,7 +42774,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -42417,10 +42806,10 @@
         <v>2761</v>
       </c>
       <c r="K184" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="L184" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="M184">
         <v>999</v>
@@ -42432,10 +42821,10 @@
         <v>1249</v>
       </c>
       <c r="P184" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="Q184" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="R184">
         <v>999</v>
@@ -42447,93 +42836,93 @@
         <v>142</v>
       </c>
       <c r="U184" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="V184" t="s">
+        <v>314</v>
+      </c>
+      <c r="W184" t="s">
+        <v>455</v>
+      </c>
+      <c r="X184" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>3922</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC184" t="s">
         <v>3923</v>
       </c>
-      <c r="V184" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="W184" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="X184" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y184" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z184" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="AA184" s="17" t="s">
+      <c r="AD184" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>3557</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG184" t="s">
         <v>3924</v>
       </c>
-      <c r="AB184" s="17" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AC184" s="17" t="s">
+      <c r="AH184" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>3742</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP184" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ184" t="s">
         <v>3925</v>
       </c>
-      <c r="AD184" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE184" s="17" t="s">
-        <v>3557</v>
-      </c>
-      <c r="AF184" s="17" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AG184" s="17" t="s">
+      <c r="AR184" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS184" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AT184" t="s">
         <v>3926</v>
       </c>
-      <c r="AH184" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="AI184" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ184" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK184" s="17" t="s">
-        <v>1947</v>
-      </c>
-      <c r="AL184" s="17" t="s">
-        <v>3742</v>
-      </c>
-      <c r="AM184" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN184" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO184" s="17" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AP184" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ184" s="17" t="s">
+      <c r="AU184" t="s">
         <v>3927</v>
       </c>
-      <c r="AR184" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS184" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="AT184" s="17" t="s">
+      <c r="AV184" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AW184" t="s">
         <v>3928</v>
       </c>
-      <c r="AU184" s="17" t="s">
-        <v>3929</v>
-      </c>
-      <c r="AV184" s="17" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AW184" s="17" t="s">
-        <v>3930</v>
-      </c>
-      <c r="AX184" s="17" t="s">
+      <c r="AX184" t="s">
         <v>208</v>
       </c>
       <c r="AY184" s="1" t="s">
@@ -42546,7 +42935,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="185" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -42578,31 +42967,31 @@
         <v>2761</v>
       </c>
       <c r="K185" t="s">
+        <v>3929</v>
+      </c>
+      <c r="L185" t="s">
+        <v>3961</v>
+      </c>
+      <c r="M185">
+        <v>999</v>
+      </c>
+      <c r="N185" t="s">
         <v>3931</v>
-      </c>
-      <c r="L185" t="s">
-        <v>3932</v>
-      </c>
-      <c r="M185">
-        <v>999</v>
-      </c>
-      <c r="N185" t="s">
-        <v>3934</v>
       </c>
       <c r="O185" t="s">
         <v>103</v>
       </c>
       <c r="P185" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="Q185" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="R185">
         <v>999</v>
       </c>
       <c r="S185" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="T185" t="s">
         <v>64</v>
@@ -42613,101 +43002,101 @@
       <c r="V185">
         <v>999</v>
       </c>
-      <c r="W185" s="17" t="s">
+      <c r="W185" t="s">
+        <v>3935</v>
+      </c>
+      <c r="X185" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z185">
+        <v>999</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>3936</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>3937</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE185" t="s">
         <v>3938</v>
       </c>
-      <c r="X185" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y185" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z185">
-        <v>999</v>
-      </c>
-      <c r="AA185" s="17" t="s">
+      <c r="AF185">
+        <v>999</v>
+      </c>
+      <c r="AG185" t="s">
         <v>3939</v>
       </c>
-      <c r="AB185" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC185" s="17" t="s">
+      <c r="AH185" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>3480</v>
+      </c>
+      <c r="AL185" t="s">
         <v>3940</v>
       </c>
-      <c r="AD185" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE185" s="17" t="s">
+      <c r="AM185" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN185" t="s">
         <v>3941</v>
       </c>
-      <c r="AF185">
-        <v>999</v>
-      </c>
-      <c r="AG185" s="17" t="s">
+      <c r="AO185" t="s">
         <v>3942</v>
       </c>
-      <c r="AH185" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI185" s="17" t="s">
-        <v>1582</v>
-      </c>
-      <c r="AJ185" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK185" s="17" t="s">
-        <v>3480</v>
-      </c>
-      <c r="AL185" s="17" t="s">
+      <c r="AP185" t="s">
         <v>3943</v>
       </c>
-      <c r="AM185" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN185" s="17" t="s">
+      <c r="AQ185" t="s">
         <v>3944</v>
       </c>
-      <c r="AO185" s="17" t="s">
+      <c r="AR185" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS185" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AT185" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AU185" t="s">
         <v>3945</v>
       </c>
-      <c r="AP185" s="17" t="s">
+      <c r="AV185" t="s">
         <v>3946</v>
       </c>
-      <c r="AQ185" s="17" t="s">
-        <v>3947</v>
-      </c>
-      <c r="AR185" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS185" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AT185" s="17" t="s">
-        <v>1640</v>
-      </c>
-      <c r="AU185" s="17" t="s">
-        <v>3948</v>
-      </c>
-      <c r="AV185" s="17" t="s">
-        <v>3949</v>
-      </c>
-      <c r="AW185" s="17" t="s">
+      <c r="AW185" t="s">
         <v>265</v>
       </c>
-      <c r="AX185" s="17" t="s">
+      <c r="AX185" t="s">
         <v>208</v>
       </c>
       <c r="AY185" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ185" s="17" t="s">
+      <c r="AZ185" t="s">
         <v>211</v>
       </c>
       <c r="BA185" s="1">
         <v>999</v>
       </c>
     </row>
-    <row r="186" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -42733,7 +43122,7 @@
         <v>97</v>
       </c>
       <c r="I186" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="J186" t="s">
         <v>2761</v>
@@ -42742,7 +43131,7 @@
         <v>2295</v>
       </c>
       <c r="L186" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="M186">
         <v>999</v>
@@ -42754,10 +43143,10 @@
         <v>103</v>
       </c>
       <c r="P186" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="Q186" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="R186">
         <v>999</v>
@@ -42768,207 +43157,1402 @@
       <c r="T186" t="s">
         <v>64</v>
       </c>
-      <c r="U186" s="18" t="s">
-        <v>3955</v>
+      <c r="U186" s="17" t="s">
+        <v>3952</v>
       </c>
       <c r="V186" t="s">
         <v>1159</v>
       </c>
-      <c r="W186" s="17" t="s">
+      <c r="W186" t="s">
+        <v>3955</v>
+      </c>
+      <c r="X186" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>3922</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>3957</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL186" t="s">
         <v>3958</v>
       </c>
-      <c r="X186" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y186" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z186" s="17" t="s">
+      <c r="AM186" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP186" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS186" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT186" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV186" t="s">
         <v>3959</v>
       </c>
-      <c r="AA186" s="17" t="s">
-        <v>3924</v>
-      </c>
-      <c r="AB186" s="17" t="s">
+      <c r="AW186" t="s">
         <v>3960</v>
       </c>
-      <c r="AC186" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD186" s="17" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AE186" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF186" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG186" s="17" t="s">
-        <v>3829</v>
-      </c>
-      <c r="AH186" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI186" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ186" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK186" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="AL186" s="17" t="s">
-        <v>3961</v>
-      </c>
-      <c r="AM186" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN186" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO186" s="17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AP186" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ186" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR186" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS186" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AT186" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU186" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV186" s="17" t="s">
-        <v>3962</v>
-      </c>
-      <c r="AW186" s="17" t="s">
-        <v>3963</v>
-      </c>
-      <c r="AX186" s="17" t="s">
+      <c r="AX186" t="s">
         <v>208</v>
       </c>
       <c r="AY186" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ186" s="17" t="s">
+      <c r="AZ186" t="s">
         <v>303</v>
       </c>
       <c r="BA186" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="187" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="2">
-        <v>44791</v>
+        <v>44796</v>
       </c>
       <c r="C187" t="s">
         <v>54</v>
       </c>
+      <c r="D187" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E187">
+        <v>14</v>
+      </c>
+      <c r="F187">
+        <v>11</v>
+      </c>
       <c r="G187" t="s">
         <v>2709</v>
       </c>
-      <c r="AZ187" s="17" t="s">
+      <c r="H187" t="s">
+        <v>369</v>
+      </c>
+      <c r="I187" t="s">
+        <v>268</v>
+      </c>
+      <c r="J187" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K187" t="s">
+        <v>3962</v>
+      </c>
+      <c r="L187" t="s">
+        <v>3963</v>
+      </c>
+      <c r="M187" t="s">
+        <v>3964</v>
+      </c>
+      <c r="N187" t="s">
+        <v>177</v>
+      </c>
+      <c r="O187" t="s">
+        <v>103</v>
+      </c>
+      <c r="P187" t="s">
+        <v>3965</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R187">
+        <v>999</v>
+      </c>
+      <c r="S187">
+        <v>999</v>
+      </c>
+      <c r="T187" t="s">
+        <v>245</v>
+      </c>
+      <c r="U187" s="1">
+        <v>999</v>
+      </c>
+      <c r="V187" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W187" t="s">
+        <v>3966</v>
+      </c>
+      <c r="X187" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>3967</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>3681</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>3968</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>3957</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>3976</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>3969</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>3971</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>3970</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>3972</v>
+      </c>
+      <c r="AP187" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AT187" t="s">
+        <v>3973</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>496</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX187" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY187" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ187" t="s">
         <v>303</v>
       </c>
+      <c r="BA187" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="188" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="2">
-        <v>44791</v>
+        <v>44796</v>
       </c>
       <c r="C188" t="s">
         <v>54</v>
       </c>
+      <c r="D188" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>11</v>
+      </c>
       <c r="G188" t="s">
         <v>2710</v>
       </c>
+      <c r="H188">
+        <v>999</v>
+      </c>
+      <c r="I188">
+        <v>999</v>
+      </c>
+      <c r="J188">
+        <v>999</v>
+      </c>
+      <c r="K188">
+        <v>999</v>
+      </c>
+      <c r="L188" t="s">
+        <v>3963</v>
+      </c>
+      <c r="M188" t="s">
+        <v>3974</v>
+      </c>
+      <c r="N188" t="s">
+        <v>177</v>
+      </c>
+      <c r="O188" t="s">
+        <v>103</v>
+      </c>
+      <c r="P188" t="s">
+        <v>3965</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R188">
+        <v>999</v>
+      </c>
+      <c r="S188">
+        <v>999</v>
+      </c>
+      <c r="T188" t="s">
+        <v>245</v>
+      </c>
+      <c r="U188" s="1">
+        <v>999</v>
+      </c>
+      <c r="V188" t="s">
+        <v>1159</v>
+      </c>
+      <c r="W188" t="s">
+        <v>455</v>
+      </c>
+      <c r="X188" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>3975</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>3681</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>3968</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>3957</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>3976</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>3969</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>3971</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>3970</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>3972</v>
+      </c>
+      <c r="AP188" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR188" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS188" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>3973</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>496</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY188" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA188" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="189" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
+      <c r="B189" s="2">
+        <v>44796</v>
+      </c>
       <c r="C189" t="s">
         <v>54</v>
       </c>
+      <c r="D189" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E189">
+        <v>14</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
       <c r="G189" t="s">
         <v>2711</v>
       </c>
+      <c r="H189">
+        <v>999</v>
+      </c>
+      <c r="I189">
+        <v>999</v>
+      </c>
+      <c r="J189">
+        <v>999</v>
+      </c>
+      <c r="K189">
+        <v>999</v>
+      </c>
+      <c r="L189" t="s">
+        <v>3963</v>
+      </c>
+      <c r="M189" t="s">
+        <v>3977</v>
+      </c>
+      <c r="N189" t="s">
+        <v>177</v>
+      </c>
+      <c r="O189">
+        <v>999</v>
+      </c>
+      <c r="P189" t="s">
+        <v>3978</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>2263</v>
+      </c>
+      <c r="R189">
+        <v>999</v>
+      </c>
+      <c r="S189">
+        <v>999</v>
+      </c>
+      <c r="T189" t="s">
+        <v>64</v>
+      </c>
+      <c r="U189" s="1">
+        <v>999</v>
+      </c>
+      <c r="V189" s="19">
+        <v>999</v>
+      </c>
+      <c r="W189" s="14" t="s">
+        <v>3995</v>
+      </c>
+      <c r="X189" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y189" s="14" t="s">
+        <v>3982</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA189">
+        <v>999</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>3844</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>3670</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>3979</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>3980</v>
+      </c>
+      <c r="AF189">
+        <v>999</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>3981</v>
+      </c>
+      <c r="AH189">
+        <v>999</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>3983</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>3984</v>
+      </c>
+      <c r="AL189">
+        <v>999</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>3985</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AP189" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR189">
+        <v>999</v>
+      </c>
+      <c r="AS189">
+        <v>999</v>
+      </c>
+      <c r="AT189">
+        <v>999</v>
+      </c>
+      <c r="AU189">
+        <v>999</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>3986</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>3620</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>3987</v>
+      </c>
+      <c r="AY189" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ189" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA189" s="1">
+        <v>999</v>
+      </c>
     </row>
-    <row r="190" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
+      <c r="B190" s="2">
+        <v>44796</v>
+      </c>
       <c r="C190" t="s">
         <v>54</v>
       </c>
+      <c r="D190" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E190">
+        <v>14</v>
+      </c>
+      <c r="F190">
+        <v>12</v>
+      </c>
       <c r="G190" t="s">
         <v>2712</v>
       </c>
+      <c r="H190" t="s">
+        <v>213</v>
+      </c>
+      <c r="I190" t="s">
+        <v>268</v>
+      </c>
+      <c r="J190" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K190" t="s">
+        <v>3988</v>
+      </c>
+      <c r="L190" t="s">
+        <v>3989</v>
+      </c>
+      <c r="M190" t="s">
+        <v>3990</v>
+      </c>
+      <c r="N190" t="s">
+        <v>177</v>
+      </c>
+      <c r="O190" t="s">
+        <v>103</v>
+      </c>
+      <c r="P190" t="s">
+        <v>3991</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>177</v>
+      </c>
+      <c r="R190">
+        <v>999</v>
+      </c>
+      <c r="S190">
+        <v>999</v>
+      </c>
+      <c r="T190" t="s">
+        <v>3992</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="V190" s="19" t="s">
+        <v>3994</v>
+      </c>
+      <c r="W190" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="X190" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y190" s="19" t="s">
+        <v>3996</v>
+      </c>
+      <c r="Z190" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA190" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB190" s="19" t="s">
+        <v>3997</v>
+      </c>
+      <c r="AC190" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD190" s="19" t="s">
+        <v>3998</v>
+      </c>
+      <c r="AE190" s="19" t="s">
+        <v>3999</v>
+      </c>
+      <c r="AF190" s="19" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AG190" s="19" t="s">
+        <v>4000</v>
+      </c>
+      <c r="AH190" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI190" s="19" t="s">
+        <v>4001</v>
+      </c>
+      <c r="AJ190" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK190" s="19" t="s">
+        <v>2907</v>
+      </c>
+      <c r="AL190" s="19" t="s">
+        <v>3771</v>
+      </c>
+      <c r="AM190" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN190" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO190" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AP190" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ190" s="19" t="s">
+        <v>4002</v>
+      </c>
+      <c r="AR190" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS190" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AT190" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU190" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV190" s="19" t="s">
+        <v>3959</v>
+      </c>
+      <c r="AW190" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX190" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY190" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ190" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA190" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB190" s="19" t="s">
+        <v>4018</v>
+      </c>
     </row>
-    <row r="191" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
+      <c r="B191" s="2">
+        <v>44796</v>
+      </c>
       <c r="C191" t="s">
         <v>54</v>
       </c>
+      <c r="D191" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E191">
+        <v>14</v>
+      </c>
+      <c r="F191">
+        <v>13</v>
+      </c>
       <c r="G191" t="s">
         <v>2713</v>
       </c>
+      <c r="H191" t="s">
+        <v>97</v>
+      </c>
+      <c r="I191" t="s">
+        <v>268</v>
+      </c>
+      <c r="J191" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K191" t="s">
+        <v>4003</v>
+      </c>
+      <c r="L191" t="s">
+        <v>4004</v>
+      </c>
+      <c r="M191">
+        <v>999</v>
+      </c>
+      <c r="N191" t="s">
+        <v>177</v>
+      </c>
+      <c r="O191" t="s">
+        <v>103</v>
+      </c>
+      <c r="P191" t="s">
+        <v>4005</v>
+      </c>
+      <c r="Q191" s="21" t="s">
+        <v>4023</v>
+      </c>
+      <c r="R191">
+        <v>999</v>
+      </c>
+      <c r="S191">
+        <v>999</v>
+      </c>
+      <c r="T191" t="s">
+        <v>64</v>
+      </c>
+      <c r="U191" s="1">
+        <v>999</v>
+      </c>
+      <c r="V191" s="19" t="s">
+        <v>4006</v>
+      </c>
+      <c r="W191" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="X191" s="19" t="s">
+        <v>4007</v>
+      </c>
+      <c r="Y191" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z191" s="19" t="s">
+        <v>4008</v>
+      </c>
+      <c r="AA191">
+        <v>999</v>
+      </c>
+      <c r="AB191" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC191" s="19" t="s">
+        <v>3512</v>
+      </c>
+      <c r="AD191" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE191" s="19" t="s">
+        <v>4009</v>
+      </c>
+      <c r="AF191" s="19" t="s">
+        <v>4010</v>
+      </c>
+      <c r="AG191" s="19" t="s">
+        <v>4011</v>
+      </c>
+      <c r="AH191" s="19" t="s">
+        <v>4012</v>
+      </c>
+      <c r="AI191" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ191" s="19" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK191" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL191" s="19" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AM191" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN191" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO191" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP191" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ191" s="19" t="s">
+        <v>4013</v>
+      </c>
+      <c r="AR191" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS191" s="19" t="s">
+        <v>4014</v>
+      </c>
+      <c r="AT191" s="19" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AU191" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV191" s="19" t="s">
+        <v>4015</v>
+      </c>
+      <c r="AW191" s="19" t="s">
+        <v>4016</v>
+      </c>
+      <c r="AX191" s="19" t="s">
+        <v>4017</v>
+      </c>
+      <c r="AY191" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ191" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA191" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="192" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
+      <c r="B192" s="2">
+        <v>44796</v>
+      </c>
       <c r="C192" t="s">
         <v>54</v>
       </c>
+      <c r="D192" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E192">
+        <v>14</v>
+      </c>
+      <c r="F192">
+        <v>14</v>
+      </c>
       <c r="G192" t="s">
         <v>2714</v>
       </c>
+      <c r="H192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I192" t="s">
+        <v>305</v>
+      </c>
+      <c r="J192" t="s">
+        <v>4019</v>
+      </c>
+      <c r="K192" t="s">
+        <v>4020</v>
+      </c>
+      <c r="L192" t="s">
+        <v>4021</v>
+      </c>
+      <c r="M192">
+        <v>999</v>
+      </c>
+      <c r="N192" t="s">
+        <v>102</v>
+      </c>
+      <c r="O192" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P192" t="s">
+        <v>4024</v>
+      </c>
+      <c r="Q192" s="21" t="s">
+        <v>4025</v>
+      </c>
+      <c r="R192" s="21" t="s">
+        <v>4026</v>
+      </c>
+      <c r="S192">
+        <v>999</v>
+      </c>
+      <c r="T192">
+        <v>999</v>
+      </c>
+      <c r="U192" s="1">
+        <v>999</v>
+      </c>
+      <c r="V192" s="19" t="s">
+        <v>3706</v>
+      </c>
+      <c r="W192" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="X192" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y192" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z192" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA192" s="19" t="s">
+        <v>4027</v>
+      </c>
+      <c r="AB192" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC192" s="19" t="s">
+        <v>4028</v>
+      </c>
+      <c r="AD192" s="19" t="s">
+        <v>4029</v>
+      </c>
+      <c r="AE192" s="19" t="s">
+        <v>4030</v>
+      </c>
+      <c r="AF192" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG192" s="19" t="s">
+        <v>4031</v>
+      </c>
+      <c r="AH192" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI192" s="19" t="s">
+        <v>4032</v>
+      </c>
+      <c r="AJ192" s="19" t="s">
+        <v>4033</v>
+      </c>
+      <c r="AK192" s="19" t="s">
+        <v>3499</v>
+      </c>
+      <c r="AL192">
+        <v>999</v>
+      </c>
+      <c r="AM192" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="AN192" s="19" t="s">
+        <v>4034</v>
+      </c>
+      <c r="AO192" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP192" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ192" s="19" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AR192" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS192" s="19" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AT192" s="19" t="s">
+        <v>4037</v>
+      </c>
+      <c r="AU192" s="19" t="s">
+        <v>4038</v>
+      </c>
+      <c r="AV192" s="19" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AW192" s="19" t="s">
+        <v>4039</v>
+      </c>
+      <c r="AX192" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY192" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ192" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA192" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
+      <c r="B193" s="2">
+        <v>44796</v>
+      </c>
       <c r="C193" t="s">
         <v>54</v>
       </c>
+      <c r="D193" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E193">
+        <v>14</v>
+      </c>
+      <c r="F193">
+        <v>15</v>
+      </c>
       <c r="G193" t="s">
         <v>2715</v>
       </c>
+      <c r="H193" t="s">
+        <v>97</v>
+      </c>
+      <c r="I193" t="s">
+        <v>268</v>
+      </c>
+      <c r="J193" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K193" t="s">
+        <v>4041</v>
+      </c>
+      <c r="L193" t="s">
+        <v>4042</v>
+      </c>
+      <c r="M193">
+        <v>999</v>
+      </c>
+      <c r="N193" t="s">
+        <v>177</v>
+      </c>
+      <c r="O193" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P193" t="s">
+        <v>4043</v>
+      </c>
+      <c r="Q193" s="21" t="s">
+        <v>4044</v>
+      </c>
+      <c r="R193" s="21">
+        <v>999</v>
+      </c>
+      <c r="S193">
+        <v>999</v>
+      </c>
+      <c r="T193" t="s">
+        <v>142</v>
+      </c>
+      <c r="U193" s="1">
+        <v>999</v>
+      </c>
+      <c r="V193" s="19" t="s">
+        <v>3895</v>
+      </c>
+      <c r="W193" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="X193" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y193" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z193" s="19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA193" s="19" t="s">
+        <v>2500</v>
+      </c>
+      <c r="AB193" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC193" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD193" s="19" t="s">
+        <v>4045</v>
+      </c>
+      <c r="AE193" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF193" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG193" s="19" t="s">
+        <v>4046</v>
+      </c>
+      <c r="AH193" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI193" s="19" t="s">
+        <v>3770</v>
+      </c>
+      <c r="AJ193" s="19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK193" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL193" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="AM193" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN193" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO193" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP193" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ193" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR193" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS193" s="19" t="s">
+        <v>4047</v>
+      </c>
+      <c r="AT193" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU193" s="19" t="s">
+        <v>4048</v>
+      </c>
+      <c r="AV193" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW193" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX193" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY193" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ193" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA193" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
+      <c r="B194" s="2">
+        <v>44796</v>
+      </c>
       <c r="C194" t="s">
         <v>54</v>
       </c>
+      <c r="D194" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E194">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>16</v>
+      </c>
       <c r="G194" t="s">
         <v>2716</v>
       </c>
+      <c r="H194" t="s">
+        <v>213</v>
+      </c>
+      <c r="I194" t="s">
+        <v>268</v>
+      </c>
+      <c r="J194" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K194" t="s">
+        <v>4049</v>
+      </c>
+      <c r="L194" t="s">
+        <v>4050</v>
+      </c>
+      <c r="M194">
+        <v>999</v>
+      </c>
+      <c r="N194" t="s">
+        <v>102</v>
+      </c>
+      <c r="O194" t="s">
+        <v>103</v>
+      </c>
+      <c r="P194" t="s">
+        <v>4051</v>
+      </c>
+      <c r="Q194" s="20">
+        <v>888</v>
+      </c>
+      <c r="R194" s="21">
+        <v>999</v>
+      </c>
+      <c r="S194">
+        <v>999</v>
+      </c>
+      <c r="T194" t="s">
+        <v>245</v>
+      </c>
+      <c r="U194" s="1">
+        <v>999</v>
+      </c>
+      <c r="V194" s="19" t="s">
+        <v>4052</v>
+      </c>
+      <c r="W194" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="X194" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y194" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z194" s="19" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AA194" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB194" s="19" t="s">
+        <v>3957</v>
+      </c>
+      <c r="AC194" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD194" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE194" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF194" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG194" s="19" t="s">
+        <v>4054</v>
+      </c>
+      <c r="AH194" s="19" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AI194" s="19" t="s">
+        <v>4055</v>
+      </c>
+      <c r="AJ194" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK194" s="19" t="s">
+        <v>4056</v>
+      </c>
+      <c r="AL194" s="19" t="s">
+        <v>4057</v>
+      </c>
+      <c r="AM194" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN194" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO194" s="19" t="s">
+        <v>4058</v>
+      </c>
+      <c r="AP194" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ194" s="19" t="s">
+        <v>4059</v>
+      </c>
+      <c r="AR194" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS194" s="19" t="s">
+        <v>4060</v>
+      </c>
+      <c r="AT194" s="19" t="s">
+        <v>4061</v>
+      </c>
+      <c r="AU194" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV194" s="19" t="s">
+        <v>3959</v>
+      </c>
+      <c r="AW194" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX194" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY194" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ194" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA194" s="1" t="s">
+        <v>4062</v>
+      </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
+      <c r="B195" s="2"/>
       <c r="C195" t="s">
         <v>54</v>
       </c>
@@ -42976,7 +44560,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -42987,29 +44571,329 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
+      <c r="B197" s="2">
+        <v>44796</v>
+      </c>
       <c r="C197" t="s">
         <v>54</v>
       </c>
+      <c r="D197" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E197">
+        <v>14</v>
+      </c>
+      <c r="F197">
+        <v>18</v>
+      </c>
       <c r="G197" t="s">
         <v>2719</v>
       </c>
+      <c r="H197" t="s">
+        <v>97</v>
+      </c>
+      <c r="I197" t="s">
+        <v>268</v>
+      </c>
+      <c r="J197" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K197" t="s">
+        <v>4063</v>
+      </c>
+      <c r="L197" t="s">
+        <v>4064</v>
+      </c>
+      <c r="M197">
+        <v>999</v>
+      </c>
+      <c r="N197" t="s">
+        <v>177</v>
+      </c>
+      <c r="O197" t="s">
+        <v>103</v>
+      </c>
+      <c r="P197" t="s">
+        <v>4065</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>2016</v>
+      </c>
+      <c r="R197">
+        <v>999</v>
+      </c>
+      <c r="S197">
+        <v>999</v>
+      </c>
+      <c r="T197" t="s">
+        <v>64</v>
+      </c>
+      <c r="U197" s="1">
+        <v>999</v>
+      </c>
+      <c r="V197" t="s">
+        <v>3706</v>
+      </c>
+      <c r="W197" t="s">
+        <v>455</v>
+      </c>
+      <c r="X197" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>4066</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>3923</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>4067</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>4068</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>3710</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>4069</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AP197" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>4070</v>
+      </c>
+      <c r="AR197" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS197" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AT197" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU197" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AV197" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AW197" t="s">
+        <v>4071</v>
+      </c>
+      <c r="AX197" t="s">
+        <v>4072</v>
+      </c>
+      <c r="AY197" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ197" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA197" s="1" t="s">
+        <v>4073</v>
+      </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
+      <c r="B198" s="2">
+        <v>44796</v>
+      </c>
       <c r="C198" t="s">
         <v>54</v>
       </c>
+      <c r="D198" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
       <c r="G198" t="s">
         <v>2720</v>
       </c>
+      <c r="H198" t="s">
+        <v>97</v>
+      </c>
+      <c r="I198" t="s">
+        <v>310</v>
+      </c>
+      <c r="J198" t="s">
+        <v>4075</v>
+      </c>
+      <c r="K198" t="s">
+        <v>4076</v>
+      </c>
+      <c r="L198" t="s">
+        <v>4077</v>
+      </c>
+      <c r="M198" t="s">
+        <v>4078</v>
+      </c>
+      <c r="N198" t="s">
+        <v>102</v>
+      </c>
+      <c r="O198" t="s">
+        <v>103</v>
+      </c>
+      <c r="P198" t="s">
+        <v>4079</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R198">
+        <v>999</v>
+      </c>
+      <c r="S198" t="s">
+        <v>103</v>
+      </c>
+      <c r="T198" t="s">
+        <v>3529</v>
+      </c>
+      <c r="U198" s="16" t="s">
+        <v>4080</v>
+      </c>
+      <c r="V198" t="s">
+        <v>4081</v>
+      </c>
+      <c r="W198" t="s">
+        <v>4082</v>
+      </c>
+      <c r="X198" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>4083</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>4085</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>4084</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>4086</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>4087</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>4088</v>
+      </c>
+      <c r="AM198" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN198" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP198" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ198" t="s">
+        <v>4089</v>
+      </c>
+      <c r="AR198" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS198" t="s">
+        <v>4090</v>
+      </c>
+      <c r="AT198" t="s">
+        <v>4091</v>
+      </c>
+      <c r="AU198" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV198" t="s">
+        <v>4092</v>
+      </c>
+      <c r="AW198" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX198" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY198" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ198" s="19" t="s">
+        <v>4074</v>
+      </c>
+      <c r="BA198" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -43020,7 +44904,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -43031,7 +44915,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -43042,7 +44926,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -43053,7 +44937,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -43064,7 +44948,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -43075,7 +44959,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -43086,7 +44970,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -43097,7 +44981,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -43108,7 +44992,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -43450,7 +45334,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="9">
+        <v>0.86805555555555547</v>
+      </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCE2CD-BF9D-47E7-9ADA-E322EE36558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B654C721-F1C1-4F7C-8AA3-F35CF3CF193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="12660" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3528" yWindow="0" windowWidth="12660" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8674" uniqueCount="4093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8978" uniqueCount="4198">
   <si>
     <t>ID</t>
   </si>
@@ -12809,9 +12809,6 @@
     <t>Breuer</t>
   </si>
   <si>
-    <t>K[a?]rlbruhn</t>
-  </si>
-  <si>
     <t>i. B.</t>
   </si>
   <si>
@@ -13418,9 +13415,6 @@
     <t>Rütte</t>
   </si>
   <si>
-    <t>Wenker [Wins]</t>
-  </si>
-  <si>
     <t>Bäramseli (w)</t>
   </si>
   <si>
@@ -13451,9 +13445,6 @@
     <t>Gülfeli (s)</t>
   </si>
   <si>
-    <t>Sch[eo]ug[eu]i (w)</t>
-  </si>
-  <si>
     <t>u-[n] {oder e}</t>
   </si>
   <si>
@@ -13542,6 +13533,330 @@
   </si>
   <si>
     <t>Schüssili, Tellerli (s)</t>
+  </si>
+  <si>
+    <t>25,3</t>
+  </si>
+  <si>
+    <t>u-t</t>
+  </si>
+  <si>
+    <t>Herrischried</t>
+  </si>
+  <si>
+    <t>Ka[rl]sruhe</t>
+  </si>
+  <si>
+    <t>Brommbeeri (w)</t>
+  </si>
+  <si>
+    <t>Diechtle (w)</t>
+  </si>
+  <si>
+    <t>El[tc]hoer (w) &lt;Wögeli&gt;</t>
+  </si>
+  <si>
+    <t>Gückel, Huë</t>
+  </si>
+  <si>
+    <t>&lt;h&gt;Erdöpfel (m)</t>
+  </si>
+  <si>
+    <t>Gehlrübe (w) &lt;Mohrrübe&gt;</t>
+  </si>
+  <si>
+    <t>schulde, schnure, deufle, brummle</t>
+  </si>
+  <si>
+    <t>Gü[?]feli (s) {Buchstabe ebentuell durchgestrichen}</t>
+  </si>
+  <si>
+    <t>Schwögeri (w)</t>
+  </si>
+  <si>
+    <t>47,40, 7,40</t>
+  </si>
+  <si>
+    <t>25,30, 5,30</t>
+  </si>
+  <si>
+    <t>Rütte u. Herrischried</t>
+  </si>
+  <si>
+    <t>Schäfer</t>
+  </si>
+  <si>
+    <t>Brombäri (w)</t>
+  </si>
+  <si>
+    <t>Diechske (w)</t>
+  </si>
+  <si>
+    <t>Ände (w) &lt;Änderich (m)&gt;</t>
+  </si>
+  <si>
+    <t>Mohr (m) &lt;w?&gt;</t>
+  </si>
+  <si>
+    <t>Sticknödili {ä über ö}, Gülfili (s)</t>
+  </si>
+  <si>
+    <t>Stri[k]hnodle (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli, Dällerli (s)</t>
+  </si>
+  <si>
+    <t>Bärmasel (w)</t>
+  </si>
+  <si>
+    <t>D[iic]hsel (w)</t>
+  </si>
+  <si>
+    <t>Flíëge (w)</t>
+  </si>
+  <si>
+    <t>Gückel, Hühnli</t>
+  </si>
+  <si>
+    <t>teufle, brummle, schnörre</t>
+  </si>
+  <si>
+    <t>Steckbüfeli (s)</t>
+  </si>
+  <si>
+    <t>Schüsseli (s), Teller (m)</t>
+  </si>
+  <si>
+    <t>u-v {t vor u gestrichen}</t>
+  </si>
+  <si>
+    <t>Kleinherrischwand</t>
+  </si>
+  <si>
+    <t>Hariette Weiss &lt;Lehrer[?] im Vertretung des eingezogenen&gt;</t>
+  </si>
+  <si>
+    <t>Feldkirch</t>
+  </si>
+  <si>
+    <t>Kr. Gehweiler</t>
+  </si>
+  <si>
+    <t>Beerhamsel (die)</t>
+  </si>
+  <si>
+    <t>Beerdigung (die)</t>
+  </si>
+  <si>
+    <t>Brombeere (die)</t>
+  </si>
+  <si>
+    <t>Diachsel</t>
+  </si>
+  <si>
+    <t>Elschter (die)</t>
+  </si>
+  <si>
+    <t>Ente (die)</t>
+  </si>
+  <si>
+    <t>Fledermus (die)</t>
+  </si>
+  <si>
+    <t>Fliege (die)</t>
+  </si>
+  <si>
+    <t>Öhmd (das)</t>
+  </si>
+  <si>
+    <t>Gurke (die)</t>
+  </si>
+  <si>
+    <t>Hagebutte (die)</t>
+  </si>
+  <si>
+    <t>Gückel (der), Hüehnli (das)</t>
+  </si>
+  <si>
+    <t>Hebamme (die)</t>
+  </si>
+  <si>
+    <t>Härdöpfel (die)</t>
+  </si>
+  <si>
+    <t>Rolli (der)</t>
+  </si>
+  <si>
+    <t>Scheer (der)</t>
+  </si>
+  <si>
+    <t>gelbe Rübli (das)</t>
+  </si>
+  <si>
+    <t>Göti (der)</t>
+  </si>
+  <si>
+    <t>Geißle (die)</t>
+  </si>
+  <si>
+    <t>Pflume (die)</t>
+  </si>
+  <si>
+    <t>Chriselbeere (die)</t>
+  </si>
+  <si>
+    <t>Gufe (der)</t>
+  </si>
+  <si>
+    <t>Stricknodele (die)</t>
+  </si>
+  <si>
+    <t>Hafe (der)</t>
+  </si>
+  <si>
+    <t>Geiß (die)</t>
+  </si>
+  <si>
+    <t>Schwiegertochter (die)</t>
+  </si>
+  <si>
+    <t>u-w</t>
+  </si>
+  <si>
+    <t>Engelschwand</t>
+  </si>
+  <si>
+    <t>Her[nn] Wag[er]</t>
+  </si>
+  <si>
+    <t>Beerdigung, Líech (w)</t>
+  </si>
+  <si>
+    <t>Brumbeer (w)</t>
+  </si>
+  <si>
+    <t>Enter (w)</t>
+  </si>
+  <si>
+    <t>Gugummeer</t>
+  </si>
+  <si>
+    <t>Fliag[a] (w)</t>
+  </si>
+  <si>
+    <t>Gückeler (m), Hua (s)</t>
+  </si>
+  <si>
+    <t>Gälrüb[a] (w)</t>
+  </si>
+  <si>
+    <t>Geißl (w)</t>
+  </si>
+  <si>
+    <t>Pflumma (w)</t>
+  </si>
+  <si>
+    <t>schalten, teufla</t>
+  </si>
+  <si>
+    <t>Kruselbeer (w)</t>
+  </si>
+  <si>
+    <t>Schüsseli, Untertallerli</t>
+  </si>
+  <si>
+    <t>Steihafa (m)</t>
+  </si>
+  <si>
+    <t>zweia</t>
+  </si>
+  <si>
+    <t>Schwiegertochter, Schw[ä]geri {oder Schwögeri}</t>
+  </si>
+  <si>
+    <t>25,[4]</t>
+  </si>
+  <si>
+    <t>u-va</t>
+  </si>
+  <si>
+    <t>Wernh[er] Wi[ns]</t>
+  </si>
+  <si>
+    <t>We[rn]h[er] Wins</t>
+  </si>
+  <si>
+    <t>Wehrhalden</t>
+  </si>
+  <si>
+    <t>Säckingen {1. Seite steht Kr. Waldshut}</t>
+  </si>
+  <si>
+    <t>Dīëchsel (w)</t>
+  </si>
+  <si>
+    <t>Flīëge (w)</t>
+  </si>
+  <si>
+    <t>u-[r]</t>
+  </si>
+  <si>
+    <t>Strittmatt</t>
+  </si>
+  <si>
+    <t>Mayer Hermann</t>
+  </si>
+  <si>
+    <t>a. Rauden</t>
+  </si>
+  <si>
+    <t>Schlatt</t>
+  </si>
+  <si>
+    <t>a/ Rauden</t>
+  </si>
+  <si>
+    <t>Bäramsela (w)</t>
+  </si>
+  <si>
+    <t>Beerdigung, Liech (w)</t>
+  </si>
+  <si>
+    <t>Dia[z]el (m)</t>
+  </si>
+  <si>
+    <t>Dia[z]la (w)</t>
+  </si>
+  <si>
+    <t>Fliaga (w)</t>
+  </si>
+  <si>
+    <t>Hagebutta</t>
+  </si>
+  <si>
+    <t>Gückel, Hua</t>
+  </si>
+  <si>
+    <t>Gelrüba</t>
+  </si>
+  <si>
+    <t>Pflumm[a]</t>
+  </si>
+  <si>
+    <t>Gr[ü]selbeer {unklar ob umlaut oder standard u Zeichen}</t>
+  </si>
+  <si>
+    <t>Güfeli</t>
+  </si>
+  <si>
+    <t>Stricknodla, [L]is[??]nodla</t>
+  </si>
+  <si>
+    <t>staihafa</t>
+  </si>
+  <si>
+    <t>zwei[a]</t>
   </si>
 </sst>
 </file>
@@ -13725,9 +14040,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14048,8 +14363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA198" sqref="BA198"/>
+    <sheetView tabSelected="1" topLeftCell="AR163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS197" sqref="AS197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14075,7 +14390,9 @@
     <col min="32" max="32" width="16.59765625" customWidth="1"/>
     <col min="33" max="33" width="18" customWidth="1"/>
     <col min="34" max="34" width="21.19921875" customWidth="1"/>
-    <col min="35" max="44" width="10.69921875" customWidth="1"/>
+    <col min="35" max="42" width="10.69921875" customWidth="1"/>
+    <col min="43" max="43" width="18.09765625" customWidth="1"/>
+    <col min="44" max="44" width="10.69921875" customWidth="1"/>
     <col min="45" max="45" width="14.5" customWidth="1"/>
     <col min="46" max="46" width="16.09765625" customWidth="1"/>
     <col min="47" max="47" width="21.19921875" customWidth="1"/>
@@ -26409,7 +26726,7 @@
         <v>1904</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="V77" t="s">
         <v>1521</v>
@@ -28019,7 +28336,7 @@
         <v>1519</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="V87" t="s">
         <v>2106</v>
@@ -32986,7 +33303,7 @@
         <v>2903</v>
       </c>
       <c r="L118" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="M118">
         <v>999</v>
@@ -38960,7 +39277,7 @@
         <v>3529</v>
       </c>
       <c r="U160" s="17" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="V160" t="s">
         <v>314</v>
@@ -39825,7 +40142,7 @@
         <v>3634</v>
       </c>
       <c r="AM165" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="AN165" t="s">
         <v>198</v>
@@ -42180,10 +42497,10 @@
         <v>3861</v>
       </c>
       <c r="Q180" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R180" t="s">
         <v>3862</v>
-      </c>
-      <c r="R180" t="s">
-        <v>3863</v>
       </c>
       <c r="S180">
         <v>999</v>
@@ -42198,7 +42515,7 @@
         <v>999</v>
       </c>
       <c r="W180" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="X180" t="s">
         <v>223</v>
@@ -42216,7 +42533,7 @@
         <v>226</v>
       </c>
       <c r="AC180" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="AD180" t="s">
         <v>189</v>
@@ -42228,7 +42545,7 @@
         <v>999</v>
       </c>
       <c r="AG180" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="AH180">
         <v>999</v>
@@ -42267,22 +42584,22 @@
         <v>999</v>
       </c>
       <c r="AT180" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="AU180" t="s">
         <v>520</v>
       </c>
       <c r="AV180" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="AW180" t="s">
         <v>792</v>
       </c>
       <c r="AX180" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AY180" s="1" t="s">
         <v>3869</v>
-      </c>
-      <c r="AY180" s="1" t="s">
-        <v>3870</v>
       </c>
       <c r="AZ180" t="s">
         <v>211</v>
@@ -42323,37 +42640,37 @@
         <v>740</v>
       </c>
       <c r="K181" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L181" t="s">
         <v>3871</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181">
+        <v>999</v>
+      </c>
+      <c r="N181" t="s">
         <v>3872</v>
-      </c>
-      <c r="M181">
-        <v>999</v>
-      </c>
-      <c r="N181" t="s">
-        <v>3873</v>
       </c>
       <c r="O181" t="s">
         <v>103</v>
       </c>
       <c r="P181" t="s">
+        <v>3888</v>
+      </c>
+      <c r="Q181" t="s">
         <v>3889</v>
       </c>
-      <c r="Q181" t="s">
+      <c r="R181" t="s">
         <v>3890</v>
       </c>
-      <c r="R181" t="s">
+      <c r="S181" t="s">
         <v>3891</v>
-      </c>
-      <c r="S181" t="s">
-        <v>3892</v>
       </c>
       <c r="T181" t="s">
         <v>1519</v>
       </c>
       <c r="U181" s="1" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="V181" t="s">
         <v>314</v>
@@ -42374,22 +42691,22 @@
         <v>1558</v>
       </c>
       <c r="AB181" t="s">
+        <v>3873</v>
+      </c>
+      <c r="AC181" t="s">
         <v>3874</v>
-      </c>
-      <c r="AC181" t="s">
-        <v>3875</v>
       </c>
       <c r="AD181" t="s">
         <v>281</v>
       </c>
       <c r="AE181" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="AF181" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AG181" t="s">
         <v>3876</v>
-      </c>
-      <c r="AG181" t="s">
-        <v>3877</v>
       </c>
       <c r="AH181" t="s">
         <v>155</v>
@@ -42401,13 +42718,13 @@
         <v>1188</v>
       </c>
       <c r="AK181" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="AL181" t="s">
         <v>1238</v>
       </c>
       <c r="AM181" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="AN181" t="s">
         <v>831</v>
@@ -42419,7 +42736,7 @@
         <v>1506</v>
       </c>
       <c r="AQ181" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="AR181" t="s">
         <v>295</v>
@@ -42434,13 +42751,13 @@
         <v>605</v>
       </c>
       <c r="AV181" t="s">
+        <v>3882</v>
+      </c>
+      <c r="AW181" t="s">
         <v>3883</v>
       </c>
-      <c r="AW181" t="s">
+      <c r="AX181" t="s">
         <v>3884</v>
-      </c>
-      <c r="AX181" t="s">
-        <v>3885</v>
       </c>
       <c r="AY181" s="1" t="s">
         <v>301</v>
@@ -42484,10 +42801,10 @@
         <v>2761</v>
       </c>
       <c r="K182" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="L182" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="M182">
         <v>999</v>
@@ -42499,13 +42816,13 @@
         <v>103</v>
       </c>
       <c r="P182" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="Q182" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="R182" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="S182" t="s">
         <v>2882</v>
@@ -42517,16 +42834,16 @@
         <v>999</v>
       </c>
       <c r="V182" t="s">
+        <v>3894</v>
+      </c>
+      <c r="W182" t="s">
         <v>3895</v>
-      </c>
-      <c r="W182" t="s">
-        <v>3896</v>
       </c>
       <c r="X182" t="s">
         <v>183</v>
       </c>
       <c r="Y182" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="Z182" t="s">
         <v>1254</v>
@@ -42550,7 +42867,7 @@
         <v>1601</v>
       </c>
       <c r="AG182" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="AH182" t="s">
         <v>193</v>
@@ -42559,13 +42876,13 @@
         <v>1582</v>
       </c>
       <c r="AJ182" t="s">
+        <v>3898</v>
+      </c>
+      <c r="AK182" t="s">
         <v>3899</v>
       </c>
-      <c r="AK182" t="s">
+      <c r="AL182" t="s">
         <v>3900</v>
-      </c>
-      <c r="AL182" t="s">
-        <v>3901</v>
       </c>
       <c r="AM182" t="s">
         <v>121</v>
@@ -42574,13 +42891,13 @@
         <v>198</v>
       </c>
       <c r="AO182" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="AP182" t="s">
         <v>360</v>
       </c>
       <c r="AQ182" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="AR182" t="s">
         <v>202</v>
@@ -42589,25 +42906,25 @@
         <v>1264</v>
       </c>
       <c r="AT182" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="AU182" t="s">
         <v>417</v>
       </c>
       <c r="AV182" t="s">
+        <v>3904</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>4039</v>
+      </c>
+      <c r="AX182" t="s">
         <v>3905</v>
-      </c>
-      <c r="AW182" s="21" t="s">
-        <v>4040</v>
-      </c>
-      <c r="AX182" t="s">
-        <v>3906</v>
       </c>
       <c r="AY182" s="1" t="s">
         <v>209</v>
       </c>
       <c r="AZ182" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="BA182" s="1" t="s">
         <v>266</v>
@@ -42645,10 +42962,10 @@
         <v>2761</v>
       </c>
       <c r="K183" t="s">
+        <v>3906</v>
+      </c>
+      <c r="L183" t="s">
         <v>3907</v>
-      </c>
-      <c r="L183" t="s">
-        <v>3908</v>
       </c>
       <c r="M183">
         <v>999</v>
@@ -42660,7 +42977,7 @@
         <v>103</v>
       </c>
       <c r="P183" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="Q183" t="s">
         <v>845</v>
@@ -42702,19 +43019,19 @@
         <v>3496</v>
       </c>
       <c r="AD183" t="s">
+        <v>3909</v>
+      </c>
+      <c r="AE183" t="s">
         <v>3910</v>
-      </c>
-      <c r="AE183" t="s">
-        <v>3911</v>
       </c>
       <c r="AF183" t="s">
         <v>229</v>
       </c>
       <c r="AG183" t="s">
+        <v>3911</v>
+      </c>
+      <c r="AH183" t="s">
         <v>3912</v>
-      </c>
-      <c r="AH183" t="s">
-        <v>3913</v>
       </c>
       <c r="AI183" t="s">
         <v>194</v>
@@ -42744,16 +43061,16 @@
         <v>3833</v>
       </c>
       <c r="AR183" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="AS183" t="s">
         <v>1264</v>
       </c>
       <c r="AT183" t="s">
+        <v>3914</v>
+      </c>
+      <c r="AU183" t="s">
         <v>3915</v>
-      </c>
-      <c r="AU183" t="s">
-        <v>3916</v>
       </c>
       <c r="AV183" t="s">
         <v>3485</v>
@@ -42806,10 +43123,10 @@
         <v>2761</v>
       </c>
       <c r="K184" t="s">
+        <v>3916</v>
+      </c>
+      <c r="L184" t="s">
         <v>3917</v>
-      </c>
-      <c r="L184" t="s">
-        <v>3918</v>
       </c>
       <c r="M184">
         <v>999</v>
@@ -42821,10 +43138,10 @@
         <v>1249</v>
       </c>
       <c r="P184" t="s">
+        <v>3918</v>
+      </c>
+      <c r="Q184" t="s">
         <v>3919</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>3920</v>
       </c>
       <c r="R184">
         <v>999</v>
@@ -42836,7 +43153,7 @@
         <v>142</v>
       </c>
       <c r="U184" s="1" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="V184" t="s">
         <v>314</v>
@@ -42854,13 +43171,13 @@
         <v>1683</v>
       </c>
       <c r="AA184" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="AB184" t="s">
         <v>1339</v>
       </c>
       <c r="AC184" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="AD184" t="s">
         <v>487</v>
@@ -42872,7 +43189,7 @@
         <v>1214</v>
       </c>
       <c r="AG184" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="AH184" t="s">
         <v>1344</v>
@@ -42902,7 +43219,7 @@
         <v>259</v>
       </c>
       <c r="AQ184" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="AR184" t="s">
         <v>295</v>
@@ -42911,16 +43228,16 @@
         <v>1239</v>
       </c>
       <c r="AT184" t="s">
+        <v>3925</v>
+      </c>
+      <c r="AU184" t="s">
         <v>3926</v>
-      </c>
-      <c r="AU184" t="s">
-        <v>3927</v>
       </c>
       <c r="AV184" t="s">
         <v>1436</v>
       </c>
       <c r="AW184" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="AX184" t="s">
         <v>208</v>
@@ -42967,31 +43284,31 @@
         <v>2761</v>
       </c>
       <c r="K185" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="L185" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="M185">
         <v>999</v>
       </c>
       <c r="N185" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="O185" t="s">
         <v>103</v>
       </c>
       <c r="P185" t="s">
+        <v>3931</v>
+      </c>
+      <c r="Q185" t="s">
         <v>3932</v>
       </c>
-      <c r="Q185" t="s">
+      <c r="R185">
+        <v>999</v>
+      </c>
+      <c r="S185" t="s">
         <v>3933</v>
-      </c>
-      <c r="R185">
-        <v>999</v>
-      </c>
-      <c r="S185" t="s">
-        <v>3934</v>
       </c>
       <c r="T185" t="s">
         <v>64</v>
@@ -43003,7 +43320,7 @@
         <v>999</v>
       </c>
       <c r="W185" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="X185" t="s">
         <v>223</v>
@@ -43015,25 +43332,25 @@
         <v>999</v>
       </c>
       <c r="AA185" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="AB185" t="s">
         <v>226</v>
       </c>
       <c r="AC185" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="AD185" t="s">
         <v>189</v>
       </c>
       <c r="AE185" t="s">
+        <v>3937</v>
+      </c>
+      <c r="AF185">
+        <v>999</v>
+      </c>
+      <c r="AG185" t="s">
         <v>3938</v>
-      </c>
-      <c r="AF185">
-        <v>999</v>
-      </c>
-      <c r="AG185" t="s">
-        <v>3939</v>
       </c>
       <c r="AH185" t="s">
         <v>117</v>
@@ -43048,22 +43365,22 @@
         <v>3480</v>
       </c>
       <c r="AL185" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="AM185" t="s">
         <v>121</v>
       </c>
       <c r="AN185" t="s">
+        <v>3940</v>
+      </c>
+      <c r="AO185" t="s">
         <v>3941</v>
       </c>
-      <c r="AO185" t="s">
+      <c r="AP185" t="s">
         <v>3942</v>
       </c>
-      <c r="AP185" t="s">
+      <c r="AQ185" t="s">
         <v>3943</v>
-      </c>
-      <c r="AQ185" t="s">
-        <v>3944</v>
       </c>
       <c r="AR185" t="s">
         <v>202</v>
@@ -43075,10 +43392,10 @@
         <v>1640</v>
       </c>
       <c r="AU185" t="s">
+        <v>3944</v>
+      </c>
+      <c r="AV185" t="s">
         <v>3945</v>
-      </c>
-      <c r="AV185" t="s">
-        <v>3946</v>
       </c>
       <c r="AW185" t="s">
         <v>265</v>
@@ -43122,7 +43439,7 @@
         <v>97</v>
       </c>
       <c r="I186" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="J186" t="s">
         <v>2761</v>
@@ -43131,7 +43448,7 @@
         <v>2295</v>
       </c>
       <c r="L186" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="M186">
         <v>999</v>
@@ -43143,10 +43460,10 @@
         <v>103</v>
       </c>
       <c r="P186" t="s">
+        <v>3948</v>
+      </c>
+      <c r="Q186" t="s">
         <v>3949</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>3950</v>
       </c>
       <c r="R186">
         <v>999</v>
@@ -43158,13 +43475,13 @@
         <v>64</v>
       </c>
       <c r="U186" s="17" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="V186" t="s">
         <v>1159</v>
       </c>
       <c r="W186" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="X186" t="s">
         <v>275</v>
@@ -43173,13 +43490,13 @@
         <v>822</v>
       </c>
       <c r="Z186" t="s">
+        <v>3955</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>3921</v>
+      </c>
+      <c r="AB186" t="s">
         <v>3956</v>
-      </c>
-      <c r="AA186" t="s">
-        <v>3922</v>
-      </c>
-      <c r="AB186" t="s">
-        <v>3957</v>
       </c>
       <c r="AC186" t="s">
         <v>322</v>
@@ -43209,7 +43526,7 @@
         <v>490</v>
       </c>
       <c r="AL186" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="AM186" t="s">
         <v>159</v>
@@ -43239,10 +43556,10 @@
         <v>205</v>
       </c>
       <c r="AV186" t="s">
+        <v>3958</v>
+      </c>
+      <c r="AW186" t="s">
         <v>3959</v>
-      </c>
-      <c r="AW186" t="s">
-        <v>3960</v>
       </c>
       <c r="AX186" t="s">
         <v>208</v>
@@ -43289,13 +43606,13 @@
         <v>2761</v>
       </c>
       <c r="K187" t="s">
+        <v>3961</v>
+      </c>
+      <c r="L187" t="s">
         <v>3962</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>3963</v>
-      </c>
-      <c r="M187" t="s">
-        <v>3964</v>
       </c>
       <c r="N187" t="s">
         <v>177</v>
@@ -43304,7 +43621,7 @@
         <v>103</v>
       </c>
       <c r="P187" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="Q187" t="s">
         <v>1011</v>
@@ -43325,28 +43642,28 @@
         <v>1159</v>
       </c>
       <c r="W187" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="X187" t="s">
         <v>275</v>
       </c>
       <c r="Y187" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="Z187" t="s">
         <v>3681</v>
       </c>
       <c r="AA187" t="s">
+        <v>3967</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>3975</v>
+      </c>
+      <c r="AD187" t="s">
         <v>3968</v>
-      </c>
-      <c r="AB187" t="s">
-        <v>3957</v>
-      </c>
-      <c r="AC187" t="s">
-        <v>3976</v>
-      </c>
-      <c r="AD187" t="s">
-        <v>3969</v>
       </c>
       <c r="AE187" t="s">
         <v>324</v>
@@ -43355,13 +43672,13 @@
         <v>1214</v>
       </c>
       <c r="AG187" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="AH187" t="s">
         <v>155</v>
       </c>
       <c r="AI187" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="AJ187" t="s">
         <v>1188</v>
@@ -43379,7 +43696,7 @@
         <v>331</v>
       </c>
       <c r="AO187" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="AP187" t="s">
         <v>293</v>
@@ -43394,7 +43711,7 @@
         <v>2114</v>
       </c>
       <c r="AT187" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="AU187" t="s">
         <v>496</v>
@@ -43453,10 +43770,10 @@
         <v>999</v>
       </c>
       <c r="L188" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="M188" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="N188" t="s">
         <v>177</v>
@@ -43465,7 +43782,7 @@
         <v>103</v>
       </c>
       <c r="P188" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="Q188" t="s">
         <v>1011</v>
@@ -43492,22 +43809,22 @@
         <v>275</v>
       </c>
       <c r="Y188" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="Z188" t="s">
         <v>3681</v>
       </c>
       <c r="AA188" t="s">
+        <v>3967</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>3975</v>
+      </c>
+      <c r="AD188" t="s">
         <v>3968</v>
-      </c>
-      <c r="AB188" t="s">
-        <v>3957</v>
-      </c>
-      <c r="AC188" t="s">
-        <v>3976</v>
-      </c>
-      <c r="AD188" t="s">
-        <v>3969</v>
       </c>
       <c r="AE188" t="s">
         <v>324</v>
@@ -43516,13 +43833,13 @@
         <v>1214</v>
       </c>
       <c r="AG188" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="AH188" t="s">
         <v>155</v>
       </c>
       <c r="AI188" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="AJ188" t="s">
         <v>1188</v>
@@ -43540,7 +43857,7 @@
         <v>331</v>
       </c>
       <c r="AO188" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="AP188" t="s">
         <v>293</v>
@@ -43555,7 +43872,7 @@
         <v>2114</v>
       </c>
       <c r="AT188" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="AU188" t="s">
         <v>496</v>
@@ -43614,10 +43931,10 @@
         <v>999</v>
       </c>
       <c r="L189" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="M189" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="N189" t="s">
         <v>177</v>
@@ -43626,7 +43943,7 @@
         <v>999</v>
       </c>
       <c r="P189" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="Q189" t="s">
         <v>2263</v>
@@ -43643,17 +43960,17 @@
       <c r="U189" s="1">
         <v>999</v>
       </c>
-      <c r="V189" s="19">
+      <c r="V189">
         <v>999</v>
       </c>
       <c r="W189" s="14" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="X189" t="s">
         <v>223</v>
       </c>
       <c r="Y189" s="14" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="Z189" t="s">
         <v>1254</v>
@@ -43668,34 +43985,34 @@
         <v>3670</v>
       </c>
       <c r="AD189" t="s">
+        <v>3978</v>
+      </c>
+      <c r="AE189" t="s">
         <v>3979</v>
       </c>
-      <c r="AE189" t="s">
+      <c r="AF189">
+        <v>999</v>
+      </c>
+      <c r="AG189" t="s">
         <v>3980</v>
       </c>
-      <c r="AF189">
-        <v>999</v>
-      </c>
-      <c r="AG189" t="s">
-        <v>3981</v>
-      </c>
       <c r="AH189">
         <v>999</v>
       </c>
       <c r="AI189" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="AJ189" t="s">
         <v>118</v>
       </c>
       <c r="AK189" t="s">
+        <v>3983</v>
+      </c>
+      <c r="AL189">
+        <v>999</v>
+      </c>
+      <c r="AM189" t="s">
         <v>3984</v>
-      </c>
-      <c r="AL189">
-        <v>999</v>
-      </c>
-      <c r="AM189" t="s">
-        <v>3985</v>
       </c>
       <c r="AN189" t="s">
         <v>198</v>
@@ -43722,13 +44039,13 @@
         <v>999</v>
       </c>
       <c r="AV189" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="AW189" t="s">
         <v>3620</v>
       </c>
       <c r="AX189" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="AY189" s="1" t="s">
         <v>209</v>
@@ -43772,13 +44089,13 @@
         <v>2761</v>
       </c>
       <c r="K190" t="s">
+        <v>3987</v>
+      </c>
+      <c r="L190" t="s">
         <v>3988</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>3989</v>
-      </c>
-      <c r="M190" t="s">
-        <v>3990</v>
       </c>
       <c r="N190" t="s">
         <v>177</v>
@@ -43787,7 +44104,7 @@
         <v>103</v>
       </c>
       <c r="P190" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="Q190" t="s">
         <v>177</v>
@@ -43799,96 +44116,96 @@
         <v>999</v>
       </c>
       <c r="T190" t="s">
+        <v>3991</v>
+      </c>
+      <c r="U190" s="1" t="s">
         <v>3992</v>
       </c>
-      <c r="U190" s="1" t="s">
+      <c r="V190" t="s">
         <v>3993</v>
       </c>
-      <c r="V190" s="19" t="s">
-        <v>3994</v>
-      </c>
-      <c r="W190" s="19" t="s">
+      <c r="W190" t="s">
         <v>1337</v>
       </c>
-      <c r="X190" s="19" t="s">
+      <c r="X190" t="s">
         <v>275</v>
       </c>
-      <c r="Y190" s="19" t="s">
+      <c r="Y190" t="s">
+        <v>3995</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB190" t="s">
         <v>3996</v>
       </c>
-      <c r="Z190" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA190" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="AB190" s="19" t="s">
+      <c r="AC190" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD190" t="s">
         <v>3997</v>
       </c>
-      <c r="AC190" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD190" s="19" t="s">
+      <c r="AE190" t="s">
         <v>3998</v>
       </c>
-      <c r="AE190" s="19" t="s">
+      <c r="AF190" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AG190" t="s">
         <v>3999</v>
       </c>
-      <c r="AF190" s="19" t="s">
-        <v>3361</v>
-      </c>
-      <c r="AG190" s="19" t="s">
+      <c r="AH190" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI190" t="s">
         <v>4000</v>
       </c>
-      <c r="AH190" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI190" s="19" t="s">
+      <c r="AJ190" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>2907</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>3771</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AP190" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ190" t="s">
         <v>4001</v>
       </c>
-      <c r="AJ190" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK190" s="19" t="s">
-        <v>2907</v>
-      </c>
-      <c r="AL190" s="19" t="s">
-        <v>3771</v>
-      </c>
-      <c r="AM190" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN190" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO190" s="19" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AP190" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ190" s="19" t="s">
-        <v>4002</v>
-      </c>
-      <c r="AR190" s="19" t="s">
+      <c r="AR190" t="s">
         <v>202</v>
       </c>
-      <c r="AS190" s="19" t="s">
+      <c r="AS190" t="s">
         <v>1264</v>
       </c>
-      <c r="AT190" s="19" t="s">
+      <c r="AT190" t="s">
         <v>889</v>
       </c>
-      <c r="AU190" s="19" t="s">
+      <c r="AU190" t="s">
         <v>1096</v>
       </c>
-      <c r="AV190" s="19" t="s">
-        <v>3959</v>
-      </c>
-      <c r="AW190" s="19" t="s">
+      <c r="AV190" t="s">
+        <v>3958</v>
+      </c>
+      <c r="AW190" t="s">
         <v>792</v>
       </c>
-      <c r="AX190" s="19" t="s">
+      <c r="AX190" t="s">
         <v>131</v>
       </c>
       <c r="AY190" s="1" t="s">
@@ -43900,8 +44217,8 @@
       <c r="BA190" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BB190" s="19" t="s">
-        <v>4018</v>
+      <c r="BB190" t="s">
+        <v>4017</v>
       </c>
     </row>
     <row r="191" spans="1:54" x14ac:dyDescent="0.25">
@@ -43936,10 +44253,10 @@
         <v>2761</v>
       </c>
       <c r="K191" t="s">
+        <v>4002</v>
+      </c>
+      <c r="L191" t="s">
         <v>4003</v>
-      </c>
-      <c r="L191" t="s">
-        <v>4004</v>
       </c>
       <c r="M191">
         <v>999</v>
@@ -43951,10 +44268,10 @@
         <v>103</v>
       </c>
       <c r="P191" t="s">
-        <v>4005</v>
-      </c>
-      <c r="Q191" s="21" t="s">
-        <v>4023</v>
+        <v>4004</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>4022</v>
       </c>
       <c r="R191">
         <v>999</v>
@@ -43968,92 +44285,92 @@
       <c r="U191" s="1">
         <v>999</v>
       </c>
-      <c r="V191" s="19" t="s">
+      <c r="V191" t="s">
+        <v>4005</v>
+      </c>
+      <c r="W191" t="s">
+        <v>455</v>
+      </c>
+      <c r="X191" t="s">
         <v>4006</v>
       </c>
-      <c r="W191" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="X191" s="19" t="s">
+      <c r="Y191" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z191" t="s">
         <v>4007</v>
       </c>
-      <c r="Y191" s="19" t="s">
-        <v>1209</v>
-      </c>
-      <c r="Z191" s="19" t="s">
+      <c r="AA191">
+        <v>999</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>3512</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE191" t="s">
         <v>4008</v>
       </c>
-      <c r="AA191">
-        <v>999</v>
-      </c>
-      <c r="AB191" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC191" s="19" t="s">
-        <v>3512</v>
-      </c>
-      <c r="AD191" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="AE191" s="19" t="s">
+      <c r="AF191" t="s">
         <v>4009</v>
       </c>
-      <c r="AF191" s="19" t="s">
+      <c r="AG191" t="s">
         <v>4010</v>
       </c>
-      <c r="AG191" s="19" t="s">
+      <c r="AH191" t="s">
         <v>4011</v>
       </c>
-      <c r="AH191" s="19" t="s">
+      <c r="AI191" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP191" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ191" t="s">
         <v>4012</v>
       </c>
-      <c r="AI191" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ191" s="19" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AK191" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="AL191" s="19" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AM191" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN191" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO191" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP191" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ191" s="19" t="s">
+      <c r="AR191" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS191" t="s">
         <v>4013</v>
       </c>
-      <c r="AR191" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS191" s="19" t="s">
+      <c r="AT191" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AU191" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV191" t="s">
         <v>4014</v>
       </c>
-      <c r="AT191" s="19" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AU191" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV191" s="19" t="s">
+      <c r="AW191" t="s">
         <v>4015</v>
       </c>
-      <c r="AW191" s="19" t="s">
+      <c r="AX191" t="s">
         <v>4016</v>
-      </c>
-      <c r="AX191" s="19" t="s">
-        <v>4017</v>
       </c>
       <c r="AY191" s="1" t="s">
         <v>93</v>
@@ -44094,13 +44411,13 @@
         <v>305</v>
       </c>
       <c r="J192" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K192" t="s">
         <v>4019</v>
       </c>
-      <c r="K192" t="s">
+      <c r="L192" t="s">
         <v>4020</v>
-      </c>
-      <c r="L192" t="s">
-        <v>4021</v>
       </c>
       <c r="M192">
         <v>999</v>
@@ -44112,108 +44429,108 @@
         <v>1249</v>
       </c>
       <c r="P192" t="s">
+        <v>4023</v>
+      </c>
+      <c r="Q192" t="s">
         <v>4024</v>
       </c>
-      <c r="Q192" s="21" t="s">
+      <c r="R192" t="s">
         <v>4025</v>
       </c>
-      <c r="R192" s="21" t="s">
+      <c r="S192">
+        <v>999</v>
+      </c>
+      <c r="T192">
+        <v>999</v>
+      </c>
+      <c r="U192" s="1">
+        <v>999</v>
+      </c>
+      <c r="V192" t="s">
+        <v>3706</v>
+      </c>
+      <c r="W192" t="s">
+        <v>247</v>
+      </c>
+      <c r="X192" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA192" t="s">
         <v>4026</v>
       </c>
-      <c r="S192">
-        <v>999</v>
-      </c>
-      <c r="T192">
-        <v>999</v>
-      </c>
-      <c r="U192" s="1">
-        <v>999</v>
-      </c>
-      <c r="V192" s="19" t="s">
-        <v>3706</v>
-      </c>
-      <c r="W192" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="X192" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y192" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z192" s="19" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AA192" s="19" t="s">
+      <c r="AB192" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC192" t="s">
         <v>4027</v>
       </c>
-      <c r="AB192" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC192" s="19" t="s">
+      <c r="AD192" t="s">
         <v>4028</v>
       </c>
-      <c r="AD192" s="19" t="s">
+      <c r="AE192" t="s">
         <v>4029</v>
       </c>
-      <c r="AE192" s="19" t="s">
+      <c r="AF192" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG192" t="s">
         <v>4030</v>
       </c>
-      <c r="AF192" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="AG192" s="19" t="s">
+      <c r="AH192" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI192" t="s">
         <v>4031</v>
       </c>
-      <c r="AH192" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI192" s="19" t="s">
+      <c r="AJ192" t="s">
         <v>4032</v>
       </c>
-      <c r="AJ192" s="19" t="s">
+      <c r="AK192" t="s">
+        <v>3499</v>
+      </c>
+      <c r="AL192">
+        <v>999</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>931</v>
+      </c>
+      <c r="AN192" t="s">
         <v>4033</v>
       </c>
-      <c r="AK192" s="19" t="s">
-        <v>3499</v>
-      </c>
-      <c r="AL192">
-        <v>999</v>
-      </c>
-      <c r="AM192" s="19" t="s">
-        <v>931</v>
-      </c>
-      <c r="AN192" s="19" t="s">
+      <c r="AO192" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP192" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ192" t="s">
         <v>4034</v>
       </c>
-      <c r="AO192" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP192" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ192" s="19" t="s">
+      <c r="AR192" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS192" t="s">
         <v>4035</v>
       </c>
-      <c r="AR192" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS192" s="19" t="s">
+      <c r="AT192" t="s">
         <v>4036</v>
       </c>
-      <c r="AT192" s="19" t="s">
+      <c r="AU192" t="s">
         <v>4037</v>
       </c>
-      <c r="AU192" s="19" t="s">
+      <c r="AV192" t="s">
+        <v>3867</v>
+      </c>
+      <c r="AW192" t="s">
         <v>4038</v>
       </c>
-      <c r="AV192" s="19" t="s">
-        <v>3868</v>
-      </c>
-      <c r="AW192" s="19" t="s">
-        <v>4039</v>
-      </c>
-      <c r="AX192" s="19" t="s">
+      <c r="AX192" t="s">
         <v>208</v>
       </c>
       <c r="AY192" s="1" t="s">
@@ -44258,10 +44575,10 @@
         <v>2761</v>
       </c>
       <c r="K193" t="s">
+        <v>4040</v>
+      </c>
+      <c r="L193" t="s">
         <v>4041</v>
-      </c>
-      <c r="L193" t="s">
-        <v>4042</v>
       </c>
       <c r="M193">
         <v>999</v>
@@ -44273,12 +44590,12 @@
         <v>1249</v>
       </c>
       <c r="P193" t="s">
+        <v>4042</v>
+      </c>
+      <c r="Q193" t="s">
         <v>4043</v>
       </c>
-      <c r="Q193" s="21" t="s">
-        <v>4044</v>
-      </c>
-      <c r="R193" s="21">
+      <c r="R193">
         <v>999</v>
       </c>
       <c r="S193">
@@ -44290,91 +44607,91 @@
       <c r="U193" s="1">
         <v>999</v>
       </c>
-      <c r="V193" s="19" t="s">
-        <v>3895</v>
-      </c>
-      <c r="W193" s="19" t="s">
+      <c r="V193" t="s">
+        <v>3894</v>
+      </c>
+      <c r="W193" t="s">
         <v>427</v>
       </c>
-      <c r="X193" s="19" t="s">
+      <c r="X193" t="s">
         <v>223</v>
       </c>
-      <c r="Y193" s="19" t="s">
+      <c r="Y193" t="s">
         <v>248</v>
       </c>
-      <c r="Z193" s="19" t="s">
+      <c r="Z193" t="s">
         <v>1357</v>
       </c>
-      <c r="AA193" s="19" t="s">
+      <c r="AA193" t="s">
         <v>2500</v>
       </c>
-      <c r="AB193" s="19" t="s">
+      <c r="AB193" t="s">
         <v>226</v>
       </c>
-      <c r="AC193" s="19" t="s">
+      <c r="AC193" t="s">
         <v>112</v>
       </c>
-      <c r="AD193" s="19" t="s">
+      <c r="AD193" t="s">
+        <v>4044</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG193" t="s">
         <v>4045</v>
       </c>
-      <c r="AE193" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF193" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="AG193" s="19" t="s">
+      <c r="AH193" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>3770</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>948</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN193" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP193" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ193" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR193" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS193" t="s">
         <v>4046</v>
       </c>
-      <c r="AH193" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI193" s="19" t="s">
-        <v>3770</v>
-      </c>
-      <c r="AJ193" s="19" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AK193" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL193" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="AM193" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN193" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO193" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP193" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ193" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR193" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS193" s="19" t="s">
+      <c r="AT193" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU193" t="s">
         <v>4047</v>
       </c>
-      <c r="AT193" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="AU193" s="19" t="s">
-        <v>4048</v>
-      </c>
-      <c r="AV193" s="19" t="s">
+      <c r="AV193" t="s">
         <v>206</v>
       </c>
-      <c r="AW193" s="19" t="s">
+      <c r="AW193" t="s">
         <v>792</v>
       </c>
-      <c r="AX193" s="19" t="s">
+      <c r="AX193" t="s">
         <v>208</v>
       </c>
       <c r="AY193" s="1" t="s">
@@ -44419,10 +44736,10 @@
         <v>2761</v>
       </c>
       <c r="K194" t="s">
+        <v>4048</v>
+      </c>
+      <c r="L194" t="s">
         <v>4049</v>
-      </c>
-      <c r="L194" t="s">
-        <v>4050</v>
       </c>
       <c r="M194">
         <v>999</v>
@@ -44434,12 +44751,12 @@
         <v>103</v>
       </c>
       <c r="P194" t="s">
-        <v>4051</v>
-      </c>
-      <c r="Q194" s="20">
-        <v>888</v>
-      </c>
-      <c r="R194" s="21">
+        <v>4173</v>
+      </c>
+      <c r="Q194" s="19" t="s">
+        <v>4093</v>
+      </c>
+      <c r="R194">
         <v>999</v>
       </c>
       <c r="S194">
@@ -44451,124 +44768,423 @@
       <c r="U194" s="1">
         <v>999</v>
       </c>
-      <c r="V194" s="19" t="s">
+      <c r="V194" t="s">
+        <v>4050</v>
+      </c>
+      <c r="W194" t="s">
+        <v>315</v>
+      </c>
+      <c r="X194" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>4051</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG194" t="s">
         <v>4052</v>
       </c>
-      <c r="W194" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="X194" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y194" s="19" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z194" s="19" t="s">
+      <c r="AH194" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AI194" t="s">
         <v>4053</v>
       </c>
-      <c r="AA194" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB194" s="19" t="s">
-        <v>3957</v>
-      </c>
-      <c r="AC194" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD194" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE194" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF194" s="19" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AG194" s="19" t="s">
+      <c r="AJ194" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK194" t="s">
         <v>4054</v>
       </c>
-      <c r="AH194" s="19" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AI194" s="19" t="s">
+      <c r="AL194" t="s">
         <v>4055</v>
       </c>
-      <c r="AJ194" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AK194" s="19" t="s">
+      <c r="AM194" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO194" t="s">
         <v>4056</v>
       </c>
-      <c r="AL194" s="19" t="s">
+      <c r="AP194" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ194" t="s">
         <v>4057</v>
       </c>
-      <c r="AM194" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN194" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO194" s="19" t="s">
+      <c r="AR194" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS194" t="s">
         <v>4058</v>
       </c>
-      <c r="AP194" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ194" s="19" t="s">
+      <c r="AT194" t="s">
         <v>4059</v>
       </c>
-      <c r="AR194" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS194" s="19" t="s">
-        <v>4060</v>
-      </c>
-      <c r="AT194" s="19" t="s">
-        <v>4061</v>
-      </c>
-      <c r="AU194" s="19" t="s">
+      <c r="AU194" t="s">
         <v>205</v>
       </c>
-      <c r="AV194" s="19" t="s">
-        <v>3959</v>
-      </c>
-      <c r="AW194" s="19" t="s">
+      <c r="AV194" t="s">
+        <v>3958</v>
+      </c>
+      <c r="AW194" t="s">
         <v>394</v>
       </c>
-      <c r="AX194" s="19" t="s">
+      <c r="AX194" t="s">
         <v>208</v>
       </c>
       <c r="AY194" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ194" s="19" t="s">
+      <c r="AZ194" t="s">
         <v>303</v>
       </c>
       <c r="BA194" s="1" t="s">
-        <v>4062</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="195" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2"/>
+      <c r="B195" s="2">
+        <v>44797</v>
+      </c>
       <c r="C195" t="s">
         <v>54</v>
       </c>
+      <c r="D195" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E195">
+        <v>14</v>
+      </c>
+      <c r="F195">
+        <v>17</v>
+      </c>
       <c r="G195" t="s">
         <v>2717</v>
+      </c>
+      <c r="H195" t="s">
+        <v>213</v>
+      </c>
+      <c r="I195" t="s">
+        <v>4090</v>
+      </c>
+      <c r="J195" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K195" t="s">
+        <v>4091</v>
+      </c>
+      <c r="L195" t="s">
+        <v>4092</v>
+      </c>
+      <c r="M195">
+        <v>999</v>
+      </c>
+      <c r="N195" t="s">
+        <v>102</v>
+      </c>
+      <c r="O195" t="s">
+        <v>103</v>
+      </c>
+      <c r="P195" t="s">
+        <v>4173</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>4093</v>
+      </c>
+      <c r="R195">
+        <v>999</v>
+      </c>
+      <c r="S195">
+        <v>999</v>
+      </c>
+      <c r="T195" t="s">
+        <v>245</v>
+      </c>
+      <c r="U195" s="1">
+        <v>999</v>
+      </c>
+      <c r="V195" t="s">
+        <v>4050</v>
+      </c>
+      <c r="W195" t="s">
+        <v>315</v>
+      </c>
+      <c r="X195" t="s">
+        <v>4094</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>4095</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>4096</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>3512</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>4097</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>4098</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>4054</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>4099</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>4056</v>
+      </c>
+      <c r="AP195" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ195" t="s">
+        <v>4100</v>
+      </c>
+      <c r="AR195" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS195" t="s">
+        <v>4058</v>
+      </c>
+      <c r="AT195" t="s">
+        <v>4101</v>
+      </c>
+      <c r="AU195" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV195" t="s">
+        <v>3958</v>
+      </c>
+      <c r="AW195" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX195" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY195" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ195" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA195" s="1" t="s">
+        <v>4102</v>
       </c>
     </row>
     <row r="196" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
+      <c r="B196" s="2">
+        <v>44797</v>
+      </c>
       <c r="C196" t="s">
         <v>54</v>
       </c>
+      <c r="D196" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E196">
+        <v>14</v>
+      </c>
+      <c r="F196">
+        <v>17</v>
+      </c>
       <c r="G196" t="s">
         <v>2718</v>
+      </c>
+      <c r="H196" t="s">
+        <v>213</v>
+      </c>
+      <c r="I196" t="s">
+        <v>4103</v>
+      </c>
+      <c r="J196" t="s">
+        <v>4104</v>
+      </c>
+      <c r="K196" t="s">
+        <v>4091</v>
+      </c>
+      <c r="L196" t="s">
+        <v>4105</v>
+      </c>
+      <c r="M196">
+        <v>999</v>
+      </c>
+      <c r="N196" t="s">
+        <v>102</v>
+      </c>
+      <c r="O196" t="s">
+        <v>103</v>
+      </c>
+      <c r="P196" t="s">
+        <v>4106</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R196">
+        <v>999</v>
+      </c>
+      <c r="S196">
+        <v>999</v>
+      </c>
+      <c r="T196" t="s">
+        <v>142</v>
+      </c>
+      <c r="U196" s="1">
+        <v>999</v>
+      </c>
+      <c r="V196" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W196" t="s">
+        <v>315</v>
+      </c>
+      <c r="X196" t="s">
+        <v>4107</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>4108</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>4109</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>3922</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>4110</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP196" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ196" t="s">
+        <v>3833</v>
+      </c>
+      <c r="AR196" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS196" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AT196" s="21" t="s">
+        <v>4111</v>
+      </c>
+      <c r="AU196" t="s">
+        <v>4112</v>
+      </c>
+      <c r="AV196" t="s">
+        <v>4113</v>
+      </c>
+      <c r="AW196" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX196" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY196" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ196" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA196" s="1" t="s">
+        <v>2386</v>
       </c>
     </row>
     <row r="197" spans="1:53" x14ac:dyDescent="0.25">
@@ -44603,10 +45219,10 @@
         <v>2761</v>
       </c>
       <c r="K197" t="s">
-        <v>4063</v>
+        <v>4060</v>
       </c>
       <c r="L197" t="s">
-        <v>4064</v>
+        <v>4061</v>
       </c>
       <c r="M197">
         <v>999</v>
@@ -44618,7 +45234,7 @@
         <v>103</v>
       </c>
       <c r="P197" t="s">
-        <v>4065</v>
+        <v>4062</v>
       </c>
       <c r="Q197" t="s">
         <v>2016</v>
@@ -44645,7 +45261,7 @@
         <v>275</v>
       </c>
       <c r="Y197" t="s">
-        <v>4066</v>
+        <v>4063</v>
       </c>
       <c r="Z197" t="s">
         <v>277</v>
@@ -44657,7 +45273,7 @@
         <v>321</v>
       </c>
       <c r="AC197" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="AD197" t="s">
         <v>281</v>
@@ -44666,10 +45282,10 @@
         <v>324</v>
       </c>
       <c r="AF197" t="s">
-        <v>4067</v>
+        <v>4064</v>
       </c>
       <c r="AG197" t="s">
-        <v>4068</v>
+        <v>4065</v>
       </c>
       <c r="AH197" t="s">
         <v>155</v>
@@ -44681,7 +45297,7 @@
         <v>385</v>
       </c>
       <c r="AK197" t="s">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="AL197" t="s">
         <v>1238</v>
@@ -44699,7 +45315,7 @@
         <v>293</v>
       </c>
       <c r="AQ197" t="s">
-        <v>4070</v>
+        <v>4067</v>
       </c>
       <c r="AR197" t="s">
         <v>295</v>
@@ -44717,19 +45333,19 @@
         <v>1835</v>
       </c>
       <c r="AW197" t="s">
-        <v>4071</v>
+        <v>4068</v>
       </c>
       <c r="AX197" t="s">
-        <v>4072</v>
+        <v>4069</v>
       </c>
       <c r="AY197" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ197" s="19" t="s">
+      <c r="AZ197" t="s">
         <v>303</v>
       </c>
       <c r="BA197" s="1" t="s">
-        <v>4073</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="198" spans="1:53" x14ac:dyDescent="0.25">
@@ -44761,16 +45377,16 @@
         <v>310</v>
       </c>
       <c r="J198" t="s">
+        <v>4072</v>
+      </c>
+      <c r="K198" t="s">
+        <v>4073</v>
+      </c>
+      <c r="L198" t="s">
+        <v>4074</v>
+      </c>
+      <c r="M198" t="s">
         <v>4075</v>
-      </c>
-      <c r="K198" t="s">
-        <v>4076</v>
-      </c>
-      <c r="L198" t="s">
-        <v>4077</v>
-      </c>
-      <c r="M198" t="s">
-        <v>4078</v>
       </c>
       <c r="N198" t="s">
         <v>102</v>
@@ -44779,7 +45395,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>4079</v>
+        <v>4076</v>
       </c>
       <c r="Q198" t="s">
         <v>2105</v>
@@ -44794,13 +45410,13 @@
         <v>3529</v>
       </c>
       <c r="U198" s="16" t="s">
-        <v>4080</v>
+        <v>4077</v>
       </c>
       <c r="V198" t="s">
-        <v>4081</v>
+        <v>4078</v>
       </c>
       <c r="W198" t="s">
-        <v>4082</v>
+        <v>4079</v>
       </c>
       <c r="X198" t="s">
         <v>275</v>
@@ -44824,13 +45440,13 @@
         <v>1039</v>
       </c>
       <c r="AE198" t="s">
-        <v>4083</v>
+        <v>4080</v>
       </c>
       <c r="AF198" t="s">
-        <v>4085</v>
+        <v>4082</v>
       </c>
       <c r="AG198" t="s">
-        <v>4084</v>
+        <v>4081</v>
       </c>
       <c r="AH198" t="s">
         <v>1344</v>
@@ -44839,13 +45455,13 @@
         <v>286</v>
       </c>
       <c r="AJ198" t="s">
-        <v>4086</v>
+        <v>4083</v>
       </c>
       <c r="AK198" t="s">
-        <v>4087</v>
+        <v>4084</v>
       </c>
       <c r="AL198" t="s">
-        <v>4088</v>
+        <v>4085</v>
       </c>
       <c r="AM198" t="s">
         <v>830</v>
@@ -44860,22 +45476,22 @@
         <v>293</v>
       </c>
       <c r="AQ198" t="s">
-        <v>4089</v>
+        <v>4086</v>
       </c>
       <c r="AR198" t="s">
         <v>295</v>
       </c>
       <c r="AS198" t="s">
-        <v>4090</v>
+        <v>4087</v>
       </c>
       <c r="AT198" t="s">
-        <v>4091</v>
+        <v>4088</v>
       </c>
       <c r="AU198" t="s">
         <v>298</v>
       </c>
       <c r="AV198" t="s">
-        <v>4092</v>
+        <v>4089</v>
       </c>
       <c r="AW198" t="s">
         <v>394</v>
@@ -44886,8 +45502,8 @@
       <c r="AY198" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="AZ198" s="19" t="s">
-        <v>4074</v>
+      <c r="AZ198" t="s">
+        <v>4071</v>
       </c>
       <c r="BA198" s="1" t="s">
         <v>302</v>
@@ -44897,55 +45513,805 @@
       <c r="A199">
         <v>198</v>
       </c>
+      <c r="B199" s="2">
+        <v>44797</v>
+      </c>
       <c r="C199" t="s">
         <v>54</v>
       </c>
+      <c r="D199" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
       <c r="G199" t="s">
         <v>2721</v>
+      </c>
+      <c r="H199" t="s">
+        <v>213</v>
+      </c>
+      <c r="I199" t="s">
+        <v>816</v>
+      </c>
+      <c r="J199" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K199" t="s">
+        <v>4073</v>
+      </c>
+      <c r="L199" t="s">
+        <v>4074</v>
+      </c>
+      <c r="M199">
+        <v>999</v>
+      </c>
+      <c r="N199" t="s">
+        <v>102</v>
+      </c>
+      <c r="O199" t="s">
+        <v>103</v>
+      </c>
+      <c r="P199" t="s">
+        <v>4172</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>4093</v>
+      </c>
+      <c r="R199">
+        <v>999</v>
+      </c>
+      <c r="S199">
+        <v>999</v>
+      </c>
+      <c r="T199" t="s">
+        <v>245</v>
+      </c>
+      <c r="U199" s="1">
+        <v>999</v>
+      </c>
+      <c r="V199" t="s">
+        <v>4114</v>
+      </c>
+      <c r="W199" t="s">
+        <v>315</v>
+      </c>
+      <c r="X199" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>4115</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>4116</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>4009</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>4117</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK199" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN199" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>3971</v>
+      </c>
+      <c r="AP199" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ199" t="s">
+        <v>4118</v>
+      </c>
+      <c r="AR199" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AT199" t="s">
+        <v>4119</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV199" t="s">
+        <v>4120</v>
+      </c>
+      <c r="AW199" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX199" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY199" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ199" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA199" s="1" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="200" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
+      <c r="B200" s="2">
+        <v>44797</v>
+      </c>
       <c r="C200" t="s">
         <v>54</v>
       </c>
+      <c r="D200" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E200">
+        <v>15</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
       <c r="G200" t="s">
         <v>2722</v>
+      </c>
+      <c r="H200" t="s">
+        <v>213</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J200" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K200" t="s">
+        <v>4121</v>
+      </c>
+      <c r="L200" t="s">
+        <v>4122</v>
+      </c>
+      <c r="M200">
+        <v>999</v>
+      </c>
+      <c r="N200" t="s">
+        <v>102</v>
+      </c>
+      <c r="O200" t="s">
+        <v>103</v>
+      </c>
+      <c r="P200" t="s">
+        <v>4123</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>4124</v>
+      </c>
+      <c r="R200" t="s">
+        <v>4125</v>
+      </c>
+      <c r="S200" t="s">
+        <v>61</v>
+      </c>
+      <c r="T200" t="s">
+        <v>142</v>
+      </c>
+      <c r="U200" s="1">
+        <v>999</v>
+      </c>
+      <c r="V200" s="20" t="s">
+        <v>4126</v>
+      </c>
+      <c r="W200" s="20" t="s">
+        <v>4127</v>
+      </c>
+      <c r="X200" s="20" t="s">
+        <v>4128</v>
+      </c>
+      <c r="Y200" s="20" t="s">
+        <v>4129</v>
+      </c>
+      <c r="Z200" s="20" t="s">
+        <v>4130</v>
+      </c>
+      <c r="AA200" s="20" t="s">
+        <v>4131</v>
+      </c>
+      <c r="AB200" s="20" t="s">
+        <v>4132</v>
+      </c>
+      <c r="AC200" s="20" t="s">
+        <v>4133</v>
+      </c>
+      <c r="AD200" s="20" t="s">
+        <v>4134</v>
+      </c>
+      <c r="AE200" s="20" t="s">
+        <v>4135</v>
+      </c>
+      <c r="AF200" s="20" t="s">
+        <v>4136</v>
+      </c>
+      <c r="AG200" s="20" t="s">
+        <v>4137</v>
+      </c>
+      <c r="AH200" s="20" t="s">
+        <v>4138</v>
+      </c>
+      <c r="AI200" s="20" t="s">
+        <v>4139</v>
+      </c>
+      <c r="AJ200" s="20" t="s">
+        <v>4140</v>
+      </c>
+      <c r="AK200" s="20" t="s">
+        <v>4141</v>
+      </c>
+      <c r="AL200" s="20" t="s">
+        <v>4142</v>
+      </c>
+      <c r="AM200" s="20" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AN200" s="20" t="s">
+        <v>4143</v>
+      </c>
+      <c r="AO200" s="20" t="s">
+        <v>4144</v>
+      </c>
+      <c r="AP200" s="20" t="s">
+        <v>4145</v>
+      </c>
+      <c r="AQ200" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR200" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AS200" s="20" t="s">
+        <v>4146</v>
+      </c>
+      <c r="AT200" s="20" t="s">
+        <v>4147</v>
+      </c>
+      <c r="AU200" s="20" t="s">
+        <v>4148</v>
+      </c>
+      <c r="AV200" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="AW200" s="20" t="s">
+        <v>4149</v>
+      </c>
+      <c r="AX200" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY200" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="AZ200" t="s">
+        <v>1798</v>
+      </c>
+      <c r="BA200" s="1" t="s">
+        <v>4151</v>
       </c>
     </row>
     <row r="201" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
+      <c r="B201" s="2">
+        <v>44797</v>
+      </c>
       <c r="C201" t="s">
         <v>54</v>
       </c>
+      <c r="D201" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
       <c r="G201" t="s">
         <v>2723</v>
+      </c>
+      <c r="H201" t="s">
+        <v>213</v>
+      </c>
+      <c r="I201" t="s">
+        <v>816</v>
+      </c>
+      <c r="J201" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K201" t="s">
+        <v>4152</v>
+      </c>
+      <c r="L201" t="s">
+        <v>4153</v>
+      </c>
+      <c r="M201">
+        <v>999</v>
+      </c>
+      <c r="N201" t="s">
+        <v>102</v>
+      </c>
+      <c r="O201" t="s">
+        <v>103</v>
+      </c>
+      <c r="P201" t="s">
+        <v>4154</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>4182</v>
+      </c>
+      <c r="R201" t="s">
+        <v>4181</v>
+      </c>
+      <c r="S201">
+        <v>999</v>
+      </c>
+      <c r="T201" t="s">
+        <v>64</v>
+      </c>
+      <c r="U201" s="1">
+        <v>999</v>
+      </c>
+      <c r="V201" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W201" s="20" t="s">
+        <v>4155</v>
+      </c>
+      <c r="X201" s="20" t="s">
+        <v>4156</v>
+      </c>
+      <c r="Y201" s="20" t="s">
+        <v>4186</v>
+      </c>
+      <c r="Z201" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA201" s="20" t="s">
+        <v>4157</v>
+      </c>
+      <c r="AB201" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC201" s="20" t="s">
+        <v>4159</v>
+      </c>
+      <c r="AD201" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE201" s="20" t="s">
+        <v>4158</v>
+      </c>
+      <c r="AF201" s="20" t="s">
+        <v>3036</v>
+      </c>
+      <c r="AG201" s="20" t="s">
+        <v>4160</v>
+      </c>
+      <c r="AH201" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI201" s="20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AJ201" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK201" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL201" s="20" t="s">
+        <v>4161</v>
+      </c>
+      <c r="AM201" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN201" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO201" s="20" t="s">
+        <v>4162</v>
+      </c>
+      <c r="AP201" s="20" t="s">
+        <v>4163</v>
+      </c>
+      <c r="AQ201" s="20" t="s">
+        <v>4164</v>
+      </c>
+      <c r="AR201" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS201" s="20" t="s">
+        <v>4165</v>
+      </c>
+      <c r="AT201" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU201" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV201" s="20" t="s">
+        <v>4166</v>
+      </c>
+      <c r="AW201" s="20" t="s">
+        <v>4167</v>
+      </c>
+      <c r="AX201" s="20" t="s">
+        <v>4168</v>
+      </c>
+      <c r="AY201" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ201" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA201" s="1" t="s">
+        <v>4169</v>
       </c>
     </row>
     <row r="202" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
+      <c r="B202" s="2">
+        <v>44797</v>
+      </c>
       <c r="C202" t="s">
         <v>54</v>
       </c>
+      <c r="D202" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
       <c r="G202" t="s">
         <v>2724</v>
+      </c>
+      <c r="H202" t="s">
+        <v>213</v>
+      </c>
+      <c r="I202" t="s">
+        <v>4170</v>
+      </c>
+      <c r="J202" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K202" t="s">
+        <v>4171</v>
+      </c>
+      <c r="L202" t="s">
+        <v>4174</v>
+      </c>
+      <c r="M202" t="s">
+        <v>4122</v>
+      </c>
+      <c r="N202" t="s">
+        <v>4175</v>
+      </c>
+      <c r="O202" t="s">
+        <v>103</v>
+      </c>
+      <c r="P202" t="s">
+        <v>4173</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>4093</v>
+      </c>
+      <c r="R202">
+        <v>999</v>
+      </c>
+      <c r="S202">
+        <v>999</v>
+      </c>
+      <c r="T202" t="s">
+        <v>245</v>
+      </c>
+      <c r="U202" s="1">
+        <v>999</v>
+      </c>
+      <c r="V202" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="W202" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="X202" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y202" s="20" t="s">
+        <v>4176</v>
+      </c>
+      <c r="Z202" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA202" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB202" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC202" s="20" t="s">
+        <v>4177</v>
+      </c>
+      <c r="AD202" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE202" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF202" s="20" t="s">
+        <v>4009</v>
+      </c>
+      <c r="AG202" s="20" t="s">
+        <v>4117</v>
+      </c>
+      <c r="AH202" s="20" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AI202" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AJ202" s="20" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK202" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL202" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM202" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN202" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO202" s="20" t="s">
+        <v>3971</v>
+      </c>
+      <c r="AP202" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ202" s="20" t="s">
+        <v>4118</v>
+      </c>
+      <c r="AR202" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS202" s="20" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AT202" s="20" t="s">
+        <v>4119</v>
+      </c>
+      <c r="AU202" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV202" s="20" t="s">
+        <v>4120</v>
+      </c>
+      <c r="AW202" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX202" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY202" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ202" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA202" s="1" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="203" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
+      <c r="B203" s="2">
+        <v>44797</v>
+      </c>
       <c r="C203" t="s">
         <v>54</v>
       </c>
+      <c r="D203" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
       <c r="G203" t="s">
         <v>2725</v>
+      </c>
+      <c r="H203" t="s">
+        <v>97</v>
+      </c>
+      <c r="I203" t="s">
+        <v>310</v>
+      </c>
+      <c r="J203" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K203" t="s">
+        <v>4178</v>
+      </c>
+      <c r="L203" t="s">
+        <v>4179</v>
+      </c>
+      <c r="M203">
+        <v>999</v>
+      </c>
+      <c r="N203" t="s">
+        <v>102</v>
+      </c>
+      <c r="O203" t="s">
+        <v>103</v>
+      </c>
+      <c r="P203" t="s">
+        <v>4180</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>4182</v>
+      </c>
+      <c r="R203" t="s">
+        <v>4183</v>
+      </c>
+      <c r="S203">
+        <v>999</v>
+      </c>
+      <c r="T203" t="s">
+        <v>64</v>
+      </c>
+      <c r="U203" s="1">
+        <v>999</v>
+      </c>
+      <c r="V203" s="20" t="s">
+        <v>4184</v>
+      </c>
+      <c r="W203" s="20" t="s">
+        <v>4185</v>
+      </c>
+      <c r="X203" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y203" s="20" t="s">
+        <v>4187</v>
+      </c>
+      <c r="Z203">
+        <v>999</v>
+      </c>
+      <c r="AA203">
+        <v>999</v>
+      </c>
+      <c r="AB203" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC203" s="20" t="s">
+        <v>4188</v>
+      </c>
+      <c r="AD203" s="20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AE203" s="20" t="s">
+        <v>4158</v>
+      </c>
+      <c r="AF203" s="20" t="s">
+        <v>4189</v>
+      </c>
+      <c r="AG203" s="20" t="s">
+        <v>4190</v>
+      </c>
+      <c r="AH203" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI203" s="20" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ203" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK203" s="20" t="s">
+        <v>3499</v>
+      </c>
+      <c r="AL203" s="20" t="s">
+        <v>4191</v>
+      </c>
+      <c r="AM203" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN203" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO203" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP203" s="20" t="s">
+        <v>4192</v>
+      </c>
+      <c r="AQ203">
+        <v>999</v>
+      </c>
+      <c r="AR203" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS203" s="20" t="s">
+        <v>4193</v>
+      </c>
+      <c r="AT203" s="20" t="s">
+        <v>4194</v>
+      </c>
+      <c r="AU203" s="20" t="s">
+        <v>4195</v>
+      </c>
+      <c r="AV203" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW203" s="20" t="s">
+        <v>4196</v>
+      </c>
+      <c r="AX203" s="20" t="s">
+        <v>4197</v>
+      </c>
+      <c r="AY203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ203" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA203" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:53" x14ac:dyDescent="0.25">
@@ -45334,9 +46700,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
-        <v>0.86805555555555547</v>
-      </c>
+      <c r="A1" s="9"/>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B654C721-F1C1-4F7C-8AA3-F35CF3CF193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2073F-EAA1-43A7-BB04-058049D5A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="0" windowWidth="12660" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="13464" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8978" uniqueCount="4198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9321" uniqueCount="4295">
   <si>
     <t>ID</t>
   </si>
@@ -13857,6 +13857,318 @@
   </si>
   <si>
     <t>zwei[a]</t>
+  </si>
+  <si>
+    <t>u-y</t>
+  </si>
+  <si>
+    <t>Rotzingen</t>
+  </si>
+  <si>
+    <t>Alfred Eckert</t>
+  </si>
+  <si>
+    <t>Boxtal am Main</t>
+  </si>
+  <si>
+    <t>Bãramsel (w)</t>
+  </si>
+  <si>
+    <t>Fliēge (w)</t>
+  </si>
+  <si>
+    <t>Beerdigung (w) {kein Standard Zeichen über u}</t>
+  </si>
+  <si>
+    <t>Gŭgŭmmere</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hüenli (s)</t>
+  </si>
+  <si>
+    <t>Schärmus {könnte auch Schārmus sein}</t>
+  </si>
+  <si>
+    <t>G[ä]le Rübe (w) {könnte auch ë sein}</t>
+  </si>
+  <si>
+    <t>Mohr (m)</t>
+  </si>
+  <si>
+    <t>Krŭselbeere (w)</t>
+  </si>
+  <si>
+    <t>Holda (m)</t>
+  </si>
+  <si>
+    <t>u-ya</t>
+  </si>
+  <si>
+    <t>Hartschwand</t>
+  </si>
+  <si>
+    <t>vergrabe, Beerdigung (w)</t>
+  </si>
+  <si>
+    <t>Bormbeeri (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Die</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sle (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fledermŭs (w)</t>
+  </si>
+  <si>
+    <t>Gückel, Hüenli (s)</t>
+  </si>
+  <si>
+    <t>Sche[?]mŭs (w) &lt;Scheeamŭs&gt; {der Vokal im 1. Wort scheint durchgestrichen}</t>
+  </si>
+  <si>
+    <t>Gäle Rübe (w)</t>
+  </si>
+  <si>
+    <t>brŭmmle</t>
+  </si>
+  <si>
+    <t>Schŭsseli (s)</t>
+  </si>
+  <si>
+    <t>u-z</t>
+  </si>
+  <si>
+    <t>Wilfingen</t>
+  </si>
+  <si>
+    <t>R. Kölling</t>
+  </si>
+  <si>
+    <t>Boramsle</t>
+  </si>
+  <si>
+    <t>Liicht (d')</t>
+  </si>
+  <si>
+    <t>Ägeschde</t>
+  </si>
+  <si>
+    <t>Fleddrmuus</t>
+  </si>
+  <si>
+    <t>Fliige</t>
+  </si>
+  <si>
+    <t>Gūrge</t>
+  </si>
+  <si>
+    <t>Gückl, Hūn</t>
+  </si>
+  <si>
+    <t>Häbamd</t>
+  </si>
+  <si>
+    <t>Mohrrüebe</t>
+  </si>
+  <si>
+    <t>shülte</t>
+  </si>
+  <si>
+    <t>Spätzli</t>
+  </si>
+  <si>
+    <t>Stächelbeeri</t>
+  </si>
+  <si>
+    <t>u-[A] {könnte auch Fl sein}</t>
+  </si>
+  <si>
+    <t>Hierbach</t>
+  </si>
+  <si>
+    <t>Eru[hd] Hufl</t>
+  </si>
+  <si>
+    <t>[We]hl[??]ür[e?]/Stockach</t>
+  </si>
+  <si>
+    <t>Boramsla</t>
+  </si>
+  <si>
+    <t>Diechsla</t>
+  </si>
+  <si>
+    <t>Ägeschda</t>
+  </si>
+  <si>
+    <t>Flüga</t>
+  </si>
+  <si>
+    <t>Guckummera</t>
+  </si>
+  <si>
+    <t>Hagebutza</t>
+  </si>
+  <si>
+    <t>Hebamd</t>
+  </si>
+  <si>
+    <t>Geelrüeba</t>
+  </si>
+  <si>
+    <t>u-B</t>
+  </si>
+  <si>
+    <t>Wolpadingen</t>
+  </si>
+  <si>
+    <t>Joself [K]eller</t>
+  </si>
+  <si>
+    <t>Meßkirch</t>
+  </si>
+  <si>
+    <t>Beromsle (w)</t>
+  </si>
+  <si>
+    <t>Diechtsle (w)</t>
+  </si>
+  <si>
+    <t>Gurke (w)</t>
+  </si>
+  <si>
+    <t>Gehlrübe (w)</t>
+  </si>
+  <si>
+    <t>Götte (m)</t>
+  </si>
+  <si>
+    <t>Glüfeli (s)</t>
+  </si>
+  <si>
+    <t>h-R</t>
+  </si>
+  <si>
+    <t>Hürrlingen</t>
+  </si>
+  <si>
+    <t>Wilh. Schrott</t>
+  </si>
+  <si>
+    <t>Wurmeisle</t>
+  </si>
+  <si>
+    <t>Liiecht</t>
+  </si>
+  <si>
+    <t>Diechsel</t>
+  </si>
+  <si>
+    <t>Totenvogel</t>
+  </si>
+  <si>
+    <t>Flüge</t>
+  </si>
+  <si>
+    <t>Gückel</t>
+  </si>
+  <si>
+    <t>Katzerölli</t>
+  </si>
+  <si>
+    <t>Schermuus</t>
+  </si>
+  <si>
+    <t>Grutzele</t>
+  </si>
+  <si>
+    <t>Schüsseli, Tellerli</t>
+  </si>
+  <si>
+    <t>h-S</t>
+  </si>
+  <si>
+    <t>Riedern</t>
+  </si>
+  <si>
+    <t>a. Wald</t>
+  </si>
+  <si>
+    <t>Licht, Liicht</t>
+  </si>
+  <si>
+    <t>Katzrölli</t>
+  </si>
+  <si>
+    <t>Schüssele, Tellerle</t>
+  </si>
+  <si>
+    <t>u-[E]</t>
+  </si>
+  <si>
+    <t>Fröhnd</t>
+  </si>
+  <si>
+    <t>Baden &lt;Süd&gt;</t>
+  </si>
+  <si>
+    <t>Spiegelhalter, Osk.</t>
+  </si>
+  <si>
+    <t>Maesteg &lt;English&gt; {Wales}</t>
+  </si>
+  <si>
+    <t>Bohramsel (w)</t>
+  </si>
+  <si>
+    <t>Ägester (w)</t>
+  </si>
+  <si>
+    <t>Öhmd, Ähmd (s)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hue (s)</t>
+  </si>
+  <si>
+    <t>Hebant (w)</t>
+  </si>
+  <si>
+    <t>Gälrübe (w)</t>
+  </si>
+  <si>
+    <t>Gaißle (s)</t>
+  </si>
+  <si>
+    <t>schelten, werchen</t>
+  </si>
+  <si>
+    <t>Stachelbeer, Gruselbeer (w)</t>
+  </si>
+  <si>
+    <t>Stöcknadel (w)</t>
+  </si>
+  <si>
+    <t>zweie, zweigen</t>
   </si>
 </sst>
 </file>
@@ -14020,7 +14332,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -14040,8 +14352,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -14363,8 +14673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS197" sqref="AS197"/>
+    <sheetView tabSelected="1" topLeftCell="AR187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA209" sqref="BA209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -44753,7 +45063,7 @@
       <c r="P194" t="s">
         <v>4173</v>
       </c>
-      <c r="Q194" s="19" t="s">
+      <c r="Q194" t="s">
         <v>4093</v>
       </c>
       <c r="R194">
@@ -45019,7 +45329,7 @@
       <c r="AY195" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ195" s="20" t="s">
+      <c r="AZ195" t="s">
         <v>303</v>
       </c>
       <c r="BA195" s="1" t="s">
@@ -45162,7 +45472,7 @@
       <c r="AS196" t="s">
         <v>1834</v>
       </c>
-      <c r="AT196" s="21" t="s">
+      <c r="AT196" s="19" t="s">
         <v>4111</v>
       </c>
       <c r="AU196" t="s">
@@ -45180,7 +45490,7 @@
       <c r="AY196" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ196" s="20" t="s">
+      <c r="AZ196" t="s">
         <v>303</v>
       </c>
       <c r="BA196" s="1" t="s">
@@ -45734,91 +46044,91 @@
       <c r="U200" s="1">
         <v>999</v>
       </c>
-      <c r="V200" s="20" t="s">
+      <c r="V200" t="s">
         <v>4126</v>
       </c>
-      <c r="W200" s="20" t="s">
+      <c r="W200" t="s">
         <v>4127</v>
       </c>
-      <c r="X200" s="20" t="s">
+      <c r="X200" t="s">
         <v>4128</v>
       </c>
-      <c r="Y200" s="20" t="s">
+      <c r="Y200" t="s">
         <v>4129</v>
       </c>
-      <c r="Z200" s="20" t="s">
+      <c r="Z200" t="s">
         <v>4130</v>
       </c>
-      <c r="AA200" s="20" t="s">
+      <c r="AA200" t="s">
         <v>4131</v>
       </c>
-      <c r="AB200" s="20" t="s">
+      <c r="AB200" t="s">
         <v>4132</v>
       </c>
-      <c r="AC200" s="20" t="s">
+      <c r="AC200" t="s">
         <v>4133</v>
       </c>
-      <c r="AD200" s="20" t="s">
+      <c r="AD200" t="s">
         <v>4134</v>
       </c>
-      <c r="AE200" s="20" t="s">
+      <c r="AE200" t="s">
         <v>4135</v>
       </c>
-      <c r="AF200" s="20" t="s">
+      <c r="AF200" t="s">
         <v>4136</v>
       </c>
-      <c r="AG200" s="20" t="s">
+      <c r="AG200" t="s">
         <v>4137</v>
       </c>
-      <c r="AH200" s="20" t="s">
+      <c r="AH200" t="s">
         <v>4138</v>
       </c>
-      <c r="AI200" s="20" t="s">
+      <c r="AI200" t="s">
         <v>4139</v>
       </c>
-      <c r="AJ200" s="20" t="s">
+      <c r="AJ200" t="s">
         <v>4140</v>
       </c>
-      <c r="AK200" s="20" t="s">
+      <c r="AK200" t="s">
         <v>4141</v>
       </c>
-      <c r="AL200" s="20" t="s">
+      <c r="AL200" t="s">
         <v>4142</v>
       </c>
-      <c r="AM200" s="20" t="s">
+      <c r="AM200" t="s">
         <v>1789</v>
       </c>
-      <c r="AN200" s="20" t="s">
+      <c r="AN200" t="s">
         <v>4143</v>
       </c>
-      <c r="AO200" s="20" t="s">
+      <c r="AO200" t="s">
         <v>4144</v>
       </c>
-      <c r="AP200" s="20" t="s">
+      <c r="AP200" t="s">
         <v>4145</v>
       </c>
-      <c r="AQ200" s="20" t="s">
+      <c r="AQ200" t="s">
         <v>260</v>
       </c>
-      <c r="AR200" s="20" t="s">
+      <c r="AR200" t="s">
         <v>1792</v>
       </c>
-      <c r="AS200" s="20" t="s">
+      <c r="AS200" t="s">
         <v>4146</v>
       </c>
-      <c r="AT200" s="20" t="s">
+      <c r="AT200" t="s">
         <v>4147</v>
       </c>
-      <c r="AU200" s="20" t="s">
+      <c r="AU200" t="s">
         <v>4148</v>
       </c>
-      <c r="AV200" s="20" t="s">
+      <c r="AV200" t="s">
         <v>445</v>
       </c>
-      <c r="AW200" s="20" t="s">
+      <c r="AW200" t="s">
         <v>4149</v>
       </c>
-      <c r="AX200" s="20" t="s">
+      <c r="AX200" t="s">
         <v>208</v>
       </c>
       <c r="AY200" s="1" t="s">
@@ -45895,91 +46205,91 @@
       <c r="U201" s="1">
         <v>999</v>
       </c>
-      <c r="V201" s="20" t="s">
+      <c r="V201" t="s">
         <v>1336</v>
       </c>
-      <c r="W201" s="20" t="s">
+      <c r="W201" t="s">
         <v>4155</v>
       </c>
-      <c r="X201" s="20" t="s">
+      <c r="X201" t="s">
         <v>4156</v>
       </c>
-      <c r="Y201" s="20" t="s">
+      <c r="Y201" t="s">
         <v>4186</v>
       </c>
-      <c r="Z201" s="20" t="s">
+      <c r="Z201" t="s">
         <v>1357</v>
       </c>
-      <c r="AA201" s="20" t="s">
+      <c r="AA201" t="s">
         <v>4157</v>
       </c>
-      <c r="AB201" s="20" t="s">
+      <c r="AB201" t="s">
         <v>590</v>
       </c>
-      <c r="AC201" s="20" t="s">
+      <c r="AC201" t="s">
         <v>4159</v>
       </c>
-      <c r="AD201" s="20" t="s">
+      <c r="AD201" t="s">
         <v>189</v>
       </c>
-      <c r="AE201" s="20" t="s">
+      <c r="AE201" t="s">
         <v>4158</v>
       </c>
-      <c r="AF201" s="20" t="s">
+      <c r="AF201" t="s">
         <v>3036</v>
       </c>
-      <c r="AG201" s="20" t="s">
+      <c r="AG201" t="s">
         <v>4160</v>
       </c>
-      <c r="AH201" s="20" t="s">
+      <c r="AH201" t="s">
         <v>155</v>
       </c>
-      <c r="AI201" s="20" t="s">
+      <c r="AI201" t="s">
         <v>2071</v>
       </c>
-      <c r="AJ201" s="20" t="s">
+      <c r="AJ201" t="s">
         <v>385</v>
       </c>
-      <c r="AK201" s="20" t="s">
+      <c r="AK201" t="s">
         <v>329</v>
       </c>
-      <c r="AL201" s="20" t="s">
+      <c r="AL201" t="s">
         <v>4161</v>
       </c>
-      <c r="AM201" s="20" t="s">
+      <c r="AM201" t="s">
         <v>121</v>
       </c>
-      <c r="AN201" s="20" t="s">
+      <c r="AN201" t="s">
         <v>831</v>
       </c>
-      <c r="AO201" s="20" t="s">
+      <c r="AO201" t="s">
         <v>4162</v>
       </c>
-      <c r="AP201" s="20" t="s">
+      <c r="AP201" t="s">
         <v>4163</v>
       </c>
-      <c r="AQ201" s="20" t="s">
+      <c r="AQ201" t="s">
         <v>4164</v>
       </c>
-      <c r="AR201" s="20" t="s">
+      <c r="AR201" t="s">
         <v>295</v>
       </c>
-      <c r="AS201" s="20" t="s">
+      <c r="AS201" t="s">
         <v>4165</v>
       </c>
-      <c r="AT201" s="20" t="s">
+      <c r="AT201" t="s">
         <v>335</v>
       </c>
-      <c r="AU201" s="20" t="s">
+      <c r="AU201" t="s">
         <v>605</v>
       </c>
-      <c r="AV201" s="20" t="s">
+      <c r="AV201" t="s">
         <v>4166</v>
       </c>
-      <c r="AW201" s="20" t="s">
+      <c r="AW201" t="s">
         <v>4167</v>
       </c>
-      <c r="AX201" s="20" t="s">
+      <c r="AX201" t="s">
         <v>4168</v>
       </c>
       <c r="AY201" s="1" t="s">
@@ -46056,91 +46366,91 @@
       <c r="U202" s="1">
         <v>999</v>
       </c>
-      <c r="V202" s="20" t="s">
+      <c r="V202" t="s">
         <v>273</v>
       </c>
-      <c r="W202" s="20" t="s">
+      <c r="W202" t="s">
         <v>315</v>
       </c>
-      <c r="X202" s="20" t="s">
+      <c r="X202" t="s">
         <v>275</v>
       </c>
-      <c r="Y202" s="20" t="s">
+      <c r="Y202" t="s">
         <v>4176</v>
       </c>
-      <c r="Z202" s="20" t="s">
+      <c r="Z202" t="s">
         <v>277</v>
       </c>
-      <c r="AA202" s="20" t="s">
+      <c r="AA202" t="s">
         <v>823</v>
       </c>
-      <c r="AB202" s="20" t="s">
+      <c r="AB202" t="s">
         <v>279</v>
       </c>
-      <c r="AC202" s="20" t="s">
+      <c r="AC202" t="s">
         <v>4177</v>
       </c>
-      <c r="AD202" s="20" t="s">
+      <c r="AD202" t="s">
         <v>281</v>
       </c>
-      <c r="AE202" s="20" t="s">
+      <c r="AE202" t="s">
         <v>324</v>
       </c>
-      <c r="AF202" s="20" t="s">
+      <c r="AF202" t="s">
         <v>4009</v>
       </c>
-      <c r="AG202" s="20" t="s">
+      <c r="AG202" t="s">
         <v>4117</v>
       </c>
-      <c r="AH202" s="20" t="s">
+      <c r="AH202" t="s">
         <v>3805</v>
       </c>
-      <c r="AI202" s="20" t="s">
+      <c r="AI202" t="s">
         <v>4053</v>
       </c>
-      <c r="AJ202" s="20" t="s">
+      <c r="AJ202" t="s">
         <v>1502</v>
       </c>
-      <c r="AK202" s="20" t="s">
+      <c r="AK202" t="s">
         <v>490</v>
       </c>
-      <c r="AL202" s="20" t="s">
+      <c r="AL202" t="s">
         <v>289</v>
       </c>
-      <c r="AM202" s="20" t="s">
+      <c r="AM202" t="s">
         <v>159</v>
       </c>
-      <c r="AN202" s="20" t="s">
+      <c r="AN202" t="s">
         <v>331</v>
       </c>
-      <c r="AO202" s="20" t="s">
+      <c r="AO202" t="s">
         <v>3971</v>
       </c>
-      <c r="AP202" s="20" t="s">
+      <c r="AP202" t="s">
         <v>293</v>
       </c>
-      <c r="AQ202" s="20" t="s">
+      <c r="AQ202" t="s">
         <v>4118</v>
       </c>
-      <c r="AR202" s="20" t="s">
+      <c r="AR202" t="s">
         <v>295</v>
       </c>
-      <c r="AS202" s="20" t="s">
+      <c r="AS202" t="s">
         <v>2114</v>
       </c>
-      <c r="AT202" s="20" t="s">
+      <c r="AT202" t="s">
         <v>4119</v>
       </c>
-      <c r="AU202" s="20" t="s">
+      <c r="AU202" t="s">
         <v>298</v>
       </c>
-      <c r="AV202" s="20" t="s">
+      <c r="AV202" t="s">
         <v>4120</v>
       </c>
-      <c r="AW202" s="20" t="s">
+      <c r="AW202" t="s">
         <v>394</v>
       </c>
-      <c r="AX202" s="20" t="s">
+      <c r="AX202" t="s">
         <v>208</v>
       </c>
       <c r="AY202" s="1" t="s">
@@ -46217,16 +46527,16 @@
       <c r="U203" s="1">
         <v>999</v>
       </c>
-      <c r="V203" s="20" t="s">
+      <c r="V203" t="s">
         <v>4184</v>
       </c>
-      <c r="W203" s="20" t="s">
+      <c r="W203" t="s">
         <v>4185</v>
       </c>
-      <c r="X203" s="20" t="s">
+      <c r="X203" t="s">
         <v>275</v>
       </c>
-      <c r="Y203" s="20" t="s">
+      <c r="Y203" t="s">
         <v>4187</v>
       </c>
       <c r="Z203">
@@ -46235,73 +46545,73 @@
       <c r="AA203">
         <v>999</v>
       </c>
-      <c r="AB203" s="20" t="s">
+      <c r="AB203" t="s">
         <v>279</v>
       </c>
-      <c r="AC203" s="20" t="s">
+      <c r="AC203" t="s">
         <v>4188</v>
       </c>
-      <c r="AD203" s="20" t="s">
+      <c r="AD203" t="s">
         <v>1256</v>
       </c>
-      <c r="AE203" s="20" t="s">
+      <c r="AE203" t="s">
         <v>4158</v>
       </c>
-      <c r="AF203" s="20" t="s">
+      <c r="AF203" t="s">
         <v>4189</v>
       </c>
-      <c r="AG203" s="20" t="s">
+      <c r="AG203" t="s">
         <v>4190</v>
       </c>
-      <c r="AH203" s="20" t="s">
+      <c r="AH203" t="s">
         <v>155</v>
       </c>
-      <c r="AI203" s="20" t="s">
+      <c r="AI203" t="s">
         <v>1582</v>
       </c>
-      <c r="AJ203" s="20" t="s">
+      <c r="AJ203" t="s">
         <v>118</v>
       </c>
-      <c r="AK203" s="20" t="s">
+      <c r="AK203" t="s">
         <v>3499</v>
       </c>
-      <c r="AL203" s="20" t="s">
+      <c r="AL203" t="s">
         <v>4191</v>
       </c>
-      <c r="AM203" s="20" t="s">
+      <c r="AM203" t="s">
         <v>121</v>
       </c>
-      <c r="AN203" s="20" t="s">
+      <c r="AN203" t="s">
         <v>198</v>
       </c>
-      <c r="AO203" s="20" t="s">
+      <c r="AO203" t="s">
         <v>234</v>
       </c>
-      <c r="AP203" s="20" t="s">
+      <c r="AP203" t="s">
         <v>4192</v>
       </c>
       <c r="AQ203">
         <v>999</v>
       </c>
-      <c r="AR203" s="20" t="s">
+      <c r="AR203" t="s">
         <v>202</v>
       </c>
-      <c r="AS203" s="20" t="s">
+      <c r="AS203" t="s">
         <v>4193</v>
       </c>
-      <c r="AT203" s="20" t="s">
+      <c r="AT203" t="s">
         <v>4194</v>
       </c>
-      <c r="AU203" s="20" t="s">
+      <c r="AU203" t="s">
         <v>4195</v>
       </c>
-      <c r="AV203" s="20" t="s">
+      <c r="AV203" t="s">
         <v>206</v>
       </c>
-      <c r="AW203" s="20" t="s">
+      <c r="AW203" t="s">
         <v>4196</v>
       </c>
-      <c r="AX203" s="20" t="s">
+      <c r="AX203" t="s">
         <v>4197</v>
       </c>
       <c r="AY203" s="1" t="s">
@@ -46318,69 +46628,966 @@
       <c r="A204">
         <v>203</v>
       </c>
+      <c r="B204" s="2">
+        <v>44799</v>
+      </c>
       <c r="C204" t="s">
         <v>54</v>
       </c>
+      <c r="D204" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E204">
+        <v>15</v>
+      </c>
+      <c r="F204">
+        <v>6</v>
+      </c>
       <c r="G204" t="s">
         <v>2726</v>
+      </c>
+      <c r="H204" t="s">
+        <v>97</v>
+      </c>
+      <c r="I204" t="s">
+        <v>310</v>
+      </c>
+      <c r="J204" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K204" t="s">
+        <v>4198</v>
+      </c>
+      <c r="L204" t="s">
+        <v>4199</v>
+      </c>
+      <c r="M204">
+        <v>999</v>
+      </c>
+      <c r="N204" t="s">
+        <v>102</v>
+      </c>
+      <c r="O204" t="s">
+        <v>103</v>
+      </c>
+      <c r="P204" t="s">
+        <v>4200</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>4201</v>
+      </c>
+      <c r="R204">
+        <v>999</v>
+      </c>
+      <c r="S204">
+        <v>999</v>
+      </c>
+      <c r="T204" t="s">
+        <v>64</v>
+      </c>
+      <c r="U204" s="1">
+        <v>999</v>
+      </c>
+      <c r="V204" t="s">
+        <v>4202</v>
+      </c>
+      <c r="W204" t="s">
+        <v>4204</v>
+      </c>
+      <c r="X204" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>3595</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>4203</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>4205</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>4206</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>4207</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>4208</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>4209</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AP204" t="s">
+        <v>3789</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AR204" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS204" t="s">
+        <v>4210</v>
+      </c>
+      <c r="AT204" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW204" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX204" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY204" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ204" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA204" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
+      <c r="B205" s="2">
+        <v>44799</v>
+      </c>
       <c r="C205" t="s">
         <v>54</v>
       </c>
+      <c r="D205" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E205">
+        <v>15</v>
+      </c>
+      <c r="F205">
+        <v>7</v>
+      </c>
       <c r="G205" t="s">
         <v>2727</v>
+      </c>
+      <c r="H205" t="s">
+        <v>97</v>
+      </c>
+      <c r="I205" t="s">
+        <v>310</v>
+      </c>
+      <c r="J205" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K205" t="s">
+        <v>4212</v>
+      </c>
+      <c r="L205" t="s">
+        <v>4213</v>
+      </c>
+      <c r="M205">
+        <v>999</v>
+      </c>
+      <c r="N205" t="s">
+        <v>102</v>
+      </c>
+      <c r="O205" t="s">
+        <v>103</v>
+      </c>
+      <c r="P205" t="s">
+        <v>4200</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>4201</v>
+      </c>
+      <c r="R205">
+        <v>999</v>
+      </c>
+      <c r="S205">
+        <v>999</v>
+      </c>
+      <c r="T205" t="s">
+        <v>64</v>
+      </c>
+      <c r="U205" s="1">
+        <v>999</v>
+      </c>
+      <c r="V205" t="s">
+        <v>273</v>
+      </c>
+      <c r="W205" t="s">
+        <v>4214</v>
+      </c>
+      <c r="X205" t="s">
+        <v>4215</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>4216</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>3595</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>4217</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>3782</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>4218</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>4219</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>4220</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>4209</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AP205" t="s">
+        <v>3789</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>4221</v>
+      </c>
+      <c r="AR205" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS205" t="s">
+        <v>4210</v>
+      </c>
+      <c r="AT205" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV205" t="s">
+        <v>4222</v>
+      </c>
+      <c r="AW205" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX205" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY205" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ205" t="s">
+        <v>4211</v>
+      </c>
+      <c r="BA205" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
+      <c r="B206" s="2">
+        <v>44799</v>
+      </c>
       <c r="C206" t="s">
         <v>54</v>
       </c>
+      <c r="D206" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E206">
+        <v>15</v>
+      </c>
+      <c r="F206">
+        <v>8</v>
+      </c>
       <c r="G206" t="s">
         <v>2728</v>
+      </c>
+      <c r="H206" t="s">
+        <v>213</v>
+      </c>
+      <c r="I206">
+        <v>540</v>
+      </c>
+      <c r="J206">
+        <v>740</v>
+      </c>
+      <c r="K206" t="s">
+        <v>4223</v>
+      </c>
+      <c r="L206" t="s">
+        <v>4224</v>
+      </c>
+      <c r="M206">
+        <v>999</v>
+      </c>
+      <c r="N206" t="s">
+        <v>102</v>
+      </c>
+      <c r="O206" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P206" t="s">
+        <v>4225</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R206">
+        <v>999</v>
+      </c>
+      <c r="S206">
+        <v>999</v>
+      </c>
+      <c r="T206" t="s">
+        <v>245</v>
+      </c>
+      <c r="U206" s="1">
+        <v>999</v>
+      </c>
+      <c r="V206" t="s">
+        <v>4226</v>
+      </c>
+      <c r="W206" t="s">
+        <v>4227</v>
+      </c>
+      <c r="X206" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>4228</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>4229</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>4230</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>4231</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>4232</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>4233</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>3499</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>4234</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AP206" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>4235</v>
+      </c>
+      <c r="AR206" t="s">
+        <v>4236</v>
+      </c>
+      <c r="AS206" t="s">
+        <v>4237</v>
+      </c>
+      <c r="AT206" t="s">
+        <v>4194</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW206" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX206" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY206" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ206" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA206" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
+      <c r="B207" s="2">
+        <v>44799</v>
+      </c>
       <c r="C207" t="s">
         <v>54</v>
       </c>
+      <c r="D207" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
+      </c>
+      <c r="F207">
+        <v>9</v>
+      </c>
       <c r="G207" t="s">
         <v>2729</v>
+      </c>
+      <c r="H207" t="s">
+        <v>97</v>
+      </c>
+      <c r="I207" t="s">
+        <v>310</v>
+      </c>
+      <c r="J207" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K207" t="s">
+        <v>4238</v>
+      </c>
+      <c r="L207" t="s">
+        <v>4239</v>
+      </c>
+      <c r="M207">
+        <v>999</v>
+      </c>
+      <c r="N207" t="s">
+        <v>102</v>
+      </c>
+      <c r="O207" t="s">
+        <v>103</v>
+      </c>
+      <c r="P207" t="s">
+        <v>4240</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>4241</v>
+      </c>
+      <c r="R207">
+        <v>999</v>
+      </c>
+      <c r="S207">
+        <v>999</v>
+      </c>
+      <c r="T207" t="s">
+        <v>64</v>
+      </c>
+      <c r="U207" s="1">
+        <v>999</v>
+      </c>
+      <c r="V207" t="s">
+        <v>4242</v>
+      </c>
+      <c r="W207" t="s">
+        <v>247</v>
+      </c>
+      <c r="X207" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>4243</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>4244</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>4245</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>4246</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>4247</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>4248</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>3499</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>4249</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>3901</v>
+      </c>
+      <c r="AP207" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AR207" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS207" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AT207" t="s">
+        <v>4194</v>
+      </c>
+      <c r="AU207" t="s">
+        <v>973</v>
+      </c>
+      <c r="AV207" t="s">
+        <v>3904</v>
+      </c>
+      <c r="AW207" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX207" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY207" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ207" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA207" s="1" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="208" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
+      <c r="B208" s="2">
+        <v>44799</v>
+      </c>
       <c r="C208" t="s">
         <v>54</v>
       </c>
+      <c r="D208" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208">
+        <v>10</v>
+      </c>
       <c r="G208" t="s">
         <v>2730</v>
       </c>
+      <c r="H208" t="s">
+        <v>97</v>
+      </c>
+      <c r="I208" t="s">
+        <v>310</v>
+      </c>
+      <c r="J208" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K208" t="s">
+        <v>4250</v>
+      </c>
+      <c r="L208" t="s">
+        <v>4251</v>
+      </c>
+      <c r="M208">
+        <v>999</v>
+      </c>
+      <c r="N208" t="s">
+        <v>102</v>
+      </c>
+      <c r="O208" t="s">
+        <v>103</v>
+      </c>
+      <c r="P208" t="s">
+        <v>4252</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>4253</v>
+      </c>
+      <c r="R208">
+        <v>999</v>
+      </c>
+      <c r="S208">
+        <v>999</v>
+      </c>
+      <c r="T208" t="s">
+        <v>245</v>
+      </c>
+      <c r="U208" s="1">
+        <v>999</v>
+      </c>
+      <c r="V208" t="s">
+        <v>4254</v>
+      </c>
+      <c r="W208" t="s">
+        <v>2063</v>
+      </c>
+      <c r="X208" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>4255</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>4256</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>2448</v>
+      </c>
+      <c r="AK208" t="s">
+        <v>4084</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>4257</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>4258</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>4056</v>
+      </c>
+      <c r="AP208" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AR208" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS208" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT208" t="s">
+        <v>4259</v>
+      </c>
+      <c r="AU208" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV208" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AW208" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX208" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AY208" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ208" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA208" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="C209" t="s">
         <v>54</v>
       </c>
+      <c r="D209" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E209">
+        <v>15</v>
+      </c>
+      <c r="F209">
+        <v>11</v>
+      </c>
       <c r="G209" t="s">
         <v>2731</v>
       </c>
+      <c r="H209" t="s">
+        <v>97</v>
+      </c>
+      <c r="I209" t="s">
+        <v>310</v>
+      </c>
+      <c r="J209" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K209" t="s">
+        <v>4279</v>
+      </c>
+      <c r="L209" t="s">
+        <v>4280</v>
+      </c>
+      <c r="M209">
+        <v>999</v>
+      </c>
+      <c r="N209" t="s">
+        <v>102</v>
+      </c>
+      <c r="O209" t="s">
+        <v>4281</v>
+      </c>
+      <c r="P209" t="s">
+        <v>4282</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>4283</v>
+      </c>
+      <c r="R209">
+        <v>999</v>
+      </c>
+      <c r="S209">
+        <v>999</v>
+      </c>
+      <c r="T209" t="s">
+        <v>64</v>
+      </c>
+      <c r="U209" s="1">
+        <v>999</v>
+      </c>
+      <c r="V209" t="s">
+        <v>4284</v>
+      </c>
+      <c r="W209" t="s">
+        <v>315</v>
+      </c>
+      <c r="X209" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>4285</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>4286</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>4287</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>4288</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>4289</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>4290</v>
+      </c>
+      <c r="AP209" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>4291</v>
+      </c>
+      <c r="AR209" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS209" t="s">
+        <v>4292</v>
+      </c>
+      <c r="AT209" t="s">
+        <v>4293</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AW209" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX209" t="s">
+        <v>4294</v>
+      </c>
+      <c r="AY209" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ209" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA209" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -46391,7 +47598,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -46402,7 +47609,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -46413,7 +47620,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -46424,7 +47631,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -46435,7 +47642,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -46446,7 +47653,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -46457,7 +47664,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -46468,7 +47675,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -46479,7 +47686,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -46490,7 +47697,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -46501,7 +47708,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -46512,7 +47719,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -46523,26 +47730,326 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
+      <c r="B223" s="2">
+        <v>44799</v>
+      </c>
       <c r="C223" t="s">
         <v>54</v>
       </c>
+      <c r="D223" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E223">
+        <v>16</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
       <c r="G223" t="s">
         <v>2745</v>
       </c>
+      <c r="H223" t="s">
+        <v>97</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J223" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K223" t="s">
+        <v>4260</v>
+      </c>
+      <c r="L223" t="s">
+        <v>4261</v>
+      </c>
+      <c r="M223">
+        <v>999</v>
+      </c>
+      <c r="N223" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O223" t="s">
+        <v>103</v>
+      </c>
+      <c r="P223" t="s">
+        <v>4262</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>3764</v>
+      </c>
+      <c r="R223">
+        <v>999</v>
+      </c>
+      <c r="S223">
+        <v>999</v>
+      </c>
+      <c r="T223" t="s">
+        <v>142</v>
+      </c>
+      <c r="U223" s="1">
+        <v>999</v>
+      </c>
+      <c r="V223" t="s">
+        <v>4263</v>
+      </c>
+      <c r="W223" t="s">
+        <v>4264</v>
+      </c>
+      <c r="X223" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>4265</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>4266</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>4268</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>4269</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>4270</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>4271</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>4194</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>4272</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY223" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA223" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
+      <c r="B224" s="2">
+        <v>44799</v>
+      </c>
       <c r="C224" t="s">
         <v>54</v>
       </c>
+      <c r="D224" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E224">
+        <v>16</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
       <c r="G224" t="s">
         <v>2746</v>
+      </c>
+      <c r="H224" t="s">
+        <v>97</v>
+      </c>
+      <c r="I224" t="s">
+        <v>305</v>
+      </c>
+      <c r="J224" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K224" t="s">
+        <v>4273</v>
+      </c>
+      <c r="L224" t="s">
+        <v>4274</v>
+      </c>
+      <c r="M224" t="s">
+        <v>4275</v>
+      </c>
+      <c r="N224" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O224" t="s">
+        <v>103</v>
+      </c>
+      <c r="P224" t="s">
+        <v>4262</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>3764</v>
+      </c>
+      <c r="R224">
+        <v>999</v>
+      </c>
+      <c r="S224">
+        <v>999</v>
+      </c>
+      <c r="T224" t="s">
+        <v>142</v>
+      </c>
+      <c r="U224" s="1">
+        <v>999</v>
+      </c>
+      <c r="V224" t="s">
+        <v>4263</v>
+      </c>
+      <c r="W224" t="s">
+        <v>4276</v>
+      </c>
+      <c r="X224" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>4265</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>4266</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>4268</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>4277</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>4270</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>4271</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>4194</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>4278</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY224" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ224" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA224" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -46700,7 +48207,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="9">
+        <v>0.84722222222222221</v>
+      </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2073F-EAA1-43A7-BB04-058049D5A1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729AD762-0D08-4B43-9DC3-4F8B9058AA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="13464" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="13944" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9321" uniqueCount="4295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9709" uniqueCount="4413">
   <si>
     <t>ID</t>
   </si>
@@ -14169,6 +14169,414 @@
   </si>
   <si>
     <t>zweie, zweigen</t>
+  </si>
+  <si>
+    <t>Immeneich</t>
+  </si>
+  <si>
+    <t>H[e]rrmann</t>
+  </si>
+  <si>
+    <t>Hagenbutzele (w)</t>
+  </si>
+  <si>
+    <t>Erdöpfel (w)</t>
+  </si>
+  <si>
+    <t>Möhre (w)</t>
+  </si>
+  <si>
+    <t>Gotte (m) {an Stelle 19 statt 18. Bei 18 steht Götte (w)}</t>
+  </si>
+  <si>
+    <t>Fluge (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Huhnle (w)</t>
+  </si>
+  <si>
+    <t>Scheerm[i]s {oder Schermus}</t>
+  </si>
+  <si>
+    <t>[wer]dumme[r]n</t>
+  </si>
+  <si>
+    <t>888 {ich glaube Plätze sind vertauscht}</t>
+  </si>
+  <si>
+    <t>ubzweigen</t>
+  </si>
+  <si>
+    <t>u-Da</t>
+  </si>
+  <si>
+    <t>Schlageten</t>
+  </si>
+  <si>
+    <t>Herrmann</t>
+  </si>
+  <si>
+    <t>Förch b Rastatt</t>
+  </si>
+  <si>
+    <t>F[ö]rch b Rastatt</t>
+  </si>
+  <si>
+    <t>Brombeerē (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fledermu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hagenbutze (w)</t>
+  </si>
+  <si>
+    <t>Guckel, Huhnle (s)</t>
+  </si>
+  <si>
+    <t>Hewamm[e] (w)</t>
+  </si>
+  <si>
+    <t>Scheerm[?]us (w)</t>
+  </si>
+  <si>
+    <t>[w]erdammre</t>
+  </si>
+  <si>
+    <t>[ch]ru[sh]elbeere (w) {an Platz 163 statt 164}</t>
+  </si>
+  <si>
+    <t>[Ch]usselbeere (w)</t>
+  </si>
+  <si>
+    <t>Güfele (s) {an Platz 165 statt 166}</t>
+  </si>
+  <si>
+    <t>Schüssle (s)</t>
+  </si>
+  <si>
+    <t>u-E</t>
+  </si>
+  <si>
+    <t>Brunnadern</t>
+  </si>
+  <si>
+    <t>[??????] Landkreis Waldshut</t>
+  </si>
+  <si>
+    <t>[?????] Konstanz</t>
+  </si>
+  <si>
+    <t>Friedrich [???]uß Hauptlehrer</t>
+  </si>
+  <si>
+    <t>Bäromsle</t>
+  </si>
+  <si>
+    <t>B[?]ärdigung</t>
+  </si>
+  <si>
+    <t>Dischle</t>
+  </si>
+  <si>
+    <t>Elschtere</t>
+  </si>
+  <si>
+    <t>Gugu[???]le, Gugummre</t>
+  </si>
+  <si>
+    <t>Gück[e]l, 777</t>
+  </si>
+  <si>
+    <t>Heband</t>
+  </si>
+  <si>
+    <t>Chatz</t>
+  </si>
+  <si>
+    <t>Kruselbeeri</t>
+  </si>
+  <si>
+    <t>Moh[?]rübe, Kohl[ru]b</t>
+  </si>
+  <si>
+    <t>Gufele ([s]), Güfeli ([e])</t>
+  </si>
+  <si>
+    <t>Schüßli</t>
+  </si>
+  <si>
+    <t>{Schwer lesbar - Tinte auf dem Blatt zerflossen aber auch Tinte von der Vorderseite auf die Rückseite zerflossen}</t>
+  </si>
+  <si>
+    <t>u-F</t>
+  </si>
+  <si>
+    <t>Remetschwiel</t>
+  </si>
+  <si>
+    <t>R. Hörner</t>
+  </si>
+  <si>
+    <t>Behramsle (w)</t>
+  </si>
+  <si>
+    <t>Liech (w)</t>
+  </si>
+  <si>
+    <t>Diëchsle, Diësle (w)</t>
+  </si>
+  <si>
+    <t>Ägeste (w) &lt;[?on]:erste Silbe</t>
+  </si>
+  <si>
+    <t>Fledermuhs</t>
+  </si>
+  <si>
+    <t>Fliëge, Flühge (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Schärmuhs (w) &lt;[Sc]h</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>erren&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Gelrüebe, Gelrüewe (w)</t>
+  </si>
+  <si>
+    <t>Chruselbeer (w)</t>
+  </si>
+  <si>
+    <t>Gufe (w), Güfele (s)</t>
+  </si>
+  <si>
+    <t>Lismenodle (w)</t>
+  </si>
+  <si>
+    <t>Schüßle (w) &lt;Obertasse&gt;, Kaffeetellerli &lt;Untertasse&gt;</t>
+  </si>
+  <si>
+    <t>zweie &lt;entspricht Hochd. "zweigen"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Ortsch. Brunnardern s[?w]in Hafenhäusern mit den Ortsteilen Frohnschwand, Ober u Unter[???]sch[w]egg</t>
+  </si>
+  <si>
+    <t>Waldshut {1. Seite steht auch Konstanz}</t>
+  </si>
+  <si>
+    <t>Landes[k]ommiss[ariat] Konstanz Gau Baden</t>
+  </si>
+  <si>
+    <t>Manneheim</t>
+  </si>
+  <si>
+    <t>Dischtle</t>
+  </si>
+  <si>
+    <t>Elstere ([di])</t>
+  </si>
+  <si>
+    <t>Fl[ä]dermus {oder Flëdermus}</t>
+  </si>
+  <si>
+    <t>Scharmus, Scher (der)</t>
+  </si>
+  <si>
+    <t>Geißle (di)</t>
+  </si>
+  <si>
+    <t>Str[i]cknodle</t>
+  </si>
+  <si>
+    <t>Schü[ß]le {Tinte kommt von Rückseite durchs blatt}</t>
+  </si>
+  <si>
+    <t>G[e]iß (w)</t>
+  </si>
+  <si>
+    <t>Ortsteil Brunnadern</t>
+  </si>
+  <si>
+    <t>Landeskommissariat Konstanz</t>
+  </si>
+  <si>
+    <t>Friedrich Krauß</t>
+  </si>
+  <si>
+    <t>Friedrich Krauß, Hptl. in Remetschwiel - Brunnadern</t>
+  </si>
+  <si>
+    <t>Brombeer[i]</t>
+  </si>
+  <si>
+    <t>Diëchsle</t>
+  </si>
+  <si>
+    <t>Elstere</t>
+  </si>
+  <si>
+    <t>Gügummere</t>
+  </si>
+  <si>
+    <t>Gückel, Huhn, Gluckeri</t>
+  </si>
+  <si>
+    <t>Herdöpfl</t>
+  </si>
+  <si>
+    <t>Ruebele</t>
+  </si>
+  <si>
+    <t>schälde</t>
+  </si>
+  <si>
+    <t>Stecknodle (w)</t>
+  </si>
+  <si>
+    <t>u-Ga</t>
+  </si>
+  <si>
+    <t>Tiefenhäusen</t>
+  </si>
+  <si>
+    <t>Landkommissariat Konstanz</t>
+  </si>
+  <si>
+    <t>Beromsel</t>
+  </si>
+  <si>
+    <t>Gückel, Hue</t>
+  </si>
+  <si>
+    <t>Chatz &lt;Kohe[???]: Chatzebuheli]</t>
+  </si>
+  <si>
+    <t>Chatz &lt;Kohe[nann]: Chatzebüheli&gt;</t>
+  </si>
+  <si>
+    <t>Rue[b]ele</t>
+  </si>
+  <si>
+    <t>Schrick[?h]nodle (w)</t>
+  </si>
+  <si>
+    <t>u-H</t>
+  </si>
+  <si>
+    <t>Ibach</t>
+  </si>
+  <si>
+    <t>Schlegel</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hue (s)</t>
+  </si>
+  <si>
+    <t>Katzerolli (m) &lt;K=Ch&gt;</t>
+  </si>
+  <si>
+    <t>Schärmus (w), Scher (m)</t>
+  </si>
+  <si>
+    <t>Gälrü[e]be (w) {e eventuell im nachhinein hinzugefügt}</t>
+  </si>
+  <si>
+    <t>schalten, werche</t>
+  </si>
+  <si>
+    <t>Stachelbeeri, Gruselbeeri (w)</t>
+  </si>
+  <si>
+    <t>u-[J]</t>
+  </si>
+  <si>
+    <t>Wittenschwand</t>
+  </si>
+  <si>
+    <t>Löffler</t>
+  </si>
+  <si>
+    <t>Eutingen</t>
+  </si>
+  <si>
+    <t>Bäramsel (m)</t>
+  </si>
+  <si>
+    <t>Elschtre (w)</t>
+  </si>
+  <si>
+    <t>Hagebutzle (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Guckel (m), Hu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>h (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chatzerolle (m)</t>
+  </si>
+  <si>
+    <t>Gälriebe (w)</t>
+  </si>
+  <si>
+    <t>Spatze (w)</t>
+  </si>
+  <si>
+    <t>Gü[l]ili (w)</t>
+  </si>
+  <si>
+    <t>dem Sohn die Fru</t>
   </si>
 </sst>
 </file>
@@ -14332,7 +14740,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -14353,6 +14761,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14673,8 +15082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA209" sqref="BA209"/>
+    <sheetView topLeftCell="AQ196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT219" sqref="AT219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -47429,10 +47838,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="209" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
+      <c r="B209" s="2">
+        <v>44799</v>
+      </c>
       <c r="C209" t="s">
         <v>54</v>
       </c>
@@ -47587,109 +47999,1465 @@
         <v>302</v>
       </c>
     </row>
-    <row r="210" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
+      <c r="B210" s="2">
+        <v>44804</v>
+      </c>
       <c r="C210" t="s">
         <v>54</v>
       </c>
+      <c r="D210" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
+      </c>
+      <c r="F210">
+        <v>12</v>
+      </c>
       <c r="G210" t="s">
         <v>2732</v>
       </c>
+      <c r="H210" t="s">
+        <v>213</v>
+      </c>
+      <c r="I210" t="s">
+        <v>816</v>
+      </c>
+      <c r="J210" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K210" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L210" t="s">
+        <v>4295</v>
+      </c>
+      <c r="M210">
+        <v>999</v>
+      </c>
+      <c r="N210" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O210" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P210" t="s">
+        <v>4296</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>4310</v>
+      </c>
+      <c r="R210">
+        <v>999</v>
+      </c>
+      <c r="S210">
+        <v>999</v>
+      </c>
+      <c r="T210" t="s">
+        <v>64</v>
+      </c>
+      <c r="U210" s="1">
+        <v>999</v>
+      </c>
+      <c r="V210" t="s">
+        <v>273</v>
+      </c>
+      <c r="W210" t="s">
+        <v>315</v>
+      </c>
+      <c r="X210" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>4301</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>4297</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>4302</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>4316</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>4298</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>4303</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>4299</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>4300</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AP210" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>4304</v>
+      </c>
+      <c r="AR210" t="s">
+        <v>4305</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>4319</v>
+      </c>
+      <c r="AT210" t="s">
+        <v>4321</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AW210" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX210" t="s">
+        <v>4306</v>
+      </c>
+      <c r="AY210" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ210" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA210" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="211" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
+      <c r="B211" s="2">
+        <v>44804</v>
+      </c>
       <c r="C211" t="s">
         <v>54</v>
       </c>
+      <c r="D211" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E211">
+        <v>15</v>
+      </c>
+      <c r="F211">
+        <v>13</v>
+      </c>
       <c r="G211" t="s">
         <v>2733</v>
       </c>
+      <c r="H211" t="s">
+        <v>213</v>
+      </c>
+      <c r="I211" t="s">
+        <v>816</v>
+      </c>
+      <c r="J211" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K211" t="s">
+        <v>4307</v>
+      </c>
+      <c r="L211" t="s">
+        <v>4308</v>
+      </c>
+      <c r="M211">
+        <v>999</v>
+      </c>
+      <c r="N211" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O211" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P211" t="s">
+        <v>4309</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>4311</v>
+      </c>
+      <c r="R211">
+        <v>999</v>
+      </c>
+      <c r="S211">
+        <v>999</v>
+      </c>
+      <c r="T211" t="s">
+        <v>64</v>
+      </c>
+      <c r="U211" s="1">
+        <v>999</v>
+      </c>
+      <c r="V211" t="s">
+        <v>3706</v>
+      </c>
+      <c r="W211" t="s">
+        <v>315</v>
+      </c>
+      <c r="X211" t="s">
+        <v>4312</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>4313</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>4301</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>4256</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>4314</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>4315</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>4316</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>4298</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>4317</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>4299</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>4300</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AP211" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>4318</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>4320</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>4322</v>
+      </c>
+      <c r="AW211" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX211" t="s">
+        <v>4306</v>
+      </c>
+      <c r="AY211" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ211" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA211" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="212" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
+      <c r="B212" s="2">
+        <v>44804</v>
+      </c>
       <c r="C212" t="s">
         <v>54</v>
       </c>
+      <c r="D212" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
+      </c>
+      <c r="F212">
+        <v>14</v>
+      </c>
       <c r="G212" t="s">
         <v>2734</v>
       </c>
+      <c r="H212" t="s">
+        <v>213</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J212" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K212" t="s">
+        <v>4323</v>
+      </c>
+      <c r="L212" t="s">
+        <v>4324</v>
+      </c>
+      <c r="M212" t="s">
+        <v>4325</v>
+      </c>
+      <c r="N212" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O212" t="s">
+        <v>4326</v>
+      </c>
+      <c r="P212" t="s">
+        <v>4327</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>2016</v>
+      </c>
+      <c r="R212">
+        <v>999</v>
+      </c>
+      <c r="S212">
+        <v>999</v>
+      </c>
+      <c r="T212" t="s">
+        <v>245</v>
+      </c>
+      <c r="U212" s="1">
+        <v>999</v>
+      </c>
+      <c r="V212" t="s">
+        <v>4328</v>
+      </c>
+      <c r="W212" t="s">
+        <v>4329</v>
+      </c>
+      <c r="X212" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>4330</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>4331</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB212">
+        <v>888</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>4332</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>4333</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>4334</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>4335</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>4337</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP212" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>4336</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>4338</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>790</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>4339</v>
+      </c>
+      <c r="AW212" t="s">
+        <v>792</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY212" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ212" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA212" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB212" s="20" t="s">
+        <v>4340</v>
+      </c>
     </row>
-    <row r="213" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
+      <c r="B213" s="2">
+        <v>44806</v>
+      </c>
       <c r="C213" t="s">
         <v>54</v>
       </c>
+      <c r="D213" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
+      </c>
+      <c r="F213">
+        <v>15</v>
+      </c>
       <c r="G213" t="s">
         <v>2735</v>
       </c>
+      <c r="H213" t="s">
+        <v>213</v>
+      </c>
+      <c r="I213">
+        <v>540</v>
+      </c>
+      <c r="J213">
+        <v>740</v>
+      </c>
+      <c r="K213" t="s">
+        <v>4341</v>
+      </c>
+      <c r="L213" t="s">
+        <v>4342</v>
+      </c>
+      <c r="M213">
+        <v>999</v>
+      </c>
+      <c r="N213" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O213" t="s">
+        <v>103</v>
+      </c>
+      <c r="P213" t="s">
+        <v>4343</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>772</v>
+      </c>
+      <c r="R213">
+        <v>999</v>
+      </c>
+      <c r="S213">
+        <v>999</v>
+      </c>
+      <c r="T213" t="s">
+        <v>64</v>
+      </c>
+      <c r="U213" s="1">
+        <v>999</v>
+      </c>
+      <c r="V213" t="s">
+        <v>4344</v>
+      </c>
+      <c r="W213" t="s">
+        <v>4345</v>
+      </c>
+      <c r="X213" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>4346</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>4347</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>4348</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>4349</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>4287</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>4350</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>4351</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP213" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>653</v>
+      </c>
+      <c r="AR213" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>4352</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>4353</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>4354</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>4355</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>4356</v>
+      </c>
+      <c r="AY213" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ213" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA213" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="214" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
+      <c r="B214" s="2">
+        <v>44806</v>
+      </c>
       <c r="C214" t="s">
         <v>54</v>
       </c>
+      <c r="D214" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
+      </c>
+      <c r="F214">
+        <v>15</v>
+      </c>
       <c r="G214" t="s">
         <v>2736</v>
       </c>
+      <c r="H214" t="s">
+        <v>97</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J214" t="s">
+        <v>2761</v>
+      </c>
+      <c r="K214" t="s">
+        <v>4341</v>
+      </c>
+      <c r="L214" t="s">
+        <v>4342</v>
+      </c>
+      <c r="M214" t="s">
+        <v>4357</v>
+      </c>
+      <c r="N214" t="s">
+        <v>4358</v>
+      </c>
+      <c r="O214" t="s">
+        <v>4359</v>
+      </c>
+      <c r="P214" t="s">
+        <v>4372</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>4360</v>
+      </c>
+      <c r="R214">
+        <v>999</v>
+      </c>
+      <c r="S214">
+        <v>999</v>
+      </c>
+      <c r="T214" t="s">
+        <v>245</v>
+      </c>
+      <c r="U214" s="1">
+        <v>999</v>
+      </c>
+      <c r="V214" t="s">
+        <v>4328</v>
+      </c>
+      <c r="W214" t="s">
+        <v>247</v>
+      </c>
+      <c r="X214" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>4361</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>4362</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>4363</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>3769</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>4334</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>4364</v>
+      </c>
+      <c r="AL214">
+        <v>999</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>4365</v>
+      </c>
+      <c r="AP214" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AR214" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AT214" t="s">
+        <v>628</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>4366</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>4367</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY214" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="AZ214" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA214" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="215" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
+      <c r="B215" s="2">
+        <v>44806</v>
+      </c>
       <c r="C215" t="s">
         <v>54</v>
       </c>
+      <c r="D215">
+        <v>999</v>
+      </c>
+      <c r="E215">
+        <v>999</v>
+      </c>
+      <c r="F215">
+        <v>999</v>
+      </c>
       <c r="G215" t="s">
         <v>2737</v>
       </c>
+      <c r="H215" t="s">
+        <v>97</v>
+      </c>
+      <c r="I215" t="s">
+        <v>310</v>
+      </c>
+      <c r="J215" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K215" t="s">
+        <v>4341</v>
+      </c>
+      <c r="L215" t="s">
+        <v>4342</v>
+      </c>
+      <c r="M215" t="s">
+        <v>4369</v>
+      </c>
+      <c r="N215" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O215" t="s">
+        <v>4370</v>
+      </c>
+      <c r="P215" t="s">
+        <v>4371</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>2016</v>
+      </c>
+      <c r="R215">
+        <v>999</v>
+      </c>
+      <c r="S215">
+        <v>999</v>
+      </c>
+      <c r="T215" t="s">
+        <v>64</v>
+      </c>
+      <c r="U215" s="1">
+        <v>999</v>
+      </c>
+      <c r="V215" t="s">
+        <v>4328</v>
+      </c>
+      <c r="W215" t="s">
+        <v>247</v>
+      </c>
+      <c r="X215" t="s">
+        <v>4373</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>4374</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>4375</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>4376</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>4377</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>4334</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>4378</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>4387</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>4379</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP215" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>4380</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>4381</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AW215" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY215" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ215" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA215" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="216" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
+      <c r="B216" s="2">
+        <v>44806</v>
+      </c>
       <c r="C216" t="s">
         <v>54</v>
       </c>
+      <c r="D216" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
+      </c>
+      <c r="F216">
+        <v>16</v>
+      </c>
       <c r="G216" t="s">
         <v>2738</v>
       </c>
+      <c r="H216" t="s">
+        <v>97</v>
+      </c>
+      <c r="I216" t="s">
+        <v>310</v>
+      </c>
+      <c r="J216" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K216" t="s">
+        <v>4382</v>
+      </c>
+      <c r="L216" t="s">
+        <v>4383</v>
+      </c>
+      <c r="M216">
+        <v>999</v>
+      </c>
+      <c r="N216" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O216" t="s">
+        <v>4384</v>
+      </c>
+      <c r="P216" t="s">
+        <v>4371</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>2016</v>
+      </c>
+      <c r="R216">
+        <v>999</v>
+      </c>
+      <c r="S216">
+        <v>999</v>
+      </c>
+      <c r="T216" t="s">
+        <v>245</v>
+      </c>
+      <c r="U216" s="1">
+        <v>999</v>
+      </c>
+      <c r="V216" t="s">
+        <v>4385</v>
+      </c>
+      <c r="W216" t="s">
+        <v>247</v>
+      </c>
+      <c r="X216" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>4375</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>4026</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>4386</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>4334</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>4378</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>4388</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>4389</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>4380</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>4381</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>4390</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY216" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ216" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA216" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="217" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
+      <c r="B217" s="2">
+        <v>44806</v>
+      </c>
       <c r="C217" t="s">
         <v>54</v>
       </c>
+      <c r="D217" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E217">
+        <v>15</v>
+      </c>
+      <c r="F217">
+        <v>17</v>
+      </c>
       <c r="G217" t="s">
         <v>2739</v>
       </c>
+      <c r="H217" t="s">
+        <v>97</v>
+      </c>
+      <c r="I217" t="s">
+        <v>310</v>
+      </c>
+      <c r="J217" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K217" t="s">
+        <v>4391</v>
+      </c>
+      <c r="L217" t="s">
+        <v>4392</v>
+      </c>
+      <c r="M217">
+        <v>999</v>
+      </c>
+      <c r="N217" t="s">
+        <v>102</v>
+      </c>
+      <c r="O217" t="s">
+        <v>4281</v>
+      </c>
+      <c r="P217" t="s">
+        <v>4393</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>3764</v>
+      </c>
+      <c r="R217">
+        <v>999</v>
+      </c>
+      <c r="S217">
+        <v>999</v>
+      </c>
+      <c r="T217" t="s">
+        <v>64</v>
+      </c>
+      <c r="U217" s="1">
+        <v>999</v>
+      </c>
+      <c r="V217" t="s">
+        <v>273</v>
+      </c>
+      <c r="W217" t="s">
+        <v>315</v>
+      </c>
+      <c r="X217" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>4285</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>4286</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>4394</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>4288</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>4395</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>4396</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>4397</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>4290</v>
+      </c>
+      <c r="AP217" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>4398</v>
+      </c>
+      <c r="AR217" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS217" t="s">
+        <v>4399</v>
+      </c>
+      <c r="AT217" t="s">
+        <v>4381</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>4294</v>
+      </c>
+      <c r="AY217" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ217" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA217" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="218" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
+      <c r="B218" s="2">
+        <v>44806</v>
+      </c>
       <c r="C218" t="s">
         <v>54</v>
       </c>
+      <c r="D218" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
+      </c>
+      <c r="F218">
+        <v>18</v>
+      </c>
       <c r="G218" t="s">
         <v>2740</v>
       </c>
+      <c r="H218" t="s">
+        <v>97</v>
+      </c>
+      <c r="I218" t="s">
+        <v>310</v>
+      </c>
+      <c r="J218" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K218" t="s">
+        <v>4400</v>
+      </c>
+      <c r="L218" t="s">
+        <v>4401</v>
+      </c>
+      <c r="M218">
+        <v>999</v>
+      </c>
+      <c r="N218" t="s">
+        <v>102</v>
+      </c>
+      <c r="O218" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P218" t="s">
+        <v>4402</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>4403</v>
+      </c>
+      <c r="R218">
+        <v>999</v>
+      </c>
+      <c r="S218" t="s">
+        <v>103</v>
+      </c>
+      <c r="T218" t="s">
+        <v>3416</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="V218" s="20" t="s">
+        <v>4404</v>
+      </c>
+      <c r="W218" s="20" t="s">
+        <v>2063</v>
+      </c>
+      <c r="X218" s="20" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Y218" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z218" s="20" t="s">
+        <v>4405</v>
+      </c>
+      <c r="AA218" s="20" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AB218" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC218" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD218" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE218" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF218" s="20" t="s">
+        <v>4406</v>
+      </c>
+      <c r="AG218" s="20" t="s">
+        <v>4407</v>
+      </c>
+      <c r="AH218" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI218" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ218" s="20" t="s">
+        <v>4408</v>
+      </c>
+      <c r="AK218" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL218" s="20" t="s">
+        <v>4409</v>
+      </c>
+      <c r="AM218" s="20" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AN218" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO218" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP218" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ218" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AR218" s="20" t="s">
+        <v>4410</v>
+      </c>
+      <c r="AS218" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT218" s="20" t="s">
+        <v>4411</v>
+      </c>
+      <c r="AU218" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV218" s="20" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AW218" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX218" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY218" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ218" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA218" s="1" t="s">
+        <v>4412</v>
+      </c>
     </row>
-    <row r="219" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
+      <c r="B219" s="2">
+        <v>44806</v>
+      </c>
       <c r="C219" t="s">
         <v>54</v>
       </c>
@@ -47697,10 +49465,13 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="220" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
+      <c r="B220" s="2">
+        <v>44806</v>
+      </c>
       <c r="C220" t="s">
         <v>54</v>
       </c>
@@ -47708,7 +49479,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="221" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -47719,7 +49490,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="222" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -47730,7 +49501,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="223" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -47891,7 +49662,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="224" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -48199,7 +49970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48207,9 +49980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
-        <v>0.84722222222222221</v>
-      </c>
+      <c r="A1" s="9"/>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729AD762-0D08-4B43-9DC3-4F8B9058AA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8FEE42-D7B4-4251-9A29-EDA4E3B17ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="13944" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="11808" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9709" uniqueCount="4413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10004" uniqueCount="4519">
   <si>
     <t>ID</t>
   </si>
@@ -14577,6 +14577,324 @@
   </si>
   <si>
     <t>dem Sohn die Fru</t>
+  </si>
+  <si>
+    <t>u-K</t>
+  </si>
+  <si>
+    <t>Urberg</t>
+  </si>
+  <si>
+    <t>Carl Pfeiffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkheim </t>
+  </si>
+  <si>
+    <t>Elschtr (w)</t>
+  </si>
+  <si>
+    <t>Schduweflüge (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Huah (w)</t>
+  </si>
+  <si>
+    <t>Hebammd (w)</t>
+  </si>
+  <si>
+    <t>Gälrüabe (w)</t>
+  </si>
+  <si>
+    <t>Güweli (s)</t>
+  </si>
+  <si>
+    <t>Schüßle (w), Tellerli (s)</t>
+  </si>
+  <si>
+    <t>zweihe, äugle</t>
+  </si>
+  <si>
+    <t>Schwiegertochdr (w)</t>
+  </si>
+  <si>
+    <t>Holdr (m)</t>
+  </si>
+  <si>
+    <t>a. K.</t>
+  </si>
+  <si>
+    <t>Bäromslä (w)</t>
+  </si>
+  <si>
+    <t>Diächslä (w)</t>
+  </si>
+  <si>
+    <t>Endärich (m)</t>
+  </si>
+  <si>
+    <t>Flügä</t>
+  </si>
+  <si>
+    <t>Gugumerä (w)</t>
+  </si>
+  <si>
+    <t>Hagäbutzgä (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Huäh (s)</t>
+  </si>
+  <si>
+    <t>Gälrüäbä (w)</t>
+  </si>
+  <si>
+    <t>Geißlä (w)</t>
+  </si>
+  <si>
+    <t>Pflumä (w)</t>
+  </si>
+  <si>
+    <t>schuldä</t>
+  </si>
+  <si>
+    <t>Schdriggnodlä (w)</t>
+  </si>
+  <si>
+    <t>Schüsslä (w), Tellerli</t>
+  </si>
+  <si>
+    <t>zwejä</t>
+  </si>
+  <si>
+    <t>Schwiegerdochtr (w)</t>
+  </si>
+  <si>
+    <t>u-L</t>
+  </si>
+  <si>
+    <t>Höchenschwand</t>
+  </si>
+  <si>
+    <t>Albert/Hauenstein</t>
+  </si>
+  <si>
+    <t>Baldischw[t]eler Rosa</t>
+  </si>
+  <si>
+    <t>u. 50 Jährg. Einwoh. von Höchenschwand</t>
+  </si>
+  <si>
+    <t>Beeomselä</t>
+  </si>
+  <si>
+    <t>Beerdigung, u d'Lich go</t>
+  </si>
+  <si>
+    <t>Ägestä</t>
+  </si>
+  <si>
+    <t>Entä</t>
+  </si>
+  <si>
+    <t>Gugumerä</t>
+  </si>
+  <si>
+    <t>Hagäbutze</t>
+  </si>
+  <si>
+    <t>Gügel, Hüenli</t>
+  </si>
+  <si>
+    <t>Hebant</t>
+  </si>
+  <si>
+    <t>Chatzerolli, Rainl</t>
+  </si>
+  <si>
+    <t>Gälrüebli</t>
+  </si>
+  <si>
+    <t>schelte, schimpfe {eventuell noch ein [u] unter die letzen beiden "e"}</t>
+  </si>
+  <si>
+    <t>Chrutzelä, Chruselbeeri</t>
+  </si>
+  <si>
+    <t>Gufä, Güfeli</t>
+  </si>
+  <si>
+    <t>Hafä</t>
+  </si>
+  <si>
+    <t>zweiä</t>
+  </si>
+  <si>
+    <t>Schwigerdochter</t>
+  </si>
+  <si>
+    <t>h-O</t>
+  </si>
+  <si>
+    <t>Bierbronnen</t>
+  </si>
+  <si>
+    <t>Maria Karsch</t>
+  </si>
+  <si>
+    <t>a. B</t>
+  </si>
+  <si>
+    <t>u. Erwachsene aus Bierbronnen</t>
+  </si>
+  <si>
+    <t>Ärgeste (m)</t>
+  </si>
+  <si>
+    <t>Flühge (w)</t>
+  </si>
+  <si>
+    <t>Güggel (m), Hue (w)</t>
+  </si>
+  <si>
+    <t>Geisle (s)</t>
+  </si>
+  <si>
+    <t>schnörre</t>
+  </si>
+  <si>
+    <t>Schüßle (w), Teller (m)</t>
+  </si>
+  <si>
+    <t>Krueg (m)</t>
+  </si>
+  <si>
+    <t>47,4</t>
+  </si>
+  <si>
+    <t>h-V</t>
+  </si>
+  <si>
+    <t>Aichen</t>
+  </si>
+  <si>
+    <t>[F]. Schreiber</t>
+  </si>
+  <si>
+    <t>Dogern</t>
+  </si>
+  <si>
+    <t>Wurmmeisle</t>
+  </si>
+  <si>
+    <t>Beerdigung, Lich</t>
+  </si>
+  <si>
+    <t>Dotenvogel</t>
+  </si>
+  <si>
+    <t>G[u]g[u]mmere</t>
+  </si>
+  <si>
+    <t>Gügel, [Ch]üener</t>
+  </si>
+  <si>
+    <t>Gelrebe</t>
+  </si>
+  <si>
+    <t>Güffeli</t>
+  </si>
+  <si>
+    <t>Schüsseli, Untertellerli</t>
+  </si>
+  <si>
+    <t>schüssle, Hafe</t>
+  </si>
+  <si>
+    <t>h-X</t>
+  </si>
+  <si>
+    <t>Detzeln</t>
+  </si>
+  <si>
+    <t>Ritzi</t>
+  </si>
+  <si>
+    <t>Büsslingen</t>
+  </si>
+  <si>
+    <t>[Er]geste {Anfang eventuell durchgestichen}</t>
+  </si>
+  <si>
+    <t>Güggel</t>
+  </si>
+  <si>
+    <t>Herdöpfel, Grumbiere, Grumzele</t>
+  </si>
+  <si>
+    <t>Bufi, Rölli</t>
+  </si>
+  <si>
+    <t>schimpfen, göf[er]n</t>
+  </si>
+  <si>
+    <t>Haffe</t>
+  </si>
+  <si>
+    <t>h-W</t>
+  </si>
+  <si>
+    <t>Krenkingen</t>
+  </si>
+  <si>
+    <t>Paul Rogg</t>
+  </si>
+  <si>
+    <t>Kreis Waldhut</t>
+  </si>
+  <si>
+    <t>Amaise (w)</t>
+  </si>
+  <si>
+    <t>Lihch (w)</t>
+  </si>
+  <si>
+    <t>Änte (w)</t>
+  </si>
+  <si>
+    <t>Fliage (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hua (s)</t>
+  </si>
+  <si>
+    <t>Hertöpfel (m)</t>
+  </si>
+  <si>
+    <t>Katz (w)</t>
+  </si>
+  <si>
+    <t>Mulwurf (m)</t>
+  </si>
+  <si>
+    <t>Mohrrüabe (w)</t>
+  </si>
+  <si>
+    <t>Loos (w)</t>
+  </si>
+  <si>
+    <t>Schtecknodle (w)</t>
+  </si>
+  <si>
+    <t>Schüssle (w), Beckili (s)</t>
+  </si>
+  <si>
+    <t>h-J</t>
+  </si>
+  <si>
+    <t>Attlisberg</t>
+  </si>
+  <si>
+    <t>&lt;% = kein bes. Ausdr. Ausdruck wie auf dem Blatt angegeben nur in alemanischer Mundart&gt; {überall wo 999 steht war %}</t>
   </si>
 </sst>
 </file>
@@ -15082,8 +15400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB236"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT219" sqref="AT219"/>
+    <sheetView topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48153,7 +48471,7 @@
       <c r="AY210" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ210" s="20" t="s">
+      <c r="AZ210" t="s">
         <v>303</v>
       </c>
       <c r="BA210" s="1" t="s">
@@ -48314,7 +48632,7 @@
       <c r="AY211" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ211" s="20" t="s">
+      <c r="AZ211" t="s">
         <v>303</v>
       </c>
       <c r="BA211" s="1" t="s">
@@ -48475,13 +48793,13 @@
       <c r="AY212" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AZ212" s="20" t="s">
+      <c r="AZ212" t="s">
         <v>211</v>
       </c>
       <c r="BA212" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BB212" s="20" t="s">
+      <c r="BB212" t="s">
         <v>4340</v>
       </c>
     </row>
@@ -48639,7 +48957,7 @@
       <c r="AY213" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ213" s="20" t="s">
+      <c r="AZ213" t="s">
         <v>303</v>
       </c>
       <c r="BA213" s="1" t="s">
@@ -48800,7 +49118,7 @@
       <c r="AY214" s="1" t="s">
         <v>4368</v>
       </c>
-      <c r="AZ214" s="20" t="s">
+      <c r="AZ214" t="s">
         <v>211</v>
       </c>
       <c r="BA214" s="1" t="s">
@@ -48961,7 +49279,7 @@
       <c r="AY215" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AZ215" s="20" t="s">
+      <c r="AZ215" t="s">
         <v>211</v>
       </c>
       <c r="BA215" s="1" t="s">
@@ -49122,7 +49440,7 @@
       <c r="AY216" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AZ216" s="20" t="s">
+      <c r="AZ216" t="s">
         <v>211</v>
       </c>
       <c r="BA216" s="1" t="s">
@@ -49283,7 +49601,7 @@
       <c r="AY217" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ217" s="20" t="s">
+      <c r="AZ217" t="s">
         <v>303</v>
       </c>
       <c r="BA217" s="1" t="s">
@@ -49354,97 +49672,97 @@
       <c r="U218" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="V218" s="20" t="s">
+      <c r="V218" t="s">
         <v>4404</v>
       </c>
-      <c r="W218" s="20" t="s">
+      <c r="W218" t="s">
         <v>2063</v>
       </c>
-      <c r="X218" s="20" t="s">
+      <c r="X218" t="s">
         <v>2611</v>
       </c>
-      <c r="Y218" s="20" t="s">
+      <c r="Y218" t="s">
         <v>822</v>
       </c>
-      <c r="Z218" s="20" t="s">
+      <c r="Z218" t="s">
         <v>4405</v>
       </c>
-      <c r="AA218" s="20" t="s">
+      <c r="AA218" t="s">
         <v>1558</v>
       </c>
-      <c r="AB218" s="20" t="s">
+      <c r="AB218" t="s">
         <v>279</v>
       </c>
-      <c r="AC218" s="20" t="s">
+      <c r="AC218" t="s">
         <v>280</v>
       </c>
-      <c r="AD218" s="20" t="s">
+      <c r="AD218" t="s">
         <v>281</v>
       </c>
-      <c r="AE218" s="20" t="s">
+      <c r="AE218" t="s">
         <v>324</v>
       </c>
-      <c r="AF218" s="20" t="s">
+      <c r="AF218" t="s">
         <v>4406</v>
       </c>
-      <c r="AG218" s="20" t="s">
+      <c r="AG218" t="s">
         <v>4407</v>
       </c>
-      <c r="AH218" s="20" t="s">
+      <c r="AH218" t="s">
         <v>1344</v>
       </c>
-      <c r="AI218" s="20" t="s">
+      <c r="AI218" t="s">
         <v>286</v>
       </c>
-      <c r="AJ218" s="20" t="s">
+      <c r="AJ218" t="s">
         <v>4408</v>
       </c>
-      <c r="AK218" s="20" t="s">
+      <c r="AK218" t="s">
         <v>490</v>
       </c>
-      <c r="AL218" s="20" t="s">
+      <c r="AL218" t="s">
         <v>4409</v>
       </c>
-      <c r="AM218" s="20" t="s">
+      <c r="AM218" t="s">
         <v>2378</v>
       </c>
-      <c r="AN218" s="20" t="s">
+      <c r="AN218" t="s">
         <v>331</v>
       </c>
-      <c r="AO218" s="20" t="s">
+      <c r="AO218" t="s">
         <v>1219</v>
       </c>
-      <c r="AP218" s="20" t="s">
+      <c r="AP218" t="s">
         <v>293</v>
       </c>
-      <c r="AQ218" s="20" t="s">
+      <c r="AQ218" t="s">
         <v>1170</v>
       </c>
-      <c r="AR218" s="20" t="s">
+      <c r="AR218" t="s">
         <v>4410</v>
       </c>
-      <c r="AS218" s="20" t="s">
+      <c r="AS218" t="s">
         <v>334</v>
       </c>
-      <c r="AT218" s="20" t="s">
+      <c r="AT218" t="s">
         <v>4411</v>
       </c>
-      <c r="AU218" s="20" t="s">
+      <c r="AU218" t="s">
         <v>298</v>
       </c>
-      <c r="AV218" s="20" t="s">
+      <c r="AV218" t="s">
         <v>3835</v>
       </c>
-      <c r="AW218" s="20" t="s">
+      <c r="AW218" t="s">
         <v>394</v>
       </c>
-      <c r="AX218" s="20" t="s">
+      <c r="AX218" t="s">
         <v>208</v>
       </c>
       <c r="AY218" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AZ218" s="20" t="s">
+      <c r="AZ218" t="s">
         <v>303</v>
       </c>
       <c r="BA218" s="1" t="s">
@@ -49456,13 +49774,160 @@
         <v>218</v>
       </c>
       <c r="B219" s="2">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="C219" t="s">
         <v>54</v>
       </c>
+      <c r="D219" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
       <c r="G219" t="s">
         <v>2741</v>
+      </c>
+      <c r="H219" t="s">
+        <v>213</v>
+      </c>
+      <c r="I219">
+        <v>540</v>
+      </c>
+      <c r="J219">
+        <v>740</v>
+      </c>
+      <c r="K219" t="s">
+        <v>4413</v>
+      </c>
+      <c r="L219" t="s">
+        <v>4414</v>
+      </c>
+      <c r="M219">
+        <v>999</v>
+      </c>
+      <c r="N219" t="s">
+        <v>102</v>
+      </c>
+      <c r="O219" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P219" t="s">
+        <v>4415</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>4416</v>
+      </c>
+      <c r="R219" t="s">
+        <v>4427</v>
+      </c>
+      <c r="S219">
+        <v>999</v>
+      </c>
+      <c r="T219" t="s">
+        <v>64</v>
+      </c>
+      <c r="U219" s="1">
+        <v>999</v>
+      </c>
+      <c r="V219" s="20" t="s">
+        <v>3706</v>
+      </c>
+      <c r="W219" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="X219" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y219" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z219" s="20" t="s">
+        <v>4417</v>
+      </c>
+      <c r="AA219" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB219" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC219" s="20" t="s">
+        <v>4418</v>
+      </c>
+      <c r="AD219" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE219" s="20" t="s">
+        <v>3877</v>
+      </c>
+      <c r="AF219" s="20" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AG219" s="20" t="s">
+        <v>4419</v>
+      </c>
+      <c r="AH219" s="20" t="s">
+        <v>4420</v>
+      </c>
+      <c r="AI219" s="20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AJ219" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK219" s="20" t="s">
+        <v>4066</v>
+      </c>
+      <c r="AL219" s="20" t="s">
+        <v>4421</v>
+      </c>
+      <c r="AM219" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN219" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO219" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP219" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ219" s="20" t="s">
+        <v>4034</v>
+      </c>
+      <c r="AR219" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS219" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT219" s="20" t="s">
+        <v>4422</v>
+      </c>
+      <c r="AU219" s="20" t="s">
+        <v>3546</v>
+      </c>
+      <c r="AV219" s="20" t="s">
+        <v>4423</v>
+      </c>
+      <c r="AW219" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="AX219" s="20" t="s">
+        <v>4424</v>
+      </c>
+      <c r="AY219" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ219" t="s">
+        <v>4426</v>
+      </c>
+      <c r="BA219" s="1" t="s">
+        <v>4425</v>
       </c>
     </row>
     <row r="220" spans="1:54" x14ac:dyDescent="0.25">
@@ -49470,35 +49935,482 @@
         <v>219</v>
       </c>
       <c r="B220" s="2">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="C220" t="s">
         <v>54</v>
       </c>
+      <c r="D220" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E220">
+        <v>15</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
       <c r="G220" t="s">
         <v>2742</v>
+      </c>
+      <c r="H220" t="s">
+        <v>97</v>
+      </c>
+      <c r="I220">
+        <v>540</v>
+      </c>
+      <c r="J220">
+        <v>740</v>
+      </c>
+      <c r="K220" t="s">
+        <v>4413</v>
+      </c>
+      <c r="L220" t="s">
+        <v>4414</v>
+      </c>
+      <c r="M220">
+        <v>999</v>
+      </c>
+      <c r="N220" t="s">
+        <v>102</v>
+      </c>
+      <c r="O220" t="s">
+        <v>103</v>
+      </c>
+      <c r="P220" t="s">
+        <v>4415</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>4416</v>
+      </c>
+      <c r="R220" t="s">
+        <v>4427</v>
+      </c>
+      <c r="S220">
+        <v>999</v>
+      </c>
+      <c r="T220" t="s">
+        <v>64</v>
+      </c>
+      <c r="U220" s="1">
+        <v>999</v>
+      </c>
+      <c r="V220" s="20" t="s">
+        <v>4428</v>
+      </c>
+      <c r="W220" s="20" t="s">
+        <v>4345</v>
+      </c>
+      <c r="X220" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y220" s="20" t="s">
+        <v>4429</v>
+      </c>
+      <c r="Z220" s="20" t="s">
+        <v>3827</v>
+      </c>
+      <c r="AA220" s="20" t="s">
+        <v>4430</v>
+      </c>
+      <c r="AB220" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC220" s="20" t="s">
+        <v>4431</v>
+      </c>
+      <c r="AD220" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE220" s="20" t="s">
+        <v>4432</v>
+      </c>
+      <c r="AF220" s="20" t="s">
+        <v>4433</v>
+      </c>
+      <c r="AG220" s="20" t="s">
+        <v>4434</v>
+      </c>
+      <c r="AH220" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AI220" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ220" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK220" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL220" s="20" t="s">
+        <v>4435</v>
+      </c>
+      <c r="AM220" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN220" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO220" s="20" t="s">
+        <v>4436</v>
+      </c>
+      <c r="AP220" s="20" t="s">
+        <v>4437</v>
+      </c>
+      <c r="AQ220" s="20" t="s">
+        <v>4438</v>
+      </c>
+      <c r="AR220" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS220" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT220" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU220" s="20" t="s">
+        <v>4439</v>
+      </c>
+      <c r="AV220" s="20" t="s">
+        <v>4440</v>
+      </c>
+      <c r="AW220" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AX220" s="20" t="s">
+        <v>4441</v>
+      </c>
+      <c r="AY220" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ220" t="s">
+        <v>4426</v>
+      </c>
+      <c r="BA220" s="1" t="s">
+        <v>4442</v>
       </c>
     </row>
     <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
+      <c r="B221" s="2">
+        <v>44807</v>
+      </c>
       <c r="C221" t="s">
         <v>54</v>
       </c>
+      <c r="D221" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E221">
+        <v>15</v>
+      </c>
+      <c r="F221">
+        <v>20</v>
+      </c>
       <c r="G221" t="s">
         <v>2743</v>
+      </c>
+      <c r="H221" t="s">
+        <v>97</v>
+      </c>
+      <c r="I221">
+        <v>540</v>
+      </c>
+      <c r="J221">
+        <v>740</v>
+      </c>
+      <c r="K221" t="s">
+        <v>4443</v>
+      </c>
+      <c r="L221" t="s">
+        <v>4444</v>
+      </c>
+      <c r="M221">
+        <v>999</v>
+      </c>
+      <c r="N221" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O221" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P221" t="s">
+        <v>4446</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>4445</v>
+      </c>
+      <c r="R221">
+        <v>999</v>
+      </c>
+      <c r="S221">
+        <v>999</v>
+      </c>
+      <c r="T221" t="s">
+        <v>3529</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="V221" s="20" t="s">
+        <v>4448</v>
+      </c>
+      <c r="W221" s="20" t="s">
+        <v>4449</v>
+      </c>
+      <c r="X221" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y221">
+        <v>999</v>
+      </c>
+      <c r="Z221" s="20" t="s">
+        <v>4450</v>
+      </c>
+      <c r="AA221" s="20" t="s">
+        <v>4451</v>
+      </c>
+      <c r="AB221" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC221" s="20" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD221" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE221" s="20" t="s">
+        <v>4452</v>
+      </c>
+      <c r="AF221" s="20" t="s">
+        <v>4453</v>
+      </c>
+      <c r="AG221" s="20" t="s">
+        <v>4454</v>
+      </c>
+      <c r="AH221" s="20" t="s">
+        <v>4455</v>
+      </c>
+      <c r="AI221" s="20" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ221" s="20" t="s">
+        <v>4456</v>
+      </c>
+      <c r="AK221" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL221" s="20" t="s">
+        <v>4457</v>
+      </c>
+      <c r="AM221" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN221" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO221" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP221" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ221" s="20" t="s">
+        <v>4458</v>
+      </c>
+      <c r="AR221" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS221" s="20" t="s">
+        <v>4459</v>
+      </c>
+      <c r="AT221" s="20" t="s">
+        <v>4460</v>
+      </c>
+      <c r="AU221" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="AV221" s="20" t="s">
+        <v>4272</v>
+      </c>
+      <c r="AW221" s="20" t="s">
+        <v>4461</v>
+      </c>
+      <c r="AX221" s="20" t="s">
+        <v>4462</v>
+      </c>
+      <c r="AY221" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ221" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA221" s="1" t="s">
+        <v>4463</v>
       </c>
     </row>
     <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
+      <c r="B222" s="2">
+        <v>44807</v>
+      </c>
       <c r="C222" t="s">
         <v>54</v>
       </c>
+      <c r="D222" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E222">
+        <v>16</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
       <c r="G222" t="s">
         <v>2744</v>
+      </c>
+      <c r="H222" t="s">
+        <v>97</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J222" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K222" t="s">
+        <v>4464</v>
+      </c>
+      <c r="L222" t="s">
+        <v>4465</v>
+      </c>
+      <c r="M222">
+        <v>999</v>
+      </c>
+      <c r="N222" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O222" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P222" t="s">
+        <v>4466</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>3764</v>
+      </c>
+      <c r="R222" t="s">
+        <v>4467</v>
+      </c>
+      <c r="S222">
+        <v>999</v>
+      </c>
+      <c r="T222" t="s">
+        <v>3416</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="V222" s="20" t="s">
+        <v>4254</v>
+      </c>
+      <c r="W222" s="20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="X222" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y222" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z222" s="20" t="s">
+        <v>4469</v>
+      </c>
+      <c r="AA222" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB222" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC222" s="20" t="s">
+        <v>4470</v>
+      </c>
+      <c r="AD222" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE222" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF222" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AG222" s="20" t="s">
+        <v>4471</v>
+      </c>
+      <c r="AH222" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI222" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ222" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK222" s="20" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AL222" s="20" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AM222" s="20" t="s">
+        <v>4209</v>
+      </c>
+      <c r="AN222" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO222" s="20" t="s">
+        <v>4472</v>
+      </c>
+      <c r="AP222" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ222" s="20" t="s">
+        <v>4473</v>
+      </c>
+      <c r="AR222" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS222" s="20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AT222" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AU222" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV222" s="20" t="s">
+        <v>4474</v>
+      </c>
+      <c r="AW222" s="20" t="s">
+        <v>4475</v>
+      </c>
+      <c r="AX222" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY222" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ222" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA222" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:54" x14ac:dyDescent="0.25">
@@ -49688,7 +50600,7 @@
         <v>97</v>
       </c>
       <c r="I224" t="s">
-        <v>305</v>
+        <v>1381</v>
       </c>
       <c r="J224" t="s">
         <v>4018</v>
@@ -49823,54 +50735,541 @@
         <v>266</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
+      <c r="B225" s="2">
+        <v>44807</v>
+      </c>
       <c r="C225" t="s">
         <v>54</v>
       </c>
+      <c r="D225" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E225">
+        <v>16</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
+      </c>
       <c r="G225" t="s">
         <v>2747</v>
       </c>
+      <c r="H225" t="s">
+        <v>97</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J225" t="s">
+        <v>4476</v>
+      </c>
+      <c r="K225" t="s">
+        <v>4477</v>
+      </c>
+      <c r="L225" t="s">
+        <v>4478</v>
+      </c>
+      <c r="M225">
+        <v>999</v>
+      </c>
+      <c r="N225" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O225" t="s">
+        <v>103</v>
+      </c>
+      <c r="P225" t="s">
+        <v>4479</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>4480</v>
+      </c>
+      <c r="R225">
+        <v>999</v>
+      </c>
+      <c r="S225">
+        <v>999</v>
+      </c>
+      <c r="T225" t="s">
+        <v>64</v>
+      </c>
+      <c r="U225" s="1">
+        <v>999</v>
+      </c>
+      <c r="V225" t="s">
+        <v>4481</v>
+      </c>
+      <c r="W225" t="s">
+        <v>4482</v>
+      </c>
+      <c r="X225" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>4483</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>4484</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>4485</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>4486</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>4487</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>790</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>4488</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>4489</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AY225" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ225" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA225" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
+      <c r="B226" s="2">
+        <v>44807</v>
+      </c>
       <c r="C226" t="s">
         <v>54</v>
       </c>
+      <c r="D226" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E226">
+        <v>16</v>
+      </c>
+      <c r="F226">
+        <v>5</v>
+      </c>
       <c r="G226" t="s">
         <v>2748</v>
       </c>
+      <c r="H226" t="s">
+        <v>97</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J226" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K226" t="s">
+        <v>4490</v>
+      </c>
+      <c r="L226" t="s">
+        <v>4491</v>
+      </c>
+      <c r="M226">
+        <v>999</v>
+      </c>
+      <c r="N226" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O226" t="s">
+        <v>103</v>
+      </c>
+      <c r="P226" t="s">
+        <v>4492</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>4493</v>
+      </c>
+      <c r="R226">
+        <v>999</v>
+      </c>
+      <c r="S226">
+        <v>999</v>
+      </c>
+      <c r="T226" t="s">
+        <v>64</v>
+      </c>
+      <c r="U226" s="1">
+        <v>999</v>
+      </c>
+      <c r="V226" t="s">
+        <v>4481</v>
+      </c>
+      <c r="W226" t="s">
+        <v>247</v>
+      </c>
+      <c r="X226">
+        <v>999</v>
+      </c>
+      <c r="Y226">
+        <v>999</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>4494</v>
+      </c>
+      <c r="AA226">
+        <v>999</v>
+      </c>
+      <c r="AB226">
+        <v>999</v>
+      </c>
+      <c r="AC226">
+        <v>999</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF226">
+        <v>999</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>4495</v>
+      </c>
+      <c r="AH226">
+        <v>999</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>4496</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>4497</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL226">
+        <v>999</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP226">
+        <v>999</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>4498</v>
+      </c>
+      <c r="AR226" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS226">
+        <v>999</v>
+      </c>
+      <c r="AT226">
+        <v>999</v>
+      </c>
+      <c r="AU226">
+        <v>999</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>3485</v>
+      </c>
+      <c r="AW226" t="s">
+        <v>4499</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AY226" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ226" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA226" s="1">
+        <v>999</v>
+      </c>
+      <c r="BB226" s="20" t="s">
+        <v>4518</v>
+      </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
+      <c r="B227" s="2">
+        <v>44807</v>
+      </c>
       <c r="C227" t="s">
         <v>54</v>
       </c>
+      <c r="D227" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
       <c r="G227" t="s">
         <v>2749</v>
       </c>
+      <c r="H227" t="s">
+        <v>97</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J227" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K227" t="s">
+        <v>4500</v>
+      </c>
+      <c r="L227" t="s">
+        <v>4501</v>
+      </c>
+      <c r="M227">
+        <v>999</v>
+      </c>
+      <c r="N227" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O227" t="s">
+        <v>103</v>
+      </c>
+      <c r="P227" t="s">
+        <v>4502</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>4179</v>
+      </c>
+      <c r="R227" t="s">
+        <v>4503</v>
+      </c>
+      <c r="S227">
+        <v>999</v>
+      </c>
+      <c r="T227" t="s">
+        <v>142</v>
+      </c>
+      <c r="U227" s="1">
+        <v>999</v>
+      </c>
+      <c r="V227" s="20" t="s">
+        <v>4504</v>
+      </c>
+      <c r="W227" s="20" t="s">
+        <v>4505</v>
+      </c>
+      <c r="X227" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y227" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z227" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA227" s="20" t="s">
+        <v>4506</v>
+      </c>
+      <c r="AB227" s="20" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AC227" s="20" t="s">
+        <v>4507</v>
+      </c>
+      <c r="AD227" s="20" t="s">
+        <v>2304</v>
+      </c>
+      <c r="AE227" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF227" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG227" s="20" t="s">
+        <v>4508</v>
+      </c>
+      <c r="AH227" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI227" s="20" t="s">
+        <v>4509</v>
+      </c>
+      <c r="AJ227" s="20" t="s">
+        <v>4510</v>
+      </c>
+      <c r="AK227" s="20" t="s">
+        <v>4511</v>
+      </c>
+      <c r="AL227" s="20" t="s">
+        <v>4512</v>
+      </c>
+      <c r="AM227" s="20" t="s">
+        <v>4513</v>
+      </c>
+      <c r="AN227" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO227" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AP227" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ227" s="20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR227" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS227" s="20" t="s">
+        <v>4013</v>
+      </c>
+      <c r="AT227" s="20" t="s">
+        <v>4514</v>
+      </c>
+      <c r="AU227" s="20" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AV227" s="20" t="s">
+        <v>3792</v>
+      </c>
+      <c r="AW227" s="20" t="s">
+        <v>4515</v>
+      </c>
+      <c r="AX227" s="20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AY227" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AZ227" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA227" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
+      <c r="B228" s="2">
+        <v>44807</v>
+      </c>
       <c r="C228" t="s">
         <v>54</v>
       </c>
+      <c r="D228" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E228">
+        <v>16</v>
+      </c>
+      <c r="F228">
+        <v>7</v>
+      </c>
       <c r="G228" t="s">
         <v>2750</v>
       </c>
+      <c r="H228" t="s">
+        <v>97</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J228" t="s">
+        <v>4018</v>
+      </c>
+      <c r="K228" t="s">
+        <v>4516</v>
+      </c>
+      <c r="L228" t="s">
+        <v>4517</v>
+      </c>
+      <c r="M228">
+        <v>999</v>
+      </c>
+      <c r="N228" t="s">
+        <v>1372</v>
+      </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
+      <c r="B229" s="2"/>
       <c r="C229" t="s">
         <v>54</v>
       </c>
@@ -49878,10 +51277,11 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
+      <c r="B230" s="2"/>
       <c r="C230" t="s">
         <v>54</v>
       </c>
@@ -49889,7 +51289,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -49900,7 +51300,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -49911,7 +51311,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -49922,7 +51322,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -49933,7 +51333,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -49944,7 +51344,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -49971,7 +51371,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Data/DWA_AL.xlsx
+++ b/Data/DWA_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E1B65-5C08-4293-8625-2D2DCA63CC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3EF23-F512-460C-AE8C-984F52E4D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="36" windowWidth="13404" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="684" yWindow="192" windowWidth="12744" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12100" uniqueCount="5366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12528" uniqueCount="5512">
   <si>
     <t>ID</t>
   </si>
@@ -17679,6 +17679,566 @@
       </rPr>
       <t>fa</t>
     </r>
+  </si>
+  <si>
+    <t>[v]-h</t>
+  </si>
+  <si>
+    <t>Krautenauschule</t>
+  </si>
+  <si>
+    <t>Flugel</t>
+  </si>
+  <si>
+    <t>Gummera, Gugumer</t>
+  </si>
+  <si>
+    <t>&lt;Wildrose:&gt; Buutenmus, &lt;Schwarzdorn:&gt; Hagā[pf]ela</t>
+  </si>
+  <si>
+    <t>Scharnieler, Mul wurf</t>
+  </si>
+  <si>
+    <t>Gettel, Getl</t>
+  </si>
+  <si>
+    <t>Pflüeme</t>
+  </si>
+  <si>
+    <t>schalte, schimpfe</t>
+  </si>
+  <si>
+    <t>Kunschthafa, ardaner Hafa</t>
+  </si>
+  <si>
+    <t>Schwejertochter, Sohnsfroi</t>
+  </si>
+  <si>
+    <t>Sundhofen</t>
+  </si>
+  <si>
+    <t>K. Vonhof</t>
+  </si>
+  <si>
+    <t>und Bewohner</t>
+  </si>
+  <si>
+    <t>Oomeis</t>
+  </si>
+  <si>
+    <t>Brummĕrdĕ</t>
+  </si>
+  <si>
+    <t>Fladrmǖs</t>
+  </si>
+  <si>
+    <t>Muggĕ</t>
+  </si>
+  <si>
+    <t>Ohmd</t>
+  </si>
+  <si>
+    <t>Güller, Hüen</t>
+  </si>
+  <si>
+    <t>Hardepfl</t>
+  </si>
+  <si>
+    <t>Schaell-͜nialer</t>
+  </si>
+  <si>
+    <t>Galrūb</t>
+  </si>
+  <si>
+    <t>Galruabĭ</t>
+  </si>
+  <si>
+    <t>Pfeddr</t>
+  </si>
+  <si>
+    <t>Riamĕ</t>
+  </si>
+  <si>
+    <t>schältä̆</t>
+  </si>
+  <si>
+    <t>Gūf</t>
+  </si>
+  <si>
+    <t>Stricknōdel</t>
+  </si>
+  <si>
+    <t>Kaffeeschissel, Dallerle</t>
+  </si>
+  <si>
+    <t>[v]-o</t>
+  </si>
+  <si>
+    <t>Appenweier</t>
+  </si>
+  <si>
+    <t>August Weiss</t>
+  </si>
+  <si>
+    <t>Balgau</t>
+  </si>
+  <si>
+    <t>&lt;Ober-Elsaß&gt;</t>
+  </si>
+  <si>
+    <t>Bromerda (w)</t>
+  </si>
+  <si>
+    <t>Ātzel (w)</t>
+  </si>
+  <si>
+    <t>Ohmt (s', s)</t>
+  </si>
+  <si>
+    <t>Gugummer (d', w)</t>
+  </si>
+  <si>
+    <t>Butt (m)</t>
+  </si>
+  <si>
+    <t>Scharrn[i]aller (m) {punkt und = über i}</t>
+  </si>
+  <si>
+    <t>Mohrrübe &lt;=&gt;, Gallrüab (w)</t>
+  </si>
+  <si>
+    <t>Schpātz (m)</t>
+  </si>
+  <si>
+    <t>Schtr[i]cknodel (w) {punkt und = über i}</t>
+  </si>
+  <si>
+    <t>Tāß (w)</t>
+  </si>
+  <si>
+    <t>Hettenschlag</t>
+  </si>
+  <si>
+    <t>Brombe&lt;r&gt;dra</t>
+  </si>
+  <si>
+    <t>[Ah]nt</t>
+  </si>
+  <si>
+    <t>[Ā͜]omeisa &lt;[a]o = Mundstellung [eoe]f u&gt;</t>
+  </si>
+  <si>
+    <t>zweiter Schnitt Klee</t>
+  </si>
+  <si>
+    <t>Gogommer &lt;o wiebei Aneis[er]&gt;</t>
+  </si>
+  <si>
+    <t>Güller, Huan</t>
+  </si>
+  <si>
+    <r>
+      <t>Hewamm &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gepfl&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Hohlmüler, Schalnialer</t>
+  </si>
+  <si>
+    <t>Galruawa</t>
+  </si>
+  <si>
+    <t>Moo&lt;u&gt;r</t>
+  </si>
+  <si>
+    <t>Pflüm&lt;a&gt;, &lt;Mehrz. a&gt;</t>
+  </si>
+  <si>
+    <t>pfalda</t>
+  </si>
+  <si>
+    <r>
+      <t>Sp</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tz &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Geshl.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Grüsselbära</t>
+  </si>
+  <si>
+    <t>Schessala, Daller</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fa &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> geschl.</t>
+    </r>
+  </si>
+  <si>
+    <t>Schwegerdochter</t>
+  </si>
+  <si>
+    <t>[v]-k</t>
+  </si>
+  <si>
+    <t>Logelnheim</t>
+  </si>
+  <si>
+    <t>Haßstetter, Erkia</t>
+  </si>
+  <si>
+    <t>Berta [A]nsser</t>
+  </si>
+  <si>
+    <t>Aagerscht</t>
+  </si>
+  <si>
+    <t>Hahne, Hüan</t>
+  </si>
+  <si>
+    <t>Katzerolle</t>
+  </si>
+  <si>
+    <t>Schalnüalr</t>
+  </si>
+  <si>
+    <t>Galwuawa</t>
+  </si>
+  <si>
+    <t>Pfetr</t>
+  </si>
+  <si>
+    <t>Gefla</t>
+  </si>
+  <si>
+    <t>Tassla, Tallerla</t>
+  </si>
+  <si>
+    <t>Kochhafa</t>
+  </si>
+  <si>
+    <t>Schwiagertochter</t>
+  </si>
+  <si>
+    <t>Hollra {an stelle 65}</t>
+  </si>
+  <si>
+    <t>[v]-i</t>
+  </si>
+  <si>
+    <t>Wenzw[ie]l[?]</t>
+  </si>
+  <si>
+    <t>O. Els.</t>
+  </si>
+  <si>
+    <t>Swag[is]</t>
+  </si>
+  <si>
+    <t>Omaisala</t>
+  </si>
+  <si>
+    <t>Bomarda</t>
+  </si>
+  <si>
+    <t>Agrst {Nr. 23}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratsch[a] </t>
+  </si>
+  <si>
+    <t>Muk</t>
+  </si>
+  <si>
+    <t>Gugum[a]</t>
+  </si>
+  <si>
+    <t>Gülle</t>
+  </si>
+  <si>
+    <t>Hartäpf[e]l</t>
+  </si>
+  <si>
+    <t>Galreaba</t>
+  </si>
+  <si>
+    <t>Reama</t>
+  </si>
+  <si>
+    <t>schüfla</t>
+  </si>
+  <si>
+    <t>Grüslbeera</t>
+  </si>
+  <si>
+    <t>Schtrecknodel</t>
+  </si>
+  <si>
+    <t>Dassela, [W]allrla</t>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iega</t>
+    </r>
+  </si>
+  <si>
+    <t>[v]-q</t>
+  </si>
+  <si>
+    <t>Künheim</t>
+  </si>
+  <si>
+    <t>R. Kegreiss</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>&lt;Der Leiter der Volksschule in Künheim&gt;</t>
+  </si>
+  <si>
+    <t>Bromberda &lt;Mehrzahl&gt;</t>
+  </si>
+  <si>
+    <t>zweit Schnett (m), Ohmet (m)</t>
+  </si>
+  <si>
+    <t>Butta &lt;Mehrz.&gt;</t>
+  </si>
+  <si>
+    <t>Güller, Huhn (w)</t>
+  </si>
+  <si>
+    <t>Scharrnealer (m)</t>
+  </si>
+  <si>
+    <t>Geddel {Könnte auch Pfettr sein - eventuell vertauscht}</t>
+  </si>
+  <si>
+    <t>Reama (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeera &lt;Mehrz.&gt;</t>
+  </si>
+  <si>
+    <t>Stricknoodel (w)</t>
+  </si>
+  <si>
+    <t>Schessela (s)</t>
+  </si>
+  <si>
+    <t>Haafa (m)</t>
+  </si>
+  <si>
+    <t>Gschwie (w)</t>
+  </si>
+  <si>
+    <t>[v]-A</t>
+  </si>
+  <si>
+    <t>Achkarren</t>
+  </si>
+  <si>
+    <t>Josef [Ke]ni[uzer]</t>
+  </si>
+  <si>
+    <t>Möhringen</t>
+  </si>
+  <si>
+    <t>&lt;Anm: das a ist dunkel nach den O gefärbt, das e den Ende ebenfalls nach dem O gefärbt&gt;</t>
+  </si>
+  <si>
+    <t>Brumbele</t>
+  </si>
+  <si>
+    <t>Er[at]e</t>
+  </si>
+  <si>
+    <t>Mukke</t>
+  </si>
+  <si>
+    <t>Hagebütte</t>
+  </si>
+  <si>
+    <t>Guler, Huen</t>
+  </si>
+  <si>
+    <t>schüfle</t>
+  </si>
+  <si>
+    <t>Schissle, Tallerle</t>
+  </si>
+  <si>
+    <t>veredle, zwiege</t>
+  </si>
+  <si>
+    <t>Hollundr</t>
+  </si>
+  <si>
+    <t>[v]-B</t>
+  </si>
+  <si>
+    <t>Ibringen</t>
+  </si>
+  <si>
+    <t>a,K,</t>
+  </si>
+  <si>
+    <t>Kalch</t>
+  </si>
+  <si>
+    <t>Herbolzheim</t>
+  </si>
+  <si>
+    <t>Kuhn, Kurt</t>
+  </si>
+  <si>
+    <t>Bromala</t>
+  </si>
+  <si>
+    <t>Dissla</t>
+  </si>
+  <si>
+    <t>Elstr</t>
+  </si>
+  <si>
+    <t>Andrrich</t>
+  </si>
+  <si>
+    <t>Guggumara</t>
+  </si>
+  <si>
+    <t>Haagabuda</t>
+  </si>
+  <si>
+    <t>Gulr, Huan</t>
+  </si>
+  <si>
+    <t>Katzarollr</t>
+  </si>
+  <si>
+    <t>Mülwurf</t>
+  </si>
+  <si>
+    <t>Galrübli</t>
+  </si>
+  <si>
+    <t>Geisla</t>
+  </si>
+  <si>
+    <t>schälta</t>
   </si>
 </sst>
 </file>
@@ -17836,7 +18396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -17860,10 +18420,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -18184,8 +18741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB397"/>
   <sheetViews>
-    <sheetView topLeftCell="AR239" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ266" sqref="AZ266"/>
+    <sheetView topLeftCell="AR238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA274" sqref="BA274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18217,8 +18774,7 @@
     <col min="45" max="45" width="14.5" customWidth="1"/>
     <col min="46" max="46" width="16.09765625" customWidth="1"/>
     <col min="47" max="47" width="21.19921875" customWidth="1"/>
-    <col min="48" max="48" width="10.69921875" style="24" customWidth="1"/>
-    <col min="49" max="50" width="10.69921875" customWidth="1"/>
+    <col min="48" max="50" width="10.69921875" customWidth="1"/>
     <col min="51" max="51" width="10.69921875" style="1" customWidth="1"/>
     <col min="52" max="52" width="10.69921875" customWidth="1"/>
     <col min="53" max="53" width="19" style="1" customWidth="1"/>
@@ -18368,7 +18924,7 @@
       <c r="AU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AV1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AW1" s="3" t="s">
@@ -18532,7 +19088,7 @@
       <c r="AU2" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" t="s">
         <v>90</v>
       </c>
       <c r="AW2" t="s">
@@ -18693,7 +19249,7 @@
       <c r="AU3" t="s">
         <v>129</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" t="s">
         <v>840</v>
       </c>
       <c r="AW3" t="s">
@@ -18857,7 +19413,7 @@
       <c r="AU4" t="s">
         <v>167</v>
       </c>
-      <c r="AV4" s="24" t="s">
+      <c r="AV4" t="s">
         <v>168</v>
       </c>
       <c r="AW4" t="s">
@@ -19021,7 +19577,7 @@
       <c r="AU5" t="s">
         <v>205</v>
       </c>
-      <c r="AV5" s="24" t="s">
+      <c r="AV5" t="s">
         <v>206</v>
       </c>
       <c r="AW5" t="s">
@@ -19185,7 +19741,7 @@
       <c r="AU6" t="s">
         <v>237</v>
       </c>
-      <c r="AV6" s="24" t="s">
+      <c r="AV6" t="s">
         <v>542</v>
       </c>
       <c r="AW6" t="s">
@@ -19346,7 +19902,7 @@
       <c r="AU7" t="s">
         <v>263</v>
       </c>
-      <c r="AV7" s="24" t="s">
+      <c r="AV7" t="s">
         <v>264</v>
       </c>
       <c r="AW7" t="s">
@@ -19507,7 +20063,7 @@
       <c r="AU8" t="s">
         <v>298</v>
       </c>
-      <c r="AV8" s="24" t="s">
+      <c r="AV8" t="s">
         <v>299</v>
       </c>
       <c r="AW8" t="s">
@@ -19668,7 +20224,7 @@
       <c r="AU9" t="s">
         <v>298</v>
       </c>
-      <c r="AV9" s="24" t="s">
+      <c r="AV9" t="s">
         <v>299</v>
       </c>
       <c r="AW9" t="s">
@@ -19829,7 +20385,7 @@
       <c r="AU10" t="s">
         <v>336</v>
       </c>
-      <c r="AV10" s="24" t="s">
+      <c r="AV10" t="s">
         <v>337</v>
       </c>
       <c r="AW10" t="s">
@@ -19990,7 +20546,7 @@
       <c r="AU11" t="s">
         <v>363</v>
       </c>
-      <c r="AV11" s="24" t="s">
+      <c r="AV11" t="s">
         <v>543</v>
       </c>
       <c r="AW11" t="s">
@@ -20151,7 +20707,7 @@
       <c r="AU12" t="s">
         <v>393</v>
       </c>
-      <c r="AV12" s="24" t="s">
+      <c r="AV12" t="s">
         <v>541</v>
       </c>
       <c r="AW12" t="s">
@@ -20312,7 +20868,7 @@
       <c r="AU13" t="s">
         <v>417</v>
       </c>
-      <c r="AV13" s="24" t="s">
+      <c r="AV13" t="s">
         <v>418</v>
       </c>
       <c r="AW13" t="s">
@@ -20473,7 +21029,7 @@
       <c r="AU14" t="s">
         <v>263</v>
       </c>
-      <c r="AV14" s="24" t="s">
+      <c r="AV14" t="s">
         <v>445</v>
       </c>
       <c r="AW14" t="s">
@@ -20634,7 +21190,7 @@
       <c r="AU15" t="s">
         <v>470</v>
       </c>
-      <c r="AV15" s="24" t="s">
+      <c r="AV15" t="s">
         <v>471</v>
       </c>
       <c r="AW15" t="s">
@@ -20795,7 +21351,7 @@
       <c r="AU16" t="s">
         <v>496</v>
       </c>
-      <c r="AV16" s="24" t="s">
+      <c r="AV16" t="s">
         <v>497</v>
       </c>
       <c r="AW16" t="s">
@@ -20956,7 +21512,7 @@
       <c r="AU17" t="s">
         <v>520</v>
       </c>
-      <c r="AV17" s="24" t="s">
+      <c r="AV17" t="s">
         <v>521</v>
       </c>
       <c r="AW17" t="s">
@@ -21117,7 +21673,7 @@
       <c r="AU18" t="s">
         <v>685</v>
       </c>
-      <c r="AV18" s="24" t="s">
+      <c r="AV18" t="s">
         <v>686</v>
       </c>
       <c r="AW18" t="s">
@@ -21278,7 +21834,7 @@
       <c r="AU19" t="s">
         <v>263</v>
       </c>
-      <c r="AV19" s="24" t="s">
+      <c r="AV19" t="s">
         <v>445</v>
       </c>
       <c r="AW19" t="s">
@@ -21439,7 +21995,7 @@
       <c r="AU20" t="s">
         <v>605</v>
       </c>
-      <c r="AV20" s="24" t="s">
+      <c r="AV20" t="s">
         <v>606</v>
       </c>
       <c r="AW20" t="s">
@@ -21603,7 +22159,7 @@
       <c r="AU21" t="s">
         <v>629</v>
       </c>
-      <c r="AV21" s="24" t="s">
+      <c r="AV21" t="s">
         <v>445</v>
       </c>
       <c r="AW21" t="s">
@@ -21767,7 +22323,7 @@
       <c r="AU22" t="s">
         <v>656</v>
       </c>
-      <c r="AV22" s="24" t="s">
+      <c r="AV22" t="s">
         <v>657</v>
       </c>
       <c r="AW22" t="s">
@@ -21928,7 +22484,7 @@
       <c r="AU23" t="s">
         <v>363</v>
       </c>
-      <c r="AV23" s="24" t="s">
+      <c r="AV23" t="s">
         <v>715</v>
       </c>
       <c r="AW23" t="s">
@@ -22089,7 +22645,7 @@
       <c r="AU24" t="s">
         <v>739</v>
       </c>
-      <c r="AV24" s="24" t="s">
+      <c r="AV24" t="s">
         <v>740</v>
       </c>
       <c r="AW24" t="s">
@@ -22250,7 +22806,7 @@
       <c r="AU25" t="s">
         <v>763</v>
       </c>
-      <c r="AV25" s="24" t="s">
+      <c r="AV25" t="s">
         <v>764</v>
       </c>
       <c r="AW25" t="s">
@@ -22414,7 +22970,7 @@
       <c r="AU26" t="s">
         <v>790</v>
       </c>
-      <c r="AV26" s="24" t="s">
+      <c r="AV26" t="s">
         <v>791</v>
       </c>
       <c r="AW26" t="s">
@@ -22575,7 +23131,7 @@
       <c r="AU27" t="s">
         <v>205</v>
       </c>
-      <c r="AV27" s="24" t="s">
+      <c r="AV27" t="s">
         <v>813</v>
       </c>
       <c r="AW27" t="s">
@@ -22736,7 +23292,7 @@
       <c r="AU28" t="s">
         <v>835</v>
       </c>
-      <c r="AV28" s="24" t="s">
+      <c r="AV28" t="s">
         <v>299</v>
       </c>
       <c r="AW28" t="s">
@@ -22897,7 +23453,7 @@
       <c r="AU29" t="s">
         <v>871</v>
       </c>
-      <c r="AV29" s="24" t="s">
+      <c r="AV29" t="s">
         <v>872</v>
       </c>
       <c r="AW29" t="s">
@@ -23058,7 +23614,7 @@
       <c r="AU30" t="s">
         <v>263</v>
       </c>
-      <c r="AV30" s="24" t="s">
+      <c r="AV30" t="s">
         <v>890</v>
       </c>
       <c r="AW30" t="s">
@@ -23219,7 +23775,7 @@
       <c r="AU31" t="s">
         <v>909</v>
       </c>
-      <c r="AV31" s="24" t="s">
+      <c r="AV31" t="s">
         <v>910</v>
       </c>
       <c r="AW31" t="s">
@@ -23380,7 +23936,7 @@
       <c r="AU32" t="s">
         <v>934</v>
       </c>
-      <c r="AV32" s="24" t="s">
+      <c r="AV32" t="s">
         <v>935</v>
       </c>
       <c r="AW32" t="s">
@@ -23541,7 +24097,7 @@
       <c r="AU33" t="s">
         <v>953</v>
       </c>
-      <c r="AV33" s="24" t="s">
+      <c r="AV33" t="s">
         <v>954</v>
       </c>
       <c r="AW33" t="s">
@@ -23705,7 +24261,7 @@
       <c r="AU34" t="s">
         <v>973</v>
       </c>
-      <c r="AV34" s="24" t="s">
+      <c r="AV34" t="s">
         <v>974</v>
       </c>
       <c r="AW34" t="s">
@@ -23866,7 +24422,7 @@
       <c r="AU35" t="s">
         <v>1000</v>
       </c>
-      <c r="AV35" s="24" t="s">
+      <c r="AV35" t="s">
         <v>1001</v>
       </c>
       <c r="AW35" t="s">
@@ -24030,7 +24586,7 @@
       <c r="AU36" t="s">
         <v>1024</v>
       </c>
-      <c r="AV36" s="24" t="s">
+      <c r="AV36" t="s">
         <v>1025</v>
       </c>
       <c r="AW36" t="s">
@@ -24191,7 +24747,7 @@
       <c r="AU37" t="s">
         <v>1048</v>
       </c>
-      <c r="AV37" s="24" t="s">
+      <c r="AV37" t="s">
         <v>1050</v>
       </c>
       <c r="AW37" t="s">
@@ -24352,7 +24908,7 @@
       <c r="AU38" t="s">
         <v>1074</v>
       </c>
-      <c r="AV38" s="24" t="s">
+      <c r="AV38" t="s">
         <v>1075</v>
       </c>
       <c r="AW38" t="s">
@@ -24513,7 +25069,7 @@
       <c r="AU39" t="s">
         <v>1096</v>
       </c>
-      <c r="AV39" s="24" t="s">
+      <c r="AV39" t="s">
         <v>1097</v>
       </c>
       <c r="AW39" t="s">
@@ -24674,7 +25230,7 @@
       <c r="AU40" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="AV40" s="25" t="s">
+      <c r="AV40" s="6" t="s">
         <v>1116</v>
       </c>
       <c r="AW40" s="6" t="s">
@@ -24835,7 +25391,7 @@
       <c r="AU41" t="s">
         <v>1144</v>
       </c>
-      <c r="AV41" s="24" t="s">
+      <c r="AV41" t="s">
         <v>1145</v>
       </c>
       <c r="AW41" t="s">
@@ -24996,7 +25552,7 @@
       <c r="AU42" t="s">
         <v>1173</v>
       </c>
-      <c r="AV42" s="24" t="s">
+      <c r="AV42" t="s">
         <v>1174</v>
       </c>
       <c r="AW42" t="s">
@@ -25154,7 +25710,7 @@
       <c r="AU43" t="s">
         <v>298</v>
       </c>
-      <c r="AV43" s="24" t="s">
+      <c r="AV43" t="s">
         <v>1196</v>
       </c>
       <c r="AW43" t="s">
@@ -25315,7 +25871,7 @@
       <c r="AU44" t="s">
         <v>298</v>
       </c>
-      <c r="AV44" s="24" t="s">
+      <c r="AV44" t="s">
         <v>1221</v>
       </c>
       <c r="AW44" t="s">
@@ -25476,7 +26032,7 @@
       <c r="AU45" t="s">
         <v>298</v>
       </c>
-      <c r="AV45" s="24" t="s">
+      <c r="AV45" t="s">
         <v>1221</v>
       </c>
       <c r="AW45" t="s">
@@ -25637,7 +26193,7 @@
       <c r="AU46" t="s">
         <v>1240</v>
       </c>
-      <c r="AV46" s="24" t="s">
+      <c r="AV46" t="s">
         <v>1241</v>
       </c>
       <c r="AW46" t="s">
@@ -25798,7 +26354,7 @@
       <c r="AU47" t="s">
         <v>205</v>
       </c>
-      <c r="AV47" s="24" t="s">
+      <c r="AV47" t="s">
         <v>1266</v>
       </c>
       <c r="AW47" t="s">
@@ -25959,7 +26515,7 @@
       <c r="AU48" t="s">
         <v>263</v>
       </c>
-      <c r="AV48" s="24" t="s">
+      <c r="AV48" t="s">
         <v>1283</v>
       </c>
       <c r="AW48" t="s">
@@ -26120,7 +26676,7 @@
       <c r="AU49" t="s">
         <v>1303</v>
       </c>
-      <c r="AV49" s="24" t="s">
+      <c r="AV49" t="s">
         <v>1304</v>
       </c>
       <c r="AW49" t="s">
@@ -26281,7 +26837,7 @@
       <c r="AU50" t="s">
         <v>629</v>
       </c>
-      <c r="AV50" s="24" t="s">
+      <c r="AV50" t="s">
         <v>1266</v>
       </c>
       <c r="AW50" t="s">
@@ -26442,7 +26998,7 @@
       <c r="AU51" t="s">
         <v>1349</v>
       </c>
-      <c r="AV51" s="24" t="s">
+      <c r="AV51" t="s">
         <v>299</v>
       </c>
       <c r="AW51" t="s">
@@ -26603,7 +27159,7 @@
       <c r="AU52" t="s">
         <v>263</v>
       </c>
-      <c r="AV52" s="24" t="s">
+      <c r="AV52" t="s">
         <v>1368</v>
       </c>
       <c r="AW52" t="s">
@@ -26764,7 +27320,7 @@
       <c r="AU53">
         <v>999</v>
       </c>
-      <c r="AV53" s="24" t="s">
+      <c r="AV53" t="s">
         <v>1379</v>
       </c>
       <c r="AW53">
@@ -26925,7 +27481,7 @@
       <c r="AU54" t="s">
         <v>1074</v>
       </c>
-      <c r="AV54" s="24" t="s">
+      <c r="AV54" t="s">
         <v>1395</v>
       </c>
       <c r="AW54" t="s">
@@ -27086,7 +27642,7 @@
       <c r="AU55" t="s">
         <v>1240</v>
       </c>
-      <c r="AV55" s="24" t="s">
+      <c r="AV55" t="s">
         <v>1419</v>
       </c>
       <c r="AW55" t="s">
@@ -27247,7 +27803,7 @@
       <c r="AU56" s="6" t="s">
         <v>1435</v>
       </c>
-      <c r="AV56" s="25" t="s">
+      <c r="AV56" s="6" t="s">
         <v>1436</v>
       </c>
       <c r="AW56" s="6" t="s">
@@ -27408,7 +27964,7 @@
       <c r="AU57" t="s">
         <v>520</v>
       </c>
-      <c r="AV57" s="24" t="s">
+      <c r="AV57" t="s">
         <v>1458</v>
       </c>
       <c r="AW57" t="s">
@@ -27569,7 +28125,7 @@
       <c r="AU58" t="s">
         <v>1485</v>
       </c>
-      <c r="AV58" s="24" t="s">
+      <c r="AV58" t="s">
         <v>1486</v>
       </c>
       <c r="AW58" t="s">
@@ -27730,7 +28286,7 @@
       <c r="AU59" t="s">
         <v>1509</v>
       </c>
-      <c r="AV59" s="24" t="s">
+      <c r="AV59" t="s">
         <v>1510</v>
       </c>
       <c r="AW59" t="s">
@@ -27891,7 +28447,7 @@
       <c r="AU60" t="s">
         <v>1541</v>
       </c>
-      <c r="AV60" s="24" t="s">
+      <c r="AV60" t="s">
         <v>1542</v>
       </c>
       <c r="AW60" t="s">
@@ -28052,7 +28608,7 @@
       <c r="AU61" t="s">
         <v>1567</v>
       </c>
-      <c r="AV61" s="24" t="s">
+      <c r="AV61" t="s">
         <v>1568</v>
       </c>
       <c r="AW61" t="s">
@@ -28213,7 +28769,7 @@
       <c r="AU62" t="s">
         <v>263</v>
       </c>
-      <c r="AV62" s="24" t="s">
+      <c r="AV62" t="s">
         <v>1589</v>
       </c>
       <c r="AW62" t="s">
@@ -28374,7 +28930,7 @@
       <c r="AU63" t="s">
         <v>1612</v>
       </c>
-      <c r="AV63" s="24" t="s">
+      <c r="AV63" t="s">
         <v>1613</v>
       </c>
       <c r="AW63" t="s">
@@ -28535,7 +29091,7 @@
       <c r="AU64" t="s">
         <v>1640</v>
       </c>
-      <c r="AV64" s="24" t="s">
+      <c r="AV64" t="s">
         <v>445</v>
       </c>
       <c r="AW64" t="s">
@@ -28696,7 +29252,7 @@
       <c r="AU65" t="s">
         <v>605</v>
       </c>
-      <c r="AV65" s="24" t="s">
+      <c r="AV65" t="s">
         <v>1656</v>
       </c>
       <c r="AW65" t="s">
@@ -28857,7 +29413,7 @@
       <c r="AU66" t="s">
         <v>973</v>
       </c>
-      <c r="AV66" s="24" t="s">
+      <c r="AV66" t="s">
         <v>1671</v>
       </c>
       <c r="AW66" t="s">
@@ -29018,7 +29574,7 @@
       <c r="AU67" t="s">
         <v>1096</v>
       </c>
-      <c r="AV67" s="24" t="s">
+      <c r="AV67" t="s">
         <v>1696</v>
       </c>
       <c r="AW67" t="s">
@@ -29179,7 +29735,7 @@
       <c r="AU68" t="s">
         <v>1074</v>
       </c>
-      <c r="AV68" s="24" t="s">
+      <c r="AV68" t="s">
         <v>1719</v>
       </c>
       <c r="AW68" t="s">
@@ -29340,7 +29896,7 @@
       <c r="AU69" t="s">
         <v>205</v>
       </c>
-      <c r="AV69" s="24" t="s">
+      <c r="AV69" t="s">
         <v>206</v>
       </c>
       <c r="AW69" t="s">
@@ -29501,7 +30057,7 @@
       <c r="AU70" t="s">
         <v>1435</v>
       </c>
-      <c r="AV70" s="24" t="s">
+      <c r="AV70" t="s">
         <v>1266</v>
       </c>
       <c r="AW70" t="s">
@@ -29662,7 +30218,7 @@
       <c r="AU71" s="6" t="s">
         <v>1768</v>
       </c>
-      <c r="AV71" s="25" t="s">
+      <c r="AV71" s="6" t="s">
         <v>1769</v>
       </c>
       <c r="AW71" s="6" t="s">
@@ -29823,7 +30379,7 @@
       <c r="AU72">
         <v>999</v>
       </c>
-      <c r="AV72" s="24">
+      <c r="AV72">
         <v>999</v>
       </c>
       <c r="AW72" t="s">
@@ -29984,7 +30540,7 @@
       <c r="AU73" t="s">
         <v>1818</v>
       </c>
-      <c r="AV73" s="24" t="s">
+      <c r="AV73" t="s">
         <v>1819</v>
       </c>
       <c r="AW73" t="s">
@@ -30145,7 +30701,7 @@
       <c r="AU74" t="s">
         <v>298</v>
       </c>
-      <c r="AV74" s="24" t="s">
+      <c r="AV74" t="s">
         <v>1835</v>
       </c>
       <c r="AW74" t="s">
@@ -30306,7 +30862,7 @@
       <c r="AU75" t="s">
         <v>1863</v>
       </c>
-      <c r="AV75" s="24" t="s">
+      <c r="AV75" t="s">
         <v>1864</v>
       </c>
       <c r="AW75" t="s">
@@ -30467,7 +31023,7 @@
       <c r="AU76" t="s">
         <v>1891</v>
       </c>
-      <c r="AV76" s="24" t="s">
+      <c r="AV76" t="s">
         <v>1892</v>
       </c>
       <c r="AW76" t="s">
@@ -30628,7 +31184,7 @@
       <c r="AU77" t="s">
         <v>1914</v>
       </c>
-      <c r="AV77" s="24" t="s">
+      <c r="AV77" t="s">
         <v>1915</v>
       </c>
       <c r="AW77" t="s">
@@ -30789,7 +31345,7 @@
       <c r="AU78" t="s">
         <v>1937</v>
       </c>
-      <c r="AV78" s="24" t="s">
+      <c r="AV78" t="s">
         <v>1938</v>
       </c>
       <c r="AW78" t="s">
@@ -30950,7 +31506,7 @@
       <c r="AU79">
         <v>999</v>
       </c>
-      <c r="AV79" s="24" t="s">
+      <c r="AV79" t="s">
         <v>1950</v>
       </c>
       <c r="AW79" t="s">
@@ -31111,7 +31667,7 @@
       <c r="AU80" t="s">
         <v>790</v>
       </c>
-      <c r="AV80" s="24" t="s">
+      <c r="AV80" t="s">
         <v>1965</v>
       </c>
       <c r="AW80" t="s">
@@ -31272,7 +31828,7 @@
       <c r="AU81" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="AV81" s="25" t="s">
+      <c r="AV81" s="6" t="s">
         <v>1980</v>
       </c>
       <c r="AW81" s="6" t="s">
@@ -31433,7 +31989,7 @@
       <c r="AU82" t="s">
         <v>2006</v>
       </c>
-      <c r="AV82" s="24" t="s">
+      <c r="AV82" t="s">
         <v>2007</v>
       </c>
       <c r="AW82" t="s">
@@ -31594,7 +32150,7 @@
       <c r="AU83" t="s">
         <v>2033</v>
       </c>
-      <c r="AV83" s="24" t="s">
+      <c r="AV83" t="s">
         <v>2034</v>
       </c>
       <c r="AW83" t="s">
@@ -31755,7 +32311,7 @@
       <c r="AU84" t="s">
         <v>1074</v>
       </c>
-      <c r="AV84" s="24" t="s">
+      <c r="AV84" t="s">
         <v>1835</v>
       </c>
       <c r="AW84" t="s">
@@ -31916,7 +32472,7 @@
       <c r="AU85" t="s">
         <v>2079</v>
       </c>
-      <c r="AV85" s="24" t="s">
+      <c r="AV85" t="s">
         <v>2080</v>
       </c>
       <c r="AW85" t="s">
@@ -32077,7 +32633,7 @@
       <c r="AU86" t="s">
         <v>2098</v>
       </c>
-      <c r="AV86" s="24" t="s">
+      <c r="AV86" t="s">
         <v>1769</v>
       </c>
       <c r="AW86" t="s">
@@ -32238,7 +32794,7 @@
       <c r="AU87" t="s">
         <v>1096</v>
       </c>
-      <c r="AV87" s="24" t="s">
+      <c r="AV87" t="s">
         <v>2116</v>
       </c>
       <c r="AW87" t="s">
@@ -32399,7 +32955,7 @@
       <c r="AU88" t="s">
         <v>1435</v>
       </c>
-      <c r="AV88" s="24" t="s">
+      <c r="AV88" t="s">
         <v>2133</v>
       </c>
       <c r="AW88" t="s">
@@ -32560,7 +33116,7 @@
       <c r="AU89" t="s">
         <v>298</v>
       </c>
-      <c r="AV89" s="24" t="s">
+      <c r="AV89" t="s">
         <v>2152</v>
       </c>
       <c r="AW89" t="s">
@@ -32721,7 +33277,7 @@
       <c r="AU90" t="s">
         <v>1096</v>
       </c>
-      <c r="AV90" s="24" t="s">
+      <c r="AV90" t="s">
         <v>2169</v>
       </c>
       <c r="AW90" t="s">
@@ -32882,7 +33438,7 @@
       <c r="AU91" t="s">
         <v>2192</v>
       </c>
-      <c r="AV91" s="24" t="s">
+      <c r="AV91" t="s">
         <v>2193</v>
       </c>
       <c r="AW91" t="s">
@@ -33043,7 +33599,7 @@
       <c r="AU92" t="s">
         <v>1818</v>
       </c>
-      <c r="AV92" s="24" t="s">
+      <c r="AV92" t="s">
         <v>2213</v>
       </c>
       <c r="AW92" t="s">
@@ -33204,7 +33760,7 @@
       <c r="AU93" t="s">
         <v>2233</v>
       </c>
-      <c r="AV93" s="24" t="s">
+      <c r="AV93" t="s">
         <v>1769</v>
       </c>
       <c r="AW93" t="s">
@@ -33365,7 +33921,7 @@
       <c r="AU94" t="s">
         <v>2257</v>
       </c>
-      <c r="AV94" s="24" t="s">
+      <c r="AV94" t="s">
         <v>1965</v>
       </c>
       <c r="AW94" t="s">
@@ -33526,7 +34082,7 @@
       <c r="AU95" t="s">
         <v>496</v>
       </c>
-      <c r="AV95" s="24" t="s">
+      <c r="AV95" t="s">
         <v>2273</v>
       </c>
       <c r="AW95" t="s">
@@ -33687,7 +34243,7 @@
       <c r="AU96" t="s">
         <v>2289</v>
       </c>
-      <c r="AV96" s="24" t="s">
+      <c r="AV96" t="s">
         <v>2290</v>
       </c>
       <c r="AW96" t="s">
@@ -33848,7 +34404,7 @@
       <c r="AU97" t="s">
         <v>1096</v>
       </c>
-      <c r="AV97" s="24" t="s">
+      <c r="AV97" t="s">
         <v>2312</v>
       </c>
       <c r="AW97" t="s">
@@ -34009,7 +34565,7 @@
       <c r="AU98" t="s">
         <v>205</v>
       </c>
-      <c r="AV98" s="24" t="s">
+      <c r="AV98" t="s">
         <v>2330</v>
       </c>
       <c r="AW98" t="s">
@@ -34170,7 +34726,7 @@
       <c r="AU99" t="s">
         <v>2355</v>
       </c>
-      <c r="AV99" s="24" t="s">
+      <c r="AV99" t="s">
         <v>2356</v>
       </c>
       <c r="AW99" t="s">
@@ -34331,7 +34887,7 @@
       <c r="AU100" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="AV100" s="25" t="s">
+      <c r="AV100" s="6" t="s">
         <v>2384</v>
       </c>
       <c r="AW100" s="6" t="s">
@@ -34492,7 +35048,7 @@
       <c r="AU101" t="s">
         <v>1096</v>
       </c>
-      <c r="AV101" s="24" t="s">
+      <c r="AV101" t="s">
         <v>2426</v>
       </c>
       <c r="AW101" t="s">
@@ -34653,7 +35209,7 @@
       <c r="AU102" t="s">
         <v>1074</v>
       </c>
-      <c r="AV102" s="24" t="s">
+      <c r="AV102" t="s">
         <v>2457</v>
       </c>
       <c r="AW102" t="s">
@@ -34814,7 +35370,7 @@
       <c r="AU103" t="s">
         <v>1818</v>
       </c>
-      <c r="AV103" s="24" t="s">
+      <c r="AV103" t="s">
         <v>2486</v>
       </c>
       <c r="AW103" t="s">
@@ -34975,7 +35531,7 @@
       <c r="AU104" t="s">
         <v>520</v>
       </c>
-      <c r="AV104" s="24" t="s">
+      <c r="AV104" t="s">
         <v>2514</v>
       </c>
       <c r="AW104" t="s">
@@ -35136,7 +35692,7 @@
       <c r="AU105" t="s">
         <v>1818</v>
       </c>
-      <c r="AV105" s="24" t="s">
+      <c r="AV105" t="s">
         <v>2541</v>
       </c>
       <c r="AW105" t="s">
@@ -35297,7 +35853,7 @@
       <c r="AU106" t="s">
         <v>2565</v>
       </c>
-      <c r="AV106" s="24" t="s">
+      <c r="AV106" t="s">
         <v>2566</v>
       </c>
       <c r="AW106" t="s">
@@ -35458,7 +36014,7 @@
       <c r="AU107" t="s">
         <v>2598</v>
       </c>
-      <c r="AV107" s="24" t="s">
+      <c r="AV107" t="s">
         <v>2599</v>
       </c>
       <c r="AW107" t="s">
@@ -35619,7 +36175,7 @@
       <c r="AU108" s="6" t="s">
         <v>2625</v>
       </c>
-      <c r="AV108" s="25" t="s">
+      <c r="AV108" s="6" t="s">
         <v>1835</v>
       </c>
       <c r="AW108" s="6" t="s">
@@ -35780,7 +36336,7 @@
       <c r="AU109" t="s">
         <v>2770</v>
       </c>
-      <c r="AV109" s="24" t="s">
+      <c r="AV109" t="s">
         <v>2771</v>
       </c>
       <c r="AW109" t="s">
@@ -35944,7 +36500,7 @@
       <c r="AU110" t="s">
         <v>2790</v>
       </c>
-      <c r="AV110" s="24" t="s">
+      <c r="AV110" t="s">
         <v>2791</v>
       </c>
       <c r="AW110" t="s">
@@ -36105,7 +36661,7 @@
       <c r="AU111" t="s">
         <v>2808</v>
       </c>
-      <c r="AV111" s="24" t="s">
+      <c r="AV111" t="s">
         <v>2809</v>
       </c>
       <c r="AW111" t="s">
@@ -36266,7 +36822,7 @@
       <c r="AU112" t="s">
         <v>2829</v>
       </c>
-      <c r="AV112" s="24" t="s">
+      <c r="AV112" t="s">
         <v>1938</v>
       </c>
       <c r="AW112" t="s">
@@ -36427,7 +36983,7 @@
       <c r="AU113" t="s">
         <v>2829</v>
       </c>
-      <c r="AV113" s="24" t="s">
+      <c r="AV113" t="s">
         <v>1938</v>
       </c>
       <c r="AW113" t="s">
@@ -36588,7 +37144,7 @@
       <c r="AU114" t="s">
         <v>790</v>
       </c>
-      <c r="AV114" s="24" t="s">
+      <c r="AV114" t="s">
         <v>2852</v>
       </c>
       <c r="AW114" t="s">
@@ -36749,7 +37305,7 @@
       <c r="AU115" t="s">
         <v>2870</v>
       </c>
-      <c r="AV115" s="24" t="s">
+      <c r="AV115" t="s">
         <v>2871</v>
       </c>
       <c r="AW115" t="s">
@@ -36910,7 +37466,7 @@
       <c r="AU116" t="s">
         <v>2233</v>
       </c>
-      <c r="AV116" s="24" t="s">
+      <c r="AV116" t="s">
         <v>2887</v>
       </c>
       <c r="AW116" t="s">
@@ -37071,7 +37627,7 @@
       <c r="AU117" t="s">
         <v>2233</v>
       </c>
-      <c r="AV117" s="24" t="s">
+      <c r="AV117" t="s">
         <v>2898</v>
       </c>
       <c r="AW117" t="s">
@@ -37232,7 +37788,7 @@
       <c r="AU118" t="s">
         <v>417</v>
       </c>
-      <c r="AV118" s="24" t="s">
+      <c r="AV118" t="s">
         <v>2908</v>
       </c>
       <c r="AW118">
@@ -37393,7 +37949,7 @@
       <c r="AU119" t="s">
         <v>2920</v>
       </c>
-      <c r="AV119" s="24" t="s">
+      <c r="AV119" t="s">
         <v>2921</v>
       </c>
       <c r="AW119" t="s">
@@ -37554,7 +38110,7 @@
       <c r="AU120" t="s">
         <v>2937</v>
       </c>
-      <c r="AV120" s="24" t="s">
+      <c r="AV120" t="s">
         <v>2938</v>
       </c>
       <c r="AW120" t="s">
@@ -37715,7 +38271,7 @@
       <c r="AU121" t="s">
         <v>2952</v>
       </c>
-      <c r="AV121" s="24" t="s">
+      <c r="AV121" t="s">
         <v>2953</v>
       </c>
       <c r="AW121" t="s">
@@ -37876,7 +38432,7 @@
       <c r="AU122" t="s">
         <v>2981</v>
       </c>
-      <c r="AV122" s="24" t="s">
+      <c r="AV122" t="s">
         <v>2982</v>
       </c>
       <c r="AW122" t="s">
@@ -38037,7 +38593,7 @@
       <c r="AU123" t="s">
         <v>1096</v>
       </c>
-      <c r="AV123" s="24">
+      <c r="AV123">
         <v>999</v>
       </c>
       <c r="AW123" t="s">
@@ -38198,7 +38754,7 @@
       <c r="AU124" t="s">
         <v>3017</v>
       </c>
-      <c r="AV124" s="24" t="s">
+      <c r="AV124" t="s">
         <v>3018</v>
       </c>
       <c r="AW124" t="s">
@@ -38359,7 +38915,7 @@
       <c r="AU125" t="s">
         <v>205</v>
       </c>
-      <c r="AV125" s="24" t="s">
+      <c r="AV125" t="s">
         <v>4643</v>
       </c>
       <c r="AW125" t="s">
@@ -38523,7 +39079,7 @@
       <c r="AU126" t="s">
         <v>605</v>
       </c>
-      <c r="AV126" s="24" t="s">
+      <c r="AV126" t="s">
         <v>3050</v>
       </c>
       <c r="AW126" t="s">
@@ -38684,7 +39240,7 @@
       <c r="AU127" t="s">
         <v>363</v>
       </c>
-      <c r="AV127" s="24" t="s">
+      <c r="AV127" t="s">
         <v>3067</v>
       </c>
       <c r="AW127" t="s">
@@ -38845,7 +39401,7 @@
       <c r="AU128" t="s">
         <v>417</v>
       </c>
-      <c r="AV128" s="24" t="s">
+      <c r="AV128" t="s">
         <v>3078</v>
       </c>
       <c r="AW128" t="s">
@@ -39006,7 +39562,7 @@
       <c r="AU129" t="s">
         <v>298</v>
       </c>
-      <c r="AV129" s="24" t="s">
+      <c r="AV129" t="s">
         <v>4583</v>
       </c>
       <c r="AW129" t="s">
@@ -39167,7 +39723,7 @@
       <c r="AU130" s="16" t="s">
         <v>4608</v>
       </c>
-      <c r="AV130" s="26" t="s">
+      <c r="AV130" s="17" t="s">
         <v>4609</v>
       </c>
       <c r="AW130" s="16" t="s">
@@ -39331,7 +39887,7 @@
       <c r="AU131" t="s">
         <v>3091</v>
       </c>
-      <c r="AV131" s="24" t="s">
+      <c r="AV131" t="s">
         <v>2953</v>
       </c>
       <c r="AW131" t="s">
@@ -39492,7 +40048,7 @@
       <c r="AU132" s="11" t="s">
         <v>4629</v>
       </c>
-      <c r="AV132" s="24" t="s">
+      <c r="AV132" t="s">
         <v>4630</v>
       </c>
       <c r="AW132" t="s">
@@ -39656,7 +40212,7 @@
       <c r="AU133" t="s">
         <v>605</v>
       </c>
-      <c r="AV133" s="24" t="s">
+      <c r="AV133" t="s">
         <v>3106</v>
       </c>
       <c r="AW133" t="s">
@@ -39817,7 +40373,7 @@
       <c r="AU134" t="s">
         <v>205</v>
       </c>
-      <c r="AV134" s="24" t="s">
+      <c r="AV134" t="s">
         <v>3117</v>
       </c>
       <c r="AW134" t="s">
@@ -39978,7 +40534,7 @@
       <c r="AU135" t="s">
         <v>2937</v>
       </c>
-      <c r="AV135" s="24" t="s">
+      <c r="AV135" t="s">
         <v>3131</v>
       </c>
       <c r="AW135" t="s">
@@ -40139,7 +40695,7 @@
       <c r="AU136" t="s">
         <v>3144</v>
       </c>
-      <c r="AV136" s="24" t="s">
+      <c r="AV136" t="s">
         <v>1116</v>
       </c>
       <c r="AW136" t="s">
@@ -40300,7 +40856,7 @@
       <c r="AU137" t="s">
         <v>263</v>
       </c>
-      <c r="AV137" s="24" t="s">
+      <c r="AV137" t="s">
         <v>445</v>
       </c>
       <c r="AW137" t="s">
@@ -40461,7 +41017,7 @@
       <c r="AU138" t="s">
         <v>3168</v>
       </c>
-      <c r="AV138" s="24" t="s">
+      <c r="AV138" t="s">
         <v>3018</v>
       </c>
       <c r="AW138" t="s">
@@ -40622,7 +41178,7 @@
       <c r="AU139" t="s">
         <v>2233</v>
       </c>
-      <c r="AV139" s="24" t="s">
+      <c r="AV139" t="s">
         <v>2871</v>
       </c>
       <c r="AW139" t="s">
@@ -40783,7 +41339,7 @@
       <c r="AU140" t="s">
         <v>363</v>
       </c>
-      <c r="AV140" s="24" t="s">
+      <c r="AV140" t="s">
         <v>1116</v>
       </c>
       <c r="AW140" t="s">
@@ -40944,7 +41500,7 @@
       <c r="AU141" t="s">
         <v>3209</v>
       </c>
-      <c r="AV141" s="24" t="s">
+      <c r="AV141" t="s">
         <v>3210</v>
       </c>
       <c r="AW141" t="s">
@@ -41105,7 +41661,7 @@
       <c r="AU142" t="s">
         <v>3223</v>
       </c>
-      <c r="AV142" s="24" t="s">
+      <c r="AV142" t="s">
         <v>3224</v>
       </c>
       <c r="AW142" t="s">
@@ -41266,7 +41822,7 @@
       <c r="AU143" t="s">
         <v>3240</v>
       </c>
-      <c r="AV143" s="24" t="s">
+      <c r="AV143" t="s">
         <v>3241</v>
       </c>
       <c r="AW143" t="s">
@@ -41427,7 +41983,7 @@
       <c r="AU144" t="s">
         <v>363</v>
       </c>
-      <c r="AV144" s="24" t="s">
+      <c r="AV144" t="s">
         <v>3255</v>
       </c>
       <c r="AW144" t="s">
@@ -41588,7 +42144,7 @@
       <c r="AU145" t="s">
         <v>4670</v>
       </c>
-      <c r="AV145" s="24" t="s">
+      <c r="AV145" t="s">
         <v>4671</v>
       </c>
       <c r="AW145" t="s">
@@ -41749,7 +42305,7 @@
       <c r="AU146" t="s">
         <v>1074</v>
       </c>
-      <c r="AV146" s="24" t="s">
+      <c r="AV146" t="s">
         <v>3269</v>
       </c>
       <c r="AW146" t="s">
@@ -41910,7 +42466,7 @@
       <c r="AU147" t="s">
         <v>4680</v>
       </c>
-      <c r="AV147" s="24" t="s">
+      <c r="AV147" t="s">
         <v>4681</v>
       </c>
       <c r="AW147" t="s">
@@ -42071,7 +42627,7 @@
       <c r="AU148" t="s">
         <v>417</v>
       </c>
-      <c r="AV148" s="24" t="s">
+      <c r="AV148" t="s">
         <v>3297</v>
       </c>
       <c r="AW148" t="s">
@@ -42232,7 +42788,7 @@
       <c r="AU149" t="s">
         <v>3313</v>
       </c>
-      <c r="AV149" s="24" t="s">
+      <c r="AV149" t="s">
         <v>1145</v>
       </c>
       <c r="AW149" t="s">
@@ -42393,7 +42949,7 @@
       <c r="AU150" t="s">
         <v>2937</v>
       </c>
-      <c r="AV150" s="24" t="s">
+      <c r="AV150" t="s">
         <v>3332</v>
       </c>
       <c r="AW150" t="s">
@@ -42557,7 +43113,7 @@
       <c r="AU151" t="s">
         <v>605</v>
       </c>
-      <c r="AV151" s="24" t="s">
+      <c r="AV151" t="s">
         <v>3343</v>
       </c>
       <c r="AW151" t="s">
@@ -42718,7 +43274,7 @@
       <c r="AU152" t="s">
         <v>3363</v>
       </c>
-      <c r="AV152" s="24" t="s">
+      <c r="AV152" t="s">
         <v>3364</v>
       </c>
       <c r="AW152" t="s">
@@ -42879,7 +43435,7 @@
       <c r="AU153" t="s">
         <v>520</v>
       </c>
-      <c r="AV153" s="24" t="s">
+      <c r="AV153" t="s">
         <v>206</v>
       </c>
       <c r="AW153" t="s">
@@ -43040,7 +43596,7 @@
       <c r="AU154" t="s">
         <v>205</v>
       </c>
-      <c r="AV154" s="24" t="s">
+      <c r="AV154" t="s">
         <v>4693</v>
       </c>
       <c r="AW154" t="s">
@@ -43201,7 +43757,7 @@
       <c r="AU155" t="s">
         <v>3406</v>
       </c>
-      <c r="AV155" s="24" t="s">
+      <c r="AV155" t="s">
         <v>3407</v>
       </c>
       <c r="AW155" t="s">
@@ -43362,7 +43918,7 @@
       <c r="AU156" t="s">
         <v>3439</v>
       </c>
-      <c r="AV156" s="24" t="s">
+      <c r="AV156" t="s">
         <v>3440</v>
       </c>
       <c r="AW156" t="s">
@@ -43523,7 +44079,7 @@
       <c r="AU157" t="s">
         <v>205</v>
       </c>
-      <c r="AV157" s="24" t="s">
+      <c r="AV157" t="s">
         <v>3477</v>
       </c>
       <c r="AW157" t="s">
@@ -43684,7 +44240,7 @@
       <c r="AU158" t="s">
         <v>298</v>
       </c>
-      <c r="AV158" s="24" t="s">
+      <c r="AV158" t="s">
         <v>299</v>
       </c>
       <c r="AW158" t="s">
@@ -43845,7 +44401,7 @@
       <c r="AU159" t="s">
         <v>4713</v>
       </c>
-      <c r="AV159" s="24" t="s">
+      <c r="AV159" t="s">
         <v>4714</v>
       </c>
       <c r="AW159" t="s">
@@ -44006,7 +44562,7 @@
       <c r="AU160" t="s">
         <v>3517</v>
       </c>
-      <c r="AV160" s="24" t="s">
+      <c r="AV160" t="s">
         <v>3518</v>
       </c>
       <c r="AW160" t="s">
@@ -44170,7 +44726,7 @@
       <c r="AU161" t="s">
         <v>3553</v>
       </c>
-      <c r="AV161" s="24" t="s">
+      <c r="AV161" t="s">
         <v>3554</v>
       </c>
       <c r="AW161" t="s">
@@ -44334,7 +44890,7 @@
       <c r="AU162" t="s">
         <v>3572</v>
       </c>
-      <c r="AV162" s="24" t="s">
+      <c r="AV162" t="s">
         <v>299</v>
       </c>
       <c r="AW162" t="s">
@@ -44495,7 +45051,7 @@
       <c r="AU163" t="s">
         <v>520</v>
       </c>
-      <c r="AV163" s="24" t="s">
+      <c r="AV163" t="s">
         <v>3590</v>
       </c>
       <c r="AW163" t="s">
@@ -44656,7 +45212,7 @@
       <c r="AU164" t="s">
         <v>1435</v>
       </c>
-      <c r="AV164" s="24" t="s">
+      <c r="AV164" t="s">
         <v>1835</v>
       </c>
       <c r="AW164" t="s">
@@ -44817,7 +45373,7 @@
       <c r="AU165" t="s">
         <v>205</v>
       </c>
-      <c r="AV165" s="24" t="s">
+      <c r="AV165" t="s">
         <v>3608</v>
       </c>
       <c r="AW165" t="s">
@@ -44978,7 +45534,7 @@
       <c r="AU166" t="s">
         <v>3635</v>
       </c>
-      <c r="AV166" s="24" t="s">
+      <c r="AV166" t="s">
         <v>3636</v>
       </c>
       <c r="AW166" t="s">
@@ -45139,7 +45695,7 @@
       <c r="AU167">
         <v>999</v>
       </c>
-      <c r="AV167" s="24" t="s">
+      <c r="AV167" t="s">
         <v>3459</v>
       </c>
       <c r="AW167" t="s">
@@ -45300,7 +45856,7 @@
       <c r="AU168" t="s">
         <v>205</v>
       </c>
-      <c r="AV168" s="24" t="s">
+      <c r="AV168" t="s">
         <v>3646</v>
       </c>
       <c r="AW168" t="s">
@@ -45461,7 +46017,7 @@
       <c r="AU169" t="s">
         <v>3660</v>
       </c>
-      <c r="AV169" s="24" t="s">
+      <c r="AV169" t="s">
         <v>3661</v>
       </c>
       <c r="AW169" t="s">
@@ -45622,7 +46178,7 @@
       <c r="AU170" t="s">
         <v>1240</v>
       </c>
-      <c r="AV170" s="24" t="s">
+      <c r="AV170" t="s">
         <v>299</v>
       </c>
       <c r="AW170" t="s">
@@ -45783,7 +46339,7 @@
       <c r="AU171" t="s">
         <v>298</v>
       </c>
-      <c r="AV171" s="24" t="s">
+      <c r="AV171" t="s">
         <v>3636</v>
       </c>
       <c r="AW171" t="s">
@@ -45944,7 +46500,7 @@
       <c r="AU172" t="s">
         <v>520</v>
       </c>
-      <c r="AV172" s="24" t="s">
+      <c r="AV172" t="s">
         <v>3701</v>
       </c>
       <c r="AW172" t="s">
@@ -46108,7 +46664,7 @@
       <c r="AU173" t="s">
         <v>298</v>
       </c>
-      <c r="AV173" s="24" t="s">
+      <c r="AV173" t="s">
         <v>3715</v>
       </c>
       <c r="AW173" t="s">
@@ -46269,7 +46825,7 @@
       <c r="AU174" t="s">
         <v>205</v>
       </c>
-      <c r="AV174" s="24" t="s">
+      <c r="AV174" t="s">
         <v>299</v>
       </c>
       <c r="AW174" t="s">
@@ -46430,7 +46986,7 @@
       <c r="AU175" t="s">
         <v>205</v>
       </c>
-      <c r="AV175" s="24" t="s">
+      <c r="AV175" t="s">
         <v>206</v>
       </c>
       <c r="AW175" t="s">
@@ -46591,7 +47147,7 @@
       <c r="AU176" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="AV176" s="24" t="s">
+      <c r="AV176" t="s">
         <v>3763</v>
       </c>
       <c r="AW176" s="11" t="s">
@@ -46755,7 +47311,7 @@
       <c r="AU177" t="s">
         <v>3787</v>
       </c>
-      <c r="AV177" s="24" t="s">
+      <c r="AV177" t="s">
         <v>299</v>
       </c>
       <c r="AW177" t="s">
@@ -46916,7 +47472,7 @@
       <c r="AU178" t="s">
         <v>298</v>
       </c>
-      <c r="AV178" s="24" t="s">
+      <c r="AV178" t="s">
         <v>3806</v>
       </c>
       <c r="AW178" t="s">
@@ -47077,7 +47633,7 @@
       <c r="AU179" t="s">
         <v>3828</v>
       </c>
-      <c r="AV179" s="24" t="s">
+      <c r="AV179" t="s">
         <v>264</v>
       </c>
       <c r="AW179" t="s">
@@ -47238,7 +47794,7 @@
       <c r="AU180" t="s">
         <v>520</v>
       </c>
-      <c r="AV180" s="24" t="s">
+      <c r="AV180" t="s">
         <v>3838</v>
       </c>
       <c r="AW180" t="s">
@@ -47399,7 +47955,7 @@
       <c r="AU181" t="s">
         <v>605</v>
       </c>
-      <c r="AV181" s="24" t="s">
+      <c r="AV181" t="s">
         <v>3853</v>
       </c>
       <c r="AW181" t="s">
@@ -47560,7 +48116,7 @@
       <c r="AU182" t="s">
         <v>417</v>
       </c>
-      <c r="AV182" s="24" t="s">
+      <c r="AV182" t="s">
         <v>3875</v>
       </c>
       <c r="AW182" t="s">
@@ -47721,7 +48277,7 @@
       <c r="AU183" t="s">
         <v>3886</v>
       </c>
-      <c r="AV183" s="24" t="s">
+      <c r="AV183" t="s">
         <v>3459</v>
       </c>
       <c r="AW183" t="s">
@@ -47882,7 +48438,7 @@
       <c r="AU184" t="s">
         <v>3897</v>
       </c>
-      <c r="AV184" s="24" t="s">
+      <c r="AV184" t="s">
         <v>1436</v>
       </c>
       <c r="AW184" t="s">
@@ -48043,7 +48599,7 @@
       <c r="AU185" t="s">
         <v>3915</v>
       </c>
-      <c r="AV185" s="24" t="s">
+      <c r="AV185" t="s">
         <v>3916</v>
       </c>
       <c r="AW185" t="s">
@@ -48204,7 +48760,7 @@
       <c r="AU186" t="s">
         <v>205</v>
       </c>
-      <c r="AV186" s="24" t="s">
+      <c r="AV186" t="s">
         <v>3929</v>
       </c>
       <c r="AW186" t="s">
@@ -48365,7 +48921,7 @@
       <c r="AU187" t="s">
         <v>496</v>
       </c>
-      <c r="AV187" s="24" t="s">
+      <c r="AV187" t="s">
         <v>299</v>
       </c>
       <c r="AW187" t="s">
@@ -48526,7 +49082,7 @@
       <c r="AU188" t="s">
         <v>496</v>
       </c>
-      <c r="AV188" s="24" t="s">
+      <c r="AV188" t="s">
         <v>299</v>
       </c>
       <c r="AW188" t="s">
@@ -48687,7 +49243,7 @@
       <c r="AU189">
         <v>999</v>
       </c>
-      <c r="AV189" s="24" t="s">
+      <c r="AV189" t="s">
         <v>3956</v>
       </c>
       <c r="AW189" t="s">
@@ -48848,7 +49404,7 @@
       <c r="AU190" t="s">
         <v>1096</v>
       </c>
-      <c r="AV190" s="24" t="s">
+      <c r="AV190" t="s">
         <v>3929</v>
       </c>
       <c r="AW190" t="s">
@@ -49012,7 +49568,7 @@
       <c r="AU191" t="s">
         <v>298</v>
       </c>
-      <c r="AV191" s="24" t="s">
+      <c r="AV191" t="s">
         <v>3985</v>
       </c>
       <c r="AW191" t="s">
@@ -49173,7 +49729,7 @@
       <c r="AU192" t="s">
         <v>4008</v>
       </c>
-      <c r="AV192" s="24" t="s">
+      <c r="AV192" t="s">
         <v>3838</v>
       </c>
       <c r="AW192" t="s">
@@ -49334,7 +49890,7 @@
       <c r="AU193" t="s">
         <v>4018</v>
       </c>
-      <c r="AV193" s="24" t="s">
+      <c r="AV193" t="s">
         <v>206</v>
       </c>
       <c r="AW193" t="s">
@@ -49495,7 +50051,7 @@
       <c r="AU194" t="s">
         <v>205</v>
       </c>
-      <c r="AV194" s="24" t="s">
+      <c r="AV194" t="s">
         <v>3929</v>
       </c>
       <c r="AW194" t="s">
@@ -49656,7 +50212,7 @@
       <c r="AU195" t="s">
         <v>205</v>
       </c>
-      <c r="AV195" s="24" t="s">
+      <c r="AV195" t="s">
         <v>3929</v>
       </c>
       <c r="AW195" t="s">
@@ -49817,7 +50373,7 @@
       <c r="AU196" t="s">
         <v>4082</v>
       </c>
-      <c r="AV196" s="24" t="s">
+      <c r="AV196" t="s">
         <v>4083</v>
       </c>
       <c r="AW196" t="s">
@@ -49978,7 +50534,7 @@
       <c r="AU197" t="s">
         <v>1096</v>
       </c>
-      <c r="AV197" s="24" t="s">
+      <c r="AV197" t="s">
         <v>1835</v>
       </c>
       <c r="AW197" t="s">
@@ -50139,7 +50695,7 @@
       <c r="AU198" t="s">
         <v>298</v>
       </c>
-      <c r="AV198" s="24" t="s">
+      <c r="AV198" t="s">
         <v>4060</v>
       </c>
       <c r="AW198" t="s">
@@ -50300,7 +50856,7 @@
       <c r="AU199" t="s">
         <v>298</v>
       </c>
-      <c r="AV199" s="24" t="s">
+      <c r="AV199" t="s">
         <v>4090</v>
       </c>
       <c r="AW199" t="s">
@@ -50461,7 +51017,7 @@
       <c r="AU200" t="s">
         <v>4118</v>
       </c>
-      <c r="AV200" s="24" t="s">
+      <c r="AV200" t="s">
         <v>445</v>
       </c>
       <c r="AW200" t="s">
@@ -50622,7 +51178,7 @@
       <c r="AU201" t="s">
         <v>605</v>
       </c>
-      <c r="AV201" s="24" t="s">
+      <c r="AV201" t="s">
         <v>4136</v>
       </c>
       <c r="AW201" t="s">
@@ -50783,7 +51339,7 @@
       <c r="AU202" t="s">
         <v>298</v>
       </c>
-      <c r="AV202" s="24" t="s">
+      <c r="AV202" t="s">
         <v>4090</v>
       </c>
       <c r="AW202" t="s">
@@ -50944,7 +51500,7 @@
       <c r="AU203" t="s">
         <v>4163</v>
       </c>
-      <c r="AV203" s="24" t="s">
+      <c r="AV203" t="s">
         <v>206</v>
       </c>
       <c r="AW203" t="s">
@@ -51105,7 +51661,7 @@
       <c r="AU204" t="s">
         <v>1074</v>
       </c>
-      <c r="AV204" s="24" t="s">
+      <c r="AV204" t="s">
         <v>299</v>
       </c>
       <c r="AW204" t="s">
@@ -51266,7 +51822,7 @@
       <c r="AU205" t="s">
         <v>1074</v>
       </c>
-      <c r="AV205" s="24" t="s">
+      <c r="AV205" t="s">
         <v>4190</v>
       </c>
       <c r="AW205" t="s">
@@ -51427,7 +51983,7 @@
       <c r="AU206" t="s">
         <v>417</v>
       </c>
-      <c r="AV206" s="24" t="s">
+      <c r="AV206" t="s">
         <v>264</v>
       </c>
       <c r="AW206" t="s">
@@ -51588,7 +52144,7 @@
       <c r="AU207" t="s">
         <v>973</v>
       </c>
-      <c r="AV207" s="24" t="s">
+      <c r="AV207" t="s">
         <v>3875</v>
       </c>
       <c r="AW207" t="s">
@@ -51749,7 +52305,7 @@
       <c r="AU208" t="s">
         <v>1074</v>
       </c>
-      <c r="AV208" s="24" t="s">
+      <c r="AV208" t="s">
         <v>2169</v>
       </c>
       <c r="AW208" t="s">
@@ -51910,7 +52466,7 @@
       <c r="AU209" t="s">
         <v>1074</v>
       </c>
-      <c r="AV209" s="24" t="s">
+      <c r="AV209" t="s">
         <v>3806</v>
       </c>
       <c r="AW209" t="s">
@@ -52071,7 +52627,7 @@
       <c r="AU210" t="s">
         <v>1074</v>
       </c>
-      <c r="AV210" s="24" t="s">
+      <c r="AV210" t="s">
         <v>2356</v>
       </c>
       <c r="AW210" t="s">
@@ -52232,7 +52788,7 @@
       <c r="AU211" t="s">
         <v>1074</v>
       </c>
-      <c r="AV211" s="24" t="s">
+      <c r="AV211" t="s">
         <v>4290</v>
       </c>
       <c r="AW211" t="s">
@@ -52393,7 +52949,7 @@
       <c r="AU212" t="s">
         <v>790</v>
       </c>
-      <c r="AV212" s="24" t="s">
+      <c r="AV212" t="s">
         <v>4307</v>
       </c>
       <c r="AW212" t="s">
@@ -52557,7 +53113,7 @@
       <c r="AU213" t="s">
         <v>4322</v>
       </c>
-      <c r="AV213" s="24" t="s">
+      <c r="AV213" t="s">
         <v>4323</v>
       </c>
       <c r="AW213" t="s">
@@ -52718,7 +53274,7 @@
       <c r="AU214" t="s">
         <v>4334</v>
       </c>
-      <c r="AV214" s="24" t="s">
+      <c r="AV214" t="s">
         <v>4335</v>
       </c>
       <c r="AW214" t="s">
@@ -52879,7 +53435,7 @@
       <c r="AU215" t="s">
         <v>1240</v>
       </c>
-      <c r="AV215" s="24" t="s">
+      <c r="AV215" t="s">
         <v>3806</v>
       </c>
       <c r="AW215" t="s">
@@ -53040,7 +53596,7 @@
       <c r="AU216" t="s">
         <v>4358</v>
       </c>
-      <c r="AV216" s="24" t="s">
+      <c r="AV216" t="s">
         <v>3806</v>
       </c>
       <c r="AW216" t="s">
@@ -53201,7 +53757,7 @@
       <c r="AU217" t="s">
         <v>298</v>
       </c>
-      <c r="AV217" s="24" t="s">
+      <c r="AV217" t="s">
         <v>3806</v>
       </c>
       <c r="AW217" t="s">
@@ -53362,7 +53918,7 @@
       <c r="AU218" t="s">
         <v>298</v>
       </c>
-      <c r="AV218" s="24" t="s">
+      <c r="AV218" t="s">
         <v>3806</v>
       </c>
       <c r="AW218" t="s">
@@ -53523,7 +54079,7 @@
       <c r="AU219" t="s">
         <v>3517</v>
       </c>
-      <c r="AV219" s="24" t="s">
+      <c r="AV219" t="s">
         <v>4391</v>
       </c>
       <c r="AW219" t="s">
@@ -53684,7 +54240,7 @@
       <c r="AU220" t="s">
         <v>4407</v>
       </c>
-      <c r="AV220" s="24" t="s">
+      <c r="AV220" t="s">
         <v>4408</v>
       </c>
       <c r="AW220" t="s">
@@ -53845,7 +54401,7 @@
       <c r="AU221" t="s">
         <v>973</v>
       </c>
-      <c r="AV221" s="24" t="s">
+      <c r="AV221" t="s">
         <v>4240</v>
       </c>
       <c r="AW221" t="s">
@@ -54006,7 +54562,7 @@
       <c r="AU222" t="s">
         <v>298</v>
       </c>
-      <c r="AV222" s="24" t="s">
+      <c r="AV222" t="s">
         <v>4441</v>
       </c>
       <c r="AW222" t="s">
@@ -54167,7 +54723,7 @@
       <c r="AU223" t="s">
         <v>520</v>
       </c>
-      <c r="AV223" s="24" t="s">
+      <c r="AV223" t="s">
         <v>4240</v>
       </c>
       <c r="AW223" t="s">
@@ -54328,7 +54884,7 @@
       <c r="AU224" t="s">
         <v>520</v>
       </c>
-      <c r="AV224" s="24" t="s">
+      <c r="AV224" t="s">
         <v>4246</v>
       </c>
       <c r="AW224" t="s">
@@ -54489,7 +55045,7 @@
       <c r="AU225" t="s">
         <v>790</v>
       </c>
-      <c r="AV225" s="24" t="s">
+      <c r="AV225" t="s">
         <v>4455</v>
       </c>
       <c r="AW225" t="s">
@@ -54650,7 +55206,7 @@
       <c r="AU226">
         <v>999</v>
       </c>
-      <c r="AV226" s="24" t="s">
+      <c r="AV226" t="s">
         <v>3459</v>
       </c>
       <c r="AW226" t="s">
@@ -54814,7 +55370,7 @@
       <c r="AU227" t="s">
         <v>1240</v>
       </c>
-      <c r="AV227" s="24" t="s">
+      <c r="AV227" t="s">
         <v>3763</v>
       </c>
       <c r="AW227" t="s">
@@ -54975,7 +55531,7 @@
       <c r="AU228" t="s">
         <v>205</v>
       </c>
-      <c r="AV228" s="24" t="s">
+      <c r="AV228" t="s">
         <v>264</v>
       </c>
       <c r="AW228" t="s">
@@ -55139,7 +55695,7 @@
       <c r="AU229" t="s">
         <v>205</v>
       </c>
-      <c r="AV229" s="24" t="s">
+      <c r="AV229" t="s">
         <v>264</v>
       </c>
       <c r="AW229" t="s">
@@ -55300,7 +55856,7 @@
       <c r="AU230" t="s">
         <v>205</v>
       </c>
-      <c r="AV230" s="24" t="s">
+      <c r="AV230" t="s">
         <v>4514</v>
       </c>
       <c r="AW230" t="s">
@@ -55461,7 +56017,7 @@
       <c r="AU231" t="s">
         <v>298</v>
       </c>
-      <c r="AV231" s="24" t="s">
+      <c r="AV231" t="s">
         <v>1436</v>
       </c>
       <c r="AW231" t="s">
@@ -55622,7 +56178,7 @@
       <c r="AU232" t="s">
         <v>1240</v>
       </c>
-      <c r="AV232" s="24" t="s">
+      <c r="AV232" t="s">
         <v>4534</v>
       </c>
       <c r="AW232" t="s">
@@ -55783,7 +56339,7 @@
       <c r="AU233" t="s">
         <v>205</v>
       </c>
-      <c r="AV233" s="24" t="s">
+      <c r="AV233" t="s">
         <v>206</v>
       </c>
       <c r="AW233" t="s">
@@ -55944,7 +56500,7 @@
       <c r="AU234" t="s">
         <v>205</v>
       </c>
-      <c r="AV234" s="24" t="s">
+      <c r="AV234" t="s">
         <v>445</v>
       </c>
       <c r="AW234" t="s">
@@ -56105,7 +56661,7 @@
       <c r="AU235" t="s">
         <v>1096</v>
       </c>
-      <c r="AV235" s="24" t="s">
+      <c r="AV235" t="s">
         <v>1835</v>
       </c>
       <c r="AW235" t="s">
@@ -56266,7 +56822,7 @@
       <c r="AU236" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="AV236" s="25" t="s">
+      <c r="AV236" s="6" t="s">
         <v>1436</v>
       </c>
       <c r="AW236" s="6" t="s">
@@ -56427,7 +56983,7 @@
       <c r="AU237" t="s">
         <v>1937</v>
       </c>
-      <c r="AV237" s="24" t="s">
+      <c r="AV237" t="s">
         <v>4900</v>
       </c>
       <c r="AW237" t="s">
@@ -56591,7 +57147,7 @@
       <c r="AU238">
         <v>999</v>
       </c>
-      <c r="AV238" s="24">
+      <c r="AV238">
         <v>999</v>
       </c>
       <c r="AW238" t="s">
@@ -56752,7 +57308,7 @@
       <c r="AU239" t="s">
         <v>4941</v>
       </c>
-      <c r="AV239" s="24" t="s">
+      <c r="AV239" t="s">
         <v>4630</v>
       </c>
       <c r="AW239" t="s">
@@ -56913,7 +57469,7 @@
       <c r="AU240" t="s">
         <v>4941</v>
       </c>
-      <c r="AV240" s="24" t="s">
+      <c r="AV240" t="s">
         <v>4957</v>
       </c>
       <c r="AW240" t="s">
@@ -57074,7 +57630,7 @@
       <c r="AU241" t="s">
         <v>263</v>
       </c>
-      <c r="AV241" s="24" t="s">
+      <c r="AV241" t="s">
         <v>4977</v>
       </c>
       <c r="AW241" t="s">
@@ -57235,7 +57791,7 @@
       <c r="AU242" t="s">
         <v>4998</v>
       </c>
-      <c r="AV242" s="24" t="s">
+      <c r="AV242" t="s">
         <v>4999</v>
       </c>
       <c r="AW242" t="s">
@@ -57396,7 +57952,7 @@
       <c r="AU243" t="s">
         <v>5022</v>
       </c>
-      <c r="AV243" s="24" t="s">
+      <c r="AV243" t="s">
         <v>5023</v>
       </c>
       <c r="AW243" t="s">
@@ -57557,7 +58113,7 @@
       <c r="AU244" s="11" t="s">
         <v>5050</v>
       </c>
-      <c r="AV244" s="24" t="s">
+      <c r="AV244" t="s">
         <v>5051</v>
       </c>
       <c r="AW244" t="s">
@@ -57718,7 +58274,7 @@
       <c r="AU245" t="s">
         <v>1937</v>
       </c>
-      <c r="AV245" s="24" t="s">
+      <c r="AV245" t="s">
         <v>2514</v>
       </c>
       <c r="AW245" t="s">
@@ -57879,7 +58435,7 @@
       <c r="AU246" t="s">
         <v>2565</v>
       </c>
-      <c r="AV246" s="24" t="s">
+      <c r="AV246" t="s">
         <v>1916</v>
       </c>
       <c r="AW246" t="s">
@@ -58040,7 +58596,7 @@
       <c r="AU247" t="s">
         <v>5102</v>
       </c>
-      <c r="AV247" s="24" t="s">
+      <c r="AV247" t="s">
         <v>445</v>
       </c>
       <c r="AW247" t="s">
@@ -58201,7 +58757,7 @@
       <c r="AU248" t="s">
         <v>1074</v>
       </c>
-      <c r="AV248" s="24" t="s">
+      <c r="AV248" t="s">
         <v>5116</v>
       </c>
       <c r="AW248" t="s">
@@ -58362,7 +58918,7 @@
       <c r="AU249" t="s">
         <v>5133</v>
       </c>
-      <c r="AV249" s="24" t="s">
+      <c r="AV249" t="s">
         <v>5134</v>
       </c>
       <c r="AW249" t="s">
@@ -58526,7 +59082,7 @@
       <c r="AU250" t="s">
         <v>1096</v>
       </c>
-      <c r="AV250" s="24" t="s">
+      <c r="AV250" t="s">
         <v>5155</v>
       </c>
       <c r="AW250" t="s">
@@ -58687,7 +59243,7 @@
       <c r="AU251" t="s">
         <v>520</v>
       </c>
-      <c r="AV251" s="24" t="s">
+      <c r="AV251" t="s">
         <v>5170</v>
       </c>
       <c r="AW251" t="s">
@@ -58848,7 +59404,7 @@
       <c r="AU252" t="s">
         <v>2565</v>
       </c>
-      <c r="AV252" s="24" t="s">
+      <c r="AV252" t="s">
         <v>5183</v>
       </c>
       <c r="AW252" t="s">
@@ -58931,91 +59487,91 @@
       <c r="U253" s="1">
         <v>999</v>
       </c>
-      <c r="V253" s="21" t="s">
+      <c r="V253" t="s">
         <v>1521</v>
       </c>
-      <c r="W253" s="21" t="s">
+      <c r="W253" t="s">
         <v>896</v>
       </c>
-      <c r="X253" s="21" t="s">
+      <c r="X253" t="s">
         <v>5200</v>
       </c>
-      <c r="Y253" s="21" t="s">
+      <c r="Y253" t="s">
         <v>1162</v>
       </c>
-      <c r="Z253" s="21" t="s">
+      <c r="Z253" t="s">
         <v>5190</v>
       </c>
-      <c r="AA253" s="21" t="s">
+      <c r="AA253" t="s">
         <v>1905</v>
       </c>
-      <c r="AB253" s="21" t="s">
+      <c r="AB253" t="s">
         <v>378</v>
       </c>
-      <c r="AC253" s="21" t="s">
+      <c r="AC253" t="s">
         <v>1473</v>
       </c>
-      <c r="AD253" s="21" t="s">
+      <c r="AD253" t="s">
         <v>4595</v>
       </c>
-      <c r="AE253" s="21" t="s">
+      <c r="AE253" t="s">
         <v>2373</v>
       </c>
-      <c r="AF253" s="21" t="s">
+      <c r="AF253" t="s">
         <v>2000</v>
       </c>
-      <c r="AG253" s="21" t="s">
+      <c r="AG253" t="s">
         <v>2001</v>
       </c>
-      <c r="AH253" s="21" t="s">
+      <c r="AH253" t="s">
         <v>5191</v>
       </c>
-      <c r="AI253" s="21" t="s">
+      <c r="AI253" t="s">
         <v>3801</v>
       </c>
-      <c r="AJ253" s="21" t="s">
+      <c r="AJ253" t="s">
         <v>1168</v>
       </c>
-      <c r="AK253" s="21" t="s">
+      <c r="AK253" t="s">
         <v>5192</v>
       </c>
-      <c r="AL253" s="21" t="s">
+      <c r="AL253" t="s">
         <v>5193</v>
       </c>
-      <c r="AM253" s="21" t="s">
+      <c r="AM253" t="s">
         <v>830</v>
       </c>
-      <c r="AN253" s="21" t="s">
+      <c r="AN253" t="s">
         <v>1655</v>
       </c>
-      <c r="AO253" s="21" t="s">
+      <c r="AO253" t="s">
         <v>712</v>
       </c>
-      <c r="AP253" s="21" t="s">
+      <c r="AP253" t="s">
         <v>1910</v>
       </c>
-      <c r="AQ253" s="21" t="s">
+      <c r="AQ253" t="s">
         <v>3048</v>
       </c>
-      <c r="AR253" s="21" t="s">
+      <c r="AR253" t="s">
         <v>295</v>
       </c>
-      <c r="AS253" s="21" t="s">
+      <c r="AS253" t="s">
         <v>5194</v>
       </c>
-      <c r="AT253" s="21" t="s">
+      <c r="AT253" t="s">
         <v>1508</v>
       </c>
-      <c r="AU253" s="21" t="s">
+      <c r="AU253" t="s">
         <v>5195</v>
       </c>
-      <c r="AV253" s="21" t="s">
+      <c r="AV253" t="s">
         <v>5196</v>
       </c>
-      <c r="AW253" s="21" t="s">
+      <c r="AW253" t="s">
         <v>5197</v>
       </c>
-      <c r="AX253" s="21" t="s">
+      <c r="AX253" t="s">
         <v>498</v>
       </c>
       <c r="AY253" s="1" t="s">
@@ -59092,91 +59648,91 @@
       <c r="U254" s="1">
         <v>999</v>
       </c>
-      <c r="V254" s="21" t="s">
+      <c r="V254" t="s">
         <v>1521</v>
       </c>
-      <c r="W254" s="21" t="s">
+      <c r="W254" t="s">
         <v>896</v>
       </c>
-      <c r="X254" s="21" t="s">
+      <c r="X254" t="s">
         <v>5201</v>
       </c>
-      <c r="Y254" s="21" t="s">
+      <c r="Y254" t="s">
         <v>1162</v>
       </c>
-      <c r="Z254" s="21" t="s">
+      <c r="Z254" t="s">
         <v>5202</v>
       </c>
-      <c r="AA254" s="21" t="s">
+      <c r="AA254" t="s">
         <v>1905</v>
       </c>
-      <c r="AB254" s="21" t="s">
+      <c r="AB254" t="s">
         <v>378</v>
       </c>
-      <c r="AC254" s="21" t="s">
+      <c r="AC254" t="s">
         <v>1473</v>
       </c>
-      <c r="AD254" s="21" t="s">
+      <c r="AD254" t="s">
         <v>2182</v>
       </c>
-      <c r="AE254" s="21" t="s">
+      <c r="AE254" t="s">
         <v>5203</v>
       </c>
-      <c r="AF254" s="21" t="s">
+      <c r="AF254" t="s">
         <v>2000</v>
       </c>
-      <c r="AG254" s="21" t="s">
+      <c r="AG254" t="s">
         <v>2001</v>
       </c>
-      <c r="AH254" s="21" t="s">
+      <c r="AH254" t="s">
         <v>2186</v>
       </c>
-      <c r="AI254" s="21" t="s">
+      <c r="AI254" t="s">
         <v>463</v>
       </c>
-      <c r="AJ254" s="21" t="s">
+      <c r="AJ254" t="s">
         <v>1168</v>
       </c>
-      <c r="AK254" s="21" t="s">
+      <c r="AK254" t="s">
         <v>5204</v>
       </c>
-      <c r="AL254" s="21" t="s">
+      <c r="AL254" t="s">
         <v>5205</v>
       </c>
-      <c r="AM254" s="21" t="s">
+      <c r="AM254" t="s">
         <v>830</v>
       </c>
-      <c r="AN254" s="21" t="s">
+      <c r="AN254" t="s">
         <v>1139</v>
       </c>
-      <c r="AO254" s="21" t="s">
+      <c r="AO254" t="s">
         <v>712</v>
       </c>
-      <c r="AP254" s="21" t="s">
+      <c r="AP254" t="s">
         <v>1910</v>
       </c>
-      <c r="AQ254" s="21" t="s">
+      <c r="AQ254" t="s">
         <v>996</v>
       </c>
-      <c r="AR254" s="21" t="s">
+      <c r="AR254" t="s">
         <v>295</v>
       </c>
-      <c r="AS254" s="21" t="s">
+      <c r="AS254" t="s">
         <v>5206</v>
       </c>
-      <c r="AT254" s="21" t="s">
+      <c r="AT254" t="s">
         <v>5207</v>
       </c>
-      <c r="AU254" s="21" t="s">
+      <c r="AU254" t="s">
         <v>1937</v>
       </c>
-      <c r="AV254" s="21" t="s">
+      <c r="AV254" t="s">
         <v>2871</v>
       </c>
-      <c r="AW254" s="21" t="s">
+      <c r="AW254" t="s">
         <v>5208</v>
       </c>
-      <c r="AX254" s="21" t="s">
+      <c r="AX254" t="s">
         <v>5209</v>
       </c>
       <c r="AY254" s="1" t="s">
@@ -59253,91 +59809,91 @@
       <c r="U255" s="1">
         <v>999</v>
       </c>
-      <c r="V255" s="21" t="s">
+      <c r="V255" t="s">
         <v>723</v>
       </c>
-      <c r="W255" s="21" t="s">
+      <c r="W255" t="s">
         <v>66</v>
       </c>
-      <c r="X255" s="21" t="s">
+      <c r="X255" t="s">
         <v>107</v>
       </c>
-      <c r="Y255" s="21" t="s">
+      <c r="Y255" t="s">
         <v>375</v>
       </c>
-      <c r="Z255" s="21" t="s">
+      <c r="Z255" t="s">
         <v>2469</v>
       </c>
-      <c r="AA255" s="21" t="s">
+      <c r="AA255" t="s">
         <v>4968</v>
       </c>
-      <c r="AB255" s="21" t="s">
+      <c r="AB255" t="s">
         <v>348</v>
       </c>
-      <c r="AC255" s="21" t="s">
+      <c r="AC255" t="s">
         <v>884</v>
       </c>
-      <c r="AD255" s="21" t="s">
+      <c r="AD255" t="s">
         <v>2502</v>
       </c>
-      <c r="AE255" s="21" t="s">
+      <c r="AE255" t="s">
         <v>1275</v>
       </c>
-      <c r="AF255" s="21" t="s">
+      <c r="AF255" t="s">
         <v>927</v>
       </c>
-      <c r="AG255" s="21" t="s">
+      <c r="AG255" t="s">
         <v>5214</v>
       </c>
-      <c r="AH255" s="21" t="s">
+      <c r="AH255" t="s">
         <v>1931</v>
       </c>
-      <c r="AI255" s="21" t="s">
+      <c r="AI255" t="s">
         <v>5215</v>
       </c>
-      <c r="AJ255" s="21" t="s">
+      <c r="AJ255" t="s">
         <v>2477</v>
       </c>
-      <c r="AK255" s="21" t="s">
+      <c r="AK255" t="s">
         <v>5216</v>
       </c>
-      <c r="AL255" s="21" t="s">
+      <c r="AL255" t="s">
         <v>5217</v>
       </c>
-      <c r="AM255" s="21" t="s">
+      <c r="AM255" t="s">
         <v>5218</v>
       </c>
-      <c r="AN255" s="21" t="s">
+      <c r="AN255" t="s">
         <v>1637</v>
       </c>
-      <c r="AO255" s="21" t="s">
+      <c r="AO255" t="s">
         <v>1638</v>
       </c>
-      <c r="AP255" s="21" t="s">
+      <c r="AP255" t="s">
         <v>124</v>
       </c>
-      <c r="AQ255" s="21" t="s">
+      <c r="AQ255" t="s">
         <v>85</v>
       </c>
-      <c r="AR255" s="21" t="s">
+      <c r="AR255" t="s">
         <v>202</v>
       </c>
-      <c r="AS255" s="21" t="s">
+      <c r="AS255" t="s">
         <v>5219</v>
       </c>
-      <c r="AT255" s="21" t="s">
+      <c r="AT255" t="s">
         <v>5220</v>
       </c>
-      <c r="AU255" s="21" t="s">
+      <c r="AU255" t="s">
         <v>263</v>
       </c>
-      <c r="AV255" s="21" t="s">
+      <c r="AV255" t="s">
         <v>5221</v>
       </c>
-      <c r="AW255" s="21" t="s">
+      <c r="AW255" t="s">
         <v>91</v>
       </c>
-      <c r="AX255" s="21" t="s">
+      <c r="AX255" t="s">
         <v>5222</v>
       </c>
       <c r="AY255" s="1" t="s">
@@ -59414,91 +59970,91 @@
       <c r="U256" s="1" t="s">
         <v>5227</v>
       </c>
-      <c r="V256" s="21" t="s">
+      <c r="V256" t="s">
         <v>3197</v>
       </c>
-      <c r="W256" s="21" t="s">
+      <c r="W256" t="s">
         <v>896</v>
       </c>
-      <c r="X256" s="21" t="s">
+      <c r="X256" t="s">
         <v>4126</v>
       </c>
-      <c r="Y256" s="21" t="s">
+      <c r="Y256" t="s">
         <v>457</v>
       </c>
-      <c r="Z256" s="21" t="s">
+      <c r="Z256" t="s">
         <v>2180</v>
       </c>
-      <c r="AA256" s="21" t="s">
+      <c r="AA256" t="s">
         <v>1905</v>
       </c>
-      <c r="AB256" s="21" t="s">
+      <c r="AB256" t="s">
         <v>378</v>
       </c>
-      <c r="AC256" s="21" t="s">
+      <c r="AC256" t="s">
         <v>1473</v>
       </c>
-      <c r="AD256" s="21" t="s">
+      <c r="AD256" t="s">
         <v>5147</v>
       </c>
-      <c r="AE256" s="21" t="s">
+      <c r="AE256" t="s">
         <v>5228</v>
       </c>
-      <c r="AF256" s="21" t="s">
+      <c r="AF256" t="s">
         <v>705</v>
       </c>
-      <c r="AG256" s="21" t="s">
+      <c r="AG256" t="s">
         <v>2207</v>
       </c>
-      <c r="AH256" s="21" t="s">
+      <c r="AH256" t="s">
         <v>5229</v>
       </c>
-      <c r="AI256" s="21" t="s">
+      <c r="AI256" t="s">
         <v>463</v>
       </c>
-      <c r="AJ256" s="21" t="s">
+      <c r="AJ256" t="s">
         <v>1168</v>
       </c>
-      <c r="AK256" s="21" t="s">
+      <c r="AK256" t="s">
         <v>5230</v>
       </c>
-      <c r="AL256" s="21" t="s">
+      <c r="AL256" t="s">
         <v>5231</v>
       </c>
-      <c r="AM256" s="21" t="s">
+      <c r="AM256" t="s">
         <v>5232</v>
       </c>
-      <c r="AN256" s="21" t="s">
+      <c r="AN256" t="s">
         <v>1655</v>
       </c>
-      <c r="AO256" s="21" t="s">
+      <c r="AO256" t="s">
         <v>712</v>
       </c>
-      <c r="AP256" s="21" t="s">
+      <c r="AP256" t="s">
         <v>1910</v>
       </c>
-      <c r="AQ256" s="21" t="s">
+      <c r="AQ256" t="s">
         <v>85</v>
       </c>
-      <c r="AR256" s="21" t="s">
+      <c r="AR256" t="s">
         <v>295</v>
       </c>
-      <c r="AS256" s="21" t="s">
+      <c r="AS256" t="s">
         <v>5206</v>
       </c>
-      <c r="AT256" s="21" t="s">
+      <c r="AT256" t="s">
         <v>5233</v>
       </c>
-      <c r="AU256" s="21" t="s">
+      <c r="AU256" t="s">
         <v>2565</v>
       </c>
-      <c r="AV256" s="21" t="s">
+      <c r="AV256" t="s">
         <v>5234</v>
       </c>
-      <c r="AW256" s="21" t="s">
+      <c r="AW256" t="s">
         <v>5235</v>
       </c>
-      <c r="AX256" s="21" t="s">
+      <c r="AX256" t="s">
         <v>5236</v>
       </c>
       <c r="AY256" s="1" t="s">
@@ -59511,7 +60067,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="257" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -59575,91 +60131,91 @@
       <c r="U257" s="1">
         <v>999</v>
       </c>
-      <c r="V257" s="21" t="s">
+      <c r="V257" t="s">
         <v>1924</v>
       </c>
-      <c r="W257" s="21" t="s">
+      <c r="W257" t="s">
         <v>427</v>
       </c>
-      <c r="X257" s="21" t="s">
+      <c r="X257" t="s">
         <v>5241</v>
       </c>
-      <c r="Y257" s="21" t="s">
+      <c r="Y257" t="s">
         <v>375</v>
       </c>
-      <c r="Z257" s="21" t="s">
+      <c r="Z257" t="s">
         <v>1357</v>
       </c>
-      <c r="AA257" s="21" t="s">
+      <c r="AA257" t="s">
         <v>430</v>
       </c>
-      <c r="AB257" s="21" t="s">
+      <c r="AB257" t="s">
         <v>348</v>
       </c>
-      <c r="AC257" s="21" t="s">
+      <c r="AC257" t="s">
         <v>1449</v>
       </c>
-      <c r="AD257" s="21" t="s">
+      <c r="AD257" t="s">
         <v>5242</v>
       </c>
-      <c r="AE257" s="21" t="s">
+      <c r="AE257" t="s">
         <v>5243</v>
       </c>
-      <c r="AF257" s="21" t="s">
+      <c r="AF257" t="s">
         <v>3189</v>
       </c>
-      <c r="AG257" s="21" t="s">
+      <c r="AG257" t="s">
         <v>5244</v>
       </c>
-      <c r="AH257" s="21" t="s">
+      <c r="AH257" t="s">
         <v>5245</v>
       </c>
-      <c r="AI257" s="21" t="s">
+      <c r="AI257" t="s">
         <v>77</v>
       </c>
-      <c r="AJ257" s="21" t="s">
+      <c r="AJ257" t="s">
         <v>118</v>
       </c>
-      <c r="AK257" s="21" t="s">
+      <c r="AK257" t="s">
         <v>5246</v>
       </c>
-      <c r="AL257" s="21" t="s">
+      <c r="AL257" t="s">
         <v>5247</v>
       </c>
-      <c r="AM257" s="21" t="s">
+      <c r="AM257" t="s">
         <v>931</v>
       </c>
-      <c r="AN257" s="21" t="s">
+      <c r="AN257" t="s">
         <v>5248</v>
       </c>
-      <c r="AO257" s="21" t="s">
+      <c r="AO257" t="s">
         <v>358</v>
       </c>
-      <c r="AP257" s="21" t="s">
+      <c r="AP257" t="s">
         <v>1934</v>
       </c>
-      <c r="AQ257" s="21" t="s">
+      <c r="AQ257" t="s">
         <v>3048</v>
       </c>
-      <c r="AR257" s="21" t="s">
+      <c r="AR257" t="s">
         <v>202</v>
       </c>
-      <c r="AS257" s="21" t="s">
+      <c r="AS257" t="s">
         <v>5049</v>
       </c>
-      <c r="AT257" s="21" t="s">
+      <c r="AT257" t="s">
         <v>1936</v>
       </c>
-      <c r="AU257" s="21" t="s">
+      <c r="AU257" t="s">
         <v>5022</v>
       </c>
-      <c r="AV257" s="21" t="s">
+      <c r="AV257" t="s">
         <v>5249</v>
       </c>
-      <c r="AW257" s="21" t="s">
+      <c r="AW257" t="s">
         <v>91</v>
       </c>
-      <c r="AX257" s="21" t="s">
+      <c r="AX257" t="s">
         <v>1147</v>
       </c>
       <c r="AY257" s="1" t="s">
@@ -59672,7 +60228,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="258" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -59736,91 +60292,91 @@
       <c r="U258" s="1">
         <v>999</v>
       </c>
-      <c r="V258" s="21" t="s">
+      <c r="V258" t="s">
         <v>314</v>
       </c>
-      <c r="W258" s="21" t="s">
+      <c r="W258" t="s">
         <v>5144</v>
       </c>
-      <c r="X258" s="21" t="s">
+      <c r="X258" t="s">
         <v>2856</v>
       </c>
-      <c r="Y258" s="21" t="s">
+      <c r="Y258" t="s">
         <v>457</v>
       </c>
-      <c r="Z258" s="21" t="s">
+      <c r="Z258" t="s">
         <v>5254</v>
       </c>
-      <c r="AA258" s="21" t="s">
+      <c r="AA258" t="s">
         <v>1905</v>
       </c>
-      <c r="AB258" s="21" t="s">
+      <c r="AB258" t="s">
         <v>590</v>
       </c>
-      <c r="AC258" s="21" t="s">
+      <c r="AC258" t="s">
         <v>1473</v>
       </c>
-      <c r="AD258" s="21" t="s">
+      <c r="AD258" t="s">
         <v>72</v>
       </c>
-      <c r="AE258" s="21" t="s">
+      <c r="AE258" t="s">
         <v>5255</v>
       </c>
-      <c r="AF258" s="21" t="s">
+      <c r="AF258" t="s">
         <v>705</v>
       </c>
-      <c r="AG258" s="21" t="s">
+      <c r="AG258" t="s">
         <v>5256</v>
       </c>
-      <c r="AH258" s="21" t="s">
+      <c r="AH258" t="s">
         <v>3101</v>
       </c>
-      <c r="AI258" s="21" t="s">
+      <c r="AI258" t="s">
         <v>2051</v>
       </c>
-      <c r="AJ258" s="21" t="s">
+      <c r="AJ258" t="s">
         <v>1502</v>
       </c>
-      <c r="AK258" s="21" t="s">
+      <c r="AK258" t="s">
         <v>5257</v>
       </c>
-      <c r="AL258" s="21" t="s">
+      <c r="AL258" t="s">
         <v>5258</v>
       </c>
-      <c r="AM258" s="21" t="s">
+      <c r="AM258" t="s">
         <v>159</v>
       </c>
-      <c r="AN258" s="21" t="s">
+      <c r="AN258" t="s">
         <v>1655</v>
       </c>
-      <c r="AO258" s="21" t="s">
+      <c r="AO258" t="s">
         <v>651</v>
       </c>
-      <c r="AP258" s="21" t="s">
+      <c r="AP258" t="s">
         <v>5259</v>
       </c>
-      <c r="AQ258" s="21" t="s">
+      <c r="AQ258" t="s">
         <v>85</v>
       </c>
-      <c r="AR258" s="21" t="s">
+      <c r="AR258" t="s">
         <v>295</v>
       </c>
-      <c r="AS258" s="21" t="s">
+      <c r="AS258" t="s">
         <v>5260</v>
       </c>
-      <c r="AT258" s="21" t="s">
+      <c r="AT258" t="s">
         <v>2005</v>
       </c>
-      <c r="AU258" s="21" t="s">
+      <c r="AU258" t="s">
         <v>1096</v>
       </c>
-      <c r="AV258" s="21" t="s">
+      <c r="AV258" t="s">
         <v>5261</v>
       </c>
-      <c r="AW258" s="21" t="s">
+      <c r="AW258" t="s">
         <v>1657</v>
       </c>
-      <c r="AX258" s="21" t="s">
+      <c r="AX258" t="s">
         <v>419</v>
       </c>
       <c r="AY258" s="1" t="s">
@@ -59833,7 +60389,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="259" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -59897,91 +60453,91 @@
       <c r="U259" s="1">
         <v>999</v>
       </c>
-      <c r="V259" s="21" t="s">
+      <c r="V259" t="s">
         <v>1521</v>
       </c>
-      <c r="W259" s="21" t="s">
+      <c r="W259" t="s">
         <v>5264</v>
       </c>
-      <c r="X259" s="21" t="s">
+      <c r="X259" t="s">
         <v>2856</v>
       </c>
-      <c r="Y259" s="21" t="s">
+      <c r="Y259" t="s">
         <v>1162</v>
       </c>
-      <c r="Z259" s="21" t="s">
+      <c r="Z259" t="s">
         <v>5254</v>
       </c>
-      <c r="AA259" s="21" t="s">
+      <c r="AA259" t="s">
         <v>5265</v>
       </c>
-      <c r="AB259" s="21" t="s">
+      <c r="AB259" t="s">
         <v>590</v>
       </c>
-      <c r="AC259" s="21" t="s">
+      <c r="AC259" t="s">
         <v>1473</v>
       </c>
-      <c r="AD259" s="21" t="s">
+      <c r="AD259" t="s">
         <v>5266</v>
       </c>
-      <c r="AE259" s="21" t="s">
+      <c r="AE259" t="s">
         <v>5267</v>
       </c>
-      <c r="AF259" s="21" t="s">
+      <c r="AF259" t="s">
         <v>461</v>
       </c>
-      <c r="AG259" s="21" t="s">
+      <c r="AG259" t="s">
         <v>5269</v>
       </c>
-      <c r="AH259" s="21" t="s">
+      <c r="AH259" t="s">
         <v>1931</v>
       </c>
-      <c r="AI259" s="21" t="s">
+      <c r="AI259" t="s">
         <v>3166</v>
       </c>
-      <c r="AJ259" s="21" t="s">
+      <c r="AJ259" t="s">
         <v>2026</v>
       </c>
-      <c r="AK259" s="21" t="s">
+      <c r="AK259" t="s">
         <v>5270</v>
       </c>
-      <c r="AL259" s="21" t="s">
+      <c r="AL259" t="s">
         <v>5271</v>
       </c>
-      <c r="AM259" s="21" t="s">
+      <c r="AM259" t="s">
         <v>121</v>
       </c>
-      <c r="AN259" s="21" t="s">
+      <c r="AN259" t="s">
         <v>5272</v>
       </c>
-      <c r="AO259" s="21" t="s">
+      <c r="AO259" t="s">
         <v>712</v>
       </c>
-      <c r="AP259" s="21" t="s">
+      <c r="AP259" t="s">
         <v>5259</v>
       </c>
-      <c r="AQ259" s="21" t="s">
+      <c r="AQ259" t="s">
         <v>414</v>
       </c>
-      <c r="AR259" s="21" t="s">
+      <c r="AR259" t="s">
         <v>5273</v>
       </c>
-      <c r="AS259" s="21" t="s">
+      <c r="AS259" t="s">
         <v>3222</v>
       </c>
-      <c r="AT259" s="21" t="s">
+      <c r="AT259" t="s">
         <v>494</v>
       </c>
-      <c r="AU259" s="21" t="s">
+      <c r="AU259" t="s">
         <v>5274</v>
       </c>
-      <c r="AV259" s="21" t="s">
+      <c r="AV259" t="s">
         <v>5275</v>
       </c>
-      <c r="AW259" s="21" t="s">
+      <c r="AW259" t="s">
         <v>5276</v>
       </c>
-      <c r="AX259" s="21" t="s">
+      <c r="AX259" t="s">
         <v>5277</v>
       </c>
       <c r="AY259" s="1" t="s">
@@ -59994,7 +60550,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="260" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -60058,91 +60614,91 @@
       <c r="U260" s="1" t="s">
         <v>5283</v>
       </c>
-      <c r="V260" s="21" t="s">
+      <c r="V260" t="s">
         <v>1924</v>
       </c>
-      <c r="W260" s="21" t="s">
+      <c r="W260" t="s">
         <v>427</v>
       </c>
-      <c r="X260" s="21" t="s">
+      <c r="X260" t="s">
         <v>5284</v>
       </c>
-      <c r="Y260" s="21" t="s">
+      <c r="Y260" t="s">
         <v>375</v>
       </c>
-      <c r="Z260" s="21" t="s">
+      <c r="Z260" t="s">
         <v>1927</v>
       </c>
-      <c r="AA260" s="21" t="s">
+      <c r="AA260" t="s">
         <v>430</v>
       </c>
-      <c r="AB260" s="21" t="s">
+      <c r="AB260" t="s">
         <v>348</v>
       </c>
-      <c r="AC260" s="21" t="s">
+      <c r="AC260" t="s">
         <v>1449</v>
       </c>
-      <c r="AD260" s="21" t="s">
+      <c r="AD260" t="s">
         <v>925</v>
       </c>
-      <c r="AE260" s="21" t="s">
+      <c r="AE260" t="s">
         <v>5285</v>
       </c>
-      <c r="AF260" s="21" t="s">
+      <c r="AF260" t="s">
         <v>728</v>
       </c>
-      <c r="AG260" s="21" t="s">
+      <c r="AG260" t="s">
         <v>5286</v>
       </c>
-      <c r="AH260" s="21" t="s">
+      <c r="AH260" t="s">
         <v>5287</v>
       </c>
-      <c r="AI260" s="21" t="s">
+      <c r="AI260" t="s">
         <v>77</v>
       </c>
-      <c r="AJ260" s="21" t="s">
+      <c r="AJ260" t="s">
         <v>2026</v>
       </c>
-      <c r="AK260" s="21" t="s">
+      <c r="AK260" t="s">
         <v>5297</v>
       </c>
       <c r="AL260">
         <v>999</v>
       </c>
-      <c r="AM260" s="21" t="s">
+      <c r="AM260" t="s">
         <v>121</v>
       </c>
-      <c r="AN260" s="21" t="s">
+      <c r="AN260" t="s">
         <v>1637</v>
       </c>
-      <c r="AO260" s="21" t="s">
+      <c r="AO260" t="s">
         <v>5300</v>
       </c>
-      <c r="AP260" s="21" t="s">
+      <c r="AP260" t="s">
         <v>124</v>
       </c>
-      <c r="AQ260" s="21" t="s">
+      <c r="AQ260" t="s">
         <v>414</v>
       </c>
-      <c r="AR260" s="21" t="s">
+      <c r="AR260" t="s">
         <v>126</v>
       </c>
-      <c r="AS260" s="21" t="s">
+      <c r="AS260" t="s">
         <v>5288</v>
       </c>
-      <c r="AT260" s="21" t="s">
+      <c r="AT260" t="s">
         <v>5289</v>
       </c>
-      <c r="AU260" s="21" t="s">
+      <c r="AU260" t="s">
         <v>5290</v>
       </c>
-      <c r="AV260" s="21" t="s">
+      <c r="AV260" t="s">
         <v>5291</v>
       </c>
-      <c r="AW260" s="21" t="s">
+      <c r="AW260" t="s">
         <v>91</v>
       </c>
-      <c r="AX260" s="21" t="s">
+      <c r="AX260" t="s">
         <v>419</v>
       </c>
       <c r="AY260" s="1" t="s">
@@ -60155,7 +60711,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="261" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -60219,91 +60775,91 @@
       <c r="U261" s="1">
         <v>999</v>
       </c>
-      <c r="V261" s="21" t="s">
+      <c r="V261" t="s">
         <v>1924</v>
       </c>
-      <c r="W261" s="21" t="s">
+      <c r="W261" t="s">
         <v>427</v>
       </c>
-      <c r="X261" s="21" t="s">
+      <c r="X261" t="s">
         <v>3026</v>
       </c>
-      <c r="Y261" s="21" t="s">
+      <c r="Y261" t="s">
         <v>375</v>
       </c>
-      <c r="Z261" s="21" t="s">
+      <c r="Z261" t="s">
         <v>1927</v>
       </c>
-      <c r="AA261" s="21" t="s">
+      <c r="AA261" t="s">
         <v>430</v>
       </c>
-      <c r="AB261" s="21" t="s">
+      <c r="AB261" t="s">
         <v>348</v>
       </c>
-      <c r="AC261" s="21" t="s">
+      <c r="AC261" t="s">
         <v>1449</v>
       </c>
-      <c r="AD261" s="21" t="s">
+      <c r="AD261" t="s">
         <v>925</v>
       </c>
-      <c r="AE261" s="21" t="s">
+      <c r="AE261" t="s">
         <v>2915</v>
       </c>
-      <c r="AF261" s="21" t="s">
+      <c r="AF261" t="s">
         <v>1929</v>
       </c>
-      <c r="AG261" s="21" t="s">
+      <c r="AG261" t="s">
         <v>5296</v>
       </c>
-      <c r="AH261" s="21" t="s">
+      <c r="AH261" t="s">
         <v>1931</v>
       </c>
-      <c r="AI261" s="21" t="s">
+      <c r="AI261" t="s">
         <v>77</v>
       </c>
-      <c r="AJ261" s="21" t="s">
+      <c r="AJ261" t="s">
         <v>2026</v>
       </c>
-      <c r="AK261" s="21" t="s">
+      <c r="AK261" t="s">
         <v>5298</v>
       </c>
-      <c r="AL261" s="21" t="s">
+      <c r="AL261" t="s">
         <v>5180</v>
       </c>
-      <c r="AM261" s="21" t="s">
+      <c r="AM261" t="s">
         <v>5299</v>
       </c>
-      <c r="AN261" s="21" t="s">
+      <c r="AN261" t="s">
         <v>1637</v>
       </c>
-      <c r="AO261" s="21" t="s">
+      <c r="AO261" t="s">
         <v>358</v>
       </c>
-      <c r="AP261" s="21" t="s">
+      <c r="AP261" t="s">
         <v>1934</v>
       </c>
-      <c r="AQ261" s="21" t="s">
+      <c r="AQ261" t="s">
         <v>85</v>
       </c>
-      <c r="AR261" s="21" t="s">
+      <c r="AR261" t="s">
         <v>202</v>
       </c>
-      <c r="AS261" s="21" t="s">
+      <c r="AS261" t="s">
         <v>5049</v>
       </c>
-      <c r="AT261" s="21" t="s">
+      <c r="AT261" t="s">
         <v>5289</v>
       </c>
-      <c r="AU261" s="21" t="s">
+      <c r="AU261" t="s">
         <v>1937</v>
       </c>
-      <c r="AV261" s="21" t="s">
+      <c r="AV261" t="s">
         <v>5301</v>
       </c>
-      <c r="AW261" s="21" t="s">
+      <c r="AW261" t="s">
         <v>91</v>
       </c>
-      <c r="AX261" s="21" t="s">
+      <c r="AX261" t="s">
         <v>498</v>
       </c>
       <c r="AY261" s="1" t="s">
@@ -60316,7 +60872,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="262" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -60380,10 +60936,10 @@
       <c r="U262" s="1">
         <v>999</v>
       </c>
-      <c r="V262" s="21" t="s">
+      <c r="V262" t="s">
         <v>5306</v>
       </c>
-      <c r="W262" s="21" t="s">
+      <c r="W262" t="s">
         <v>3564</v>
       </c>
       <c r="X262">
@@ -60392,7 +60948,7 @@
       <c r="Y262">
         <v>999</v>
       </c>
-      <c r="Z262" s="21" t="s">
+      <c r="Z262" t="s">
         <v>1927</v>
       </c>
       <c r="AA262">
@@ -60401,43 +60957,43 @@
       <c r="AB262">
         <v>999</v>
       </c>
-      <c r="AC262" s="21" t="s">
+      <c r="AC262" t="s">
         <v>5307</v>
       </c>
-      <c r="AD262" s="21" t="s">
+      <c r="AD262" t="s">
         <v>1256</v>
       </c>
-      <c r="AE262" s="21" t="s">
+      <c r="AE262" t="s">
         <v>1257</v>
       </c>
       <c r="AF262">
         <v>999</v>
       </c>
-      <c r="AG262" s="21" t="s">
+      <c r="AG262" t="s">
         <v>5308</v>
       </c>
       <c r="AH262">
         <v>999</v>
       </c>
-      <c r="AI262" s="21" t="s">
+      <c r="AI262" t="s">
         <v>5309</v>
       </c>
-      <c r="AJ262" s="21" t="s">
+      <c r="AJ262" t="s">
         <v>2026</v>
       </c>
-      <c r="AK262" s="21" t="s">
+      <c r="AK262" t="s">
         <v>5310</v>
       </c>
-      <c r="AL262" s="21" t="s">
+      <c r="AL262" t="s">
         <v>3682</v>
       </c>
-      <c r="AM262" s="21" t="s">
+      <c r="AM262" t="s">
         <v>121</v>
       </c>
-      <c r="AN262" s="21" t="s">
+      <c r="AN262" t="s">
         <v>1637</v>
       </c>
-      <c r="AO262" s="21" t="s">
+      <c r="AO262" t="s">
         <v>5311</v>
       </c>
       <c r="AP262">
@@ -60446,19 +61002,19 @@
       <c r="AQ262">
         <v>999</v>
       </c>
-      <c r="AR262" s="21" t="s">
+      <c r="AR262" t="s">
         <v>202</v>
       </c>
-      <c r="AS262" s="21" t="s">
+      <c r="AS262" t="s">
         <v>5312</v>
       </c>
-      <c r="AT262" s="21" t="s">
+      <c r="AT262" t="s">
         <v>5313</v>
       </c>
       <c r="AU262">
         <v>999</v>
       </c>
-      <c r="AV262" s="21" t="s">
+      <c r="AV262" t="s">
         <v>3916</v>
       </c>
       <c r="AW262">
@@ -60477,7 +61033,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="263" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -60541,91 +61097,91 @@
       <c r="U263" s="1">
         <v>999</v>
       </c>
-      <c r="V263" s="21" t="s">
+      <c r="V263" t="s">
         <v>1521</v>
       </c>
-      <c r="W263" s="21" t="s">
+      <c r="W263" t="s">
         <v>896</v>
       </c>
-      <c r="X263" s="21" t="s">
+      <c r="X263" t="s">
         <v>4126</v>
       </c>
-      <c r="Y263" s="21" t="s">
+      <c r="Y263" t="s">
         <v>1162</v>
       </c>
-      <c r="Z263" s="21" t="s">
+      <c r="Z263" t="s">
         <v>2180</v>
       </c>
-      <c r="AA263" s="21" t="s">
+      <c r="AA263" t="s">
         <v>5316</v>
       </c>
-      <c r="AB263" s="22" t="s">
+      <c r="AB263" s="11" t="s">
         <v>5320</v>
       </c>
-      <c r="AC263" s="21" t="s">
+      <c r="AC263" t="s">
         <v>4911</v>
       </c>
-      <c r="AD263" s="21" t="s">
+      <c r="AD263" t="s">
         <v>72</v>
       </c>
-      <c r="AE263" s="21" t="s">
+      <c r="AE263" t="s">
         <v>5317</v>
       </c>
-      <c r="AF263" s="21" t="s">
+      <c r="AF263" t="s">
         <v>642</v>
       </c>
-      <c r="AG263" s="22" t="s">
+      <c r="AG263" s="11" t="s">
         <v>5321</v>
       </c>
-      <c r="AH263" s="21" t="s">
+      <c r="AH263" t="s">
         <v>1688</v>
       </c>
-      <c r="AI263" s="21" t="s">
+      <c r="AI263" t="s">
         <v>384</v>
       </c>
-      <c r="AJ263" s="21" t="s">
+      <c r="AJ263" t="s">
         <v>5318</v>
       </c>
-      <c r="AK263" s="21" t="s">
+      <c r="AK263" t="s">
         <v>5322</v>
       </c>
-      <c r="AL263" s="21" t="s">
+      <c r="AL263" t="s">
         <v>5324</v>
       </c>
-      <c r="AM263" s="21" t="s">
+      <c r="AM263" t="s">
         <v>159</v>
       </c>
-      <c r="AN263" s="21" t="s">
+      <c r="AN263" t="s">
         <v>5323</v>
       </c>
-      <c r="AO263" s="21" t="s">
+      <c r="AO263" t="s">
         <v>651</v>
       </c>
-      <c r="AP263" s="22" t="s">
+      <c r="AP263" s="11" t="s">
         <v>5325</v>
       </c>
-      <c r="AQ263" s="21" t="s">
+      <c r="AQ263" t="s">
         <v>1170</v>
       </c>
-      <c r="AR263" s="21" t="s">
+      <c r="AR263" t="s">
         <v>295</v>
       </c>
-      <c r="AS263" s="21" t="s">
+      <c r="AS263" t="s">
         <v>5326</v>
       </c>
-      <c r="AT263" s="21" t="s">
+      <c r="AT263" t="s">
         <v>1508</v>
       </c>
-      <c r="AU263" s="21" t="s">
+      <c r="AU263" t="s">
         <v>5327</v>
       </c>
-      <c r="AV263" s="21" t="s">
+      <c r="AV263" t="s">
         <v>5261</v>
       </c>
-      <c r="AW263" s="21" t="s">
+      <c r="AW263" t="s">
         <v>394</v>
       </c>
-      <c r="AX263" s="21" t="s">
+      <c r="AX263" t="s">
         <v>1820</v>
       </c>
       <c r="AY263" s="1" t="s">
@@ -60638,7 +61194,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="264" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -60702,88 +61258,88 @@
       <c r="U264" s="1">
         <v>999</v>
       </c>
-      <c r="V264" s="21" t="s">
+      <c r="V264" t="s">
         <v>1521</v>
       </c>
-      <c r="W264" s="21" t="s">
+      <c r="W264" t="s">
         <v>896</v>
       </c>
-      <c r="X264" s="21" t="s">
+      <c r="X264" t="s">
         <v>2611</v>
       </c>
-      <c r="Y264" s="21" t="s">
+      <c r="Y264" t="s">
         <v>1162</v>
       </c>
-      <c r="Z264" s="21" t="s">
+      <c r="Z264" t="s">
         <v>5190</v>
       </c>
-      <c r="AA264" s="21" t="s">
+      <c r="AA264" t="s">
         <v>5340</v>
       </c>
-      <c r="AB264" s="22" t="s">
+      <c r="AB264" s="11" t="s">
         <v>5341</v>
       </c>
-      <c r="AC264" s="21" t="s">
+      <c r="AC264" t="s">
         <v>379</v>
       </c>
-      <c r="AD264" s="21" t="s">
+      <c r="AD264" t="s">
         <v>5342</v>
       </c>
-      <c r="AE264" s="21" t="s">
+      <c r="AE264" t="s">
         <v>2373</v>
       </c>
-      <c r="AF264" s="21" t="s">
+      <c r="AF264" t="s">
         <v>5148</v>
       </c>
-      <c r="AG264" s="22" t="s">
+      <c r="AG264" s="11" t="s">
         <v>5343</v>
       </c>
-      <c r="AH264" s="21" t="s">
+      <c r="AH264" t="s">
         <v>155</v>
       </c>
-      <c r="AI264" s="21" t="s">
+      <c r="AI264" t="s">
         <v>5344</v>
       </c>
-      <c r="AJ264" s="21" t="s">
+      <c r="AJ264" t="s">
         <v>5362</v>
       </c>
-      <c r="AK264" s="22" t="s">
+      <c r="AK264" s="11" t="s">
         <v>5345</v>
       </c>
-      <c r="AL264" s="21" t="s">
+      <c r="AL264" t="s">
         <v>5346</v>
       </c>
-      <c r="AM264" s="21" t="s">
+      <c r="AM264" t="s">
         <v>5347</v>
       </c>
-      <c r="AN264" s="21" t="s">
+      <c r="AN264" t="s">
         <v>5348</v>
       </c>
-      <c r="AO264" s="21" t="s">
+      <c r="AO264" t="s">
         <v>5349</v>
       </c>
-      <c r="AP264" s="22" t="s">
+      <c r="AP264" s="11" t="s">
         <v>5350</v>
       </c>
-      <c r="AQ264" s="21" t="s">
+      <c r="AQ264" t="s">
         <v>1170</v>
       </c>
-      <c r="AR264" s="21" t="s">
+      <c r="AR264" t="s">
         <v>295</v>
       </c>
-      <c r="AS264" s="21" t="s">
+      <c r="AS264" t="s">
         <v>2310</v>
       </c>
-      <c r="AT264" s="21" t="s">
+      <c r="AT264" t="s">
         <v>1949</v>
       </c>
-      <c r="AU264" s="21" t="s">
+      <c r="AU264" t="s">
         <v>2079</v>
       </c>
-      <c r="AV264" s="21" t="s">
+      <c r="AV264" t="s">
         <v>5351</v>
       </c>
-      <c r="AX264" s="21" t="s">
+      <c r="AX264" t="s">
         <v>1197</v>
       </c>
       <c r="AY264" s="1" t="s">
@@ -60796,7 +61352,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="265" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -60860,91 +61416,91 @@
       <c r="U265" s="1" t="s">
         <v>5358</v>
       </c>
-      <c r="V265" s="21" t="s">
+      <c r="V265" t="s">
         <v>1924</v>
       </c>
-      <c r="W265" s="21" t="s">
+      <c r="W265" t="s">
         <v>427</v>
       </c>
-      <c r="X265" s="21" t="s">
+      <c r="X265" t="s">
         <v>5359</v>
       </c>
-      <c r="Y265" s="21" t="s">
+      <c r="Y265" t="s">
         <v>3186</v>
       </c>
-      <c r="Z265" s="21" t="s">
+      <c r="Z265" t="s">
         <v>2469</v>
       </c>
-      <c r="AA265" s="21" t="s">
+      <c r="AA265" t="s">
         <v>430</v>
       </c>
-      <c r="AB265" s="21" t="s">
+      <c r="AB265" t="s">
         <v>348</v>
       </c>
-      <c r="AC265" s="21" t="s">
+      <c r="AC265" t="s">
         <v>1449</v>
       </c>
-      <c r="AD265" s="21" t="s">
+      <c r="AD265" t="s">
         <v>5360</v>
       </c>
-      <c r="AE265" s="21" t="s">
+      <c r="AE265" t="s">
         <v>5064</v>
       </c>
-      <c r="AF265" s="21" t="s">
+      <c r="AF265" t="s">
         <v>728</v>
       </c>
-      <c r="AG265" s="21" t="s">
+      <c r="AG265" t="s">
         <v>2207</v>
       </c>
-      <c r="AH265" s="21" t="s">
+      <c r="AH265" t="s">
         <v>5361</v>
       </c>
-      <c r="AI265" s="21" t="s">
+      <c r="AI265" t="s">
         <v>77</v>
       </c>
-      <c r="AJ265" s="21" t="s">
+      <c r="AJ265" t="s">
         <v>4971</v>
       </c>
-      <c r="AK265" s="21" t="s">
+      <c r="AK265" t="s">
         <v>2027</v>
       </c>
-      <c r="AL265" s="21" t="s">
+      <c r="AL265" t="s">
         <v>3089</v>
       </c>
-      <c r="AM265" s="21" t="s">
+      <c r="AM265" t="s">
         <v>257</v>
       </c>
-      <c r="AN265" s="21" t="s">
+      <c r="AN265" t="s">
         <v>1637</v>
       </c>
-      <c r="AO265" s="21" t="s">
+      <c r="AO265" t="s">
         <v>358</v>
       </c>
-      <c r="AP265" s="21" t="s">
+      <c r="AP265" t="s">
         <v>1934</v>
       </c>
-      <c r="AQ265" s="21" t="s">
+      <c r="AQ265" t="s">
         <v>414</v>
       </c>
-      <c r="AR265" s="21" t="s">
+      <c r="AR265" t="s">
         <v>202</v>
       </c>
-      <c r="AS265" s="21" t="s">
+      <c r="AS265" t="s">
         <v>2827</v>
       </c>
-      <c r="AT265" s="21" t="s">
+      <c r="AT265" t="s">
         <v>5363</v>
       </c>
-      <c r="AU265" s="21" t="s">
+      <c r="AU265" t="s">
         <v>1818</v>
       </c>
-      <c r="AV265" s="21" t="s">
+      <c r="AV265" t="s">
         <v>5364</v>
       </c>
-      <c r="AW265" s="21" t="s">
+      <c r="AW265" t="s">
         <v>5365</v>
       </c>
-      <c r="AX265" s="21" t="s">
+      <c r="AX265" t="s">
         <v>419</v>
       </c>
       <c r="AY265" s="1" t="s">
@@ -60957,12 +61513,12 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="266" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" s="2">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="C266" t="s">
         <v>54</v>
@@ -60970,19 +61526,163 @@
       <c r="D266" t="s">
         <v>4868</v>
       </c>
+      <c r="E266">
+        <v>11</v>
+      </c>
+      <c r="F266">
+        <v>3</v>
+      </c>
       <c r="G266" t="s">
         <v>4746</v>
       </c>
+      <c r="H266" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I266" t="s">
+        <v>500</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K266" t="s">
+        <v>5366</v>
+      </c>
+      <c r="L266" t="s">
+        <v>551</v>
+      </c>
+      <c r="M266">
+        <v>999</v>
+      </c>
+      <c r="N266" t="s">
+        <v>551</v>
+      </c>
+      <c r="O266" t="s">
+        <v>61</v>
+      </c>
+      <c r="P266" t="s">
+        <v>5368</v>
+      </c>
+      <c r="Q266">
+        <v>999</v>
+      </c>
+      <c r="R266" t="s">
+        <v>551</v>
+      </c>
+      <c r="S266">
+        <v>999</v>
+      </c>
+      <c r="T266" t="s">
+        <v>64</v>
+      </c>
+      <c r="U266" s="1">
+        <v>999</v>
+      </c>
+      <c r="V266" t="s">
+        <v>723</v>
+      </c>
+      <c r="W266" t="s">
+        <v>427</v>
+      </c>
+      <c r="X266" t="s">
+        <v>5241</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>5369</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>5370</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>5096</v>
+      </c>
+      <c r="AH266" t="s">
+        <v>2847</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ266" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>5371</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>5388</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN266" t="s">
+        <v>5372</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AP266" t="s">
+        <v>5373</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>5374</v>
+      </c>
+      <c r="AR266" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS266" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT266" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU266" t="s">
+        <v>520</v>
+      </c>
+      <c r="AV266" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AW266" t="s">
+        <v>5375</v>
+      </c>
+      <c r="AX266" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AY266" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="AZ266" t="s">
         <v>211</v>
       </c>
+      <c r="BA266" s="1" t="s">
+        <v>5376</v>
+      </c>
+      <c r="BB266" t="s">
+        <v>5367</v>
+      </c>
     </row>
-    <row r="267" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" s="2">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="C267" t="s">
         <v>54</v>
@@ -60990,176 +61690,1433 @@
       <c r="D267" t="s">
         <v>4868</v>
       </c>
+      <c r="E267">
+        <v>11</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
       <c r="G267" t="s">
         <v>4747</v>
       </c>
+      <c r="H267" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I267" t="s">
+        <v>567</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K267" t="s">
+        <v>5332</v>
+      </c>
+      <c r="L267" t="s">
+        <v>5377</v>
+      </c>
+      <c r="M267">
+        <v>999</v>
+      </c>
+      <c r="N267" t="s">
+        <v>551</v>
+      </c>
+      <c r="O267" t="s">
+        <v>5199</v>
+      </c>
+      <c r="P267" t="s">
+        <v>5378</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R267">
+        <v>999</v>
+      </c>
+      <c r="S267">
+        <v>999</v>
+      </c>
+      <c r="T267" t="s">
+        <v>1205</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="V267" s="21" t="s">
+        <v>5380</v>
+      </c>
+      <c r="W267" s="21" t="s">
+        <v>4195</v>
+      </c>
+      <c r="X267" s="21" t="s">
+        <v>5381</v>
+      </c>
+      <c r="Y267" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z267" s="21" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AA267" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB267" s="21" t="s">
+        <v>5382</v>
+      </c>
+      <c r="AC267" s="21" t="s">
+        <v>5383</v>
+      </c>
+      <c r="AD267" s="21" t="s">
+        <v>5384</v>
+      </c>
+      <c r="AE267" s="21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AF267" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG267" s="21" t="s">
+        <v>5385</v>
+      </c>
+      <c r="AH267" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AI267" s="21" t="s">
+        <v>5386</v>
+      </c>
+      <c r="AJ267" s="21" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AK267" s="21" t="s">
+        <v>5387</v>
+      </c>
+      <c r="AL267" s="21" t="s">
+        <v>5389</v>
+      </c>
+      <c r="AM267" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN267" s="21" t="s">
+        <v>5390</v>
+      </c>
+      <c r="AO267" s="21" t="s">
+        <v>5391</v>
+      </c>
+      <c r="AP267" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ267" s="21" t="s">
+        <v>5392</v>
+      </c>
+      <c r="AR267" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS267" s="21" t="s">
+        <v>5312</v>
+      </c>
+      <c r="AT267" s="21" t="s">
+        <v>5393</v>
+      </c>
+      <c r="AU267" s="21" t="s">
+        <v>5394</v>
+      </c>
+      <c r="AV267" s="21" t="s">
+        <v>5395</v>
+      </c>
+      <c r="AW267" s="21" t="s">
+        <v>3591</v>
+      </c>
+      <c r="AX267" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY267" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ267" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA267" s="1" t="s">
+        <v>2832</v>
+      </c>
     </row>
-    <row r="268" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" s="2">
-        <v>44809</v>
+        <v>44810</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4868</v>
+      </c>
+      <c r="E268">
+        <v>11</v>
+      </c>
+      <c r="F268">
+        <v>5</v>
       </c>
       <c r="G268" t="s">
         <v>4748</v>
       </c>
+      <c r="H268" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I268" t="s">
+        <v>567</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K268" t="s">
+        <v>5396</v>
+      </c>
+      <c r="L268" t="s">
+        <v>5397</v>
+      </c>
+      <c r="M268" t="s">
+        <v>5238</v>
+      </c>
+      <c r="N268" t="s">
+        <v>551</v>
+      </c>
+      <c r="O268" t="s">
+        <v>549</v>
+      </c>
+      <c r="P268" t="s">
+        <v>5398</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>5399</v>
+      </c>
+      <c r="R268">
+        <v>999</v>
+      </c>
+      <c r="S268" t="s">
+        <v>5400</v>
+      </c>
+      <c r="T268" t="s">
+        <v>64</v>
+      </c>
+      <c r="U268" s="1">
+        <v>999</v>
+      </c>
+      <c r="V268" s="21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="W268" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="X268" s="21" t="s">
+        <v>5401</v>
+      </c>
+      <c r="Y268" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>5402</v>
+      </c>
+      <c r="AA268" s="21" t="s">
+        <v>1905</v>
+      </c>
+      <c r="AB268" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC268" s="21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AD268" s="21" t="s">
+        <v>5403</v>
+      </c>
+      <c r="AE268" s="21" t="s">
+        <v>5404</v>
+      </c>
+      <c r="AF268" s="21" t="s">
+        <v>5405</v>
+      </c>
+      <c r="AG268" s="21" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AH268" s="21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AI268" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ268" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK268" s="22" t="s">
+        <v>5406</v>
+      </c>
+      <c r="AL268" s="21" t="s">
+        <v>5407</v>
+      </c>
+      <c r="AM268" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN268" s="21" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AO268" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="AP268" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="AQ268" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR268" s="21" t="s">
+        <v>5408</v>
+      </c>
+      <c r="AS268" s="21" t="s">
+        <v>5194</v>
+      </c>
+      <c r="AT268" s="21" t="s">
+        <v>4918</v>
+      </c>
+      <c r="AU268" s="21" t="s">
+        <v>5409</v>
+      </c>
+      <c r="AV268" s="21" t="s">
+        <v>5410</v>
+      </c>
+      <c r="AW268" s="21" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AX268" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY268" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AZ268" t="s">
+        <v>1896</v>
+      </c>
+      <c r="BA268" s="1" t="s">
+        <v>1027</v>
+      </c>
     </row>
-    <row r="269" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
+      <c r="B269" s="2">
+        <v>44810</v>
+      </c>
+      <c r="C269" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4868</v>
+      </c>
+      <c r="E269">
+        <v>11</v>
+      </c>
+      <c r="F269">
+        <v>6</v>
+      </c>
       <c r="G269" t="s">
         <v>4749</v>
       </c>
+      <c r="H269" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I269" t="s">
+        <v>500</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K269" t="s">
+        <v>5353</v>
+      </c>
+      <c r="L269" t="s">
+        <v>5411</v>
+      </c>
+      <c r="M269">
+        <v>999</v>
+      </c>
+      <c r="N269" t="s">
+        <v>551</v>
+      </c>
+      <c r="O269" t="s">
+        <v>5199</v>
+      </c>
+      <c r="P269" s="23" t="s">
+        <v>5432</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>5008</v>
+      </c>
+      <c r="R269">
+        <v>999</v>
+      </c>
+      <c r="S269">
+        <v>999</v>
+      </c>
+      <c r="T269" t="s">
+        <v>142</v>
+      </c>
+      <c r="U269" s="1">
+        <v>999</v>
+      </c>
+      <c r="V269" t="s">
+        <v>5414</v>
+      </c>
+      <c r="W269" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="X269" s="22" t="s">
+        <v>5412</v>
+      </c>
+      <c r="Y269" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z269" s="21" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AA269" s="21" t="s">
+        <v>5413</v>
+      </c>
+      <c r="AB269" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC269" s="21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD269" s="21" t="s">
+        <v>5415</v>
+      </c>
+      <c r="AE269" s="21" t="s">
+        <v>5416</v>
+      </c>
+      <c r="AF269" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG269" s="21" t="s">
+        <v>5417</v>
+      </c>
+      <c r="AH269" s="21" t="s">
+        <v>5418</v>
+      </c>
+      <c r="AI269" s="21" t="s">
+        <v>3166</v>
+      </c>
+      <c r="AJ269" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK269" s="21" t="s">
+        <v>5419</v>
+      </c>
+      <c r="AL269" s="21" t="s">
+        <v>5420</v>
+      </c>
+      <c r="AM269" s="22" t="s">
+        <v>5421</v>
+      </c>
+      <c r="AN269" s="21" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AO269" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP269" s="21" t="s">
+        <v>5422</v>
+      </c>
+      <c r="AQ269" s="21" t="s">
+        <v>5423</v>
+      </c>
+      <c r="AR269" s="21" t="s">
+        <v>5424</v>
+      </c>
+      <c r="AS269" s="21" t="s">
+        <v>5425</v>
+      </c>
+      <c r="AT269" s="21" t="s">
+        <v>4976</v>
+      </c>
+      <c r="AU269" s="21" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AV269" s="21" t="s">
+        <v>5426</v>
+      </c>
+      <c r="AW269" s="21" t="s">
+        <v>5427</v>
+      </c>
+      <c r="AX269" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY269" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ269" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA269" s="1" t="s">
+        <v>5428</v>
+      </c>
     </row>
-    <row r="270" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
+      <c r="B270" s="2">
+        <v>44810</v>
+      </c>
+      <c r="C270" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4868</v>
+      </c>
+      <c r="E270">
+        <v>11</v>
+      </c>
+      <c r="F270">
+        <v>7</v>
+      </c>
       <c r="G270" t="s">
         <v>4750</v>
       </c>
+      <c r="H270" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I270" t="s">
+        <v>500</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K270" t="s">
+        <v>5429</v>
+      </c>
+      <c r="L270" t="s">
+        <v>5430</v>
+      </c>
+      <c r="M270">
+        <v>999</v>
+      </c>
+      <c r="N270" t="s">
+        <v>551</v>
+      </c>
+      <c r="O270" t="s">
+        <v>5199</v>
+      </c>
+      <c r="P270" t="s">
+        <v>5431</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R270">
+        <v>999</v>
+      </c>
+      <c r="S270">
+        <v>999</v>
+      </c>
+      <c r="T270" t="s">
+        <v>245</v>
+      </c>
+      <c r="U270" s="1">
+        <v>999</v>
+      </c>
+      <c r="V270" t="s">
+        <v>723</v>
+      </c>
+      <c r="W270" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="X270" s="21" t="s">
+        <v>5359</v>
+      </c>
+      <c r="Y270" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z270" s="21" t="s">
+        <v>5433</v>
+      </c>
+      <c r="AA270" s="21" t="s">
+        <v>5062</v>
+      </c>
+      <c r="AB270" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC270" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD270" s="21" t="s">
+        <v>5384</v>
+      </c>
+      <c r="AE270" s="21" t="s">
+        <v>3234</v>
+      </c>
+      <c r="AF270" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG270" s="21" t="s">
+        <v>5434</v>
+      </c>
+      <c r="AH270" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AI270" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ270" s="21" t="s">
+        <v>5435</v>
+      </c>
+      <c r="AK270" s="21" t="s">
+        <v>5436</v>
+      </c>
+      <c r="AL270" s="21" t="s">
+        <v>5437</v>
+      </c>
+      <c r="AM270" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN270" s="21" t="s">
+        <v>5438</v>
+      </c>
+      <c r="AO270" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP270" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ270" s="21" t="s">
+        <v>3873</v>
+      </c>
+      <c r="AR270" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS270" s="21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AT270" s="21" t="s">
+        <v>5439</v>
+      </c>
+      <c r="AU270" s="21" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AV270" s="21" t="s">
+        <v>5440</v>
+      </c>
+      <c r="AW270" s="21" t="s">
+        <v>5441</v>
+      </c>
+      <c r="AX